--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -185,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +200,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF6AD26A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF558CC8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -207,6 +213,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF6697CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0707F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -286,6 +298,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -785,16 +803,16 @@
       <c r="N2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="6">
         <v>8</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="7">
         <v>0</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="8">
         <v>8</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="7">
         <v>1</v>
       </c>
     </row>
@@ -841,16 +859,16 @@
       <c r="N3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="9">
         <v>53</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="10">
         <v>53</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="7">
         <v>0</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="7">
         <v>0</v>
       </c>
     </row>
@@ -897,16 +915,16 @@
       <c r="N4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="9">
         <v>90</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="11">
         <v>88</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="7">
         <v>0</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="7">
         <v>0</v>
       </c>
     </row>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -79,67 +79,67 @@
     <t>28.12.2025</t>
   </si>
   <si>
-    <t>00:38</t>
+    <t>00:37</t>
   </si>
   <si>
     <t>05:49</t>
   </si>
   <si>
-    <t>05:37</t>
+    <t>05:36</t>
   </si>
   <si>
     <t>09:02</t>
   </si>
   <si>
-    <t>10:42</t>
-  </si>
-  <si>
-    <t>10:35</t>
-  </si>
-  <si>
-    <t>05:48:39</t>
-  </si>
-  <si>
-    <t>06:15:39</t>
-  </si>
-  <si>
-    <t>05:40:50</t>
-  </si>
-  <si>
-    <t>05:52:50</t>
-  </si>
-  <si>
-    <t>06:18:05</t>
-  </si>
-  <si>
-    <t>05:43:19</t>
-  </si>
-  <si>
-    <t>05:53:09</t>
-  </si>
-  <si>
-    <t>06:21:00</t>
-  </si>
-  <si>
-    <t>05:46:07</t>
-  </si>
-  <si>
-    <t>05:53:28</t>
-  </si>
-  <si>
-    <t>06:23:54</t>
-  </si>
-  <si>
-    <t>05:48:56</t>
-  </si>
-  <si>
-    <t>05:57:41</t>
-  </si>
-  <si>
-    <t>06:26:21</t>
-  </si>
-  <si>
-    <t>05:51:25</t>
+    <t>10:43</t>
+  </si>
+  <si>
+    <t>10:36</t>
+  </si>
+  <si>
+    <t>05:48:36</t>
+  </si>
+  <si>
+    <t>06:15:33</t>
+  </si>
+  <si>
+    <t>05:40:42</t>
+  </si>
+  <si>
+    <t>05:52:49</t>
+  </si>
+  <si>
+    <t>06:18:00</t>
+  </si>
+  <si>
+    <t>05:43:12</t>
+  </si>
+  <si>
+    <t>05:53:07</t>
+  </si>
+  <si>
+    <t>06:20:54</t>
+  </si>
+  <si>
+    <t>05:45:59</t>
+  </si>
+  <si>
+    <t>05:53:26</t>
+  </si>
+  <si>
+    <t>06:23:49</t>
+  </si>
+  <si>
+    <t>05:48:48</t>
+  </si>
+  <si>
+    <t>05:57:38</t>
+  </si>
+  <si>
+    <t>06:26:16</t>
+  </si>
+  <si>
+    <t>05:51:18</t>
   </si>
   <si>
     <t>-</t>
@@ -185,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,19 +212,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6697CD"/>
+        <fgColor rgb="FF5E92CB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF0707F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB2CBE6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -301,9 +295,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -804,16 +795,16 @@
         <v>44</v>
       </c>
       <c r="O2" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P2" s="7">
         <v>0</v>
       </c>
       <c r="Q2" s="8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R2" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -859,11 +850,11 @@
       <c r="N3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="9">
-        <v>53</v>
-      </c>
-      <c r="P3" s="10">
-        <v>53</v>
+      <c r="O3" s="6">
+        <v>3</v>
+      </c>
+      <c r="P3" s="8">
+        <v>3</v>
       </c>
       <c r="Q3" s="7">
         <v>0</v>
@@ -918,7 +909,7 @@
       <c r="O4" s="9">
         <v>90</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="10">
         <v>88</v>
       </c>
       <c r="Q4" s="7">

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>Datum</t>
   </si>
@@ -79,6 +79,9 @@
     <t>28.12.2025</t>
   </si>
   <si>
+    <t>29.12.2025</t>
+  </si>
+  <si>
     <t>00:37</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>05:36</t>
   </si>
   <si>
+    <t>05:21</t>
+  </si>
+  <si>
     <t>09:02</t>
   </si>
   <si>
@@ -97,6 +103,9 @@
     <t>10:36</t>
   </si>
   <si>
+    <t>10:27</t>
+  </si>
+  <si>
     <t>05:48:36</t>
   </si>
   <si>
@@ -106,6 +115,9 @@
     <t>05:40:42</t>
   </si>
   <si>
+    <t>05:05:49</t>
+  </si>
+  <si>
     <t>05:52:49</t>
   </si>
   <si>
@@ -115,6 +127,9 @@
     <t>05:43:12</t>
   </si>
   <si>
+    <t>05:08:22</t>
+  </si>
+  <si>
     <t>05:53:07</t>
   </si>
   <si>
@@ -124,6 +139,9 @@
     <t>05:45:59</t>
   </si>
   <si>
+    <t>05:11:02</t>
+  </si>
+  <si>
     <t>05:53:26</t>
   </si>
   <si>
@@ -133,6 +151,9 @@
     <t>05:48:48</t>
   </si>
   <si>
+    <t>05:13:43</t>
+  </si>
+  <si>
     <t>05:57:38</t>
   </si>
   <si>
@@ -142,16 +163,31 @@
     <t>05:51:18</t>
   </si>
   <si>
+    <t>05:16:16</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
+    <t>7°</t>
+  </si>
+  <si>
+    <t>05:07:45</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -185,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,7 +248,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5E92CB"/>
+        <fgColor rgb="FFF0B070"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80A9D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6697CD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,6 +273,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEF3F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90B4DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -295,6 +349,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -672,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -759,49 +822,49 @@
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="L2" s="4">
         <v>-10.6</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="O2" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P2" s="7">
         <v>0</v>
       </c>
-      <c r="Q2" s="8">
-        <v>4</v>
+      <c r="Q2" s="7">
+        <v>0</v>
       </c>
       <c r="R2" s="7">
         <v>0</v>
@@ -815,49 +878,49 @@
         <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="L3" s="4">
         <v>-6.8</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="6">
-        <v>3</v>
-      </c>
-      <c r="P3" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="O3" s="8">
+        <v>25</v>
+      </c>
+      <c r="P3" s="9">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>11</v>
       </c>
       <c r="R3" s="7">
         <v>0</v>
@@ -871,46 +934,46 @@
         <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="L4" s="4">
         <v>-11.8</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="9">
-        <v>90</v>
-      </c>
-      <c r="P4" s="10">
-        <v>88</v>
+        <v>56</v>
+      </c>
+      <c r="O4" s="11">
+        <v>94</v>
+      </c>
+      <c r="P4" s="12">
+        <v>92</v>
       </c>
       <c r="Q4" s="7">
         <v>0</v>
@@ -919,8 +982,64 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="4">
+        <v>-17.2</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="8">
+        <v>33</v>
+      </c>
+      <c r="P5" s="13">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>1</v>
+      </c>
+      <c r="R5" s="7">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L4">
+  <conditionalFormatting sqref="L2:L5">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -936,7 +1055,7 @@
       <formula>-6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N4">
+  <conditionalFormatting sqref="N2:N5">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
   <si>
     <t>Datum</t>
   </si>
@@ -82,6 +82,9 @@
     <t>29.12.2025</t>
   </si>
   <si>
+    <t>30.12.2025</t>
+  </si>
+  <si>
     <t>00:37</t>
   </si>
   <si>
@@ -94,6 +97,12 @@
     <t>05:21</t>
   </si>
   <si>
+    <t>05:03</t>
+  </si>
+  <si>
+    <t>06:33</t>
+  </si>
+  <si>
     <t>09:02</t>
   </si>
   <si>
@@ -106,6 +115,12 @@
     <t>10:27</t>
   </si>
   <si>
+    <t>10:19</t>
+  </si>
+  <si>
+    <t>11:07</t>
+  </si>
+  <si>
     <t>05:48:36</t>
   </si>
   <si>
@@ -118,6 +133,12 @@
     <t>05:05:49</t>
   </si>
   <si>
+    <t>04:30:53</t>
+  </si>
+  <si>
+    <t>06:08:08</t>
+  </si>
+  <si>
     <t>05:52:49</t>
   </si>
   <si>
@@ -130,6 +151,12 @@
     <t>05:08:22</t>
   </si>
   <si>
+    <t>04:33:31</t>
+  </si>
+  <si>
+    <t>06:10:25</t>
+  </si>
+  <si>
     <t>05:53:07</t>
   </si>
   <si>
@@ -142,6 +169,12 @@
     <t>05:11:02</t>
   </si>
   <si>
+    <t>04:36:02</t>
+  </si>
+  <si>
+    <t>06:13:41</t>
+  </si>
+  <si>
     <t>05:53:26</t>
   </si>
   <si>
@@ -154,6 +187,12 @@
     <t>05:13:43</t>
   </si>
   <si>
+    <t>04:38:34</t>
+  </si>
+  <si>
+    <t>06:16:58</t>
+  </si>
+  <si>
     <t>05:57:38</t>
   </si>
   <si>
@@ -166,19 +205,40 @@
     <t>05:16:16</t>
   </si>
   <si>
+    <t>04:41:12</t>
+  </si>
+  <si>
+    <t>06:19:15</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
     <t>7°</t>
   </si>
   <si>
+    <t>15°</t>
+  </si>
+  <si>
+    <t>2°</t>
+  </si>
+  <si>
     <t>05:07:45</t>
   </si>
   <si>
+    <t>04:34:45</t>
+  </si>
+  <si>
+    <t>06:08:33</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>A+B</t>
   </si>
   <si>
     <t>4</t>
@@ -221,7 +281,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,7 +308,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0B070"/>
+        <fgColor rgb="FFF0707F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D7EC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,25 +326,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6697CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0707F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF3F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF90B4DB"/>
+        <fgColor rgb="FFE6EEF7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,12 +400,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -822,40 +864,40 @@
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="L2" s="4">
         <v>-10.6</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="O2" s="6">
         <v>0</v>
@@ -878,52 +920,52 @@
         <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="L3" s="4">
         <v>-6.8</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="O3" s="8">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="P3" s="9">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>11</v>
-      </c>
-      <c r="R3" s="7">
+        <v>66</v>
+      </c>
+      <c r="Q3" s="7">
         <v>0</v>
+      </c>
+      <c r="R3" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -934,46 +976,46 @@
         <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="L4" s="4">
         <v>-11.8</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" s="11">
-        <v>94</v>
-      </c>
-      <c r="P4" s="12">
-        <v>92</v>
+        <v>76</v>
+      </c>
+      <c r="O4" s="8">
+        <v>67</v>
+      </c>
+      <c r="P4" s="9">
+        <v>65</v>
       </c>
       <c r="Q4" s="7">
         <v>0</v>
@@ -990,56 +1032,144 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="L5" s="4">
         <v>-17.2</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" s="8">
+        <v>84</v>
+      </c>
+      <c r="P5" s="11">
+        <v>84</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="8">
-        <v>33</v>
-      </c>
-      <c r="P5" s="13">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>1</v>
-      </c>
-      <c r="R5" s="7">
-        <v>2</v>
+      <c r="I6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="4">
+        <v>-22.5</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="4">
+        <v>-8</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L5">
+  <conditionalFormatting sqref="L2:L7">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -1055,7 +1185,7 @@
       <formula>-6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N5">
+  <conditionalFormatting sqref="N2:N7">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -85,7 +85,7 @@
     <t>30.12.2025</t>
   </si>
   <si>
-    <t>00:37</t>
+    <t>00:39</t>
   </si>
   <si>
     <t>05:49</t>
@@ -94,10 +94,10 @@
     <t>05:36</t>
   </si>
   <si>
-    <t>05:21</t>
-  </si>
-  <si>
-    <t>05:03</t>
+    <t>05:22</t>
+  </si>
+  <si>
+    <t>05:04</t>
   </si>
   <si>
     <t>06:33</t>
@@ -106,109 +106,109 @@
     <t>09:02</t>
   </si>
   <si>
-    <t>10:43</t>
+    <t>10:42</t>
   </si>
   <si>
     <t>10:36</t>
   </si>
   <si>
-    <t>10:27</t>
+    <t>10:28</t>
   </si>
   <si>
     <t>10:19</t>
   </si>
   <si>
-    <t>11:07</t>
-  </si>
-  <si>
-    <t>05:48:36</t>
-  </si>
-  <si>
-    <t>06:15:33</t>
-  </si>
-  <si>
-    <t>05:40:42</t>
-  </si>
-  <si>
-    <t>05:05:49</t>
-  </si>
-  <si>
-    <t>04:30:53</t>
-  </si>
-  <si>
-    <t>06:08:08</t>
-  </si>
-  <si>
-    <t>05:52:49</t>
-  </si>
-  <si>
-    <t>06:18:00</t>
-  </si>
-  <si>
-    <t>05:43:12</t>
-  </si>
-  <si>
-    <t>05:08:22</t>
-  </si>
-  <si>
-    <t>04:33:31</t>
-  </si>
-  <si>
-    <t>06:10:25</t>
-  </si>
-  <si>
-    <t>05:53:07</t>
-  </si>
-  <si>
-    <t>06:20:54</t>
-  </si>
-  <si>
-    <t>05:45:59</t>
-  </si>
-  <si>
-    <t>05:11:02</t>
-  </si>
-  <si>
-    <t>04:36:02</t>
-  </si>
-  <si>
-    <t>06:13:41</t>
-  </si>
-  <si>
-    <t>05:53:26</t>
-  </si>
-  <si>
-    <t>06:23:49</t>
-  </si>
-  <si>
-    <t>05:48:48</t>
-  </si>
-  <si>
-    <t>05:13:43</t>
-  </si>
-  <si>
-    <t>04:38:34</t>
-  </si>
-  <si>
-    <t>06:16:58</t>
-  </si>
-  <si>
-    <t>05:57:38</t>
-  </si>
-  <si>
-    <t>06:26:16</t>
-  </si>
-  <si>
-    <t>05:51:18</t>
-  </si>
-  <si>
-    <t>05:16:16</t>
-  </si>
-  <si>
-    <t>04:41:12</t>
-  </si>
-  <si>
-    <t>06:19:15</t>
+    <t>11:08</t>
+  </si>
+  <si>
+    <t>05:48:37</t>
+  </si>
+  <si>
+    <t>06:15:35</t>
+  </si>
+  <si>
+    <t>05:40:44</t>
+  </si>
+  <si>
+    <t>05:05:52</t>
+  </si>
+  <si>
+    <t>04:30:58</t>
+  </si>
+  <si>
+    <t>06:08:12</t>
+  </si>
+  <si>
+    <t>05:52:48</t>
+  </si>
+  <si>
+    <t>06:18:01</t>
+  </si>
+  <si>
+    <t>05:43:14</t>
+  </si>
+  <si>
+    <t>05:08:25</t>
+  </si>
+  <si>
+    <t>04:33:35</t>
+  </si>
+  <si>
+    <t>06:10:30</t>
+  </si>
+  <si>
+    <t>05:53:08</t>
+  </si>
+  <si>
+    <t>06:20:56</t>
+  </si>
+  <si>
+    <t>05:46:02</t>
+  </si>
+  <si>
+    <t>05:11:05</t>
+  </si>
+  <si>
+    <t>04:36:07</t>
+  </si>
+  <si>
+    <t>06:13:46</t>
+  </si>
+  <si>
+    <t>05:53:27</t>
+  </si>
+  <si>
+    <t>06:23:50</t>
+  </si>
+  <si>
+    <t>05:48:50</t>
+  </si>
+  <si>
+    <t>05:13:47</t>
+  </si>
+  <si>
+    <t>04:38:39</t>
+  </si>
+  <si>
+    <t>06:17:03</t>
+  </si>
+  <si>
+    <t>05:57:39</t>
+  </si>
+  <si>
+    <t>06:26:17</t>
+  </si>
+  <si>
+    <t>05:51:20</t>
+  </si>
+  <si>
+    <t>05:16:20</t>
+  </si>
+  <si>
+    <t>04:41:17</t>
+  </si>
+  <si>
+    <t>06:19:20</t>
   </si>
   <si>
     <t>-</t>
@@ -223,13 +223,13 @@
     <t>2°</t>
   </si>
   <si>
-    <t>05:07:45</t>
-  </si>
-  <si>
-    <t>04:34:45</t>
-  </si>
-  <si>
-    <t>06:08:33</t>
+    <t>05:07:48</t>
+  </si>
+  <si>
+    <t>04:34:49</t>
+  </si>
+  <si>
+    <t>06:08:37</t>
   </si>
   <si>
     <t>A</t>
@@ -281,7 +281,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +302,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF5E92CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF558CC8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -314,19 +320,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC4D7EC"/>
+        <fgColor rgb="FFA2C0E1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF80A9D6"/>
+        <fgColor rgb="FFD4E2F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6EEF7"/>
+        <fgColor rgb="FFAAC5E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88AED8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99BADE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6697CD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -400,6 +424,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -900,15 +936,15 @@
         <v>75</v>
       </c>
       <c r="O2" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>0</v>
-      </c>
-      <c r="R2" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>1</v>
+      </c>
+      <c r="R2" s="8">
         <v>0</v>
       </c>
     </row>
@@ -955,17 +991,17 @@
       <c r="N3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="8">
-        <v>94</v>
-      </c>
-      <c r="P3" s="9">
-        <v>66</v>
-      </c>
-      <c r="Q3" s="7">
+      <c r="O3" s="9">
+        <v>51</v>
+      </c>
+      <c r="P3" s="10">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="8">
         <v>0</v>
       </c>
-      <c r="R3" s="10">
-        <v>26</v>
+      <c r="R3" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1011,16 +1047,16 @@
       <c r="N4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="O4" s="8">
-        <v>67</v>
-      </c>
-      <c r="P4" s="9">
-        <v>65</v>
-      </c>
-      <c r="Q4" s="7">
+      <c r="O4" s="9">
+        <v>76</v>
+      </c>
+      <c r="P4" s="11">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="8">
         <v>0</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1067,17 +1103,17 @@
       <c r="N5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O5" s="8">
-        <v>84</v>
-      </c>
-      <c r="P5" s="11">
-        <v>84</v>
-      </c>
-      <c r="Q5" s="7">
+      <c r="O5" s="9">
+        <v>50</v>
+      </c>
+      <c r="P5" s="12">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="8">
         <v>0</v>
       </c>
-      <c r="R5" s="7">
-        <v>0</v>
+      <c r="R5" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1123,6 +1159,18 @@
       <c r="N6" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="O6" s="9">
+        <v>49</v>
+      </c>
+      <c r="P6" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>3</v>
+      </c>
+      <c r="R6" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
@@ -1166,6 +1214,18 @@
       </c>
       <c r="N7" s="1" t="s">
         <v>77</v>
+      </c>
+      <c r="O7" s="9">
+        <v>69</v>
+      </c>
+      <c r="P7" s="14">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>9</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="97">
   <si>
     <t>Datum</t>
   </si>
@@ -85,6 +85,9 @@
     <t>30.12.2025</t>
   </si>
   <si>
+    <t>31.12.2025</t>
+  </si>
+  <si>
     <t>00:39</t>
   </si>
   <si>
@@ -103,6 +106,12 @@
     <t>06:33</t>
   </si>
   <si>
+    <t>04:41</t>
+  </si>
+  <si>
+    <t>06:31</t>
+  </si>
+  <si>
     <t>09:02</t>
   </si>
   <si>
@@ -121,6 +130,12 @@
     <t>11:08</t>
   </si>
   <si>
+    <t>10:08</t>
+  </si>
+  <si>
+    <t>11:06</t>
+  </si>
+  <si>
     <t>05:48:37</t>
   </si>
   <si>
@@ -139,6 +154,12 @@
     <t>06:08:12</t>
   </si>
   <si>
+    <t>03:56:02</t>
+  </si>
+  <si>
+    <t>05:33:10</t>
+  </si>
+  <si>
     <t>05:52:48</t>
   </si>
   <si>
@@ -157,6 +178,12 @@
     <t>06:10:30</t>
   </si>
   <si>
+    <t>03:58:45</t>
+  </si>
+  <si>
+    <t>05:35:27</t>
+  </si>
+  <si>
     <t>05:53:08</t>
   </si>
   <si>
@@ -175,6 +202,12 @@
     <t>06:13:46</t>
   </si>
   <si>
+    <t>04:01:05</t>
+  </si>
+  <si>
+    <t>05:38:43</t>
+  </si>
+  <si>
     <t>05:53:27</t>
   </si>
   <si>
@@ -193,6 +226,12 @@
     <t>06:17:03</t>
   </si>
   <si>
+    <t>04:03:26</t>
+  </si>
+  <si>
+    <t>05:41:58</t>
+  </si>
+  <si>
     <t>05:57:39</t>
   </si>
   <si>
@@ -211,6 +250,12 @@
     <t>06:19:20</t>
   </si>
   <si>
+    <t>04:06:10</t>
+  </si>
+  <si>
+    <t>05:44:16</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -223,6 +268,12 @@
     <t>2°</t>
   </si>
   <si>
+    <t>16°</t>
+  </si>
+  <si>
+    <t>10°</t>
+  </si>
+  <si>
     <t>05:07:48</t>
   </si>
   <si>
@@ -230,6 +281,12 @@
   </si>
   <si>
     <t>06:08:37</t>
+  </si>
+  <si>
+    <t>04:01:39</t>
+  </si>
+  <si>
+    <t>05:35:26</t>
   </si>
   <si>
     <t>A</t>
@@ -281,7 +338,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,13 +359,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5E92CB"/>
+        <fgColor rgb="FF558CC8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF558CC8"/>
+        <fgColor rgb="FFF0B070"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6697CD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,37 +383,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA2C0E1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4E2F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFAAC5E3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF88AED8"/>
+        <fgColor rgb="FFBBD1E9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99BADE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6697CD"/>
+        <fgColor rgb="FFA2C0E1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -430,12 +475,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -813,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -900,51 +939,51 @@
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="L2" s="4">
         <v>-10.6</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="O2" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P2" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="7">
         <v>1</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="7">
         <v>0</v>
       </c>
     </row>
@@ -956,51 +995,51 @@
         <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="L3" s="4">
         <v>-6.8</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O3" s="9">
-        <v>51</v>
-      </c>
-      <c r="P3" s="10">
-        <v>47</v>
-      </c>
-      <c r="Q3" s="8">
+        <v>95</v>
+      </c>
+      <c r="O3" s="8">
+        <v>11</v>
+      </c>
+      <c r="P3" s="9">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="7">
         <v>0</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R3" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1012,51 +1051,51 @@
         <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="L4" s="4">
         <v>-11.8</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O4" s="9">
-        <v>76</v>
+        <v>95</v>
+      </c>
+      <c r="O4" s="10">
+        <v>57</v>
       </c>
       <c r="P4" s="11">
-        <v>76</v>
-      </c>
-      <c r="Q4" s="8">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="7">
         <v>0</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1068,52 +1107,52 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="L5" s="4">
         <v>-17.2</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" s="9">
-        <v>50</v>
+        <v>96</v>
+      </c>
+      <c r="O5" s="10">
+        <v>76</v>
       </c>
       <c r="P5" s="12">
-        <v>49</v>
-      </c>
-      <c r="Q5" s="8">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="7">
         <v>0</v>
       </c>
-      <c r="R5" s="8">
-        <v>1</v>
+      <c r="R5" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1124,51 +1163,51 @@
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="L6" s="4">
         <v>-22.5</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O6" s="9">
-        <v>49</v>
-      </c>
-      <c r="P6" s="13">
-        <v>30</v>
+        <v>95</v>
+      </c>
+      <c r="O6" s="10">
+        <v>68</v>
+      </c>
+      <c r="P6" s="12">
+        <v>59</v>
       </c>
       <c r="Q6" s="7">
-        <v>3</v>
-      </c>
-      <c r="R6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1180,56 +1219,144 @@
         <v>32</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="L7" s="4">
         <v>-8</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O7" s="9">
-        <v>69</v>
-      </c>
-      <c r="P7" s="14">
-        <v>41</v>
-      </c>
-      <c r="Q7" s="15">
-        <v>9</v>
-      </c>
-      <c r="R7" s="8">
+        <v>96</v>
+      </c>
+      <c r="O7" s="10">
+        <v>61</v>
+      </c>
+      <c r="P7" s="13">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="7">
         <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="4">
+        <v>-28</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="4">
+        <v>-13</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L7">
+  <conditionalFormatting sqref="L2:L9">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -1245,7 +1372,7 @@
       <formula>-6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N7">
+  <conditionalFormatting sqref="N2:N9">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="107">
   <si>
     <t>Datum</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>25.12.2025</t>
-  </si>
-  <si>
     <t>27.12.2025</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>31.12.2025</t>
   </si>
   <si>
-    <t>00:39</t>
+    <t>01.01.2026</t>
   </si>
   <si>
     <t>05:49</t>
@@ -100,10 +97,10 @@
     <t>05:22</t>
   </si>
   <si>
-    <t>05:04</t>
-  </si>
-  <si>
-    <t>06:33</t>
+    <t>05:03</t>
+  </si>
+  <si>
+    <t>06:34</t>
   </si>
   <si>
     <t>04:41</t>
@@ -112,10 +109,13 @@
     <t>06:31</t>
   </si>
   <si>
-    <t>09:02</t>
-  </si>
-  <si>
-    <t>10:42</t>
+    <t>04:13</t>
+  </si>
+  <si>
+    <t>06:28</t>
+  </si>
+  <si>
+    <t>10:43</t>
   </si>
   <si>
     <t>10:36</t>
@@ -124,7 +124,7 @@
     <t>10:28</t>
   </si>
   <si>
-    <t>10:19</t>
+    <t>10:18</t>
   </si>
   <si>
     <t>11:08</t>
@@ -136,124 +136,145 @@
     <t>11:06</t>
   </si>
   <si>
-    <t>05:48:37</t>
-  </si>
-  <si>
-    <t>06:15:35</t>
-  </si>
-  <si>
-    <t>05:40:44</t>
-  </si>
-  <si>
-    <t>05:05:52</t>
-  </si>
-  <si>
-    <t>04:30:58</t>
-  </si>
-  <si>
-    <t>06:08:12</t>
-  </si>
-  <si>
-    <t>03:56:02</t>
-  </si>
-  <si>
-    <t>05:33:10</t>
-  </si>
-  <si>
-    <t>05:52:48</t>
-  </si>
-  <si>
-    <t>06:18:01</t>
-  </si>
-  <si>
-    <t>05:43:14</t>
-  </si>
-  <si>
-    <t>05:08:25</t>
-  </si>
-  <si>
-    <t>04:33:35</t>
-  </si>
-  <si>
-    <t>06:10:30</t>
-  </si>
-  <si>
-    <t>03:58:45</t>
-  </si>
-  <si>
-    <t>05:35:27</t>
-  </si>
-  <si>
-    <t>05:53:08</t>
-  </si>
-  <si>
-    <t>06:20:56</t>
-  </si>
-  <si>
-    <t>05:46:02</t>
-  </si>
-  <si>
-    <t>05:11:05</t>
-  </si>
-  <si>
-    <t>04:36:07</t>
-  </si>
-  <si>
-    <t>06:13:46</t>
-  </si>
-  <si>
-    <t>04:01:05</t>
-  </si>
-  <si>
-    <t>05:38:43</t>
-  </si>
-  <si>
-    <t>05:53:27</t>
-  </si>
-  <si>
-    <t>06:23:50</t>
-  </si>
-  <si>
-    <t>05:48:50</t>
-  </si>
-  <si>
-    <t>05:13:47</t>
-  </si>
-  <si>
-    <t>04:38:39</t>
-  </si>
-  <si>
-    <t>06:17:03</t>
-  </si>
-  <si>
-    <t>04:03:26</t>
-  </si>
-  <si>
-    <t>05:41:58</t>
-  </si>
-  <si>
-    <t>05:57:39</t>
-  </si>
-  <si>
-    <t>06:26:17</t>
-  </si>
-  <si>
-    <t>05:51:20</t>
-  </si>
-  <si>
-    <t>05:16:20</t>
-  </si>
-  <si>
-    <t>04:41:17</t>
-  </si>
-  <si>
-    <t>06:19:20</t>
-  </si>
-  <si>
-    <t>04:06:10</t>
-  </si>
-  <si>
-    <t>05:44:16</t>
+    <t>09:55</t>
+  </si>
+  <si>
+    <t>11:04</t>
+  </si>
+  <si>
+    <t>06:15:31</t>
+  </si>
+  <si>
+    <t>05:40:39</t>
+  </si>
+  <si>
+    <t>05:05:45</t>
+  </si>
+  <si>
+    <t>04:30:49</t>
+  </si>
+  <si>
+    <t>06:08:03</t>
+  </si>
+  <si>
+    <t>03:55:50</t>
+  </si>
+  <si>
+    <t>05:32:58</t>
+  </si>
+  <si>
+    <t>03:20:50</t>
+  </si>
+  <si>
+    <t>04:57:50</t>
+  </si>
+  <si>
+    <t>06:17:58</t>
+  </si>
+  <si>
+    <t>05:43:09</t>
+  </si>
+  <si>
+    <t>05:08:18</t>
+  </si>
+  <si>
+    <t>04:33:26</t>
+  </si>
+  <si>
+    <t>06:10:20</t>
+  </si>
+  <si>
+    <t>03:58:33</t>
+  </si>
+  <si>
+    <t>05:35:15</t>
+  </si>
+  <si>
+    <t>03:23:41</t>
+  </si>
+  <si>
+    <t>05:00:08</t>
+  </si>
+  <si>
+    <t>06:20:52</t>
+  </si>
+  <si>
+    <t>05:45:56</t>
+  </si>
+  <si>
+    <t>05:10:58</t>
+  </si>
+  <si>
+    <t>04:35:57</t>
+  </si>
+  <si>
+    <t>06:13:37</t>
+  </si>
+  <si>
+    <t>04:00:53</t>
+  </si>
+  <si>
+    <t>05:38:31</t>
+  </si>
+  <si>
+    <t>03:25:47</t>
+  </si>
+  <si>
+    <t>05:03:22</t>
+  </si>
+  <si>
+    <t>06:23:47</t>
+  </si>
+  <si>
+    <t>05:48:45</t>
+  </si>
+  <si>
+    <t>05:13:40</t>
+  </si>
+  <si>
+    <t>04:38:29</t>
+  </si>
+  <si>
+    <t>06:16:54</t>
+  </si>
+  <si>
+    <t>04:03:14</t>
+  </si>
+  <si>
+    <t>05:41:46</t>
+  </si>
+  <si>
+    <t>03:27:54</t>
+  </si>
+  <si>
+    <t>05:06:36</t>
+  </si>
+  <si>
+    <t>06:26:14</t>
+  </si>
+  <si>
+    <t>05:51:15</t>
+  </si>
+  <si>
+    <t>05:16:13</t>
+  </si>
+  <si>
+    <t>04:41:07</t>
+  </si>
+  <si>
+    <t>06:19:11</t>
+  </si>
+  <si>
+    <t>04:05:58</t>
+  </si>
+  <si>
+    <t>05:44:04</t>
+  </si>
+  <si>
+    <t>03:30:45</t>
+  </si>
+  <si>
+    <t>05:08:54</t>
   </si>
   <si>
     <t>-</t>
@@ -274,19 +295,31 @@
     <t>10°</t>
   </si>
   <si>
-    <t>05:07:48</t>
-  </si>
-  <si>
-    <t>04:34:49</t>
-  </si>
-  <si>
-    <t>06:08:37</t>
-  </si>
-  <si>
-    <t>04:01:39</t>
-  </si>
-  <si>
-    <t>05:35:26</t>
+    <t>9°</t>
+  </si>
+  <si>
+    <t>22°</t>
+  </si>
+  <si>
+    <t>05:07:41</t>
+  </si>
+  <si>
+    <t>04:34:40</t>
+  </si>
+  <si>
+    <t>06:08:28</t>
+  </si>
+  <si>
+    <t>04:01:27</t>
+  </si>
+  <si>
+    <t>05:35:14</t>
+  </si>
+  <si>
+    <t>03:28:05</t>
+  </si>
+  <si>
+    <t>05:01:51</t>
   </si>
   <si>
     <t>A</t>
@@ -296,9 +329,6 @@
   </si>
   <si>
     <t>A+B</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>2</t>
@@ -338,7 +368,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,7 +389,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF5E92CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF558CC8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0707F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBD1E9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,31 +419,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6697CD"/>
+        <fgColor rgb="FF77A3D3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0707F"/>
+        <fgColor rgb="FFF6F9FC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAAC5E3"/>
+        <fgColor rgb="FF6E9DD0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBBD1E9"/>
+        <fgColor rgb="FF90B4DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA2C0E1"/>
+        <fgColor rgb="FFEEF3F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8F4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -475,6 +529,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -852,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -936,54 +1002,54 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L2" s="4">
-        <v>-10.6</v>
+        <v>-6.8</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="O2" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P2" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="8">
         <v>0</v>
       </c>
-      <c r="Q2" s="7">
-        <v>1</v>
-      </c>
-      <c r="R2" s="7">
+      <c r="R2" s="8">
         <v>0</v>
       </c>
     </row>
@@ -992,54 +1058,54 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L3" s="4">
-        <v>-6.8</v>
+        <v>-11.8</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O3" s="8">
-        <v>11</v>
-      </c>
-      <c r="P3" s="9">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="7">
+        <v>105</v>
+      </c>
+      <c r="O3" s="9">
+        <v>59</v>
+      </c>
+      <c r="P3" s="10">
+        <v>59</v>
+      </c>
+      <c r="Q3" s="8">
         <v>0</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1048,55 +1114,55 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="L4" s="4">
-        <v>-11.8</v>
+        <v>-17.2</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O4" s="10">
-        <v>57</v>
-      </c>
-      <c r="P4" s="11">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="7">
+        <v>106</v>
+      </c>
+      <c r="O4" s="11">
+        <v>21</v>
+      </c>
+      <c r="P4" s="8">
         <v>0</v>
       </c>
-      <c r="R4" s="7">
+      <c r="Q4" s="8">
         <v>0</v>
+      </c>
+      <c r="R4" s="12">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1104,110 +1170,110 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="L5" s="4">
-        <v>-17.2</v>
+        <v>-22.5</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="O5" s="10">
-        <v>76</v>
-      </c>
-      <c r="P5" s="12">
-        <v>60</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
+        <v>105</v>
+      </c>
+      <c r="O5" s="9">
+        <v>93</v>
+      </c>
+      <c r="P5" s="13">
+        <v>93</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>14</v>
+      </c>
+      <c r="R5" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L6" s="4">
-        <v>-22.5</v>
+        <v>-8</v>
       </c>
       <c r="M6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O6" s="9">
+        <v>96</v>
+      </c>
+      <c r="P6" s="13">
         <v>93</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O6" s="10">
-        <v>68</v>
-      </c>
-      <c r="P6" s="12">
-        <v>59</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0</v>
-      </c>
-      <c r="R6" s="7">
+      <c r="Q6" s="15">
+        <v>35</v>
+      </c>
+      <c r="R6" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1216,99 +1282,111 @@
         <v>22</v>
       </c>
       <c r="B7" s="2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L7" s="4">
-        <v>-8</v>
+        <v>-28.1</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="O7" s="10">
-        <v>61</v>
-      </c>
-      <c r="P7" s="13">
-        <v>47</v>
+        <v>105</v>
+      </c>
+      <c r="O7" s="9">
+        <v>91</v>
+      </c>
+      <c r="P7" s="16">
+        <v>90</v>
       </c>
       <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
+        <v>5</v>
+      </c>
+      <c r="R7" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="L8" s="4">
-        <v>-28</v>
+        <v>-13.1</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
+      </c>
+      <c r="O8" s="9">
+        <v>87</v>
+      </c>
+      <c r="P8" s="17">
+        <v>82</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>6</v>
+      </c>
+      <c r="R8" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1316,47 +1394,91 @@
         <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L9" s="4">
-        <v>-13</v>
+        <v>-33.6</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" s="4">
+        <v>-18.3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L9">
+  <conditionalFormatting sqref="L2:L10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -1372,7 +1494,7 @@
       <formula>-6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N9">
+  <conditionalFormatting sqref="N2:N10">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="133">
   <si>
     <t>Datum</t>
   </si>
@@ -88,10 +88,13 @@
     <t>01.01.2026</t>
   </si>
   <si>
-    <t>05:49</t>
-  </si>
-  <si>
-    <t>05:36</t>
+    <t>02.01.2026</t>
+  </si>
+  <si>
+    <t>05:50</t>
+  </si>
+  <si>
+    <t>05:37</t>
   </si>
   <si>
     <t>05:22</t>
@@ -115,16 +118,22 @@
     <t>06:28</t>
   </si>
   <si>
-    <t>10:43</t>
-  </si>
-  <si>
-    <t>10:36</t>
+    <t>03:38</t>
+  </si>
+  <si>
+    <t>06:22</t>
+  </si>
+  <si>
+    <t>10:44</t>
+  </si>
+  <si>
+    <t>10:37</t>
   </si>
   <si>
     <t>10:28</t>
   </si>
   <si>
-    <t>10:18</t>
+    <t>10:19</t>
   </si>
   <si>
     <t>11:08</t>
@@ -142,58 +151,82 @@
     <t>11:04</t>
   </si>
   <si>
-    <t>06:15:31</t>
-  </si>
-  <si>
-    <t>05:40:39</t>
-  </si>
-  <si>
-    <t>05:05:45</t>
-  </si>
-  <si>
-    <t>04:30:49</t>
-  </si>
-  <si>
-    <t>06:08:03</t>
-  </si>
-  <si>
-    <t>03:55:50</t>
-  </si>
-  <si>
-    <t>05:32:58</t>
-  </si>
-  <si>
-    <t>03:20:50</t>
-  </si>
-  <si>
-    <t>04:57:50</t>
-  </si>
-  <si>
-    <t>06:17:58</t>
-  </si>
-  <si>
-    <t>05:43:09</t>
-  </si>
-  <si>
-    <t>05:08:18</t>
-  </si>
-  <si>
-    <t>04:33:26</t>
-  </si>
-  <si>
-    <t>06:10:20</t>
-  </si>
-  <si>
-    <t>03:58:33</t>
-  </si>
-  <si>
-    <t>05:35:15</t>
-  </si>
-  <si>
-    <t>03:23:41</t>
-  </si>
-  <si>
-    <t>05:00:08</t>
+    <t>09:41</t>
+  </si>
+  <si>
+    <t>11:01</t>
+  </si>
+  <si>
+    <t>06:15:30</t>
+  </si>
+  <si>
+    <t>05:40:38</t>
+  </si>
+  <si>
+    <t>05:05:44</t>
+  </si>
+  <si>
+    <t>04:30:47</t>
+  </si>
+  <si>
+    <t>06:08:02</t>
+  </si>
+  <si>
+    <t>03:55:49</t>
+  </si>
+  <si>
+    <t>05:32:57</t>
+  </si>
+  <si>
+    <t>03:20:49</t>
+  </si>
+  <si>
+    <t>04:57:49</t>
+  </si>
+  <si>
+    <t>02:45:47</t>
+  </si>
+  <si>
+    <t>04:22:39</t>
+  </si>
+  <si>
+    <t>06:00:22</t>
+  </si>
+  <si>
+    <t>06:17:57</t>
+  </si>
+  <si>
+    <t>05:43:08</t>
+  </si>
+  <si>
+    <t>05:08:17</t>
+  </si>
+  <si>
+    <t>04:33:25</t>
+  </si>
+  <si>
+    <t>06:10:19</t>
+  </si>
+  <si>
+    <t>03:58:32</t>
+  </si>
+  <si>
+    <t>05:35:14</t>
+  </si>
+  <si>
+    <t>03:23:40</t>
+  </si>
+  <si>
+    <t>05:00:07</t>
+  </si>
+  <si>
+    <t>02:48:48</t>
+  </si>
+  <si>
+    <t>04:24:58</t>
+  </si>
+  <si>
+    <t>06:02:40</t>
   </si>
   <si>
     <t>06:20:52</t>
@@ -202,25 +235,34 @@
     <t>05:45:56</t>
   </si>
   <si>
-    <t>05:10:58</t>
-  </si>
-  <si>
-    <t>04:35:57</t>
-  </si>
-  <si>
-    <t>06:13:37</t>
-  </si>
-  <si>
-    <t>04:00:53</t>
-  </si>
-  <si>
-    <t>05:38:31</t>
-  </si>
-  <si>
-    <t>03:25:47</t>
-  </si>
-  <si>
-    <t>05:03:22</t>
+    <t>05:10:57</t>
+  </si>
+  <si>
+    <t>04:35:56</t>
+  </si>
+  <si>
+    <t>06:13:36</t>
+  </si>
+  <si>
+    <t>04:00:52</t>
+  </si>
+  <si>
+    <t>05:38:30</t>
+  </si>
+  <si>
+    <t>03:25:46</t>
+  </si>
+  <si>
+    <t>05:03:21</t>
+  </si>
+  <si>
+    <t>02:50:37</t>
+  </si>
+  <si>
+    <t>04:28:09</t>
+  </si>
+  <si>
+    <t>06:05:55</t>
   </si>
   <si>
     <t>06:23:47</t>
@@ -229,25 +271,34 @@
     <t>05:48:45</t>
   </si>
   <si>
-    <t>05:13:40</t>
-  </si>
-  <si>
-    <t>04:38:29</t>
-  </si>
-  <si>
-    <t>06:16:54</t>
-  </si>
-  <si>
-    <t>04:03:14</t>
-  </si>
-  <si>
-    <t>05:41:46</t>
-  </si>
-  <si>
-    <t>03:27:54</t>
-  </si>
-  <si>
-    <t>05:06:36</t>
+    <t>05:13:39</t>
+  </si>
+  <si>
+    <t>04:38:28</t>
+  </si>
+  <si>
+    <t>06:16:53</t>
+  </si>
+  <si>
+    <t>04:03:13</t>
+  </si>
+  <si>
+    <t>05:41:45</t>
+  </si>
+  <si>
+    <t>03:27:53</t>
+  </si>
+  <si>
+    <t>05:06:35</t>
+  </si>
+  <si>
+    <t>02:52:26</t>
+  </si>
+  <si>
+    <t>04:31:20</t>
+  </si>
+  <si>
+    <t>06:09:11</t>
   </si>
   <si>
     <t>06:26:14</t>
@@ -256,25 +307,34 @@
     <t>05:51:15</t>
   </si>
   <si>
-    <t>05:16:13</t>
-  </si>
-  <si>
-    <t>04:41:07</t>
-  </si>
-  <si>
-    <t>06:19:11</t>
-  </si>
-  <si>
-    <t>04:05:58</t>
-  </si>
-  <si>
-    <t>05:44:04</t>
-  </si>
-  <si>
-    <t>03:30:45</t>
-  </si>
-  <si>
-    <t>05:08:54</t>
+    <t>05:16:12</t>
+  </si>
+  <si>
+    <t>04:41:06</t>
+  </si>
+  <si>
+    <t>06:19:10</t>
+  </si>
+  <si>
+    <t>04:05:57</t>
+  </si>
+  <si>
+    <t>05:44:03</t>
+  </si>
+  <si>
+    <t>03:30:44</t>
+  </si>
+  <si>
+    <t>05:08:53</t>
+  </si>
+  <si>
+    <t>02:55:28</t>
+  </si>
+  <si>
+    <t>04:33:40</t>
+  </si>
+  <si>
+    <t>06:11:28</t>
   </si>
   <si>
     <t>-</t>
@@ -301,25 +361,40 @@
     <t>22°</t>
   </si>
   <si>
-    <t>05:07:41</t>
-  </si>
-  <si>
-    <t>04:34:40</t>
-  </si>
-  <si>
-    <t>06:08:28</t>
-  </si>
-  <si>
-    <t>04:01:27</t>
-  </si>
-  <si>
-    <t>05:35:14</t>
-  </si>
-  <si>
-    <t>03:28:05</t>
-  </si>
-  <si>
-    <t>05:01:51</t>
+    <t>3°</t>
+  </si>
+  <si>
+    <t>29°</t>
+  </si>
+  <si>
+    <t>05:07:40</t>
+  </si>
+  <si>
+    <t>04:34:39</t>
+  </si>
+  <si>
+    <t>06:08:27</t>
+  </si>
+  <si>
+    <t>04:01:26</t>
+  </si>
+  <si>
+    <t>05:35:13</t>
+  </si>
+  <si>
+    <t>03:28:04</t>
+  </si>
+  <si>
+    <t>05:01:50</t>
+  </si>
+  <si>
+    <t>02:54:33</t>
+  </si>
+  <si>
+    <t>04:28:19</t>
+  </si>
+  <si>
+    <t>06:02:04</t>
   </si>
   <si>
     <t>A</t>
@@ -335,6 +410,9 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -368,7 +446,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,25 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5E92CB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF558CC8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0707F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBD1E9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,31 +485,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF6697CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0707F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF6F9FC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6E9DD0"/>
+        <fgColor rgb="FF99BADE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF90B4DB"/>
+        <fgColor rgb="FFE6EEF7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEF3F9"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8F4"/>
+        <fgColor rgb="FFC4D7EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAC5E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBD1E9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -541,6 +625,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -918,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1005,51 +1092,51 @@
         <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="L2" s="4">
         <v>-6.8</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="O2" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P2" s="7">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="8">
         <v>0</v>
       </c>
-      <c r="R2" s="8">
+      <c r="Q2" s="7">
+        <v>0</v>
+      </c>
+      <c r="R2" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1061,51 +1148,51 @@
         <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="L3" s="4">
         <v>-11.8</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="O3" s="9">
-        <v>59</v>
-      </c>
-      <c r="P3" s="10">
-        <v>59</v>
-      </c>
-      <c r="Q3" s="8">
+        <v>130</v>
+      </c>
+      <c r="O3" s="8">
+        <v>23</v>
+      </c>
+      <c r="P3" s="9">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="7">
         <v>0</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R3" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1117,52 +1204,52 @@
         <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="L4" s="4">
         <v>-17.2</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O4" s="11">
-        <v>21</v>
-      </c>
-      <c r="P4" s="8">
+        <v>131</v>
+      </c>
+      <c r="O4" s="6">
+        <v>12</v>
+      </c>
+      <c r="P4" s="7">
         <v>0</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="7">
         <v>0</v>
       </c>
-      <c r="R4" s="12">
-        <v>21</v>
+      <c r="R4" s="10">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1173,51 +1260,51 @@
         <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="L5" s="4">
         <v>-22.5</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="O5" s="9">
-        <v>93</v>
-      </c>
-      <c r="P5" s="13">
-        <v>93</v>
-      </c>
-      <c r="Q5" s="14">
-        <v>14</v>
-      </c>
-      <c r="R5" s="8">
+        <v>130</v>
+      </c>
+      <c r="O5" s="11">
+        <v>95</v>
+      </c>
+      <c r="P5" s="12">
+        <v>95</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>38</v>
+      </c>
+      <c r="R5" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1229,51 +1316,51 @@
         <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="L6" s="4">
         <v>-8</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O6" s="9">
-        <v>96</v>
-      </c>
-      <c r="P6" s="13">
-        <v>93</v>
-      </c>
-      <c r="Q6" s="15">
-        <v>35</v>
-      </c>
-      <c r="R6" s="8">
+        <v>131</v>
+      </c>
+      <c r="O6" s="11">
+        <v>84</v>
+      </c>
+      <c r="P6" s="14">
+        <v>84</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1285,51 +1372,51 @@
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="L7" s="4">
         <v>-28.1</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="O7" s="9">
-        <v>91</v>
-      </c>
-      <c r="P7" s="16">
-        <v>90</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>5</v>
-      </c>
-      <c r="R7" s="8">
+        <v>130</v>
+      </c>
+      <c r="O7" s="11">
+        <v>99</v>
+      </c>
+      <c r="P7" s="15">
+        <v>99</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>66</v>
+      </c>
+      <c r="R7" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1341,51 +1428,51 @@
         <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="L8" s="4">
         <v>-13.1</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O8" s="9">
-        <v>87</v>
-      </c>
-      <c r="P8" s="17">
-        <v>82</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>6</v>
-      </c>
-      <c r="R8" s="8">
+        <v>131</v>
+      </c>
+      <c r="O8" s="11">
+        <v>98</v>
+      </c>
+      <c r="P8" s="12">
+        <v>97</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>50</v>
+      </c>
+      <c r="R8" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1397,40 +1484,52 @@
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="L9" s="4">
         <v>-33.6</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>105</v>
+        <v>130</v>
+      </c>
+      <c r="O9" s="11">
+        <v>98</v>
+      </c>
+      <c r="P9" s="12">
+        <v>93</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>61</v>
+      </c>
+      <c r="R9" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1441,44 +1540,188 @@
         <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="L10" s="4">
         <v>-18.3</v>
       </c>
       <c r="M10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O10" s="11">
+        <v>96</v>
+      </c>
+      <c r="P10" s="12">
+        <v>95</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>64</v>
+      </c>
+      <c r="R10" s="16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="J11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" s="4">
+        <v>-39.1</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>105</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" s="4">
+        <v>-23.8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" s="4">
+        <v>-9.1</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L10">
+  <conditionalFormatting sqref="L2:L13">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -1494,7 +1737,7 @@
       <formula>-6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N10">
+  <conditionalFormatting sqref="N2:N13">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="153">
   <si>
     <t>Datum</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>27.12.2025</t>
-  </si>
-  <si>
     <t>28.12.2025</t>
   </si>
   <si>
@@ -91,7 +88,7 @@
     <t>02.01.2026</t>
   </si>
   <si>
-    <t>05:50</t>
+    <t>03.01.2026</t>
   </si>
   <si>
     <t>05:37</t>
@@ -115,226 +112,271 @@
     <t>04:13</t>
   </si>
   <si>
-    <t>06:28</t>
-  </si>
-  <si>
-    <t>03:38</t>
+    <t>06:27</t>
+  </si>
+  <si>
+    <t>03:36</t>
   </si>
   <si>
     <t>06:22</t>
   </si>
   <si>
-    <t>10:44</t>
-  </si>
-  <si>
-    <t>10:37</t>
-  </si>
-  <si>
-    <t>10:28</t>
+    <t>02:46</t>
+  </si>
+  <si>
+    <t>06:16</t>
+  </si>
+  <si>
+    <t>06:33</t>
+  </si>
+  <si>
+    <t>10:36</t>
+  </si>
+  <si>
+    <t>10:29</t>
   </si>
   <si>
     <t>10:19</t>
   </si>
   <si>
-    <t>11:08</t>
+    <t>11:09</t>
   </si>
   <si>
     <t>10:08</t>
   </si>
   <si>
+    <t>11:07</t>
+  </si>
+  <si>
+    <t>09:55</t>
+  </si>
+  <si>
+    <t>11:04</t>
+  </si>
+  <si>
+    <t>09:41</t>
+  </si>
+  <si>
+    <t>11:01</t>
+  </si>
+  <si>
     <t>11:06</t>
   </si>
   <si>
-    <t>09:55</t>
-  </si>
-  <si>
-    <t>11:04</t>
-  </si>
-  <si>
-    <t>09:41</t>
-  </si>
-  <si>
-    <t>11:01</t>
-  </si>
-  <si>
-    <t>06:15:30</t>
-  </si>
-  <si>
-    <t>05:40:38</t>
-  </si>
-  <si>
-    <t>05:05:44</t>
-  </si>
-  <si>
-    <t>04:30:47</t>
-  </si>
-  <si>
-    <t>06:08:02</t>
-  </si>
-  <si>
-    <t>03:55:49</t>
-  </si>
-  <si>
-    <t>05:32:57</t>
-  </si>
-  <si>
-    <t>03:20:49</t>
-  </si>
-  <si>
-    <t>04:57:49</t>
-  </si>
-  <si>
-    <t>02:45:47</t>
-  </si>
-  <si>
-    <t>04:22:39</t>
-  </si>
-  <si>
-    <t>06:00:22</t>
-  </si>
-  <si>
-    <t>06:17:57</t>
-  </si>
-  <si>
-    <t>05:43:08</t>
-  </si>
-  <si>
-    <t>05:08:17</t>
-  </si>
-  <si>
-    <t>04:33:25</t>
-  </si>
-  <si>
-    <t>06:10:19</t>
-  </si>
-  <si>
-    <t>03:58:32</t>
-  </si>
-  <si>
-    <t>05:35:14</t>
-  </si>
-  <si>
-    <t>03:23:40</t>
-  </si>
-  <si>
-    <t>05:00:07</t>
-  </si>
-  <si>
-    <t>02:48:48</t>
-  </si>
-  <si>
-    <t>04:24:58</t>
-  </si>
-  <si>
-    <t>06:02:40</t>
-  </si>
-  <si>
-    <t>06:20:52</t>
-  </si>
-  <si>
-    <t>05:45:56</t>
-  </si>
-  <si>
-    <t>05:10:57</t>
-  </si>
-  <si>
-    <t>04:35:56</t>
-  </si>
-  <si>
-    <t>06:13:36</t>
-  </si>
-  <si>
-    <t>04:00:52</t>
-  </si>
-  <si>
-    <t>05:38:30</t>
-  </si>
-  <si>
-    <t>03:25:46</t>
-  </si>
-  <si>
-    <t>05:03:21</t>
-  </si>
-  <si>
-    <t>02:50:37</t>
-  </si>
-  <si>
-    <t>04:28:09</t>
-  </si>
-  <si>
-    <t>06:05:55</t>
-  </si>
-  <si>
-    <t>06:23:47</t>
-  </si>
-  <si>
-    <t>05:48:45</t>
-  </si>
-  <si>
-    <t>05:13:39</t>
-  </si>
-  <si>
-    <t>04:38:28</t>
-  </si>
-  <si>
-    <t>06:16:53</t>
-  </si>
-  <si>
-    <t>04:03:13</t>
-  </si>
-  <si>
-    <t>05:41:45</t>
-  </si>
-  <si>
-    <t>03:27:53</t>
-  </si>
-  <si>
-    <t>05:06:35</t>
-  </si>
-  <si>
-    <t>02:52:26</t>
-  </si>
-  <si>
-    <t>04:31:20</t>
-  </si>
-  <si>
-    <t>06:09:11</t>
-  </si>
-  <si>
-    <t>06:26:14</t>
-  </si>
-  <si>
-    <t>05:51:15</t>
-  </si>
-  <si>
-    <t>05:16:12</t>
-  </si>
-  <si>
-    <t>04:41:06</t>
-  </si>
-  <si>
-    <t>06:19:10</t>
-  </si>
-  <si>
-    <t>04:05:57</t>
-  </si>
-  <si>
-    <t>05:44:03</t>
-  </si>
-  <si>
-    <t>03:30:44</t>
-  </si>
-  <si>
-    <t>05:08:53</t>
-  </si>
-  <si>
-    <t>02:55:28</t>
-  </si>
-  <si>
-    <t>04:33:40</t>
-  </si>
-  <si>
-    <t>06:11:28</t>
+    <t>09:25</t>
+  </si>
+  <si>
+    <t>10:57</t>
+  </si>
+  <si>
+    <t>05:40:37</t>
+  </si>
+  <si>
+    <t>05:05:41</t>
+  </si>
+  <si>
+    <t>04:30:43</t>
+  </si>
+  <si>
+    <t>06:07:57</t>
+  </si>
+  <si>
+    <t>03:55:43</t>
+  </si>
+  <si>
+    <t>05:32:50</t>
+  </si>
+  <si>
+    <t>03:20:40</t>
+  </si>
+  <si>
+    <t>04:57:40</t>
+  </si>
+  <si>
+    <t>02:45:35</t>
+  </si>
+  <si>
+    <t>04:22:27</t>
+  </si>
+  <si>
+    <t>06:00:10</t>
+  </si>
+  <si>
+    <t>02:10:28</t>
+  </si>
+  <si>
+    <t>03:47:11</t>
+  </si>
+  <si>
+    <t>05:24:51</t>
+  </si>
+  <si>
+    <t>05:43:06</t>
+  </si>
+  <si>
+    <t>05:08:14</t>
+  </si>
+  <si>
+    <t>04:33:21</t>
+  </si>
+  <si>
+    <t>06:10:14</t>
+  </si>
+  <si>
+    <t>03:58:26</t>
+  </si>
+  <si>
+    <t>05:35:08</t>
+  </si>
+  <si>
+    <t>03:23:31</t>
+  </si>
+  <si>
+    <t>04:59:58</t>
+  </si>
+  <si>
+    <t>02:48:37</t>
+  </si>
+  <si>
+    <t>04:24:46</t>
+  </si>
+  <si>
+    <t>06:02:28</t>
+  </si>
+  <si>
+    <t>02:13:47</t>
+  </si>
+  <si>
+    <t>03:49:31</t>
+  </si>
+  <si>
+    <t>05:27:08</t>
+  </si>
+  <si>
+    <t>05:45:55</t>
+  </si>
+  <si>
+    <t>05:10:55</t>
+  </si>
+  <si>
+    <t>04:35:52</t>
+  </si>
+  <si>
+    <t>06:13:31</t>
+  </si>
+  <si>
+    <t>04:00:46</t>
+  </si>
+  <si>
+    <t>05:38:23</t>
+  </si>
+  <si>
+    <t>03:25:37</t>
+  </si>
+  <si>
+    <t>05:03:12</t>
+  </si>
+  <si>
+    <t>02:50:25</t>
+  </si>
+  <si>
+    <t>04:27:57</t>
+  </si>
+  <si>
+    <t>06:05:43</t>
+  </si>
+  <si>
+    <t>02:15:10</t>
+  </si>
+  <si>
+    <t>03:52:39</t>
+  </si>
+  <si>
+    <t>05:30:25</t>
+  </si>
+  <si>
+    <t>05:48:43</t>
+  </si>
+  <si>
+    <t>05:13:36</t>
+  </si>
+  <si>
+    <t>04:38:24</t>
+  </si>
+  <si>
+    <t>06:16:48</t>
+  </si>
+  <si>
+    <t>04:03:07</t>
+  </si>
+  <si>
+    <t>05:41:39</t>
+  </si>
+  <si>
+    <t>03:27:44</t>
+  </si>
+  <si>
+    <t>05:06:25</t>
+  </si>
+  <si>
+    <t>02:52:13</t>
+  </si>
+  <si>
+    <t>04:31:08</t>
+  </si>
+  <si>
+    <t>06:08:59</t>
+  </si>
+  <si>
+    <t>02:16:33</t>
+  </si>
+  <si>
+    <t>03:55:47</t>
+  </si>
+  <si>
+    <t>05:33:41</t>
+  </si>
+  <si>
+    <t>05:51:13</t>
+  </si>
+  <si>
+    <t>05:16:10</t>
+  </si>
+  <si>
+    <t>04:41:02</t>
+  </si>
+  <si>
+    <t>06:19:06</t>
+  </si>
+  <si>
+    <t>04:05:51</t>
+  </si>
+  <si>
+    <t>05:43:57</t>
+  </si>
+  <si>
+    <t>03:30:35</t>
+  </si>
+  <si>
+    <t>05:08:44</t>
+  </si>
+  <si>
+    <t>02:55:16</t>
+  </si>
+  <si>
+    <t>04:33:28</t>
+  </si>
+  <si>
+    <t>06:11:16</t>
+  </si>
+  <si>
+    <t>02:19:53</t>
+  </si>
+  <si>
+    <t>03:58:08</t>
+  </si>
+  <si>
+    <t>05:35:58</t>
   </si>
   <si>
     <t>-</t>
@@ -367,34 +409,49 @@
     <t>29°</t>
   </si>
   <si>
-    <t>05:07:40</t>
-  </si>
-  <si>
-    <t>04:34:39</t>
-  </si>
-  <si>
-    <t>06:08:27</t>
-  </si>
-  <si>
-    <t>04:01:26</t>
-  </si>
-  <si>
-    <t>05:35:13</t>
-  </si>
-  <si>
-    <t>03:28:04</t>
-  </si>
-  <si>
-    <t>05:01:50</t>
-  </si>
-  <si>
-    <t>02:54:33</t>
-  </si>
-  <si>
-    <t>04:28:19</t>
-  </si>
-  <si>
-    <t>06:02:04</t>
+    <t>0°</t>
+  </si>
+  <si>
+    <t>18°</t>
+  </si>
+  <si>
+    <t>17°</t>
+  </si>
+  <si>
+    <t>05:07:38</t>
+  </si>
+  <si>
+    <t>04:34:35</t>
+  </si>
+  <si>
+    <t>06:08:23</t>
+  </si>
+  <si>
+    <t>04:01:20</t>
+  </si>
+  <si>
+    <t>05:35:07</t>
+  </si>
+  <si>
+    <t>03:27:55</t>
+  </si>
+  <si>
+    <t>05:01:41</t>
+  </si>
+  <si>
+    <t>02:54:22</t>
+  </si>
+  <si>
+    <t>04:28:07</t>
+  </si>
+  <si>
+    <t>06:01:53</t>
+  </si>
+  <si>
+    <t>03:54:27</t>
+  </si>
+  <si>
+    <t>05:28:12</t>
   </si>
   <si>
     <t>A</t>
@@ -413,6 +470,9 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +506,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,7 +521,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6AD26A"/>
+        <fgColor rgb="FFF0B070"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99BADE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,7 +539,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0B070"/>
+        <fgColor rgb="FF6AD26A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5E92CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0707F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCDCEE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,31 +569,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6E9DD0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF3F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80A9D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D7EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF6697CD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0707F"/>
+        <fgColor rgb="FFBBD1E9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6F9FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99BADE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6EEF7"/>
+        <fgColor rgb="FF90B4DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,19 +623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC4D7EC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAAC5E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBD1E9"/>
+        <fgColor rgb="FFE6EEF7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -628,6 +718,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1005,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1089,54 +1194,54 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" s="4">
+        <v>-11.8</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O2" s="6">
         <v>47</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L2" s="4">
-        <v>-6.8</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="O2" s="6">
+      <c r="P2" s="7">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="8">
         <v>0</v>
       </c>
-      <c r="P2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>0</v>
-      </c>
-      <c r="R2" s="7">
+      <c r="R2" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1145,55 +1250,55 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="L3" s="4">
-        <v>-11.8</v>
+        <v>-17.2</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="O3" s="8">
-        <v>23</v>
-      </c>
-      <c r="P3" s="9">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="7">
+        <v>150</v>
+      </c>
+      <c r="O3" s="9">
+        <v>6</v>
+      </c>
+      <c r="P3" s="8">
         <v>0</v>
       </c>
-      <c r="R3" s="7">
+      <c r="Q3" s="8">
         <v>0</v>
+      </c>
+      <c r="R3" s="10">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1201,110 +1306,110 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="L4" s="4">
-        <v>-17.2</v>
+        <v>-22.5</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="O4" s="6">
-        <v>12</v>
-      </c>
-      <c r="P4" s="7">
+        <v>149</v>
+      </c>
+      <c r="O4" s="11">
+        <v>75</v>
+      </c>
+      <c r="P4" s="12">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="8">
         <v>0</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="R4" s="8">
         <v>0</v>
-      </c>
-      <c r="R4" s="10">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="L5" s="4">
-        <v>-22.5</v>
+        <v>-8</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="O5" s="11">
-        <v>95</v>
-      </c>
-      <c r="P5" s="12">
-        <v>95</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>38</v>
-      </c>
-      <c r="R5" s="7">
+        <v>150</v>
+      </c>
+      <c r="O5" s="6">
+        <v>20</v>
+      </c>
+      <c r="P5" s="13">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1313,111 +1418,111 @@
         <v>21</v>
       </c>
       <c r="B6" s="2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="L6" s="4">
-        <v>-8</v>
+        <v>-28.1</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="O6" s="11">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="P6" s="14">
-        <v>84</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0</v>
-      </c>
-      <c r="R6" s="7">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>70</v>
+      </c>
+      <c r="R6" s="15">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="L7" s="4">
-        <v>-28.1</v>
+        <v>-13.1</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="O7" s="11">
-        <v>99</v>
-      </c>
-      <c r="P7" s="15">
-        <v>99</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>66</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="P7" s="16">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>69</v>
+      </c>
+      <c r="R7" s="17">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1425,111 +1530,111 @@
         <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L8" s="4">
+        <v>-33.6</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O8" s="11">
         <v>65</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L8" s="4">
-        <v>-13.1</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="O8" s="11">
-        <v>98</v>
-      </c>
-      <c r="P8" s="12">
-        <v>97</v>
-      </c>
-      <c r="Q8" s="17">
-        <v>50</v>
-      </c>
-      <c r="R8" s="7">
+      <c r="P8" s="18">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>11</v>
+      </c>
+      <c r="R8" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="L9" s="4">
-        <v>-33.6</v>
+        <v>-18.4</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="O9" s="11">
-        <v>98</v>
-      </c>
-      <c r="P9" s="12">
-        <v>93</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>61</v>
-      </c>
-      <c r="R9" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="P9" s="20">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>34</v>
+      </c>
+      <c r="R9" s="15">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1537,143 +1642,167 @@
         <v>23</v>
       </c>
       <c r="B10" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L10" s="4">
+        <v>-39.1</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O10" s="11">
+        <v>100</v>
+      </c>
+      <c r="P10" s="18">
         <v>67</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L10" s="4">
-        <v>-18.3</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="O10" s="11">
-        <v>96</v>
-      </c>
-      <c r="P10" s="12">
-        <v>95</v>
-      </c>
-      <c r="Q10" s="16">
-        <v>64</v>
-      </c>
-      <c r="R10" s="16">
-        <v>67</v>
+      <c r="Q10" s="22">
+        <v>100</v>
+      </c>
+      <c r="R10" s="22">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L11" s="4">
-        <v>-39.1</v>
+        <v>-23.8</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>132</v>
+        <v>149</v>
+      </c>
+      <c r="O11" s="11">
+        <v>100</v>
+      </c>
+      <c r="P11" s="12">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>100</v>
+      </c>
+      <c r="R11" s="22">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="L12" s="4">
-        <v>-23.8</v>
+        <v>-9.1</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>130</v>
+        <v>150</v>
+      </c>
+      <c r="O12" s="11">
+        <v>100</v>
+      </c>
+      <c r="P12" s="23">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>100</v>
+      </c>
+      <c r="R12" s="22">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1681,47 +1810,135 @@
         <v>24</v>
       </c>
       <c r="B13" s="2">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="4">
+        <v>-44.6</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" s="4">
+        <v>-29.3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="L13" s="4">
-        <v>-9.1</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>131</v>
+      <c r="I15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" s="4">
+        <v>-14.3</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L13">
+  <conditionalFormatting sqref="L2:L15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -1737,7 +1954,7 @@
       <formula>-6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N13">
+  <conditionalFormatting sqref="N2:N15">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="169">
   <si>
     <t>Datum</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>28.12.2025</t>
-  </si>
-  <si>
     <t>29.12.2025</t>
   </si>
   <si>
@@ -91,7 +88,7 @@
     <t>03.01.2026</t>
   </si>
   <si>
-    <t>05:37</t>
+    <t>04.01.2026</t>
   </si>
   <si>
     <t>05:22</t>
@@ -130,7 +127,13 @@
     <t>06:33</t>
   </si>
   <si>
-    <t>10:36</t>
+    <t>01:19</t>
+  </si>
+  <si>
+    <t>06:09</t>
+  </si>
+  <si>
+    <t>06:35</t>
   </si>
   <si>
     <t>10:29</t>
@@ -169,7 +172,13 @@
     <t>10:57</t>
   </si>
   <si>
-    <t>05:40:37</t>
+    <t>09:05</t>
+  </si>
+  <si>
+    <t>10:53</t>
+  </si>
+  <si>
+    <t>11:08</t>
   </si>
   <si>
     <t>05:05:41</t>
@@ -211,7 +220,13 @@
     <t>05:24:51</t>
   </si>
   <si>
-    <t>05:43:06</t>
+    <t>01:35:20</t>
+  </si>
+  <si>
+    <t>03:11:52</t>
+  </si>
+  <si>
+    <t>04:49:29</t>
   </si>
   <si>
     <t>05:08:14</t>
@@ -253,7 +268,13 @@
     <t>05:27:08</t>
   </si>
   <si>
-    <t>05:45:55</t>
+    <t>01:39:12</t>
+  </si>
+  <si>
+    <t>03:14:14</t>
+  </si>
+  <si>
+    <t>04:51:45</t>
   </si>
   <si>
     <t>05:10:55</t>
@@ -295,7 +316,13 @@
     <t>05:30:25</t>
   </si>
   <si>
-    <t>05:48:43</t>
+    <t>01:39:52</t>
+  </si>
+  <si>
+    <t>03:17:18</t>
+  </si>
+  <si>
+    <t>04:55:03</t>
   </si>
   <si>
     <t>05:13:36</t>
@@ -337,7 +364,13 @@
     <t>05:33:41</t>
   </si>
   <si>
-    <t>05:51:13</t>
+    <t>01:40:31</t>
+  </si>
+  <si>
+    <t>03:20:23</t>
+  </si>
+  <si>
+    <t>04:58:20</t>
   </si>
   <si>
     <t>05:16:10</t>
@@ -379,7 +412,13 @@
     <t>05:35:58</t>
   </si>
   <si>
-    <t>-</t>
+    <t>01:44:25</t>
+  </si>
+  <si>
+    <t>03:22:45</t>
+  </si>
+  <si>
+    <t>05:00:37</t>
   </si>
   <si>
     <t>7°</t>
@@ -418,6 +457,9 @@
     <t>17°</t>
   </si>
   <si>
+    <t>31°</t>
+  </si>
+  <si>
     <t>05:07:38</t>
   </si>
   <si>
@@ -454,19 +496,25 @@
     <t>05:28:12</t>
   </si>
   <si>
+    <t>03:20:41</t>
+  </si>
+  <si>
+    <t>04:54:25</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A+B</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>A+B</t>
+    <t>3</t>
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>4</t>
@@ -506,7 +554,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,7 +569,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF6AD26A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF558CC8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5E92CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0707F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAC5E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF0B070"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80A9D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2CBE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D7EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90B4DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4E2F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2C0E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCDCEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF3F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F9FC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,97 +677,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF558CC8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6AD26A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5E92CB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0707F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCDCEE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF77A3D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8F4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF6E9DD0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEF3F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF80A9D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4D7EC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6697CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBD1E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF90B4DB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6EEF7"/>
+        <fgColor rgb="FF88AED8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -733,6 +793,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1110,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1194,55 +1260,55 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="L2" s="4">
-        <v>-11.8</v>
+        <v>-17.2</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O2" s="6">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="P2" s="7">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="8">
         <v>0</v>
       </c>
+      <c r="Q2" s="7">
+        <v>0</v>
+      </c>
       <c r="R2" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1250,110 +1316,110 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L3" s="4">
+        <v>-22.5</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="O3" s="9">
+        <v>60</v>
+      </c>
+      <c r="P3" s="10">
         <v>52</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="L3" s="4">
-        <v>-17.2</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O3" s="9">
-        <v>6</v>
-      </c>
-      <c r="P3" s="8">
+      <c r="Q3" s="7">
         <v>0</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="R3" s="7">
         <v>0</v>
-      </c>
-      <c r="R3" s="10">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="L4" s="4">
-        <v>-22.5</v>
+        <v>-8</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O4" s="11">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="P4" s="12">
-        <v>68</v>
-      </c>
-      <c r="Q4" s="8">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="7">
         <v>0</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1362,111 +1428,111 @@
         <v>20</v>
       </c>
       <c r="B5" s="2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="L5" s="4">
-        <v>-8</v>
+        <v>-28.1</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O5" s="6">
-        <v>20</v>
+        <v>166</v>
+      </c>
+      <c r="O5" s="9">
+        <v>55</v>
       </c>
       <c r="P5" s="13">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>0</v>
-      </c>
-      <c r="R5" s="8">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>1</v>
+      </c>
+      <c r="R5" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L6" s="4">
-        <v>-28.1</v>
+        <v>-13.1</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="O6" s="11">
-        <v>91</v>
+        <v>165</v>
+      </c>
+      <c r="O6" s="9">
+        <v>64</v>
       </c>
       <c r="P6" s="14">
-        <v>82</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>70</v>
-      </c>
-      <c r="R6" s="15">
-        <v>14</v>
+        <v>64</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>1</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1474,111 +1540,111 @@
         <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="L7" s="4">
-        <v>-13.1</v>
+        <v>-33.6</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O7" s="11">
-        <v>97</v>
-      </c>
-      <c r="P7" s="16">
-        <v>90</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>69</v>
-      </c>
-      <c r="R7" s="17">
-        <v>27</v>
+        <v>166</v>
+      </c>
+      <c r="O7" s="9">
+        <v>100</v>
+      </c>
+      <c r="P7" s="15">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>55</v>
+      </c>
+      <c r="R7" s="16">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="L8" s="4">
-        <v>-33.6</v>
+        <v>-18.4</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="O8" s="11">
-        <v>65</v>
-      </c>
-      <c r="P8" s="18">
-        <v>65</v>
-      </c>
-      <c r="Q8" s="19">
-        <v>11</v>
-      </c>
-      <c r="R8" s="8">
-        <v>0</v>
+        <v>166</v>
+      </c>
+      <c r="O8" s="9">
+        <v>82</v>
+      </c>
+      <c r="P8" s="17">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>47</v>
+      </c>
+      <c r="R8" s="10">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1586,167 +1652,167 @@
         <v>22</v>
       </c>
       <c r="B9" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L9" s="4">
+        <v>-39.1</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O9" s="9">
         <v>100</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="L9" s="4">
-        <v>-18.4</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="O9" s="11">
-        <v>71</v>
-      </c>
-      <c r="P9" s="20">
-        <v>60</v>
-      </c>
-      <c r="Q9" s="21">
-        <v>34</v>
+      <c r="P9" s="14">
+        <v>66</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>79</v>
       </c>
       <c r="R9" s="15">
-        <v>17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="L10" s="4">
-        <v>-39.1</v>
+        <v>-23.8</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="O10" s="11">
+        <v>166</v>
+      </c>
+      <c r="O10" s="9">
         <v>100</v>
       </c>
-      <c r="P10" s="18">
-        <v>67</v>
-      </c>
-      <c r="Q10" s="22">
-        <v>100</v>
-      </c>
-      <c r="R10" s="22">
-        <v>100</v>
+      <c r="P10" s="20">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>77</v>
+      </c>
+      <c r="R10" s="21">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="L11" s="4">
-        <v>-23.8</v>
+        <v>-9.1</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="O11" s="11">
+        <v>165</v>
+      </c>
+      <c r="O11" s="9">
         <v>100</v>
       </c>
-      <c r="P11" s="12">
-        <v>71</v>
+      <c r="P11" s="13">
+        <v>57</v>
       </c>
       <c r="Q11" s="22">
-        <v>100</v>
-      </c>
-      <c r="R11" s="22">
-        <v>100</v>
+        <v>94</v>
+      </c>
+      <c r="R11" s="14">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1754,143 +1820,167 @@
         <v>23</v>
       </c>
       <c r="B12" s="2">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="L12" s="4">
-        <v>-9.1</v>
+        <v>-44.6</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O12" s="11">
-        <v>100</v>
+        <v>167</v>
+      </c>
+      <c r="O12" s="9">
+        <v>52</v>
       </c>
       <c r="P12" s="23">
-        <v>85</v>
-      </c>
-      <c r="Q12" s="22">
-        <v>100</v>
-      </c>
-      <c r="R12" s="22">
-        <v>100</v>
+        <v>39</v>
+      </c>
+      <c r="Q12" s="24">
+        <v>17</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="L13" s="4">
-        <v>-44.6</v>
+        <v>-29.3</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>151</v>
+        <v>168</v>
+      </c>
+      <c r="O13" s="9">
+        <v>47</v>
+      </c>
+      <c r="P13" s="25">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="L14" s="4">
-        <v>-29.3</v>
+        <v>-14.3</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>152</v>
+        <v>166</v>
+      </c>
+      <c r="O14" s="9">
+        <v>47</v>
+      </c>
+      <c r="P14" s="24">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="18">
+        <v>47</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1898,47 +1988,135 @@
         <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" s="4">
+        <v>-49.7</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L15" s="4">
-        <v>-14.3</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>149</v>
+      <c r="J16" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" s="4">
+        <v>-34.9</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" s="4">
+        <v>-19.6</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L15">
+  <conditionalFormatting sqref="L2:L17">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -1954,7 +2132,7 @@
       <formula>-6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N15">
+  <conditionalFormatting sqref="N2:N17">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -97,46 +97,43 @@
     <t>05:03</t>
   </si>
   <si>
+    <t>06:33</t>
+  </si>
+  <si>
+    <t>04:41</t>
+  </si>
+  <si>
+    <t>06:31</t>
+  </si>
+  <si>
+    <t>04:12</t>
+  </si>
+  <si>
+    <t>06:27</t>
+  </si>
+  <si>
+    <t>03:36</t>
+  </si>
+  <si>
+    <t>06:22</t>
+  </si>
+  <si>
+    <t>02:45</t>
+  </si>
+  <si>
+    <t>06:16</t>
+  </si>
+  <si>
+    <t>01:14</t>
+  </si>
+  <si>
+    <t>06:08</t>
+  </si>
+  <si>
     <t>06:34</t>
   </si>
   <si>
-    <t>04:41</t>
-  </si>
-  <si>
-    <t>06:31</t>
-  </si>
-  <si>
-    <t>04:13</t>
-  </si>
-  <si>
-    <t>06:27</t>
-  </si>
-  <si>
-    <t>03:36</t>
-  </si>
-  <si>
-    <t>06:22</t>
-  </si>
-  <si>
-    <t>02:46</t>
-  </si>
-  <si>
-    <t>06:16</t>
-  </si>
-  <si>
-    <t>06:33</t>
-  </si>
-  <si>
-    <t>01:19</t>
-  </si>
-  <si>
-    <t>06:09</t>
-  </si>
-  <si>
-    <t>06:35</t>
-  </si>
-  <si>
-    <t>10:29</t>
+    <t>10:28</t>
   </si>
   <si>
     <t>10:19</t>
@@ -154,7 +151,7 @@
     <t>09:55</t>
   </si>
   <si>
-    <t>11:04</t>
+    <t>11:03</t>
   </si>
   <si>
     <t>09:41</t>
@@ -166,340 +163,343 @@
     <t>11:06</t>
   </si>
   <si>
-    <t>09:25</t>
+    <t>09:23</t>
   </si>
   <si>
     <t>10:57</t>
   </si>
   <si>
-    <t>09:05</t>
-  </si>
-  <si>
-    <t>10:53</t>
+    <t>09:04</t>
+  </si>
+  <si>
+    <t>10:52</t>
   </si>
   <si>
     <t>11:08</t>
   </si>
   <si>
-    <t>05:05:41</t>
-  </si>
-  <si>
-    <t>04:30:43</t>
-  </si>
-  <si>
-    <t>06:07:57</t>
-  </si>
-  <si>
-    <t>03:55:43</t>
-  </si>
-  <si>
-    <t>05:32:50</t>
-  </si>
-  <si>
-    <t>03:20:40</t>
-  </si>
-  <si>
-    <t>04:57:40</t>
-  </si>
-  <si>
-    <t>02:45:35</t>
-  </si>
-  <si>
-    <t>04:22:27</t>
-  </si>
-  <si>
-    <t>06:00:10</t>
-  </si>
-  <si>
-    <t>02:10:28</t>
-  </si>
-  <si>
-    <t>03:47:11</t>
-  </si>
-  <si>
-    <t>05:24:51</t>
-  </si>
-  <si>
-    <t>01:35:20</t>
-  </si>
-  <si>
-    <t>03:11:52</t>
-  </si>
-  <si>
-    <t>04:49:29</t>
-  </si>
-  <si>
-    <t>05:08:14</t>
-  </si>
-  <si>
-    <t>04:33:21</t>
-  </si>
-  <si>
-    <t>06:10:14</t>
-  </si>
-  <si>
-    <t>03:58:26</t>
-  </si>
-  <si>
-    <t>05:35:08</t>
-  </si>
-  <si>
-    <t>03:23:31</t>
-  </si>
-  <si>
-    <t>04:59:58</t>
-  </si>
-  <si>
-    <t>02:48:37</t>
-  </si>
-  <si>
-    <t>04:24:46</t>
-  </si>
-  <si>
-    <t>06:02:28</t>
-  </si>
-  <si>
-    <t>02:13:47</t>
-  </si>
-  <si>
-    <t>03:49:31</t>
-  </si>
-  <si>
-    <t>05:27:08</t>
-  </si>
-  <si>
-    <t>01:39:12</t>
-  </si>
-  <si>
-    <t>03:14:14</t>
-  </si>
-  <si>
-    <t>04:51:45</t>
-  </si>
-  <si>
-    <t>05:10:55</t>
-  </si>
-  <si>
-    <t>04:35:52</t>
-  </si>
-  <si>
-    <t>06:13:31</t>
-  </si>
-  <si>
-    <t>04:00:46</t>
-  </si>
-  <si>
-    <t>05:38:23</t>
-  </si>
-  <si>
-    <t>03:25:37</t>
-  </si>
-  <si>
-    <t>05:03:12</t>
-  </si>
-  <si>
-    <t>02:50:25</t>
+    <t>05:05:40</t>
+  </si>
+  <si>
+    <t>04:30:40</t>
+  </si>
+  <si>
+    <t>06:07:54</t>
+  </si>
+  <si>
+    <t>03:55:38</t>
+  </si>
+  <si>
+    <t>05:32:45</t>
+  </si>
+  <si>
+    <t>03:20:33</t>
+  </si>
+  <si>
+    <t>04:57:33</t>
+  </si>
+  <si>
+    <t>02:45:25</t>
+  </si>
+  <si>
+    <t>04:22:16</t>
+  </si>
+  <si>
+    <t>05:59:59</t>
+  </si>
+  <si>
+    <t>02:10:15</t>
+  </si>
+  <si>
+    <t>03:46:57</t>
+  </si>
+  <si>
+    <t>05:24:37</t>
+  </si>
+  <si>
+    <t>01:35:02</t>
+  </si>
+  <si>
+    <t>03:11:34</t>
+  </si>
+  <si>
+    <t>04:49:10</t>
+  </si>
+  <si>
+    <t>05:08:13</t>
+  </si>
+  <si>
+    <t>04:33:18</t>
+  </si>
+  <si>
+    <t>06:10:12</t>
+  </si>
+  <si>
+    <t>03:58:21</t>
+  </si>
+  <si>
+    <t>05:35:03</t>
+  </si>
+  <si>
+    <t>03:23:24</t>
+  </si>
+  <si>
+    <t>04:59:51</t>
+  </si>
+  <si>
+    <t>02:48:27</t>
+  </si>
+  <si>
+    <t>04:24:36</t>
+  </si>
+  <si>
+    <t>06:02:17</t>
+  </si>
+  <si>
+    <t>02:13:34</t>
+  </si>
+  <si>
+    <t>03:49:17</t>
+  </si>
+  <si>
+    <t>05:26:54</t>
+  </si>
+  <si>
+    <t>01:38:57</t>
+  </si>
+  <si>
+    <t>03:13:56</t>
+  </si>
+  <si>
+    <t>04:51:27</t>
+  </si>
+  <si>
+    <t>05:10:53</t>
+  </si>
+  <si>
+    <t>04:35:49</t>
+  </si>
+  <si>
+    <t>06:13:28</t>
+  </si>
+  <si>
+    <t>04:00:41</t>
+  </si>
+  <si>
+    <t>05:38:18</t>
+  </si>
+  <si>
+    <t>03:25:30</t>
+  </si>
+  <si>
+    <t>05:03:04</t>
+  </si>
+  <si>
+    <t>02:50:15</t>
+  </si>
+  <si>
+    <t>04:27:47</t>
+  </si>
+  <si>
+    <t>06:05:32</t>
+  </si>
+  <si>
+    <t>02:14:56</t>
+  </si>
+  <si>
+    <t>03:52:25</t>
+  </si>
+  <si>
+    <t>05:30:10</t>
+  </si>
+  <si>
+    <t>01:39:34</t>
+  </si>
+  <si>
+    <t>03:16:59</t>
+  </si>
+  <si>
+    <t>04:54:44</t>
+  </si>
+  <si>
+    <t>05:13:35</t>
+  </si>
+  <si>
+    <t>04:38:21</t>
+  </si>
+  <si>
+    <t>06:16:45</t>
+  </si>
+  <si>
+    <t>04:03:02</t>
+  </si>
+  <si>
+    <t>05:41:34</t>
+  </si>
+  <si>
+    <t>03:27:36</t>
+  </si>
+  <si>
+    <t>05:06:18</t>
+  </si>
+  <si>
+    <t>02:52:03</t>
+  </si>
+  <si>
+    <t>04:30:58</t>
+  </si>
+  <si>
+    <t>06:08:48</t>
+  </si>
+  <si>
+    <t>02:16:19</t>
+  </si>
+  <si>
+    <t>03:55:33</t>
+  </si>
+  <si>
+    <t>05:33:27</t>
+  </si>
+  <si>
+    <t>01:40:11</t>
+  </si>
+  <si>
+    <t>03:20:04</t>
+  </si>
+  <si>
+    <t>04:58:01</t>
+  </si>
+  <si>
+    <t>05:16:08</t>
+  </si>
+  <si>
+    <t>04:40:59</t>
+  </si>
+  <si>
+    <t>06:19:03</t>
+  </si>
+  <si>
+    <t>04:05:46</t>
+  </si>
+  <si>
+    <t>05:43:52</t>
+  </si>
+  <si>
+    <t>03:30:28</t>
+  </si>
+  <si>
+    <t>05:08:36</t>
+  </si>
+  <si>
+    <t>02:55:06</t>
+  </si>
+  <si>
+    <t>04:33:17</t>
+  </si>
+  <si>
+    <t>06:11:05</t>
+  </si>
+  <si>
+    <t>02:19:38</t>
+  </si>
+  <si>
+    <t>03:57:54</t>
+  </si>
+  <si>
+    <t>05:35:44</t>
+  </si>
+  <si>
+    <t>01:44:06</t>
+  </si>
+  <si>
+    <t>03:22:26</t>
+  </si>
+  <si>
+    <t>05:00:18</t>
+  </si>
+  <si>
+    <t>7°</t>
+  </si>
+  <si>
+    <t>15°</t>
+  </si>
+  <si>
+    <t>2°</t>
+  </si>
+  <si>
+    <t>16°</t>
+  </si>
+  <si>
+    <t>10°</t>
+  </si>
+  <si>
+    <t>9°</t>
+  </si>
+  <si>
+    <t>22°</t>
+  </si>
+  <si>
+    <t>3°</t>
+  </si>
+  <si>
+    <t>29°</t>
+  </si>
+  <si>
+    <t>0°</t>
+  </si>
+  <si>
+    <t>18°</t>
+  </si>
+  <si>
+    <t>17°</t>
+  </si>
+  <si>
+    <t>8°</t>
+  </si>
+  <si>
+    <t>31°</t>
+  </si>
+  <si>
+    <t>05:07:36</t>
+  </si>
+  <si>
+    <t>04:34:32</t>
+  </si>
+  <si>
+    <t>06:08:20</t>
+  </si>
+  <si>
+    <t>04:01:16</t>
+  </si>
+  <si>
+    <t>05:35:02</t>
+  </si>
+  <si>
+    <t>03:27:48</t>
+  </si>
+  <si>
+    <t>05:01:34</t>
+  </si>
+  <si>
+    <t>02:54:12</t>
   </si>
   <si>
     <t>04:27:57</t>
   </si>
   <si>
-    <t>06:05:43</t>
-  </si>
-  <si>
-    <t>02:15:10</t>
-  </si>
-  <si>
-    <t>03:52:39</t>
-  </si>
-  <si>
-    <t>05:30:25</t>
-  </si>
-  <si>
-    <t>01:39:52</t>
-  </si>
-  <si>
-    <t>03:17:18</t>
-  </si>
-  <si>
-    <t>04:55:03</t>
-  </si>
-  <si>
-    <t>05:13:36</t>
-  </si>
-  <si>
-    <t>04:38:24</t>
-  </si>
-  <si>
-    <t>06:16:48</t>
-  </si>
-  <si>
-    <t>04:03:07</t>
-  </si>
-  <si>
-    <t>05:41:39</t>
-  </si>
-  <si>
-    <t>03:27:44</t>
-  </si>
-  <si>
-    <t>05:06:25</t>
-  </si>
-  <si>
-    <t>02:52:13</t>
-  </si>
-  <si>
-    <t>04:31:08</t>
-  </si>
-  <si>
-    <t>06:08:59</t>
-  </si>
-  <si>
-    <t>02:16:33</t>
-  </si>
-  <si>
-    <t>03:55:47</t>
-  </si>
-  <si>
-    <t>05:33:41</t>
-  </si>
-  <si>
-    <t>01:40:31</t>
+    <t>06:01:42</t>
+  </si>
+  <si>
+    <t>03:54:13</t>
+  </si>
+  <si>
+    <t>05:27:58</t>
   </si>
   <si>
     <t>03:20:23</t>
   </si>
   <si>
-    <t>04:58:20</t>
-  </si>
-  <si>
-    <t>05:16:10</t>
-  </si>
-  <si>
-    <t>04:41:02</t>
-  </si>
-  <si>
-    <t>06:19:06</t>
-  </si>
-  <si>
-    <t>04:05:51</t>
-  </si>
-  <si>
-    <t>05:43:57</t>
-  </si>
-  <si>
-    <t>03:30:35</t>
-  </si>
-  <si>
-    <t>05:08:44</t>
-  </si>
-  <si>
-    <t>02:55:16</t>
-  </si>
-  <si>
-    <t>04:33:28</t>
-  </si>
-  <si>
-    <t>06:11:16</t>
-  </si>
-  <si>
-    <t>02:19:53</t>
-  </si>
-  <si>
-    <t>03:58:08</t>
-  </si>
-  <si>
-    <t>05:35:58</t>
-  </si>
-  <si>
-    <t>01:44:25</t>
-  </si>
-  <si>
-    <t>03:22:45</t>
-  </si>
-  <si>
-    <t>05:00:37</t>
-  </si>
-  <si>
-    <t>7°</t>
-  </si>
-  <si>
-    <t>15°</t>
-  </si>
-  <si>
-    <t>2°</t>
-  </si>
-  <si>
-    <t>16°</t>
-  </si>
-  <si>
-    <t>10°</t>
-  </si>
-  <si>
-    <t>9°</t>
-  </si>
-  <si>
-    <t>22°</t>
-  </si>
-  <si>
-    <t>3°</t>
-  </si>
-  <si>
-    <t>29°</t>
-  </si>
-  <si>
-    <t>0°</t>
-  </si>
-  <si>
-    <t>18°</t>
-  </si>
-  <si>
-    <t>17°</t>
-  </si>
-  <si>
-    <t>31°</t>
-  </si>
-  <si>
-    <t>05:07:38</t>
-  </si>
-  <si>
-    <t>04:34:35</t>
-  </si>
-  <si>
-    <t>06:08:23</t>
-  </si>
-  <si>
-    <t>04:01:20</t>
-  </si>
-  <si>
-    <t>05:35:07</t>
-  </si>
-  <si>
-    <t>03:27:55</t>
-  </si>
-  <si>
-    <t>05:01:41</t>
-  </si>
-  <si>
-    <t>02:54:22</t>
-  </si>
-  <si>
-    <t>04:28:07</t>
-  </si>
-  <si>
-    <t>06:01:53</t>
-  </si>
-  <si>
-    <t>03:54:27</t>
-  </si>
-  <si>
-    <t>05:28:12</t>
-  </si>
-  <si>
-    <t>03:20:41</t>
-  </si>
-  <si>
-    <t>04:54:25</t>
+    <t>04:54:08</t>
   </si>
   <si>
     <t>B</t>
@@ -554,7 +554,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,7 +587,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF0B070"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88AED8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF0707F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4E2F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6697CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90B4DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCDCEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99BADE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D7EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6EEF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2C0E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2CBE6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,91 +677,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0B070"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF80A9D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB2CBE6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4D7EC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF90B4DB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4E2F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA2C0E1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8F4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCDCEE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFEEF3F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6F9FC"/>
+        <fgColor rgb="FFBBD1E9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99BADE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6E9DD0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF88AED8"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,7 +730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -799,6 +805,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1266,25 +1275,25 @@
         <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>148</v>
@@ -1299,7 +1308,7 @@
         <v>165</v>
       </c>
       <c r="O2" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P2" s="7">
         <v>0</v>
@@ -1308,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1322,25 +1331,25 @@
         <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>149</v>
@@ -1355,10 +1364,10 @@
         <v>166</v>
       </c>
       <c r="O3" s="9">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="P3" s="10">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="7">
         <v>0</v>
@@ -1378,25 +1387,25 @@
         <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>150</v>
@@ -1410,11 +1419,11 @@
       <c r="N4" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="O4" s="11">
-        <v>23</v>
-      </c>
-      <c r="P4" s="12">
-        <v>23</v>
+      <c r="O4" s="6">
+        <v>6</v>
+      </c>
+      <c r="P4" s="8">
+        <v>6</v>
       </c>
       <c r="Q4" s="7">
         <v>0</v>
@@ -1434,25 +1443,25 @@
         <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>151</v>
@@ -1466,17 +1475,17 @@
       <c r="N5" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="O5" s="9">
-        <v>55</v>
-      </c>
-      <c r="P5" s="13">
-        <v>55</v>
+      <c r="O5" s="11">
+        <v>84</v>
+      </c>
+      <c r="P5" s="12">
+        <v>77</v>
       </c>
       <c r="Q5" s="7">
         <v>1</v>
       </c>
-      <c r="R5" s="7">
-        <v>0</v>
+      <c r="R5" s="13">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1490,25 +1499,25 @@
         <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>152</v>
@@ -1522,14 +1531,14 @@
       <c r="N6" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="O6" s="9">
-        <v>64</v>
+      <c r="O6" s="11">
+        <v>82</v>
       </c>
       <c r="P6" s="14">
-        <v>64</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>36</v>
       </c>
       <c r="R6" s="7">
         <v>0</v>
@@ -1546,25 +1555,25 @@
         <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>153</v>
@@ -1578,17 +1587,17 @@
       <c r="N7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="O7" s="9">
-        <v>100</v>
-      </c>
-      <c r="P7" s="15">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>55</v>
-      </c>
-      <c r="R7" s="16">
-        <v>37</v>
+      <c r="O7" s="11">
+        <v>99</v>
+      </c>
+      <c r="P7" s="16">
+        <v>97</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>70</v>
+      </c>
+      <c r="R7" s="18">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1602,25 +1611,25 @@
         <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>154</v>
@@ -1634,17 +1643,17 @@
       <c r="N8" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="O8" s="9">
-        <v>82</v>
-      </c>
-      <c r="P8" s="17">
-        <v>76</v>
-      </c>
-      <c r="Q8" s="18">
-        <v>47</v>
-      </c>
-      <c r="R8" s="10">
-        <v>49</v>
+      <c r="O8" s="11">
+        <v>89</v>
+      </c>
+      <c r="P8" s="19">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>86</v>
+      </c>
+      <c r="R8" s="21">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1658,25 +1667,25 @@
         <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>155</v>
@@ -1690,17 +1699,17 @@
       <c r="N9" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="O9" s="9">
-        <v>100</v>
-      </c>
-      <c r="P9" s="14">
-        <v>66</v>
-      </c>
-      <c r="Q9" s="19">
-        <v>79</v>
-      </c>
-      <c r="R9" s="15">
-        <v>100</v>
+      <c r="O9" s="11">
+        <v>81</v>
+      </c>
+      <c r="P9" s="22">
+        <v>55</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>72</v>
+      </c>
+      <c r="R9" s="10">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1714,31 +1723,31 @@
         <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>156</v>
       </c>
       <c r="L10" s="4">
-        <v>-23.8</v>
+        <v>-23.9</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>163</v>
@@ -1746,17 +1755,17 @@
       <c r="N10" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="O10" s="9">
-        <v>100</v>
-      </c>
-      <c r="P10" s="20">
-        <v>70</v>
-      </c>
-      <c r="Q10" s="17">
-        <v>77</v>
-      </c>
-      <c r="R10" s="21">
-        <v>89</v>
+      <c r="O10" s="11">
+        <v>56</v>
+      </c>
+      <c r="P10" s="18">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="23">
+        <v>50</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1770,25 +1779,25 @@
         <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>157</v>
@@ -1802,17 +1811,17 @@
       <c r="N11" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="O11" s="9">
-        <v>100</v>
-      </c>
-      <c r="P11" s="13">
-        <v>57</v>
-      </c>
-      <c r="Q11" s="22">
-        <v>94</v>
-      </c>
-      <c r="R11" s="14">
-        <v>66</v>
+      <c r="O11" s="11">
+        <v>59</v>
+      </c>
+      <c r="P11" s="23">
+        <v>49</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>30</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1826,28 +1835,28 @@
         <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L12" s="4">
         <v>-44.6</v>
@@ -1858,17 +1867,17 @@
       <c r="N12" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="O12" s="9">
-        <v>52</v>
-      </c>
-      <c r="P12" s="23">
-        <v>39</v>
+      <c r="O12" s="11">
+        <v>93</v>
+      </c>
+      <c r="P12" s="22">
+        <v>57</v>
       </c>
       <c r="Q12" s="24">
-        <v>17</v>
-      </c>
-      <c r="R12" s="7">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="R12" s="21">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1882,31 +1891,31 @@
         <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>158</v>
       </c>
       <c r="L13" s="4">
-        <v>-29.3</v>
+        <v>-29.4</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>164</v>
@@ -1914,17 +1923,17 @@
       <c r="N13" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="O13" s="9">
-        <v>47</v>
-      </c>
-      <c r="P13" s="25">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>0</v>
-      </c>
-      <c r="R13" s="7">
-        <v>0</v>
+      <c r="O13" s="11">
+        <v>98</v>
+      </c>
+      <c r="P13" s="12">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>96</v>
+      </c>
+      <c r="R13" s="23">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1935,28 +1944,28 @@
         <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>159</v>
@@ -1970,17 +1979,17 @@
       <c r="N14" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="O14" s="9">
-        <v>47</v>
-      </c>
-      <c r="P14" s="24">
-        <v>13</v>
-      </c>
-      <c r="Q14" s="18">
-        <v>47</v>
-      </c>
-      <c r="R14" s="7">
-        <v>0</v>
+      <c r="O14" s="11">
+        <v>98</v>
+      </c>
+      <c r="P14" s="25">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>97</v>
+      </c>
+      <c r="R14" s="12">
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1991,31 +2000,31 @@
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L15" s="4">
         <v>-49.7</v>
@@ -2025,6 +2034,18 @@
       </c>
       <c r="N15" s="1" t="s">
         <v>167</v>
+      </c>
+      <c r="O15" s="11">
+        <v>100</v>
+      </c>
+      <c r="P15" s="16">
+        <v>93</v>
+      </c>
+      <c r="Q15" s="26">
+        <v>98</v>
+      </c>
+      <c r="R15" s="24">
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2035,34 +2056,34 @@
         <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>160</v>
       </c>
       <c r="L16" s="4">
-        <v>-34.9</v>
+        <v>-35</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>164</v>
@@ -2070,8 +2091,20 @@
       <c r="N16" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="O16" s="11">
+        <v>100</v>
+      </c>
+      <c r="P16" s="16">
+        <v>97</v>
+      </c>
+      <c r="Q16" s="16">
+        <v>94</v>
+      </c>
+      <c r="R16" s="26">
+        <v>100</v>
+      </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -2079,25 +2112,25 @@
         <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>147</v>
@@ -2113,6 +2146,18 @@
       </c>
       <c r="N17" s="1" t="s">
         <v>166</v>
+      </c>
+      <c r="O17" s="11">
+        <v>99</v>
+      </c>
+      <c r="P17" s="16">
+        <v>94</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>96</v>
+      </c>
+      <c r="R17" s="24">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="184">
   <si>
     <t>Datum</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>29.12.2025</t>
-  </si>
-  <si>
     <t>30.12.2025</t>
   </si>
   <si>
@@ -91,49 +88,58 @@
     <t>04.01.2026</t>
   </si>
   <si>
-    <t>05:22</t>
+    <t>05.01.2026</t>
   </si>
   <si>
     <t>05:03</t>
   </si>
   <si>
+    <t>06:34</t>
+  </si>
+  <si>
+    <t>04:40</t>
+  </si>
+  <si>
+    <t>06:31</t>
+  </si>
+  <si>
+    <t>04:12</t>
+  </si>
+  <si>
+    <t>06:27</t>
+  </si>
+  <si>
+    <t>03:35</t>
+  </si>
+  <si>
+    <t>06:21</t>
+  </si>
+  <si>
+    <t>06:30</t>
+  </si>
+  <si>
+    <t>02:44</t>
+  </si>
+  <si>
+    <t>06:15</t>
+  </si>
+  <si>
     <t>06:33</t>
   </si>
   <si>
-    <t>04:41</t>
-  </si>
-  <si>
-    <t>06:31</t>
-  </si>
-  <si>
-    <t>04:12</t>
-  </si>
-  <si>
-    <t>06:27</t>
-  </si>
-  <si>
-    <t>03:36</t>
-  </si>
-  <si>
-    <t>06:22</t>
-  </si>
-  <si>
-    <t>02:45</t>
-  </si>
-  <si>
-    <t>06:16</t>
-  </si>
-  <si>
-    <t>01:14</t>
-  </si>
-  <si>
-    <t>06:08</t>
-  </si>
-  <si>
-    <t>06:34</t>
-  </si>
-  <si>
-    <t>10:28</t>
+    <t>01:09</t>
+  </si>
+  <si>
+    <t>06:07</t>
+  </si>
+  <si>
+    <t>06:35</t>
+  </si>
+  <si>
+    <t>05:58</t>
+  </si>
+  <si>
+    <t>05:37</t>
   </si>
   <si>
     <t>10:19</t>
@@ -145,306 +151,339 @@
     <t>10:08</t>
   </si>
   <si>
+    <t>11:06</t>
+  </si>
+  <si>
+    <t>09:56</t>
+  </si>
+  <si>
+    <t>11:04</t>
+  </si>
+  <si>
+    <t>09:40</t>
+  </si>
+  <si>
+    <t>11:01</t>
+  </si>
+  <si>
+    <t>09:23</t>
+  </si>
+  <si>
+    <t>10:56</t>
+  </si>
+  <si>
     <t>11:07</t>
   </si>
   <si>
-    <t>09:55</t>
-  </si>
-  <si>
-    <t>11:03</t>
-  </si>
-  <si>
-    <t>09:41</t>
-  </si>
-  <si>
-    <t>11:01</t>
-  </si>
-  <si>
-    <t>11:06</t>
-  </si>
-  <si>
-    <t>09:23</t>
-  </si>
-  <si>
-    <t>10:57</t>
-  </si>
-  <si>
-    <t>09:04</t>
+    <t>09:03</t>
   </si>
   <si>
     <t>10:52</t>
   </si>
   <si>
+    <t>10:47</t>
+  </si>
+  <si>
     <t>11:08</t>
   </si>
   <si>
-    <t>05:05:40</t>
-  </si>
-  <si>
-    <t>04:30:40</t>
-  </si>
-  <si>
-    <t>06:07:54</t>
-  </si>
-  <si>
-    <t>03:55:38</t>
-  </si>
-  <si>
-    <t>05:32:45</t>
-  </si>
-  <si>
-    <t>03:20:33</t>
-  </si>
-  <si>
-    <t>04:57:33</t>
-  </si>
-  <si>
-    <t>02:45:25</t>
-  </si>
-  <si>
-    <t>04:22:16</t>
-  </si>
-  <si>
-    <t>05:59:59</t>
-  </si>
-  <si>
-    <t>02:10:15</t>
-  </si>
-  <si>
-    <t>03:46:57</t>
-  </si>
-  <si>
-    <t>05:24:37</t>
-  </si>
-  <si>
-    <t>01:35:02</t>
-  </si>
-  <si>
-    <t>03:11:34</t>
-  </si>
-  <si>
-    <t>04:49:10</t>
-  </si>
-  <si>
-    <t>05:08:13</t>
-  </si>
-  <si>
-    <t>04:33:18</t>
-  </si>
-  <si>
-    <t>06:10:12</t>
-  </si>
-  <si>
-    <t>03:58:21</t>
-  </si>
-  <si>
-    <t>05:35:03</t>
-  </si>
-  <si>
-    <t>03:23:24</t>
-  </si>
-  <si>
-    <t>04:59:51</t>
-  </si>
-  <si>
-    <t>02:48:27</t>
-  </si>
-  <si>
-    <t>04:24:36</t>
-  </si>
-  <si>
-    <t>06:02:17</t>
-  </si>
-  <si>
-    <t>02:13:34</t>
-  </si>
-  <si>
-    <t>03:49:17</t>
-  </si>
-  <si>
-    <t>05:26:54</t>
-  </si>
-  <si>
-    <t>01:38:57</t>
-  </si>
-  <si>
-    <t>03:13:56</t>
-  </si>
-  <si>
-    <t>04:51:27</t>
-  </si>
-  <si>
-    <t>05:10:53</t>
-  </si>
-  <si>
-    <t>04:35:49</t>
-  </si>
-  <si>
-    <t>06:13:28</t>
-  </si>
-  <si>
-    <t>04:00:41</t>
-  </si>
-  <si>
-    <t>05:38:18</t>
-  </si>
-  <si>
-    <t>03:25:30</t>
-  </si>
-  <si>
-    <t>05:03:04</t>
-  </si>
-  <si>
-    <t>02:50:15</t>
-  </si>
-  <si>
-    <t>04:27:47</t>
-  </si>
-  <si>
-    <t>06:05:32</t>
-  </si>
-  <si>
-    <t>02:14:56</t>
-  </si>
-  <si>
-    <t>03:52:25</t>
-  </si>
-  <si>
-    <t>05:30:10</t>
-  </si>
-  <si>
-    <t>01:39:34</t>
-  </si>
-  <si>
-    <t>03:16:59</t>
-  </si>
-  <si>
-    <t>04:54:44</t>
-  </si>
-  <si>
-    <t>05:13:35</t>
-  </si>
-  <si>
-    <t>04:38:21</t>
-  </si>
-  <si>
-    <t>06:16:45</t>
-  </si>
-  <si>
-    <t>04:03:02</t>
-  </si>
-  <si>
-    <t>05:41:34</t>
-  </si>
-  <si>
-    <t>03:27:36</t>
-  </si>
-  <si>
-    <t>05:06:18</t>
-  </si>
-  <si>
-    <t>02:52:03</t>
-  </si>
-  <si>
-    <t>04:30:58</t>
-  </si>
-  <si>
-    <t>06:08:48</t>
-  </si>
-  <si>
-    <t>02:16:19</t>
-  </si>
-  <si>
-    <t>03:55:33</t>
-  </si>
-  <si>
-    <t>05:33:27</t>
-  </si>
-  <si>
-    <t>01:40:11</t>
-  </si>
-  <si>
-    <t>03:20:04</t>
-  </si>
-  <si>
-    <t>04:58:01</t>
-  </si>
-  <si>
-    <t>05:16:08</t>
-  </si>
-  <si>
-    <t>04:40:59</t>
-  </si>
-  <si>
-    <t>06:19:03</t>
-  </si>
-  <si>
-    <t>04:05:46</t>
-  </si>
-  <si>
-    <t>05:43:52</t>
-  </si>
-  <si>
-    <t>03:30:28</t>
-  </si>
-  <si>
-    <t>05:08:36</t>
-  </si>
-  <si>
-    <t>02:55:06</t>
+    <t>10:36</t>
+  </si>
+  <si>
+    <t>04:30:39</t>
+  </si>
+  <si>
+    <t>06:07:53</t>
+  </si>
+  <si>
+    <t>03:55:36</t>
+  </si>
+  <si>
+    <t>05:32:43</t>
+  </si>
+  <si>
+    <t>03:20:28</t>
+  </si>
+  <si>
+    <t>04:57:28</t>
+  </si>
+  <si>
+    <t>02:45:18</t>
+  </si>
+  <si>
+    <t>04:22:09</t>
+  </si>
+  <si>
+    <t>05:59:52</t>
+  </si>
+  <si>
+    <t>02:10:05</t>
+  </si>
+  <si>
+    <t>03:46:47</t>
+  </si>
+  <si>
+    <t>05:24:26</t>
+  </si>
+  <si>
+    <t>01:34:49</t>
+  </si>
+  <si>
+    <t>03:11:20</t>
+  </si>
+  <si>
+    <t>04:48:56</t>
+  </si>
+  <si>
+    <t>02:35:49</t>
+  </si>
+  <si>
+    <t>04:13:21</t>
+  </si>
+  <si>
+    <t>05:51:17</t>
   </si>
   <si>
     <t>04:33:17</t>
   </si>
   <si>
-    <t>06:11:05</t>
-  </si>
-  <si>
-    <t>02:19:38</t>
-  </si>
-  <si>
-    <t>03:57:54</t>
-  </si>
-  <si>
-    <t>05:35:44</t>
-  </si>
-  <si>
-    <t>01:44:06</t>
-  </si>
-  <si>
-    <t>03:22:26</t>
-  </si>
-  <si>
-    <t>05:00:18</t>
+    <t>06:10:10</t>
+  </si>
+  <si>
+    <t>03:58:19</t>
+  </si>
+  <si>
+    <t>05:35:00</t>
+  </si>
+  <si>
+    <t>03:23:20</t>
+  </si>
+  <si>
+    <t>04:59:46</t>
+  </si>
+  <si>
+    <t>02:48:20</t>
+  </si>
+  <si>
+    <t>04:24:29</t>
+  </si>
+  <si>
+    <t>06:02:10</t>
+  </si>
+  <si>
+    <t>02:13:24</t>
+  </si>
+  <si>
+    <t>03:49:07</t>
+  </si>
+  <si>
+    <t>05:26:43</t>
+  </si>
+  <si>
+    <t>01:38:45</t>
+  </si>
+  <si>
+    <t>03:13:42</t>
+  </si>
+  <si>
+    <t>04:51:12</t>
+  </si>
+  <si>
+    <t>02:38:13</t>
+  </si>
+  <si>
+    <t>04:15:37</t>
+  </si>
+  <si>
+    <t>05:53:47</t>
+  </si>
+  <si>
+    <t>04:35:48</t>
+  </si>
+  <si>
+    <t>06:13:27</t>
+  </si>
+  <si>
+    <t>04:00:39</t>
+  </si>
+  <si>
+    <t>05:38:16</t>
+  </si>
+  <si>
+    <t>03:25:25</t>
+  </si>
+  <si>
+    <t>05:03:00</t>
+  </si>
+  <si>
+    <t>02:50:08</t>
+  </si>
+  <si>
+    <t>04:27:39</t>
+  </si>
+  <si>
+    <t>06:05:25</t>
+  </si>
+  <si>
+    <t>02:14:46</t>
+  </si>
+  <si>
+    <t>03:52:15</t>
+  </si>
+  <si>
+    <t>05:30:00</t>
+  </si>
+  <si>
+    <t>01:39:20</t>
+  </si>
+  <si>
+    <t>03:16:45</t>
+  </si>
+  <si>
+    <t>04:54:29</t>
+  </si>
+  <si>
+    <t>02:41:12</t>
+  </si>
+  <si>
+    <t>04:18:55</t>
+  </si>
+  <si>
+    <t>05:56:36</t>
+  </si>
+  <si>
+    <t>04:38:20</t>
+  </si>
+  <si>
+    <t>06:16:44</t>
+  </si>
+  <si>
+    <t>04:02:59</t>
+  </si>
+  <si>
+    <t>05:41:31</t>
+  </si>
+  <si>
+    <t>03:27:32</t>
+  </si>
+  <si>
+    <t>05:06:13</t>
+  </si>
+  <si>
+    <t>02:51:55</t>
+  </si>
+  <si>
+    <t>04:30:50</t>
+  </si>
+  <si>
+    <t>06:08:40</t>
+  </si>
+  <si>
+    <t>02:16:08</t>
+  </si>
+  <si>
+    <t>03:55:22</t>
+  </si>
+  <si>
+    <t>05:33:16</t>
+  </si>
+  <si>
+    <t>01:39:54</t>
+  </si>
+  <si>
+    <t>03:19:49</t>
+  </si>
+  <si>
+    <t>04:57:47</t>
+  </si>
+  <si>
+    <t>02:44:11</t>
+  </si>
+  <si>
+    <t>04:22:12</t>
+  </si>
+  <si>
+    <t>05:59:24</t>
+  </si>
+  <si>
+    <t>04:40:58</t>
+  </si>
+  <si>
+    <t>06:19:02</t>
+  </si>
+  <si>
+    <t>04:05:44</t>
+  </si>
+  <si>
+    <t>05:43:49</t>
+  </si>
+  <si>
+    <t>03:30:24</t>
+  </si>
+  <si>
+    <t>05:08:32</t>
+  </si>
+  <si>
+    <t>02:54:58</t>
+  </si>
+  <si>
+    <t>04:33:10</t>
+  </si>
+  <si>
+    <t>06:10:58</t>
+  </si>
+  <si>
+    <t>02:19:28</t>
+  </si>
+  <si>
+    <t>03:57:43</t>
+  </si>
+  <si>
+    <t>05:35:33</t>
+  </si>
+  <si>
+    <t>01:43:52</t>
+  </si>
+  <si>
+    <t>03:22:12</t>
+  </si>
+  <si>
+    <t>05:00:03</t>
+  </si>
+  <si>
+    <t>02:46:36</t>
+  </si>
+  <si>
+    <t>06:01:53</t>
+  </si>
+  <si>
+    <t>15°</t>
+  </si>
+  <si>
+    <t>2°</t>
+  </si>
+  <si>
+    <t>16°</t>
+  </si>
+  <si>
+    <t>10°</t>
+  </si>
+  <si>
+    <t>9°</t>
+  </si>
+  <si>
+    <t>22°</t>
+  </si>
+  <si>
+    <t>3°</t>
+  </si>
+  <si>
+    <t>29°</t>
   </si>
   <si>
     <t>7°</t>
   </si>
   <si>
-    <t>15°</t>
-  </si>
-  <si>
-    <t>2°</t>
-  </si>
-  <si>
-    <t>16°</t>
-  </si>
-  <si>
-    <t>10°</t>
-  </si>
-  <si>
-    <t>9°</t>
-  </si>
-  <si>
-    <t>22°</t>
-  </si>
-  <si>
-    <t>3°</t>
-  </si>
-  <si>
-    <t>29°</t>
-  </si>
-  <si>
     <t>0°</t>
   </si>
   <si>
@@ -460,61 +499,67 @@
     <t>31°</t>
   </si>
   <si>
-    <t>05:07:36</t>
-  </si>
-  <si>
-    <t>04:34:32</t>
-  </si>
-  <si>
-    <t>06:08:20</t>
-  </si>
-  <si>
-    <t>04:01:16</t>
-  </si>
-  <si>
-    <t>05:35:02</t>
-  </si>
-  <si>
-    <t>03:27:48</t>
-  </si>
-  <si>
-    <t>05:01:34</t>
-  </si>
-  <si>
-    <t>02:54:12</t>
-  </si>
-  <si>
-    <t>04:27:57</t>
-  </si>
-  <si>
-    <t>06:01:42</t>
-  </si>
-  <si>
-    <t>03:54:13</t>
-  </si>
-  <si>
-    <t>05:27:58</t>
-  </si>
-  <si>
-    <t>03:20:23</t>
-  </si>
-  <si>
-    <t>04:54:08</t>
+    <t>28°</t>
+  </si>
+  <si>
+    <t>04:34:31</t>
+  </si>
+  <si>
+    <t>06:08:19</t>
+  </si>
+  <si>
+    <t>04:01:13</t>
+  </si>
+  <si>
+    <t>03:27:44</t>
+  </si>
+  <si>
+    <t>05:01:30</t>
+  </si>
+  <si>
+    <t>02:54:05</t>
+  </si>
+  <si>
+    <t>04:27:50</t>
+  </si>
+  <si>
+    <t>06:01:35</t>
+  </si>
+  <si>
+    <t>03:54:03</t>
+  </si>
+  <si>
+    <t>05:27:48</t>
+  </si>
+  <si>
+    <t>03:20:09</t>
+  </si>
+  <si>
+    <t>04:53:54</t>
+  </si>
+  <si>
+    <t>02:46:10</t>
+  </si>
+  <si>
+    <t>04:19:54</t>
+  </si>
+  <si>
+    <t>05:53:38</t>
+  </si>
+  <si>
+    <t>A+B</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>A+B</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>4</t>
@@ -554,7 +599,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,7 +614,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6AD26A"/>
+        <fgColor rgb="FFF0707F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5E92CB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,37 +632,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5E92CB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF0B070"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF88AED8"/>
+        <fgColor rgb="FF99BADE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0707F"/>
+        <fgColor rgb="FF80A9D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD4E2F1"/>
+        <fgColor rgb="FFBBD1E9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6697CD"/>
+        <fgColor rgb="FF6E9DD0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF3F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2C0E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2CBE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCDCEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D7EC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,25 +704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6F9FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCDCEE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99BADE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4D7EC"/>
+        <fgColor rgb="FF6697CD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,37 +716,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA2C0E1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB2CBE6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAAC5E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF3F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBD1E9"/>
+        <fgColor rgb="FF88AED8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4E2F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -805,9 +844,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1185,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1269,110 +1305,110 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L2" s="4">
+        <v>-22.5</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="O2" s="6">
         <v>70</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L2" s="4">
-        <v>-17.2</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="O2" s="6">
+      <c r="P2" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="8">
         <v>0</v>
       </c>
-      <c r="P2" s="7">
+      <c r="R2" s="8">
         <v>0</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>0</v>
-      </c>
-      <c r="R2" s="8">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="L3" s="4">
-        <v>-22.5</v>
+        <v>-8</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="O3" s="9">
-        <v>32</v>
-      </c>
-      <c r="P3" s="10">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="7">
+        <v>36</v>
+      </c>
+      <c r="P3" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="8">
         <v>0</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1381,111 +1417,111 @@
         <v>19</v>
       </c>
       <c r="B4" s="2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="L4" s="4">
-        <v>-8</v>
+        <v>-28.1</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="O4" s="6">
-        <v>6</v>
-      </c>
-      <c r="P4" s="8">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="P4" s="10">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>24</v>
       </c>
       <c r="R4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="L5" s="4">
-        <v>-28.1</v>
+        <v>-13.1</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="O5" s="11">
-        <v>84</v>
+        <v>180</v>
+      </c>
+      <c r="O5" s="6">
+        <v>81</v>
       </c>
       <c r="P5" s="12">
-        <v>77</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>1</v>
-      </c>
-      <c r="R5" s="13">
-        <v>12</v>
+        <v>62</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>17</v>
+      </c>
+      <c r="R5" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1493,111 +1529,111 @@
         <v>20</v>
       </c>
       <c r="B6" s="2">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="L6" s="4">
-        <v>-13.1</v>
+        <v>-33.6</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="O6" s="11">
-        <v>82</v>
+        <v>180</v>
+      </c>
+      <c r="O6" s="6">
+        <v>96</v>
       </c>
       <c r="P6" s="14">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="Q6" s="15">
-        <v>36</v>
-      </c>
-      <c r="R6" s="7">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="R6" s="16">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="L7" s="4">
-        <v>-33.6</v>
+        <v>-18.4</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="O7" s="11">
-        <v>99</v>
-      </c>
-      <c r="P7" s="16">
-        <v>97</v>
-      </c>
-      <c r="Q7" s="17">
-        <v>70</v>
-      </c>
-      <c r="R7" s="18">
+        <v>180</v>
+      </c>
+      <c r="O7" s="6">
+        <v>95</v>
+      </c>
+      <c r="P7" s="14">
+        <v>88</v>
+      </c>
+      <c r="Q7" s="10">
         <v>40</v>
+      </c>
+      <c r="R7" s="16">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1605,166 +1641,166 @@
         <v>21</v>
       </c>
       <c r="B8" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="L8" s="4">
-        <v>-18.4</v>
+        <v>-39.1</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="O8" s="11">
-        <v>89</v>
-      </c>
-      <c r="P8" s="19">
-        <v>63</v>
-      </c>
-      <c r="Q8" s="20">
-        <v>86</v>
-      </c>
-      <c r="R8" s="21">
-        <v>46</v>
+        <v>182</v>
+      </c>
+      <c r="O8" s="6">
+        <v>97</v>
+      </c>
+      <c r="P8" s="17">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>40</v>
+      </c>
+      <c r="R8" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="L9" s="4">
-        <v>-39.1</v>
+        <v>-23.9</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O9" s="11">
-        <v>81</v>
-      </c>
-      <c r="P9" s="22">
-        <v>55</v>
-      </c>
-      <c r="Q9" s="17">
-        <v>72</v>
-      </c>
-      <c r="R9" s="10">
-        <v>30</v>
+        <v>180</v>
+      </c>
+      <c r="O9" s="6">
+        <v>96</v>
+      </c>
+      <c r="P9" s="18">
+        <v>67</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>82</v>
+      </c>
+      <c r="R9" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="L10" s="4">
-        <v>-23.9</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="O10" s="11">
-        <v>56</v>
-      </c>
-      <c r="P10" s="18">
-        <v>40</v>
-      </c>
-      <c r="Q10" s="23">
-        <v>50</v>
-      </c>
-      <c r="R10" s="7">
+        <v>181</v>
+      </c>
+      <c r="O10" s="6">
+        <v>89</v>
+      </c>
+      <c r="P10" s="12">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>35</v>
+      </c>
+      <c r="R10" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1773,167 +1809,167 @@
         <v>22</v>
       </c>
       <c r="B11" s="2">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="L11" s="4">
-        <v>-9.1</v>
+        <v>-44.6</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="O11" s="11">
-        <v>59</v>
-      </c>
-      <c r="P11" s="23">
-        <v>49</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>30</v>
-      </c>
-      <c r="R11" s="7">
+        <v>182</v>
+      </c>
+      <c r="O11" s="6">
+        <v>82</v>
+      </c>
+      <c r="P11" s="17">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>24</v>
+      </c>
+      <c r="R11" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="L12" s="4">
-        <v>-44.6</v>
+        <v>-29.4</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O12" s="11">
-        <v>93</v>
-      </c>
-      <c r="P12" s="22">
-        <v>57</v>
-      </c>
-      <c r="Q12" s="24">
-        <v>92</v>
-      </c>
-      <c r="R12" s="21">
-        <v>45</v>
+        <v>183</v>
+      </c>
+      <c r="O12" s="6">
+        <v>82</v>
+      </c>
+      <c r="P12" s="19">
+        <v>81</v>
+      </c>
+      <c r="Q12" s="21">
+        <v>10</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="L13" s="4">
-        <v>-29.4</v>
+        <v>-14.3</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="O13" s="11">
-        <v>98</v>
+        <v>180</v>
+      </c>
+      <c r="O13" s="6">
+        <v>83</v>
       </c>
       <c r="P13" s="12">
-        <v>73</v>
-      </c>
-      <c r="Q13" s="16">
-        <v>96</v>
-      </c>
-      <c r="R13" s="23">
-        <v>50</v>
+        <v>59</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>4</v>
+      </c>
+      <c r="R13" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1941,166 +1977,166 @@
         <v>23</v>
       </c>
       <c r="B14" s="2">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="4">
+        <v>-49.7</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="O14" s="6">
+        <v>84</v>
+      </c>
+      <c r="P14" s="20">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="18">
         <v>66</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L14" s="4">
-        <v>-14.3</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="O14" s="11">
-        <v>98</v>
-      </c>
-      <c r="P14" s="25">
-        <v>61</v>
-      </c>
-      <c r="Q14" s="16">
-        <v>97</v>
-      </c>
-      <c r="R14" s="12">
-        <v>74</v>
+      <c r="R14" s="22">
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="L15" s="4">
-        <v>-49.7</v>
+        <v>-35</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O15" s="11">
+        <v>183</v>
+      </c>
+      <c r="O15" s="6">
         <v>100</v>
       </c>
-      <c r="P15" s="16">
-        <v>93</v>
-      </c>
-      <c r="Q15" s="26">
-        <v>98</v>
+      <c r="P15" s="23">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="24">
+        <v>100</v>
       </c>
       <c r="R15" s="24">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" s="4">
+        <v>-19.7</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="O16" s="6">
         <v>100</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="L16" s="4">
-        <v>-35</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="O16" s="11">
+      <c r="P16" s="20">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="24">
         <v>100</v>
       </c>
-      <c r="P16" s="16">
-        <v>97</v>
-      </c>
-      <c r="Q16" s="16">
-        <v>94</v>
-      </c>
-      <c r="R16" s="26">
+      <c r="R16" s="24">
         <v>100</v>
       </c>
     </row>
@@ -2109,59 +2145,171 @@
         <v>24</v>
       </c>
       <c r="B17" s="2">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L17" s="4">
+        <v>-40.5</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="O17" s="6">
+        <v>96</v>
+      </c>
+      <c r="P17" s="17">
+        <v>70</v>
+      </c>
+      <c r="Q17" s="22">
+        <v>85</v>
+      </c>
+      <c r="R17" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2">
         <v>33</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="C18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" s="4">
+        <v>-25.2</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="O18" s="6">
+        <v>95</v>
+      </c>
+      <c r="P18" s="25">
+        <v>73</v>
+      </c>
+      <c r="Q18" s="25">
+        <v>74</v>
+      </c>
+      <c r="R18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" s="4">
+        <v>-10.4</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O19" s="6">
+        <v>95</v>
+      </c>
+      <c r="P19" s="17">
+        <v>72</v>
+      </c>
+      <c r="Q19" s="17">
         <v>69</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="L17" s="4">
-        <v>-19.6</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="O17" s="11">
-        <v>99</v>
-      </c>
-      <c r="P17" s="16">
-        <v>94</v>
-      </c>
-      <c r="Q17" s="16">
-        <v>96</v>
-      </c>
-      <c r="R17" s="24">
-        <v>88</v>
+      <c r="R19" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L17">
+  <conditionalFormatting sqref="L2:L19">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -2177,7 +2325,7 @@
       <formula>-6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N17">
+  <conditionalFormatting sqref="N2:N19">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="191">
   <si>
     <t>Datum</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>30.12.2025</t>
-  </si>
-  <si>
     <t>31.12.2025</t>
   </si>
   <si>
@@ -91,10 +88,7 @@
     <t>05.01.2026</t>
   </si>
   <si>
-    <t>05:03</t>
-  </si>
-  <si>
-    <t>06:34</t>
+    <t>06.01.2026</t>
   </si>
   <si>
     <t>04:40</t>
@@ -112,10 +106,7 @@
     <t>03:35</t>
   </si>
   <si>
-    <t>06:21</t>
-  </si>
-  <si>
-    <t>06:30</t>
+    <t>06:22</t>
   </si>
   <si>
     <t>02:44</t>
@@ -127,10 +118,10 @@
     <t>06:33</t>
   </si>
   <si>
-    <t>01:09</t>
-  </si>
-  <si>
-    <t>06:07</t>
+    <t>01:08</t>
+  </si>
+  <si>
+    <t>06:08</t>
   </si>
   <si>
     <t>06:35</t>
@@ -139,42 +130,45 @@
     <t>05:58</t>
   </si>
   <si>
+    <t>06:36</t>
+  </si>
+  <si>
     <t>05:37</t>
   </si>
   <si>
-    <t>10:19</t>
-  </si>
-  <si>
-    <t>11:09</t>
+    <t>05:47</t>
+  </si>
+  <si>
+    <t>05:50</t>
   </si>
   <si>
     <t>10:08</t>
   </si>
   <si>
+    <t>11:07</t>
+  </si>
+  <si>
+    <t>09:55</t>
+  </si>
+  <si>
+    <t>11:04</t>
+  </si>
+  <si>
+    <t>09:40</t>
+  </si>
+  <si>
+    <t>11:01</t>
+  </si>
+  <si>
     <t>11:06</t>
   </si>
   <si>
-    <t>09:56</t>
-  </si>
-  <si>
-    <t>11:04</t>
-  </si>
-  <si>
-    <t>09:40</t>
-  </si>
-  <si>
-    <t>11:01</t>
-  </si>
-  <si>
     <t>09:23</t>
   </si>
   <si>
     <t>10:56</t>
   </si>
   <si>
-    <t>11:07</t>
-  </si>
-  <si>
     <t>09:03</t>
   </si>
   <si>
@@ -187,364 +181,391 @@
     <t>11:08</t>
   </si>
   <si>
-    <t>10:36</t>
-  </si>
-  <si>
-    <t>04:30:39</t>
-  </si>
-  <si>
-    <t>06:07:53</t>
-  </si>
-  <si>
-    <t>03:55:36</t>
-  </si>
-  <si>
-    <t>05:32:43</t>
+    <t>10:35</t>
+  </si>
+  <si>
+    <t>10:40</t>
+  </si>
+  <si>
+    <t>10:42</t>
+  </si>
+  <si>
+    <t>03:55:35</t>
+  </si>
+  <si>
+    <t>05:32:42</t>
   </si>
   <si>
     <t>03:20:28</t>
   </si>
   <si>
-    <t>04:57:28</t>
-  </si>
-  <si>
-    <t>02:45:18</t>
+    <t>04:57:27</t>
+  </si>
+  <si>
+    <t>02:45:17</t>
+  </si>
+  <si>
+    <t>04:22:08</t>
+  </si>
+  <si>
+    <t>05:59:51</t>
+  </si>
+  <si>
+    <t>02:10:03</t>
+  </si>
+  <si>
+    <t>03:46:45</t>
+  </si>
+  <si>
+    <t>05:24:24</t>
+  </si>
+  <si>
+    <t>01:34:46</t>
+  </si>
+  <si>
+    <t>03:11:17</t>
+  </si>
+  <si>
+    <t>04:48:53</t>
+  </si>
+  <si>
+    <t>02:35:45</t>
+  </si>
+  <si>
+    <t>04:13:17</t>
+  </si>
+  <si>
+    <t>05:51:14</t>
+  </si>
+  <si>
+    <t>02:00:10</t>
+  </si>
+  <si>
+    <t>03:37:37</t>
+  </si>
+  <si>
+    <t>05:15:31</t>
+  </si>
+  <si>
+    <t>03:58:19</t>
+  </si>
+  <si>
+    <t>05:35:00</t>
+  </si>
+  <si>
+    <t>03:23:19</t>
+  </si>
+  <si>
+    <t>04:59:46</t>
+  </si>
+  <si>
+    <t>02:48:19</t>
+  </si>
+  <si>
+    <t>04:24:27</t>
+  </si>
+  <si>
+    <t>06:02:08</t>
+  </si>
+  <si>
+    <t>02:13:22</t>
+  </si>
+  <si>
+    <t>03:49:05</t>
+  </si>
+  <si>
+    <t>05:26:41</t>
+  </si>
+  <si>
+    <t>01:38:43</t>
+  </si>
+  <si>
+    <t>03:13:39</t>
+  </si>
+  <si>
+    <t>04:51:09</t>
+  </si>
+  <si>
+    <t>02:38:09</t>
+  </si>
+  <si>
+    <t>04:15:33</t>
+  </si>
+  <si>
+    <t>05:53:43</t>
+  </si>
+  <si>
+    <t>02:02:36</t>
+  </si>
+  <si>
+    <t>03:39:53</t>
+  </si>
+  <si>
+    <t>05:17:57</t>
+  </si>
+  <si>
+    <t>04:00:39</t>
+  </si>
+  <si>
+    <t>05:38:15</t>
+  </si>
+  <si>
+    <t>03:25:25</t>
+  </si>
+  <si>
+    <t>05:02:59</t>
+  </si>
+  <si>
+    <t>02:50:06</t>
+  </si>
+  <si>
+    <t>04:27:38</t>
+  </si>
+  <si>
+    <t>06:05:24</t>
+  </si>
+  <si>
+    <t>02:14:44</t>
+  </si>
+  <si>
+    <t>03:52:13</t>
+  </si>
+  <si>
+    <t>05:29:58</t>
+  </si>
+  <si>
+    <t>01:39:17</t>
+  </si>
+  <si>
+    <t>03:16:42</t>
+  </si>
+  <si>
+    <t>04:54:27</t>
+  </si>
+  <si>
+    <t>02:41:08</t>
+  </si>
+  <si>
+    <t>04:18:51</t>
+  </si>
+  <si>
+    <t>05:56:32</t>
+  </si>
+  <si>
+    <t>02:05:29</t>
+  </si>
+  <si>
+    <t>03:43:10</t>
+  </si>
+  <si>
+    <t>05:20:52</t>
+  </si>
+  <si>
+    <t>04:02:59</t>
+  </si>
+  <si>
+    <t>05:41:31</t>
+  </si>
+  <si>
+    <t>03:27:31</t>
+  </si>
+  <si>
+    <t>05:06:13</t>
+  </si>
+  <si>
+    <t>02:51:54</t>
+  </si>
+  <si>
+    <t>04:30:49</t>
+  </si>
+  <si>
+    <t>06:08:39</t>
+  </si>
+  <si>
+    <t>02:16:06</t>
+  </si>
+  <si>
+    <t>03:55:20</t>
+  </si>
+  <si>
+    <t>05:33:14</t>
+  </si>
+  <si>
+    <t>01:39:51</t>
+  </si>
+  <si>
+    <t>03:19:47</t>
+  </si>
+  <si>
+    <t>04:57:44</t>
+  </si>
+  <si>
+    <t>02:44:07</t>
   </si>
   <si>
     <t>04:22:09</t>
   </si>
   <si>
-    <t>05:59:52</t>
-  </si>
-  <si>
-    <t>02:10:05</t>
-  </si>
-  <si>
-    <t>03:46:47</t>
-  </si>
-  <si>
-    <t>05:24:26</t>
-  </si>
-  <si>
-    <t>01:34:49</t>
-  </si>
-  <si>
-    <t>03:11:20</t>
-  </si>
-  <si>
-    <t>04:48:56</t>
-  </si>
-  <si>
-    <t>02:35:49</t>
-  </si>
-  <si>
-    <t>04:13:21</t>
-  </si>
-  <si>
-    <t>05:51:17</t>
-  </si>
-  <si>
-    <t>04:33:17</t>
-  </si>
-  <si>
-    <t>06:10:10</t>
-  </si>
-  <si>
-    <t>03:58:19</t>
-  </si>
-  <si>
-    <t>05:35:00</t>
-  </si>
-  <si>
-    <t>03:23:20</t>
-  </si>
-  <si>
-    <t>04:59:46</t>
-  </si>
-  <si>
-    <t>02:48:20</t>
-  </si>
-  <si>
-    <t>04:24:29</t>
-  </si>
-  <si>
-    <t>06:02:10</t>
-  </si>
-  <si>
-    <t>02:13:24</t>
-  </si>
-  <si>
-    <t>03:49:07</t>
-  </si>
-  <si>
-    <t>05:26:43</t>
-  </si>
-  <si>
-    <t>01:38:45</t>
-  </si>
-  <si>
-    <t>03:13:42</t>
-  </si>
-  <si>
-    <t>04:51:12</t>
-  </si>
-  <si>
-    <t>02:38:13</t>
-  </si>
-  <si>
-    <t>04:15:37</t>
-  </si>
-  <si>
-    <t>05:53:47</t>
-  </si>
-  <si>
-    <t>04:35:48</t>
-  </si>
-  <si>
-    <t>06:13:27</t>
-  </si>
-  <si>
-    <t>04:00:39</t>
-  </si>
-  <si>
-    <t>05:38:16</t>
-  </si>
-  <si>
-    <t>03:25:25</t>
-  </si>
-  <si>
-    <t>05:03:00</t>
-  </si>
-  <si>
-    <t>02:50:08</t>
-  </si>
-  <si>
-    <t>04:27:39</t>
-  </si>
-  <si>
-    <t>06:05:25</t>
-  </si>
-  <si>
-    <t>02:14:46</t>
-  </si>
-  <si>
-    <t>03:52:15</t>
-  </si>
-  <si>
-    <t>05:30:00</t>
-  </si>
-  <si>
-    <t>01:39:20</t>
-  </si>
-  <si>
-    <t>03:16:45</t>
-  </si>
-  <si>
-    <t>04:54:29</t>
-  </si>
-  <si>
-    <t>02:41:12</t>
-  </si>
-  <si>
-    <t>04:18:55</t>
-  </si>
-  <si>
-    <t>05:56:36</t>
-  </si>
-  <si>
-    <t>04:38:20</t>
-  </si>
-  <si>
-    <t>06:16:44</t>
-  </si>
-  <si>
-    <t>04:02:59</t>
-  </si>
-  <si>
-    <t>05:41:31</t>
-  </si>
-  <si>
-    <t>03:27:32</t>
-  </si>
-  <si>
-    <t>05:06:13</t>
-  </si>
-  <si>
-    <t>02:51:55</t>
-  </si>
-  <si>
-    <t>04:30:50</t>
-  </si>
-  <si>
-    <t>06:08:40</t>
-  </si>
-  <si>
-    <t>02:16:08</t>
-  </si>
-  <si>
-    <t>03:55:22</t>
-  </si>
-  <si>
-    <t>05:33:16</t>
-  </si>
-  <si>
-    <t>01:39:54</t>
-  </si>
-  <si>
-    <t>03:19:49</t>
-  </si>
-  <si>
-    <t>04:57:47</t>
-  </si>
-  <si>
-    <t>02:44:11</t>
-  </si>
-  <si>
-    <t>04:22:12</t>
-  </si>
-  <si>
-    <t>05:59:24</t>
-  </si>
-  <si>
-    <t>04:40:58</t>
-  </si>
-  <si>
-    <t>06:19:02</t>
-  </si>
-  <si>
-    <t>04:05:44</t>
+    <t>05:59:20</t>
+  </si>
+  <si>
+    <t>02:08:23</t>
+  </si>
+  <si>
+    <t>03:46:28</t>
+  </si>
+  <si>
+    <t>05:23:47</t>
+  </si>
+  <si>
+    <t>04:05:43</t>
   </si>
   <si>
     <t>05:43:49</t>
   </si>
   <si>
-    <t>03:30:24</t>
-  </si>
-  <si>
-    <t>05:08:32</t>
-  </si>
-  <si>
-    <t>02:54:58</t>
-  </si>
-  <si>
-    <t>04:33:10</t>
-  </si>
-  <si>
-    <t>06:10:58</t>
-  </si>
-  <si>
-    <t>02:19:28</t>
-  </si>
-  <si>
-    <t>03:57:43</t>
-  </si>
-  <si>
-    <t>05:35:33</t>
-  </si>
-  <si>
-    <t>01:43:52</t>
-  </si>
-  <si>
-    <t>03:22:12</t>
-  </si>
-  <si>
-    <t>05:00:03</t>
-  </si>
-  <si>
-    <t>02:46:36</t>
-  </si>
-  <si>
-    <t>06:01:53</t>
+    <t>03:30:23</t>
+  </si>
+  <si>
+    <t>05:08:31</t>
+  </si>
+  <si>
+    <t>02:54:57</t>
+  </si>
+  <si>
+    <t>04:33:09</t>
+  </si>
+  <si>
+    <t>06:10:57</t>
+  </si>
+  <si>
+    <t>02:19:26</t>
+  </si>
+  <si>
+    <t>03:57:41</t>
+  </si>
+  <si>
+    <t>05:35:31</t>
+  </si>
+  <si>
+    <t>01:43:49</t>
+  </si>
+  <si>
+    <t>03:22:09</t>
+  </si>
+  <si>
+    <t>05:00:00</t>
+  </si>
+  <si>
+    <t>02:46:32</t>
+  </si>
+  <si>
+    <t>04:24:25</t>
+  </si>
+  <si>
+    <t>06:01:49</t>
+  </si>
+  <si>
+    <t>02:10:50</t>
+  </si>
+  <si>
+    <t>03:48:44</t>
+  </si>
+  <si>
+    <t>05:26:13</t>
+  </si>
+  <si>
+    <t>16°</t>
+  </si>
+  <si>
+    <t>10°</t>
+  </si>
+  <si>
+    <t>9°</t>
+  </si>
+  <si>
+    <t>22°</t>
+  </si>
+  <si>
+    <t>3°</t>
+  </si>
+  <si>
+    <t>29°</t>
+  </si>
+  <si>
+    <t>7°</t>
+  </si>
+  <si>
+    <t>0°</t>
+  </si>
+  <si>
+    <t>18°</t>
+  </si>
+  <si>
+    <t>17°</t>
+  </si>
+  <si>
+    <t>8°</t>
+  </si>
+  <si>
+    <t>31°</t>
+  </si>
+  <si>
+    <t>1°</t>
+  </si>
+  <si>
+    <t>28°</t>
   </si>
   <si>
     <t>15°</t>
   </si>
   <si>
-    <t>2°</t>
-  </si>
-  <si>
-    <t>16°</t>
-  </si>
-  <si>
-    <t>10°</t>
-  </si>
-  <si>
-    <t>9°</t>
-  </si>
-  <si>
-    <t>22°</t>
-  </si>
-  <si>
-    <t>3°</t>
-  </si>
-  <si>
-    <t>29°</t>
-  </si>
-  <si>
-    <t>7°</t>
-  </si>
-  <si>
-    <t>0°</t>
-  </si>
-  <si>
-    <t>18°</t>
-  </si>
-  <si>
-    <t>17°</t>
-  </si>
-  <si>
-    <t>8°</t>
-  </si>
-  <si>
-    <t>31°</t>
-  </si>
-  <si>
-    <t>28°</t>
-  </si>
-  <si>
-    <t>04:34:31</t>
-  </si>
-  <si>
-    <t>06:08:19</t>
-  </si>
-  <si>
     <t>04:01:13</t>
   </si>
   <si>
-    <t>03:27:44</t>
-  </si>
-  <si>
-    <t>05:01:30</t>
-  </si>
-  <si>
-    <t>02:54:05</t>
-  </si>
-  <si>
-    <t>04:27:50</t>
-  </si>
-  <si>
-    <t>06:01:35</t>
-  </si>
-  <si>
-    <t>03:54:03</t>
-  </si>
-  <si>
-    <t>05:27:48</t>
-  </si>
-  <si>
-    <t>03:20:09</t>
-  </si>
-  <si>
-    <t>04:53:54</t>
-  </si>
-  <si>
-    <t>02:46:10</t>
-  </si>
-  <si>
-    <t>04:19:54</t>
-  </si>
-  <si>
-    <t>05:53:38</t>
+    <t>05:34:59</t>
+  </si>
+  <si>
+    <t>03:27:43</t>
+  </si>
+  <si>
+    <t>05:01:29</t>
+  </si>
+  <si>
+    <t>02:54:04</t>
+  </si>
+  <si>
+    <t>04:27:49</t>
+  </si>
+  <si>
+    <t>06:01:34</t>
+  </si>
+  <si>
+    <t>03:54:01</t>
+  </si>
+  <si>
+    <t>05:27:46</t>
+  </si>
+  <si>
+    <t>03:20:07</t>
+  </si>
+  <si>
+    <t>04:53:51</t>
+  </si>
+  <si>
+    <t>02:46:06</t>
+  </si>
+  <si>
+    <t>04:19:50</t>
+  </si>
+  <si>
+    <t>05:53:34</t>
+  </si>
+  <si>
+    <t>03:45:45</t>
+  </si>
+  <si>
+    <t>05:19:28</t>
   </si>
   <si>
     <t>A+B</t>
@@ -599,7 +620,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -620,7 +641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5E92CB"/>
+        <fgColor rgb="FFBBD1E9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,7 +653,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0B070"/>
+        <fgColor rgb="FFC4D7EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6E9DD0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6697CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80A9D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2C0E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5E92CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88AED8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8F4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,31 +719,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF80A9D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBD1E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6E9DD0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF3F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA2C0E1"/>
+        <fgColor rgb="FFD4E2F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,49 +737,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC4D7EC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8F4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF90B4DB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6697CD"/>
+        <fgColor rgb="FFAAC5E3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6EEF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF88AED8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4E2F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -841,9 +856,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1221,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1305,7 +1317,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>25</v>
@@ -1317,43 +1329,43 @@
         <v>58</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L2" s="4">
-        <v>-22.5</v>
+        <v>-28.1</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="O2" s="6">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="P2" s="7">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="Q2" s="8">
-        <v>0</v>
-      </c>
-      <c r="R2" s="8">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="R2" s="9">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1361,7 +1373,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>26</v>
@@ -1373,43 +1385,43 @@
         <v>59</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L3" s="4">
-        <v>-8</v>
+        <v>-13.1</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="O3" s="9">
-        <v>36</v>
-      </c>
-      <c r="P3" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>0</v>
-      </c>
-      <c r="R3" s="8">
-        <v>0</v>
+        <v>188</v>
+      </c>
+      <c r="O3" s="6">
+        <v>81</v>
+      </c>
+      <c r="P3" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>10</v>
+      </c>
+      <c r="R3" s="7">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1417,7 +1429,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>27</v>
@@ -1429,43 +1441,43 @@
         <v>60</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="L4" s="4">
-        <v>-28.1</v>
+        <v>-33.6</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="O4" s="6">
-        <v>75</v>
-      </c>
-      <c r="P4" s="10">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>24</v>
-      </c>
-      <c r="R4" s="7">
-        <v>3</v>
+        <v>99</v>
+      </c>
+      <c r="P4" s="12">
+        <v>97</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>25</v>
+      </c>
+      <c r="R4" s="14">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1473,7 +1485,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>28</v>
@@ -1485,43 +1497,43 @@
         <v>61</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="L5" s="4">
-        <v>-13.1</v>
+        <v>-18.4</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="O5" s="6">
-        <v>81</v>
-      </c>
-      <c r="P5" s="12">
-        <v>62</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>17</v>
-      </c>
-      <c r="R5" s="7">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="P5" s="15">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>3</v>
+      </c>
+      <c r="R5" s="17">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1529,7 +1541,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>29</v>
@@ -1541,43 +1553,43 @@
         <v>62</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L6" s="4">
-        <v>-33.6</v>
+        <v>-39.1</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="O6" s="6">
-        <v>96</v>
-      </c>
-      <c r="P6" s="14">
-        <v>89</v>
-      </c>
-      <c r="Q6" s="15">
-        <v>45</v>
-      </c>
-      <c r="R6" s="16">
-        <v>56</v>
+        <v>95</v>
+      </c>
+      <c r="P6" s="18">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>42</v>
+      </c>
+      <c r="R6" s="19">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1585,7 +1597,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>30</v>
@@ -1597,54 +1609,54 @@
         <v>63</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="L7" s="4">
-        <v>-18.4</v>
+        <v>-23.9</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="O7" s="6">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="P7" s="14">
-        <v>88</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>40</v>
-      </c>
-      <c r="R7" s="16">
-        <v>56</v>
+        <v>45</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>10</v>
+      </c>
+      <c r="R7" s="10">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>48</v>
@@ -1653,43 +1665,43 @@
         <v>64</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="L8" s="4">
-        <v>-39.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="O8" s="6">
-        <v>97</v>
-      </c>
-      <c r="P8" s="17">
-        <v>71</v>
-      </c>
-      <c r="Q8" s="10">
+        <v>90</v>
+      </c>
+      <c r="P8" s="20">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="19">
         <v>40</v>
       </c>
-      <c r="R8" s="7">
-        <v>4</v>
+      <c r="R8" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1697,10 +1709,10 @@
         <v>21</v>
       </c>
       <c r="B9" s="2">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>49</v>
@@ -1709,43 +1721,43 @@
         <v>65</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
       <c r="L9" s="4">
-        <v>-23.9</v>
+        <v>-44.6</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="O9" s="6">
-        <v>96</v>
-      </c>
-      <c r="P9" s="18">
+        <v>82</v>
+      </c>
+      <c r="P9" s="9">
         <v>67</v>
       </c>
-      <c r="Q9" s="19">
-        <v>82</v>
-      </c>
-      <c r="R9" s="7">
-        <v>5</v>
+      <c r="Q9" s="7">
+        <v>60</v>
+      </c>
+      <c r="R9" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1753,52 +1765,52 @@
         <v>21</v>
       </c>
       <c r="B10" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L10" s="4">
-        <v>-9.199999999999999</v>
+        <v>-29.4</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="O10" s="6">
-        <v>89</v>
-      </c>
-      <c r="P10" s="12">
-        <v>61</v>
-      </c>
-      <c r="Q10" s="20">
-        <v>35</v>
+        <v>53</v>
+      </c>
+      <c r="P10" s="14">
+        <v>43</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>2</v>
       </c>
       <c r="R10" s="8">
         <v>0</v>
@@ -1806,55 +1818,55 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>67</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="L11" s="4">
-        <v>-44.6</v>
+        <v>-14.3</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="O11" s="6">
-        <v>82</v>
-      </c>
-      <c r="P11" s="17">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>24</v>
+        <v>57</v>
+      </c>
+      <c r="P11" s="21">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0</v>
       </c>
       <c r="R11" s="8">
         <v>0</v>
@@ -1865,10 +1877,10 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>51</v>
@@ -1877,40 +1889,40 @@
         <v>68</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c r="L12" s="4">
-        <v>-29.4</v>
+        <v>-49.7</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="O12" s="6">
-        <v>82</v>
-      </c>
-      <c r="P12" s="19">
-        <v>81</v>
-      </c>
-      <c r="Q12" s="21">
-        <v>10</v>
+        <v>69</v>
+      </c>
+      <c r="P12" s="7">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>1</v>
       </c>
       <c r="R12" s="8">
         <v>0</v>
@@ -1921,10 +1933,10 @@
         <v>22</v>
       </c>
       <c r="B13" s="2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>52</v>
@@ -1933,40 +1945,40 @@
         <v>69</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L13" s="4">
-        <v>-14.3</v>
+        <v>-35</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="O13" s="6">
-        <v>83</v>
-      </c>
-      <c r="P13" s="12">
-        <v>59</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>4</v>
+        <v>73</v>
+      </c>
+      <c r="P13" s="22">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>1</v>
       </c>
       <c r="R13" s="8">
         <v>0</v>
@@ -1974,58 +1986,58 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>70</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="L14" s="4">
-        <v>-49.7</v>
+        <v>-19.7</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="O14" s="6">
-        <v>84</v>
-      </c>
-      <c r="P14" s="20">
-        <v>35</v>
-      </c>
-      <c r="Q14" s="18">
-        <v>66</v>
-      </c>
-      <c r="R14" s="22">
-        <v>84</v>
+        <v>71</v>
+      </c>
+      <c r="P14" s="9">
+        <v>63</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>24</v>
+      </c>
+      <c r="R14" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2033,55 +2045,55 @@
         <v>23</v>
       </c>
       <c r="B15" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="L15" s="4">
-        <v>-35</v>
+        <v>-40.5</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="O15" s="6">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="P15" s="23">
-        <v>29</v>
-      </c>
-      <c r="Q15" s="24">
-        <v>100</v>
-      </c>
-      <c r="R15" s="24">
-        <v>100</v>
+        <v>48</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>1</v>
+      </c>
+      <c r="R15" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2092,63 +2104,63 @@
         <v>33</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L16" s="4">
-        <v>-19.7</v>
+        <v>-25.2</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="O16" s="6">
-        <v>100</v>
-      </c>
-      <c r="P16" s="20">
-        <v>33</v>
-      </c>
-      <c r="Q16" s="24">
-        <v>100</v>
-      </c>
-      <c r="R16" s="24">
-        <v>100</v>
+        <v>54</v>
+      </c>
+      <c r="P16" s="23">
+        <v>49</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>0</v>
+      </c>
+      <c r="R16" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>55</v>
@@ -2157,43 +2169,43 @@
         <v>73</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="L17" s="4">
-        <v>-40.5</v>
+        <v>-10.4</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="O17" s="6">
-        <v>96</v>
-      </c>
-      <c r="P17" s="17">
-        <v>70</v>
-      </c>
-      <c r="Q17" s="22">
-        <v>85</v>
-      </c>
-      <c r="R17" s="7">
-        <v>4</v>
+        <v>54</v>
+      </c>
+      <c r="P17" s="23">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>0</v>
+      </c>
+      <c r="R17" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2201,10 +2213,10 @@
         <v>24</v>
       </c>
       <c r="B18" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>56</v>
@@ -2213,43 +2225,43 @@
         <v>74</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="L18" s="4">
-        <v>-25.2</v>
+        <v>-46</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="O18" s="6">
-        <v>95</v>
-      </c>
-      <c r="P18" s="25">
+        <v>74</v>
+      </c>
+      <c r="P18" s="20">
         <v>73</v>
       </c>
-      <c r="Q18" s="25">
-        <v>74</v>
-      </c>
-      <c r="R18" s="8">
-        <v>0</v>
+      <c r="Q18" s="8">
+        <v>1</v>
+      </c>
+      <c r="R18" s="16">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2257,59 +2269,115 @@
         <v>24</v>
       </c>
       <c r="B19" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>75</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L19" s="4">
-        <v>-10.4</v>
+        <v>-30.8</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="O19" s="6">
+        <v>81</v>
+      </c>
+      <c r="P19" s="18">
+        <v>80</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>0</v>
+      </c>
+      <c r="R19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="17">
-        <v>72</v>
-      </c>
-      <c r="Q19" s="17">
-        <v>69</v>
-      </c>
-      <c r="R19" s="8">
+      <c r="G20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L20" s="4">
+        <v>-15.6</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="O20" s="6">
+        <v>85</v>
+      </c>
+      <c r="P20" s="24">
+        <v>85</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>0</v>
+      </c>
+      <c r="R20" s="8">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L19">
+  <conditionalFormatting sqref="L2:L20">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -2325,7 +2393,7 @@
       <formula>-6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N19">
+  <conditionalFormatting sqref="N2:N20">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="199">
   <si>
     <t>Datum</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>31.12.2025</t>
-  </si>
-  <si>
     <t>01.01.2026</t>
   </si>
   <si>
@@ -91,25 +88,25 @@
     <t>06.01.2026</t>
   </si>
   <si>
-    <t>04:40</t>
+    <t>07.01.2026</t>
+  </si>
+  <si>
+    <t>04:12</t>
+  </si>
+  <si>
+    <t>06:27</t>
+  </si>
+  <si>
+    <t>03:35</t>
+  </si>
+  <si>
+    <t>06:22</t>
   </si>
   <si>
     <t>06:31</t>
   </si>
   <si>
-    <t>04:12</t>
-  </si>
-  <si>
-    <t>06:27</t>
-  </si>
-  <si>
-    <t>03:35</t>
-  </si>
-  <si>
-    <t>06:22</t>
-  </si>
-  <si>
-    <t>02:44</t>
+    <t>02:43</t>
   </si>
   <si>
     <t>06:15</t>
@@ -118,310 +115,328 @@
     <t>06:33</t>
   </si>
   <si>
-    <t>01:08</t>
-  </si>
-  <si>
-    <t>06:08</t>
+    <t>01:06</t>
+  </si>
+  <si>
+    <t>06:07</t>
+  </si>
+  <si>
+    <t>06:34</t>
+  </si>
+  <si>
+    <t>05:59</t>
+  </si>
+  <si>
+    <t>06:36</t>
+  </si>
+  <si>
+    <t>05:37</t>
+  </si>
+  <si>
+    <t>05:46</t>
   </si>
   <si>
     <t>06:35</t>
   </si>
   <si>
-    <t>05:58</t>
-  </si>
-  <si>
-    <t>06:36</t>
-  </si>
-  <si>
-    <t>05:37</t>
-  </si>
-  <si>
-    <t>05:47</t>
-  </si>
-  <si>
     <t>05:50</t>
   </si>
   <si>
-    <t>10:08</t>
+    <t>05:33</t>
+  </si>
+  <si>
+    <t>06:00</t>
+  </si>
+  <si>
+    <t>09:56</t>
+  </si>
+  <si>
+    <t>11:04</t>
+  </si>
+  <si>
+    <t>09:40</t>
+  </si>
+  <si>
+    <t>11:01</t>
+  </si>
+  <si>
+    <t>11:05</t>
+  </si>
+  <si>
+    <t>09:23</t>
+  </si>
+  <si>
+    <t>10:56</t>
   </si>
   <si>
     <t>11:07</t>
   </si>
   <si>
-    <t>09:55</t>
-  </si>
-  <si>
-    <t>11:04</t>
-  </si>
-  <si>
-    <t>09:40</t>
-  </si>
-  <si>
-    <t>11:01</t>
-  </si>
-  <si>
-    <t>11:06</t>
-  </si>
-  <si>
-    <t>09:23</t>
-  </si>
-  <si>
-    <t>10:56</t>
-  </si>
-  <si>
     <t>09:03</t>
   </si>
   <si>
     <t>10:52</t>
   </si>
   <si>
+    <t>11:08</t>
+  </si>
+  <si>
+    <t>10:46</t>
+  </si>
+  <si>
+    <t>10:36</t>
+  </si>
+  <si>
+    <t>10:40</t>
+  </si>
+  <si>
+    <t>10:42</t>
+  </si>
+  <si>
+    <t>10:32</t>
+  </si>
+  <si>
     <t>10:47</t>
   </si>
   <si>
-    <t>11:08</t>
-  </si>
-  <si>
-    <t>10:35</t>
-  </si>
-  <si>
-    <t>10:40</t>
-  </si>
-  <si>
-    <t>10:42</t>
-  </si>
-  <si>
-    <t>03:55:35</t>
-  </si>
-  <si>
-    <t>05:32:42</t>
-  </si>
-  <si>
-    <t>03:20:28</t>
+    <t>03:20:27</t>
   </si>
   <si>
     <t>04:57:27</t>
   </si>
   <si>
-    <t>02:45:17</t>
-  </si>
-  <si>
-    <t>04:22:08</t>
-  </si>
-  <si>
-    <t>05:59:51</t>
-  </si>
-  <si>
-    <t>02:10:03</t>
-  </si>
-  <si>
-    <t>03:46:45</t>
-  </si>
-  <si>
-    <t>05:24:24</t>
-  </si>
-  <si>
-    <t>01:34:46</t>
-  </si>
-  <si>
-    <t>03:11:17</t>
-  </si>
-  <si>
-    <t>04:48:53</t>
-  </si>
-  <si>
-    <t>02:35:45</t>
-  </si>
-  <si>
-    <t>04:13:17</t>
-  </si>
-  <si>
-    <t>05:51:14</t>
-  </si>
-  <si>
-    <t>02:00:10</t>
-  </si>
-  <si>
-    <t>03:37:37</t>
-  </si>
-  <si>
-    <t>05:15:31</t>
-  </si>
-  <si>
-    <t>03:58:19</t>
-  </si>
-  <si>
-    <t>05:35:00</t>
+    <t>02:45:16</t>
+  </si>
+  <si>
+    <t>04:22:07</t>
+  </si>
+  <si>
+    <t>05:59:50</t>
+  </si>
+  <si>
+    <t>02:10:01</t>
+  </si>
+  <si>
+    <t>03:46:43</t>
+  </si>
+  <si>
+    <t>05:24:22</t>
+  </si>
+  <si>
+    <t>01:34:43</t>
+  </si>
+  <si>
+    <t>03:11:14</t>
+  </si>
+  <si>
+    <t>04:48:49</t>
+  </si>
+  <si>
+    <t>02:35:41</t>
+  </si>
+  <si>
+    <t>04:13:12</t>
+  </si>
+  <si>
+    <t>05:51:08</t>
+  </si>
+  <si>
+    <t>02:00:03</t>
+  </si>
+  <si>
+    <t>03:37:30</t>
+  </si>
+  <si>
+    <t>05:15:24</t>
+  </si>
+  <si>
+    <t>01:24:22</t>
+  </si>
+  <si>
+    <t>03:01:43</t>
+  </si>
+  <si>
+    <t>04:39:35</t>
   </si>
   <si>
     <t>03:23:19</t>
   </si>
   <si>
-    <t>04:59:46</t>
-  </si>
-  <si>
-    <t>02:48:19</t>
-  </si>
-  <si>
-    <t>04:24:27</t>
-  </si>
-  <si>
-    <t>06:02:08</t>
-  </si>
-  <si>
-    <t>02:13:22</t>
-  </si>
-  <si>
-    <t>03:49:05</t>
-  </si>
-  <si>
-    <t>05:26:41</t>
-  </si>
-  <si>
-    <t>01:38:43</t>
-  </si>
-  <si>
-    <t>03:13:39</t>
-  </si>
-  <si>
-    <t>04:51:09</t>
-  </si>
-  <si>
-    <t>02:38:09</t>
-  </si>
-  <si>
-    <t>04:15:33</t>
-  </si>
-  <si>
-    <t>05:53:43</t>
-  </si>
-  <si>
-    <t>02:02:36</t>
-  </si>
-  <si>
-    <t>03:39:53</t>
-  </si>
-  <si>
-    <t>05:17:57</t>
-  </si>
-  <si>
-    <t>04:00:39</t>
-  </si>
-  <si>
-    <t>05:38:15</t>
-  </si>
-  <si>
-    <t>03:25:25</t>
+    <t>04:59:45</t>
+  </si>
+  <si>
+    <t>02:48:18</t>
+  </si>
+  <si>
+    <t>04:24:26</t>
+  </si>
+  <si>
+    <t>06:02:07</t>
+  </si>
+  <si>
+    <t>02:13:21</t>
+  </si>
+  <si>
+    <t>03:49:03</t>
+  </si>
+  <si>
+    <t>05:26:39</t>
+  </si>
+  <si>
+    <t>01:38:41</t>
+  </si>
+  <si>
+    <t>03:13:36</t>
+  </si>
+  <si>
+    <t>04:51:06</t>
+  </si>
+  <si>
+    <t>02:38:04</t>
+  </si>
+  <si>
+    <t>04:15:28</t>
+  </si>
+  <si>
+    <t>05:53:38</t>
+  </si>
+  <si>
+    <t>02:02:30</t>
+  </si>
+  <si>
+    <t>03:39:46</t>
+  </si>
+  <si>
+    <t>05:17:50</t>
+  </si>
+  <si>
+    <t>01:26:51</t>
+  </si>
+  <si>
+    <t>03:04:00</t>
+  </si>
+  <si>
+    <t>04:41:59</t>
+  </si>
+  <si>
+    <t>03:25:24</t>
   </si>
   <si>
     <t>05:02:59</t>
   </si>
   <si>
-    <t>02:50:06</t>
-  </si>
-  <si>
-    <t>04:27:38</t>
-  </si>
-  <si>
-    <t>06:05:24</t>
-  </si>
-  <si>
-    <t>02:14:44</t>
-  </si>
-  <si>
-    <t>03:52:13</t>
-  </si>
-  <si>
-    <t>05:29:58</t>
-  </si>
-  <si>
-    <t>01:39:17</t>
-  </si>
-  <si>
-    <t>03:16:42</t>
-  </si>
-  <si>
-    <t>04:54:27</t>
-  </si>
-  <si>
-    <t>02:41:08</t>
-  </si>
-  <si>
-    <t>04:18:51</t>
-  </si>
-  <si>
-    <t>05:56:32</t>
-  </si>
-  <si>
-    <t>02:05:29</t>
-  </si>
-  <si>
-    <t>03:43:10</t>
-  </si>
-  <si>
-    <t>05:20:52</t>
-  </si>
-  <si>
-    <t>04:02:59</t>
-  </si>
-  <si>
-    <t>05:41:31</t>
+    <t>02:50:05</t>
+  </si>
+  <si>
+    <t>04:27:37</t>
+  </si>
+  <si>
+    <t>06:05:23</t>
+  </si>
+  <si>
+    <t>02:14:42</t>
+  </si>
+  <si>
+    <t>03:52:11</t>
+  </si>
+  <si>
+    <t>05:29:55</t>
+  </si>
+  <si>
+    <t>01:39:14</t>
+  </si>
+  <si>
+    <t>03:16:39</t>
+  </si>
+  <si>
+    <t>04:54:23</t>
+  </si>
+  <si>
+    <t>02:41:03</t>
+  </si>
+  <si>
+    <t>04:18:46</t>
+  </si>
+  <si>
+    <t>05:56:27</t>
+  </si>
+  <si>
+    <t>02:05:22</t>
+  </si>
+  <si>
+    <t>03:43:04</t>
+  </si>
+  <si>
+    <t>05:20:45</t>
+  </si>
+  <si>
+    <t>01:29:37</t>
+  </si>
+  <si>
+    <t>03:07:16</t>
+  </si>
+  <si>
+    <t>04:44:59</t>
   </si>
   <si>
     <t>03:27:31</t>
   </si>
   <si>
-    <t>05:06:13</t>
-  </si>
-  <si>
-    <t>02:51:54</t>
-  </si>
-  <si>
-    <t>04:30:49</t>
-  </si>
-  <si>
-    <t>06:08:39</t>
-  </si>
-  <si>
-    <t>02:16:06</t>
-  </si>
-  <si>
-    <t>03:55:20</t>
-  </si>
-  <si>
-    <t>05:33:14</t>
-  </si>
-  <si>
-    <t>01:39:51</t>
-  </si>
-  <si>
-    <t>03:19:47</t>
-  </si>
-  <si>
-    <t>04:57:44</t>
-  </si>
-  <si>
-    <t>02:44:07</t>
-  </si>
-  <si>
-    <t>04:22:09</t>
-  </si>
-  <si>
-    <t>05:59:20</t>
-  </si>
-  <si>
-    <t>02:08:23</t>
-  </si>
-  <si>
-    <t>03:46:28</t>
-  </si>
-  <si>
-    <t>05:23:47</t>
-  </si>
-  <si>
-    <t>04:05:43</t>
-  </si>
-  <si>
-    <t>05:43:49</t>
+    <t>05:06:12</t>
+  </si>
+  <si>
+    <t>02:51:53</t>
+  </si>
+  <si>
+    <t>04:30:48</t>
+  </si>
+  <si>
+    <t>06:08:38</t>
+  </si>
+  <si>
+    <t>02:16:04</t>
+  </si>
+  <si>
+    <t>03:55:18</t>
+  </si>
+  <si>
+    <t>05:33:12</t>
+  </si>
+  <si>
+    <t>01:39:47</t>
+  </si>
+  <si>
+    <t>03:19:43</t>
+  </si>
+  <si>
+    <t>04:57:40</t>
+  </si>
+  <si>
+    <t>02:44:03</t>
+  </si>
+  <si>
+    <t>04:22:04</t>
+  </si>
+  <si>
+    <t>05:59:15</t>
+  </si>
+  <si>
+    <t>02:08:16</t>
+  </si>
+  <si>
+    <t>03:46:21</t>
+  </si>
+  <si>
+    <t>05:23:40</t>
+  </si>
+  <si>
+    <t>01:32:24</t>
+  </si>
+  <si>
+    <t>03:10:34</t>
+  </si>
+  <si>
+    <t>04:47:59</t>
   </si>
   <si>
     <t>03:30:23</t>
@@ -430,55 +445,58 @@
     <t>05:08:31</t>
   </si>
   <si>
-    <t>02:54:57</t>
-  </si>
-  <si>
-    <t>04:33:09</t>
-  </si>
-  <si>
-    <t>06:10:57</t>
-  </si>
-  <si>
-    <t>02:19:26</t>
-  </si>
-  <si>
-    <t>03:57:41</t>
-  </si>
-  <si>
-    <t>05:35:31</t>
-  </si>
-  <si>
-    <t>01:43:49</t>
-  </si>
-  <si>
-    <t>03:22:09</t>
-  </si>
-  <si>
-    <t>05:00:00</t>
-  </si>
-  <si>
-    <t>02:46:32</t>
-  </si>
-  <si>
-    <t>04:24:25</t>
-  </si>
-  <si>
-    <t>06:01:49</t>
-  </si>
-  <si>
-    <t>02:10:50</t>
-  </si>
-  <si>
-    <t>03:48:44</t>
-  </si>
-  <si>
-    <t>05:26:13</t>
-  </si>
-  <si>
-    <t>16°</t>
-  </si>
-  <si>
-    <t>10°</t>
+    <t>02:54:56</t>
+  </si>
+  <si>
+    <t>04:33:08</t>
+  </si>
+  <si>
+    <t>06:10:55</t>
+  </si>
+  <si>
+    <t>02:19:24</t>
+  </si>
+  <si>
+    <t>03:57:39</t>
+  </si>
+  <si>
+    <t>05:35:29</t>
+  </si>
+  <si>
+    <t>01:43:46</t>
+  </si>
+  <si>
+    <t>03:22:06</t>
+  </si>
+  <si>
+    <t>04:59:57</t>
+  </si>
+  <si>
+    <t>02:46:27</t>
+  </si>
+  <si>
+    <t>04:24:20</t>
+  </si>
+  <si>
+    <t>06:01:44</t>
+  </si>
+  <si>
+    <t>02:10:43</t>
+  </si>
+  <si>
+    <t>03:48:38</t>
+  </si>
+  <si>
+    <t>05:26:06</t>
+  </si>
+  <si>
+    <t>01:34:54</t>
+  </si>
+  <si>
+    <t>03:12:50</t>
+  </si>
+  <si>
+    <t>04:50:22</t>
   </si>
   <si>
     <t>9°</t>
@@ -520,52 +538,61 @@
     <t>15°</t>
   </si>
   <si>
-    <t>04:01:13</t>
-  </si>
-  <si>
-    <t>05:34:59</t>
+    <t>6°</t>
+  </si>
+  <si>
+    <t>25°</t>
   </si>
   <si>
     <t>03:27:43</t>
   </si>
   <si>
-    <t>05:01:29</t>
-  </si>
-  <si>
-    <t>02:54:04</t>
-  </si>
-  <si>
-    <t>04:27:49</t>
-  </si>
-  <si>
-    <t>06:01:34</t>
-  </si>
-  <si>
-    <t>03:54:01</t>
-  </si>
-  <si>
-    <t>05:27:46</t>
-  </si>
-  <si>
-    <t>03:20:07</t>
-  </si>
-  <si>
-    <t>04:53:51</t>
-  </si>
-  <si>
-    <t>02:46:06</t>
-  </si>
-  <si>
-    <t>04:19:50</t>
-  </si>
-  <si>
-    <t>05:53:34</t>
-  </si>
-  <si>
-    <t>03:45:45</t>
-  </si>
-  <si>
-    <t>05:19:28</t>
+    <t>05:01:28</t>
+  </si>
+  <si>
+    <t>02:54:03</t>
+  </si>
+  <si>
+    <t>04:27:48</t>
+  </si>
+  <si>
+    <t>06:01:33</t>
+  </si>
+  <si>
+    <t>03:53:59</t>
+  </si>
+  <si>
+    <t>05:27:44</t>
+  </si>
+  <si>
+    <t>03:20:03</t>
+  </si>
+  <si>
+    <t>04:53:48</t>
+  </si>
+  <si>
+    <t>02:46:02</t>
+  </si>
+  <si>
+    <t>04:19:46</t>
+  </si>
+  <si>
+    <t>05:53:29</t>
+  </si>
+  <si>
+    <t>03:45:39</t>
+  </si>
+  <si>
+    <t>05:19:22</t>
+  </si>
+  <si>
+    <t>03:11:27</t>
+  </si>
+  <si>
+    <t>04:45:11</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>A+B</t>
@@ -574,16 +601,13 @@
     <t>B</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>1</t>
@@ -641,7 +665,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBBD1E9"/>
+        <fgColor rgb="FFCCDCEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6EEF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5E92CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6E9DD0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF3F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,13 +713,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFAAC5E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4E2F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC4D7EC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6E9DD0"/>
+        <fgColor rgb="FF90B4DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,13 +743,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6F9FC"/>
+        <fgColor rgb="FF6AD26A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF80A9D6"/>
+        <fgColor rgb="FF99BADE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88AED8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,61 +767,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5E92CB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF88AED8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8F4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99BADE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4E2F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB2CBE6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCDCEE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAAC5E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6EEF7"/>
+        <fgColor rgb="FF80A9D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,7 +1257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1317,55 +1341,55 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L2" s="4">
+        <v>-33.6</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="O2" s="6">
         <v>96</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L2" s="4">
-        <v>-28.1</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="O2" s="6">
-        <v>88</v>
-      </c>
       <c r="P2" s="7">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Q2" s="8">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="R2" s="9">
-        <v>64</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1373,55 +1397,55 @@
         <v>18</v>
       </c>
       <c r="B3" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="L3" s="4">
-        <v>-13.1</v>
+        <v>-18.4</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="O3" s="6">
-        <v>81</v>
-      </c>
-      <c r="P3" s="10">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>10</v>
-      </c>
-      <c r="R3" s="7">
-        <v>61</v>
+        <v>100</v>
+      </c>
+      <c r="P3" s="9">
+        <v>94</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>5</v>
+      </c>
+      <c r="R3" s="11">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1429,55 +1453,55 @@
         <v>19</v>
       </c>
       <c r="B4" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L4" s="4">
+        <v>-39.1</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O4" s="6">
         <v>98</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="L4" s="4">
-        <v>-33.6</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="O4" s="6">
-        <v>99</v>
-      </c>
       <c r="P4" s="12">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="13">
-        <v>25</v>
-      </c>
-      <c r="R4" s="14">
-        <v>46</v>
+        <v>89</v>
+      </c>
+      <c r="R4" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1485,111 +1509,111 @@
         <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="L5" s="4">
-        <v>-18.4</v>
+        <v>-23.9</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="O5" s="6">
         <v>100</v>
       </c>
-      <c r="P5" s="15">
-        <v>100</v>
-      </c>
-      <c r="Q5" s="16">
-        <v>3</v>
-      </c>
-      <c r="R5" s="17">
-        <v>29</v>
+      <c r="P5" s="13">
+        <v>88</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>92</v>
+      </c>
+      <c r="R5" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="L6" s="4">
-        <v>-39.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="O6" s="6">
-        <v>95</v>
-      </c>
-      <c r="P6" s="18">
-        <v>79</v>
-      </c>
-      <c r="Q6" s="19">
-        <v>42</v>
-      </c>
-      <c r="R6" s="19">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="P6" s="15">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>50</v>
+      </c>
+      <c r="R6" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1597,55 +1621,55 @@
         <v>20</v>
       </c>
       <c r="B7" s="2">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="4">
+        <v>-44.7</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O7" s="6">
         <v>82</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="L7" s="4">
-        <v>-23.9</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="O7" s="6">
-        <v>59</v>
-      </c>
-      <c r="P7" s="14">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>10</v>
-      </c>
-      <c r="R7" s="10">
-        <v>17</v>
+      <c r="P7" s="12">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>2</v>
+      </c>
+      <c r="R7" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1653,110 +1677,110 @@
         <v>20</v>
       </c>
       <c r="B8" s="2">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="L8" s="4">
-        <v>-9.199999999999999</v>
+        <v>-29.5</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="O8" s="6">
-        <v>90</v>
-      </c>
-      <c r="P8" s="20">
-        <v>77</v>
-      </c>
-      <c r="Q8" s="19">
-        <v>40</v>
-      </c>
-      <c r="R8" s="8">
+        <v>79</v>
+      </c>
+      <c r="P8" s="16">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>3</v>
+      </c>
+      <c r="R8" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="L9" s="4">
-        <v>-44.6</v>
+        <v>-14.3</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="O9" s="6">
-        <v>82</v>
-      </c>
-      <c r="P9" s="9">
-        <v>67</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>60</v>
-      </c>
-      <c r="R9" s="8">
+        <v>66</v>
+      </c>
+      <c r="P9" s="17">
+        <v>66</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>1</v>
+      </c>
+      <c r="R9" s="14">
         <v>0</v>
       </c>
     </row>
@@ -1765,54 +1789,54 @@
         <v>21</v>
       </c>
       <c r="B10" s="2">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="L10" s="4">
-        <v>-29.4</v>
+        <v>-49.7</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="O10" s="6">
-        <v>53</v>
-      </c>
-      <c r="P10" s="14">
-        <v>43</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>2</v>
-      </c>
-      <c r="R10" s="8">
+        <v>71</v>
+      </c>
+      <c r="P10" s="15">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>33</v>
+      </c>
+      <c r="R10" s="14">
         <v>0</v>
       </c>
     </row>
@@ -1821,110 +1845,110 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="L11" s="4">
-        <v>-14.3</v>
+        <v>-35</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="O11" s="6">
-        <v>57</v>
-      </c>
-      <c r="P11" s="21">
-        <v>55</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>0</v>
-      </c>
-      <c r="R11" s="8">
+        <v>83</v>
+      </c>
+      <c r="P11" s="12">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>12</v>
+      </c>
+      <c r="R11" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="L12" s="4">
-        <v>-49.7</v>
+        <v>-19.7</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="O12" s="6">
-        <v>69</v>
-      </c>
-      <c r="P12" s="7">
-        <v>62</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>1</v>
-      </c>
-      <c r="R12" s="8">
+        <v>90</v>
+      </c>
+      <c r="P12" s="17">
+        <v>64</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>63</v>
+      </c>
+      <c r="R12" s="14">
         <v>0</v>
       </c>
     </row>
@@ -1933,54 +1957,54 @@
         <v>22</v>
       </c>
       <c r="B13" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="L13" s="4">
-        <v>-35</v>
+        <v>-40.5</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="O13" s="6">
-        <v>73</v>
-      </c>
-      <c r="P13" s="22">
-        <v>72</v>
-      </c>
-      <c r="Q13" s="8">
+        <v>195</v>
+      </c>
+      <c r="O13" s="20">
+        <v>3</v>
+      </c>
+      <c r="P13" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="14">
         <v>1</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R13" s="14">
         <v>0</v>
       </c>
     </row>
@@ -1992,107 +2016,107 @@
         <v>33</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="L14" s="4">
-        <v>-19.7</v>
+        <v>-25.2</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="O14" s="6">
-        <v>71</v>
-      </c>
-      <c r="P14" s="9">
-        <v>63</v>
-      </c>
-      <c r="Q14" s="13">
-        <v>24</v>
-      </c>
-      <c r="R14" s="8">
+        <v>195</v>
+      </c>
+      <c r="O14" s="20">
+        <v>3</v>
+      </c>
+      <c r="P14" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>0</v>
+      </c>
+      <c r="R14" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="L15" s="4">
-        <v>-40.5</v>
+        <v>-10.4</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="O15" s="6">
-        <v>60</v>
-      </c>
-      <c r="P15" s="23">
-        <v>48</v>
-      </c>
-      <c r="Q15" s="8">
-        <v>1</v>
-      </c>
-      <c r="R15" s="8">
+        <v>197</v>
+      </c>
+      <c r="O15" s="20">
+        <v>5</v>
+      </c>
+      <c r="P15" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>0</v>
+      </c>
+      <c r="R15" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2101,55 +2125,55 @@
         <v>23</v>
       </c>
       <c r="B16" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>166</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="L16" s="4">
-        <v>-25.2</v>
+        <v>-46</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="O16" s="6">
-        <v>54</v>
-      </c>
-      <c r="P16" s="23">
-        <v>49</v>
-      </c>
-      <c r="Q16" s="8">
+        <v>80</v>
+      </c>
+      <c r="P16" s="16">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="14">
         <v>0</v>
       </c>
-      <c r="R16" s="8">
-        <v>0</v>
+      <c r="R16" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2157,111 +2181,111 @@
         <v>23</v>
       </c>
       <c r="B17" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L17" s="4">
+        <v>-30.8</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O17" s="6">
+        <v>77</v>
+      </c>
+      <c r="P17" s="16">
         <v>73</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="L17" s="4">
-        <v>-10.4</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="O17" s="6">
-        <v>54</v>
-      </c>
-      <c r="P17" s="23">
-        <v>48</v>
-      </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="14">
         <v>0</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R17" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2">
         <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="L18" s="4">
-        <v>-46</v>
+        <v>-15.6</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="O18" s="6">
-        <v>74</v>
-      </c>
-      <c r="P18" s="20">
-        <v>73</v>
-      </c>
-      <c r="Q18" s="8">
-        <v>1</v>
-      </c>
-      <c r="R18" s="16">
-        <v>6</v>
+        <v>65</v>
+      </c>
+      <c r="P18" s="17">
+        <v>65</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>0</v>
+      </c>
+      <c r="R18" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2269,55 +2293,55 @@
         <v>24</v>
       </c>
       <c r="B19" s="2">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="L19" s="4">
-        <v>-30.8</v>
+        <v>-50.9</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="O19" s="6">
-        <v>81</v>
-      </c>
-      <c r="P19" s="18">
-        <v>80</v>
-      </c>
-      <c r="Q19" s="8">
+        <v>59</v>
+      </c>
+      <c r="P19" s="21">
+        <v>42</v>
+      </c>
+      <c r="Q19" s="14">
         <v>0</v>
       </c>
-      <c r="R19" s="8">
-        <v>1</v>
+      <c r="R19" s="18">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2325,59 +2349,115 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="L20" s="4">
-        <v>-15.6</v>
+        <v>-36.4</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="O20" s="6">
-        <v>85</v>
-      </c>
-      <c r="P20" s="24">
-        <v>85</v>
-      </c>
-      <c r="Q20" s="8">
+        <v>54</v>
+      </c>
+      <c r="P20" s="22">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="14">
         <v>0</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R20" s="21">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2">
+        <v>25</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L21" s="4">
+        <v>-21.1</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="O21" s="6">
+        <v>55</v>
+      </c>
+      <c r="P21" s="23">
+        <v>43</v>
+      </c>
+      <c r="Q21" s="14">
         <v>0</v>
+      </c>
+      <c r="R21" s="24">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L20">
+  <conditionalFormatting sqref="L2:L21">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -2393,7 +2473,7 @@
       <formula>-6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N20">
+  <conditionalFormatting sqref="N2:N21">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="210">
   <si>
     <t>Datum</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>01.01.2026</t>
-  </si>
-  <si>
     <t>02.01.2026</t>
   </si>
   <si>
@@ -91,10 +88,7 @@
     <t>07.01.2026</t>
   </si>
   <si>
-    <t>04:12</t>
-  </si>
-  <si>
-    <t>06:27</t>
+    <t>08.01.2026</t>
   </si>
   <si>
     <t>03:35</t>
@@ -106,52 +100,55 @@
     <t>06:31</t>
   </si>
   <si>
-    <t>02:43</t>
-  </si>
-  <si>
-    <t>06:15</t>
+    <t>02:44</t>
+  </si>
+  <si>
+    <t>06:16</t>
   </si>
   <si>
     <t>06:33</t>
   </si>
   <si>
-    <t>01:06</t>
-  </si>
-  <si>
-    <t>06:07</t>
+    <t>01:09</t>
+  </si>
+  <si>
+    <t>06:08</t>
+  </si>
+  <si>
+    <t>06:35</t>
+  </si>
+  <si>
+    <t>05:58</t>
+  </si>
+  <si>
+    <t>05:38</t>
+  </si>
+  <si>
+    <t>05:47</t>
+  </si>
+  <si>
+    <t>05:50</t>
+  </si>
+  <si>
+    <t>05:33</t>
   </si>
   <si>
     <t>06:34</t>
   </si>
   <si>
-    <t>05:59</t>
-  </si>
-  <si>
-    <t>06:36</t>
-  </si>
-  <si>
-    <t>05:37</t>
-  </si>
-  <si>
-    <t>05:46</t>
-  </si>
-  <si>
-    <t>06:35</t>
-  </si>
-  <si>
-    <t>05:50</t>
-  </si>
-  <si>
-    <t>05:33</t>
-  </si>
-  <si>
-    <t>06:00</t>
-  </si>
-  <si>
-    <t>09:56</t>
-  </si>
-  <si>
-    <t>11:04</t>
+    <t>06:01</t>
+  </si>
+  <si>
+    <t>05:17</t>
+  </si>
+  <si>
+    <t>06:32</t>
+  </si>
+  <si>
+    <t>06:09</t>
+  </si>
+  <si>
+    <t>01:43</t>
   </si>
   <si>
     <t>09:40</t>
@@ -160,19 +157,16 @@
     <t>11:01</t>
   </si>
   <si>
-    <t>11:05</t>
+    <t>11:07</t>
   </si>
   <si>
     <t>09:23</t>
   </si>
   <si>
-    <t>10:56</t>
-  </si>
-  <si>
-    <t>11:07</t>
-  </si>
-  <si>
-    <t>09:03</t>
+    <t>10:57</t>
+  </si>
+  <si>
+    <t>09:04</t>
   </si>
   <si>
     <t>10:52</t>
@@ -184,6 +178,9 @@
     <t>10:46</t>
   </si>
   <si>
+    <t>11:09</t>
+  </si>
+  <si>
     <t>10:36</t>
   </si>
   <si>
@@ -196,345 +193,381 @@
     <t>10:32</t>
   </si>
   <si>
-    <t>10:47</t>
-  </si>
-  <si>
-    <t>03:20:27</t>
-  </si>
-  <si>
-    <t>04:57:27</t>
-  </si>
-  <si>
-    <t>02:45:16</t>
-  </si>
-  <si>
-    <t>04:22:07</t>
+    <t>10:48</t>
+  </si>
+  <si>
+    <t>10:24</t>
+  </si>
+  <si>
+    <t>11:06</t>
+  </si>
+  <si>
+    <t>09:07</t>
+  </si>
+  <si>
+    <t>02:45:17</t>
+  </si>
+  <si>
+    <t>04:22:08</t>
   </si>
   <si>
     <t>05:59:50</t>
   </si>
   <si>
-    <t>02:10:01</t>
-  </si>
-  <si>
-    <t>03:46:43</t>
-  </si>
-  <si>
-    <t>05:24:22</t>
-  </si>
-  <si>
-    <t>01:34:43</t>
-  </si>
-  <si>
-    <t>03:11:14</t>
-  </si>
-  <si>
-    <t>04:48:49</t>
-  </si>
-  <si>
-    <t>02:35:41</t>
-  </si>
-  <si>
-    <t>04:13:12</t>
-  </si>
-  <si>
-    <t>05:51:08</t>
-  </si>
-  <si>
-    <t>02:00:03</t>
-  </si>
-  <si>
-    <t>03:37:30</t>
-  </si>
-  <si>
-    <t>05:15:24</t>
-  </si>
-  <si>
-    <t>01:24:22</t>
-  </si>
-  <si>
-    <t>03:01:43</t>
-  </si>
-  <si>
-    <t>04:39:35</t>
-  </si>
-  <si>
-    <t>03:23:19</t>
-  </si>
-  <si>
-    <t>04:59:45</t>
-  </si>
-  <si>
-    <t>02:48:18</t>
+    <t>02:10:03</t>
+  </si>
+  <si>
+    <t>03:46:44</t>
+  </si>
+  <si>
+    <t>05:24:24</t>
+  </si>
+  <si>
+    <t>01:34:46</t>
+  </si>
+  <si>
+    <t>03:11:17</t>
+  </si>
+  <si>
+    <t>04:48:53</t>
+  </si>
+  <si>
+    <t>02:35:46</t>
+  </si>
+  <si>
+    <t>04:13:17</t>
+  </si>
+  <si>
+    <t>05:51:14</t>
+  </si>
+  <si>
+    <t>02:00:11</t>
+  </si>
+  <si>
+    <t>03:37:38</t>
+  </si>
+  <si>
+    <t>05:15:32</t>
+  </si>
+  <si>
+    <t>01:24:32</t>
+  </si>
+  <si>
+    <t>03:01:54</t>
+  </si>
+  <si>
+    <t>04:39:45</t>
+  </si>
+  <si>
+    <t>00:48:49</t>
+  </si>
+  <si>
+    <t>02:26:05</t>
+  </si>
+  <si>
+    <t>04:03:55</t>
+  </si>
+  <si>
+    <t>05:42:12</t>
+  </si>
+  <si>
+    <t>02:48:19</t>
+  </si>
+  <si>
+    <t>04:24:27</t>
+  </si>
+  <si>
+    <t>06:02:08</t>
+  </si>
+  <si>
+    <t>02:13:22</t>
+  </si>
+  <si>
+    <t>03:49:05</t>
+  </si>
+  <si>
+    <t>05:26:41</t>
+  </si>
+  <si>
+    <t>01:38:43</t>
+  </si>
+  <si>
+    <t>03:13:39</t>
+  </si>
+  <si>
+    <t>04:51:09</t>
+  </si>
+  <si>
+    <t>02:38:10</t>
+  </si>
+  <si>
+    <t>04:15:34</t>
+  </si>
+  <si>
+    <t>05:53:43</t>
+  </si>
+  <si>
+    <t>02:02:37</t>
+  </si>
+  <si>
+    <t>03:39:54</t>
+  </si>
+  <si>
+    <t>05:17:58</t>
+  </si>
+  <si>
+    <t>01:27:01</t>
+  </si>
+  <si>
+    <t>03:04:10</t>
+  </si>
+  <si>
+    <t>04:42:09</t>
+  </si>
+  <si>
+    <t>00:51:22</t>
+  </si>
+  <si>
+    <t>02:28:22</t>
+  </si>
+  <si>
+    <t>04:06:16</t>
+  </si>
+  <si>
+    <t>05:45:54</t>
+  </si>
+  <si>
+    <t>02:50:06</t>
+  </si>
+  <si>
+    <t>04:27:38</t>
+  </si>
+  <si>
+    <t>06:05:24</t>
+  </si>
+  <si>
+    <t>02:14:44</t>
+  </si>
+  <si>
+    <t>03:52:13</t>
+  </si>
+  <si>
+    <t>05:29:58</t>
+  </si>
+  <si>
+    <t>01:39:17</t>
+  </si>
+  <si>
+    <t>03:16:42</t>
+  </si>
+  <si>
+    <t>04:54:27</t>
+  </si>
+  <si>
+    <t>02:41:08</t>
+  </si>
+  <si>
+    <t>04:18:51</t>
+  </si>
+  <si>
+    <t>05:56:32</t>
+  </si>
+  <si>
+    <t>02:05:30</t>
+  </si>
+  <si>
+    <t>03:43:11</t>
+  </si>
+  <si>
+    <t>05:20:53</t>
+  </si>
+  <si>
+    <t>01:29:47</t>
+  </si>
+  <si>
+    <t>03:07:27</t>
+  </si>
+  <si>
+    <t>04:45:09</t>
+  </si>
+  <si>
+    <t>00:54:00</t>
+  </si>
+  <si>
+    <t>02:31:38</t>
+  </si>
+  <si>
+    <t>04:09:21</t>
+  </si>
+  <si>
+    <t>05:46:46</t>
+  </si>
+  <si>
+    <t>02:51:54</t>
+  </si>
+  <si>
+    <t>04:30:49</t>
+  </si>
+  <si>
+    <t>06:08:39</t>
+  </si>
+  <si>
+    <t>02:16:06</t>
+  </si>
+  <si>
+    <t>03:55:21</t>
+  </si>
+  <si>
+    <t>05:33:14</t>
+  </si>
+  <si>
+    <t>01:39:52</t>
+  </si>
+  <si>
+    <t>03:19:47</t>
+  </si>
+  <si>
+    <t>04:57:44</t>
+  </si>
+  <si>
+    <t>02:44:08</t>
+  </si>
+  <si>
+    <t>04:22:09</t>
+  </si>
+  <si>
+    <t>05:59:21</t>
+  </si>
+  <si>
+    <t>02:08:24</t>
+  </si>
+  <si>
+    <t>03:46:29</t>
+  </si>
+  <si>
+    <t>05:23:48</t>
+  </si>
+  <si>
+    <t>01:32:34</t>
+  </si>
+  <si>
+    <t>03:10:44</t>
+  </si>
+  <si>
+    <t>04:48:10</t>
+  </si>
+  <si>
+    <t>00:56:39</t>
+  </si>
+  <si>
+    <t>02:34:54</t>
+  </si>
+  <si>
+    <t>04:12:25</t>
+  </si>
+  <si>
+    <t>05:47:37</t>
+  </si>
+  <si>
+    <t>02:54:57</t>
+  </si>
+  <si>
+    <t>04:33:09</t>
+  </si>
+  <si>
+    <t>06:10:57</t>
+  </si>
+  <si>
+    <t>02:19:26</t>
+  </si>
+  <si>
+    <t>03:57:41</t>
+  </si>
+  <si>
+    <t>05:35:31</t>
+  </si>
+  <si>
+    <t>01:43:50</t>
+  </si>
+  <si>
+    <t>03:22:09</t>
+  </si>
+  <si>
+    <t>05:00:01</t>
+  </si>
+  <si>
+    <t>02:46:32</t>
   </si>
   <si>
     <t>04:24:26</t>
   </si>
   <si>
-    <t>06:02:07</t>
-  </si>
-  <si>
-    <t>02:13:21</t>
-  </si>
-  <si>
-    <t>03:49:03</t>
-  </si>
-  <si>
-    <t>05:26:39</t>
-  </si>
-  <si>
-    <t>01:38:41</t>
-  </si>
-  <si>
-    <t>03:13:36</t>
-  </si>
-  <si>
-    <t>04:51:06</t>
-  </si>
-  <si>
-    <t>02:38:04</t>
-  </si>
-  <si>
-    <t>04:15:28</t>
-  </si>
-  <si>
-    <t>05:53:38</t>
-  </si>
-  <si>
-    <t>02:02:30</t>
-  </si>
-  <si>
-    <t>03:39:46</t>
-  </si>
-  <si>
-    <t>05:17:50</t>
-  </si>
-  <si>
-    <t>01:26:51</t>
-  </si>
-  <si>
-    <t>03:04:00</t>
-  </si>
-  <si>
-    <t>04:41:59</t>
-  </si>
-  <si>
-    <t>03:25:24</t>
-  </si>
-  <si>
-    <t>05:02:59</t>
-  </si>
-  <si>
-    <t>02:50:05</t>
-  </si>
-  <si>
-    <t>04:27:37</t>
-  </si>
-  <si>
-    <t>06:05:23</t>
-  </si>
-  <si>
-    <t>02:14:42</t>
-  </si>
-  <si>
-    <t>03:52:11</t>
-  </si>
-  <si>
-    <t>05:29:55</t>
-  </si>
-  <si>
-    <t>01:39:14</t>
-  </si>
-  <si>
-    <t>03:16:39</t>
-  </si>
-  <si>
-    <t>04:54:23</t>
-  </si>
-  <si>
-    <t>02:41:03</t>
-  </si>
-  <si>
-    <t>04:18:46</t>
-  </si>
-  <si>
-    <t>05:56:27</t>
-  </si>
-  <si>
-    <t>02:05:22</t>
-  </si>
-  <si>
-    <t>03:43:04</t>
-  </si>
-  <si>
-    <t>05:20:45</t>
-  </si>
-  <si>
-    <t>01:29:37</t>
-  </si>
-  <si>
-    <t>03:07:16</t>
-  </si>
-  <si>
-    <t>04:44:59</t>
-  </si>
-  <si>
-    <t>03:27:31</t>
-  </si>
-  <si>
-    <t>05:06:12</t>
-  </si>
-  <si>
-    <t>02:51:53</t>
-  </si>
-  <si>
-    <t>04:30:48</t>
-  </si>
-  <si>
-    <t>06:08:38</t>
-  </si>
-  <si>
-    <t>02:16:04</t>
-  </si>
-  <si>
-    <t>03:55:18</t>
-  </si>
-  <si>
-    <t>05:33:12</t>
-  </si>
-  <si>
-    <t>01:39:47</t>
-  </si>
-  <si>
-    <t>03:19:43</t>
-  </si>
-  <si>
-    <t>04:57:40</t>
-  </si>
-  <si>
-    <t>02:44:03</t>
-  </si>
-  <si>
-    <t>04:22:04</t>
-  </si>
-  <si>
-    <t>05:59:15</t>
-  </si>
-  <si>
-    <t>02:08:16</t>
-  </si>
-  <si>
-    <t>03:46:21</t>
-  </si>
-  <si>
-    <t>05:23:40</t>
-  </si>
-  <si>
-    <t>01:32:24</t>
-  </si>
-  <si>
-    <t>03:10:34</t>
-  </si>
-  <si>
-    <t>04:47:59</t>
-  </si>
-  <si>
-    <t>03:30:23</t>
-  </si>
-  <si>
-    <t>05:08:31</t>
-  </si>
-  <si>
-    <t>02:54:56</t>
-  </si>
-  <si>
-    <t>04:33:08</t>
-  </si>
-  <si>
-    <t>06:10:55</t>
-  </si>
-  <si>
-    <t>02:19:24</t>
-  </si>
-  <si>
-    <t>03:57:39</t>
-  </si>
-  <si>
-    <t>05:35:29</t>
-  </si>
-  <si>
-    <t>01:43:46</t>
-  </si>
-  <si>
-    <t>03:22:06</t>
-  </si>
-  <si>
-    <t>04:59:57</t>
-  </si>
-  <si>
-    <t>02:46:27</t>
-  </si>
-  <si>
-    <t>04:24:20</t>
-  </si>
-  <si>
-    <t>06:01:44</t>
-  </si>
-  <si>
-    <t>02:10:43</t>
-  </si>
-  <si>
-    <t>03:48:38</t>
-  </si>
-  <si>
-    <t>05:26:06</t>
-  </si>
-  <si>
-    <t>01:34:54</t>
-  </si>
-  <si>
-    <t>03:12:50</t>
-  </si>
-  <si>
-    <t>04:50:22</t>
+    <t>06:01:50</t>
+  </si>
+  <si>
+    <t>02:10:51</t>
+  </si>
+  <si>
+    <t>03:48:46</t>
+  </si>
+  <si>
+    <t>05:26:14</t>
+  </si>
+  <si>
+    <t>01:35:04</t>
+  </si>
+  <si>
+    <t>03:13:01</t>
+  </si>
+  <si>
+    <t>04:50:33</t>
+  </si>
+  <si>
+    <t>00:59:13</t>
+  </si>
+  <si>
+    <t>02:37:11</t>
+  </si>
+  <si>
+    <t>04:14:47</t>
+  </si>
+  <si>
+    <t>05:51:19</t>
+  </si>
+  <si>
+    <t>3°</t>
+  </si>
+  <si>
+    <t>29°</t>
+  </si>
+  <si>
+    <t>7°</t>
+  </si>
+  <si>
+    <t>0°</t>
+  </si>
+  <si>
+    <t>18°</t>
+  </si>
+  <si>
+    <t>17°</t>
+  </si>
+  <si>
+    <t>8°</t>
+  </si>
+  <si>
+    <t>31°</t>
+  </si>
+  <si>
+    <t>2°</t>
+  </si>
+  <si>
+    <t>28°</t>
   </si>
   <si>
     <t>9°</t>
   </si>
   <si>
-    <t>22°</t>
-  </si>
-  <si>
-    <t>3°</t>
-  </si>
-  <si>
-    <t>29°</t>
-  </si>
-  <si>
-    <t>7°</t>
-  </si>
-  <si>
-    <t>0°</t>
-  </si>
-  <si>
-    <t>18°</t>
-  </si>
-  <si>
-    <t>17°</t>
-  </si>
-  <si>
-    <t>8°</t>
-  </si>
-  <si>
-    <t>31°</t>
-  </si>
-  <si>
-    <t>1°</t>
-  </si>
-  <si>
-    <t>28°</t>
-  </si>
-  <si>
     <t>15°</t>
   </si>
   <si>
@@ -544,73 +577,73 @@
     <t>25°</t>
   </si>
   <si>
-    <t>03:27:43</t>
-  </si>
-  <si>
-    <t>05:01:28</t>
-  </si>
-  <si>
-    <t>02:54:03</t>
-  </si>
-  <si>
-    <t>04:27:48</t>
-  </si>
-  <si>
-    <t>06:01:33</t>
-  </si>
-  <si>
-    <t>03:53:59</t>
-  </si>
-  <si>
-    <t>05:27:44</t>
-  </si>
-  <si>
-    <t>03:20:03</t>
-  </si>
-  <si>
-    <t>04:53:48</t>
-  </si>
-  <si>
-    <t>02:46:02</t>
-  </si>
-  <si>
-    <t>04:19:46</t>
-  </si>
-  <si>
-    <t>05:53:29</t>
-  </si>
-  <si>
-    <t>03:45:39</t>
-  </si>
-  <si>
-    <t>05:19:22</t>
-  </si>
-  <si>
-    <t>03:11:27</t>
-  </si>
-  <si>
-    <t>04:45:11</t>
+    <t>02:54:04</t>
+  </si>
+  <si>
+    <t>04:27:49</t>
+  </si>
+  <si>
+    <t>06:01:34</t>
+  </si>
+  <si>
+    <t>03:54:01</t>
+  </si>
+  <si>
+    <t>05:27:46</t>
+  </si>
+  <si>
+    <t>03:20:07</t>
+  </si>
+  <si>
+    <t>04:53:51</t>
+  </si>
+  <si>
+    <t>02:46:07</t>
+  </si>
+  <si>
+    <t>04:19:51</t>
+  </si>
+  <si>
+    <t>05:53:34</t>
+  </si>
+  <si>
+    <t>03:45:46</t>
+  </si>
+  <si>
+    <t>05:19:29</t>
+  </si>
+  <si>
+    <t>03:11:37</t>
+  </si>
+  <si>
+    <t>04:45:21</t>
+  </si>
+  <si>
+    <t>04:11:09</t>
+  </si>
+  <si>
+    <t>05:44:52</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A+B</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>A+B</t>
-  </si>
-  <si>
-    <t>B</t>
+    <t>4</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>4</t>
+    <t>1</t>
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -644,7 +677,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -665,7 +698,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4E2F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2CBE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCCDCEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D7EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5E92CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF558CC8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,13 +752,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6F9FC"/>
+        <fgColor rgb="FF77A3D3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5E92CB"/>
+        <fgColor rgb="FF99BADE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6697CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80A9D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0B070"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90B4DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,7 +794,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8F4"/>
+        <fgColor rgb="FFAAC5E3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,55 +806,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF558CC8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAAC5E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4E2F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4D7EC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF90B4DB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6697CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6AD26A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99BADE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF88AED8"/>
+        <fgColor rgb="FFF6F9FC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,7 +818,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF80A9D6"/>
+        <fgColor rgb="FFBBD1E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88AED8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,7 +865,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -880,6 +937,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1257,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1341,55 +1410,55 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="L2" s="4">
-        <v>-33.6</v>
+        <v>-39.1</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="O2" s="6">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P2" s="7">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="8">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="R2" s="9">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1397,111 +1466,111 @@
         <v>18</v>
       </c>
       <c r="B3" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="L3" s="4">
-        <v>-18.4</v>
+        <v>-23.9</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="O3" s="6">
         <v>100</v>
       </c>
-      <c r="P3" s="9">
-        <v>94</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>5</v>
+      <c r="P3" s="10">
+        <v>57</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>100</v>
       </c>
       <c r="R3" s="11">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="L4" s="4">
-        <v>-39.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="O4" s="6">
-        <v>98</v>
-      </c>
-      <c r="P4" s="12">
-        <v>81</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>89</v>
-      </c>
-      <c r="R4" s="10">
-        <v>3</v>
+        <v>97</v>
+      </c>
+      <c r="P4" s="7">
+        <v>82</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>64</v>
+      </c>
+      <c r="R4" s="13">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1509,52 +1578,52 @@
         <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>179</v>
+        <v>66</v>
       </c>
       <c r="L5" s="4">
-        <v>-23.9</v>
+        <v>-44.6</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="O5" s="6">
-        <v>100</v>
-      </c>
-      <c r="P5" s="13">
-        <v>88</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>92</v>
+        <v>65</v>
+      </c>
+      <c r="P5" s="12">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>0</v>
       </c>
       <c r="R5" s="14">
         <v>0</v>
@@ -1565,52 +1634,52 @@
         <v>19</v>
       </c>
       <c r="B6" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="L6" s="4">
-        <v>-9.199999999999999</v>
+        <v>-29.4</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="O6" s="6">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="P6" s="15">
-        <v>50</v>
-      </c>
-      <c r="Q6" s="15">
-        <v>50</v>
+        <v>84</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>0</v>
       </c>
       <c r="R6" s="14">
         <v>0</v>
@@ -1618,55 +1687,55 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>66</v>
+        <v>191</v>
       </c>
       <c r="L7" s="4">
-        <v>-44.7</v>
+        <v>-14.3</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="O7" s="6">
-        <v>82</v>
-      </c>
-      <c r="P7" s="12">
-        <v>82</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>2</v>
+        <v>81</v>
+      </c>
+      <c r="P7" s="9">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>18</v>
       </c>
       <c r="R7" s="14">
         <v>0</v>
@@ -1677,7 +1746,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>31</v>
@@ -1686,43 +1755,43 @@
         <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="L8" s="4">
-        <v>-29.5</v>
+        <v>-49.7</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="O8" s="6">
-        <v>79</v>
-      </c>
-      <c r="P8" s="16">
-        <v>76</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>3</v>
+        <v>41</v>
+      </c>
+      <c r="P8" s="17">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>1</v>
       </c>
       <c r="R8" s="14">
         <v>0</v>
@@ -1733,7 +1802,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>32</v>
@@ -1742,43 +1811,43 @@
         <v>51</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="L9" s="4">
-        <v>-14.3</v>
+        <v>-35</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="O9" s="6">
-        <v>66</v>
-      </c>
-      <c r="P9" s="17">
-        <v>66</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="P9" s="11">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>8</v>
       </c>
       <c r="R9" s="14">
         <v>0</v>
@@ -1786,10 +1855,10 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>33</v>
@@ -1798,43 +1867,43 @@
         <v>52</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c r="L10" s="4">
-        <v>-49.7</v>
+        <v>-19.7</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="O10" s="6">
-        <v>71</v>
-      </c>
-      <c r="P10" s="15">
-        <v>51</v>
-      </c>
-      <c r="Q10" s="18">
-        <v>33</v>
+        <v>70</v>
+      </c>
+      <c r="P10" s="11">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>27</v>
       </c>
       <c r="R10" s="14">
         <v>0</v>
@@ -1845,7 +1914,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>34</v>
@@ -1854,43 +1923,43 @@
         <v>53</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L11" s="4">
-        <v>-35</v>
+        <v>-40.5</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="O11" s="6">
-        <v>83</v>
-      </c>
-      <c r="P11" s="12">
-        <v>78</v>
-      </c>
-      <c r="Q11" s="19">
-        <v>12</v>
+        <v>41</v>
+      </c>
+      <c r="P11" s="17">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>0</v>
       </c>
       <c r="R11" s="14">
         <v>0</v>
@@ -1904,49 +1973,49 @@
         <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="L12" s="4">
-        <v>-19.7</v>
+        <v>-25.2</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="O12" s="6">
-        <v>90</v>
-      </c>
-      <c r="P12" s="17">
-        <v>64</v>
-      </c>
-      <c r="Q12" s="17">
-        <v>63</v>
+        <v>207</v>
+      </c>
+      <c r="O12" s="20">
+        <v>31</v>
+      </c>
+      <c r="P12" s="19">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>1</v>
       </c>
       <c r="R12" s="14">
         <v>0</v>
@@ -1954,55 +2023,55 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="L13" s="4">
-        <v>-40.5</v>
+        <v>-10.4</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="O13" s="20">
-        <v>3</v>
-      </c>
-      <c r="P13" s="14">
-        <v>2</v>
+        <v>207</v>
+      </c>
+      <c r="O13" s="6">
+        <v>38</v>
+      </c>
+      <c r="P13" s="21">
+        <v>36</v>
       </c>
       <c r="Q13" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="14">
         <v>0</v>
@@ -2013,52 +2082,52 @@
         <v>22</v>
       </c>
       <c r="B14" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="L14" s="4">
-        <v>-25.2</v>
+        <v>-46</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="O14" s="20">
-        <v>3</v>
+        <v>209</v>
+      </c>
+      <c r="O14" s="6">
+        <v>53</v>
       </c>
       <c r="P14" s="10">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>14</v>
       </c>
       <c r="R14" s="14">
         <v>0</v>
@@ -2069,52 +2138,52 @@
         <v>22</v>
       </c>
       <c r="B15" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L15" s="4">
-        <v>-10.4</v>
+        <v>-30.8</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="O15" s="20">
-        <v>5</v>
-      </c>
-      <c r="P15" s="10">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>0</v>
+        <v>207</v>
+      </c>
+      <c r="O15" s="6">
+        <v>71</v>
+      </c>
+      <c r="P15" s="11">
+        <v>71</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>7</v>
       </c>
       <c r="R15" s="14">
         <v>0</v>
@@ -2122,58 +2191,58 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2">
         <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="L16" s="4">
-        <v>-46</v>
+        <v>-15.6</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="O16" s="6">
-        <v>80</v>
-      </c>
-      <c r="P16" s="16">
-        <v>73</v>
-      </c>
-      <c r="Q16" s="14">
-        <v>0</v>
-      </c>
-      <c r="R16" s="14">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="P16" s="7">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="23">
+        <v>51</v>
+      </c>
+      <c r="R16" s="10">
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2181,55 +2250,55 @@
         <v>23</v>
       </c>
       <c r="B17" s="2">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="4">
+        <v>-50.9</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O17" s="6">
         <v>96</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L17" s="4">
-        <v>-30.8</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="O17" s="6">
-        <v>77</v>
-      </c>
-      <c r="P17" s="16">
-        <v>73</v>
-      </c>
-      <c r="Q17" s="14">
-        <v>0</v>
-      </c>
-      <c r="R17" s="14">
-        <v>0</v>
+      <c r="P17" s="9">
+        <v>74</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>63</v>
+      </c>
+      <c r="R17" s="23">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2237,111 +2306,111 @@
         <v>23</v>
       </c>
       <c r="B18" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="L18" s="4">
-        <v>-15.6</v>
+        <v>-36.4</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="O18" s="6">
-        <v>65</v>
-      </c>
-      <c r="P18" s="17">
-        <v>65</v>
-      </c>
-      <c r="Q18" s="14">
-        <v>0</v>
-      </c>
-      <c r="R18" s="14">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="P18" s="15">
+        <v>87</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>100</v>
+      </c>
+      <c r="R18" s="9">
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="L19" s="4">
+        <v>-21.1</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="O19" s="6">
+        <v>100</v>
+      </c>
+      <c r="P19" s="24">
+        <v>88</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>100</v>
+      </c>
+      <c r="R19" s="8">
         <v>98</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L19" s="4">
-        <v>-50.9</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="O19" s="6">
-        <v>59</v>
-      </c>
-      <c r="P19" s="21">
-        <v>42</v>
-      </c>
-      <c r="Q19" s="14">
-        <v>0</v>
-      </c>
-      <c r="R19" s="18">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2349,55 +2418,55 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="4">
+        <v>-55.3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O20" s="6">
         <v>99</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="L20" s="4">
-        <v>-36.4</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="O20" s="6">
-        <v>54</v>
-      </c>
-      <c r="P20" s="22">
-        <v>31</v>
-      </c>
-      <c r="Q20" s="14">
-        <v>0</v>
-      </c>
-      <c r="R20" s="21">
-        <v>39</v>
+      <c r="P20" s="25">
+        <v>93</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>74</v>
+      </c>
+      <c r="R20" s="18">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2405,59 +2474,171 @@
         <v>24</v>
       </c>
       <c r="B21" s="2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L21" s="4">
+        <v>-42</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O21" s="6">
+        <v>76</v>
+      </c>
+      <c r="P21" s="9">
+        <v>73</v>
+      </c>
+      <c r="Q21" s="12">
+        <v>67</v>
+      </c>
+      <c r="R21" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="L21" s="4">
-        <v>-21.1</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="O21" s="6">
-        <v>55</v>
-      </c>
-      <c r="P21" s="23">
-        <v>43</v>
-      </c>
-      <c r="Q21" s="14">
+      <c r="D22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L22" s="4">
+        <v>-26.7</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="O22" s="6">
+        <v>59</v>
+      </c>
+      <c r="P22" s="26">
+        <v>46</v>
+      </c>
+      <c r="Q22" s="27">
+        <v>59</v>
+      </c>
+      <c r="R22" s="14">
         <v>0</v>
       </c>
-      <c r="R21" s="24">
-        <v>26</v>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2">
+        <v>11</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" s="4">
+        <v>-11.7</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="O23" s="6">
+        <v>54</v>
+      </c>
+      <c r="P23" s="28">
+        <v>32</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>54</v>
+      </c>
+      <c r="R23" s="14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L21">
+  <conditionalFormatting sqref="L2:L23">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -2473,7 +2654,7 @@
       <formula>-6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N21">
+  <conditionalFormatting sqref="N2:N23">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="220">
   <si>
     <t>Datum</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>02.01.2026</t>
-  </si>
-  <si>
     <t>03.01.2026</t>
   </si>
   <si>
@@ -91,13 +88,7 @@
     <t>08.01.2026</t>
   </si>
   <si>
-    <t>03:35</t>
-  </si>
-  <si>
-    <t>06:22</t>
-  </si>
-  <si>
-    <t>06:31</t>
+    <t>09.01.2026</t>
   </si>
   <si>
     <t>02:44</t>
@@ -106,376 +97,412 @@
     <t>06:16</t>
   </si>
   <si>
+    <t>06:34</t>
+  </si>
+  <si>
+    <t>01:10</t>
+  </si>
+  <si>
+    <t>06:08</t>
+  </si>
+  <si>
+    <t>06:35</t>
+  </si>
+  <si>
+    <t>05:59</t>
+  </si>
+  <si>
+    <t>06:36</t>
+  </si>
+  <si>
+    <t>05:38</t>
+  </si>
+  <si>
+    <t>05:47</t>
+  </si>
+  <si>
+    <t>05:51</t>
+  </si>
+  <si>
+    <t>05:34</t>
+  </si>
+  <si>
+    <t>06:01</t>
+  </si>
+  <si>
+    <t>05:16</t>
+  </si>
+  <si>
     <t>06:33</t>
   </si>
   <si>
-    <t>01:09</t>
-  </si>
-  <si>
-    <t>06:08</t>
-  </si>
-  <si>
-    <t>06:35</t>
-  </si>
-  <si>
-    <t>05:58</t>
-  </si>
-  <si>
-    <t>05:38</t>
-  </si>
-  <si>
-    <t>05:47</t>
-  </si>
-  <si>
-    <t>05:50</t>
-  </si>
-  <si>
-    <t>05:33</t>
-  </si>
-  <si>
-    <t>06:34</t>
-  </si>
-  <si>
-    <t>06:01</t>
-  </si>
-  <si>
-    <t>05:17</t>
-  </si>
-  <si>
-    <t>06:32</t>
-  </si>
-  <si>
     <t>06:09</t>
   </si>
   <si>
-    <t>01:43</t>
-  </si>
-  <si>
-    <t>09:40</t>
-  </si>
-  <si>
-    <t>11:01</t>
+    <t>01:45</t>
+  </si>
+  <si>
+    <t>04:56</t>
+  </si>
+  <si>
+    <t>06:30</t>
+  </si>
+  <si>
+    <t>03:00</t>
+  </si>
+  <si>
+    <t>04:29</t>
+  </si>
+  <si>
+    <t>09:24</t>
+  </si>
+  <si>
+    <t>10:57</t>
+  </si>
+  <si>
+    <t>11:08</t>
+  </si>
+  <si>
+    <t>09:04</t>
+  </si>
+  <si>
+    <t>10:53</t>
+  </si>
+  <si>
+    <t>10:47</t>
+  </si>
+  <si>
+    <t>11:09</t>
+  </si>
+  <si>
+    <t>10:36</t>
+  </si>
+  <si>
+    <t>10:40</t>
+  </si>
+  <si>
+    <t>10:42</t>
+  </si>
+  <si>
+    <t>10:33</t>
   </si>
   <si>
     <t>11:07</t>
   </si>
   <si>
-    <t>09:23</t>
-  </si>
-  <si>
-    <t>10:57</t>
-  </si>
-  <si>
-    <t>09:04</t>
+    <t>10:23</t>
+  </si>
+  <si>
+    <t>11:06</t>
   </si>
   <si>
     <t>10:52</t>
   </si>
   <si>
-    <t>11:08</t>
-  </si>
-  <si>
-    <t>10:46</t>
-  </si>
-  <si>
-    <t>11:09</t>
-  </si>
-  <si>
-    <t>10:36</t>
-  </si>
-  <si>
-    <t>10:40</t>
-  </si>
-  <si>
-    <t>10:42</t>
-  </si>
-  <si>
-    <t>10:32</t>
-  </si>
-  <si>
-    <t>10:48</t>
-  </si>
-  <si>
-    <t>10:24</t>
-  </si>
-  <si>
-    <t>11:06</t>
-  </si>
-  <si>
-    <t>09:07</t>
-  </si>
-  <si>
-    <t>02:45:17</t>
+    <t>09:08</t>
+  </si>
+  <si>
+    <t>10:13</t>
+  </si>
+  <si>
+    <t>11:05</t>
+  </si>
+  <si>
+    <t>10:56</t>
+  </si>
+  <si>
+    <t>09:27</t>
+  </si>
+  <si>
+    <t>10:01</t>
+  </si>
+  <si>
+    <t>02:10:02</t>
+  </si>
+  <si>
+    <t>03:46:44</t>
+  </si>
+  <si>
+    <t>05:24:23</t>
+  </si>
+  <si>
+    <t>01:34:45</t>
+  </si>
+  <si>
+    <t>03:11:16</t>
+  </si>
+  <si>
+    <t>04:48:52</t>
+  </si>
+  <si>
+    <t>02:35:44</t>
+  </si>
+  <si>
+    <t>04:13:16</t>
+  </si>
+  <si>
+    <t>05:51:13</t>
+  </si>
+  <si>
+    <t>02:00:09</t>
+  </si>
+  <si>
+    <t>03:37:36</t>
+  </si>
+  <si>
+    <t>05:15:30</t>
+  </si>
+  <si>
+    <t>01:24:29</t>
+  </si>
+  <si>
+    <t>03:01:51</t>
+  </si>
+  <si>
+    <t>04:39:43</t>
+  </si>
+  <si>
+    <t>00:48:46</t>
+  </si>
+  <si>
+    <t>02:26:02</t>
+  </si>
+  <si>
+    <t>04:03:51</t>
+  </si>
+  <si>
+    <t>05:42:08</t>
+  </si>
+  <si>
+    <t>00:12:59</t>
+  </si>
+  <si>
+    <t>01:50:08</t>
+  </si>
+  <si>
+    <t>03:27:55</t>
+  </si>
+  <si>
+    <t>05:06:07</t>
+  </si>
+  <si>
+    <t>23:37:08</t>
+  </si>
+  <si>
+    <t>02:13:22</t>
+  </si>
+  <si>
+    <t>03:49:04</t>
+  </si>
+  <si>
+    <t>05:26:40</t>
+  </si>
+  <si>
+    <t>01:38:42</t>
+  </si>
+  <si>
+    <t>03:13:38</t>
+  </si>
+  <si>
+    <t>04:51:09</t>
+  </si>
+  <si>
+    <t>02:38:08</t>
+  </si>
+  <si>
+    <t>04:15:32</t>
+  </si>
+  <si>
+    <t>05:53:42</t>
+  </si>
+  <si>
+    <t>02:02:35</t>
+  </si>
+  <si>
+    <t>03:39:52</t>
+  </si>
+  <si>
+    <t>05:17:56</t>
+  </si>
+  <si>
+    <t>01:26:58</t>
+  </si>
+  <si>
+    <t>03:04:07</t>
+  </si>
+  <si>
+    <t>04:42:06</t>
+  </si>
+  <si>
+    <t>00:51:19</t>
+  </si>
+  <si>
+    <t>02:28:18</t>
+  </si>
+  <si>
+    <t>04:06:13</t>
+  </si>
+  <si>
+    <t>05:45:50</t>
+  </si>
+  <si>
+    <t>00:15:37</t>
+  </si>
+  <si>
+    <t>01:52:25</t>
+  </si>
+  <si>
+    <t>03:30:15</t>
+  </si>
+  <si>
+    <t>05:09:21</t>
+  </si>
+  <si>
+    <t>23:39:54</t>
+  </si>
+  <si>
+    <t>02:14:44</t>
+  </si>
+  <si>
+    <t>03:52:12</t>
+  </si>
+  <si>
+    <t>05:29:57</t>
+  </si>
+  <si>
+    <t>01:39:17</t>
+  </si>
+  <si>
+    <t>03:16:42</t>
+  </si>
+  <si>
+    <t>04:54:26</t>
+  </si>
+  <si>
+    <t>02:41:07</t>
+  </si>
+  <si>
+    <t>04:18:50</t>
+  </si>
+  <si>
+    <t>05:56:31</t>
+  </si>
+  <si>
+    <t>02:05:28</t>
+  </si>
+  <si>
+    <t>03:43:10</t>
+  </si>
+  <si>
+    <t>05:20:52</t>
+  </si>
+  <si>
+    <t>01:29:45</t>
+  </si>
+  <si>
+    <t>03:07:24</t>
+  </si>
+  <si>
+    <t>04:45:07</t>
+  </si>
+  <si>
+    <t>00:53:57</t>
+  </si>
+  <si>
+    <t>02:31:35</t>
+  </si>
+  <si>
+    <t>04:09:17</t>
+  </si>
+  <si>
+    <t>05:46:43</t>
+  </si>
+  <si>
+    <t>00:18:05</t>
+  </si>
+  <si>
+    <t>01:55:40</t>
+  </si>
+  <si>
+    <t>03:33:23</t>
+  </si>
+  <si>
+    <t>05:10:51</t>
+  </si>
+  <si>
+    <t>23:42:08</t>
+  </si>
+  <si>
+    <t>02:16:06</t>
+  </si>
+  <si>
+    <t>03:55:20</t>
+  </si>
+  <si>
+    <t>05:33:14</t>
+  </si>
+  <si>
+    <t>01:39:52</t>
+  </si>
+  <si>
+    <t>03:19:46</t>
+  </si>
+  <si>
+    <t>04:57:44</t>
+  </si>
+  <si>
+    <t>02:44:07</t>
   </si>
   <si>
     <t>04:22:08</t>
   </si>
   <si>
-    <t>05:59:50</t>
-  </si>
-  <si>
-    <t>02:10:03</t>
-  </si>
-  <si>
-    <t>03:46:44</t>
-  </si>
-  <si>
-    <t>05:24:24</t>
-  </si>
-  <si>
-    <t>01:34:46</t>
-  </si>
-  <si>
-    <t>03:11:17</t>
-  </si>
-  <si>
-    <t>04:48:53</t>
-  </si>
-  <si>
-    <t>02:35:46</t>
-  </si>
-  <si>
-    <t>04:13:17</t>
-  </si>
-  <si>
-    <t>05:51:14</t>
-  </si>
-  <si>
-    <t>02:00:11</t>
-  </si>
-  <si>
-    <t>03:37:38</t>
-  </si>
-  <si>
-    <t>05:15:32</t>
-  </si>
-  <si>
-    <t>01:24:32</t>
-  </si>
-  <si>
-    <t>03:01:54</t>
-  </si>
-  <si>
-    <t>04:39:45</t>
-  </si>
-  <si>
-    <t>00:48:49</t>
-  </si>
-  <si>
-    <t>02:26:05</t>
-  </si>
-  <si>
-    <t>04:03:55</t>
-  </si>
-  <si>
-    <t>05:42:12</t>
-  </si>
-  <si>
-    <t>02:48:19</t>
-  </si>
-  <si>
-    <t>04:24:27</t>
-  </si>
-  <si>
-    <t>06:02:08</t>
-  </si>
-  <si>
-    <t>02:13:22</t>
-  </si>
-  <si>
-    <t>03:49:05</t>
-  </si>
-  <si>
-    <t>05:26:41</t>
-  </si>
-  <si>
-    <t>01:38:43</t>
-  </si>
-  <si>
-    <t>03:13:39</t>
-  </si>
-  <si>
-    <t>04:51:09</t>
-  </si>
-  <si>
-    <t>02:38:10</t>
-  </si>
-  <si>
-    <t>04:15:34</t>
-  </si>
-  <si>
-    <t>05:53:43</t>
-  </si>
-  <si>
-    <t>02:02:37</t>
-  </si>
-  <si>
-    <t>03:39:54</t>
-  </si>
-  <si>
-    <t>05:17:58</t>
-  </si>
-  <si>
-    <t>01:27:01</t>
-  </si>
-  <si>
-    <t>03:04:10</t>
-  </si>
-  <si>
-    <t>04:42:09</t>
-  </si>
-  <si>
-    <t>00:51:22</t>
-  </si>
-  <si>
-    <t>02:28:22</t>
-  </si>
-  <si>
-    <t>04:06:16</t>
-  </si>
-  <si>
-    <t>05:45:54</t>
-  </si>
-  <si>
-    <t>02:50:06</t>
-  </si>
-  <si>
-    <t>04:27:38</t>
-  </si>
-  <si>
-    <t>06:05:24</t>
-  </si>
-  <si>
-    <t>02:14:44</t>
-  </si>
-  <si>
-    <t>03:52:13</t>
-  </si>
-  <si>
-    <t>05:29:58</t>
-  </si>
-  <si>
-    <t>01:39:17</t>
-  </si>
-  <si>
-    <t>03:16:42</t>
-  </si>
-  <si>
-    <t>04:54:27</t>
-  </si>
-  <si>
-    <t>02:41:08</t>
-  </si>
-  <si>
-    <t>04:18:51</t>
-  </si>
-  <si>
-    <t>05:56:32</t>
-  </si>
-  <si>
-    <t>02:05:30</t>
-  </si>
-  <si>
-    <t>03:43:11</t>
-  </si>
-  <si>
-    <t>05:20:53</t>
-  </si>
-  <si>
-    <t>01:29:47</t>
-  </si>
-  <si>
-    <t>03:07:27</t>
-  </si>
-  <si>
-    <t>04:45:09</t>
-  </si>
-  <si>
-    <t>00:54:00</t>
-  </si>
-  <si>
-    <t>02:31:38</t>
-  </si>
-  <si>
-    <t>04:09:21</t>
-  </si>
-  <si>
-    <t>05:46:46</t>
-  </si>
-  <si>
-    <t>02:51:54</t>
-  </si>
-  <si>
-    <t>04:30:49</t>
-  </si>
-  <si>
-    <t>06:08:39</t>
-  </si>
-  <si>
-    <t>02:16:06</t>
-  </si>
-  <si>
-    <t>03:55:21</t>
-  </si>
-  <si>
-    <t>05:33:14</t>
-  </si>
-  <si>
-    <t>01:39:52</t>
-  </si>
-  <si>
-    <t>03:19:47</t>
-  </si>
-  <si>
-    <t>04:57:44</t>
-  </si>
-  <si>
-    <t>02:44:08</t>
-  </si>
-  <si>
-    <t>04:22:09</t>
-  </si>
-  <si>
-    <t>05:59:21</t>
-  </si>
-  <si>
-    <t>02:08:24</t>
-  </si>
-  <si>
-    <t>03:46:29</t>
-  </si>
-  <si>
-    <t>05:23:48</t>
-  </si>
-  <si>
-    <t>01:32:34</t>
-  </si>
-  <si>
-    <t>03:10:44</t>
-  </si>
-  <si>
-    <t>04:48:10</t>
-  </si>
-  <si>
-    <t>00:56:39</t>
-  </si>
-  <si>
-    <t>02:34:54</t>
-  </si>
-  <si>
-    <t>04:12:25</t>
-  </si>
-  <si>
-    <t>05:47:37</t>
-  </si>
-  <si>
-    <t>02:54:57</t>
-  </si>
-  <si>
-    <t>04:33:09</t>
-  </si>
-  <si>
-    <t>06:10:57</t>
+    <t>05:59:20</t>
+  </si>
+  <si>
+    <t>02:08:22</t>
+  </si>
+  <si>
+    <t>03:46:28</t>
+  </si>
+  <si>
+    <t>05:23:47</t>
+  </si>
+  <si>
+    <t>01:32:32</t>
+  </si>
+  <si>
+    <t>03:10:42</t>
+  </si>
+  <si>
+    <t>04:48:07</t>
+  </si>
+  <si>
+    <t>00:56:35</t>
+  </si>
+  <si>
+    <t>02:34:51</t>
+  </si>
+  <si>
+    <t>04:12:22</t>
+  </si>
+  <si>
+    <t>05:47:35</t>
+  </si>
+  <si>
+    <t>00:20:33</t>
+  </si>
+  <si>
+    <t>01:58:55</t>
+  </si>
+  <si>
+    <t>03:36:31</t>
+  </si>
+  <si>
+    <t>05:12:21</t>
+  </si>
+  <si>
+    <t>23:44:23</t>
   </si>
   <si>
     <t>02:19:26</t>
@@ -487,61 +514,67 @@
     <t>05:35:31</t>
   </si>
   <si>
-    <t>01:43:50</t>
+    <t>01:43:49</t>
   </si>
   <si>
     <t>03:22:09</t>
   </si>
   <si>
-    <t>05:00:01</t>
-  </si>
-  <si>
-    <t>02:46:32</t>
-  </si>
-  <si>
-    <t>04:24:26</t>
-  </si>
-  <si>
-    <t>06:01:50</t>
-  </si>
-  <si>
-    <t>02:10:51</t>
-  </si>
-  <si>
-    <t>03:48:46</t>
-  </si>
-  <si>
-    <t>05:26:14</t>
-  </si>
-  <si>
-    <t>01:35:04</t>
-  </si>
-  <si>
-    <t>03:13:01</t>
-  </si>
-  <si>
-    <t>04:50:33</t>
-  </si>
-  <si>
-    <t>00:59:13</t>
-  </si>
-  <si>
-    <t>02:37:11</t>
-  </si>
-  <si>
-    <t>04:14:47</t>
-  </si>
-  <si>
-    <t>05:51:19</t>
-  </si>
-  <si>
-    <t>3°</t>
-  </si>
-  <si>
-    <t>29°</t>
-  </si>
-  <si>
-    <t>7°</t>
+    <t>05:00:00</t>
+  </si>
+  <si>
+    <t>02:46:31</t>
+  </si>
+  <si>
+    <t>04:24:25</t>
+  </si>
+  <si>
+    <t>06:01:49</t>
+  </si>
+  <si>
+    <t>02:10:49</t>
+  </si>
+  <si>
+    <t>03:48:44</t>
+  </si>
+  <si>
+    <t>05:26:12</t>
+  </si>
+  <si>
+    <t>01:35:02</t>
+  </si>
+  <si>
+    <t>03:12:58</t>
+  </si>
+  <si>
+    <t>04:50:30</t>
+  </si>
+  <si>
+    <t>00:59:09</t>
+  </si>
+  <si>
+    <t>02:37:08</t>
+  </si>
+  <si>
+    <t>04:14:43</t>
+  </si>
+  <si>
+    <t>05:51:16</t>
+  </si>
+  <si>
+    <t>00:23:12</t>
+  </si>
+  <si>
+    <t>02:01:13</t>
+  </si>
+  <si>
+    <t>03:38:51</t>
+  </si>
+  <si>
+    <t>05:15:34</t>
+  </si>
+  <si>
+    <t>23:47:09</t>
   </si>
   <si>
     <t>0°</t>
@@ -577,52 +610,52 @@
     <t>25°</t>
   </si>
   <si>
-    <t>02:54:04</t>
-  </si>
-  <si>
-    <t>04:27:49</t>
-  </si>
-  <si>
-    <t>06:01:34</t>
+    <t>12°</t>
   </si>
   <si>
     <t>03:54:01</t>
   </si>
   <si>
-    <t>05:27:46</t>
-  </si>
-  <si>
-    <t>03:20:07</t>
-  </si>
-  <si>
-    <t>04:53:51</t>
-  </si>
-  <si>
-    <t>02:46:07</t>
-  </si>
-  <si>
-    <t>04:19:51</t>
-  </si>
-  <si>
-    <t>05:53:34</t>
-  </si>
-  <si>
-    <t>03:45:46</t>
-  </si>
-  <si>
-    <t>05:19:29</t>
-  </si>
-  <si>
-    <t>03:11:37</t>
-  </si>
-  <si>
-    <t>04:45:21</t>
-  </si>
-  <si>
-    <t>04:11:09</t>
-  </si>
-  <si>
-    <t>05:44:52</t>
+    <t>05:27:45</t>
+  </si>
+  <si>
+    <t>03:20:06</t>
+  </si>
+  <si>
+    <t>04:53:50</t>
+  </si>
+  <si>
+    <t>02:46:06</t>
+  </si>
+  <si>
+    <t>04:19:49</t>
+  </si>
+  <si>
+    <t>05:53:33</t>
+  </si>
+  <si>
+    <t>03:45:44</t>
+  </si>
+  <si>
+    <t>05:19:27</t>
+  </si>
+  <si>
+    <t>03:11:35</t>
+  </si>
+  <si>
+    <t>04:45:18</t>
+  </si>
+  <si>
+    <t>04:11:05</t>
+  </si>
+  <si>
+    <t>05:44:48</t>
+  </si>
+  <si>
+    <t>03:36:50</t>
+  </si>
+  <si>
+    <t>05:10:33</t>
   </si>
   <si>
     <t>B</t>
@@ -638,9 +671,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>3</t>
@@ -677,7 +707,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -698,19 +728,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8F4"/>
+        <fgColor rgb="FFCCDCEE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF6E9DD0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD4E2F1"/>
+        <fgColor rgb="FF558CC8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2C0E1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,55 +758,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCDCEE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4D7EC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5E92CB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF558CC8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6EEF7"/>
+        <fgColor rgb="FF99BADE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF77A3D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99BADE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6697CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF80A9D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,19 +782,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6E9DD0"/>
+        <fgColor rgb="FF88AED8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAAC5E3"/>
+        <fgColor rgb="FF6AD26A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEF3F9"/>
+        <fgColor rgb="FF80A9D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D7EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6EEF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8F4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,19 +830,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA2C0E1"/>
+        <fgColor rgb="FF5E92CB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBBD1E9"/>
+        <fgColor rgb="FFD4E2F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF88AED8"/>
+        <fgColor rgb="FFAAC5E3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,7 +883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -943,12 +961,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1326,7 +1338,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1410,55 +1422,55 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="L2" s="4">
-        <v>-39.1</v>
+        <v>-44.6</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="O2" s="6">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="P2" s="7">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q2" s="8">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="R2" s="9">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1466,55 +1478,55 @@
         <v>18</v>
       </c>
       <c r="B3" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="L3" s="4">
-        <v>-23.9</v>
+        <v>-29.4</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="O3" s="6">
-        <v>100</v>
-      </c>
-      <c r="P3" s="10">
-        <v>57</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>100</v>
-      </c>
-      <c r="R3" s="11">
-        <v>70</v>
+        <v>87</v>
+      </c>
+      <c r="P3" s="7">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>43</v>
+      </c>
+      <c r="R3" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1522,55 +1534,55 @@
         <v>18</v>
       </c>
       <c r="B4" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="L4" s="4">
-        <v>-9.199999999999999</v>
+        <v>-14.3</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="O4" s="6">
-        <v>97</v>
-      </c>
-      <c r="P4" s="7">
-        <v>82</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>64</v>
-      </c>
-      <c r="R4" s="13">
-        <v>7</v>
+        <v>80</v>
+      </c>
+      <c r="P4" s="11">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+      <c r="R4" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1578,54 +1590,54 @@
         <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L5" s="4">
-        <v>-44.6</v>
+        <v>-49.7</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="O5" s="6">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="P5" s="12">
-        <v>65</v>
-      </c>
-      <c r="Q5" s="14">
-        <v>0</v>
-      </c>
-      <c r="R5" s="14">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>19</v>
+      </c>
+      <c r="R5" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1634,54 +1646,54 @@
         <v>19</v>
       </c>
       <c r="B6" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="L6" s="4">
-        <v>-29.4</v>
+        <v>-35</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="O6" s="6">
-        <v>88</v>
+        <v>219</v>
+      </c>
+      <c r="O6" s="14">
+        <v>37</v>
       </c>
       <c r="P6" s="15">
-        <v>84</v>
-      </c>
-      <c r="Q6" s="14">
-        <v>0</v>
-      </c>
-      <c r="R6" s="14">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>13</v>
+      </c>
+      <c r="R6" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1690,54 +1702,54 @@
         <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="L7" s="4">
-        <v>-14.3</v>
+        <v>-19.7</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="O7" s="6">
-        <v>81</v>
-      </c>
-      <c r="P7" s="9">
-        <v>73</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>18</v>
-      </c>
-      <c r="R7" s="14">
+        <v>218</v>
+      </c>
+      <c r="O7" s="14">
+        <v>32</v>
+      </c>
+      <c r="P7" s="16">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1746,54 +1758,54 @@
         <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="L8" s="4">
-        <v>-49.7</v>
+        <v>-40.5</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="O8" s="6">
-        <v>41</v>
-      </c>
-      <c r="P8" s="17">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="14">
+        <v>219</v>
+      </c>
+      <c r="O8" s="17">
+        <v>3</v>
+      </c>
+      <c r="P8" s="9">
         <v>1</v>
       </c>
-      <c r="R8" s="14">
+      <c r="Q8" s="9">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1802,54 +1814,54 @@
         <v>20</v>
       </c>
       <c r="B9" s="2">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="L9" s="4">
-        <v>-35</v>
+        <v>-25.2</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="O9" s="6">
-        <v>72</v>
-      </c>
-      <c r="P9" s="11">
-        <v>72</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>8</v>
-      </c>
-      <c r="R9" s="14">
+        <v>37</v>
+      </c>
+      <c r="P9" s="15">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1858,54 +1870,54 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="L10" s="4">
-        <v>-19.7</v>
+        <v>-10.4</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="O10" s="6">
-        <v>70</v>
-      </c>
-      <c r="P10" s="11">
-        <v>70</v>
-      </c>
-      <c r="Q10" s="19">
-        <v>27</v>
-      </c>
-      <c r="R10" s="14">
+        <v>35</v>
+      </c>
+      <c r="P10" s="15">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1914,54 +1926,54 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="L11" s="4">
-        <v>-40.5</v>
+        <v>-46</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="O11" s="6">
-        <v>41</v>
-      </c>
-      <c r="P11" s="17">
-        <v>39</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>0</v>
-      </c>
-      <c r="R11" s="14">
+        <v>68</v>
+      </c>
+      <c r="P11" s="16">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>43</v>
+      </c>
+      <c r="R11" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1973,51 +1985,51 @@
         <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="L12" s="4">
-        <v>-25.2</v>
+        <v>-30.8</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="O12" s="20">
-        <v>31</v>
-      </c>
-      <c r="P12" s="19">
+        <v>218</v>
+      </c>
+      <c r="O12" s="6">
+        <v>72</v>
+      </c>
+      <c r="P12" s="18">
         <v>27</v>
       </c>
-      <c r="Q12" s="14">
-        <v>1</v>
-      </c>
-      <c r="R12" s="14">
+      <c r="Q12" s="10">
+        <v>43</v>
+      </c>
+      <c r="R12" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2026,7 +2038,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
@@ -2035,46 +2047,46 @@
         <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="L13" s="4">
-        <v>-10.4</v>
+        <v>-15.6</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="O13" s="6">
-        <v>38</v>
-      </c>
-      <c r="P13" s="21">
-        <v>36</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>0</v>
-      </c>
-      <c r="R13" s="14">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="P13" s="10">
+        <v>46</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>42</v>
+      </c>
+      <c r="R13" s="19">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2082,7 +2094,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>36</v>
@@ -2091,46 +2103,46 @@
         <v>56</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L14" s="4">
-        <v>-46</v>
+        <v>-50.9</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="O14" s="6">
-        <v>53</v>
-      </c>
-      <c r="P14" s="10">
-        <v>53</v>
-      </c>
-      <c r="Q14" s="22">
-        <v>14</v>
-      </c>
-      <c r="R14" s="14">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="P14" s="12">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>84</v>
+      </c>
+      <c r="R14" s="15">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2141,52 +2153,52 @@
         <v>33</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="L15" s="4">
-        <v>-30.8</v>
+        <v>-36.4</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="O15" s="6">
-        <v>71</v>
-      </c>
-      <c r="P15" s="11">
-        <v>71</v>
-      </c>
-      <c r="Q15" s="13">
-        <v>7</v>
-      </c>
-      <c r="R15" s="14">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="P15" s="12">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>100</v>
+      </c>
+      <c r="R15" s="21">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2194,55 +2206,55 @@
         <v>22</v>
       </c>
       <c r="B16" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="L16" s="4">
-        <v>-15.6</v>
+        <v>-21.1</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="O16" s="6">
-        <v>88</v>
-      </c>
-      <c r="P16" s="7">
-        <v>78</v>
-      </c>
-      <c r="Q16" s="23">
-        <v>51</v>
-      </c>
-      <c r="R16" s="10">
-        <v>53</v>
+        <v>100</v>
+      </c>
+      <c r="P16" s="10">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>100</v>
+      </c>
+      <c r="R16" s="21">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2250,7 +2262,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>38</v>
@@ -2259,46 +2271,46 @@
         <v>58</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="4">
+        <v>-55.3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="O17" s="6">
         <v>100</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17" s="4">
-        <v>-50.9</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="O17" s="6">
-        <v>96</v>
-      </c>
-      <c r="P17" s="9">
-        <v>74</v>
-      </c>
-      <c r="Q17" s="12">
-        <v>63</v>
-      </c>
-      <c r="R17" s="23">
-        <v>48</v>
+      <c r="P17" s="22">
+        <v>82</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>100</v>
+      </c>
+      <c r="R17" s="15">
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2312,49 +2324,49 @@
         <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>199</v>
+        <v>83</v>
       </c>
       <c r="L18" s="4">
-        <v>-36.4</v>
+        <v>-42</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="O18" s="6">
-        <v>100</v>
-      </c>
-      <c r="P18" s="15">
-        <v>87</v>
-      </c>
-      <c r="Q18" s="8">
-        <v>100</v>
-      </c>
-      <c r="R18" s="9">
-        <v>73</v>
+        <v>99</v>
+      </c>
+      <c r="P18" s="22">
+        <v>81</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>99</v>
+      </c>
+      <c r="R18" s="18">
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2362,111 +2374,111 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="L19" s="4">
-        <v>-21.1</v>
+        <v>-26.7</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="O19" s="6">
-        <v>100</v>
-      </c>
-      <c r="P19" s="24">
-        <v>88</v>
-      </c>
-      <c r="Q19" s="8">
-        <v>100</v>
-      </c>
-      <c r="R19" s="8">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="P19" s="22">
+        <v>81</v>
+      </c>
+      <c r="Q19" s="23">
+        <v>93</v>
+      </c>
+      <c r="R19" s="24">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L20" s="4">
+        <v>-11.7</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O20" s="6">
+        <v>95</v>
+      </c>
+      <c r="P20" s="22">
         <v>81</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L20" s="4">
-        <v>-55.3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="O20" s="6">
-        <v>99</v>
-      </c>
-      <c r="P20" s="25">
-        <v>93</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>74</v>
-      </c>
-      <c r="R20" s="18">
-        <v>9</v>
+      <c r="Q20" s="20">
+        <v>86</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2474,55 +2486,55 @@
         <v>24</v>
       </c>
       <c r="B21" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L21" s="4">
-        <v>-42</v>
+        <v>-58.7</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="O21" s="6">
-        <v>76</v>
-      </c>
-      <c r="P21" s="9">
-        <v>73</v>
-      </c>
-      <c r="Q21" s="12">
-        <v>67</v>
-      </c>
-      <c r="R21" s="13">
-        <v>4</v>
+        <v>94</v>
+      </c>
+      <c r="P21" s="20">
+        <v>85</v>
+      </c>
+      <c r="Q21" s="18">
+        <v>26</v>
+      </c>
+      <c r="R21" s="24">
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2530,55 +2542,55 @@
         <v>24</v>
       </c>
       <c r="B22" s="2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>201</v>
+        <v>87</v>
       </c>
       <c r="L22" s="4">
-        <v>-26.7</v>
+        <v>-47.3</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="O22" s="6">
-        <v>59</v>
-      </c>
-      <c r="P22" s="26">
-        <v>46</v>
-      </c>
-      <c r="Q22" s="27">
-        <v>59</v>
-      </c>
-      <c r="R22" s="14">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="P22" s="25">
+        <v>73</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>30</v>
+      </c>
+      <c r="R22" s="24">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2586,59 +2598,171 @@
         <v>24</v>
       </c>
       <c r="B23" s="2">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L23" s="4">
+        <v>-32.3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="O23" s="6">
+        <v>88</v>
+      </c>
+      <c r="P23" s="26">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>30</v>
+      </c>
+      <c r="R23" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="L23" s="4">
-        <v>-11.7</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="O23" s="6">
-        <v>54</v>
-      </c>
-      <c r="P23" s="28">
-        <v>32</v>
-      </c>
-      <c r="Q23" s="10">
-        <v>54</v>
-      </c>
-      <c r="R23" s="14">
-        <v>0</v>
+      <c r="D24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" s="4">
+        <v>-17.1</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O24" s="6">
+        <v>63</v>
+      </c>
+      <c r="P24" s="15">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>53</v>
+      </c>
+      <c r="R24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>16</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L25" s="4">
+        <v>-60.7</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="O25" s="6">
+        <v>100</v>
+      </c>
+      <c r="P25" s="23">
+        <v>93</v>
+      </c>
+      <c r="Q25" s="23">
+        <v>96</v>
+      </c>
+      <c r="R25" s="22">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L23">
+  <conditionalFormatting sqref="L2:L25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -2654,7 +2778,7 @@
       <formula>-6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N23">
+  <conditionalFormatting sqref="N2:N25">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="229">
   <si>
     <t>Datum</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>03.01.2026</t>
-  </si>
-  <si>
     <t>04.01.2026</t>
   </si>
   <si>
@@ -91,139 +88,145 @@
     <t>09.01.2026</t>
   </si>
   <si>
-    <t>02:44</t>
+    <t>10.01.2026</t>
+  </si>
+  <si>
+    <t>01:10</t>
+  </si>
+  <si>
+    <t>06:09</t>
+  </si>
+  <si>
+    <t>06:35</t>
+  </si>
+  <si>
+    <t>05:59</t>
+  </si>
+  <si>
+    <t>06:36</t>
+  </si>
+  <si>
+    <t>05:39</t>
+  </si>
+  <si>
+    <t>05:48</t>
+  </si>
+  <si>
+    <t>05:51</t>
+  </si>
+  <si>
+    <t>05:33</t>
+  </si>
+  <si>
+    <t>06:34</t>
+  </si>
+  <si>
+    <t>06:01</t>
+  </si>
+  <si>
+    <t>05:16</t>
+  </si>
+  <si>
+    <t>06:33</t>
+  </si>
+  <si>
+    <t>01:45</t>
+  </si>
+  <si>
+    <t>04:56</t>
+  </si>
+  <si>
+    <t>06:31</t>
   </si>
   <si>
     <t>06:16</t>
   </si>
   <si>
-    <t>06:34</t>
-  </si>
-  <si>
-    <t>01:10</t>
-  </si>
-  <si>
-    <t>06:08</t>
-  </si>
-  <si>
-    <t>06:35</t>
-  </si>
-  <si>
-    <t>05:59</t>
-  </si>
-  <si>
-    <t>06:36</t>
-  </si>
-  <si>
-    <t>05:38</t>
-  </si>
-  <si>
-    <t>05:47</t>
-  </si>
-  <si>
-    <t>05:51</t>
-  </si>
-  <si>
-    <t>05:34</t>
-  </si>
-  <si>
-    <t>06:01</t>
-  </si>
-  <si>
-    <t>05:16</t>
-  </si>
-  <si>
-    <t>06:33</t>
-  </si>
-  <si>
-    <t>06:09</t>
-  </si>
-  <si>
-    <t>01:45</t>
-  </si>
-  <si>
-    <t>04:56</t>
-  </si>
-  <si>
-    <t>06:30</t>
-  </si>
-  <si>
     <t>03:00</t>
   </si>
   <si>
-    <t>04:29</t>
-  </si>
-  <si>
-    <t>09:24</t>
+    <t>04:30</t>
+  </si>
+  <si>
+    <t>06:27</t>
+  </si>
+  <si>
+    <t>06:21</t>
+  </si>
+  <si>
+    <t>03:47</t>
+  </si>
+  <si>
+    <t>03:57</t>
+  </si>
+  <si>
+    <t>09:04</t>
+  </si>
+  <si>
+    <t>10:53</t>
+  </si>
+  <si>
+    <t>11:09</t>
+  </si>
+  <si>
+    <t>10:47</t>
+  </si>
+  <si>
+    <t>11:08</t>
+  </si>
+  <si>
+    <t>10:36</t>
+  </si>
+  <si>
+    <t>10:41</t>
+  </si>
+  <si>
+    <t>10:43</t>
+  </si>
+  <si>
+    <t>10:33</t>
+  </si>
+  <si>
+    <t>10:48</t>
+  </si>
+  <si>
+    <t>10:24</t>
+  </si>
+  <si>
+    <t>11:07</t>
+  </si>
+  <si>
+    <t>10:52</t>
+  </si>
+  <si>
+    <t>09:08</t>
+  </si>
+  <si>
+    <t>10:13</t>
+  </si>
+  <si>
+    <t>11:05</t>
   </si>
   <si>
     <t>10:57</t>
   </si>
   <si>
-    <t>11:08</t>
-  </si>
-  <si>
-    <t>09:04</t>
-  </si>
-  <si>
-    <t>10:53</t>
-  </si>
-  <si>
-    <t>10:47</t>
-  </si>
-  <si>
-    <t>11:09</t>
-  </si>
-  <si>
-    <t>10:36</t>
-  </si>
-  <si>
-    <t>10:40</t>
-  </si>
-  <si>
-    <t>10:42</t>
-  </si>
-  <si>
-    <t>10:33</t>
-  </si>
-  <si>
-    <t>11:07</t>
-  </si>
-  <si>
-    <t>10:23</t>
-  </si>
-  <si>
-    <t>11:06</t>
-  </si>
-  <si>
-    <t>10:52</t>
-  </si>
-  <si>
-    <t>09:08</t>
-  </si>
-  <si>
-    <t>10:13</t>
-  </si>
-  <si>
-    <t>11:05</t>
-  </si>
-  <si>
-    <t>10:56</t>
-  </si>
-  <si>
-    <t>09:27</t>
-  </si>
-  <si>
-    <t>10:01</t>
-  </si>
-  <si>
-    <t>02:10:02</t>
-  </si>
-  <si>
-    <t>03:46:44</t>
-  </si>
-  <si>
-    <t>05:24:23</t>
+    <t>09:28</t>
+  </si>
+  <si>
+    <t>10:02</t>
+  </si>
+  <si>
+    <t>11:03</t>
+  </si>
+  <si>
+    <t>10:59</t>
+  </si>
+  <si>
+    <t>09:44</t>
+  </si>
+  <si>
+    <t>09:47</t>
   </si>
   <si>
     <t>01:34:45</t>
@@ -235,67 +238,70 @@
     <t>04:48:52</t>
   </si>
   <si>
-    <t>02:35:44</t>
-  </si>
-  <si>
-    <t>04:13:16</t>
+    <t>02:35:45</t>
+  </si>
+  <si>
+    <t>04:13:17</t>
   </si>
   <si>
     <t>05:51:13</t>
   </si>
   <si>
-    <t>02:00:09</t>
-  </si>
-  <si>
-    <t>03:37:36</t>
-  </si>
-  <si>
-    <t>05:15:30</t>
-  </si>
-  <si>
-    <t>01:24:29</t>
-  </si>
-  <si>
-    <t>03:01:51</t>
-  </si>
-  <si>
-    <t>04:39:43</t>
-  </si>
-  <si>
-    <t>00:48:46</t>
-  </si>
-  <si>
-    <t>02:26:02</t>
-  </si>
-  <si>
-    <t>04:03:51</t>
-  </si>
-  <si>
-    <t>05:42:08</t>
-  </si>
-  <si>
-    <t>00:12:59</t>
-  </si>
-  <si>
-    <t>01:50:08</t>
-  </si>
-  <si>
-    <t>03:27:55</t>
-  </si>
-  <si>
-    <t>05:06:07</t>
-  </si>
-  <si>
-    <t>23:37:08</t>
-  </si>
-  <si>
-    <t>02:13:22</t>
-  </si>
-  <si>
-    <t>03:49:04</t>
-  </si>
-  <si>
-    <t>05:26:40</t>
+    <t>02:00:10</t>
+  </si>
+  <si>
+    <t>03:37:37</t>
+  </si>
+  <si>
+    <t>05:15:31</t>
+  </si>
+  <si>
+    <t>01:24:31</t>
+  </si>
+  <si>
+    <t>03:01:53</t>
+  </si>
+  <si>
+    <t>04:39:45</t>
+  </si>
+  <si>
+    <t>00:48:49</t>
+  </si>
+  <si>
+    <t>02:26:05</t>
+  </si>
+  <si>
+    <t>04:03:55</t>
+  </si>
+  <si>
+    <t>05:42:12</t>
+  </si>
+  <si>
+    <t>00:13:04</t>
+  </si>
+  <si>
+    <t>01:50:13</t>
+  </si>
+  <si>
+    <t>03:28:00</t>
+  </si>
+  <si>
+    <t>05:06:12</t>
+  </si>
+  <si>
+    <t>23:37:15</t>
+  </si>
+  <si>
+    <t>01:14:17</t>
+  </si>
+  <si>
+    <t>02:52:02</t>
+  </si>
+  <si>
+    <t>04:30:09</t>
+  </si>
+  <si>
+    <t>23:01:24</t>
   </si>
   <si>
     <t>01:38:42</t>
@@ -307,67 +313,70 @@
     <t>04:51:09</t>
   </si>
   <si>
-    <t>02:38:08</t>
-  </si>
-  <si>
-    <t>04:15:32</t>
+    <t>02:38:09</t>
+  </si>
+  <si>
+    <t>04:15:33</t>
   </si>
   <si>
     <t>05:53:42</t>
   </si>
   <si>
-    <t>02:02:35</t>
-  </si>
-  <si>
-    <t>03:39:52</t>
-  </si>
-  <si>
-    <t>05:17:56</t>
-  </si>
-  <si>
-    <t>01:26:58</t>
-  </si>
-  <si>
-    <t>03:04:07</t>
-  </si>
-  <si>
-    <t>04:42:06</t>
-  </si>
-  <si>
-    <t>00:51:19</t>
-  </si>
-  <si>
-    <t>02:28:18</t>
-  </si>
-  <si>
-    <t>04:06:13</t>
-  </si>
-  <si>
-    <t>05:45:50</t>
-  </si>
-  <si>
-    <t>00:15:37</t>
-  </si>
-  <si>
-    <t>01:52:25</t>
-  </si>
-  <si>
-    <t>03:30:15</t>
-  </si>
-  <si>
-    <t>05:09:21</t>
-  </si>
-  <si>
-    <t>23:39:54</t>
-  </si>
-  <si>
-    <t>02:14:44</t>
-  </si>
-  <si>
-    <t>03:52:12</t>
-  </si>
-  <si>
-    <t>05:29:57</t>
+    <t>02:02:36</t>
+  </si>
+  <si>
+    <t>03:39:53</t>
+  </si>
+  <si>
+    <t>05:17:57</t>
+  </si>
+  <si>
+    <t>01:27:01</t>
+  </si>
+  <si>
+    <t>03:04:10</t>
+  </si>
+  <si>
+    <t>04:42:09</t>
+  </si>
+  <si>
+    <t>00:51:23</t>
+  </si>
+  <si>
+    <t>02:28:22</t>
+  </si>
+  <si>
+    <t>04:06:17</t>
+  </si>
+  <si>
+    <t>05:45:54</t>
+  </si>
+  <si>
+    <t>00:15:42</t>
+  </si>
+  <si>
+    <t>01:52:30</t>
+  </si>
+  <si>
+    <t>03:30:21</t>
+  </si>
+  <si>
+    <t>05:09:26</t>
+  </si>
+  <si>
+    <t>23:40:01</t>
+  </si>
+  <si>
+    <t>01:16:35</t>
+  </si>
+  <si>
+    <t>02:54:21</t>
+  </si>
+  <si>
+    <t>04:33:08</t>
+  </si>
+  <si>
+    <t>23:04:18</t>
   </si>
   <si>
     <t>01:39:17</t>
@@ -379,139 +388,145 @@
     <t>04:54:26</t>
   </si>
   <si>
-    <t>02:41:07</t>
-  </si>
-  <si>
-    <t>04:18:50</t>
-  </si>
-  <si>
-    <t>05:56:31</t>
-  </si>
-  <si>
-    <t>02:05:28</t>
-  </si>
-  <si>
-    <t>03:43:10</t>
-  </si>
-  <si>
-    <t>05:20:52</t>
-  </si>
-  <si>
-    <t>01:29:45</t>
-  </si>
-  <si>
-    <t>03:07:24</t>
-  </si>
-  <si>
-    <t>04:45:07</t>
-  </si>
-  <si>
-    <t>00:53:57</t>
-  </si>
-  <si>
-    <t>02:31:35</t>
-  </si>
-  <si>
-    <t>04:09:17</t>
-  </si>
-  <si>
-    <t>05:46:43</t>
-  </si>
-  <si>
-    <t>00:18:05</t>
-  </si>
-  <si>
-    <t>01:55:40</t>
-  </si>
-  <si>
-    <t>03:33:23</t>
-  </si>
-  <si>
-    <t>05:10:51</t>
-  </si>
-  <si>
-    <t>23:42:08</t>
-  </si>
-  <si>
-    <t>02:16:06</t>
-  </si>
-  <si>
-    <t>03:55:20</t>
-  </si>
-  <si>
-    <t>05:33:14</t>
+    <t>02:41:08</t>
+  </si>
+  <si>
+    <t>04:18:51</t>
+  </si>
+  <si>
+    <t>05:56:32</t>
+  </si>
+  <si>
+    <t>02:05:30</t>
+  </si>
+  <si>
+    <t>03:43:11</t>
+  </si>
+  <si>
+    <t>05:20:53</t>
+  </si>
+  <si>
+    <t>01:29:47</t>
+  </si>
+  <si>
+    <t>03:07:27</t>
+  </si>
+  <si>
+    <t>04:45:09</t>
+  </si>
+  <si>
+    <t>00:54:01</t>
+  </si>
+  <si>
+    <t>02:31:38</t>
+  </si>
+  <si>
+    <t>04:09:21</t>
+  </si>
+  <si>
+    <t>05:46:47</t>
+  </si>
+  <si>
+    <t>00:18:10</t>
+  </si>
+  <si>
+    <t>01:55:45</t>
+  </si>
+  <si>
+    <t>03:33:29</t>
+  </si>
+  <si>
+    <t>05:10:56</t>
+  </si>
+  <si>
+    <t>23:42:15</t>
+  </si>
+  <si>
+    <t>01:19:48</t>
+  </si>
+  <si>
+    <t>02:57:31</t>
+  </si>
+  <si>
+    <t>04:35:02</t>
+  </si>
+  <si>
+    <t>23:06:16</t>
   </si>
   <si>
     <t>01:39:52</t>
   </si>
   <si>
-    <t>03:19:46</t>
+    <t>03:19:47</t>
   </si>
   <si>
     <t>04:57:44</t>
   </si>
   <si>
-    <t>02:44:07</t>
-  </si>
-  <si>
-    <t>04:22:08</t>
-  </si>
-  <si>
-    <t>05:59:20</t>
-  </si>
-  <si>
-    <t>02:08:22</t>
-  </si>
-  <si>
-    <t>03:46:28</t>
-  </si>
-  <si>
-    <t>05:23:47</t>
-  </si>
-  <si>
-    <t>01:32:32</t>
-  </si>
-  <si>
-    <t>03:10:42</t>
-  </si>
-  <si>
-    <t>04:48:07</t>
-  </si>
-  <si>
-    <t>00:56:35</t>
-  </si>
-  <si>
-    <t>02:34:51</t>
-  </si>
-  <si>
-    <t>04:12:22</t>
-  </si>
-  <si>
-    <t>05:47:35</t>
-  </si>
-  <si>
-    <t>00:20:33</t>
-  </si>
-  <si>
-    <t>01:58:55</t>
-  </si>
-  <si>
-    <t>03:36:31</t>
-  </si>
-  <si>
-    <t>05:12:21</t>
-  </si>
-  <si>
-    <t>23:44:23</t>
-  </si>
-  <si>
-    <t>02:19:26</t>
-  </si>
-  <si>
-    <t>03:57:41</t>
-  </si>
-  <si>
-    <t>05:35:31</t>
+    <t>02:44:08</t>
+  </si>
+  <si>
+    <t>04:22:09</t>
+  </si>
+  <si>
+    <t>05:59:21</t>
+  </si>
+  <si>
+    <t>02:08:24</t>
+  </si>
+  <si>
+    <t>03:46:29</t>
+  </si>
+  <si>
+    <t>05:23:48</t>
+  </si>
+  <si>
+    <t>01:32:34</t>
+  </si>
+  <si>
+    <t>03:10:44</t>
+  </si>
+  <si>
+    <t>04:48:10</t>
+  </si>
+  <si>
+    <t>00:56:39</t>
+  </si>
+  <si>
+    <t>02:34:55</t>
+  </si>
+  <si>
+    <t>04:12:26</t>
+  </si>
+  <si>
+    <t>05:47:39</t>
+  </si>
+  <si>
+    <t>00:20:38</t>
+  </si>
+  <si>
+    <t>01:59:01</t>
+  </si>
+  <si>
+    <t>03:36:37</t>
+  </si>
+  <si>
+    <t>05:12:26</t>
+  </si>
+  <si>
+    <t>23:44:31</t>
+  </si>
+  <si>
+    <t>01:23:02</t>
+  </si>
+  <si>
+    <t>03:00:42</t>
+  </si>
+  <si>
+    <t>04:36:55</t>
+  </si>
+  <si>
+    <t>23:08:15</t>
   </si>
   <si>
     <t>01:43:49</t>
@@ -520,10 +535,10 @@
     <t>03:22:09</t>
   </si>
   <si>
-    <t>05:00:00</t>
-  </si>
-  <si>
-    <t>02:46:31</t>
+    <t>05:00:01</t>
+  </si>
+  <si>
+    <t>02:46:32</t>
   </si>
   <si>
     <t>04:24:25</t>
@@ -532,78 +547,87 @@
     <t>06:01:49</t>
   </si>
   <si>
-    <t>02:10:49</t>
-  </si>
-  <si>
-    <t>03:48:44</t>
-  </si>
-  <si>
-    <t>05:26:12</t>
-  </si>
-  <si>
-    <t>01:35:02</t>
-  </si>
-  <si>
-    <t>03:12:58</t>
-  </si>
-  <si>
-    <t>04:50:30</t>
-  </si>
-  <si>
-    <t>00:59:09</t>
-  </si>
-  <si>
-    <t>02:37:08</t>
-  </si>
-  <si>
-    <t>04:14:43</t>
-  </si>
-  <si>
-    <t>05:51:16</t>
-  </si>
-  <si>
-    <t>00:23:12</t>
-  </si>
-  <si>
-    <t>02:01:13</t>
-  </si>
-  <si>
-    <t>03:38:51</t>
-  </si>
-  <si>
-    <t>05:15:34</t>
-  </si>
-  <si>
-    <t>23:47:09</t>
+    <t>02:10:51</t>
+  </si>
+  <si>
+    <t>03:48:45</t>
+  </si>
+  <si>
+    <t>05:26:14</t>
+  </si>
+  <si>
+    <t>01:35:04</t>
+  </si>
+  <si>
+    <t>03:13:01</t>
+  </si>
+  <si>
+    <t>04:50:33</t>
+  </si>
+  <si>
+    <t>00:59:13</t>
+  </si>
+  <si>
+    <t>02:37:12</t>
+  </si>
+  <si>
+    <t>04:14:47</t>
+  </si>
+  <si>
+    <t>05:51:20</t>
+  </si>
+  <si>
+    <t>00:23:17</t>
+  </si>
+  <si>
+    <t>02:01:18</t>
+  </si>
+  <si>
+    <t>03:38:57</t>
+  </si>
+  <si>
+    <t>05:15:40</t>
+  </si>
+  <si>
+    <t>23:47:17</t>
+  </si>
+  <si>
+    <t>01:25:20</t>
+  </si>
+  <si>
+    <t>03:03:01</t>
+  </si>
+  <si>
+    <t>04:39:53</t>
+  </si>
+  <si>
+    <t>23:11:11</t>
   </si>
   <si>
     <t>0°</t>
   </si>
   <si>
+    <t>8°</t>
+  </si>
+  <si>
+    <t>31°</t>
+  </si>
+  <si>
+    <t>2°</t>
+  </si>
+  <si>
+    <t>28°</t>
+  </si>
+  <si>
+    <t>9°</t>
+  </si>
+  <si>
+    <t>15°</t>
+  </si>
+  <si>
     <t>18°</t>
   </si>
   <si>
-    <t>17°</t>
-  </si>
-  <si>
-    <t>8°</t>
-  </si>
-  <si>
-    <t>31°</t>
-  </si>
-  <si>
-    <t>2°</t>
-  </si>
-  <si>
-    <t>28°</t>
-  </si>
-  <si>
-    <t>9°</t>
-  </si>
-  <si>
-    <t>15°</t>
-  </si>
-  <si>
     <t>6°</t>
   </si>
   <si>
@@ -613,10 +637,7 @@
     <t>12°</t>
   </si>
   <si>
-    <t>03:54:01</t>
-  </si>
-  <si>
-    <t>05:27:45</t>
+    <t>1°</t>
   </si>
   <si>
     <t>03:20:06</t>
@@ -628,34 +649,40 @@
     <t>02:46:06</t>
   </si>
   <si>
-    <t>04:19:49</t>
-  </si>
-  <si>
-    <t>05:53:33</t>
-  </si>
-  <si>
-    <t>03:45:44</t>
-  </si>
-  <si>
-    <t>05:19:27</t>
-  </si>
-  <si>
-    <t>03:11:35</t>
-  </si>
-  <si>
-    <t>04:45:18</t>
-  </si>
-  <si>
-    <t>04:11:05</t>
-  </si>
-  <si>
-    <t>05:44:48</t>
-  </si>
-  <si>
-    <t>03:36:50</t>
-  </si>
-  <si>
-    <t>05:10:33</t>
+    <t>04:19:50</t>
+  </si>
+  <si>
+    <t>05:53:34</t>
+  </si>
+  <si>
+    <t>03:45:45</t>
+  </si>
+  <si>
+    <t>05:19:29</t>
+  </si>
+  <si>
+    <t>03:11:37</t>
+  </si>
+  <si>
+    <t>04:45:20</t>
+  </si>
+  <si>
+    <t>04:11:09</t>
+  </si>
+  <si>
+    <t>05:44:52</t>
+  </si>
+  <si>
+    <t>03:36:56</t>
+  </si>
+  <si>
+    <t>05:10:39</t>
+  </si>
+  <si>
+    <t>03:02:41</t>
+  </si>
+  <si>
+    <t>04:36:24</t>
   </si>
   <si>
     <t>B</t>
@@ -670,10 +697,10 @@
     <t>4</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
 </sst>
 </file>
@@ -707,7 +734,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -722,13 +749,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF0B070"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80A9D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5E92CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF558CC8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF0707F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCDCEE"/>
+        <fgColor rgb="FFB2CBE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90B4DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF77A3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88AED8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D7EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBD1E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6697CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAC5E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6AD26A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,67 +839,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF558CC8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA2C0E1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB2CBE6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99BADE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF77A3D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0B070"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF90B4DB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF88AED8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6AD26A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF80A9D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4D7EC"/>
+        <fgColor rgb="FFDDE8F4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,37 +857,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8F4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF6F9FC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5E92CB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4E2F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAAC5E3"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,7 +904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -958,9 +979,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1338,7 +1356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1422,52 +1440,52 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L2" s="4">
-        <v>-44.6</v>
+        <v>-49.7</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="O2" s="6">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="P2" s="7">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="8">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="R2" s="9">
         <v>0</v>
@@ -1478,52 +1496,52 @@
         <v>18</v>
       </c>
       <c r="B3" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="L3" s="4">
-        <v>-29.4</v>
+        <v>-35</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="O3" s="6">
-        <v>87</v>
+        <v>227</v>
+      </c>
+      <c r="O3" s="10">
+        <v>66</v>
       </c>
       <c r="P3" s="7">
-        <v>72</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>43</v>
+        <v>23</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>1</v>
       </c>
       <c r="R3" s="9">
         <v>0</v>
@@ -1534,52 +1552,52 @@
         <v>18</v>
       </c>
       <c r="B4" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="L4" s="4">
-        <v>-14.3</v>
+        <v>-19.7</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="O4" s="6">
-        <v>80</v>
+        <v>228</v>
+      </c>
+      <c r="O4" s="10">
+        <v>71</v>
       </c>
       <c r="P4" s="11">
-        <v>57</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>34</v>
       </c>
       <c r="R4" s="9">
         <v>0</v>
@@ -1590,49 +1608,49 @@
         <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="L5" s="4">
-        <v>-49.7</v>
+        <v>-40.5</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O5" s="6">
-        <v>43</v>
-      </c>
-      <c r="P5" s="12">
-        <v>38</v>
+        <v>227</v>
+      </c>
+      <c r="O5" s="10">
+        <v>61</v>
+      </c>
+      <c r="P5" s="11">
+        <v>54</v>
       </c>
       <c r="Q5" s="13">
         <v>19</v>
@@ -1646,52 +1664,52 @@
         <v>19</v>
       </c>
       <c r="B6" s="2">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="L6" s="4">
-        <v>-35</v>
+        <v>-25.2</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="O6" s="14">
+        <v>228</v>
+      </c>
+      <c r="O6" s="10">
+        <v>55</v>
+      </c>
+      <c r="P6" s="12">
         <v>37</v>
       </c>
-      <c r="P6" s="15">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>13</v>
+      <c r="Q6" s="7">
+        <v>23</v>
       </c>
       <c r="R6" s="9">
         <v>0</v>
@@ -1702,52 +1720,52 @@
         <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="L7" s="4">
-        <v>-19.7</v>
+        <v>-10.4</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="O7" s="14">
+        <v>228</v>
+      </c>
+      <c r="O7" s="10">
+        <v>68</v>
+      </c>
+      <c r="P7" s="14">
         <v>32</v>
       </c>
-      <c r="P7" s="16">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>0</v>
+      <c r="Q7" s="12">
+        <v>37</v>
       </c>
       <c r="R7" s="9">
         <v>0</v>
@@ -1758,52 +1776,52 @@
         <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="L8" s="4">
-        <v>-40.5</v>
+        <v>-46</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="O8" s="17">
-        <v>3</v>
-      </c>
-      <c r="P8" s="9">
+        <v>227</v>
+      </c>
+      <c r="O8" s="10">
+        <v>55</v>
+      </c>
+      <c r="P8" s="11">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="9">
         <v>1</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>0</v>
       </c>
       <c r="R8" s="9">
         <v>0</v>
@@ -1817,49 +1835,49 @@
         <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="L9" s="4">
-        <v>-25.2</v>
+        <v>-30.8</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="O9" s="6">
-        <v>37</v>
-      </c>
-      <c r="P9" s="15">
-        <v>35</v>
+        <v>228</v>
+      </c>
+      <c r="O9" s="10">
+        <v>55</v>
+      </c>
+      <c r="P9" s="11">
+        <v>55</v>
       </c>
       <c r="Q9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="9">
         <v>0</v>
@@ -1870,52 +1888,52 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="L10" s="4">
-        <v>-10.4</v>
+        <v>-15.6</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="O10" s="6">
-        <v>35</v>
-      </c>
-      <c r="P10" s="15">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="P10" s="12">
+        <v>37</v>
       </c>
       <c r="Q10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="9">
         <v>0</v>
@@ -1926,55 +1944,55 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L11" s="4">
-        <v>-46</v>
+        <v>-50.9</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="O11" s="6">
-        <v>68</v>
-      </c>
-      <c r="P11" s="16">
-        <v>29</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>43</v>
-      </c>
-      <c r="R11" s="9">
-        <v>0</v>
+        <v>227</v>
+      </c>
+      <c r="O11" s="10">
+        <v>84</v>
+      </c>
+      <c r="P11" s="15">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>60</v>
+      </c>
+      <c r="R11" s="17">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1985,49 +2003,49 @@
         <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="L12" s="4">
-        <v>-30.8</v>
+        <v>-36.4</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="O12" s="6">
-        <v>72</v>
+        <v>227</v>
+      </c>
+      <c r="O12" s="10">
+        <v>90</v>
       </c>
       <c r="P12" s="18">
-        <v>27</v>
-      </c>
-      <c r="Q12" s="10">
-        <v>43</v>
+        <v>51</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>60</v>
       </c>
       <c r="R12" s="9">
         <v>0</v>
@@ -2038,55 +2056,55 @@
         <v>21</v>
       </c>
       <c r="B13" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="L13" s="4">
-        <v>-15.6</v>
+        <v>-21.1</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="O13" s="6">
-        <v>84</v>
-      </c>
-      <c r="P13" s="10">
-        <v>46</v>
-      </c>
-      <c r="Q13" s="12">
-        <v>42</v>
-      </c>
-      <c r="R13" s="19">
-        <v>67</v>
+        <v>228</v>
+      </c>
+      <c r="O13" s="10">
+        <v>90</v>
+      </c>
+      <c r="P13" s="18">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>60</v>
+      </c>
+      <c r="R13" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2094,55 +2112,55 @@
         <v>22</v>
       </c>
       <c r="B14" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="4">
-        <v>-50.9</v>
+        <v>-55.3</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="O14" s="6">
-        <v>84</v>
-      </c>
-      <c r="P14" s="12">
-        <v>40</v>
-      </c>
-      <c r="Q14" s="20">
-        <v>84</v>
-      </c>
-      <c r="R14" s="15">
-        <v>33</v>
+        <v>227</v>
+      </c>
+      <c r="O14" s="19">
+        <v>1</v>
+      </c>
+      <c r="P14" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2153,52 +2171,52 @@
         <v>33</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>196</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>208</v>
+        <v>84</v>
       </c>
       <c r="L15" s="4">
-        <v>-36.4</v>
+        <v>-42</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="O15" s="6">
-        <v>100</v>
-      </c>
-      <c r="P15" s="12">
-        <v>40</v>
-      </c>
-      <c r="Q15" s="21">
-        <v>100</v>
-      </c>
-      <c r="R15" s="21">
-        <v>100</v>
+        <v>227</v>
+      </c>
+      <c r="O15" s="19">
+        <v>1</v>
+      </c>
+      <c r="P15" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0</v>
+      </c>
+      <c r="R15" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2206,111 +2224,111 @@
         <v>22</v>
       </c>
       <c r="B16" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="L16" s="4">
-        <v>-21.1</v>
+        <v>-26.7</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="O16" s="6">
-        <v>100</v>
-      </c>
-      <c r="P16" s="10">
-        <v>45</v>
-      </c>
-      <c r="Q16" s="21">
-        <v>100</v>
-      </c>
-      <c r="R16" s="21">
-        <v>100</v>
+        <v>228</v>
+      </c>
+      <c r="O16" s="19">
+        <v>3</v>
+      </c>
+      <c r="P16" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>0</v>
+      </c>
+      <c r="R16" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="L17" s="4">
-        <v>-55.3</v>
+        <v>-11.7</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="O17" s="6">
-        <v>100</v>
-      </c>
-      <c r="P17" s="22">
-        <v>82</v>
-      </c>
-      <c r="Q17" s="21">
-        <v>100</v>
-      </c>
-      <c r="R17" s="15">
-        <v>36</v>
+        <v>226</v>
+      </c>
+      <c r="O17" s="19">
+        <v>5</v>
+      </c>
+      <c r="P17" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2318,55 +2336,55 @@
         <v>23</v>
       </c>
       <c r="B18" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L18" s="4">
-        <v>-42</v>
+        <v>-58.7</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="O18" s="6">
-        <v>99</v>
-      </c>
-      <c r="P18" s="22">
-        <v>81</v>
-      </c>
-      <c r="Q18" s="21">
-        <v>99</v>
-      </c>
-      <c r="R18" s="18">
-        <v>24</v>
+        <v>227</v>
+      </c>
+      <c r="O18" s="10">
+        <v>52</v>
+      </c>
+      <c r="P18" s="13">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="20">
+        <v>13</v>
+      </c>
+      <c r="R18" s="13">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2374,55 +2392,55 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>210</v>
+        <v>88</v>
       </c>
       <c r="L19" s="4">
-        <v>-26.7</v>
+        <v>-47.2</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="O19" s="6">
-        <v>97</v>
-      </c>
-      <c r="P19" s="22">
-        <v>81</v>
-      </c>
-      <c r="Q19" s="23">
-        <v>93</v>
-      </c>
-      <c r="R19" s="24">
-        <v>3</v>
+        <v>227</v>
+      </c>
+      <c r="O19" s="10">
+        <v>61</v>
+      </c>
+      <c r="P19" s="13">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>28</v>
+      </c>
+      <c r="R19" s="7">
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2430,167 +2448,167 @@
         <v>23</v>
       </c>
       <c r="B20" s="2">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="L20" s="4">
-        <v>-11.7</v>
+        <v>-32.2</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O20" s="6">
-        <v>95</v>
-      </c>
-      <c r="P20" s="22">
-        <v>81</v>
-      </c>
-      <c r="Q20" s="20">
-        <v>86</v>
-      </c>
-      <c r="R20" s="9">
-        <v>0</v>
+        <v>227</v>
+      </c>
+      <c r="O20" s="10">
+        <v>82</v>
+      </c>
+      <c r="P20" s="14">
+        <v>29</v>
+      </c>
+      <c r="Q20" s="18">
+        <v>52</v>
+      </c>
+      <c r="R20" s="14">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="L21" s="4">
-        <v>-58.7</v>
+        <v>-17</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="O21" s="6">
-        <v>94</v>
-      </c>
-      <c r="P21" s="20">
-        <v>85</v>
-      </c>
-      <c r="Q21" s="18">
-        <v>26</v>
-      </c>
-      <c r="R21" s="24">
-        <v>7</v>
+        <v>226</v>
+      </c>
+      <c r="O21" s="10">
+        <v>95</v>
+      </c>
+      <c r="P21" s="21">
+        <v>45</v>
+      </c>
+      <c r="Q21" s="22">
+        <v>82</v>
+      </c>
+      <c r="R21" s="15">
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L22" s="4">
-        <v>-47.3</v>
+        <v>-60.7</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="O22" s="6">
-        <v>92</v>
-      </c>
-      <c r="P22" s="25">
-        <v>73</v>
-      </c>
-      <c r="Q22" s="16">
-        <v>30</v>
-      </c>
-      <c r="R22" s="24">
-        <v>5</v>
+        <v>227</v>
+      </c>
+      <c r="O22" s="10">
+        <v>99</v>
+      </c>
+      <c r="P22" s="23">
+        <v>84</v>
+      </c>
+      <c r="Q22" s="24">
+        <v>94</v>
+      </c>
+      <c r="R22" s="17">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2598,55 +2616,55 @@
         <v>24</v>
       </c>
       <c r="B23" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>212</v>
+        <v>92</v>
       </c>
       <c r="L23" s="4">
-        <v>-32.3</v>
+        <v>-52</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="O23" s="6">
-        <v>88</v>
-      </c>
-      <c r="P23" s="26">
-        <v>50</v>
-      </c>
-      <c r="Q23" s="16">
-        <v>30</v>
-      </c>
-      <c r="R23" s="9">
-        <v>1</v>
+        <v>227</v>
+      </c>
+      <c r="O23" s="10">
+        <v>100</v>
+      </c>
+      <c r="P23" s="22">
+        <v>81</v>
+      </c>
+      <c r="Q23" s="25">
+        <v>98</v>
+      </c>
+      <c r="R23" s="20">
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2654,55 +2672,55 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="L24" s="4">
-        <v>-17.1</v>
+        <v>-37.8</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O24" s="6">
-        <v>63</v>
-      </c>
-      <c r="P24" s="15">
-        <v>36</v>
-      </c>
-      <c r="Q24" s="11">
-        <v>53</v>
-      </c>
-      <c r="R24" s="9">
-        <v>1</v>
+        <v>227</v>
+      </c>
+      <c r="O24" s="10">
+        <v>100</v>
+      </c>
+      <c r="P24" s="22">
+        <v>82</v>
+      </c>
+      <c r="Q24" s="24">
+        <v>97</v>
+      </c>
+      <c r="R24" s="13">
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2710,59 +2728,115 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c r="L25" s="4">
-        <v>-60.7</v>
+        <v>-22.5</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="O25" s="6">
+        <v>226</v>
+      </c>
+      <c r="O25" s="10">
         <v>100</v>
       </c>
       <c r="P25" s="23">
+        <v>84</v>
+      </c>
+      <c r="Q25" s="24">
         <v>93</v>
       </c>
-      <c r="Q25" s="23">
-        <v>96</v>
-      </c>
-      <c r="R25" s="22">
-        <v>82</v>
+      <c r="R25" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>14</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L26" s="4">
+        <v>-61.2</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="O26" s="10">
+        <v>91</v>
+      </c>
+      <c r="P26" s="16">
+        <v>58</v>
+      </c>
+      <c r="Q26" s="15">
+        <v>67</v>
+      </c>
+      <c r="R26" s="9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L25">
+  <conditionalFormatting sqref="L2:L26">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -2778,7 +2852,7 @@
       <formula>-6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N25">
+  <conditionalFormatting sqref="N2:N26">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="234">
   <si>
     <t>Datum</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>04.01.2026</t>
-  </si>
-  <si>
     <t>05.01.2026</t>
   </si>
   <si>
@@ -91,49 +88,46 @@
     <t>10.01.2026</t>
   </si>
   <si>
-    <t>01:10</t>
-  </si>
-  <si>
-    <t>06:09</t>
+    <t>11.01.2026</t>
+  </si>
+  <si>
+    <t>05:59</t>
+  </si>
+  <si>
+    <t>06:36</t>
+  </si>
+  <si>
+    <t>05:39</t>
+  </si>
+  <si>
+    <t>05:48</t>
+  </si>
+  <si>
+    <t>05:52</t>
+  </si>
+  <si>
+    <t>05:34</t>
   </si>
   <si>
     <t>06:35</t>
   </si>
   <si>
-    <t>05:59</t>
-  </si>
-  <si>
-    <t>06:36</t>
-  </si>
-  <si>
-    <t>05:39</t>
-  </si>
-  <si>
-    <t>05:48</t>
-  </si>
-  <si>
-    <t>05:51</t>
-  </si>
-  <si>
-    <t>05:33</t>
+    <t>06:02</t>
+  </si>
+  <si>
+    <t>05:17</t>
   </si>
   <si>
     <t>06:34</t>
   </si>
   <si>
-    <t>06:01</t>
-  </si>
-  <si>
-    <t>05:16</t>
-  </si>
-  <si>
-    <t>06:33</t>
+    <t>06:10</t>
   </si>
   <si>
     <t>01:45</t>
   </si>
   <si>
-    <t>04:56</t>
+    <t>04:57</t>
   </si>
   <si>
     <t>06:31</t>
@@ -145,48 +139,51 @@
     <t>03:00</t>
   </si>
   <si>
-    <t>04:30</t>
+    <t>04:31</t>
   </si>
   <si>
     <t>06:27</t>
   </si>
   <si>
-    <t>06:21</t>
+    <t>06:22</t>
   </si>
   <si>
     <t>03:47</t>
   </si>
   <si>
-    <t>03:57</t>
-  </si>
-  <si>
-    <t>09:04</t>
-  </si>
-  <si>
-    <t>10:53</t>
+    <t>03:58</t>
+  </si>
+  <si>
+    <t>06:26</t>
+  </si>
+  <si>
+    <t>04:22</t>
+  </si>
+  <si>
+    <t>03:14</t>
+  </si>
+  <si>
+    <t>10:47</t>
   </si>
   <si>
     <t>11:09</t>
   </si>
   <si>
-    <t>10:47</t>
+    <t>10:37</t>
+  </si>
+  <si>
+    <t>10:41</t>
+  </si>
+  <si>
+    <t>10:43</t>
+  </si>
+  <si>
+    <t>10:33</t>
   </si>
   <si>
     <t>11:08</t>
   </si>
   <si>
-    <t>10:36</t>
-  </si>
-  <si>
-    <t>10:41</t>
-  </si>
-  <si>
-    <t>10:43</t>
-  </si>
-  <si>
-    <t>10:33</t>
-  </si>
-  <si>
     <t>10:48</t>
   </si>
   <si>
@@ -199,43 +196,40 @@
     <t>10:52</t>
   </si>
   <si>
-    <t>09:08</t>
-  </si>
-  <si>
-    <t>10:13</t>
+    <t>09:09</t>
+  </si>
+  <si>
+    <t>10:14</t>
   </si>
   <si>
     <t>11:05</t>
   </si>
   <si>
-    <t>10:57</t>
-  </si>
-  <si>
-    <t>09:28</t>
+    <t>10:56</t>
+  </si>
+  <si>
+    <t>09:27</t>
   </si>
   <si>
     <t>10:02</t>
   </si>
   <si>
-    <t>11:03</t>
-  </si>
-  <si>
-    <t>10:59</t>
+    <t>11:02</t>
+  </si>
+  <si>
+    <t>11:00</t>
   </si>
   <si>
     <t>09:44</t>
   </si>
   <si>
-    <t>09:47</t>
-  </si>
-  <si>
-    <t>01:34:45</t>
-  </si>
-  <si>
-    <t>03:11:16</t>
-  </si>
-  <si>
-    <t>04:48:52</t>
+    <t>09:48</t>
+  </si>
+  <si>
+    <t>09:58</t>
+  </si>
+  <si>
+    <t>09:32</t>
   </si>
   <si>
     <t>02:35:45</t>
@@ -247,70 +241,73 @@
     <t>05:51:13</t>
   </si>
   <si>
-    <t>02:00:10</t>
-  </si>
-  <si>
-    <t>03:37:37</t>
-  </si>
-  <si>
-    <t>05:15:31</t>
-  </si>
-  <si>
-    <t>01:24:31</t>
-  </si>
-  <si>
-    <t>03:01:53</t>
-  </si>
-  <si>
-    <t>04:39:45</t>
-  </si>
-  <si>
-    <t>00:48:49</t>
-  </si>
-  <si>
-    <t>02:26:05</t>
-  </si>
-  <si>
-    <t>04:03:55</t>
-  </si>
-  <si>
-    <t>05:42:12</t>
-  </si>
-  <si>
-    <t>00:13:04</t>
-  </si>
-  <si>
-    <t>01:50:13</t>
-  </si>
-  <si>
-    <t>03:28:00</t>
-  </si>
-  <si>
-    <t>05:06:12</t>
-  </si>
-  <si>
-    <t>23:37:15</t>
-  </si>
-  <si>
-    <t>01:14:17</t>
-  </si>
-  <si>
-    <t>02:52:02</t>
-  </si>
-  <si>
-    <t>04:30:09</t>
-  </si>
-  <si>
-    <t>23:01:24</t>
-  </si>
-  <si>
-    <t>01:38:42</t>
-  </si>
-  <si>
-    <t>03:13:38</t>
-  </si>
-  <si>
-    <t>04:51:09</t>
+    <t>02:00:11</t>
+  </si>
+  <si>
+    <t>03:37:38</t>
+  </si>
+  <si>
+    <t>05:15:32</t>
+  </si>
+  <si>
+    <t>01:24:34</t>
+  </si>
+  <si>
+    <t>03:01:56</t>
+  </si>
+  <si>
+    <t>04:39:48</t>
+  </si>
+  <si>
+    <t>00:48:54</t>
+  </si>
+  <si>
+    <t>02:26:10</t>
+  </si>
+  <si>
+    <t>04:04:00</t>
+  </si>
+  <si>
+    <t>05:42:17</t>
+  </si>
+  <si>
+    <t>00:13:11</t>
+  </si>
+  <si>
+    <t>01:50:20</t>
+  </si>
+  <si>
+    <t>03:28:08</t>
+  </si>
+  <si>
+    <t>05:06:20</t>
+  </si>
+  <si>
+    <t>23:37:25</t>
+  </si>
+  <si>
+    <t>01:14:28</t>
+  </si>
+  <si>
+    <t>02:52:12</t>
+  </si>
+  <si>
+    <t>04:30:20</t>
+  </si>
+  <si>
+    <t>23:01:37</t>
+  </si>
+  <si>
+    <t>00:38:31</t>
+  </si>
+  <si>
+    <t>02:16:13</t>
+  </si>
+  <si>
+    <t>03:54:17</t>
+  </si>
+  <si>
+    <t>22:25:46</t>
   </si>
   <si>
     <t>02:38:09</t>
@@ -322,70 +319,73 @@
     <t>05:53:42</t>
   </si>
   <si>
-    <t>02:02:36</t>
-  </si>
-  <si>
-    <t>03:39:53</t>
-  </si>
-  <si>
-    <t>05:17:57</t>
-  </si>
-  <si>
-    <t>01:27:01</t>
-  </si>
-  <si>
-    <t>03:04:10</t>
-  </si>
-  <si>
-    <t>04:42:09</t>
-  </si>
-  <si>
-    <t>00:51:23</t>
-  </si>
-  <si>
-    <t>02:28:22</t>
-  </si>
-  <si>
-    <t>04:06:17</t>
-  </si>
-  <si>
-    <t>05:45:54</t>
-  </si>
-  <si>
-    <t>00:15:42</t>
-  </si>
-  <si>
-    <t>01:52:30</t>
-  </si>
-  <si>
-    <t>03:30:21</t>
-  </si>
-  <si>
-    <t>05:09:26</t>
-  </si>
-  <si>
-    <t>23:40:01</t>
-  </si>
-  <si>
-    <t>01:16:35</t>
-  </si>
-  <si>
-    <t>02:54:21</t>
-  </si>
-  <si>
-    <t>04:33:08</t>
-  </si>
-  <si>
-    <t>23:04:18</t>
-  </si>
-  <si>
-    <t>01:39:17</t>
-  </si>
-  <si>
-    <t>03:16:42</t>
-  </si>
-  <si>
-    <t>04:54:26</t>
+    <t>02:02:37</t>
+  </si>
+  <si>
+    <t>03:39:54</t>
+  </si>
+  <si>
+    <t>05:17:58</t>
+  </si>
+  <si>
+    <t>01:27:03</t>
+  </si>
+  <si>
+    <t>03:04:12</t>
+  </si>
+  <si>
+    <t>04:42:11</t>
+  </si>
+  <si>
+    <t>00:51:27</t>
+  </si>
+  <si>
+    <t>02:28:26</t>
+  </si>
+  <si>
+    <t>04:06:21</t>
+  </si>
+  <si>
+    <t>05:45:59</t>
+  </si>
+  <si>
+    <t>00:15:49</t>
+  </si>
+  <si>
+    <t>01:52:37</t>
+  </si>
+  <si>
+    <t>03:30:28</t>
+  </si>
+  <si>
+    <t>05:09:34</t>
+  </si>
+  <si>
+    <t>23:40:10</t>
+  </si>
+  <si>
+    <t>01:16:45</t>
+  </si>
+  <si>
+    <t>02:54:31</t>
+  </si>
+  <si>
+    <t>04:33:19</t>
+  </si>
+  <si>
+    <t>23:04:31</t>
+  </si>
+  <si>
+    <t>00:40:50</t>
+  </si>
+  <si>
+    <t>02:18:31</t>
+  </si>
+  <si>
+    <t>03:57:05</t>
+  </si>
+  <si>
+    <t>22:28:55</t>
   </si>
   <si>
     <t>02:41:08</t>
@@ -397,70 +397,73 @@
     <t>05:56:32</t>
   </si>
   <si>
-    <t>02:05:30</t>
-  </si>
-  <si>
-    <t>03:43:11</t>
-  </si>
-  <si>
-    <t>05:20:53</t>
-  </si>
-  <si>
-    <t>01:29:47</t>
-  </si>
-  <si>
-    <t>03:07:27</t>
-  </si>
-  <si>
-    <t>04:45:09</t>
-  </si>
-  <si>
-    <t>00:54:01</t>
-  </si>
-  <si>
-    <t>02:31:38</t>
-  </si>
-  <si>
-    <t>04:09:21</t>
-  </si>
-  <si>
-    <t>05:46:47</t>
-  </si>
-  <si>
-    <t>00:18:10</t>
-  </si>
-  <si>
-    <t>01:55:45</t>
-  </si>
-  <si>
-    <t>03:33:29</t>
-  </si>
-  <si>
-    <t>05:10:56</t>
-  </si>
-  <si>
-    <t>23:42:15</t>
-  </si>
-  <si>
-    <t>01:19:48</t>
-  </si>
-  <si>
-    <t>02:57:31</t>
-  </si>
-  <si>
-    <t>04:35:02</t>
-  </si>
-  <si>
-    <t>23:06:16</t>
-  </si>
-  <si>
-    <t>01:39:52</t>
-  </si>
-  <si>
-    <t>03:19:47</t>
-  </si>
-  <si>
-    <t>04:57:44</t>
+    <t>02:05:31</t>
+  </si>
+  <si>
+    <t>03:43:12</t>
+  </si>
+  <si>
+    <t>05:20:54</t>
+  </si>
+  <si>
+    <t>01:29:50</t>
+  </si>
+  <si>
+    <t>03:07:29</t>
+  </si>
+  <si>
+    <t>04:45:12</t>
+  </si>
+  <si>
+    <t>00:54:05</t>
+  </si>
+  <si>
+    <t>02:31:43</t>
+  </si>
+  <si>
+    <t>04:09:26</t>
+  </si>
+  <si>
+    <t>05:46:52</t>
+  </si>
+  <si>
+    <t>00:18:17</t>
+  </si>
+  <si>
+    <t>01:55:53</t>
+  </si>
+  <si>
+    <t>03:33:36</t>
+  </si>
+  <si>
+    <t>05:11:04</t>
+  </si>
+  <si>
+    <t>23:42:25</t>
+  </si>
+  <si>
+    <t>01:19:59</t>
+  </si>
+  <si>
+    <t>02:57:42</t>
+  </si>
+  <si>
+    <t>04:35:12</t>
+  </si>
+  <si>
+    <t>23:06:30</t>
+  </si>
+  <si>
+    <t>00:44:01</t>
+  </si>
+  <si>
+    <t>02:21:44</t>
+  </si>
+  <si>
+    <t>03:59:16</t>
+  </si>
+  <si>
+    <t>22:30:32</t>
   </si>
   <si>
     <t>02:44:08</t>
@@ -472,178 +475,187 @@
     <t>05:59:21</t>
   </si>
   <si>
-    <t>02:08:24</t>
-  </si>
-  <si>
-    <t>03:46:29</t>
-  </si>
-  <si>
-    <t>05:23:48</t>
-  </si>
-  <si>
-    <t>01:32:34</t>
-  </si>
-  <si>
-    <t>03:10:44</t>
-  </si>
-  <si>
-    <t>04:48:10</t>
-  </si>
-  <si>
-    <t>00:56:39</t>
-  </si>
-  <si>
-    <t>02:34:55</t>
-  </si>
-  <si>
-    <t>04:12:26</t>
-  </si>
-  <si>
-    <t>05:47:39</t>
-  </si>
-  <si>
-    <t>00:20:38</t>
-  </si>
-  <si>
-    <t>01:59:01</t>
-  </si>
-  <si>
-    <t>03:36:37</t>
-  </si>
-  <si>
-    <t>05:12:26</t>
-  </si>
-  <si>
-    <t>23:44:31</t>
-  </si>
-  <si>
-    <t>01:23:02</t>
-  </si>
-  <si>
-    <t>03:00:42</t>
-  </si>
-  <si>
-    <t>04:36:55</t>
-  </si>
-  <si>
-    <t>23:08:15</t>
-  </si>
-  <si>
-    <t>01:43:49</t>
-  </si>
-  <si>
-    <t>03:22:09</t>
-  </si>
-  <si>
-    <t>05:00:01</t>
+    <t>02:08:25</t>
+  </si>
+  <si>
+    <t>03:46:30</t>
+  </si>
+  <si>
+    <t>05:23:50</t>
+  </si>
+  <si>
+    <t>01:32:37</t>
+  </si>
+  <si>
+    <t>03:10:47</t>
+  </si>
+  <si>
+    <t>04:48:13</t>
+  </si>
+  <si>
+    <t>00:56:44</t>
+  </si>
+  <si>
+    <t>02:35:00</t>
+  </si>
+  <si>
+    <t>04:12:31</t>
+  </si>
+  <si>
+    <t>05:47:44</t>
+  </si>
+  <si>
+    <t>00:20:46</t>
+  </si>
+  <si>
+    <t>01:59:08</t>
+  </si>
+  <si>
+    <t>03:36:44</t>
+  </si>
+  <si>
+    <t>05:12:34</t>
+  </si>
+  <si>
+    <t>23:44:41</t>
+  </si>
+  <si>
+    <t>01:23:12</t>
+  </si>
+  <si>
+    <t>03:00:53</t>
+  </si>
+  <si>
+    <t>04:37:06</t>
+  </si>
+  <si>
+    <t>23:08:29</t>
+  </si>
+  <si>
+    <t>00:47:12</t>
+  </si>
+  <si>
+    <t>02:24:57</t>
+  </si>
+  <si>
+    <t>04:01:27</t>
+  </si>
+  <si>
+    <t>22:32:09</t>
   </si>
   <si>
     <t>02:46:32</t>
   </si>
   <si>
-    <t>04:24:25</t>
-  </si>
-  <si>
-    <t>06:01:49</t>
-  </si>
-  <si>
-    <t>02:10:51</t>
-  </si>
-  <si>
-    <t>03:48:45</t>
-  </si>
-  <si>
-    <t>05:26:14</t>
-  </si>
-  <si>
-    <t>01:35:04</t>
-  </si>
-  <si>
-    <t>03:13:01</t>
-  </si>
-  <si>
-    <t>04:50:33</t>
-  </si>
-  <si>
-    <t>00:59:13</t>
-  </si>
-  <si>
-    <t>02:37:12</t>
-  </si>
-  <si>
-    <t>04:14:47</t>
-  </si>
-  <si>
-    <t>05:51:20</t>
-  </si>
-  <si>
-    <t>00:23:17</t>
-  </si>
-  <si>
-    <t>02:01:18</t>
-  </si>
-  <si>
-    <t>03:38:57</t>
-  </si>
-  <si>
-    <t>05:15:40</t>
-  </si>
-  <si>
-    <t>23:47:17</t>
-  </si>
-  <si>
-    <t>01:25:20</t>
-  </si>
-  <si>
-    <t>03:03:01</t>
-  </si>
-  <si>
-    <t>04:39:53</t>
-  </si>
-  <si>
-    <t>23:11:11</t>
+    <t>04:24:26</t>
+  </si>
+  <si>
+    <t>06:01:50</t>
+  </si>
+  <si>
+    <t>02:10:52</t>
+  </si>
+  <si>
+    <t>03:48:47</t>
+  </si>
+  <si>
+    <t>05:26:15</t>
+  </si>
+  <si>
+    <t>01:35:07</t>
+  </si>
+  <si>
+    <t>03:13:04</t>
+  </si>
+  <si>
+    <t>04:50:36</t>
+  </si>
+  <si>
+    <t>00:59:18</t>
+  </si>
+  <si>
+    <t>02:37:17</t>
+  </si>
+  <si>
+    <t>04:14:52</t>
+  </si>
+  <si>
+    <t>05:51:26</t>
+  </si>
+  <si>
+    <t>00:23:25</t>
+  </si>
+  <si>
+    <t>02:01:25</t>
+  </si>
+  <si>
+    <t>03:39:04</t>
+  </si>
+  <si>
+    <t>05:15:47</t>
+  </si>
+  <si>
+    <t>23:47:27</t>
+  </si>
+  <si>
+    <t>01:25:30</t>
+  </si>
+  <si>
+    <t>03:03:12</t>
+  </si>
+  <si>
+    <t>04:40:04</t>
+  </si>
+  <si>
+    <t>23:11:25</t>
+  </si>
+  <si>
+    <t>00:49:31</t>
+  </si>
+  <si>
+    <t>02:27:15</t>
+  </si>
+  <si>
+    <t>04:04:15</t>
+  </si>
+  <si>
+    <t>22:35:18</t>
+  </si>
+  <si>
+    <t>2°</t>
+  </si>
+  <si>
+    <t>28°</t>
+  </si>
+  <si>
+    <t>9°</t>
   </si>
   <si>
     <t>0°</t>
   </si>
   <si>
+    <t>15°</t>
+  </si>
+  <si>
+    <t>18°</t>
+  </si>
+  <si>
+    <t>6°</t>
+  </si>
+  <si>
+    <t>25°</t>
+  </si>
+  <si>
     <t>8°</t>
   </si>
   <si>
-    <t>31°</t>
-  </si>
-  <si>
-    <t>2°</t>
-  </si>
-  <si>
-    <t>28°</t>
-  </si>
-  <si>
-    <t>9°</t>
-  </si>
-  <si>
-    <t>15°</t>
-  </si>
-  <si>
-    <t>18°</t>
-  </si>
-  <si>
-    <t>6°</t>
-  </si>
-  <si>
-    <t>25°</t>
-  </si>
-  <si>
     <t>12°</t>
   </si>
   <si>
     <t>1°</t>
   </si>
   <si>
-    <t>03:20:06</t>
-  </si>
-  <si>
-    <t>04:53:50</t>
+    <t>7°</t>
   </si>
   <si>
     <t>02:46:06</t>
@@ -655,34 +667,37 @@
     <t>05:53:34</t>
   </si>
   <si>
-    <t>03:45:45</t>
-  </si>
-  <si>
-    <t>05:19:29</t>
-  </si>
-  <si>
-    <t>03:11:37</t>
-  </si>
-  <si>
-    <t>04:45:20</t>
-  </si>
-  <si>
-    <t>04:11:09</t>
-  </si>
-  <si>
-    <t>05:44:52</t>
-  </si>
-  <si>
-    <t>03:36:56</t>
-  </si>
-  <si>
-    <t>05:10:39</t>
-  </si>
-  <si>
-    <t>03:02:41</t>
-  </si>
-  <si>
-    <t>04:36:24</t>
+    <t>03:45:46</t>
+  </si>
+  <si>
+    <t>05:19:30</t>
+  </si>
+  <si>
+    <t>03:11:39</t>
+  </si>
+  <si>
+    <t>04:45:23</t>
+  </si>
+  <si>
+    <t>04:11:13</t>
+  </si>
+  <si>
+    <t>05:44:57</t>
+  </si>
+  <si>
+    <t>03:37:03</t>
+  </si>
+  <si>
+    <t>05:10:46</t>
+  </si>
+  <si>
+    <t>03:02:51</t>
+  </si>
+  <si>
+    <t>04:36:34</t>
+  </si>
+  <si>
+    <t>04:02:22</t>
   </si>
   <si>
     <t>B</t>
@@ -694,13 +709,13 @@
     <t>A</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
 </sst>
 </file>
@@ -749,13 +764,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0B070"/>
+        <fgColor rgb="FFF0707F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF80A9D6"/>
+        <fgColor rgb="FF90B4DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,7 +788,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0707F"/>
+        <fgColor rgb="FF99BADE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6697CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2C0E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6AD26A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D7EC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,25 +824,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF90B4DB"/>
+        <fgColor rgb="FF6E9DD0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF77A3D3"/>
+        <fgColor rgb="FFF6F9FC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF88AED8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4D7EC"/>
+        <fgColor rgb="FFE6EEF7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,7 +848,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6697CD"/>
+        <fgColor rgb="FFDDE8F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4E2F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF3F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,43 +878,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6AD26A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6E9DD0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA2C0E1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8F4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6EEF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6F9FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF77A3D3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1356,7 +1371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1440,55 +1455,55 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>71</v>
+        <v>214</v>
       </c>
       <c r="L2" s="4">
-        <v>-49.7</v>
+        <v>-40.5</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="O2" s="6">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="P2" s="7">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R2" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1496,55 +1511,55 @@
         <v>18</v>
       </c>
       <c r="B3" s="2">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="L3" s="4">
-        <v>-35</v>
+        <v>-25.2</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O3" s="10">
-        <v>66</v>
-      </c>
-      <c r="P3" s="7">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="9">
+        <v>232</v>
+      </c>
+      <c r="O3" s="6">
+        <v>44</v>
+      </c>
+      <c r="P3" s="10">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>10</v>
+      </c>
+      <c r="R3" s="9">
         <v>1</v>
-      </c>
-      <c r="R3" s="9">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1552,55 +1567,55 @@
         <v>18</v>
       </c>
       <c r="B4" s="2">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="L4" s="4">
-        <v>-19.7</v>
+        <v>-10.4</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="O4" s="10">
-        <v>71</v>
-      </c>
-      <c r="P4" s="11">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>34</v>
-      </c>
-      <c r="R4" s="9">
-        <v>0</v>
+        <v>232</v>
+      </c>
+      <c r="O4" s="6">
+        <v>58</v>
+      </c>
+      <c r="P4" s="12">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>11</v>
+      </c>
+      <c r="R4" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1608,52 +1623,52 @@
         <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="L5" s="4">
-        <v>-40.5</v>
+        <v>-46</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O5" s="10">
-        <v>61</v>
-      </c>
-      <c r="P5" s="11">
-        <v>54</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>19</v>
+        <v>231</v>
+      </c>
+      <c r="O5" s="13">
+        <v>3</v>
+      </c>
+      <c r="P5" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0</v>
       </c>
       <c r="R5" s="9">
         <v>0</v>
@@ -1667,49 +1682,49 @@
         <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="L6" s="4">
-        <v>-25.2</v>
+        <v>-30.8</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="O6" s="10">
-        <v>55</v>
-      </c>
-      <c r="P6" s="12">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>23</v>
+        <v>232</v>
+      </c>
+      <c r="O6" s="13">
+        <v>5</v>
+      </c>
+      <c r="P6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>2</v>
       </c>
       <c r="R6" s="9">
         <v>0</v>
@@ -1720,52 +1735,52 @@
         <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="L7" s="4">
-        <v>-10.4</v>
+        <v>-15.6</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="O7" s="10">
-        <v>68</v>
-      </c>
-      <c r="P7" s="14">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>37</v>
+        <v>232</v>
+      </c>
+      <c r="O7" s="13">
+        <v>6</v>
+      </c>
+      <c r="P7" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
       </c>
       <c r="R7" s="9">
         <v>0</v>
@@ -1776,52 +1791,52 @@
         <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L8" s="4">
-        <v>-46</v>
+        <v>-50.9</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O8" s="10">
-        <v>55</v>
-      </c>
-      <c r="P8" s="11">
-        <v>55</v>
+        <v>231</v>
+      </c>
+      <c r="O8" s="6">
+        <v>65</v>
+      </c>
+      <c r="P8" s="14">
+        <v>63</v>
       </c>
       <c r="Q8" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="9">
         <v>0</v>
@@ -1835,49 +1850,49 @@
         <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="L9" s="4">
-        <v>-30.8</v>
+        <v>-36.4</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="O9" s="10">
-        <v>55</v>
-      </c>
-      <c r="P9" s="11">
-        <v>55</v>
+        <v>231</v>
+      </c>
+      <c r="O9" s="6">
+        <v>50</v>
+      </c>
+      <c r="P9" s="12">
+        <v>47</v>
       </c>
       <c r="Q9" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="9">
         <v>0</v>
@@ -1888,52 +1903,52 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L10" s="4">
-        <v>-15.6</v>
+        <v>-21.1</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="O10" s="6">
+        <v>39</v>
+      </c>
+      <c r="P10" s="7">
         <v>37</v>
       </c>
-      <c r="P10" s="12">
-        <v>37</v>
-      </c>
       <c r="Q10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="9">
         <v>0</v>
@@ -1944,55 +1959,55 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L11" s="4">
-        <v>-50.9</v>
+        <v>-55.2</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O11" s="10">
-        <v>84</v>
+        <v>231</v>
+      </c>
+      <c r="O11" s="6">
+        <v>73</v>
       </c>
       <c r="P11" s="15">
-        <v>64</v>
-      </c>
-      <c r="Q11" s="16">
-        <v>60</v>
-      </c>
-      <c r="R11" s="17">
-        <v>10</v>
+        <v>54</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>40</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2006,46 +2021,46 @@
         <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="L12" s="4">
-        <v>-36.4</v>
+        <v>-42</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O12" s="10">
-        <v>90</v>
-      </c>
-      <c r="P12" s="18">
-        <v>51</v>
+        <v>231</v>
+      </c>
+      <c r="O12" s="6">
+        <v>75</v>
+      </c>
+      <c r="P12" s="14">
+        <v>64</v>
       </c>
       <c r="Q12" s="16">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="R12" s="9">
         <v>0</v>
@@ -2056,52 +2071,52 @@
         <v>21</v>
       </c>
       <c r="B13" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L13" s="4">
-        <v>-21.1</v>
+        <v>-26.6</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="O13" s="10">
-        <v>90</v>
-      </c>
-      <c r="P13" s="18">
-        <v>50</v>
-      </c>
-      <c r="Q13" s="16">
-        <v>60</v>
+        <v>232</v>
+      </c>
+      <c r="O13" s="6">
+        <v>93</v>
+      </c>
+      <c r="P13" s="17">
+        <v>93</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>47</v>
       </c>
       <c r="R13" s="9">
         <v>0</v>
@@ -2109,55 +2124,55 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>83</v>
+        <v>222</v>
       </c>
       <c r="L14" s="4">
-        <v>-55.3</v>
+        <v>-11.7</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O14" s="19">
-        <v>1</v>
-      </c>
-      <c r="P14" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>0</v>
+        <v>233</v>
+      </c>
+      <c r="O14" s="6">
+        <v>87</v>
+      </c>
+      <c r="P14" s="18">
+        <v>87</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>60</v>
       </c>
       <c r="R14" s="9">
         <v>0</v>
@@ -2168,55 +2183,55 @@
         <v>22</v>
       </c>
       <c r="B15" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L15" s="4">
-        <v>-42</v>
+        <v>-58.6</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O15" s="19">
-        <v>1</v>
-      </c>
-      <c r="P15" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="9">
-        <v>0</v>
-      </c>
-      <c r="R15" s="9">
-        <v>0</v>
+        <v>231</v>
+      </c>
+      <c r="O15" s="6">
+        <v>99</v>
+      </c>
+      <c r="P15" s="20">
+        <v>82</v>
+      </c>
+      <c r="Q15" s="20">
+        <v>82</v>
+      </c>
+      <c r="R15" s="21">
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2224,55 +2239,55 @@
         <v>22</v>
       </c>
       <c r="B16" s="2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>217</v>
+        <v>86</v>
       </c>
       <c r="L16" s="4">
-        <v>-26.7</v>
+        <v>-47.2</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="O16" s="19">
-        <v>3</v>
-      </c>
-      <c r="P16" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>0</v>
-      </c>
-      <c r="R16" s="9">
-        <v>0</v>
+        <v>231</v>
+      </c>
+      <c r="O16" s="6">
+        <v>99</v>
+      </c>
+      <c r="P16" s="18">
+        <v>86</v>
+      </c>
+      <c r="Q16" s="20">
+        <v>82</v>
+      </c>
+      <c r="R16" s="18">
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2280,167 +2295,167 @@
         <v>22</v>
       </c>
       <c r="B17" s="2">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L17" s="4">
-        <v>-11.7</v>
+        <v>-32.2</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="O17" s="19">
-        <v>5</v>
-      </c>
-      <c r="P17" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>0</v>
-      </c>
-      <c r="R17" s="9">
-        <v>0</v>
+        <v>231</v>
+      </c>
+      <c r="O17" s="6">
+        <v>100</v>
+      </c>
+      <c r="P17" s="22">
+        <v>90</v>
+      </c>
+      <c r="Q17" s="23">
+        <v>100</v>
+      </c>
+      <c r="R17" s="23">
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>87</v>
+        <v>224</v>
       </c>
       <c r="L18" s="4">
-        <v>-58.7</v>
+        <v>-17</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O18" s="10">
-        <v>52</v>
-      </c>
-      <c r="P18" s="13">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="20">
-        <v>13</v>
-      </c>
-      <c r="R18" s="13">
-        <v>22</v>
+        <v>233</v>
+      </c>
+      <c r="O18" s="6">
+        <v>100</v>
+      </c>
+      <c r="P18" s="17">
+        <v>97</v>
+      </c>
+      <c r="Q18" s="23">
+        <v>100</v>
+      </c>
+      <c r="R18" s="22">
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="4">
+        <v>-60.7</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O19" s="6">
+        <v>100</v>
+      </c>
+      <c r="P19" s="22">
+        <v>91</v>
+      </c>
+      <c r="Q19" s="23">
+        <v>100</v>
+      </c>
+      <c r="R19" s="22">
         <v>88</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L19" s="4">
-        <v>-47.2</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O19" s="10">
-        <v>61</v>
-      </c>
-      <c r="P19" s="13">
-        <v>22</v>
-      </c>
-      <c r="Q19" s="14">
-        <v>28</v>
-      </c>
-      <c r="R19" s="7">
-        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2448,55 +2463,55 @@
         <v>23</v>
       </c>
       <c r="B20" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>219</v>
+        <v>90</v>
       </c>
       <c r="L20" s="4">
-        <v>-32.2</v>
+        <v>-52</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O20" s="10">
-        <v>82</v>
-      </c>
-      <c r="P20" s="14">
-        <v>29</v>
-      </c>
-      <c r="Q20" s="18">
-        <v>52</v>
-      </c>
-      <c r="R20" s="14">
-        <v>31</v>
+        <v>231</v>
+      </c>
+      <c r="O20" s="6">
+        <v>100</v>
+      </c>
+      <c r="P20" s="17">
+        <v>97</v>
+      </c>
+      <c r="Q20" s="23">
+        <v>100</v>
+      </c>
+      <c r="R20" s="20">
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2504,55 +2519,55 @@
         <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L21" s="4">
-        <v>-17</v>
+        <v>-37.8</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="O21" s="10">
-        <v>95</v>
-      </c>
-      <c r="P21" s="21">
-        <v>45</v>
-      </c>
-      <c r="Q21" s="22">
-        <v>82</v>
-      </c>
-      <c r="R21" s="15">
-        <v>67</v>
+        <v>231</v>
+      </c>
+      <c r="O21" s="6">
+        <v>100</v>
+      </c>
+      <c r="P21" s="17">
+        <v>96</v>
+      </c>
+      <c r="Q21" s="23">
+        <v>100</v>
+      </c>
+      <c r="R21" s="14">
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2560,111 +2575,111 @@
         <v>23</v>
       </c>
       <c r="B22" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>91</v>
+        <v>226</v>
       </c>
       <c r="L22" s="4">
-        <v>-60.7</v>
+        <v>-22.5</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O22" s="10">
+        <v>233</v>
+      </c>
+      <c r="O22" s="6">
+        <v>100</v>
+      </c>
+      <c r="P22" s="17">
+        <v>94</v>
+      </c>
+      <c r="Q22" s="23">
         <v>99</v>
       </c>
-      <c r="P22" s="23">
-        <v>84</v>
-      </c>
-      <c r="Q22" s="24">
-        <v>94</v>
-      </c>
-      <c r="R22" s="17">
-        <v>10</v>
+      <c r="R22" s="7">
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L23" s="4">
-        <v>-52</v>
+        <v>-61.2</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O23" s="10">
-        <v>100</v>
+        <v>233</v>
+      </c>
+      <c r="O23" s="6">
+        <v>95</v>
       </c>
       <c r="P23" s="22">
-        <v>81</v>
-      </c>
-      <c r="Q23" s="25">
-        <v>98</v>
-      </c>
-      <c r="R23" s="20">
-        <v>15</v>
+        <v>88</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>39</v>
+      </c>
+      <c r="R23" s="11">
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2672,55 +2687,55 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>221</v>
+        <v>94</v>
       </c>
       <c r="L24" s="4">
-        <v>-37.8</v>
+        <v>-56.1</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O24" s="10">
-        <v>100</v>
-      </c>
-      <c r="P24" s="22">
-        <v>82</v>
+        <v>231</v>
+      </c>
+      <c r="O24" s="6">
+        <v>95</v>
+      </c>
+      <c r="P24" s="18">
+        <v>86</v>
       </c>
       <c r="Q24" s="24">
-        <v>97</v>
-      </c>
-      <c r="R24" s="13">
-        <v>20</v>
+        <v>50</v>
+      </c>
+      <c r="R24" s="16">
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2728,54 +2743,54 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L25" s="4">
+        <v>-43.3</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O25" s="6">
+        <v>97</v>
+      </c>
+      <c r="P25" s="17">
         <v>94</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="L25" s="4">
-        <v>-22.5</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="O25" s="10">
-        <v>100</v>
-      </c>
-      <c r="P25" s="23">
-        <v>84</v>
-      </c>
-      <c r="Q25" s="24">
-        <v>93</v>
-      </c>
-      <c r="R25" s="13">
+      <c r="Q25" s="15">
+        <v>54</v>
+      </c>
+      <c r="R25" s="25">
         <v>20</v>
       </c>
     </row>
@@ -2784,7 +2799,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>47</v>
@@ -2793,50 +2808,106 @@
         <v>70</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="L26" s="4">
-        <v>-61.2</v>
+        <v>-28.1</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="O26" s="10">
-        <v>91</v>
-      </c>
-      <c r="P26" s="16">
-        <v>58</v>
+        <v>231</v>
+      </c>
+      <c r="O26" s="6">
+        <v>99</v>
+      </c>
+      <c r="P26" s="17">
+        <v>97</v>
       </c>
       <c r="Q26" s="15">
-        <v>67</v>
-      </c>
-      <c r="R26" s="9">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="R26" s="25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2">
+        <v>13</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L27" s="4">
+        <v>-59.9</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O27" s="6">
+        <v>96</v>
+      </c>
+      <c r="P27" s="22">
+        <v>89</v>
+      </c>
+      <c r="Q27" s="19">
+        <v>62</v>
+      </c>
+      <c r="R27" s="20">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L26">
+  <conditionalFormatting sqref="L2:L27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -2852,7 +2923,7 @@
       <formula>-6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N26">
+  <conditionalFormatting sqref="N2:N27">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="244">
   <si>
     <t>Datum</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>05.01.2026</t>
-  </si>
-  <si>
     <t>06.01.2026</t>
   </si>
   <si>
@@ -91,18 +88,15 @@
     <t>11.01.2026</t>
   </si>
   <si>
-    <t>05:59</t>
-  </si>
-  <si>
-    <t>06:36</t>
-  </si>
-  <si>
-    <t>05:39</t>
+    <t>12.01.2026</t>
   </si>
   <si>
     <t>05:48</t>
   </si>
   <si>
+    <t>06:37</t>
+  </si>
+  <si>
     <t>05:52</t>
   </si>
   <si>
@@ -148,12 +142,15 @@
     <t>06:22</t>
   </si>
   <si>
-    <t>03:47</t>
+    <t>03:48</t>
   </si>
   <si>
     <t>03:58</t>
   </si>
   <si>
+    <t>06:23</t>
+  </si>
+  <si>
     <t>06:26</t>
   </si>
   <si>
@@ -163,18 +160,24 @@
     <t>03:14</t>
   </si>
   <si>
-    <t>10:47</t>
+    <t>06:18</t>
+  </si>
+  <si>
+    <t>06:29</t>
+  </si>
+  <si>
+    <t>04:49</t>
+  </si>
+  <si>
+    <t>02:08</t>
+  </si>
+  <si>
+    <t>10:41</t>
   </si>
   <si>
     <t>11:09</t>
   </si>
   <si>
-    <t>10:37</t>
-  </si>
-  <si>
-    <t>10:41</t>
-  </si>
-  <si>
     <t>10:43</t>
   </si>
   <si>
@@ -193,54 +196,57 @@
     <t>11:07</t>
   </si>
   <si>
+    <t>10:53</t>
+  </si>
+  <si>
+    <t>09:09</t>
+  </si>
+  <si>
+    <t>10:14</t>
+  </si>
+  <si>
+    <t>11:06</t>
+  </si>
+  <si>
+    <t>10:56</t>
+  </si>
+  <si>
+    <t>09:27</t>
+  </si>
+  <si>
+    <t>10:02</t>
+  </si>
+  <si>
+    <t>11:03</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>09:44</t>
+  </si>
+  <si>
+    <t>09:47</t>
+  </si>
+  <si>
+    <t>11:02</t>
+  </si>
+  <si>
+    <t>09:58</t>
+  </si>
+  <si>
+    <t>09:31</t>
+  </si>
+  <si>
+    <t>10:10</t>
+  </si>
+  <si>
+    <t>09:13</t>
+  </si>
+  <si>
     <t>10:52</t>
   </si>
   <si>
-    <t>09:09</t>
-  </si>
-  <si>
-    <t>10:14</t>
-  </si>
-  <si>
-    <t>11:05</t>
-  </si>
-  <si>
-    <t>10:56</t>
-  </si>
-  <si>
-    <t>09:27</t>
-  </si>
-  <si>
-    <t>10:02</t>
-  </si>
-  <si>
-    <t>11:02</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>09:44</t>
-  </si>
-  <si>
-    <t>09:48</t>
-  </si>
-  <si>
-    <t>09:58</t>
-  </si>
-  <si>
-    <t>09:32</t>
-  </si>
-  <si>
-    <t>02:35:45</t>
-  </si>
-  <si>
-    <t>04:13:17</t>
-  </si>
-  <si>
-    <t>05:51:13</t>
-  </si>
-  <si>
     <t>02:00:11</t>
   </si>
   <si>
@@ -286,7 +292,7 @@
     <t>23:37:25</t>
   </si>
   <si>
-    <t>01:14:28</t>
+    <t>01:14:27</t>
   </si>
   <si>
     <t>02:52:12</t>
@@ -310,13 +316,19 @@
     <t>22:25:46</t>
   </si>
   <si>
-    <t>02:38:09</t>
-  </si>
-  <si>
-    <t>04:15:33</t>
-  </si>
-  <si>
-    <t>05:53:42</t>
+    <t>00:02:31</t>
+  </si>
+  <si>
+    <t>01:40:10</t>
+  </si>
+  <si>
+    <t>03:18:10</t>
+  </si>
+  <si>
+    <t>21:49:53</t>
+  </si>
+  <si>
+    <t>23:26:28</t>
   </si>
   <si>
     <t>02:02:37</t>
@@ -370,13 +382,13 @@
     <t>02:54:31</t>
   </si>
   <si>
-    <t>04:33:19</t>
+    <t>04:33:18</t>
   </si>
   <si>
     <t>23:04:31</t>
   </si>
   <si>
-    <t>00:40:50</t>
+    <t>00:40:49</t>
   </si>
   <si>
     <t>02:18:31</t>
@@ -385,16 +397,22 @@
     <t>03:57:05</t>
   </si>
   <si>
-    <t>22:28:55</t>
-  </si>
-  <si>
-    <t>02:41:08</t>
-  </si>
-  <si>
-    <t>04:18:51</t>
-  </si>
-  <si>
-    <t>05:56:32</t>
+    <t>22:28:54</t>
+  </si>
+  <si>
+    <t>00:04:50</t>
+  </si>
+  <si>
+    <t>01:42:27</t>
+  </si>
+  <si>
+    <t>03:20:51</t>
+  </si>
+  <si>
+    <t>21:53:25</t>
+  </si>
+  <si>
+    <t>23:28:49</t>
   </si>
   <si>
     <t>02:05:31</t>
@@ -409,7 +427,7 @@
     <t>01:29:50</t>
   </si>
   <si>
-    <t>03:07:29</t>
+    <t>03:07:30</t>
   </si>
   <si>
     <t>04:45:12</t>
@@ -463,22 +481,28 @@
     <t>03:59:16</t>
   </si>
   <si>
-    <t>22:30:32</t>
-  </si>
-  <si>
-    <t>02:44:08</t>
-  </si>
-  <si>
-    <t>04:22:09</t>
-  </si>
-  <si>
-    <t>05:59:21</t>
+    <t>22:30:31</t>
+  </si>
+  <si>
+    <t>00:07:59</t>
+  </si>
+  <si>
+    <t>01:45:42</t>
+  </si>
+  <si>
+    <t>03:23:16</t>
+  </si>
+  <si>
+    <t>21:54:29</t>
+  </si>
+  <si>
+    <t>23:31:53</t>
   </si>
   <si>
     <t>02:08:25</t>
   </si>
   <si>
-    <t>03:46:30</t>
+    <t>03:46:31</t>
   </si>
   <si>
     <t>05:23:50</t>
@@ -541,16 +565,22 @@
     <t>04:01:27</t>
   </si>
   <si>
-    <t>22:32:09</t>
-  </si>
-  <si>
-    <t>02:46:32</t>
-  </si>
-  <si>
-    <t>04:24:26</t>
-  </si>
-  <si>
-    <t>06:01:50</t>
+    <t>22:32:08</t>
+  </si>
+  <si>
+    <t>00:11:08</t>
+  </si>
+  <si>
+    <t>01:48:56</t>
+  </si>
+  <si>
+    <t>03:25:40</t>
+  </si>
+  <si>
+    <t>21:55:33</t>
+  </si>
+  <si>
+    <t>23:34:59</t>
   </si>
   <si>
     <t>02:10:52</t>
@@ -577,7 +607,7 @@
     <t>02:37:17</t>
   </si>
   <si>
-    <t>04:14:52</t>
+    <t>04:14:53</t>
   </si>
   <si>
     <t>05:51:26</t>
@@ -586,7 +616,7 @@
     <t>00:23:25</t>
   </si>
   <si>
-    <t>02:01:25</t>
+    <t>02:01:26</t>
   </si>
   <si>
     <t>03:39:04</t>
@@ -607,7 +637,7 @@
     <t>04:40:04</t>
   </si>
   <si>
-    <t>23:11:25</t>
+    <t>23:11:24</t>
   </si>
   <si>
     <t>00:49:31</t>
@@ -619,16 +649,22 @@
     <t>04:04:15</t>
   </si>
   <si>
-    <t>22:35:18</t>
-  </si>
-  <si>
-    <t>2°</t>
-  </si>
-  <si>
-    <t>28°</t>
-  </si>
-  <si>
-    <t>9°</t>
+    <t>22:35:17</t>
+  </si>
+  <si>
+    <t>00:13:27</t>
+  </si>
+  <si>
+    <t>01:51:13</t>
+  </si>
+  <si>
+    <t>03:28:20</t>
+  </si>
+  <si>
+    <t>21:59:06</t>
+  </si>
+  <si>
+    <t>23:37:20</t>
   </si>
   <si>
     <t>0°</t>
@@ -658,15 +694,6 @@
     <t>7°</t>
   </si>
   <si>
-    <t>02:46:06</t>
-  </si>
-  <si>
-    <t>04:19:50</t>
-  </si>
-  <si>
-    <t>05:53:34</t>
-  </si>
-  <si>
     <t>03:45:46</t>
   </si>
   <si>
@@ -685,19 +712,22 @@
     <t>05:44:57</t>
   </si>
   <si>
-    <t>03:37:03</t>
+    <t>03:37:02</t>
   </si>
   <si>
     <t>05:10:46</t>
   </si>
   <si>
-    <t>03:02:51</t>
+    <t>03:02:50</t>
   </si>
   <si>
     <t>04:36:34</t>
   </si>
   <si>
-    <t>04:02:22</t>
+    <t>04:02:21</t>
+  </si>
+  <si>
+    <t>03:28:09</t>
   </si>
   <si>
     <t>B</t>
@@ -764,13 +794,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0707F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF90B4DB"/>
+        <fgColor rgb="FF6AD26A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,7 +812,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99BADE"/>
+        <fgColor rgb="FFF0707F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,13 +824,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF6E9DD0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88AED8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA2C0E1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6AD26A"/>
+        <fgColor rgb="FFDDE8F4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,13 +854,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB2CBE6"/>
+        <fgColor rgb="FFE6EEF7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6E9DD0"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4E2F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,49 +878,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6EEF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBD1E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8F4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4E2F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFEEF3F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFB2CBE6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAAC5E3"/>
+        <fgColor rgb="FF99BADE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90B4DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF77A3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80A9D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1371,7 +1401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1455,55 +1485,55 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="L2" s="4">
-        <v>-40.5</v>
+        <v>-46</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="O2" s="6">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="P2" s="7">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="8">
-        <v>3</v>
-      </c>
-      <c r="R2" s="9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R2" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1517,49 +1547,49 @@
         <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="L3" s="4">
-        <v>-25.2</v>
+        <v>-30.8</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="O3" s="6">
-        <v>44</v>
-      </c>
-      <c r="P3" s="10">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>10</v>
-      </c>
-      <c r="R3" s="9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>0</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1567,55 +1597,55 @@
         <v>18</v>
       </c>
       <c r="B4" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="L4" s="4">
-        <v>-10.4</v>
+        <v>-15.6</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="O4" s="6">
-        <v>58</v>
-      </c>
-      <c r="P4" s="12">
-        <v>44</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="P4" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>0</v>
       </c>
       <c r="R4" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1623,54 +1653,54 @@
         <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L5" s="4">
-        <v>-46</v>
+        <v>-50.9</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O5" s="13">
-        <v>3</v>
-      </c>
-      <c r="P5" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="9">
+        <v>241</v>
+      </c>
+      <c r="O5" s="9">
+        <v>40</v>
+      </c>
+      <c r="P5" s="10">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="8">
         <v>0</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1682,51 +1712,51 @@
         <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="L6" s="4">
-        <v>-30.8</v>
+        <v>-36.4</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="O6" s="13">
-        <v>5</v>
-      </c>
-      <c r="P6" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>2</v>
-      </c>
-      <c r="R6" s="9">
+        <v>241</v>
+      </c>
+      <c r="O6" s="9">
+        <v>32</v>
+      </c>
+      <c r="P6" s="11">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1735,54 +1765,54 @@
         <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="L7" s="4">
-        <v>-15.6</v>
+        <v>-21.1</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="O7" s="13">
-        <v>6</v>
-      </c>
-      <c r="P7" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="9">
+        <v>242</v>
+      </c>
+      <c r="O7" s="9">
+        <v>33</v>
+      </c>
+      <c r="P7" s="10">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="8">
         <v>0</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1791,54 +1821,54 @@
         <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L8" s="4">
-        <v>-50.9</v>
+        <v>-55.2</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O8" s="6">
-        <v>65</v>
-      </c>
-      <c r="P8" s="14">
-        <v>63</v>
-      </c>
-      <c r="Q8" s="9">
+        <v>241</v>
+      </c>
+      <c r="O8" s="9">
+        <v>32</v>
+      </c>
+      <c r="P8" s="10">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="8">
         <v>0</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1850,51 +1880,51 @@
         <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>219</v>
+        <v>84</v>
       </c>
       <c r="L9" s="4">
-        <v>-36.4</v>
+        <v>-42</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O9" s="6">
-        <v>50</v>
-      </c>
-      <c r="P9" s="12">
-        <v>47</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>0</v>
-      </c>
-      <c r="R9" s="9">
+        <v>241</v>
+      </c>
+      <c r="O9" s="9">
+        <v>33</v>
+      </c>
+      <c r="P9" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>28</v>
+      </c>
+      <c r="R9" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1903,111 +1933,111 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="L10" s="4">
-        <v>-21.1</v>
+        <v>-26.6</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="O10" s="6">
-        <v>39</v>
-      </c>
-      <c r="P10" s="7">
-        <v>37</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>0</v>
-      </c>
-      <c r="R10" s="9">
+        <v>242</v>
+      </c>
+      <c r="O10" s="9">
+        <v>54</v>
+      </c>
+      <c r="P10" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>43</v>
+      </c>
+      <c r="R10" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="L11" s="4">
-        <v>-55.2</v>
+        <v>-11.7</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O11" s="6">
-        <v>73</v>
-      </c>
-      <c r="P11" s="15">
-        <v>54</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>40</v>
-      </c>
-      <c r="R11" s="9">
-        <v>0</v>
+        <v>243</v>
+      </c>
+      <c r="O11" s="9">
+        <v>90</v>
+      </c>
+      <c r="P11" s="14">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>82</v>
+      </c>
+      <c r="R11" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2015,55 +2045,55 @@
         <v>21</v>
       </c>
       <c r="B12" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L12" s="4">
-        <v>-42</v>
+        <v>-58.6</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O12" s="6">
-        <v>75</v>
-      </c>
-      <c r="P12" s="14">
-        <v>64</v>
+        <v>241</v>
+      </c>
+      <c r="O12" s="9">
+        <v>100</v>
+      </c>
+      <c r="P12" s="15">
+        <v>67</v>
       </c>
       <c r="Q12" s="16">
-        <v>15</v>
-      </c>
-      <c r="R12" s="9">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="R12" s="17">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2071,55 +2101,55 @@
         <v>21</v>
       </c>
       <c r="B13" s="2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>221</v>
+        <v>88</v>
       </c>
       <c r="L13" s="4">
-        <v>-26.6</v>
+        <v>-47.2</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="O13" s="6">
-        <v>93</v>
-      </c>
-      <c r="P13" s="17">
-        <v>93</v>
-      </c>
-      <c r="Q13" s="12">
-        <v>47</v>
-      </c>
-      <c r="R13" s="9">
-        <v>0</v>
+        <v>241</v>
+      </c>
+      <c r="O13" s="9">
+        <v>100</v>
+      </c>
+      <c r="P13" s="18">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>99</v>
+      </c>
+      <c r="R13" s="17">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2127,167 +2157,167 @@
         <v>21</v>
       </c>
       <c r="B14" s="2">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="L14" s="4">
+        <v>-32.2</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="O14" s="9">
+        <v>100</v>
+      </c>
+      <c r="P14" s="16">
         <v>84</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="L14" s="4">
-        <v>-11.7</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="O14" s="6">
-        <v>87</v>
-      </c>
-      <c r="P14" s="18">
-        <v>87</v>
-      </c>
-      <c r="Q14" s="19">
-        <v>60</v>
-      </c>
-      <c r="R14" s="9">
-        <v>0</v>
+      <c r="Q14" s="17">
+        <v>100</v>
+      </c>
+      <c r="R14" s="17">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>85</v>
+        <v>233</v>
       </c>
       <c r="L15" s="4">
-        <v>-58.6</v>
+        <v>-17</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O15" s="6">
+        <v>243</v>
+      </c>
+      <c r="O15" s="9">
+        <v>100</v>
+      </c>
+      <c r="P15" s="17">
         <v>99</v>
       </c>
-      <c r="P15" s="20">
-        <v>82</v>
-      </c>
-      <c r="Q15" s="20">
-        <v>82</v>
-      </c>
-      <c r="R15" s="21">
-        <v>76</v>
+      <c r="Q15" s="17">
+        <v>100</v>
+      </c>
+      <c r="R15" s="17">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L16" s="4">
-        <v>-47.2</v>
+        <v>-60.7</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O16" s="6">
-        <v>99</v>
-      </c>
-      <c r="P16" s="18">
-        <v>86</v>
-      </c>
-      <c r="Q16" s="20">
-        <v>82</v>
-      </c>
-      <c r="R16" s="18">
-        <v>84</v>
+        <v>241</v>
+      </c>
+      <c r="O16" s="9">
+        <v>97</v>
+      </c>
+      <c r="P16" s="19">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>79</v>
+      </c>
+      <c r="R16" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2295,55 +2325,55 @@
         <v>22</v>
       </c>
       <c r="B17" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>223</v>
+        <v>92</v>
       </c>
       <c r="L17" s="4">
-        <v>-32.2</v>
+        <v>-52</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O17" s="6">
-        <v>100</v>
-      </c>
-      <c r="P17" s="22">
-        <v>90</v>
-      </c>
-      <c r="Q17" s="23">
-        <v>100</v>
-      </c>
-      <c r="R17" s="23">
-        <v>100</v>
+        <v>241</v>
+      </c>
+      <c r="O17" s="9">
+        <v>99</v>
+      </c>
+      <c r="P17" s="19">
+        <v>94</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>95</v>
+      </c>
+      <c r="R17" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2351,55 +2381,55 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="L18" s="4">
-        <v>-17</v>
+        <v>-37.8</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="O18" s="6">
-        <v>100</v>
-      </c>
-      <c r="P18" s="17">
+        <v>241</v>
+      </c>
+      <c r="O18" s="9">
+        <v>99</v>
+      </c>
+      <c r="P18" s="20">
+        <v>89</v>
+      </c>
+      <c r="Q18" s="19">
         <v>97</v>
       </c>
-      <c r="Q18" s="23">
-        <v>100</v>
-      </c>
-      <c r="R18" s="22">
-        <v>90</v>
+      <c r="R18" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2407,111 +2437,111 @@
         <v>22</v>
       </c>
       <c r="B19" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>89</v>
+        <v>235</v>
       </c>
       <c r="L19" s="4">
-        <v>-60.7</v>
+        <v>-22.5</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O19" s="6">
+        <v>243</v>
+      </c>
+      <c r="O19" s="9">
         <v>100</v>
       </c>
-      <c r="P19" s="22">
-        <v>91</v>
-      </c>
-      <c r="Q19" s="23">
-        <v>100</v>
-      </c>
-      <c r="R19" s="22">
-        <v>88</v>
+      <c r="P19" s="16">
+        <v>87</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>97</v>
+      </c>
+      <c r="R19" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L20" s="4">
-        <v>-52</v>
+        <v>-61.2</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O20" s="6">
-        <v>100</v>
-      </c>
-      <c r="P20" s="17">
-        <v>97</v>
-      </c>
-      <c r="Q20" s="23">
-        <v>100</v>
-      </c>
-      <c r="R20" s="20">
-        <v>79</v>
+        <v>243</v>
+      </c>
+      <c r="O20" s="9">
+        <v>99</v>
+      </c>
+      <c r="P20" s="19">
+        <v>93</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>99</v>
+      </c>
+      <c r="R20" s="21">
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2519,54 +2549,54 @@
         <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>225</v>
+        <v>96</v>
       </c>
       <c r="L21" s="4">
-        <v>-37.8</v>
+        <v>-56.1</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O21" s="6">
+        <v>241</v>
+      </c>
+      <c r="O21" s="9">
         <v>100</v>
       </c>
-      <c r="P21" s="17">
-        <v>96</v>
-      </c>
-      <c r="Q21" s="23">
-        <v>100</v>
-      </c>
-      <c r="R21" s="14">
+      <c r="P21" s="19">
+        <v>95</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>99</v>
+      </c>
+      <c r="R21" s="15">
         <v>64</v>
       </c>
     </row>
@@ -2575,55 +2605,55 @@
         <v>23</v>
       </c>
       <c r="B22" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>226</v>
+        <v>97</v>
       </c>
       <c r="L22" s="4">
-        <v>-22.5</v>
+        <v>-43.3</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="O22" s="6">
+        <v>241</v>
+      </c>
+      <c r="O22" s="9">
         <v>100</v>
       </c>
-      <c r="P22" s="17">
-        <v>94</v>
-      </c>
-      <c r="Q22" s="23">
-        <v>99</v>
-      </c>
-      <c r="R22" s="7">
-        <v>36</v>
+      <c r="P22" s="19">
+        <v>97</v>
+      </c>
+      <c r="Q22" s="17">
+        <v>98</v>
+      </c>
+      <c r="R22" s="22">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2631,111 +2661,111 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>93</v>
+        <v>236</v>
       </c>
       <c r="L23" s="4">
-        <v>-61.2</v>
+        <v>-28.1</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="O23" s="6">
-        <v>95</v>
-      </c>
-      <c r="P23" s="22">
-        <v>88</v>
-      </c>
-      <c r="Q23" s="10">
-        <v>39</v>
-      </c>
-      <c r="R23" s="11">
-        <v>9</v>
+        <v>241</v>
+      </c>
+      <c r="O23" s="9">
+        <v>100</v>
+      </c>
+      <c r="P23" s="17">
+        <v>98</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>98</v>
+      </c>
+      <c r="R23" s="23">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L24" s="4">
-        <v>-56.1</v>
+        <v>-59.9</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O24" s="6">
+        <v>243</v>
+      </c>
+      <c r="O24" s="9">
+        <v>99</v>
+      </c>
+      <c r="P24" s="14">
+        <v>82</v>
+      </c>
+      <c r="Q24" s="19">
         <v>95</v>
       </c>
-      <c r="P24" s="18">
-        <v>86</v>
-      </c>
-      <c r="Q24" s="24">
-        <v>50</v>
-      </c>
-      <c r="R24" s="16">
-        <v>15</v>
+      <c r="R24" s="17">
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2743,55 +2773,55 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L25" s="4">
-        <v>-43.3</v>
+        <v>-59.1</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O25" s="6">
-        <v>97</v>
-      </c>
-      <c r="P25" s="17">
-        <v>94</v>
-      </c>
-      <c r="Q25" s="15">
-        <v>54</v>
-      </c>
-      <c r="R25" s="25">
-        <v>20</v>
+        <v>241</v>
+      </c>
+      <c r="O25" s="9">
+        <v>100</v>
+      </c>
+      <c r="P25" s="16">
+        <v>84</v>
+      </c>
+      <c r="Q25" s="17">
+        <v>100</v>
+      </c>
+      <c r="R25" s="17">
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2799,55 +2829,55 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>227</v>
+        <v>101</v>
       </c>
       <c r="L26" s="4">
-        <v>-28.1</v>
+        <v>-48.5</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O26" s="6">
-        <v>99</v>
-      </c>
-      <c r="P26" s="17">
-        <v>97</v>
-      </c>
-      <c r="Q26" s="15">
-        <v>54</v>
-      </c>
-      <c r="R26" s="25">
-        <v>20</v>
+        <v>241</v>
+      </c>
+      <c r="O26" s="9">
+        <v>100</v>
+      </c>
+      <c r="P26" s="16">
+        <v>83</v>
+      </c>
+      <c r="Q26" s="17">
+        <v>100</v>
+      </c>
+      <c r="R26" s="17">
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2855,59 +2885,171 @@
         <v>24</v>
       </c>
       <c r="B27" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="L27" s="4">
+        <v>-33.7</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="O27" s="9">
+        <v>100</v>
+      </c>
+      <c r="P27" s="16">
+        <v>85</v>
+      </c>
+      <c r="Q27" s="17">
+        <v>100</v>
+      </c>
+      <c r="R27" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2">
+        <v>11</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L28" s="4">
+        <v>-57.1</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="O28" s="9">
         <v>97</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L27" s="4">
-        <v>-59.9</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="O27" s="6">
-        <v>96</v>
-      </c>
-      <c r="P27" s="22">
-        <v>89</v>
-      </c>
-      <c r="Q27" s="19">
-        <v>62</v>
-      </c>
-      <c r="R27" s="20">
-        <v>82</v>
+      <c r="P28" s="19">
+        <v>95</v>
+      </c>
+      <c r="Q28" s="24">
+        <v>18</v>
+      </c>
+      <c r="R28" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="2">
+        <v>27</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L29" s="4">
+        <v>-60.6</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="O29" s="9">
+        <v>73</v>
+      </c>
+      <c r="P29" s="18">
+        <v>73</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>6</v>
+      </c>
+      <c r="R29" s="25">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L27">
+  <conditionalFormatting sqref="L2:L29">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -2923,7 +3065,7 @@
       <formula>-6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N27">
+  <conditionalFormatting sqref="N2:N29">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="241">
   <si>
     <t>Datum</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>06.01.2026</t>
-  </si>
-  <si>
     <t>07.01.2026</t>
   </si>
   <si>
@@ -91,16 +88,10 @@
     <t>12.01.2026</t>
   </si>
   <si>
-    <t>05:48</t>
-  </si>
-  <si>
-    <t>06:37</t>
-  </si>
-  <si>
-    <t>05:52</t>
-  </si>
-  <si>
-    <t>05:34</t>
+    <t>13.01.2026</t>
+  </si>
+  <si>
+    <t>05:35</t>
   </si>
   <si>
     <t>06:35</t>
@@ -109,7 +100,7 @@
     <t>06:02</t>
   </si>
   <si>
-    <t>05:17</t>
+    <t>05:18</t>
   </si>
   <si>
     <t>06:34</t>
@@ -118,7 +109,7 @@
     <t>06:10</t>
   </si>
   <si>
-    <t>01:45</t>
+    <t>01:47</t>
   </si>
   <si>
     <t>04:57</t>
@@ -127,28 +118,28 @@
     <t>06:31</t>
   </si>
   <si>
-    <t>06:16</t>
-  </si>
-  <si>
-    <t>03:00</t>
-  </si>
-  <si>
-    <t>04:31</t>
-  </si>
-  <si>
-    <t>06:27</t>
+    <t>06:17</t>
+  </si>
+  <si>
+    <t>03:01</t>
+  </si>
+  <si>
+    <t>04:32</t>
+  </si>
+  <si>
+    <t>06:28</t>
   </si>
   <si>
     <t>06:22</t>
   </si>
   <si>
-    <t>03:48</t>
-  </si>
-  <si>
-    <t>03:58</t>
-  </si>
-  <si>
-    <t>06:23</t>
+    <t>03:47</t>
+  </si>
+  <si>
+    <t>04:00</t>
+  </si>
+  <si>
+    <t>06:24</t>
   </si>
   <si>
     <t>06:26</t>
@@ -157,103 +148,100 @@
     <t>04:22</t>
   </si>
   <si>
-    <t>03:14</t>
+    <t>03:16</t>
   </si>
   <si>
     <t>06:18</t>
   </si>
   <si>
-    <t>06:29</t>
+    <t>06:30</t>
   </si>
   <si>
     <t>04:49</t>
   </si>
   <si>
-    <t>02:08</t>
-  </si>
-  <si>
-    <t>10:41</t>
+    <t>02:10</t>
+  </si>
+  <si>
+    <t>06:32</t>
+  </si>
+  <si>
+    <t>05:11</t>
+  </si>
+  <si>
+    <t>10:34</t>
   </si>
   <si>
     <t>11:09</t>
   </si>
   <si>
-    <t>10:43</t>
-  </si>
-  <si>
-    <t>10:33</t>
+    <t>10:49</t>
+  </si>
+  <si>
+    <t>10:25</t>
   </si>
   <si>
     <t>11:08</t>
   </si>
   <si>
-    <t>10:48</t>
-  </si>
-  <si>
-    <t>10:24</t>
-  </si>
-  <si>
-    <t>11:07</t>
+    <t>10:54</t>
+  </si>
+  <si>
+    <t>09:10</t>
+  </si>
+  <si>
+    <t>10:14</t>
+  </si>
+  <si>
+    <t>11:05</t>
+  </si>
+  <si>
+    <t>10:57</t>
+  </si>
+  <si>
+    <t>09:28</t>
+  </si>
+  <si>
+    <t>10:03</t>
+  </si>
+  <si>
+    <t>11:03</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>09:44</t>
+  </si>
+  <si>
+    <t>09:49</t>
+  </si>
+  <si>
+    <t>11:02</t>
+  </si>
+  <si>
+    <t>09:58</t>
+  </si>
+  <si>
+    <t>09:32</t>
+  </si>
+  <si>
+    <t>11:04</t>
+  </si>
+  <si>
+    <t>10:10</t>
+  </si>
+  <si>
+    <t>09:13</t>
   </si>
   <si>
     <t>10:53</t>
   </si>
   <si>
-    <t>09:09</t>
-  </si>
-  <si>
-    <t>10:14</t>
-  </si>
-  <si>
-    <t>11:06</t>
-  </si>
-  <si>
-    <t>10:56</t>
-  </si>
-  <si>
-    <t>09:27</t>
-  </si>
-  <si>
-    <t>10:02</t>
-  </si>
-  <si>
-    <t>11:03</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>09:44</t>
-  </si>
-  <si>
-    <t>09:47</t>
-  </si>
-  <si>
-    <t>11:02</t>
-  </si>
-  <si>
-    <t>09:58</t>
-  </si>
-  <si>
-    <t>09:31</t>
-  </si>
-  <si>
-    <t>10:10</t>
-  </si>
-  <si>
-    <t>09:13</t>
-  </si>
-  <si>
-    <t>10:52</t>
-  </si>
-  <si>
-    <t>02:00:11</t>
-  </si>
-  <si>
-    <t>03:37:38</t>
-  </si>
-  <si>
-    <t>05:15:32</t>
+    <t>10:20</t>
+  </si>
+  <si>
+    <t>10:47</t>
   </si>
   <si>
     <t>01:24:34</t>
@@ -265,163 +253,163 @@
     <t>04:39:48</t>
   </si>
   <si>
-    <t>00:48:54</t>
-  </si>
-  <si>
-    <t>02:26:10</t>
-  </si>
-  <si>
-    <t>04:04:00</t>
-  </si>
-  <si>
-    <t>05:42:17</t>
-  </si>
-  <si>
-    <t>00:13:11</t>
-  </si>
-  <si>
-    <t>01:50:20</t>
-  </si>
-  <si>
-    <t>03:28:08</t>
-  </si>
-  <si>
-    <t>05:06:20</t>
-  </si>
-  <si>
-    <t>23:37:25</t>
-  </si>
-  <si>
-    <t>01:14:27</t>
-  </si>
-  <si>
-    <t>02:52:12</t>
-  </si>
-  <si>
-    <t>04:30:20</t>
-  </si>
-  <si>
-    <t>23:01:37</t>
-  </si>
-  <si>
-    <t>00:38:31</t>
-  </si>
-  <si>
-    <t>02:16:13</t>
-  </si>
-  <si>
-    <t>03:54:17</t>
-  </si>
-  <si>
-    <t>22:25:46</t>
-  </si>
-  <si>
-    <t>00:02:31</t>
-  </si>
-  <si>
-    <t>01:40:10</t>
-  </si>
-  <si>
-    <t>03:18:10</t>
-  </si>
-  <si>
-    <t>21:49:53</t>
-  </si>
-  <si>
-    <t>23:26:28</t>
-  </si>
-  <si>
-    <t>02:02:37</t>
-  </si>
-  <si>
-    <t>03:39:54</t>
-  </si>
-  <si>
-    <t>05:17:58</t>
+    <t>00:48:55</t>
+  </si>
+  <si>
+    <t>02:26:11</t>
+  </si>
+  <si>
+    <t>04:04:01</t>
+  </si>
+  <si>
+    <t>05:42:18</t>
+  </si>
+  <si>
+    <t>00:13:14</t>
+  </si>
+  <si>
+    <t>01:50:24</t>
+  </si>
+  <si>
+    <t>03:28:11</t>
+  </si>
+  <si>
+    <t>05:06:23</t>
+  </si>
+  <si>
+    <t>23:37:30</t>
+  </si>
+  <si>
+    <t>01:14:33</t>
+  </si>
+  <si>
+    <t>02:52:18</t>
+  </si>
+  <si>
+    <t>04:30:26</t>
+  </si>
+  <si>
+    <t>23:01:45</t>
+  </si>
+  <si>
+    <t>00:38:40</t>
+  </si>
+  <si>
+    <t>02:16:22</t>
+  </si>
+  <si>
+    <t>03:54:26</t>
+  </si>
+  <si>
+    <t>22:25:58</t>
+  </si>
+  <si>
+    <t>00:02:44</t>
+  </si>
+  <si>
+    <t>01:40:23</t>
+  </si>
+  <si>
+    <t>03:18:24</t>
+  </si>
+  <si>
+    <t>21:50:10</t>
+  </si>
+  <si>
+    <t>23:26:45</t>
+  </si>
+  <si>
+    <t>01:04:21</t>
+  </si>
+  <si>
+    <t>02:42:19</t>
+  </si>
+  <si>
+    <t>22:50:44</t>
   </si>
   <si>
     <t>01:27:03</t>
   </si>
   <si>
-    <t>03:04:12</t>
-  </si>
-  <si>
-    <t>04:42:11</t>
-  </si>
-  <si>
-    <t>00:51:27</t>
-  </si>
-  <si>
-    <t>02:28:26</t>
-  </si>
-  <si>
-    <t>04:06:21</t>
-  </si>
-  <si>
-    <t>05:45:59</t>
-  </si>
-  <si>
-    <t>00:15:49</t>
-  </si>
-  <si>
-    <t>01:52:37</t>
-  </si>
-  <si>
-    <t>03:30:28</t>
-  </si>
-  <si>
-    <t>05:09:34</t>
-  </si>
-  <si>
-    <t>23:40:10</t>
-  </si>
-  <si>
-    <t>01:16:45</t>
-  </si>
-  <si>
-    <t>02:54:31</t>
-  </si>
-  <si>
-    <t>04:33:18</t>
-  </si>
-  <si>
-    <t>23:04:31</t>
-  </si>
-  <si>
-    <t>00:40:49</t>
-  </si>
-  <si>
-    <t>02:18:31</t>
-  </si>
-  <si>
-    <t>03:57:05</t>
-  </si>
-  <si>
-    <t>22:28:54</t>
-  </si>
-  <si>
-    <t>00:04:50</t>
-  </si>
-  <si>
-    <t>01:42:27</t>
-  </si>
-  <si>
-    <t>03:20:51</t>
-  </si>
-  <si>
-    <t>21:53:25</t>
-  </si>
-  <si>
-    <t>23:28:49</t>
-  </si>
-  <si>
-    <t>02:05:31</t>
-  </si>
-  <si>
-    <t>03:43:12</t>
-  </si>
-  <si>
-    <t>05:20:54</t>
+    <t>03:04:13</t>
+  </si>
+  <si>
+    <t>04:42:12</t>
+  </si>
+  <si>
+    <t>00:51:28</t>
+  </si>
+  <si>
+    <t>02:28:28</t>
+  </si>
+  <si>
+    <t>04:06:23</t>
+  </si>
+  <si>
+    <t>05:46:00</t>
+  </si>
+  <si>
+    <t>00:15:52</t>
+  </si>
+  <si>
+    <t>01:52:41</t>
+  </si>
+  <si>
+    <t>03:30:31</t>
+  </si>
+  <si>
+    <t>05:09:37</t>
+  </si>
+  <si>
+    <t>23:40:15</t>
+  </si>
+  <si>
+    <t>01:16:51</t>
+  </si>
+  <si>
+    <t>02:54:37</t>
+  </si>
+  <si>
+    <t>04:33:25</t>
+  </si>
+  <si>
+    <t>23:04:39</t>
+  </si>
+  <si>
+    <t>00:40:58</t>
+  </si>
+  <si>
+    <t>02:18:40</t>
+  </si>
+  <si>
+    <t>03:57:15</t>
+  </si>
+  <si>
+    <t>22:29:06</t>
+  </si>
+  <si>
+    <t>00:05:03</t>
+  </si>
+  <si>
+    <t>01:42:40</t>
+  </si>
+  <si>
+    <t>03:21:05</t>
+  </si>
+  <si>
+    <t>21:53:41</t>
+  </si>
+  <si>
+    <t>23:29:06</t>
+  </si>
+  <si>
+    <t>01:06:37</t>
+  </si>
+  <si>
+    <t>02:44:54</t>
+  </si>
+  <si>
+    <t>22:53:06</t>
   </si>
   <si>
     <t>01:29:50</t>
@@ -430,261 +418,270 @@
     <t>03:07:30</t>
   </si>
   <si>
-    <t>04:45:12</t>
-  </si>
-  <si>
-    <t>00:54:05</t>
-  </si>
-  <si>
-    <t>02:31:43</t>
-  </si>
-  <si>
-    <t>04:09:26</t>
-  </si>
-  <si>
-    <t>05:46:52</t>
-  </si>
-  <si>
-    <t>00:18:17</t>
-  </si>
-  <si>
-    <t>01:55:53</t>
-  </si>
-  <si>
-    <t>03:33:36</t>
-  </si>
-  <si>
-    <t>05:11:04</t>
-  </si>
-  <si>
-    <t>23:42:25</t>
-  </si>
-  <si>
-    <t>01:19:59</t>
-  </si>
-  <si>
-    <t>02:57:42</t>
-  </si>
-  <si>
-    <t>04:35:12</t>
-  </si>
-  <si>
-    <t>23:06:30</t>
-  </si>
-  <si>
-    <t>00:44:01</t>
-  </si>
-  <si>
-    <t>02:21:44</t>
-  </si>
-  <si>
-    <t>03:59:16</t>
-  </si>
-  <si>
-    <t>22:30:31</t>
-  </si>
-  <si>
-    <t>00:07:59</t>
-  </si>
-  <si>
-    <t>01:45:42</t>
-  </si>
-  <si>
-    <t>03:23:16</t>
-  </si>
-  <si>
-    <t>21:54:29</t>
-  </si>
-  <si>
-    <t>23:31:53</t>
-  </si>
-  <si>
-    <t>02:08:25</t>
-  </si>
-  <si>
-    <t>03:46:31</t>
-  </si>
-  <si>
-    <t>05:23:50</t>
-  </si>
-  <si>
-    <t>01:32:37</t>
-  </si>
-  <si>
-    <t>03:10:47</t>
-  </si>
-  <si>
-    <t>04:48:13</t>
-  </si>
-  <si>
-    <t>00:56:44</t>
-  </si>
-  <si>
-    <t>02:35:00</t>
-  </si>
-  <si>
-    <t>04:12:31</t>
-  </si>
-  <si>
-    <t>05:47:44</t>
-  </si>
-  <si>
-    <t>00:20:46</t>
-  </si>
-  <si>
-    <t>01:59:08</t>
-  </si>
-  <si>
-    <t>03:36:44</t>
-  </si>
-  <si>
-    <t>05:12:34</t>
-  </si>
-  <si>
-    <t>23:44:41</t>
-  </si>
-  <si>
-    <t>01:23:12</t>
-  </si>
-  <si>
-    <t>03:00:53</t>
-  </si>
-  <si>
-    <t>04:37:06</t>
-  </si>
-  <si>
-    <t>23:08:29</t>
-  </si>
-  <si>
-    <t>00:47:12</t>
-  </si>
-  <si>
-    <t>02:24:57</t>
-  </si>
-  <si>
-    <t>04:01:27</t>
-  </si>
-  <si>
-    <t>22:32:08</t>
-  </si>
-  <si>
-    <t>00:11:08</t>
-  </si>
-  <si>
-    <t>01:48:56</t>
-  </si>
-  <si>
-    <t>03:25:40</t>
-  </si>
-  <si>
-    <t>21:55:33</t>
-  </si>
-  <si>
-    <t>23:34:59</t>
-  </si>
-  <si>
-    <t>02:10:52</t>
-  </si>
-  <si>
-    <t>03:48:47</t>
-  </si>
-  <si>
-    <t>05:26:15</t>
-  </si>
-  <si>
-    <t>01:35:07</t>
-  </si>
-  <si>
-    <t>03:13:04</t>
-  </si>
-  <si>
-    <t>04:50:36</t>
-  </si>
-  <si>
-    <t>00:59:18</t>
-  </si>
-  <si>
-    <t>02:37:17</t>
-  </si>
-  <si>
-    <t>04:14:53</t>
-  </si>
-  <si>
-    <t>05:51:26</t>
-  </si>
-  <si>
-    <t>00:23:25</t>
-  </si>
-  <si>
-    <t>02:01:26</t>
-  </si>
-  <si>
-    <t>03:39:04</t>
-  </si>
-  <si>
-    <t>05:15:47</t>
-  </si>
-  <si>
-    <t>23:47:27</t>
-  </si>
-  <si>
-    <t>01:25:30</t>
-  </si>
-  <si>
-    <t>03:03:12</t>
-  </si>
-  <si>
-    <t>04:40:04</t>
-  </si>
-  <si>
-    <t>23:11:24</t>
-  </si>
-  <si>
-    <t>00:49:31</t>
-  </si>
-  <si>
-    <t>02:27:15</t>
-  </si>
-  <si>
-    <t>04:04:15</t>
-  </si>
-  <si>
-    <t>22:35:17</t>
-  </si>
-  <si>
-    <t>00:13:27</t>
-  </si>
-  <si>
-    <t>01:51:13</t>
-  </si>
-  <si>
-    <t>03:28:20</t>
-  </si>
-  <si>
-    <t>21:59:06</t>
-  </si>
-  <si>
-    <t>23:37:20</t>
+    <t>04:45:13</t>
+  </si>
+  <si>
+    <t>00:54:07</t>
+  </si>
+  <si>
+    <t>02:31:45</t>
+  </si>
+  <si>
+    <t>04:09:28</t>
+  </si>
+  <si>
+    <t>05:46:53</t>
+  </si>
+  <si>
+    <t>00:18:20</t>
+  </si>
+  <si>
+    <t>01:55:56</t>
+  </si>
+  <si>
+    <t>03:33:40</t>
+  </si>
+  <si>
+    <t>05:11:08</t>
+  </si>
+  <si>
+    <t>23:42:31</t>
+  </si>
+  <si>
+    <t>01:20:05</t>
+  </si>
+  <si>
+    <t>02:57:48</t>
+  </si>
+  <si>
+    <t>04:35:19</t>
+  </si>
+  <si>
+    <t>23:06:39</t>
+  </si>
+  <si>
+    <t>00:44:10</t>
+  </si>
+  <si>
+    <t>02:21:53</t>
+  </si>
+  <si>
+    <t>03:59:26</t>
+  </si>
+  <si>
+    <t>22:30:44</t>
+  </si>
+  <si>
+    <t>00:08:11</t>
+  </si>
+  <si>
+    <t>01:45:55</t>
+  </si>
+  <si>
+    <t>03:23:29</t>
+  </si>
+  <si>
+    <t>21:54:46</t>
+  </si>
+  <si>
+    <t>23:32:11</t>
+  </si>
+  <si>
+    <t>01:09:53</t>
+  </si>
+  <si>
+    <t>02:47:30</t>
+  </si>
+  <si>
+    <t>22:56:07</t>
+  </si>
+  <si>
+    <t>01:32:38</t>
+  </si>
+  <si>
+    <t>03:10:48</t>
+  </si>
+  <si>
+    <t>04:48:14</t>
+  </si>
+  <si>
+    <t>00:56:46</t>
+  </si>
+  <si>
+    <t>02:35:02</t>
+  </si>
+  <si>
+    <t>04:12:33</t>
+  </si>
+  <si>
+    <t>05:47:47</t>
+  </si>
+  <si>
+    <t>00:20:49</t>
+  </si>
+  <si>
+    <t>01:59:12</t>
+  </si>
+  <si>
+    <t>03:36:48</t>
+  </si>
+  <si>
+    <t>05:12:38</t>
+  </si>
+  <si>
+    <t>23:44:47</t>
+  </si>
+  <si>
+    <t>01:23:19</t>
+  </si>
+  <si>
+    <t>03:00:59</t>
+  </si>
+  <si>
+    <t>04:37:12</t>
+  </si>
+  <si>
+    <t>23:08:39</t>
+  </si>
+  <si>
+    <t>00:47:22</t>
+  </si>
+  <si>
+    <t>02:25:06</t>
+  </si>
+  <si>
+    <t>04:01:37</t>
+  </si>
+  <si>
+    <t>22:32:22</t>
+  </si>
+  <si>
+    <t>00:11:21</t>
+  </si>
+  <si>
+    <t>01:49:10</t>
+  </si>
+  <si>
+    <t>03:25:54</t>
+  </si>
+  <si>
+    <t>21:55:51</t>
+  </si>
+  <si>
+    <t>23:35:16</t>
+  </si>
+  <si>
+    <t>01:13:09</t>
+  </si>
+  <si>
+    <t>02:50:05</t>
+  </si>
+  <si>
+    <t>22:59:08</t>
+  </si>
+  <si>
+    <t>01:35:08</t>
+  </si>
+  <si>
+    <t>03:13:05</t>
+  </si>
+  <si>
+    <t>04:50:37</t>
+  </si>
+  <si>
+    <t>00:59:20</t>
+  </si>
+  <si>
+    <t>02:37:19</t>
+  </si>
+  <si>
+    <t>04:14:55</t>
+  </si>
+  <si>
+    <t>05:51:28</t>
+  </si>
+  <si>
+    <t>00:23:28</t>
+  </si>
+  <si>
+    <t>02:01:29</t>
+  </si>
+  <si>
+    <t>03:39:08</t>
+  </si>
+  <si>
+    <t>05:15:51</t>
+  </si>
+  <si>
+    <t>23:47:33</t>
+  </si>
+  <si>
+    <t>01:25:36</t>
+  </si>
+  <si>
+    <t>03:03:18</t>
+  </si>
+  <si>
+    <t>04:40:10</t>
+  </si>
+  <si>
+    <t>23:11:34</t>
+  </si>
+  <si>
+    <t>00:49:40</t>
+  </si>
+  <si>
+    <t>02:27:24</t>
+  </si>
+  <si>
+    <t>04:04:24</t>
+  </si>
+  <si>
+    <t>22:35:30</t>
+  </si>
+  <si>
+    <t>00:13:41</t>
+  </si>
+  <si>
+    <t>01:51:27</t>
+  </si>
+  <si>
+    <t>03:28:34</t>
+  </si>
+  <si>
+    <t>21:59:23</t>
+  </si>
+  <si>
+    <t>23:37:38</t>
+  </si>
+  <si>
+    <t>01:15:26</t>
+  </si>
+  <si>
+    <t>02:52:39</t>
+  </si>
+  <si>
+    <t>23:01:31</t>
   </si>
   <si>
     <t>0°</t>
   </si>
   <si>
-    <t>15°</t>
+    <t>6°</t>
+  </si>
+  <si>
+    <t>25°</t>
   </si>
   <si>
     <t>18°</t>
   </si>
   <si>
-    <t>6°</t>
-  </si>
-  <si>
-    <t>25°</t>
-  </si>
-  <si>
     <t>8°</t>
   </si>
   <si>
+    <t>9°</t>
+  </si>
+  <si>
     <t>12°</t>
   </si>
   <si>
@@ -694,40 +691,34 @@
     <t>7°</t>
   </si>
   <si>
-    <t>03:45:46</t>
-  </si>
-  <si>
-    <t>05:19:30</t>
-  </si>
-  <si>
-    <t>03:11:39</t>
+    <t>03:11:40</t>
   </si>
   <si>
     <t>04:45:23</t>
   </si>
   <si>
-    <t>04:11:13</t>
-  </si>
-  <si>
-    <t>05:44:57</t>
-  </si>
-  <si>
-    <t>03:37:02</t>
-  </si>
-  <si>
-    <t>05:10:46</t>
-  </si>
-  <si>
-    <t>03:02:50</t>
-  </si>
-  <si>
-    <t>04:36:34</t>
-  </si>
-  <si>
-    <t>04:02:21</t>
-  </si>
-  <si>
-    <t>03:28:09</t>
+    <t>04:11:15</t>
+  </si>
+  <si>
+    <t>05:44:58</t>
+  </si>
+  <si>
+    <t>03:37:06</t>
+  </si>
+  <si>
+    <t>05:10:49</t>
+  </si>
+  <si>
+    <t>03:02:56</t>
+  </si>
+  <si>
+    <t>04:36:40</t>
+  </si>
+  <si>
+    <t>04:02:30</t>
+  </si>
+  <si>
+    <t>03:28:22</t>
   </si>
   <si>
     <t>B</t>
@@ -779,7 +770,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -794,7 +785,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6AD26A"/>
+        <fgColor rgb="FFF0707F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBD1E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF558CC8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D7EC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,13 +815,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF558CC8"/>
+        <fgColor rgb="FF6E9DD0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0707F"/>
+        <fgColor rgb="FF77A3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99BADE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80A9D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4E2F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6EEF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAC5E3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,13 +863,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6E9DD0"/>
+        <fgColor rgb="FFDDE8F4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF88AED8"/>
+        <fgColor rgb="FFB2CBE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F9FC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,37 +893,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8F4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4D7EC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6EEF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4E2F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6F9FC"/>
+        <fgColor rgb="FFCCDCEE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,31 +905,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB2CBE6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99BADE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF90B4DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF77A3D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF80A9D6"/>
+        <fgColor rgb="FF88AED8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,7 +952,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1024,6 +1027,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1485,49 +1494,49 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L2" s="4">
-        <v>-46</v>
+        <v>-50.9</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="O2" s="6">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="P2" s="7">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="Q2" s="8">
         <v>0</v>
@@ -1547,49 +1556,49 @@
         <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L3" s="4">
-        <v>-30.8</v>
+        <v>-36.4</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="O3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
+        <v>91</v>
+      </c>
+      <c r="P3" s="9">
+        <v>66</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>2</v>
+      </c>
+      <c r="R3" s="10">
         <v>4</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>0</v>
-      </c>
-      <c r="R3" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1597,49 +1606,49 @@
         <v>18</v>
       </c>
       <c r="B4" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L4" s="4">
-        <v>-15.6</v>
+        <v>-21.1</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="O4" s="6">
-        <v>3</v>
-      </c>
-      <c r="P4" s="8">
-        <v>2</v>
+        <v>86</v>
+      </c>
+      <c r="P4" s="7">
+        <v>60</v>
       </c>
       <c r="Q4" s="8">
         <v>0</v>
@@ -1653,49 +1662,49 @@
         <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L5" s="4">
-        <v>-50.9</v>
+        <v>-55.2</v>
       </c>
       <c r="M5" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O5" s="9">
-        <v>40</v>
-      </c>
-      <c r="P5" s="10">
-        <v>11</v>
+      <c r="O5" s="6">
+        <v>43</v>
+      </c>
+      <c r="P5" s="11">
+        <v>15</v>
       </c>
       <c r="Q5" s="8">
         <v>0</v>
@@ -1715,46 +1724,46 @@
         <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="L6" s="4">
-        <v>-36.4</v>
+        <v>-42</v>
       </c>
       <c r="M6" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O6" s="9">
-        <v>32</v>
-      </c>
-      <c r="P6" s="11">
-        <v>13</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>0</v>
+      <c r="O6" s="6">
+        <v>79</v>
+      </c>
+      <c r="P6" s="12">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>42</v>
       </c>
       <c r="R6" s="8">
         <v>0</v>
@@ -1765,52 +1774,52 @@
         <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L7" s="4">
-        <v>-21.1</v>
+        <v>-26.6</v>
       </c>
       <c r="M7" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="O7" s="9">
-        <v>33</v>
-      </c>
-      <c r="P7" s="10">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>0</v>
+      <c r="O7" s="6">
+        <v>74</v>
+      </c>
+      <c r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>62</v>
       </c>
       <c r="R7" s="8">
         <v>0</v>
@@ -1818,55 +1827,55 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>83</v>
+        <v>228</v>
       </c>
       <c r="L8" s="4">
-        <v>-55.2</v>
+        <v>-11.7</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O8" s="9">
-        <v>32</v>
-      </c>
-      <c r="P8" s="10">
-        <v>9</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="O8" s="6">
+        <v>86</v>
+      </c>
+      <c r="P8" s="14">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>76</v>
       </c>
       <c r="R8" s="8">
         <v>0</v>
@@ -1877,55 +1886,55 @@
         <v>20</v>
       </c>
       <c r="B9" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L9" s="4">
-        <v>-42</v>
+        <v>-58.6</v>
       </c>
       <c r="M9" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O9" s="9">
-        <v>33</v>
-      </c>
-      <c r="P9" s="10">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>28</v>
-      </c>
-      <c r="R9" s="8">
-        <v>0</v>
+      <c r="O9" s="6">
+        <v>91</v>
+      </c>
+      <c r="P9" s="16">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>51</v>
+      </c>
+      <c r="R9" s="18">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1933,55 +1942,55 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c r="L10" s="4">
-        <v>-26.6</v>
+        <v>-47.2</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="O10" s="9">
-        <v>54</v>
-      </c>
-      <c r="P10" s="10">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="13">
-        <v>43</v>
-      </c>
-      <c r="R10" s="8">
-        <v>0</v>
+        <v>238</v>
+      </c>
+      <c r="O10" s="6">
+        <v>94</v>
+      </c>
+      <c r="P10" s="19">
+        <v>82</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>55</v>
+      </c>
+      <c r="R10" s="11">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1989,167 +1998,167 @@
         <v>20</v>
       </c>
       <c r="B11" s="2">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L11" s="4">
-        <v>-11.7</v>
+        <v>-32.2</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="O11" s="9">
-        <v>90</v>
-      </c>
-      <c r="P11" s="14">
-        <v>80</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>82</v>
-      </c>
-      <c r="R11" s="8">
-        <v>2</v>
+        <v>238</v>
+      </c>
+      <c r="O11" s="6">
+        <v>99</v>
+      </c>
+      <c r="P11" s="19">
+        <v>79</v>
+      </c>
+      <c r="Q11" s="21">
+        <v>98</v>
+      </c>
+      <c r="R11" s="7">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>87</v>
+        <v>230</v>
       </c>
       <c r="L12" s="4">
-        <v>-58.6</v>
+        <v>-17</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O12" s="9">
+        <v>240</v>
+      </c>
+      <c r="O12" s="6">
         <v>100</v>
       </c>
-      <c r="P12" s="15">
-        <v>67</v>
-      </c>
-      <c r="Q12" s="16">
-        <v>83</v>
-      </c>
-      <c r="R12" s="17">
+      <c r="P12" s="22">
+        <v>94</v>
+      </c>
+      <c r="Q12" s="21">
+        <v>100</v>
+      </c>
+      <c r="R12" s="21">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L13" s="4">
-        <v>-47.2</v>
+        <v>-60.7</v>
       </c>
       <c r="M13" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O13" s="9">
-        <v>100</v>
-      </c>
-      <c r="P13" s="18">
-        <v>74</v>
-      </c>
-      <c r="Q13" s="17">
-        <v>99</v>
-      </c>
-      <c r="R13" s="17">
-        <v>100</v>
+      <c r="O13" s="6">
+        <v>93</v>
+      </c>
+      <c r="P13" s="15">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="23">
+        <v>44</v>
+      </c>
+      <c r="R13" s="24">
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2157,55 +2166,55 @@
         <v>21</v>
       </c>
       <c r="B14" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>232</v>
+        <v>88</v>
       </c>
       <c r="L14" s="4">
-        <v>-32.2</v>
+        <v>-52</v>
       </c>
       <c r="M14" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O14" s="9">
-        <v>100</v>
-      </c>
-      <c r="P14" s="16">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="17">
-        <v>100</v>
-      </c>
-      <c r="R14" s="17">
-        <v>100</v>
+      <c r="O14" s="6">
+        <v>94</v>
+      </c>
+      <c r="P14" s="19">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="23">
+        <v>43</v>
+      </c>
+      <c r="R14" s="24">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2213,55 +2222,55 @@
         <v>21</v>
       </c>
       <c r="B15" s="2">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>223</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L15" s="4">
-        <v>-17</v>
+        <v>-37.8</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="O15" s="9">
+        <v>238</v>
+      </c>
+      <c r="O15" s="6">
         <v>100</v>
       </c>
-      <c r="P15" s="17">
-        <v>99</v>
-      </c>
-      <c r="Q15" s="17">
-        <v>100</v>
-      </c>
-      <c r="R15" s="17">
-        <v>100</v>
+      <c r="P15" s="25">
+        <v>89</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>97</v>
+      </c>
+      <c r="R15" s="20">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2269,108 +2278,108 @@
         <v>21</v>
       </c>
       <c r="B16" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="L16" s="4">
-        <v>-60.7</v>
+        <v>-22.5</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O16" s="9">
-        <v>97</v>
-      </c>
-      <c r="P16" s="19">
-        <v>93</v>
-      </c>
-      <c r="Q16" s="14">
-        <v>79</v>
-      </c>
-      <c r="R16" s="8">
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="O16" s="6">
+        <v>99</v>
+      </c>
+      <c r="P16" s="25">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>98</v>
+      </c>
+      <c r="R16" s="26">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="4">
-        <v>-52</v>
+        <v>-61.2</v>
       </c>
       <c r="M17" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O17" s="9">
-        <v>99</v>
-      </c>
-      <c r="P17" s="19">
-        <v>94</v>
-      </c>
-      <c r="Q17" s="19">
-        <v>95</v>
+      <c r="O17" s="6">
+        <v>53</v>
+      </c>
+      <c r="P17" s="26">
+        <v>34</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>48</v>
       </c>
       <c r="R17" s="8">
         <v>0</v>
@@ -2381,52 +2390,52 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>234</v>
+        <v>92</v>
       </c>
       <c r="L18" s="4">
-        <v>-37.8</v>
+        <v>-56.1</v>
       </c>
       <c r="M18" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O18" s="9">
-        <v>99</v>
-      </c>
-      <c r="P18" s="20">
-        <v>89</v>
-      </c>
-      <c r="Q18" s="19">
-        <v>97</v>
+      <c r="O18" s="6">
+        <v>25</v>
+      </c>
+      <c r="P18" s="14">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>25</v>
       </c>
       <c r="R18" s="8">
         <v>0</v>
@@ -2437,52 +2446,52 @@
         <v>22</v>
       </c>
       <c r="B19" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" s="4">
+        <v>-43.3</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="L19" s="4">
-        <v>-22.5</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>239</v>
-      </c>
       <c r="N19" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="O19" s="9">
-        <v>100</v>
-      </c>
-      <c r="P19" s="16">
-        <v>87</v>
-      </c>
-      <c r="Q19" s="19">
-        <v>97</v>
+        <v>238</v>
+      </c>
+      <c r="O19" s="6">
+        <v>20</v>
+      </c>
+      <c r="P19" s="12">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>16</v>
       </c>
       <c r="R19" s="8">
         <v>0</v>
@@ -2493,111 +2502,111 @@
         <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
       <c r="L20" s="4">
-        <v>-61.2</v>
+        <v>-28.1</v>
       </c>
       <c r="M20" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="O20" s="9">
-        <v>99</v>
-      </c>
-      <c r="P20" s="19">
-        <v>93</v>
-      </c>
-      <c r="Q20" s="17">
-        <v>99</v>
-      </c>
-      <c r="R20" s="21">
-        <v>54</v>
+      <c r="O20" s="6">
+        <v>22</v>
+      </c>
+      <c r="P20" s="12">
+        <v>22</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>0</v>
+      </c>
+      <c r="R20" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L21" s="4">
-        <v>-56.1</v>
+        <v>-59.9</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O21" s="9">
-        <v>100</v>
-      </c>
-      <c r="P21" s="19">
-        <v>95</v>
-      </c>
-      <c r="Q21" s="17">
-        <v>99</v>
-      </c>
-      <c r="R21" s="15">
-        <v>64</v>
+        <v>240</v>
+      </c>
+      <c r="O21" s="6">
+        <v>94</v>
+      </c>
+      <c r="P21" s="17">
+        <v>49</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>15</v>
+      </c>
+      <c r="R21" s="20">
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2605,55 +2614,55 @@
         <v>23</v>
       </c>
       <c r="B22" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L22" s="4">
-        <v>-43.3</v>
+        <v>-59.1</v>
       </c>
       <c r="M22" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O22" s="9">
-        <v>100</v>
-      </c>
-      <c r="P22" s="19">
-        <v>97</v>
-      </c>
-      <c r="Q22" s="17">
-        <v>98</v>
-      </c>
-      <c r="R22" s="22">
-        <v>41</v>
+      <c r="O22" s="6">
+        <v>94</v>
+      </c>
+      <c r="P22" s="17">
+        <v>50</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>5</v>
+      </c>
+      <c r="R22" s="27">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2661,55 +2670,55 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>236</v>
+        <v>97</v>
       </c>
       <c r="L23" s="4">
-        <v>-28.1</v>
+        <v>-48.4</v>
       </c>
       <c r="M23" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O23" s="9">
-        <v>100</v>
-      </c>
-      <c r="P23" s="17">
-        <v>98</v>
-      </c>
-      <c r="Q23" s="17">
-        <v>98</v>
-      </c>
-      <c r="R23" s="23">
-        <v>35</v>
+      <c r="O23" s="6">
+        <v>95</v>
+      </c>
+      <c r="P23" s="7">
+        <v>58</v>
+      </c>
+      <c r="Q23" s="18">
+        <v>10</v>
+      </c>
+      <c r="R23" s="13">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2717,167 +2726,167 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="L24" s="4">
-        <v>-59.9</v>
+        <v>-33.7</v>
       </c>
       <c r="M24" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="O24" s="9">
-        <v>99</v>
-      </c>
-      <c r="P24" s="14">
-        <v>82</v>
-      </c>
-      <c r="Q24" s="19">
-        <v>95</v>
-      </c>
-      <c r="R24" s="17">
-        <v>99</v>
+      <c r="O24" s="6">
+        <v>98</v>
+      </c>
+      <c r="P24" s="9">
+        <v>67</v>
+      </c>
+      <c r="Q24" s="18">
+        <v>10</v>
+      </c>
+      <c r="R24" s="20">
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L25" s="4">
+        <v>-57.1</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="O25" s="6">
         <v>100</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="K25" s="1" t="s">
+      <c r="P25" s="15">
+        <v>76</v>
+      </c>
+      <c r="Q25" s="21">
         <v>100</v>
       </c>
-      <c r="L25" s="4">
-        <v>-59.1</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O25" s="9">
-        <v>100</v>
-      </c>
-      <c r="P25" s="16">
-        <v>84</v>
-      </c>
-      <c r="Q25" s="17">
-        <v>100</v>
-      </c>
-      <c r="R25" s="17">
+      <c r="R25" s="21">
         <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L26" s="4">
-        <v>-48.5</v>
+        <v>-60.6</v>
       </c>
       <c r="M26" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O26" s="9">
-        <v>100</v>
-      </c>
-      <c r="P26" s="16">
-        <v>83</v>
+      <c r="O26" s="6">
+        <v>92</v>
+      </c>
+      <c r="P26" s="15">
+        <v>75</v>
       </c>
       <c r="Q26" s="17">
-        <v>100</v>
-      </c>
-      <c r="R26" s="17">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="R26" s="13">
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2885,55 +2894,55 @@
         <v>24</v>
       </c>
       <c r="B27" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>237</v>
+        <v>101</v>
       </c>
       <c r="L27" s="4">
-        <v>-33.7</v>
+        <v>-53</v>
       </c>
       <c r="M27" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O27" s="9">
-        <v>100</v>
-      </c>
-      <c r="P27" s="16">
-        <v>85</v>
-      </c>
-      <c r="Q27" s="17">
-        <v>100</v>
-      </c>
-      <c r="R27" s="17">
-        <v>100</v>
+      <c r="O27" s="6">
+        <v>93</v>
+      </c>
+      <c r="P27" s="19">
+        <v>79</v>
+      </c>
+      <c r="Q27" s="23">
+        <v>47</v>
+      </c>
+      <c r="R27" s="14">
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2941,55 +2950,55 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L28" s="4">
-        <v>-57.1</v>
+        <v>-39.3</v>
       </c>
       <c r="M28" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="N28" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="O28" s="9">
-        <v>97</v>
+      <c r="O28" s="6">
+        <v>96</v>
       </c>
       <c r="P28" s="19">
-        <v>95</v>
-      </c>
-      <c r="Q28" s="24">
-        <v>18</v>
-      </c>
-      <c r="R28" s="10">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>60</v>
+      </c>
+      <c r="R28" s="13">
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2997,55 +3006,55 @@
         <v>24</v>
       </c>
       <c r="B29" s="2">
+        <v>25</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I29" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="K29" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L29" s="4">
-        <v>-60.6</v>
+        <v>-60.5</v>
       </c>
       <c r="M29" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O29" s="9">
-        <v>73</v>
-      </c>
-      <c r="P29" s="18">
-        <v>73</v>
-      </c>
-      <c r="Q29" s="7">
-        <v>6</v>
-      </c>
-      <c r="R29" s="25">
-        <v>25</v>
+      <c r="O29" s="6">
+        <v>100</v>
+      </c>
+      <c r="P29" s="16">
+        <v>86</v>
+      </c>
+      <c r="Q29" s="22">
+        <v>96</v>
+      </c>
+      <c r="R29" s="21">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="245">
   <si>
     <t>Datum</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Doba nad 10°</t>
   </si>
   <si>
-    <t>Doba nad 0°</t>
+    <t>Osvětleno nad 10°</t>
   </si>
   <si>
     <t>Vychází</t>
@@ -70,274 +70,277 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>07.01.2026</t>
-  </si>
-  <si>
-    <t>08.01.2026</t>
-  </si>
-  <si>
-    <t>09.01.2026</t>
-  </si>
-  <si>
-    <t>10.01.2026</t>
-  </si>
-  <si>
-    <t>11.01.2026</t>
-  </si>
-  <si>
-    <t>12.01.2026</t>
-  </si>
-  <si>
-    <t>13.01.2026</t>
-  </si>
-  <si>
-    <t>05:35</t>
-  </si>
-  <si>
-    <t>06:35</t>
+    <t>20260108--01</t>
+  </si>
+  <si>
+    <t>20260108--02</t>
+  </si>
+  <si>
+    <t>20260108--03</t>
+  </si>
+  <si>
+    <t>20260108--04</t>
+  </si>
+  <si>
+    <t>20260109--01</t>
+  </si>
+  <si>
+    <t>20260109--02</t>
+  </si>
+  <si>
+    <t>20260109--03</t>
+  </si>
+  <si>
+    <t>20260109--04</t>
+  </si>
+  <si>
+    <t>20260109--05</t>
+  </si>
+  <si>
+    <t>20260110--01</t>
+  </si>
+  <si>
+    <t>20260110--02</t>
+  </si>
+  <si>
+    <t>20260110--03</t>
+  </si>
+  <si>
+    <t>20260110--04</t>
+  </si>
+  <si>
+    <t>20260111--01</t>
+  </si>
+  <si>
+    <t>20260111--02</t>
+  </si>
+  <si>
+    <t>20260111--03</t>
+  </si>
+  <si>
+    <t>20260111--04</t>
+  </si>
+  <si>
+    <t>20260112--01</t>
+  </si>
+  <si>
+    <t>20260112--02</t>
+  </si>
+  <si>
+    <t>20260112--03</t>
+  </si>
+  <si>
+    <t>20260112--04</t>
+  </si>
+  <si>
+    <t>20260112--05</t>
+  </si>
+  <si>
+    <t>20260113--01</t>
+  </si>
+  <si>
+    <t>20260113--02</t>
+  </si>
+  <si>
+    <t>20260113--03</t>
+  </si>
+  <si>
+    <t>20260114--01</t>
+  </si>
+  <si>
+    <t>20260114--02</t>
+  </si>
+  <si>
+    <t>20260114--03</t>
+  </si>
+  <si>
+    <t>20260114--04</t>
+  </si>
+  <si>
+    <t>05:17</t>
+  </si>
+  <si>
+    <t>06:34</t>
+  </si>
+  <si>
+    <t>06:11</t>
+  </si>
+  <si>
+    <t>01:46</t>
+  </si>
+  <si>
+    <t>04:57</t>
+  </si>
+  <si>
+    <t>06:31</t>
+  </si>
+  <si>
+    <t>06:17</t>
+  </si>
+  <si>
+    <t>03:01</t>
+  </si>
+  <si>
+    <t>04:32</t>
+  </si>
+  <si>
+    <t>06:28</t>
+  </si>
+  <si>
+    <t>06:22</t>
+  </si>
+  <si>
+    <t>03:48</t>
+  </si>
+  <si>
+    <t>03:59</t>
+  </si>
+  <si>
+    <t>06:23</t>
+  </si>
+  <si>
+    <t>06:26</t>
+  </si>
+  <si>
+    <t>04:23</t>
+  </si>
+  <si>
+    <t>03:17</t>
+  </si>
+  <si>
+    <t>06:18</t>
+  </si>
+  <si>
+    <t>06:30</t>
+  </si>
+  <si>
+    <t>04:49</t>
+  </si>
+  <si>
+    <t>02:11</t>
+  </si>
+  <si>
+    <t>06:32</t>
+  </si>
+  <si>
+    <t>05:11</t>
   </si>
   <si>
     <t>06:02</t>
   </si>
   <si>
-    <t>05:18</t>
-  </si>
-  <si>
-    <t>06:34</t>
-  </si>
-  <si>
-    <t>06:10</t>
-  </si>
-  <si>
-    <t>01:47</t>
-  </si>
-  <si>
-    <t>04:57</t>
-  </si>
-  <si>
-    <t>06:31</t>
-  </si>
-  <si>
-    <t>06:17</t>
-  </si>
-  <si>
-    <t>03:01</t>
-  </si>
-  <si>
-    <t>04:32</t>
-  </si>
-  <si>
-    <t>06:28</t>
-  </si>
-  <si>
-    <t>06:22</t>
-  </si>
-  <si>
-    <t>03:47</t>
-  </si>
-  <si>
-    <t>04:00</t>
-  </si>
-  <si>
-    <t>06:24</t>
-  </si>
-  <si>
-    <t>06:26</t>
-  </si>
-  <si>
-    <t>04:22</t>
-  </si>
-  <si>
-    <t>03:16</t>
-  </si>
-  <si>
-    <t>06:18</t>
-  </si>
-  <si>
-    <t>06:30</t>
-  </si>
-  <si>
-    <t>04:49</t>
-  </si>
-  <si>
-    <t>02:10</t>
-  </si>
-  <si>
-    <t>06:32</t>
-  </si>
-  <si>
-    <t>05:11</t>
-  </si>
-  <si>
-    <t>10:34</t>
-  </si>
-  <si>
-    <t>11:09</t>
-  </si>
-  <si>
-    <t>10:49</t>
-  </si>
-  <si>
-    <t>10:25</t>
-  </si>
-  <si>
-    <t>11:08</t>
-  </si>
-  <si>
-    <t>10:54</t>
-  </si>
-  <si>
-    <t>09:10</t>
-  </si>
-  <si>
-    <t>10:14</t>
-  </si>
-  <si>
-    <t>11:05</t>
-  </si>
-  <si>
-    <t>10:57</t>
-  </si>
-  <si>
-    <t>09:28</t>
-  </si>
-  <si>
-    <t>10:03</t>
-  </si>
-  <si>
-    <t>11:03</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>09:44</t>
-  </si>
-  <si>
-    <t>09:49</t>
-  </si>
-  <si>
-    <t>11:02</t>
-  </si>
-  <si>
-    <t>09:58</t>
-  </si>
-  <si>
-    <t>09:32</t>
-  </si>
-  <si>
-    <t>11:04</t>
-  </si>
-  <si>
-    <t>10:10</t>
-  </si>
-  <si>
-    <t>09:13</t>
-  </si>
-  <si>
-    <t>10:53</t>
-  </si>
-  <si>
-    <t>10:20</t>
-  </si>
-  <si>
-    <t>10:47</t>
-  </si>
-  <si>
-    <t>01:24:34</t>
-  </si>
-  <si>
-    <t>03:01:56</t>
-  </si>
-  <si>
-    <t>04:39:48</t>
+    <t>06:33</t>
+  </si>
+  <si>
+    <t>05:29</t>
+  </si>
+  <si>
+    <t>05:52</t>
+  </si>
+  <si>
+    <t>-1434:34</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>01:19</t>
+  </si>
+  <si>
+    <t>01:49</t>
+  </si>
+  <si>
+    <t>00:33</t>
   </si>
   <si>
     <t>00:48:55</t>
   </si>
   <si>
-    <t>02:26:11</t>
-  </si>
-  <si>
-    <t>04:04:01</t>
-  </si>
-  <si>
-    <t>05:42:18</t>
-  </si>
-  <si>
-    <t>00:13:14</t>
-  </si>
-  <si>
-    <t>01:50:24</t>
-  </si>
-  <si>
-    <t>03:28:11</t>
-  </si>
-  <si>
-    <t>05:06:23</t>
-  </si>
-  <si>
-    <t>23:37:30</t>
-  </si>
-  <si>
-    <t>01:14:33</t>
-  </si>
-  <si>
-    <t>02:52:18</t>
-  </si>
-  <si>
-    <t>04:30:26</t>
-  </si>
-  <si>
-    <t>23:01:45</t>
-  </si>
-  <si>
-    <t>00:38:40</t>
-  </si>
-  <si>
-    <t>02:16:22</t>
-  </si>
-  <si>
-    <t>03:54:26</t>
-  </si>
-  <si>
-    <t>22:25:58</t>
-  </si>
-  <si>
-    <t>00:02:44</t>
-  </si>
-  <si>
-    <t>01:40:23</t>
-  </si>
-  <si>
-    <t>03:18:24</t>
-  </si>
-  <si>
-    <t>21:50:10</t>
-  </si>
-  <si>
-    <t>23:26:45</t>
-  </si>
-  <si>
-    <t>01:04:21</t>
-  </si>
-  <si>
-    <t>02:42:19</t>
-  </si>
-  <si>
-    <t>22:50:44</t>
-  </si>
-  <si>
-    <t>01:27:03</t>
-  </si>
-  <si>
-    <t>03:04:13</t>
-  </si>
-  <si>
-    <t>04:42:12</t>
-  </si>
-  <si>
-    <t>00:51:28</t>
+    <t>02:26:12</t>
+  </si>
+  <si>
+    <t>04:04:02</t>
+  </si>
+  <si>
+    <t>05:42:19</t>
+  </si>
+  <si>
+    <t>00:13:15</t>
+  </si>
+  <si>
+    <t>01:50:25</t>
+  </si>
+  <si>
+    <t>03:28:13</t>
+  </si>
+  <si>
+    <t>05:06:25</t>
+  </si>
+  <si>
+    <t>23:37:33</t>
+  </si>
+  <si>
+    <t>01:14:36</t>
+  </si>
+  <si>
+    <t>02:52:21</t>
+  </si>
+  <si>
+    <t>04:30:29</t>
+  </si>
+  <si>
+    <t>23:01:49</t>
+  </si>
+  <si>
+    <t>00:38:44</t>
+  </si>
+  <si>
+    <t>02:16:27</t>
+  </si>
+  <si>
+    <t>03:54:31</t>
+  </si>
+  <si>
+    <t>22:26:05</t>
+  </si>
+  <si>
+    <t>00:02:51</t>
+  </si>
+  <si>
+    <t>01:40:30</t>
+  </si>
+  <si>
+    <t>03:18:31</t>
+  </si>
+  <si>
+    <t>21:50:19</t>
+  </si>
+  <si>
+    <t>23:26:55</t>
+  </si>
+  <si>
+    <t>01:04:30</t>
+  </si>
+  <si>
+    <t>02:42:29</t>
+  </si>
+  <si>
+    <t>22:50:56</t>
+  </si>
+  <si>
+    <t>00:28:28</t>
+  </si>
+  <si>
+    <t>02:06:24</t>
+  </si>
+  <si>
+    <t>22:14:56</t>
+  </si>
+  <si>
+    <t>23:52:24</t>
+  </si>
+  <si>
+    <t>00:51:29</t>
   </si>
   <si>
     <t>02:28:28</t>
@@ -346,79 +349,82 @@
     <t>04:06:23</t>
   </si>
   <si>
-    <t>05:46:00</t>
-  </si>
-  <si>
-    <t>00:15:52</t>
-  </si>
-  <si>
-    <t>01:52:41</t>
-  </si>
-  <si>
-    <t>03:30:31</t>
-  </si>
-  <si>
-    <t>05:09:37</t>
-  </si>
-  <si>
-    <t>23:40:15</t>
-  </si>
-  <si>
-    <t>01:16:51</t>
-  </si>
-  <si>
-    <t>02:54:37</t>
-  </si>
-  <si>
-    <t>04:33:25</t>
-  </si>
-  <si>
-    <t>23:04:39</t>
-  </si>
-  <si>
-    <t>00:40:58</t>
-  </si>
-  <si>
-    <t>02:18:40</t>
-  </si>
-  <si>
-    <t>03:57:15</t>
-  </si>
-  <si>
-    <t>22:29:06</t>
-  </si>
-  <si>
-    <t>00:05:03</t>
-  </si>
-  <si>
-    <t>01:42:40</t>
-  </si>
-  <si>
-    <t>03:21:05</t>
-  </si>
-  <si>
-    <t>21:53:41</t>
-  </si>
-  <si>
-    <t>23:29:06</t>
-  </si>
-  <si>
-    <t>01:06:37</t>
-  </si>
-  <si>
-    <t>02:44:54</t>
-  </si>
-  <si>
-    <t>22:53:06</t>
-  </si>
-  <si>
-    <t>01:29:50</t>
-  </si>
-  <si>
-    <t>03:07:30</t>
-  </si>
-  <si>
-    <t>04:45:13</t>
+    <t>05:46:01</t>
+  </si>
+  <si>
+    <t>00:15:53</t>
+  </si>
+  <si>
+    <t>01:52:42</t>
+  </si>
+  <si>
+    <t>03:30:33</t>
+  </si>
+  <si>
+    <t>05:09:39</t>
+  </si>
+  <si>
+    <t>23:40:18</t>
+  </si>
+  <si>
+    <t>01:16:53</t>
+  </si>
+  <si>
+    <t>02:54:40</t>
+  </si>
+  <si>
+    <t>04:33:27</t>
+  </si>
+  <si>
+    <t>23:04:44</t>
+  </si>
+  <si>
+    <t>00:41:03</t>
+  </si>
+  <si>
+    <t>02:18:45</t>
+  </si>
+  <si>
+    <t>03:57:19</t>
+  </si>
+  <si>
+    <t>22:29:12</t>
+  </si>
+  <si>
+    <t>00:05:10</t>
+  </si>
+  <si>
+    <t>01:42:47</t>
+  </si>
+  <si>
+    <t>03:21:12</t>
+  </si>
+  <si>
+    <t>21:53:50</t>
+  </si>
+  <si>
+    <t>23:29:15</t>
+  </si>
+  <si>
+    <t>01:06:47</t>
+  </si>
+  <si>
+    <t>02:45:04</t>
+  </si>
+  <si>
+    <t>22:53:19</t>
+  </si>
+  <si>
+    <t>00:30:45</t>
+  </si>
+  <si>
+    <t>02:08:55</t>
+  </si>
+  <si>
+    <t>22:17:21</t>
+  </si>
+  <si>
+    <t>23:54:40</t>
   </si>
   <si>
     <t>00:54:07</t>
@@ -430,79 +436,82 @@
     <t>04:09:28</t>
   </si>
   <si>
-    <t>05:46:53</t>
-  </si>
-  <si>
-    <t>00:18:20</t>
-  </si>
-  <si>
-    <t>01:55:56</t>
-  </si>
-  <si>
-    <t>03:33:40</t>
-  </si>
-  <si>
-    <t>05:11:08</t>
-  </si>
-  <si>
-    <t>23:42:31</t>
-  </si>
-  <si>
-    <t>01:20:05</t>
-  </si>
-  <si>
-    <t>02:57:48</t>
-  </si>
-  <si>
-    <t>04:35:19</t>
-  </si>
-  <si>
-    <t>23:06:39</t>
-  </si>
-  <si>
-    <t>00:44:10</t>
-  </si>
-  <si>
-    <t>02:21:53</t>
-  </si>
-  <si>
-    <t>03:59:26</t>
-  </si>
-  <si>
-    <t>22:30:44</t>
-  </si>
-  <si>
-    <t>00:08:11</t>
-  </si>
-  <si>
-    <t>01:45:55</t>
-  </si>
-  <si>
-    <t>03:23:29</t>
-  </si>
-  <si>
-    <t>21:54:46</t>
-  </si>
-  <si>
-    <t>23:32:11</t>
-  </si>
-  <si>
-    <t>01:09:53</t>
-  </si>
-  <si>
-    <t>02:47:30</t>
-  </si>
-  <si>
-    <t>22:56:07</t>
-  </si>
-  <si>
-    <t>01:32:38</t>
-  </si>
-  <si>
-    <t>03:10:48</t>
-  </si>
-  <si>
-    <t>04:48:14</t>
+    <t>05:46:54</t>
+  </si>
+  <si>
+    <t>00:18:22</t>
+  </si>
+  <si>
+    <t>01:55:58</t>
+  </si>
+  <si>
+    <t>03:33:41</t>
+  </si>
+  <si>
+    <t>05:11:09</t>
+  </si>
+  <si>
+    <t>23:42:34</t>
+  </si>
+  <si>
+    <t>01:20:07</t>
+  </si>
+  <si>
+    <t>02:57:51</t>
+  </si>
+  <si>
+    <t>04:35:22</t>
+  </si>
+  <si>
+    <t>23:06:43</t>
+  </si>
+  <si>
+    <t>00:44:14</t>
+  </si>
+  <si>
+    <t>02:21:58</t>
+  </si>
+  <si>
+    <t>03:59:31</t>
+  </si>
+  <si>
+    <t>22:30:50</t>
+  </si>
+  <si>
+    <t>00:08:18</t>
+  </si>
+  <si>
+    <t>01:46:02</t>
+  </si>
+  <si>
+    <t>03:23:37</t>
+  </si>
+  <si>
+    <t>21:54:55</t>
+  </si>
+  <si>
+    <t>23:32:20</t>
+  </si>
+  <si>
+    <t>01:10:03</t>
+  </si>
+  <si>
+    <t>02:47:39</t>
+  </si>
+  <si>
+    <t>22:56:20</t>
+  </si>
+  <si>
+    <t>00:34:01</t>
+  </si>
+  <si>
+    <t>02:11:39</t>
+  </si>
+  <si>
+    <t>22:20:17</t>
+  </si>
+  <si>
+    <t>23:57:57</t>
   </si>
   <si>
     <t>00:56:46</t>
@@ -511,82 +520,85 @@
     <t>02:35:02</t>
   </si>
   <si>
-    <t>04:12:33</t>
+    <t>04:12:34</t>
   </si>
   <si>
     <t>05:47:47</t>
   </si>
   <si>
-    <t>00:20:49</t>
-  </si>
-  <si>
-    <t>01:59:12</t>
-  </si>
-  <si>
-    <t>03:36:48</t>
-  </si>
-  <si>
-    <t>05:12:38</t>
-  </si>
-  <si>
-    <t>23:44:47</t>
-  </si>
-  <si>
-    <t>01:23:19</t>
-  </si>
-  <si>
-    <t>03:00:59</t>
-  </si>
-  <si>
-    <t>04:37:12</t>
-  </si>
-  <si>
-    <t>23:08:39</t>
-  </si>
-  <si>
-    <t>00:47:22</t>
-  </si>
-  <si>
-    <t>02:25:06</t>
-  </si>
-  <si>
-    <t>04:01:37</t>
-  </si>
-  <si>
-    <t>22:32:22</t>
-  </si>
-  <si>
-    <t>00:11:21</t>
-  </si>
-  <si>
-    <t>01:49:10</t>
-  </si>
-  <si>
-    <t>03:25:54</t>
-  </si>
-  <si>
-    <t>21:55:51</t>
-  </si>
-  <si>
-    <t>23:35:16</t>
-  </si>
-  <si>
-    <t>01:13:09</t>
-  </si>
-  <si>
-    <t>02:50:05</t>
-  </si>
-  <si>
-    <t>22:59:08</t>
-  </si>
-  <si>
-    <t>01:35:08</t>
-  </si>
-  <si>
-    <t>03:13:05</t>
-  </si>
-  <si>
-    <t>04:50:37</t>
+    <t>00:20:50</t>
+  </si>
+  <si>
+    <t>01:59:13</t>
+  </si>
+  <si>
+    <t>03:36:50</t>
+  </si>
+  <si>
+    <t>05:12:40</t>
+  </si>
+  <si>
+    <t>23:44:50</t>
+  </si>
+  <si>
+    <t>01:23:21</t>
+  </si>
+  <si>
+    <t>03:01:02</t>
+  </si>
+  <si>
+    <t>04:37:15</t>
+  </si>
+  <si>
+    <t>23:08:43</t>
+  </si>
+  <si>
+    <t>00:47:26</t>
+  </si>
+  <si>
+    <t>02:25:11</t>
+  </si>
+  <si>
+    <t>04:01:42</t>
+  </si>
+  <si>
+    <t>22:32:29</t>
+  </si>
+  <si>
+    <t>00:11:28</t>
+  </si>
+  <si>
+    <t>01:49:17</t>
+  </si>
+  <si>
+    <t>03:26:01</t>
+  </si>
+  <si>
+    <t>21:56:01</t>
+  </si>
+  <si>
+    <t>23:35:26</t>
+  </si>
+  <si>
+    <t>01:13:19</t>
+  </si>
+  <si>
+    <t>02:50:15</t>
+  </si>
+  <si>
+    <t>22:59:21</t>
+  </si>
+  <si>
+    <t>00:37:18</t>
+  </si>
+  <si>
+    <t>02:14:24</t>
+  </si>
+  <si>
+    <t>22:23:13</t>
+  </si>
+  <si>
+    <t>00:01:14</t>
   </si>
   <si>
     <t>00:59:20</t>
@@ -601,78 +613,84 @@
     <t>05:51:28</t>
   </si>
   <si>
-    <t>00:23:28</t>
-  </si>
-  <si>
-    <t>02:01:29</t>
-  </si>
-  <si>
-    <t>03:39:08</t>
-  </si>
-  <si>
-    <t>05:15:51</t>
-  </si>
-  <si>
-    <t>23:47:33</t>
-  </si>
-  <si>
-    <t>01:25:36</t>
-  </si>
-  <si>
-    <t>03:03:18</t>
-  </si>
-  <si>
-    <t>04:40:10</t>
-  </si>
-  <si>
-    <t>23:11:34</t>
-  </si>
-  <si>
-    <t>00:49:40</t>
-  </si>
-  <si>
-    <t>02:27:24</t>
-  </si>
-  <si>
-    <t>04:04:24</t>
-  </si>
-  <si>
-    <t>22:35:30</t>
-  </si>
-  <si>
-    <t>00:13:41</t>
-  </si>
-  <si>
-    <t>01:51:27</t>
-  </si>
-  <si>
-    <t>03:28:34</t>
-  </si>
-  <si>
-    <t>21:59:23</t>
-  </si>
-  <si>
-    <t>23:37:38</t>
-  </si>
-  <si>
-    <t>01:15:26</t>
-  </si>
-  <si>
-    <t>02:52:39</t>
-  </si>
-  <si>
-    <t>23:01:31</t>
+    <t>00:23:30</t>
+  </si>
+  <si>
+    <t>02:01:31</t>
+  </si>
+  <si>
+    <t>03:39:10</t>
+  </si>
+  <si>
+    <t>05:15:53</t>
+  </si>
+  <si>
+    <t>23:47:36</t>
+  </si>
+  <si>
+    <t>01:25:39</t>
+  </si>
+  <si>
+    <t>03:03:21</t>
+  </si>
+  <si>
+    <t>04:40:13</t>
+  </si>
+  <si>
+    <t>23:11:38</t>
+  </si>
+  <si>
+    <t>00:49:45</t>
+  </si>
+  <si>
+    <t>02:27:29</t>
+  </si>
+  <si>
+    <t>04:04:29</t>
+  </si>
+  <si>
+    <t>22:35:37</t>
+  </si>
+  <si>
+    <t>00:13:48</t>
+  </si>
+  <si>
+    <t>01:51:34</t>
+  </si>
+  <si>
+    <t>03:28:42</t>
+  </si>
+  <si>
+    <t>21:59:33</t>
+  </si>
+  <si>
+    <t>23:37:48</t>
+  </si>
+  <si>
+    <t>01:15:36</t>
+  </si>
+  <si>
+    <t>02:52:50</t>
+  </si>
+  <si>
+    <t>23:01:44</t>
+  </si>
+  <si>
+    <t>00:39:35</t>
+  </si>
+  <si>
+    <t>02:16:54</t>
+  </si>
+  <si>
+    <t>22:25:38</t>
+  </si>
+  <si>
+    <t>00:03:30</t>
   </si>
   <si>
     <t>0°</t>
   </si>
   <si>
-    <t>6°</t>
-  </si>
-  <si>
-    <t>25°</t>
-  </si>
-  <si>
     <t>18°</t>
   </si>
   <si>
@@ -691,34 +709,28 @@
     <t>7°</t>
   </si>
   <si>
-    <t>03:11:40</t>
-  </si>
-  <si>
-    <t>04:45:23</t>
-  </si>
-  <si>
     <t>04:11:15</t>
   </si>
   <si>
-    <t>05:44:58</t>
-  </si>
-  <si>
-    <t>03:37:06</t>
-  </si>
-  <si>
-    <t>05:10:49</t>
-  </si>
-  <si>
-    <t>03:02:56</t>
-  </si>
-  <si>
-    <t>04:36:40</t>
-  </si>
-  <si>
-    <t>04:02:30</t>
-  </si>
-  <si>
-    <t>03:28:22</t>
+    <t>05:44:59</t>
+  </si>
+  <si>
+    <t>03:37:07</t>
+  </si>
+  <si>
+    <t>05:10:51</t>
+  </si>
+  <si>
+    <t>03:02:59</t>
+  </si>
+  <si>
+    <t>04:36:42</t>
+  </si>
+  <si>
+    <t>04:02:35</t>
+  </si>
+  <si>
+    <t>03:28:29</t>
   </si>
   <si>
     <t>B</t>
@@ -770,7 +782,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -785,7 +797,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF0B070"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5E92CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF558CC8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6AD26A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF77A3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF0707F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88AED8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90B4DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8F4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,55 +857,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF558CC8"/>
+        <fgColor rgb="FF80A9D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2CBE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6EEF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC4D7EC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5E92CB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6E9DD0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF77A3D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99BADE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF80A9D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4E2F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6EEF7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,19 +899,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8F4"/>
+        <fgColor rgb="FFEEF3F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB2CBE6"/>
+        <fgColor rgb="FFCCDCEE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF99BADE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6E9DD0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,31 +929,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA2C0E1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCDCEE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF3F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF90B4DB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF88AED8"/>
+        <fgColor rgb="FFD4E2F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,7 +970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1035,11 +1053,14 @@
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -1119,6 +1140,32 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1410,7 +1457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1422,11 +1469,11 @@
     <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
     <col min="5" max="8" width="14.28515625" style="3" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" style="4" customWidth="1"/>
     <col min="13" max="13" width="7.7109375" style="3" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" style="1" customWidth="1"/>
@@ -1494,49 +1541,49 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L2" s="4">
-        <v>-50.9</v>
+        <v>-55.2</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="O2" s="6">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="P2" s="7">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="Q2" s="8">
         <v>0</v>
@@ -1547,111 +1594,111 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2">
         <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="L3" s="4">
-        <v>-36.4</v>
+        <v>-42</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O3" s="6">
-        <v>91</v>
-      </c>
-      <c r="P3" s="9">
-        <v>66</v>
+        <v>242</v>
+      </c>
+      <c r="O3" s="9">
+        <v>12</v>
+      </c>
+      <c r="P3" s="7">
+        <v>6</v>
       </c>
       <c r="Q3" s="8">
-        <v>2</v>
-      </c>
-      <c r="R3" s="10">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L4" s="4">
+        <v>-26.6</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="O4" s="6">
         <v>18</v>
       </c>
-      <c r="B4" s="2">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="L4" s="4">
-        <v>-21.1</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="O4" s="6">
-        <v>86</v>
-      </c>
-      <c r="P4" s="7">
-        <v>60</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>0</v>
+      <c r="P4" s="10">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>18</v>
       </c>
       <c r="R4" s="8">
         <v>0</v>
@@ -1659,55 +1706,55 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="L5" s="4">
-        <v>-55.2</v>
+        <v>-11.7</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O5" s="6">
-        <v>43</v>
-      </c>
-      <c r="P5" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>0</v>
+        <v>244</v>
+      </c>
+      <c r="O5" s="11">
+        <v>34</v>
+      </c>
+      <c r="P5" s="12">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>34</v>
       </c>
       <c r="R5" s="8">
         <v>0</v>
@@ -1715,671 +1762,671 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L6" s="4">
-        <v>-42</v>
+        <v>-58.6</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O6" s="6">
-        <v>79</v>
-      </c>
-      <c r="P6" s="12">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>42</v>
-      </c>
-      <c r="R6" s="8">
-        <v>0</v>
+        <v>242</v>
+      </c>
+      <c r="O6" s="11">
+        <v>94</v>
+      </c>
+      <c r="P6" s="14">
+        <v>82</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>62</v>
+      </c>
+      <c r="R6" s="16">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>227</v>
+        <v>84</v>
       </c>
       <c r="L7" s="4">
-        <v>-26.6</v>
+        <v>-47.2</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="O7" s="6">
-        <v>74</v>
-      </c>
-      <c r="P7" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>62</v>
-      </c>
-      <c r="R7" s="8">
-        <v>0</v>
+        <v>242</v>
+      </c>
+      <c r="O7" s="11">
+        <v>97</v>
+      </c>
+      <c r="P7" s="14">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>59</v>
+      </c>
+      <c r="R7" s="17">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L8" s="4">
-        <v>-11.7</v>
+        <v>-32.2</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="O8" s="6">
-        <v>86</v>
-      </c>
-      <c r="P8" s="14">
-        <v>24</v>
-      </c>
-      <c r="Q8" s="15">
-        <v>76</v>
-      </c>
-      <c r="R8" s="8">
-        <v>0</v>
+        <v>242</v>
+      </c>
+      <c r="O8" s="11">
+        <v>100</v>
+      </c>
+      <c r="P8" s="18">
+        <v>85</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>100</v>
+      </c>
+      <c r="R8" s="19">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>83</v>
+        <v>234</v>
       </c>
       <c r="L9" s="4">
-        <v>-58.6</v>
+        <v>-17</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O9" s="6">
-        <v>91</v>
-      </c>
-      <c r="P9" s="16">
-        <v>83</v>
-      </c>
-      <c r="Q9" s="17">
-        <v>51</v>
-      </c>
-      <c r="R9" s="18">
-        <v>8</v>
+        <v>244</v>
+      </c>
+      <c r="O9" s="11">
+        <v>100</v>
+      </c>
+      <c r="P9" s="19">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>100</v>
+      </c>
+      <c r="R9" s="19">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" s="4">
+        <v>-60.7</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="O10" s="11">
+        <v>98</v>
+      </c>
+      <c r="P10" s="18">
         <v>84</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="4">
-        <v>-47.2</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O10" s="6">
-        <v>94</v>
-      </c>
-      <c r="P10" s="19">
-        <v>82</v>
-      </c>
       <c r="Q10" s="20">
-        <v>55</v>
-      </c>
-      <c r="R10" s="11">
-        <v>13</v>
+        <v>65</v>
+      </c>
+      <c r="R10" s="16">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>229</v>
+        <v>88</v>
       </c>
       <c r="L11" s="4">
-        <v>-32.2</v>
+        <v>-52</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O11" s="6">
-        <v>99</v>
-      </c>
-      <c r="P11" s="19">
-        <v>79</v>
+        <v>242</v>
+      </c>
+      <c r="O11" s="11">
+        <v>95</v>
+      </c>
+      <c r="P11" s="18">
+        <v>87</v>
       </c>
       <c r="Q11" s="21">
-        <v>98</v>
-      </c>
-      <c r="R11" s="7">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="R11" s="22">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="L12" s="4">
-        <v>-17</v>
+        <v>-37.8</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="O12" s="6">
-        <v>100</v>
-      </c>
-      <c r="P12" s="22">
-        <v>94</v>
-      </c>
-      <c r="Q12" s="21">
-        <v>100</v>
-      </c>
-      <c r="R12" s="21">
-        <v>100</v>
+        <v>242</v>
+      </c>
+      <c r="O12" s="11">
+        <v>95</v>
+      </c>
+      <c r="P12" s="18">
+        <v>87</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>58</v>
+      </c>
+      <c r="R12" s="22">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>87</v>
+        <v>236</v>
       </c>
       <c r="L13" s="4">
-        <v>-60.7</v>
+        <v>-22.5</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O13" s="6">
-        <v>93</v>
-      </c>
-      <c r="P13" s="15">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="23">
-        <v>44</v>
-      </c>
-      <c r="R13" s="24">
-        <v>70</v>
+        <v>244</v>
+      </c>
+      <c r="O13" s="11">
+        <v>97</v>
+      </c>
+      <c r="P13" s="23">
+        <v>92</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>81</v>
+      </c>
+      <c r="R13" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L14" s="4">
-        <v>-52</v>
+        <v>-61.2</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O14" s="6">
-        <v>94</v>
-      </c>
-      <c r="P14" s="19">
-        <v>80</v>
-      </c>
-      <c r="Q14" s="23">
-        <v>43</v>
-      </c>
-      <c r="R14" s="24">
-        <v>72</v>
+        <v>244</v>
+      </c>
+      <c r="O14" s="11">
+        <v>82</v>
+      </c>
+      <c r="P14" s="24">
+        <v>69</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>60</v>
+      </c>
+      <c r="R14" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>231</v>
+        <v>92</v>
       </c>
       <c r="L15" s="4">
-        <v>-37.8</v>
+        <v>-56.1</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O15" s="6">
-        <v>100</v>
+        <v>242</v>
+      </c>
+      <c r="O15" s="11">
+        <v>84</v>
       </c>
       <c r="P15" s="25">
-        <v>89</v>
-      </c>
-      <c r="Q15" s="22">
-        <v>97</v>
-      </c>
-      <c r="R15" s="20">
-        <v>57</v>
+        <v>42</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>59</v>
+      </c>
+      <c r="R15" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>232</v>
+        <v>93</v>
       </c>
       <c r="L16" s="4">
-        <v>-22.5</v>
+        <v>-43.3</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="O16" s="6">
-        <v>99</v>
+        <v>242</v>
+      </c>
+      <c r="O16" s="11">
+        <v>47</v>
       </c>
       <c r="P16" s="25">
-        <v>92</v>
-      </c>
-      <c r="Q16" s="21">
-        <v>98</v>
-      </c>
-      <c r="R16" s="26">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>2</v>
+      </c>
+      <c r="R16" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>91</v>
+        <v>237</v>
       </c>
       <c r="L17" s="4">
-        <v>-61.2</v>
+        <v>-28</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O17" s="6">
-        <v>53</v>
-      </c>
-      <c r="P17" s="26">
-        <v>34</v>
-      </c>
-      <c r="Q17" s="17">
-        <v>48</v>
+        <v>242</v>
+      </c>
+      <c r="O17" s="11">
+        <v>52</v>
+      </c>
+      <c r="P17" s="25">
+        <v>39</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>3</v>
       </c>
       <c r="R17" s="8">
         <v>0</v>
@@ -2387,55 +2434,55 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L18" s="4">
-        <v>-56.1</v>
+        <v>-59.9</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="O18" s="6">
-        <v>25</v>
-      </c>
-      <c r="P18" s="14">
-        <v>25</v>
-      </c>
-      <c r="Q18" s="14">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="P18" s="22">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>0</v>
       </c>
       <c r="R18" s="8">
         <v>0</v>
@@ -2443,55 +2490,55 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L19" s="4">
-        <v>-43.3</v>
+        <v>-59.1</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="O19" s="6">
-        <v>20</v>
-      </c>
-      <c r="P19" s="12">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="11">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="P19" s="26">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>0</v>
       </c>
       <c r="R19" s="8">
         <v>0</v>
@@ -2499,566 +2546,677 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>233</v>
+        <v>97</v>
       </c>
       <c r="L20" s="4">
-        <v>-28.1</v>
+        <v>-48.4</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="O20" s="6">
-        <v>22</v>
-      </c>
-      <c r="P20" s="12">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="P20" s="22">
+        <v>11</v>
       </c>
       <c r="Q20" s="8">
         <v>0</v>
       </c>
-      <c r="R20" s="8">
-        <v>0</v>
+      <c r="R20" s="26">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>95</v>
+        <v>238</v>
       </c>
       <c r="L21" s="4">
-        <v>-59.9</v>
+        <v>-33.6</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O21" s="6">
-        <v>94</v>
-      </c>
-      <c r="P21" s="17">
-        <v>49</v>
-      </c>
-      <c r="Q21" s="11">
-        <v>15</v>
-      </c>
-      <c r="R21" s="20">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="P21" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>0</v>
+      </c>
+      <c r="R21" s="21">
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L22" s="4">
-        <v>-59.1</v>
+        <v>-57.1</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O22" s="6">
-        <v>94</v>
-      </c>
-      <c r="P22" s="17">
-        <v>50</v>
-      </c>
-      <c r="Q22" s="10">
-        <v>5</v>
-      </c>
-      <c r="R22" s="27">
-        <v>30</v>
+        <v>244</v>
+      </c>
+      <c r="O22" s="11">
+        <v>100</v>
+      </c>
+      <c r="P22" s="19">
+        <v>99</v>
+      </c>
+      <c r="Q22" s="19">
+        <v>98</v>
+      </c>
+      <c r="R22" s="19">
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L23" s="4">
-        <v>-48.4</v>
+        <v>-60.6</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O23" s="6">
+        <v>242</v>
+      </c>
+      <c r="O23" s="11">
+        <v>100</v>
+      </c>
+      <c r="P23" s="19">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="27">
         <v>95</v>
       </c>
-      <c r="P23" s="7">
-        <v>58</v>
-      </c>
-      <c r="Q23" s="18">
-        <v>10</v>
-      </c>
-      <c r="R23" s="13">
-        <v>40</v>
+      <c r="R23" s="28">
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>234</v>
+        <v>101</v>
       </c>
       <c r="L24" s="4">
-        <v>-33.7</v>
+        <v>-53</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O24" s="6">
-        <v>98</v>
-      </c>
-      <c r="P24" s="9">
-        <v>67</v>
-      </c>
-      <c r="Q24" s="18">
-        <v>10</v>
-      </c>
-      <c r="R24" s="20">
-        <v>55</v>
+        <v>242</v>
+      </c>
+      <c r="O24" s="11">
+        <v>100</v>
+      </c>
+      <c r="P24" s="19">
+        <v>99</v>
+      </c>
+      <c r="Q24" s="20">
+        <v>65</v>
+      </c>
+      <c r="R24" s="15">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L25" s="4">
+        <v>-39.3</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="O25" s="11">
         <v>99</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L25" s="4">
-        <v>-57.1</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="O25" s="6">
-        <v>100</v>
-      </c>
-      <c r="P25" s="15">
-        <v>76</v>
-      </c>
-      <c r="Q25" s="21">
-        <v>100</v>
+      <c r="P25" s="27">
+        <v>97</v>
+      </c>
+      <c r="Q25" s="25">
+        <v>39</v>
       </c>
       <c r="R25" s="21">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L26" s="4">
+        <v>-60.5</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="O26" s="11">
         <v>100</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="K26" s="1" t="s">
+      <c r="P26" s="27">
+        <v>93</v>
+      </c>
+      <c r="Q26" s="27">
+        <v>97</v>
+      </c>
+      <c r="R26" s="19">
         <v>100</v>
-      </c>
-      <c r="L26" s="4">
-        <v>-60.6</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O26" s="6">
-        <v>92</v>
-      </c>
-      <c r="P26" s="15">
-        <v>75</v>
-      </c>
-      <c r="Q26" s="17">
-        <v>50</v>
-      </c>
-      <c r="R26" s="13">
-        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L27" s="4">
-        <v>-53</v>
+        <v>-56.7</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O27" s="6">
-        <v>93</v>
-      </c>
-      <c r="P27" s="19">
-        <v>79</v>
-      </c>
-      <c r="Q27" s="23">
-        <v>47</v>
-      </c>
-      <c r="R27" s="14">
-        <v>26</v>
+        <v>242</v>
+      </c>
+      <c r="O27" s="11">
+        <v>100</v>
+      </c>
+      <c r="P27" s="27">
+        <v>95</v>
+      </c>
+      <c r="Q27" s="27">
+        <v>94</v>
+      </c>
+      <c r="R27" s="19">
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L28" s="4">
-        <v>-39.3</v>
+        <v>-44.6</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O28" s="6">
-        <v>96</v>
-      </c>
-      <c r="P28" s="19">
-        <v>81</v>
-      </c>
-      <c r="Q28" s="7">
-        <v>60</v>
-      </c>
-      <c r="R28" s="13">
-        <v>39</v>
+        <v>242</v>
+      </c>
+      <c r="O28" s="11">
+        <v>99</v>
+      </c>
+      <c r="P28" s="23">
+        <v>92</v>
+      </c>
+      <c r="Q28" s="23">
+        <v>92</v>
+      </c>
+      <c r="R28" s="20">
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L29" s="4">
-        <v>-60.5</v>
+        <v>-58.7</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O29" s="6">
-        <v>100</v>
-      </c>
-      <c r="P29" s="16">
-        <v>86</v>
-      </c>
-      <c r="Q29" s="22">
-        <v>96</v>
-      </c>
-      <c r="R29" s="21">
-        <v>100</v>
+        <v>242</v>
+      </c>
+      <c r="O29" s="11">
+        <v>99</v>
+      </c>
+      <c r="P29" s="27">
+        <v>94</v>
+      </c>
+      <c r="Q29" s="24">
+        <v>71</v>
+      </c>
+      <c r="R29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2">
+        <v>33</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L30" s="4">
+        <v>-59.3</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="O30" s="11">
+        <v>99</v>
+      </c>
+      <c r="P30" s="27">
+        <v>94</v>
+      </c>
+      <c r="Q30" s="24">
+        <v>68</v>
+      </c>
+      <c r="R30" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L29">
+  <conditionalFormatting sqref="A2:A30">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>RIGHT($A2,4)="--01"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B30">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>RIGHT($A2,4)="--01"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C30">
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>RIGHT($A2,4)="--01"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D30">
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>RIGHT($A2,4)="--01"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="expression" dxfId="9" priority="13">
+      <formula>RIGHT($A2,4)="--01"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30">
+    <cfRule type="expression" dxfId="9" priority="14">
+      <formula>RIGHT($A2,4)="--01"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G30">
+    <cfRule type="expression" dxfId="9" priority="15">
+      <formula>RIGHT($A2,4)="--01"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H30">
+    <cfRule type="expression" dxfId="9" priority="16">
+      <formula>RIGHT($A2,4)="--01"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I30">
+    <cfRule type="expression" dxfId="8" priority="17">
+      <formula>RIGHT($A2,4)="--01"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J30">
+    <cfRule type="expression" dxfId="9" priority="18">
+      <formula>RIGHT($A2,4)="--01"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K30">
+    <cfRule type="expression" dxfId="8" priority="19">
+      <formula>RIGHT($A2,4)="--01"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L30">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -3073,8 +3231,16 @@
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>-6</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="8" priority="20">
+      <formula>RIGHT($A2,4)="--01"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N29">
+  <conditionalFormatting sqref="M2:M30">
+    <cfRule type="expression" dxfId="9" priority="21">
+      <formula>RIGHT($A2,4)="--01"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N30">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>
@@ -3087,6 +3253,29 @@
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"4"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="8" priority="22">
+      <formula>RIGHT($A2,4)="--01"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O30">
+    <cfRule type="expression" dxfId="9" priority="23">
+      <formula>RIGHT($A2,4)="--01"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P30">
+    <cfRule type="expression" dxfId="9" priority="24">
+      <formula>RIGHT($A2,4)="--01"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q30">
+    <cfRule type="expression" dxfId="9" priority="25">
+      <formula>RIGHT($A2,4)="--01"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R30">
+    <cfRule type="expression" dxfId="9" priority="26">
+      <formula>RIGHT($A2,4)="--01"</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="230">
   <si>
     <t>Datum</t>
   </si>
@@ -70,18 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>20260108--01</t>
-  </si>
-  <si>
-    <t>20260108--02</t>
-  </si>
-  <si>
-    <t>20260108--03</t>
-  </si>
-  <si>
-    <t>20260108--04</t>
-  </si>
-  <si>
     <t>20260109--01</t>
   </si>
   <si>
@@ -157,292 +145,274 @@
     <t>20260114--04</t>
   </si>
   <si>
-    <t>05:17</t>
+    <t>20260115--01</t>
+  </si>
+  <si>
+    <t>20260115--02</t>
+  </si>
+  <si>
+    <t>20260115--03</t>
+  </si>
+  <si>
+    <t>04:57</t>
+  </si>
+  <si>
+    <t>06:32</t>
+  </si>
+  <si>
+    <t>06:17</t>
+  </si>
+  <si>
+    <t>03:01</t>
+  </si>
+  <si>
+    <t>04:31</t>
+  </si>
+  <si>
+    <t>06:28</t>
+  </si>
+  <si>
+    <t>06:23</t>
+  </si>
+  <si>
+    <t>03:48</t>
+  </si>
+  <si>
+    <t>04:00</t>
+  </si>
+  <si>
+    <t>06:24</t>
+  </si>
+  <si>
+    <t>06:27</t>
+  </si>
+  <si>
+    <t>04:22</t>
+  </si>
+  <si>
+    <t>03:16</t>
+  </si>
+  <si>
+    <t>06:29</t>
+  </si>
+  <si>
+    <t>04:49</t>
+  </si>
+  <si>
+    <t>02:10</t>
+  </si>
+  <si>
+    <t>06:10</t>
+  </si>
+  <si>
+    <t>05:11</t>
+  </si>
+  <si>
+    <t>06:02</t>
   </si>
   <si>
     <t>06:34</t>
   </si>
   <si>
-    <t>06:11</t>
-  </si>
-  <si>
-    <t>01:46</t>
-  </si>
-  <si>
-    <t>04:57</t>
-  </si>
-  <si>
-    <t>06:31</t>
-  </si>
-  <si>
-    <t>06:17</t>
-  </si>
-  <si>
-    <t>03:01</t>
-  </si>
-  <si>
-    <t>04:32</t>
-  </si>
-  <si>
-    <t>06:28</t>
-  </si>
-  <si>
-    <t>06:22</t>
-  </si>
-  <si>
-    <t>03:48</t>
-  </si>
-  <si>
-    <t>03:59</t>
-  </si>
-  <si>
-    <t>06:23</t>
-  </si>
-  <si>
-    <t>06:26</t>
-  </si>
-  <si>
-    <t>04:23</t>
-  </si>
-  <si>
-    <t>03:17</t>
-  </si>
-  <si>
-    <t>06:18</t>
-  </si>
-  <si>
-    <t>06:30</t>
-  </si>
-  <si>
-    <t>04:49</t>
-  </si>
-  <si>
-    <t>02:11</t>
-  </si>
-  <si>
-    <t>06:32</t>
-  </si>
-  <si>
-    <t>05:11</t>
-  </si>
-  <si>
-    <t>06:02</t>
+    <t>05:28</t>
+  </si>
+  <si>
+    <t>05:51</t>
+  </si>
+  <si>
+    <t>-1434:33</t>
+  </si>
+  <si>
+    <t>05:43</t>
+  </si>
+  <si>
+    <t>05:38</t>
   </si>
   <si>
     <t>06:33</t>
   </si>
   <si>
-    <t>05:29</t>
-  </si>
-  <si>
-    <t>05:52</t>
-  </si>
-  <si>
-    <t>-1434:34</t>
-  </si>
-  <si>
     <t>00:00</t>
   </si>
   <si>
-    <t>01:19</t>
-  </si>
-  <si>
     <t>01:49</t>
   </si>
   <si>
     <t>00:33</t>
   </si>
   <si>
-    <t>00:48:55</t>
-  </si>
-  <si>
-    <t>02:26:12</t>
-  </si>
-  <si>
-    <t>04:04:02</t>
-  </si>
-  <si>
-    <t>05:42:19</t>
-  </si>
-  <si>
     <t>00:13:15</t>
   </si>
   <si>
     <t>01:50:25</t>
   </si>
   <si>
-    <t>03:28:13</t>
-  </si>
-  <si>
-    <t>05:06:25</t>
-  </si>
-  <si>
-    <t>23:37:33</t>
-  </si>
-  <si>
-    <t>01:14:36</t>
-  </si>
-  <si>
-    <t>02:52:21</t>
-  </si>
-  <si>
-    <t>04:30:29</t>
-  </si>
-  <si>
-    <t>23:01:49</t>
-  </si>
-  <si>
-    <t>00:38:44</t>
-  </si>
-  <si>
-    <t>02:16:27</t>
-  </si>
-  <si>
-    <t>03:54:31</t>
-  </si>
-  <si>
-    <t>22:26:05</t>
-  </si>
-  <si>
-    <t>00:02:51</t>
-  </si>
-  <si>
-    <t>01:40:30</t>
-  </si>
-  <si>
-    <t>03:18:31</t>
-  </si>
-  <si>
-    <t>21:50:19</t>
-  </si>
-  <si>
-    <t>23:26:55</t>
-  </si>
-  <si>
-    <t>01:04:30</t>
-  </si>
-  <si>
-    <t>02:42:29</t>
-  </si>
-  <si>
-    <t>22:50:56</t>
-  </si>
-  <si>
-    <t>00:28:28</t>
-  </si>
-  <si>
-    <t>02:06:24</t>
-  </si>
-  <si>
-    <t>22:14:56</t>
-  </si>
-  <si>
-    <t>23:52:24</t>
-  </si>
-  <si>
-    <t>00:51:29</t>
-  </si>
-  <si>
-    <t>02:28:28</t>
-  </si>
-  <si>
-    <t>04:06:23</t>
-  </si>
-  <si>
-    <t>05:46:01</t>
+    <t>03:28:12</t>
+  </si>
+  <si>
+    <t>05:06:24</t>
+  </si>
+  <si>
+    <t>23:37:32</t>
+  </si>
+  <si>
+    <t>01:14:34</t>
+  </si>
+  <si>
+    <t>02:52:19</t>
+  </si>
+  <si>
+    <t>04:30:27</t>
+  </si>
+  <si>
+    <t>23:01:47</t>
+  </si>
+  <si>
+    <t>00:38:42</t>
+  </si>
+  <si>
+    <t>02:16:24</t>
+  </si>
+  <si>
+    <t>03:54:28</t>
+  </si>
+  <si>
+    <t>22:26:01</t>
+  </si>
+  <si>
+    <t>00:02:46</t>
+  </si>
+  <si>
+    <t>01:40:25</t>
+  </si>
+  <si>
+    <t>03:18:26</t>
+  </si>
+  <si>
+    <t>21:50:13</t>
+  </si>
+  <si>
+    <t>23:26:48</t>
+  </si>
+  <si>
+    <t>01:04:24</t>
+  </si>
+  <si>
+    <t>02:42:22</t>
+  </si>
+  <si>
+    <t>22:50:47</t>
+  </si>
+  <si>
+    <t>00:28:19</t>
+  </si>
+  <si>
+    <t>02:06:15</t>
+  </si>
+  <si>
+    <t>22:14:44</t>
+  </si>
+  <si>
+    <t>23:52:11</t>
+  </si>
+  <si>
+    <t>01:30:05</t>
+  </si>
+  <si>
+    <t>21:38:38</t>
+  </si>
+  <si>
+    <t>23:16:01</t>
   </si>
   <si>
     <t>00:15:53</t>
   </si>
   <si>
-    <t>01:52:42</t>
-  </si>
-  <si>
-    <t>03:30:33</t>
-  </si>
-  <si>
-    <t>05:09:39</t>
-  </si>
-  <si>
-    <t>23:40:18</t>
-  </si>
-  <si>
-    <t>01:16:53</t>
-  </si>
-  <si>
-    <t>02:54:40</t>
-  </si>
-  <si>
-    <t>04:33:27</t>
-  </si>
-  <si>
-    <t>23:04:44</t>
-  </si>
-  <si>
-    <t>00:41:03</t>
-  </si>
-  <si>
-    <t>02:18:45</t>
-  </si>
-  <si>
-    <t>03:57:19</t>
-  </si>
-  <si>
-    <t>22:29:12</t>
-  </si>
-  <si>
-    <t>00:05:10</t>
-  </si>
-  <si>
-    <t>01:42:47</t>
-  </si>
-  <si>
-    <t>03:21:12</t>
-  </si>
-  <si>
-    <t>21:53:50</t>
-  </si>
-  <si>
-    <t>23:29:15</t>
-  </si>
-  <si>
-    <t>01:06:47</t>
-  </si>
-  <si>
-    <t>02:45:04</t>
-  </si>
-  <si>
-    <t>22:53:19</t>
-  </si>
-  <si>
-    <t>00:30:45</t>
-  </si>
-  <si>
-    <t>02:08:55</t>
-  </si>
-  <si>
-    <t>22:17:21</t>
-  </si>
-  <si>
-    <t>23:54:40</t>
-  </si>
-  <si>
-    <t>00:54:07</t>
-  </si>
-  <si>
-    <t>02:31:45</t>
-  </si>
-  <si>
-    <t>04:09:28</t>
-  </si>
-  <si>
-    <t>05:46:54</t>
-  </si>
-  <si>
-    <t>00:18:22</t>
-  </si>
-  <si>
-    <t>01:55:58</t>
+    <t>01:52:41</t>
+  </si>
+  <si>
+    <t>03:30:32</t>
+  </si>
+  <si>
+    <t>05:09:38</t>
+  </si>
+  <si>
+    <t>23:40:17</t>
+  </si>
+  <si>
+    <t>01:16:52</t>
+  </si>
+  <si>
+    <t>02:54:38</t>
+  </si>
+  <si>
+    <t>04:33:26</t>
+  </si>
+  <si>
+    <t>23:04:41</t>
+  </si>
+  <si>
+    <t>00:41:00</t>
+  </si>
+  <si>
+    <t>02:18:42</t>
+  </si>
+  <si>
+    <t>03:57:17</t>
+  </si>
+  <si>
+    <t>22:29:08</t>
+  </si>
+  <si>
+    <t>00:05:06</t>
+  </si>
+  <si>
+    <t>01:42:43</t>
+  </si>
+  <si>
+    <t>03:21:07</t>
+  </si>
+  <si>
+    <t>21:53:44</t>
+  </si>
+  <si>
+    <t>23:29:09</t>
+  </si>
+  <si>
+    <t>01:06:40</t>
+  </si>
+  <si>
+    <t>02:44:57</t>
+  </si>
+  <si>
+    <t>22:53:10</t>
+  </si>
+  <si>
+    <t>00:30:35</t>
+  </si>
+  <si>
+    <t>02:08:46</t>
+  </si>
+  <si>
+    <t>22:17:09</t>
+  </si>
+  <si>
+    <t>23:54:28</t>
+  </si>
+  <si>
+    <t>01:32:32</t>
+  </si>
+  <si>
+    <t>21:41:06</t>
+  </si>
+  <si>
+    <t>23:18:17</t>
+  </si>
+  <si>
+    <t>00:18:21</t>
+  </si>
+  <si>
+    <t>01:55:57</t>
   </si>
   <si>
     <t>03:33:41</t>
@@ -451,79 +421,76 @@
     <t>05:11:09</t>
   </si>
   <si>
-    <t>23:42:34</t>
-  </si>
-  <si>
-    <t>01:20:07</t>
-  </si>
-  <si>
-    <t>02:57:51</t>
-  </si>
-  <si>
-    <t>04:35:22</t>
-  </si>
-  <si>
-    <t>23:06:43</t>
-  </si>
-  <si>
-    <t>00:44:14</t>
-  </si>
-  <si>
-    <t>02:21:58</t>
-  </si>
-  <si>
-    <t>03:59:31</t>
-  </si>
-  <si>
-    <t>22:30:50</t>
-  </si>
-  <si>
-    <t>00:08:18</t>
-  </si>
-  <si>
-    <t>01:46:02</t>
-  </si>
-  <si>
-    <t>03:23:37</t>
-  </si>
-  <si>
-    <t>21:54:55</t>
-  </si>
-  <si>
-    <t>23:32:20</t>
-  </si>
-  <si>
-    <t>01:10:03</t>
-  </si>
-  <si>
-    <t>02:47:39</t>
-  </si>
-  <si>
-    <t>22:56:20</t>
-  </si>
-  <si>
-    <t>00:34:01</t>
-  </si>
-  <si>
-    <t>02:11:39</t>
-  </si>
-  <si>
-    <t>22:20:17</t>
-  </si>
-  <si>
-    <t>23:57:57</t>
-  </si>
-  <si>
-    <t>00:56:46</t>
-  </si>
-  <si>
-    <t>02:35:02</t>
-  </si>
-  <si>
-    <t>04:12:34</t>
-  </si>
-  <si>
-    <t>05:47:47</t>
+    <t>23:42:32</t>
+  </si>
+  <si>
+    <t>01:20:06</t>
+  </si>
+  <si>
+    <t>02:57:50</t>
+  </si>
+  <si>
+    <t>04:35:20</t>
+  </si>
+  <si>
+    <t>23:06:41</t>
+  </si>
+  <si>
+    <t>00:44:11</t>
+  </si>
+  <si>
+    <t>02:21:55</t>
+  </si>
+  <si>
+    <t>03:59:28</t>
+  </si>
+  <si>
+    <t>22:30:46</t>
+  </si>
+  <si>
+    <t>00:08:14</t>
+  </si>
+  <si>
+    <t>01:45:57</t>
+  </si>
+  <si>
+    <t>03:23:32</t>
+  </si>
+  <si>
+    <t>21:54:49</t>
+  </si>
+  <si>
+    <t>23:32:14</t>
+  </si>
+  <si>
+    <t>01:09:56</t>
+  </si>
+  <si>
+    <t>02:47:33</t>
+  </si>
+  <si>
+    <t>22:56:10</t>
+  </si>
+  <si>
+    <t>00:33:52</t>
+  </si>
+  <si>
+    <t>02:11:30</t>
+  </si>
+  <si>
+    <t>22:20:04</t>
+  </si>
+  <si>
+    <t>23:57:44</t>
+  </si>
+  <si>
+    <t>01:35:23</t>
+  </si>
+  <si>
+    <t>21:43:55</t>
+  </si>
+  <si>
+    <t>23:21:33</t>
   </si>
   <si>
     <t>00:20:50</t>
@@ -532,171 +499,171 @@
     <t>01:59:13</t>
   </si>
   <si>
-    <t>03:36:50</t>
-  </si>
-  <si>
-    <t>05:12:40</t>
-  </si>
-  <si>
-    <t>23:44:50</t>
-  </si>
-  <si>
-    <t>01:23:21</t>
-  </si>
-  <si>
-    <t>03:01:02</t>
-  </si>
-  <si>
-    <t>04:37:15</t>
-  </si>
-  <si>
-    <t>23:08:43</t>
-  </si>
-  <si>
-    <t>00:47:26</t>
-  </si>
-  <si>
-    <t>02:25:11</t>
-  </si>
-  <si>
-    <t>04:01:42</t>
-  </si>
-  <si>
-    <t>22:32:29</t>
-  </si>
-  <si>
-    <t>00:11:28</t>
-  </si>
-  <si>
-    <t>01:49:17</t>
-  </si>
-  <si>
-    <t>03:26:01</t>
-  </si>
-  <si>
-    <t>21:56:01</t>
-  </si>
-  <si>
-    <t>23:35:26</t>
-  </si>
-  <si>
-    <t>01:13:19</t>
-  </si>
-  <si>
-    <t>02:50:15</t>
-  </si>
-  <si>
-    <t>22:59:21</t>
-  </si>
-  <si>
-    <t>00:37:18</t>
-  </si>
-  <si>
-    <t>02:14:24</t>
-  </si>
-  <si>
-    <t>22:23:13</t>
-  </si>
-  <si>
-    <t>00:01:14</t>
-  </si>
-  <si>
-    <t>00:59:20</t>
-  </si>
-  <si>
-    <t>02:37:19</t>
-  </si>
-  <si>
-    <t>04:14:55</t>
-  </si>
-  <si>
-    <t>05:51:28</t>
-  </si>
-  <si>
-    <t>00:23:30</t>
-  </si>
-  <si>
-    <t>02:01:31</t>
-  </si>
-  <si>
-    <t>03:39:10</t>
+    <t>03:36:49</t>
+  </si>
+  <si>
+    <t>05:12:39</t>
+  </si>
+  <si>
+    <t>23:44:48</t>
+  </si>
+  <si>
+    <t>01:23:20</t>
+  </si>
+  <si>
+    <t>03:01:01</t>
+  </si>
+  <si>
+    <t>04:37:14</t>
+  </si>
+  <si>
+    <t>23:08:41</t>
+  </si>
+  <si>
+    <t>00:47:24</t>
+  </si>
+  <si>
+    <t>02:25:09</t>
+  </si>
+  <si>
+    <t>04:01:39</t>
+  </si>
+  <si>
+    <t>22:32:24</t>
+  </si>
+  <si>
+    <t>00:11:23</t>
+  </si>
+  <si>
+    <t>01:49:12</t>
+  </si>
+  <si>
+    <t>03:25:56</t>
+  </si>
+  <si>
+    <t>21:55:54</t>
+  </si>
+  <si>
+    <t>23:35:19</t>
+  </si>
+  <si>
+    <t>01:13:12</t>
+  </si>
+  <si>
+    <t>02:50:08</t>
+  </si>
+  <si>
+    <t>22:59:12</t>
+  </si>
+  <si>
+    <t>00:37:09</t>
+  </si>
+  <si>
+    <t>02:14:14</t>
+  </si>
+  <si>
+    <t>22:23:00</t>
+  </si>
+  <si>
+    <t>00:01:01</t>
+  </si>
+  <si>
+    <t>01:38:15</t>
+  </si>
+  <si>
+    <t>21:46:44</t>
+  </si>
+  <si>
+    <t>23:24:50</t>
+  </si>
+  <si>
+    <t>00:23:29</t>
+  </si>
+  <si>
+    <t>02:01:30</t>
+  </si>
+  <si>
+    <t>03:39:09</t>
   </si>
   <si>
     <t>05:15:53</t>
   </si>
   <si>
-    <t>23:47:36</t>
-  </si>
-  <si>
-    <t>01:25:39</t>
-  </si>
-  <si>
-    <t>03:03:21</t>
-  </si>
-  <si>
-    <t>04:40:13</t>
-  </si>
-  <si>
-    <t>23:11:38</t>
-  </si>
-  <si>
-    <t>00:49:45</t>
-  </si>
-  <si>
-    <t>02:27:29</t>
-  </si>
-  <si>
-    <t>04:04:29</t>
-  </si>
-  <si>
-    <t>22:35:37</t>
-  </si>
-  <si>
-    <t>00:13:48</t>
-  </si>
-  <si>
-    <t>01:51:34</t>
-  </si>
-  <si>
-    <t>03:28:42</t>
-  </si>
-  <si>
-    <t>21:59:33</t>
-  </si>
-  <si>
-    <t>23:37:48</t>
-  </si>
-  <si>
-    <t>01:15:36</t>
-  </si>
-  <si>
-    <t>02:52:50</t>
-  </si>
-  <si>
-    <t>23:01:44</t>
-  </si>
-  <si>
-    <t>00:39:35</t>
-  </si>
-  <si>
-    <t>02:16:54</t>
-  </si>
-  <si>
-    <t>22:25:38</t>
-  </si>
-  <si>
-    <t>00:03:30</t>
+    <t>23:47:34</t>
+  </si>
+  <si>
+    <t>01:25:38</t>
+  </si>
+  <si>
+    <t>03:03:20</t>
+  </si>
+  <si>
+    <t>04:40:12</t>
+  </si>
+  <si>
+    <t>23:11:36</t>
+  </si>
+  <si>
+    <t>00:49:42</t>
+  </si>
+  <si>
+    <t>02:27:26</t>
+  </si>
+  <si>
+    <t>04:04:27</t>
+  </si>
+  <si>
+    <t>22:35:33</t>
+  </si>
+  <si>
+    <t>00:13:43</t>
+  </si>
+  <si>
+    <t>01:51:30</t>
+  </si>
+  <si>
+    <t>03:28:37</t>
+  </si>
+  <si>
+    <t>21:59:26</t>
+  </si>
+  <si>
+    <t>23:37:41</t>
+  </si>
+  <si>
+    <t>01:15:29</t>
+  </si>
+  <si>
+    <t>02:52:43</t>
+  </si>
+  <si>
+    <t>23:01:35</t>
+  </si>
+  <si>
+    <t>00:39:25</t>
+  </si>
+  <si>
+    <t>02:16:44</t>
+  </si>
+  <si>
+    <t>22:25:26</t>
+  </si>
+  <si>
+    <t>00:03:18</t>
+  </si>
+  <si>
+    <t>01:40:42</t>
+  </si>
+  <si>
+    <t>21:49:13</t>
+  </si>
+  <si>
+    <t>23:27:07</t>
   </si>
   <si>
     <t>0°</t>
   </si>
   <si>
-    <t>18°</t>
-  </si>
-  <si>
-    <t>8°</t>
-  </si>
-  <si>
     <t>9°</t>
   </si>
   <si>
@@ -709,28 +676,22 @@
     <t>7°</t>
   </si>
   <si>
-    <t>04:11:15</t>
-  </si>
-  <si>
-    <t>05:44:59</t>
-  </si>
-  <si>
     <t>03:37:07</t>
   </si>
   <si>
-    <t>05:10:51</t>
-  </si>
-  <si>
-    <t>03:02:59</t>
-  </si>
-  <si>
-    <t>04:36:42</t>
-  </si>
-  <si>
-    <t>04:02:35</t>
-  </si>
-  <si>
-    <t>03:28:29</t>
+    <t>05:10:50</t>
+  </si>
+  <si>
+    <t>03:02:58</t>
+  </si>
+  <si>
+    <t>04:36:41</t>
+  </si>
+  <si>
+    <t>04:02:32</t>
+  </si>
+  <si>
+    <t>03:28:24</t>
   </si>
   <si>
     <t>B</t>
@@ -739,13 +700,7 @@
     <t>A+B</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>4</t>
@@ -782,7 +737,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -797,7 +752,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0B070"/>
+        <fgColor rgb="FFF0707F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4E2F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99BADE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBD1E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF77A3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D7EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF3F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90B4DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCDCEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF558CC8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6E9DD0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAC5E3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,49 +848,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF558CC8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6AD26A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF77A3D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0707F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF88AED8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF90B4DB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8F4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBD1E9"/>
+        <fgColor rgb="FFF0B070"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,73 +866,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB2CBE6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE6EEF7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4D7EC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAAC5E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6697CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF3F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCDCEE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99BADE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6E9DD0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6F9FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4E2F1"/>
+        <fgColor rgb="FFA2C0E1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,7 +913,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1048,12 +991,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1457,7 +1394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1541,55 +1478,55 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L2" s="4">
-        <v>-55.2</v>
+        <v>-58.6</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="O2" s="6">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="P2" s="7">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="8">
-        <v>0</v>
-      </c>
-      <c r="R2" s="8">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="R2" s="9">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1597,55 +1534,55 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="4">
+        <v>-47.2</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O3" s="6">
+        <v>100</v>
+      </c>
+      <c r="P3" s="10">
         <v>80</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L3" s="4">
-        <v>-42</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="O3" s="9">
-        <v>12</v>
-      </c>
-      <c r="P3" s="7">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>0</v>
-      </c>
-      <c r="R3" s="8">
-        <v>0</v>
+      <c r="Q3" s="7">
+        <v>76</v>
+      </c>
+      <c r="R3" s="11">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1653,55 +1590,55 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="L4" s="4">
-        <v>-26.6</v>
+        <v>-32.2</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="O4" s="6">
-        <v>18</v>
-      </c>
-      <c r="P4" s="10">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>18</v>
-      </c>
-      <c r="R4" s="8">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="P4" s="12">
+        <v>65</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>93</v>
+      </c>
+      <c r="R4" s="7">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1709,55 +1646,55 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="L5" s="4">
-        <v>-11.7</v>
+        <v>-17</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="O5" s="11">
-        <v>34</v>
-      </c>
-      <c r="P5" s="12">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>34</v>
-      </c>
-      <c r="R5" s="8">
-        <v>0</v>
+        <v>229</v>
+      </c>
+      <c r="O5" s="6">
+        <v>100</v>
+      </c>
+      <c r="P5" s="13">
+        <v>96</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>98</v>
+      </c>
+      <c r="R5" s="13">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1765,55 +1702,55 @@
         <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L6" s="4">
-        <v>-58.6</v>
+        <v>-60.7</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="O6" s="11">
-        <v>94</v>
-      </c>
-      <c r="P6" s="14">
-        <v>82</v>
-      </c>
-      <c r="Q6" s="15">
-        <v>62</v>
+        <v>228</v>
+      </c>
+      <c r="O6" s="6">
+        <v>100</v>
+      </c>
+      <c r="P6" s="15">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>100</v>
       </c>
       <c r="R6" s="16">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1821,55 +1758,55 @@
         <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L7" s="4">
-        <v>-47.2</v>
+        <v>-52</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="O7" s="11">
-        <v>97</v>
-      </c>
-      <c r="P7" s="14">
-        <v>80</v>
-      </c>
-      <c r="Q7" s="15">
-        <v>59</v>
-      </c>
-      <c r="R7" s="17">
-        <v>57</v>
+        <v>228</v>
+      </c>
+      <c r="O7" s="6">
+        <v>100</v>
+      </c>
+      <c r="P7" s="13">
+        <v>93</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>100</v>
+      </c>
+      <c r="R7" s="10">
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1877,55 +1814,55 @@
         <v>24</v>
       </c>
       <c r="B8" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="L8" s="4">
-        <v>-32.2</v>
+        <v>-37.8</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="O8" s="11">
+        <v>228</v>
+      </c>
+      <c r="O8" s="6">
         <v>100</v>
       </c>
-      <c r="P8" s="18">
-        <v>85</v>
-      </c>
-      <c r="Q8" s="19">
+      <c r="P8" s="13">
+        <v>94</v>
+      </c>
+      <c r="Q8" s="14">
         <v>100</v>
       </c>
-      <c r="R8" s="19">
-        <v>100</v>
+      <c r="R8" s="8">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1933,55 +1870,55 @@
         <v>25</v>
       </c>
       <c r="B9" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="L9" s="4">
-        <v>-17</v>
+        <v>-22.5</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="O9" s="11">
+        <v>229</v>
+      </c>
+      <c r="O9" s="6">
         <v>100</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P9" s="15">
+        <v>89</v>
+      </c>
+      <c r="Q9" s="14">
         <v>100</v>
       </c>
-      <c r="Q9" s="19">
-        <v>100</v>
-      </c>
-      <c r="R9" s="19">
-        <v>100</v>
+      <c r="R9" s="17">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1989,55 +1926,55 @@
         <v>26</v>
       </c>
       <c r="B10" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L10" s="4">
-        <v>-60.7</v>
+        <v>-61.2</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="O10" s="11">
-        <v>98</v>
-      </c>
-      <c r="P10" s="18">
-        <v>84</v>
-      </c>
-      <c r="Q10" s="20">
-        <v>65</v>
-      </c>
-      <c r="R10" s="16">
-        <v>26</v>
+        <v>228</v>
+      </c>
+      <c r="O10" s="6">
+        <v>78</v>
+      </c>
+      <c r="P10" s="10">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>0</v>
+      </c>
+      <c r="R10" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2045,55 +1982,55 @@
         <v>27</v>
       </c>
       <c r="B11" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L11" s="4">
-        <v>-52</v>
+        <v>-56.1</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="O11" s="11">
-        <v>95</v>
-      </c>
-      <c r="P11" s="18">
-        <v>87</v>
-      </c>
-      <c r="Q11" s="21">
-        <v>49</v>
-      </c>
-      <c r="R11" s="22">
-        <v>10</v>
+        <v>228</v>
+      </c>
+      <c r="O11" s="6">
+        <v>89</v>
+      </c>
+      <c r="P11" s="15">
+        <v>89</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>0</v>
+      </c>
+      <c r="R11" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2101,55 +2038,55 @@
         <v>28</v>
       </c>
       <c r="B12" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>235</v>
+        <v>85</v>
       </c>
       <c r="L12" s="4">
-        <v>-37.8</v>
+        <v>-43.3</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="O12" s="11">
-        <v>95</v>
-      </c>
-      <c r="P12" s="18">
-        <v>87</v>
-      </c>
-      <c r="Q12" s="15">
-        <v>58</v>
-      </c>
-      <c r="R12" s="22">
-        <v>9</v>
+        <v>228</v>
+      </c>
+      <c r="O12" s="6">
+        <v>97</v>
+      </c>
+      <c r="P12" s="13">
+        <v>97</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>0</v>
+      </c>
+      <c r="R12" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2157,55 +2094,55 @@
         <v>29</v>
       </c>
       <c r="B13" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="J13" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L13" s="4">
+        <v>-28</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="L13" s="4">
-        <v>-22.5</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="O13" s="11">
-        <v>97</v>
-      </c>
-      <c r="P13" s="23">
-        <v>92</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>81</v>
-      </c>
-      <c r="R13" s="7">
-        <v>3</v>
+      <c r="O13" s="6">
+        <v>96</v>
+      </c>
+      <c r="P13" s="13">
+        <v>96</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>17</v>
+      </c>
+      <c r="R13" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2213,55 +2150,55 @@
         <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L14" s="4">
-        <v>-61.2</v>
+        <v>-59.9</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="O14" s="11">
-        <v>82</v>
-      </c>
-      <c r="P14" s="24">
-        <v>69</v>
-      </c>
-      <c r="Q14" s="15">
-        <v>60</v>
-      </c>
-      <c r="R14" s="7">
-        <v>6</v>
+        <v>229</v>
+      </c>
+      <c r="O14" s="6">
+        <v>77</v>
+      </c>
+      <c r="P14" s="20">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>5</v>
+      </c>
+      <c r="R14" s="22">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2269,55 +2206,55 @@
         <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="4">
+        <v>-59.1</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O15" s="6">
+        <v>75</v>
+      </c>
+      <c r="P15" s="16">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="9">
         <v>60</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L15" s="4">
-        <v>-56.1</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="O15" s="11">
-        <v>84</v>
-      </c>
-      <c r="P15" s="25">
-        <v>42</v>
-      </c>
-      <c r="Q15" s="15">
-        <v>59</v>
-      </c>
-      <c r="R15" s="8">
-        <v>0</v>
+      <c r="R15" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2325,55 +2262,55 @@
         <v>32</v>
       </c>
       <c r="B16" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L16" s="4">
-        <v>-43.3</v>
+        <v>-48.4</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="O16" s="11">
-        <v>47</v>
-      </c>
-      <c r="P16" s="25">
-        <v>41</v>
-      </c>
-      <c r="Q16" s="8">
-        <v>2</v>
-      </c>
-      <c r="R16" s="8">
-        <v>0</v>
+        <v>228</v>
+      </c>
+      <c r="O16" s="6">
+        <v>58</v>
+      </c>
+      <c r="P16" s="11">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="20">
+        <v>51</v>
+      </c>
+      <c r="R16" s="21">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2381,55 +2318,55 @@
         <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="L17" s="4">
-        <v>-28</v>
+        <v>-33.6</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="O17" s="11">
-        <v>52</v>
-      </c>
-      <c r="P17" s="25">
-        <v>39</v>
-      </c>
-      <c r="Q17" s="7">
+        <v>228</v>
+      </c>
+      <c r="O17" s="23">
+        <v>41</v>
+      </c>
+      <c r="P17" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="21">
         <v>3</v>
       </c>
-      <c r="R17" s="8">
-        <v>0</v>
+      <c r="R17" s="19">
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2437,55 +2374,55 @@
         <v>34</v>
       </c>
       <c r="B18" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L18" s="4">
-        <v>-59.9</v>
+        <v>-57.1</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="O18" s="6">
-        <v>17</v>
-      </c>
-      <c r="P18" s="22">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="8">
-        <v>0</v>
-      </c>
-      <c r="R18" s="8">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="P18" s="24">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>94</v>
+      </c>
+      <c r="R18" s="22">
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2493,55 +2430,55 @@
         <v>35</v>
       </c>
       <c r="B19" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L19" s="4">
-        <v>-59.1</v>
+        <v>-60.6</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="O19" s="6">
-        <v>13</v>
-      </c>
-      <c r="P19" s="26">
-        <v>13</v>
-      </c>
-      <c r="Q19" s="8">
-        <v>0</v>
-      </c>
-      <c r="R19" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="P19" s="9">
+        <v>61</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>98</v>
+      </c>
+      <c r="R19" s="7">
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2552,52 +2489,52 @@
         <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L20" s="4">
-        <v>-48.4</v>
+        <v>-53</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="O20" s="6">
-        <v>18</v>
-      </c>
-      <c r="P20" s="22">
-        <v>11</v>
-      </c>
-      <c r="Q20" s="8">
-        <v>0</v>
-      </c>
-      <c r="R20" s="26">
-        <v>16</v>
+        <v>100</v>
+      </c>
+      <c r="P20" s="15">
+        <v>89</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>96</v>
+      </c>
+      <c r="R20" s="14">
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2605,55 +2542,55 @@
         <v>37</v>
       </c>
       <c r="B21" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>238</v>
+        <v>94</v>
       </c>
       <c r="L21" s="4">
-        <v>-33.6</v>
+        <v>-39.3</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="O21" s="6">
-        <v>48</v>
-      </c>
-      <c r="P21" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="8">
-        <v>0</v>
-      </c>
-      <c r="R21" s="21">
-        <v>48</v>
+        <v>100</v>
+      </c>
+      <c r="P21" s="13">
+        <v>94</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>100</v>
+      </c>
+      <c r="R21" s="14">
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2661,55 +2598,55 @@
         <v>38</v>
       </c>
       <c r="B22" s="2">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="K22" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L22" s="4">
-        <v>-57.1</v>
+        <v>-60.5</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="O22" s="11">
-        <v>100</v>
-      </c>
-      <c r="P22" s="19">
-        <v>99</v>
-      </c>
-      <c r="Q22" s="19">
-        <v>98</v>
-      </c>
-      <c r="R22" s="19">
-        <v>100</v>
+        <v>228</v>
+      </c>
+      <c r="O22" s="6">
+        <v>96</v>
+      </c>
+      <c r="P22" s="13">
+        <v>93</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>95</v>
+      </c>
+      <c r="R22" s="8">
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2717,55 +2654,55 @@
         <v>39</v>
       </c>
       <c r="B23" s="2">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L23" s="4">
-        <v>-60.6</v>
+        <v>-56.7</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="O23" s="11">
-        <v>100</v>
-      </c>
-      <c r="P23" s="19">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="27">
-        <v>95</v>
-      </c>
-      <c r="R23" s="28">
-        <v>73</v>
+        <v>228</v>
+      </c>
+      <c r="O23" s="6">
+        <v>97</v>
+      </c>
+      <c r="P23" s="13">
+        <v>94</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>92</v>
+      </c>
+      <c r="R23" s="9">
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2773,55 +2710,55 @@
         <v>40</v>
       </c>
       <c r="B24" s="2">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L24" s="4">
-        <v>-53</v>
+        <v>-44.6</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="O24" s="11">
-        <v>100</v>
-      </c>
-      <c r="P24" s="19">
+        <v>228</v>
+      </c>
+      <c r="O24" s="6">
         <v>99</v>
       </c>
-      <c r="Q24" s="20">
-        <v>65</v>
-      </c>
-      <c r="R24" s="15">
-        <v>60</v>
+      <c r="P24" s="14">
+        <v>98</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>94</v>
+      </c>
+      <c r="R24" s="10">
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2829,55 +2766,55 @@
         <v>41</v>
       </c>
       <c r="B25" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L25" s="4">
-        <v>-39.3</v>
+        <v>-58.7</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="O25" s="11">
-        <v>99</v>
-      </c>
-      <c r="P25" s="27">
+        <v>228</v>
+      </c>
+      <c r="O25" s="6">
         <v>97</v>
       </c>
-      <c r="Q25" s="25">
-        <v>39</v>
-      </c>
-      <c r="R25" s="21">
-        <v>50</v>
+      <c r="P25" s="15">
+        <v>92</v>
+      </c>
+      <c r="Q25" s="15">
+        <v>90</v>
+      </c>
+      <c r="R25" s="12">
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2885,55 +2822,55 @@
         <v>42</v>
       </c>
       <c r="B26" s="2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L26" s="4">
-        <v>-60.5</v>
+        <v>-59.3</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="O26" s="11">
-        <v>100</v>
-      </c>
-      <c r="P26" s="27">
+        <v>228</v>
+      </c>
+      <c r="O26" s="6">
         <v>93</v>
       </c>
-      <c r="Q26" s="27">
-        <v>97</v>
-      </c>
-      <c r="R26" s="19">
-        <v>100</v>
+      <c r="P26" s="15">
+        <v>89</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>79</v>
+      </c>
+      <c r="R26" s="16">
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2941,55 +2878,55 @@
         <v>43</v>
       </c>
       <c r="B27" s="2">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L27" s="4">
-        <v>-56.7</v>
+        <v>-49.6</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="O27" s="11">
-        <v>100</v>
-      </c>
-      <c r="P27" s="27">
-        <v>95</v>
-      </c>
-      <c r="Q27" s="27">
-        <v>94</v>
-      </c>
-      <c r="R27" s="19">
-        <v>100</v>
+        <v>228</v>
+      </c>
+      <c r="O27" s="6">
+        <v>91</v>
+      </c>
+      <c r="P27" s="25">
+        <v>85</v>
+      </c>
+      <c r="Q27" s="26">
+        <v>47</v>
+      </c>
+      <c r="R27" s="21">
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2997,55 +2934,55 @@
         <v>44</v>
       </c>
       <c r="B28" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L28" s="4">
-        <v>-44.6</v>
+        <v>-55.5</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="O28" s="11">
-        <v>99</v>
-      </c>
-      <c r="P28" s="23">
-        <v>92</v>
-      </c>
-      <c r="Q28" s="23">
-        <v>92</v>
-      </c>
-      <c r="R28" s="20">
-        <v>64</v>
+        <v>228</v>
+      </c>
+      <c r="O28" s="6">
+        <v>100</v>
+      </c>
+      <c r="P28" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q28" s="18">
+        <v>2</v>
+      </c>
+      <c r="R28" s="25">
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3053,170 +2990,114 @@
         <v>45</v>
       </c>
       <c r="B29" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L29" s="4">
-        <v>-58.7</v>
+        <v>-60.3</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="O29" s="11">
-        <v>99</v>
-      </c>
-      <c r="P29" s="27">
-        <v>94</v>
-      </c>
-      <c r="Q29" s="24">
-        <v>71</v>
-      </c>
-      <c r="R29" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="2">
-        <v>33</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L30" s="4">
-        <v>-59.3</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="O30" s="11">
-        <v>99</v>
-      </c>
-      <c r="P30" s="27">
-        <v>94</v>
-      </c>
-      <c r="Q30" s="24">
-        <v>68</v>
-      </c>
-      <c r="R30" s="8">
-        <v>0</v>
+        <v>228</v>
+      </c>
+      <c r="O29" s="6">
+        <v>100</v>
+      </c>
+      <c r="P29" s="14">
+        <v>98</v>
+      </c>
+      <c r="Q29" s="26">
+        <v>45</v>
+      </c>
+      <c r="R29" s="13">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A30">
+  <conditionalFormatting sqref="A2:A29">
     <cfRule type="expression" dxfId="8" priority="9">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B30">
+  <conditionalFormatting sqref="B2:B29">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C30">
+  <conditionalFormatting sqref="C2:C29">
     <cfRule type="expression" dxfId="9" priority="11">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D30">
+  <conditionalFormatting sqref="D2:D29">
     <cfRule type="expression" dxfId="8" priority="12">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E30">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="expression" dxfId="9" priority="13">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F30">
+  <conditionalFormatting sqref="F2:F29">
     <cfRule type="expression" dxfId="9" priority="14">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G30">
+  <conditionalFormatting sqref="G2:G29">
     <cfRule type="expression" dxfId="9" priority="15">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H30">
+  <conditionalFormatting sqref="H2:H29">
     <cfRule type="expression" dxfId="9" priority="16">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I30">
+  <conditionalFormatting sqref="I2:I29">
     <cfRule type="expression" dxfId="8" priority="17">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J30">
+  <conditionalFormatting sqref="J2:J29">
     <cfRule type="expression" dxfId="9" priority="18">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K30">
+  <conditionalFormatting sqref="K2:K29">
     <cfRule type="expression" dxfId="8" priority="19">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L30">
+  <conditionalFormatting sqref="L2:L29">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -3235,12 +3116,12 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M30">
+  <conditionalFormatting sqref="M2:M29">
     <cfRule type="expression" dxfId="9" priority="21">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N30">
+  <conditionalFormatting sqref="N2:N29">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>
@@ -3257,22 +3138,22 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O30">
+  <conditionalFormatting sqref="O2:O29">
     <cfRule type="expression" dxfId="9" priority="23">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P30">
+  <conditionalFormatting sqref="P2:P29">
     <cfRule type="expression" dxfId="9" priority="24">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q30">
+  <conditionalFormatting sqref="Q2:Q29">
     <cfRule type="expression" dxfId="9" priority="25">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R30">
+  <conditionalFormatting sqref="R2:R29">
     <cfRule type="expression" dxfId="9" priority="26">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="213">
   <si>
     <t>Datum</t>
   </si>
@@ -70,21 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>20260109--01</t>
-  </si>
-  <si>
-    <t>20260109--02</t>
-  </si>
-  <si>
-    <t>20260109--03</t>
-  </si>
-  <si>
-    <t>20260109--04</t>
-  </si>
-  <si>
-    <t>20260109--05</t>
-  </si>
-  <si>
     <t>20260110--01</t>
   </si>
   <si>
@@ -154,109 +139,97 @@
     <t>20260115--03</t>
   </si>
   <si>
-    <t>04:57</t>
+    <t>20260116--01</t>
+  </si>
+  <si>
+    <t>20260116--02</t>
+  </si>
+  <si>
+    <t>20260116--03</t>
+  </si>
+  <si>
+    <t>06:28</t>
+  </si>
+  <si>
+    <t>06:23</t>
+  </si>
+  <si>
+    <t>03:48</t>
+  </si>
+  <si>
+    <t>04:00</t>
+  </si>
+  <si>
+    <t>06:24</t>
+  </si>
+  <si>
+    <t>06:27</t>
+  </si>
+  <si>
+    <t>04:22</t>
+  </si>
+  <si>
+    <t>03:16</t>
+  </si>
+  <si>
+    <t>06:18</t>
+  </si>
+  <si>
+    <t>06:30</t>
+  </si>
+  <si>
+    <t>04:50</t>
+  </si>
+  <si>
+    <t>02:10</t>
+  </si>
+  <si>
+    <t>06:11</t>
   </si>
   <si>
     <t>06:32</t>
   </si>
   <si>
-    <t>06:17</t>
-  </si>
-  <si>
-    <t>03:01</t>
-  </si>
-  <si>
-    <t>04:31</t>
-  </si>
-  <si>
-    <t>06:28</t>
-  </si>
-  <si>
-    <t>06:23</t>
-  </si>
-  <si>
-    <t>03:48</t>
-  </si>
-  <si>
-    <t>04:00</t>
-  </si>
-  <si>
-    <t>06:24</t>
-  </si>
-  <si>
-    <t>06:27</t>
-  </si>
-  <si>
-    <t>04:22</t>
-  </si>
-  <si>
-    <t>03:16</t>
-  </si>
-  <si>
-    <t>06:29</t>
-  </si>
-  <si>
-    <t>04:49</t>
-  </si>
-  <si>
-    <t>02:10</t>
-  </si>
-  <si>
-    <t>06:10</t>
-  </si>
-  <si>
     <t>05:11</t>
   </si>
   <si>
     <t>06:02</t>
   </si>
   <si>
+    <t>06:33</t>
+  </si>
+  <si>
+    <t>05:28</t>
+  </si>
+  <si>
+    <t>05:52</t>
+  </si>
+  <si>
+    <t>-1434:34</t>
+  </si>
+  <si>
+    <t>05:43</t>
+  </si>
+  <si>
+    <t>05:38</t>
+  </si>
+  <si>
     <t>06:34</t>
   </si>
   <si>
-    <t>05:28</t>
-  </si>
-  <si>
-    <t>05:51</t>
-  </si>
-  <si>
-    <t>-1434:33</t>
-  </si>
-  <si>
-    <t>05:43</t>
-  </si>
-  <si>
-    <t>05:38</t>
-  </si>
-  <si>
-    <t>06:33</t>
+    <t>05:54</t>
+  </si>
+  <si>
+    <t>05:22</t>
   </si>
   <si>
     <t>00:00</t>
   </si>
   <si>
-    <t>01:49</t>
-  </si>
-  <si>
     <t>00:33</t>
   </si>
   <si>
-    <t>00:13:15</t>
-  </si>
-  <si>
-    <t>01:50:25</t>
-  </si>
-  <si>
-    <t>03:28:12</t>
-  </si>
-  <si>
-    <t>05:06:24</t>
-  </si>
-  <si>
-    <t>23:37:32</t>
-  </si>
-  <si>
-    <t>01:14:34</t>
+    <t>01:14:35</t>
   </si>
   <si>
     <t>02:52:19</t>
@@ -301,7 +274,7 @@
     <t>02:42:22</t>
   </si>
   <si>
-    <t>22:50:47</t>
+    <t>22:50:48</t>
   </si>
   <si>
     <t>00:28:19</t>
@@ -313,31 +286,25 @@
     <t>22:14:44</t>
   </si>
   <si>
-    <t>23:52:11</t>
+    <t>23:52:12</t>
   </si>
   <si>
     <t>01:30:05</t>
   </si>
   <si>
-    <t>21:38:38</t>
+    <t>21:38:39</t>
   </si>
   <si>
     <t>23:16:01</t>
   </si>
   <si>
-    <t>00:15:53</t>
-  </si>
-  <si>
-    <t>01:52:41</t>
-  </si>
-  <si>
-    <t>03:30:32</t>
-  </si>
-  <si>
-    <t>05:09:38</t>
-  </si>
-  <si>
-    <t>23:40:17</t>
+    <t>00:53:52</t>
+  </si>
+  <si>
+    <t>21:02:31</t>
+  </si>
+  <si>
+    <t>22:39:48</t>
   </si>
   <si>
     <t>01:16:52</t>
@@ -361,7 +328,7 @@
     <t>03:57:17</t>
   </si>
   <si>
-    <t>22:29:08</t>
+    <t>22:29:09</t>
   </si>
   <si>
     <t>00:05:06</t>
@@ -379,7 +346,7 @@
     <t>23:29:09</t>
   </si>
   <si>
-    <t>01:06:40</t>
+    <t>01:06:41</t>
   </si>
   <si>
     <t>02:44:57</t>
@@ -388,7 +355,7 @@
     <t>22:53:10</t>
   </si>
   <si>
-    <t>00:30:35</t>
+    <t>00:30:36</t>
   </si>
   <si>
     <t>02:08:46</t>
@@ -403,25 +370,19 @@
     <t>01:32:32</t>
   </si>
   <si>
-    <t>21:41:06</t>
+    <t>21:41:07</t>
   </si>
   <si>
     <t>23:18:17</t>
   </si>
   <si>
-    <t>00:18:21</t>
-  </si>
-  <si>
-    <t>01:55:57</t>
-  </si>
-  <si>
-    <t>03:33:41</t>
-  </si>
-  <si>
-    <t>05:11:09</t>
-  </si>
-  <si>
-    <t>23:42:32</t>
+    <t>00:56:17</t>
+  </si>
+  <si>
+    <t>21:05:03</t>
+  </si>
+  <si>
+    <t>22:42:04</t>
   </si>
   <si>
     <t>01:20:06</t>
@@ -451,7 +412,7 @@
     <t>00:08:14</t>
   </si>
   <si>
-    <t>01:45:57</t>
+    <t>01:45:58</t>
   </si>
   <si>
     <t>03:23:32</t>
@@ -463,13 +424,13 @@
     <t>23:32:14</t>
   </si>
   <si>
-    <t>01:09:56</t>
+    <t>01:09:57</t>
   </si>
   <si>
     <t>02:47:33</t>
   </si>
   <si>
-    <t>22:56:10</t>
+    <t>22:56:11</t>
   </si>
   <si>
     <t>00:33:52</t>
@@ -478,34 +439,28 @@
     <t>02:11:30</t>
   </si>
   <si>
-    <t>22:20:04</t>
-  </si>
-  <si>
-    <t>23:57:44</t>
-  </si>
-  <si>
-    <t>01:35:23</t>
+    <t>22:20:05</t>
+  </si>
+  <si>
+    <t>23:57:45</t>
+  </si>
+  <si>
+    <t>01:35:24</t>
   </si>
   <si>
     <t>21:43:55</t>
   </si>
   <si>
-    <t>23:21:33</t>
-  </si>
-  <si>
-    <t>00:20:50</t>
-  </si>
-  <si>
-    <t>01:59:13</t>
-  </si>
-  <si>
-    <t>03:36:49</t>
-  </si>
-  <si>
-    <t>05:12:39</t>
-  </si>
-  <si>
-    <t>23:44:48</t>
+    <t>23:21:34</t>
+  </si>
+  <si>
+    <t>00:59:14</t>
+  </si>
+  <si>
+    <t>21:07:43</t>
+  </si>
+  <si>
+    <t>22:45:20</t>
   </si>
   <si>
     <t>01:23:20</t>
@@ -529,25 +484,25 @@
     <t>04:01:39</t>
   </si>
   <si>
-    <t>22:32:24</t>
-  </si>
-  <si>
-    <t>00:11:23</t>
-  </si>
-  <si>
-    <t>01:49:12</t>
-  </si>
-  <si>
-    <t>03:25:56</t>
+    <t>22:32:25</t>
+  </si>
+  <si>
+    <t>00:11:24</t>
+  </si>
+  <si>
+    <t>01:49:13</t>
+  </si>
+  <si>
+    <t>03:25:57</t>
   </si>
   <si>
     <t>21:55:54</t>
   </si>
   <si>
-    <t>23:35:19</t>
-  </si>
-  <si>
-    <t>01:13:12</t>
+    <t>23:35:20</t>
+  </si>
+  <si>
+    <t>01:13:13</t>
   </si>
   <si>
     <t>02:50:08</t>
@@ -562,34 +517,28 @@
     <t>02:14:14</t>
   </si>
   <si>
-    <t>22:23:00</t>
-  </si>
-  <si>
-    <t>00:01:01</t>
+    <t>22:23:01</t>
+  </si>
+  <si>
+    <t>00:01:02</t>
   </si>
   <si>
     <t>01:38:15</t>
   </si>
   <si>
-    <t>21:46:44</t>
-  </si>
-  <si>
-    <t>23:24:50</t>
-  </si>
-  <si>
-    <t>00:23:29</t>
-  </si>
-  <si>
-    <t>02:01:30</t>
-  </si>
-  <si>
-    <t>03:39:09</t>
-  </si>
-  <si>
-    <t>05:15:53</t>
-  </si>
-  <si>
-    <t>23:47:34</t>
+    <t>21:46:45</t>
+  </si>
+  <si>
+    <t>23:24:51</t>
+  </si>
+  <si>
+    <t>01:02:11</t>
+  </si>
+  <si>
+    <t>21:10:25</t>
+  </si>
+  <si>
+    <t>22:48:36</t>
   </si>
   <si>
     <t>01:25:38</t>
@@ -607,7 +556,7 @@
     <t>00:49:42</t>
   </si>
   <si>
-    <t>02:27:26</t>
+    <t>02:27:27</t>
   </si>
   <si>
     <t>04:04:27</t>
@@ -643,7 +592,7 @@
     <t>00:39:25</t>
   </si>
   <si>
-    <t>02:16:44</t>
+    <t>02:16:45</t>
   </si>
   <si>
     <t>22:25:26</t>
@@ -661,25 +610,25 @@
     <t>23:27:07</t>
   </si>
   <si>
+    <t>01:04:36</t>
+  </si>
+  <si>
+    <t>21:12:57</t>
+  </si>
+  <si>
+    <t>22:50:53</t>
+  </si>
+  <si>
     <t>0°</t>
   </si>
   <si>
-    <t>9°</t>
+    <t>1°</t>
   </si>
   <si>
     <t>12°</t>
   </si>
   <si>
-    <t>1°</t>
-  </si>
-  <si>
     <t>7°</t>
-  </si>
-  <si>
-    <t>03:37:07</t>
-  </si>
-  <si>
-    <t>05:10:50</t>
   </si>
   <si>
     <t>03:02:58</t>
@@ -737,7 +686,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -758,25 +707,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE6EEF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF3F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD4E2F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99BADE"/>
+        <fgColor rgb="FF558CC8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBBD1E9"/>
+        <fgColor rgb="FF6AD26A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8F4"/>
+        <fgColor rgb="FF5E92CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0B070"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,31 +773,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF3F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF90B4DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCDCEE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF558CC8"/>
+        <fgColor rgb="FF6697CD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,25 +791,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAAC5E3"/>
+        <fgColor rgb="FFBBD1E9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5E92CB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF88AED8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0B070"/>
+        <fgColor rgb="FFAAC5E3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,13 +809,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6EEF7"/>
+        <fgColor rgb="FFA2C0E1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA2C0E1"/>
+        <fgColor rgb="FF88AED8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,7 +856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -988,9 +931,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1394,7 +1334,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1478,55 +1418,55 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L2" s="4">
-        <v>-58.6</v>
+        <v>-52</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="O2" s="6">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="P2" s="7">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="Q2" s="8">
-        <v>41</v>
-      </c>
-      <c r="R2" s="9">
-        <v>61</v>
+        <v>100</v>
+      </c>
+      <c r="R2" s="7">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1534,55 +1474,55 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L3" s="4">
-        <v>-47.2</v>
+        <v>-37.8</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="O3" s="6">
         <v>100</v>
       </c>
-      <c r="P3" s="10">
-        <v>80</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>76</v>
-      </c>
-      <c r="R3" s="11">
-        <v>22</v>
+      <c r="P3" s="9">
+        <v>91</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>100</v>
+      </c>
+      <c r="R3" s="7">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1590,55 +1530,55 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="L4" s="4">
-        <v>-32.2</v>
+        <v>-22.5</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="O4" s="6">
         <v>100</v>
       </c>
-      <c r="P4" s="12">
-        <v>65</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>93</v>
-      </c>
-      <c r="R4" s="7">
-        <v>75</v>
+      <c r="P4" s="9">
+        <v>88</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>100</v>
+      </c>
+      <c r="R4" s="10">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1646,55 +1586,55 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="L5" s="4">
-        <v>-17</v>
+        <v>-61.2</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="O5" s="6">
-        <v>100</v>
-      </c>
-      <c r="P5" s="13">
-        <v>96</v>
-      </c>
-      <c r="Q5" s="14">
-        <v>98</v>
-      </c>
-      <c r="R5" s="13">
-        <v>97</v>
+        <v>85</v>
+      </c>
+      <c r="P5" s="7">
+        <v>83</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>0</v>
+      </c>
+      <c r="R5" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1702,55 +1642,55 @@
         <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L6" s="4">
-        <v>-60.7</v>
+        <v>-56.1</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="O6" s="6">
-        <v>100</v>
-      </c>
-      <c r="P6" s="15">
-        <v>91</v>
-      </c>
-      <c r="Q6" s="14">
-        <v>100</v>
-      </c>
-      <c r="R6" s="16">
-        <v>34</v>
+        <v>94</v>
+      </c>
+      <c r="P6" s="9">
+        <v>92</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>0</v>
+      </c>
+      <c r="R6" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1761,52 +1701,52 @@
         <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L7" s="4">
-        <v>-52</v>
+        <v>-43.3</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="O7" s="6">
-        <v>100</v>
-      </c>
-      <c r="P7" s="13">
-        <v>93</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>100</v>
-      </c>
-      <c r="R7" s="10">
-        <v>78</v>
+        <v>85</v>
+      </c>
+      <c r="P7" s="7">
+        <v>85</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>0</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1814,55 +1754,55 @@
         <v>24</v>
       </c>
       <c r="B8" s="2">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="L8" s="4">
-        <v>-37.8</v>
+        <v>-28</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="O8" s="6">
-        <v>100</v>
-      </c>
-      <c r="P8" s="13">
-        <v>94</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>100</v>
-      </c>
-      <c r="R8" s="8">
-        <v>41</v>
+        <v>89</v>
+      </c>
+      <c r="P8" s="9">
+        <v>88</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>0</v>
+      </c>
+      <c r="R8" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1870,55 +1810,55 @@
         <v>25</v>
       </c>
       <c r="B9" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="L9" s="4">
-        <v>-22.5</v>
+        <v>-59.9</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="O9" s="6">
-        <v>100</v>
-      </c>
-      <c r="P9" s="15">
-        <v>89</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>100</v>
-      </c>
-      <c r="R9" s="17">
-        <v>70</v>
+        <v>212</v>
+      </c>
+      <c r="O9" s="12">
+        <v>7</v>
+      </c>
+      <c r="P9" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>0</v>
+      </c>
+      <c r="R9" s="13">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1926,55 +1866,55 @@
         <v>26</v>
       </c>
       <c r="B10" s="2">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L10" s="4">
-        <v>-61.2</v>
+        <v>-59.1</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="O10" s="6">
-        <v>78</v>
-      </c>
-      <c r="P10" s="10">
-        <v>78</v>
-      </c>
-      <c r="Q10" s="18">
+        <v>211</v>
+      </c>
+      <c r="O10" s="12">
+        <v>5</v>
+      </c>
+      <c r="P10" s="11">
         <v>0</v>
       </c>
-      <c r="R10" s="18">
-        <v>0</v>
+      <c r="Q10" s="11">
+        <v>2</v>
+      </c>
+      <c r="R10" s="13">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1982,55 +1922,55 @@
         <v>27</v>
       </c>
       <c r="B11" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L11" s="4">
-        <v>-56.1</v>
+        <v>-48.4</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="O11" s="6">
-        <v>89</v>
-      </c>
-      <c r="P11" s="15">
-        <v>89</v>
-      </c>
-      <c r="Q11" s="18">
+        <v>211</v>
+      </c>
+      <c r="O11" s="14">
+        <v>22</v>
+      </c>
+      <c r="P11" s="11">
         <v>0</v>
       </c>
-      <c r="R11" s="18">
-        <v>0</v>
+      <c r="Q11" s="11">
+        <v>2</v>
+      </c>
+      <c r="R11" s="15">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2038,55 +1978,55 @@
         <v>28</v>
       </c>
       <c r="B12" s="2">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>85</v>
+        <v>208</v>
       </c>
       <c r="L12" s="4">
-        <v>-43.3</v>
+        <v>-33.6</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="O12" s="6">
         <v>97</v>
       </c>
-      <c r="P12" s="13">
-        <v>97</v>
-      </c>
-      <c r="Q12" s="18">
+      <c r="P12" s="11">
         <v>0</v>
       </c>
-      <c r="R12" s="18">
-        <v>0</v>
+      <c r="Q12" s="16">
+        <v>67</v>
+      </c>
+      <c r="R12" s="17">
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2094,55 +2034,55 @@
         <v>29</v>
       </c>
       <c r="B13" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>224</v>
+        <v>82</v>
       </c>
       <c r="L13" s="4">
-        <v>-28</v>
+        <v>-57.1</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="O13" s="6">
-        <v>96</v>
-      </c>
-      <c r="P13" s="13">
-        <v>96</v>
-      </c>
-      <c r="Q13" s="19">
-        <v>17</v>
-      </c>
-      <c r="R13" s="18">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="P13" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>100</v>
+      </c>
+      <c r="R13" s="8">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2150,55 +2090,55 @@
         <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L14" s="4">
-        <v>-59.9</v>
+        <v>-60.6</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="O14" s="6">
-        <v>77</v>
-      </c>
-      <c r="P14" s="20">
-        <v>50</v>
-      </c>
-      <c r="Q14" s="21">
-        <v>5</v>
-      </c>
-      <c r="R14" s="22">
-        <v>31</v>
+        <v>100</v>
+      </c>
+      <c r="P14" s="17">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>98</v>
+      </c>
+      <c r="R14" s="8">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2206,55 +2146,55 @@
         <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L15" s="4">
-        <v>-59.1</v>
+        <v>-53</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="O15" s="6">
-        <v>75</v>
-      </c>
-      <c r="P15" s="16">
-        <v>33</v>
-      </c>
-      <c r="Q15" s="9">
-        <v>60</v>
-      </c>
-      <c r="R15" s="18">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="P15" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>85</v>
+      </c>
+      <c r="R15" s="7">
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2262,55 +2202,55 @@
         <v>32</v>
       </c>
       <c r="B16" s="2">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="K16" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L16" s="4">
-        <v>-48.4</v>
+        <v>-39.3</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="O16" s="6">
-        <v>58</v>
-      </c>
-      <c r="P16" s="11">
-        <v>22</v>
-      </c>
-      <c r="Q16" s="20">
-        <v>51</v>
-      </c>
-      <c r="R16" s="21">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="P16" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>83</v>
+      </c>
+      <c r="R16" s="9">
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2318,55 +2258,55 @@
         <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>225</v>
+        <v>86</v>
       </c>
       <c r="L17" s="4">
-        <v>-33.6</v>
+        <v>-60.5</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="O17" s="23">
-        <v>41</v>
-      </c>
-      <c r="P17" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="21">
-        <v>3</v>
-      </c>
-      <c r="R17" s="19">
-        <v>13</v>
+        <v>211</v>
+      </c>
+      <c r="O17" s="6">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7">
+        <v>83</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>100</v>
+      </c>
+      <c r="R17" s="8">
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2374,55 +2314,55 @@
         <v>34</v>
       </c>
       <c r="B18" s="2">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" s="4">
+        <v>-56.7</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O18" s="6">
+        <v>100</v>
+      </c>
+      <c r="P18" s="9">
         <v>91</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L18" s="4">
-        <v>-57.1</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="O18" s="6">
-        <v>96</v>
-      </c>
-      <c r="P18" s="24">
-        <v>25</v>
-      </c>
-      <c r="Q18" s="13">
-        <v>94</v>
-      </c>
-      <c r="R18" s="22">
-        <v>31</v>
+      <c r="Q18" s="8">
+        <v>100</v>
+      </c>
+      <c r="R18" s="17">
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2430,55 +2370,55 @@
         <v>35</v>
       </c>
       <c r="B19" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L19" s="4">
-        <v>-60.6</v>
+        <v>-44.6</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="O19" s="6">
+        <v>100</v>
+      </c>
+      <c r="P19" s="17">
+        <v>96</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>100</v>
+      </c>
+      <c r="R19" s="8">
         <v>98</v>
-      </c>
-      <c r="P19" s="9">
-        <v>61</v>
-      </c>
-      <c r="Q19" s="14">
-        <v>98</v>
-      </c>
-      <c r="R19" s="7">
-        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2486,55 +2426,55 @@
         <v>36</v>
       </c>
       <c r="B20" s="2">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L20" s="4">
-        <v>-53</v>
+        <v>-58.7</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="O20" s="6">
         <v>100</v>
       </c>
-      <c r="P20" s="15">
-        <v>89</v>
-      </c>
-      <c r="Q20" s="13">
-        <v>96</v>
-      </c>
-      <c r="R20" s="14">
+      <c r="P20" s="8">
         <v>100</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>22</v>
+      </c>
+      <c r="R20" s="18">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2542,55 +2482,55 @@
         <v>37</v>
       </c>
       <c r="B21" s="2">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L21" s="4">
-        <v>-39.3</v>
+        <v>-59.3</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="O21" s="6">
         <v>100</v>
       </c>
-      <c r="P21" s="13">
-        <v>94</v>
-      </c>
-      <c r="Q21" s="14">
+      <c r="P21" s="8">
         <v>100</v>
       </c>
-      <c r="R21" s="14">
-        <v>100</v>
+      <c r="Q21" s="19">
+        <v>11</v>
+      </c>
+      <c r="R21" s="20">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2598,55 +2538,55 @@
         <v>38</v>
       </c>
       <c r="B22" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L22" s="4">
-        <v>-60.5</v>
+        <v>-49.6</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="O22" s="6">
-        <v>96</v>
-      </c>
-      <c r="P22" s="13">
-        <v>93</v>
-      </c>
-      <c r="Q22" s="13">
-        <v>95</v>
-      </c>
-      <c r="R22" s="8">
-        <v>40</v>
+        <v>98</v>
+      </c>
+      <c r="P22" s="17">
+        <v>94</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>2</v>
+      </c>
+      <c r="R22" s="11">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2654,55 +2594,55 @@
         <v>39</v>
       </c>
       <c r="B23" s="2">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L23" s="4">
-        <v>-56.7</v>
+        <v>-55.5</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="O23" s="6">
-        <v>97</v>
-      </c>
-      <c r="P23" s="13">
-        <v>94</v>
-      </c>
-      <c r="Q23" s="15">
-        <v>92</v>
-      </c>
-      <c r="R23" s="9">
-        <v>58</v>
+        <v>90</v>
+      </c>
+      <c r="P23" s="21">
+        <v>61</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>65</v>
+      </c>
+      <c r="R23" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2710,55 +2650,55 @@
         <v>40</v>
       </c>
       <c r="B24" s="2">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="I24" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L24" s="4">
+        <v>-60.3</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L24" s="4">
-        <v>-44.6</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="N24" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="O24" s="6">
-        <v>99</v>
-      </c>
-      <c r="P24" s="14">
-        <v>98</v>
-      </c>
-      <c r="Q24" s="13">
-        <v>94</v>
-      </c>
-      <c r="R24" s="10">
-        <v>81</v>
+        <v>91</v>
+      </c>
+      <c r="P24" s="10">
+        <v>77</v>
+      </c>
+      <c r="Q24" s="22">
+        <v>52</v>
+      </c>
+      <c r="R24" s="23">
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2766,55 +2706,55 @@
         <v>41</v>
       </c>
       <c r="B25" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L25" s="4">
-        <v>-58.7</v>
+        <v>-53.9</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="O25" s="6">
-        <v>97</v>
-      </c>
-      <c r="P25" s="15">
-        <v>92</v>
-      </c>
-      <c r="Q25" s="15">
-        <v>90</v>
-      </c>
-      <c r="R25" s="12">
-        <v>67</v>
+        <v>91</v>
+      </c>
+      <c r="P25" s="7">
+        <v>85</v>
+      </c>
+      <c r="Q25" s="24">
+        <v>46</v>
+      </c>
+      <c r="R25" s="25">
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2822,55 +2762,55 @@
         <v>42</v>
       </c>
       <c r="B26" s="2">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I26" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L26" s="4">
+        <v>-51.2</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L26" s="4">
-        <v>-59.3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="O26" s="6">
-        <v>93</v>
-      </c>
-      <c r="P26" s="15">
+        <v>100</v>
+      </c>
+      <c r="P26" s="7">
+        <v>84</v>
+      </c>
+      <c r="Q26" s="9">
         <v>89</v>
       </c>
-      <c r="Q26" s="10">
-        <v>79</v>
-      </c>
-      <c r="R26" s="16">
-        <v>36</v>
+      <c r="R26" s="8">
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2878,226 +2818,114 @@
         <v>43</v>
       </c>
       <c r="B27" s="2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="E27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L27" s="4">
+        <v>-59.6</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O27" s="6">
         <v>100</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L27" s="4">
-        <v>-49.6</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="O27" s="6">
-        <v>91</v>
-      </c>
-      <c r="P27" s="25">
-        <v>85</v>
-      </c>
-      <c r="Q27" s="26">
-        <v>47</v>
-      </c>
-      <c r="R27" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="2">
-        <v>22</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L28" s="4">
-        <v>-55.5</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="O28" s="6">
-        <v>100</v>
-      </c>
-      <c r="P28" s="14">
-        <v>100</v>
-      </c>
-      <c r="Q28" s="18">
-        <v>2</v>
-      </c>
-      <c r="R28" s="25">
+      <c r="P27" s="9">
+        <v>88</v>
+      </c>
+      <c r="Q27" s="7">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="2">
-        <v>33</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L29" s="4">
-        <v>-60.3</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="O29" s="6">
-        <v>100</v>
-      </c>
-      <c r="P29" s="14">
-        <v>98</v>
-      </c>
-      <c r="Q29" s="26">
-        <v>45</v>
-      </c>
-      <c r="R29" s="13">
-        <v>95</v>
+      <c r="R27" s="17">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A29">
+  <conditionalFormatting sqref="A2:A27">
     <cfRule type="expression" dxfId="8" priority="9">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B29">
+  <conditionalFormatting sqref="B2:B27">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C29">
+  <conditionalFormatting sqref="C2:C27">
     <cfRule type="expression" dxfId="9" priority="11">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D29">
+  <conditionalFormatting sqref="D2:D27">
     <cfRule type="expression" dxfId="8" priority="12">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E2:E27">
     <cfRule type="expression" dxfId="9" priority="13">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F29">
+  <conditionalFormatting sqref="F2:F27">
     <cfRule type="expression" dxfId="9" priority="14">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G29">
+  <conditionalFormatting sqref="G2:G27">
     <cfRule type="expression" dxfId="9" priority="15">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H29">
+  <conditionalFormatting sqref="H2:H27">
     <cfRule type="expression" dxfId="9" priority="16">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I29">
+  <conditionalFormatting sqref="I2:I27">
     <cfRule type="expression" dxfId="8" priority="17">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J29">
+  <conditionalFormatting sqref="J2:J27">
     <cfRule type="expression" dxfId="9" priority="18">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K29">
+  <conditionalFormatting sqref="K2:K27">
     <cfRule type="expression" dxfId="8" priority="19">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L29">
+  <conditionalFormatting sqref="L2:L27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -3116,12 +2944,12 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M29">
+  <conditionalFormatting sqref="M2:M27">
     <cfRule type="expression" dxfId="9" priority="21">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N29">
+  <conditionalFormatting sqref="N2:N27">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>
@@ -3138,22 +2966,22 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O29">
+  <conditionalFormatting sqref="O2:O27">
     <cfRule type="expression" dxfId="9" priority="23">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P29">
+  <conditionalFormatting sqref="P2:P27">
     <cfRule type="expression" dxfId="9" priority="24">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q29">
+  <conditionalFormatting sqref="Q2:Q27">
     <cfRule type="expression" dxfId="9" priority="25">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R29">
+  <conditionalFormatting sqref="R2:R27">
     <cfRule type="expression" dxfId="9" priority="26">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="214">
   <si>
     <t>Datum</t>
   </si>
@@ -70,18 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>20260110--01</t>
-  </si>
-  <si>
-    <t>20260110--02</t>
-  </si>
-  <si>
-    <t>20260110--03</t>
-  </si>
-  <si>
-    <t>20260110--04</t>
-  </si>
-  <si>
     <t>20260111--01</t>
   </si>
   <si>
@@ -148,16 +136,19 @@
     <t>20260116--03</t>
   </si>
   <si>
-    <t>06:28</t>
-  </si>
-  <si>
-    <t>06:23</t>
-  </si>
-  <si>
-    <t>03:48</t>
-  </si>
-  <si>
-    <t>04:00</t>
+    <t>20260117--01</t>
+  </si>
+  <si>
+    <t>20260117--02</t>
+  </si>
+  <si>
+    <t>20260117--03</t>
+  </si>
+  <si>
+    <t>20260117--04</t>
+  </si>
+  <si>
+    <t>20260117--05</t>
   </si>
   <si>
     <t>06:24</t>
@@ -223,24 +214,21 @@
     <t>05:22</t>
   </si>
   <si>
+    <t>06:04</t>
+  </si>
+  <si>
+    <t>00:15</t>
+  </si>
+  <si>
+    <t>05:02</t>
+  </si>
+  <si>
+    <t>06:12</t>
+  </si>
+  <si>
     <t>00:00</t>
   </si>
   <si>
-    <t>00:33</t>
-  </si>
-  <si>
-    <t>01:14:35</t>
-  </si>
-  <si>
-    <t>02:52:19</t>
-  </si>
-  <si>
-    <t>04:30:27</t>
-  </si>
-  <si>
-    <t>23:01:47</t>
-  </si>
-  <si>
     <t>00:38:42</t>
   </si>
   <si>
@@ -307,16 +295,19 @@
     <t>22:39:48</t>
   </si>
   <si>
-    <t>01:16:52</t>
-  </si>
-  <si>
-    <t>02:54:38</t>
-  </si>
-  <si>
-    <t>04:33:26</t>
-  </si>
-  <si>
-    <t>23:04:41</t>
+    <t>00:17:36</t>
+  </si>
+  <si>
+    <t>01:55:54</t>
+  </si>
+  <si>
+    <t>20:26:21</t>
+  </si>
+  <si>
+    <t>22:03:31</t>
+  </si>
+  <si>
+    <t>23:41:18</t>
   </si>
   <si>
     <t>00:41:00</t>
@@ -385,16 +376,19 @@
     <t>22:42:04</t>
   </si>
   <si>
-    <t>01:20:06</t>
-  </si>
-  <si>
-    <t>02:57:50</t>
-  </si>
-  <si>
-    <t>04:35:20</t>
-  </si>
-  <si>
-    <t>23:06:41</t>
+    <t>00:19:59</t>
+  </si>
+  <si>
+    <t>02:00:16</t>
+  </si>
+  <si>
+    <t>20:28:58</t>
+  </si>
+  <si>
+    <t>22:05:48</t>
+  </si>
+  <si>
+    <t>23:43:38</t>
   </si>
   <si>
     <t>00:44:11</t>
@@ -463,16 +457,19 @@
     <t>22:45:20</t>
   </si>
   <si>
-    <t>01:23:20</t>
-  </si>
-  <si>
-    <t>03:01:01</t>
-  </si>
-  <si>
-    <t>04:37:14</t>
-  </si>
-  <si>
-    <t>23:08:41</t>
+    <t>00:23:01</t>
+  </si>
+  <si>
+    <t>02:00:23</t>
+  </si>
+  <si>
+    <t>20:31:28</t>
+  </si>
+  <si>
+    <t>22:09:03</t>
+  </si>
+  <si>
+    <t>23:46:44</t>
   </si>
   <si>
     <t>00:47:24</t>
@@ -541,16 +538,19 @@
     <t>22:48:36</t>
   </si>
   <si>
-    <t>01:25:38</t>
-  </si>
-  <si>
-    <t>03:03:20</t>
-  </si>
-  <si>
-    <t>04:40:12</t>
-  </si>
-  <si>
-    <t>23:11:36</t>
+    <t>00:26:03</t>
+  </si>
+  <si>
+    <t>02:00:31</t>
+  </si>
+  <si>
+    <t>20:34:00</t>
+  </si>
+  <si>
+    <t>22:12:18</t>
+  </si>
+  <si>
+    <t>23:49:50</t>
   </si>
   <si>
     <t>00:49:42</t>
@@ -619,24 +619,30 @@
     <t>22:50:53</t>
   </si>
   <si>
+    <t>00:28:25</t>
+  </si>
+  <si>
+    <t>02:04:52</t>
+  </si>
+  <si>
+    <t>20:36:37</t>
+  </si>
+  <si>
+    <t>22:14:35</t>
+  </si>
+  <si>
+    <t>23:52:11</t>
+  </si>
+  <si>
     <t>0°</t>
   </si>
   <si>
+    <t>7°</t>
+  </si>
+  <si>
     <t>1°</t>
   </si>
   <si>
-    <t>12°</t>
-  </si>
-  <si>
-    <t>7°</t>
-  </si>
-  <si>
-    <t>03:02:58</t>
-  </si>
-  <si>
-    <t>04:36:41</t>
-  </si>
-  <si>
     <t>04:02:32</t>
   </si>
   <si>
@@ -644,9 +650,6 @@
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>A+B</t>
   </si>
   <si>
     <t>3</t>
@@ -686,7 +689,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -701,37 +704,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF0B070"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBD1E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF558CC8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF0707F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6EEF7"/>
+        <fgColor rgb="FFC4D7EC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF3F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4E2F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF558CC8"/>
+        <fgColor rgb="FFB2CBE6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,19 +752,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0B070"/>
+        <fgColor rgb="FF6697CD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF77A3D3"/>
+        <fgColor rgb="FF88AED8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC4D7EC"/>
+        <fgColor rgb="FFA2C0E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4E2F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6EEF7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,13 +788,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF90B4DB"/>
+        <fgColor rgb="FFEEF3F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6697CD"/>
+        <fgColor rgb="FFDDE8F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCDCEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAC5E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99BADE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,31 +830,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBBD1E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAAC5E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF80A9D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA2C0E1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF88AED8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -931,6 +946,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1334,7 +1355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1418,55 +1439,55 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>71</v>
       </c>
       <c r="L2" s="4">
-        <v>-52</v>
+        <v>-56.1</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O2" s="6">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="P2" s="7">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="Q2" s="8">
-        <v>100</v>
-      </c>
-      <c r="R2" s="7">
-        <v>86</v>
+        <v>0</v>
+      </c>
+      <c r="R2" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1474,55 +1495,55 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>205</v>
+        <v>72</v>
       </c>
       <c r="L3" s="4">
-        <v>-37.8</v>
+        <v>-43.3</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O3" s="6">
-        <v>100</v>
-      </c>
-      <c r="P3" s="9">
-        <v>91</v>
+        <v>212</v>
+      </c>
+      <c r="O3" s="9">
+        <v>94</v>
+      </c>
+      <c r="P3" s="10">
+        <v>66</v>
       </c>
       <c r="Q3" s="8">
-        <v>100</v>
-      </c>
-      <c r="R3" s="7">
-        <v>86</v>
+        <v>0</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1530,10 +1551,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>70</v>
@@ -1542,43 +1563,43 @@
         <v>73</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L4" s="4">
-        <v>-22.5</v>
+        <v>-28</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="O4" s="6">
-        <v>100</v>
-      </c>
-      <c r="P4" s="9">
-        <v>88</v>
+      <c r="O4" s="9">
+        <v>96</v>
+      </c>
+      <c r="P4" s="11">
+        <v>56</v>
       </c>
       <c r="Q4" s="8">
-        <v>100</v>
-      </c>
-      <c r="R4" s="10">
-        <v>73</v>
+        <v>0</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1586,55 +1607,55 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>74</v>
       </c>
       <c r="L5" s="4">
-        <v>-61.2</v>
+        <v>-59.9</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O5" s="6">
-        <v>85</v>
-      </c>
-      <c r="P5" s="7">
-        <v>83</v>
-      </c>
-      <c r="Q5" s="11">
+        <v>213</v>
+      </c>
+      <c r="O5" s="12">
+        <v>5</v>
+      </c>
+      <c r="P5" s="8">
         <v>0</v>
       </c>
-      <c r="R5" s="11">
+      <c r="Q5" s="8">
         <v>0</v>
+      </c>
+      <c r="R5" s="13">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1642,55 +1663,55 @@
         <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>75</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>75</v>
       </c>
       <c r="L6" s="4">
-        <v>-56.1</v>
+        <v>-59.1</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O6" s="6">
-        <v>94</v>
-      </c>
-      <c r="P6" s="9">
-        <v>92</v>
-      </c>
-      <c r="Q6" s="11">
+        <v>212</v>
+      </c>
+      <c r="O6" s="12">
+        <v>3</v>
+      </c>
+      <c r="P6" s="8">
         <v>0</v>
       </c>
-      <c r="R6" s="11">
+      <c r="Q6" s="8">
         <v>0</v>
+      </c>
+      <c r="R6" s="13">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1698,55 +1719,55 @@
         <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>76</v>
       </c>
       <c r="L7" s="4">
-        <v>-43.3</v>
+        <v>-48.4</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O7" s="6">
-        <v>85</v>
-      </c>
-      <c r="P7" s="7">
-        <v>85</v>
-      </c>
-      <c r="Q7" s="11">
+        <v>31</v>
+      </c>
+      <c r="P7" s="8">
         <v>0</v>
       </c>
-      <c r="R7" s="11">
-        <v>0</v>
+      <c r="Q7" s="14">
+        <v>9</v>
+      </c>
+      <c r="R7" s="15">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1754,55 +1775,55 @@
         <v>24</v>
       </c>
       <c r="B8" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L8" s="4">
-        <v>-28</v>
+        <v>-33.6</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O8" s="6">
-        <v>89</v>
-      </c>
-      <c r="P8" s="9">
-        <v>88</v>
-      </c>
-      <c r="Q8" s="11">
+        <v>212</v>
+      </c>
+      <c r="O8" s="9">
+        <v>86</v>
+      </c>
+      <c r="P8" s="8">
         <v>0</v>
       </c>
-      <c r="R8" s="11">
-        <v>0</v>
+      <c r="Q8" s="16">
+        <v>45</v>
+      </c>
+      <c r="R8" s="17">
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1810,55 +1831,55 @@
         <v>25</v>
       </c>
       <c r="B9" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>78</v>
       </c>
       <c r="L9" s="4">
-        <v>-59.9</v>
+        <v>-57.1</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O9" s="12">
-        <v>7</v>
-      </c>
-      <c r="P9" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>0</v>
-      </c>
-      <c r="R9" s="13">
-        <v>7</v>
+        <v>213</v>
+      </c>
+      <c r="O9" s="9">
+        <v>100</v>
+      </c>
+      <c r="P9" s="18">
+        <v>86</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>97</v>
+      </c>
+      <c r="R9" s="20">
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1866,55 +1887,55 @@
         <v>26</v>
       </c>
       <c r="B10" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>79</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>79</v>
       </c>
       <c r="L10" s="4">
-        <v>-59.1</v>
+        <v>-60.6</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O10" s="12">
-        <v>5</v>
-      </c>
-      <c r="P10" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>2</v>
-      </c>
-      <c r="R10" s="13">
-        <v>3</v>
+        <v>212</v>
+      </c>
+      <c r="O10" s="9">
+        <v>100</v>
+      </c>
+      <c r="P10" s="21">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>98</v>
+      </c>
+      <c r="R10" s="22">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1925,52 +1946,52 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>80</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L11" s="4">
-        <v>-48.4</v>
+        <v>-53</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O11" s="14">
-        <v>22</v>
-      </c>
-      <c r="P11" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>2</v>
-      </c>
-      <c r="R11" s="15">
-        <v>21</v>
+        <v>212</v>
+      </c>
+      <c r="O11" s="9">
+        <v>100</v>
+      </c>
+      <c r="P11" s="18">
+        <v>86</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>99</v>
+      </c>
+      <c r="R11" s="7">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1978,55 +1999,55 @@
         <v>28</v>
       </c>
       <c r="B12" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>81</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="L12" s="4">
-        <v>-33.6</v>
+        <v>-39.3</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O12" s="6">
-        <v>97</v>
-      </c>
-      <c r="P12" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="16">
-        <v>67</v>
-      </c>
-      <c r="R12" s="17">
-        <v>95</v>
+        <v>212</v>
+      </c>
+      <c r="O12" s="9">
+        <v>100</v>
+      </c>
+      <c r="P12" s="22">
+        <v>99</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>99</v>
+      </c>
+      <c r="R12" s="16">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2034,55 +2055,55 @@
         <v>29</v>
       </c>
       <c r="B13" s="2">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>82</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>82</v>
       </c>
       <c r="L13" s="4">
-        <v>-57.1</v>
+        <v>-60.5</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="9">
         <v>100</v>
       </c>
-      <c r="P13" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>100</v>
-      </c>
-      <c r="R13" s="8">
-        <v>100</v>
+      <c r="P13" s="23">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>99</v>
+      </c>
+      <c r="R13" s="20">
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2090,54 +2111,54 @@
         <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L14" s="4">
-        <v>-60.6</v>
+        <v>-56.7</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O14" s="6">
+        <v>212</v>
+      </c>
+      <c r="O14" s="9">
         <v>100</v>
       </c>
-      <c r="P14" s="17">
-        <v>93</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>98</v>
-      </c>
-      <c r="R14" s="8">
+      <c r="P14" s="20">
+        <v>92</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>100</v>
+      </c>
+      <c r="R14" s="22">
         <v>100</v>
       </c>
     </row>
@@ -2146,55 +2167,55 @@
         <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>84</v>
       </c>
       <c r="L15" s="4">
-        <v>-53</v>
+        <v>-44.6</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O15" s="6">
+        <v>212</v>
+      </c>
+      <c r="O15" s="9">
         <v>100</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="18">
+        <v>86</v>
+      </c>
+      <c r="Q15" s="22">
         <v>100</v>
       </c>
-      <c r="Q15" s="7">
-        <v>85</v>
-      </c>
-      <c r="R15" s="7">
-        <v>85</v>
+      <c r="R15" s="22">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2202,55 +2223,55 @@
         <v>32</v>
       </c>
       <c r="B16" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>85</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>85</v>
       </c>
       <c r="L16" s="4">
-        <v>-39.3</v>
+        <v>-58.7</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O16" s="6">
-        <v>100</v>
-      </c>
-      <c r="P16" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>83</v>
-      </c>
-      <c r="R16" s="9">
-        <v>92</v>
+        <v>212</v>
+      </c>
+      <c r="O16" s="9">
+        <v>68</v>
+      </c>
+      <c r="P16" s="7">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="24">
+        <v>49</v>
+      </c>
+      <c r="R16" s="25">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2258,55 +2279,55 @@
         <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L17" s="4">
-        <v>-60.5</v>
+        <v>-59.3</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O17" s="6">
-        <v>100</v>
+        <v>212</v>
+      </c>
+      <c r="O17" s="9">
+        <v>75</v>
       </c>
       <c r="P17" s="7">
-        <v>83</v>
-      </c>
-      <c r="Q17" s="8">
-        <v>100</v>
-      </c>
-      <c r="R17" s="8">
-        <v>98</v>
+        <v>58</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>56</v>
+      </c>
+      <c r="R17" s="7">
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2314,55 +2335,55 @@
         <v>34</v>
       </c>
       <c r="B18" s="2">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>87</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>87</v>
       </c>
       <c r="L18" s="4">
-        <v>-56.7</v>
+        <v>-49.6</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O18" s="6">
-        <v>100</v>
-      </c>
-      <c r="P18" s="9">
-        <v>91</v>
-      </c>
-      <c r="Q18" s="8">
-        <v>100</v>
+        <v>212</v>
+      </c>
+      <c r="O18" s="9">
+        <v>85</v>
+      </c>
+      <c r="P18" s="11">
+        <v>57</v>
+      </c>
+      <c r="Q18" s="23">
+        <v>71</v>
       </c>
       <c r="R18" s="17">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2370,55 +2391,55 @@
         <v>35</v>
       </c>
       <c r="B19" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>88</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L19" s="4">
-        <v>-44.6</v>
+        <v>-55.5</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O19" s="6">
-        <v>100</v>
-      </c>
-      <c r="P19" s="17">
-        <v>96</v>
-      </c>
-      <c r="Q19" s="8">
-        <v>100</v>
-      </c>
-      <c r="R19" s="8">
+        <v>212</v>
+      </c>
+      <c r="O19" s="9">
         <v>98</v>
+      </c>
+      <c r="P19" s="20">
+        <v>90</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>62</v>
+      </c>
+      <c r="R19" s="10">
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2426,55 +2447,55 @@
         <v>36</v>
       </c>
       <c r="B20" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L20" s="4">
-        <v>-58.7</v>
+        <v>-60.3</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O20" s="6">
-        <v>100</v>
-      </c>
-      <c r="P20" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="15">
-        <v>22</v>
-      </c>
-      <c r="R20" s="18">
-        <v>37</v>
+        <v>212</v>
+      </c>
+      <c r="O20" s="9">
+        <v>94</v>
+      </c>
+      <c r="P20" s="18">
+        <v>84</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>56</v>
+      </c>
+      <c r="R20" s="11">
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2482,55 +2503,55 @@
         <v>37</v>
       </c>
       <c r="B21" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>90</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>90</v>
       </c>
       <c r="L21" s="4">
-        <v>-59.3</v>
+        <v>-53.9</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O21" s="6">
-        <v>100</v>
-      </c>
-      <c r="P21" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q21" s="19">
-        <v>11</v>
-      </c>
-      <c r="R21" s="20">
-        <v>13</v>
+        <v>212</v>
+      </c>
+      <c r="O21" s="9">
+        <v>90</v>
+      </c>
+      <c r="P21" s="21">
+        <v>80</v>
+      </c>
+      <c r="Q21" s="24">
+        <v>50</v>
+      </c>
+      <c r="R21" s="11">
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2538,55 +2559,55 @@
         <v>38</v>
       </c>
       <c r="B22" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>91</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>91</v>
       </c>
       <c r="L22" s="4">
-        <v>-49.6</v>
+        <v>-51.2</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O22" s="6">
+        <v>212</v>
+      </c>
+      <c r="O22" s="9">
+        <v>100</v>
+      </c>
+      <c r="P22" s="22">
         <v>98</v>
       </c>
-      <c r="P22" s="17">
-        <v>94</v>
-      </c>
-      <c r="Q22" s="11">
-        <v>2</v>
-      </c>
-      <c r="R22" s="11">
-        <v>2</v>
+      <c r="Q22" s="26">
+        <v>13</v>
+      </c>
+      <c r="R22" s="25">
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2594,55 +2615,55 @@
         <v>39</v>
       </c>
       <c r="B23" s="2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>92</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>92</v>
       </c>
       <c r="L23" s="4">
-        <v>-55.5</v>
+        <v>-59.6</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O23" s="6">
-        <v>90</v>
-      </c>
-      <c r="P23" s="21">
-        <v>61</v>
+        <v>212</v>
+      </c>
+      <c r="O23" s="9">
+        <v>100</v>
+      </c>
+      <c r="P23" s="19">
+        <v>96</v>
       </c>
       <c r="Q23" s="16">
-        <v>65</v>
-      </c>
-      <c r="R23" s="11">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="R23" s="7">
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2650,55 +2671,55 @@
         <v>40</v>
       </c>
       <c r="B24" s="2">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>93</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L24" s="4">
-        <v>-60.3</v>
+        <v>-57.2</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O24" s="6">
-        <v>91</v>
-      </c>
-      <c r="P24" s="10">
-        <v>77</v>
-      </c>
-      <c r="Q24" s="22">
-        <v>52</v>
-      </c>
-      <c r="R24" s="23">
-        <v>24</v>
+        <v>212</v>
+      </c>
+      <c r="O24" s="9">
+        <v>100</v>
+      </c>
+      <c r="P24" s="20">
+        <v>90</v>
+      </c>
+      <c r="Q24" s="20">
+        <v>92</v>
+      </c>
+      <c r="R24" s="22">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2706,55 +2727,55 @@
         <v>41</v>
       </c>
       <c r="B25" s="2">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>94</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>94</v>
       </c>
       <c r="L25" s="4">
-        <v>-53.9</v>
+        <v>-45.9</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O25" s="6">
-        <v>91</v>
-      </c>
-      <c r="P25" s="7">
-        <v>85</v>
-      </c>
-      <c r="Q25" s="24">
-        <v>46</v>
-      </c>
-      <c r="R25" s="25">
-        <v>32</v>
+        <v>213</v>
+      </c>
+      <c r="O25" s="9">
+        <v>100</v>
+      </c>
+      <c r="P25" s="20">
+        <v>89</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>55</v>
+      </c>
+      <c r="R25" s="7">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2762,55 +2783,55 @@
         <v>42</v>
       </c>
       <c r="B26" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>95</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>95</v>
       </c>
       <c r="L26" s="4">
-        <v>-51.2</v>
+        <v>-46.2</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O26" s="6">
-        <v>100</v>
-      </c>
-      <c r="P26" s="7">
+        <v>212</v>
+      </c>
+      <c r="O26" s="9">
+        <v>91</v>
+      </c>
+      <c r="P26" s="18">
         <v>84</v>
       </c>
-      <c r="Q26" s="9">
-        <v>89</v>
+      <c r="Q26" s="7">
+        <v>60</v>
       </c>
       <c r="R26" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2818,114 +2839,170 @@
         <v>43</v>
       </c>
       <c r="B27" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>96</v>
       </c>
       <c r="L27" s="4">
-        <v>-59.6</v>
+        <v>-57.3</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N27" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O27" s="9">
+        <v>92</v>
+      </c>
+      <c r="P27" s="20">
+        <v>89</v>
+      </c>
+      <c r="Q27" s="10">
+        <v>65</v>
+      </c>
+      <c r="R27" s="27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="2">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L28" s="4">
+        <v>-59.3</v>
+      </c>
+      <c r="M28" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="O27" s="6">
-        <v>100</v>
-      </c>
-      <c r="P27" s="9">
-        <v>88</v>
-      </c>
-      <c r="Q27" s="7">
-        <v>87</v>
-      </c>
-      <c r="R27" s="17">
+      <c r="N28" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O28" s="9">
         <v>96</v>
+      </c>
+      <c r="P28" s="19">
+        <v>94</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>61</v>
+      </c>
+      <c r="R28" s="15">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A27">
+  <conditionalFormatting sqref="A2:A28">
     <cfRule type="expression" dxfId="8" priority="9">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B27">
+  <conditionalFormatting sqref="B2:B28">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C27">
+  <conditionalFormatting sqref="C2:C28">
     <cfRule type="expression" dxfId="9" priority="11">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D27">
+  <conditionalFormatting sqref="D2:D28">
     <cfRule type="expression" dxfId="8" priority="12">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E27">
+  <conditionalFormatting sqref="E2:E28">
     <cfRule type="expression" dxfId="9" priority="13">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F27">
+  <conditionalFormatting sqref="F2:F28">
     <cfRule type="expression" dxfId="9" priority="14">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G27">
+  <conditionalFormatting sqref="G2:G28">
     <cfRule type="expression" dxfId="9" priority="15">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H27">
+  <conditionalFormatting sqref="H2:H28">
     <cfRule type="expression" dxfId="9" priority="16">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I27">
+  <conditionalFormatting sqref="I2:I28">
     <cfRule type="expression" dxfId="8" priority="17">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J27">
+  <conditionalFormatting sqref="J2:J28">
     <cfRule type="expression" dxfId="9" priority="18">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K27">
+  <conditionalFormatting sqref="K2:K28">
     <cfRule type="expression" dxfId="8" priority="19">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L27">
+  <conditionalFormatting sqref="L2:L28">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -2944,12 +3021,12 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M27">
+  <conditionalFormatting sqref="M2:M28">
     <cfRule type="expression" dxfId="9" priority="21">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N27">
+  <conditionalFormatting sqref="N2:N28">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>
@@ -2966,22 +3043,22 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O27">
+  <conditionalFormatting sqref="O2:O28">
     <cfRule type="expression" dxfId="9" priority="23">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P27">
+  <conditionalFormatting sqref="P2:P28">
     <cfRule type="expression" dxfId="9" priority="24">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q27">
+  <conditionalFormatting sqref="Q2:Q28">
     <cfRule type="expression" dxfId="9" priority="25">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R27">
+  <conditionalFormatting sqref="R2:R28">
     <cfRule type="expression" dxfId="9" priority="26">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="212">
   <si>
     <t>Datum</t>
   </si>
@@ -70,18 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>20260111--01</t>
-  </si>
-  <si>
-    <t>20260111--02</t>
-  </si>
-  <si>
-    <t>20260111--03</t>
-  </si>
-  <si>
-    <t>20260111--04</t>
-  </si>
-  <si>
     <t>20260112--01</t>
   </si>
   <si>
@@ -151,469 +139,118 @@
     <t>20260117--05</t>
   </si>
   <si>
-    <t>06:24</t>
+    <t>20260118--01</t>
+  </si>
+  <si>
+    <t>20260118--02</t>
+  </si>
+  <si>
+    <t>20260118--03</t>
+  </si>
+  <si>
+    <t>20260118--04</t>
+  </si>
+  <si>
+    <t>06:18</t>
+  </si>
+  <si>
+    <t>06:30</t>
+  </si>
+  <si>
+    <t>04:49</t>
+  </si>
+  <si>
+    <t>02:11</t>
+  </si>
+  <si>
+    <t>06:10</t>
+  </si>
+  <si>
+    <t>06:32</t>
+  </si>
+  <si>
+    <t>05:11</t>
+  </si>
+  <si>
+    <t>06:02</t>
+  </si>
+  <si>
+    <t>06:33</t>
+  </si>
+  <si>
+    <t>05:29</t>
+  </si>
+  <si>
+    <t>05:52</t>
+  </si>
+  <si>
+    <t>-1434:34</t>
+  </si>
+  <si>
+    <t>05:42</t>
+  </si>
+  <si>
+    <t>05:39</t>
+  </si>
+  <si>
+    <t>06:34</t>
+  </si>
+  <si>
+    <t>05:55</t>
+  </si>
+  <si>
+    <t>05:23</t>
+  </si>
+  <si>
+    <t>06:04</t>
+  </si>
+  <si>
+    <t>00:06</t>
+  </si>
+  <si>
+    <t>05:03</t>
+  </si>
+  <si>
+    <t>06:31</t>
+  </si>
+  <si>
+    <t>06:12</t>
+  </si>
+  <si>
+    <t>02:32</t>
+  </si>
+  <si>
+    <t>04:39</t>
   </si>
   <si>
     <t>06:27</t>
   </si>
   <si>
-    <t>04:22</t>
-  </si>
-  <si>
-    <t>03:16</t>
-  </si>
-  <si>
-    <t>06:18</t>
-  </si>
-  <si>
-    <t>06:30</t>
-  </si>
-  <si>
-    <t>04:50</t>
-  </si>
-  <si>
-    <t>02:10</t>
-  </si>
-  <si>
-    <t>06:11</t>
-  </si>
-  <si>
-    <t>06:32</t>
-  </si>
-  <si>
-    <t>05:11</t>
-  </si>
-  <si>
-    <t>06:02</t>
-  </si>
-  <si>
-    <t>06:33</t>
-  </si>
-  <si>
-    <t>05:28</t>
-  </si>
-  <si>
-    <t>05:52</t>
-  </si>
-  <si>
-    <t>-1434:34</t>
-  </si>
-  <si>
-    <t>05:43</t>
-  </si>
-  <si>
-    <t>05:38</t>
-  </si>
-  <si>
-    <t>06:34</t>
-  </si>
-  <si>
-    <t>05:54</t>
-  </si>
-  <si>
-    <t>05:22</t>
-  </si>
-  <si>
-    <t>06:04</t>
-  </si>
-  <si>
-    <t>00:15</t>
-  </si>
-  <si>
-    <t>05:02</t>
-  </si>
-  <si>
-    <t>06:12</t>
+    <t>06:19</t>
   </si>
   <si>
     <t>00:00</t>
   </si>
   <si>
-    <t>00:38:42</t>
-  </si>
-  <si>
-    <t>02:16:24</t>
-  </si>
-  <si>
-    <t>03:54:28</t>
-  </si>
-  <si>
-    <t>22:26:01</t>
-  </si>
-  <si>
-    <t>00:02:46</t>
-  </si>
-  <si>
-    <t>01:40:25</t>
-  </si>
-  <si>
-    <t>03:18:26</t>
-  </si>
-  <si>
-    <t>21:50:13</t>
-  </si>
-  <si>
-    <t>23:26:48</t>
-  </si>
-  <si>
-    <t>01:04:24</t>
-  </si>
-  <si>
-    <t>02:42:22</t>
-  </si>
-  <si>
-    <t>22:50:48</t>
-  </si>
-  <si>
-    <t>00:28:19</t>
-  </si>
-  <si>
-    <t>02:06:15</t>
-  </si>
-  <si>
-    <t>22:14:44</t>
-  </si>
-  <si>
-    <t>23:52:12</t>
-  </si>
-  <si>
-    <t>01:30:05</t>
-  </si>
-  <si>
-    <t>21:38:39</t>
-  </si>
-  <si>
-    <t>23:16:01</t>
-  </si>
-  <si>
-    <t>00:53:52</t>
-  </si>
-  <si>
-    <t>21:02:31</t>
-  </si>
-  <si>
-    <t>22:39:48</t>
-  </si>
-  <si>
-    <t>00:17:36</t>
-  </si>
-  <si>
-    <t>01:55:54</t>
-  </si>
-  <si>
-    <t>20:26:21</t>
-  </si>
-  <si>
-    <t>22:03:31</t>
-  </si>
-  <si>
-    <t>23:41:18</t>
-  </si>
-  <si>
-    <t>00:41:00</t>
-  </si>
-  <si>
-    <t>02:18:42</t>
-  </si>
-  <si>
-    <t>03:57:17</t>
-  </si>
-  <si>
-    <t>22:29:09</t>
-  </si>
-  <si>
-    <t>00:05:06</t>
-  </si>
-  <si>
-    <t>01:42:43</t>
-  </si>
-  <si>
-    <t>03:21:07</t>
-  </si>
-  <si>
-    <t>21:53:44</t>
-  </si>
-  <si>
-    <t>23:29:09</t>
-  </si>
-  <si>
-    <t>01:06:41</t>
-  </si>
-  <si>
-    <t>02:44:57</t>
-  </si>
-  <si>
-    <t>22:53:10</t>
-  </si>
-  <si>
-    <t>00:30:36</t>
-  </si>
-  <si>
-    <t>02:08:46</t>
-  </si>
-  <si>
-    <t>22:17:09</t>
-  </si>
-  <si>
-    <t>23:54:28</t>
-  </si>
-  <si>
-    <t>01:32:32</t>
-  </si>
-  <si>
-    <t>21:41:07</t>
-  </si>
-  <si>
-    <t>23:18:17</t>
-  </si>
-  <si>
-    <t>00:56:17</t>
-  </si>
-  <si>
-    <t>21:05:03</t>
-  </si>
-  <si>
-    <t>22:42:04</t>
-  </si>
-  <si>
-    <t>00:19:59</t>
-  </si>
-  <si>
-    <t>02:00:16</t>
-  </si>
-  <si>
-    <t>20:28:58</t>
-  </si>
-  <si>
-    <t>22:05:48</t>
-  </si>
-  <si>
-    <t>23:43:38</t>
-  </si>
-  <si>
-    <t>00:44:11</t>
-  </si>
-  <si>
-    <t>02:21:55</t>
-  </si>
-  <si>
-    <t>03:59:28</t>
-  </si>
-  <si>
-    <t>22:30:46</t>
-  </si>
-  <si>
-    <t>00:08:14</t>
-  </si>
-  <si>
-    <t>01:45:58</t>
-  </si>
-  <si>
-    <t>03:23:32</t>
-  </si>
-  <si>
-    <t>21:54:49</t>
-  </si>
-  <si>
-    <t>23:32:14</t>
-  </si>
-  <si>
-    <t>01:09:57</t>
-  </si>
-  <si>
-    <t>02:47:33</t>
-  </si>
-  <si>
-    <t>22:56:11</t>
-  </si>
-  <si>
-    <t>00:33:52</t>
-  </si>
-  <si>
-    <t>02:11:30</t>
-  </si>
-  <si>
-    <t>22:20:05</t>
-  </si>
-  <si>
-    <t>23:57:45</t>
-  </si>
-  <si>
-    <t>01:35:24</t>
-  </si>
-  <si>
-    <t>21:43:55</t>
-  </si>
-  <si>
-    <t>23:21:34</t>
-  </si>
-  <si>
-    <t>00:59:14</t>
-  </si>
-  <si>
-    <t>21:07:43</t>
-  </si>
-  <si>
-    <t>22:45:20</t>
-  </si>
-  <si>
-    <t>00:23:01</t>
-  </si>
-  <si>
-    <t>02:00:23</t>
-  </si>
-  <si>
-    <t>20:31:28</t>
-  </si>
-  <si>
-    <t>22:09:03</t>
-  </si>
-  <si>
-    <t>23:46:44</t>
-  </si>
-  <si>
-    <t>00:47:24</t>
-  </si>
-  <si>
-    <t>02:25:09</t>
-  </si>
-  <si>
-    <t>04:01:39</t>
-  </si>
-  <si>
-    <t>22:32:25</t>
-  </si>
-  <si>
-    <t>00:11:24</t>
-  </si>
-  <si>
-    <t>01:49:13</t>
-  </si>
-  <si>
-    <t>03:25:57</t>
-  </si>
-  <si>
-    <t>21:55:54</t>
-  </si>
-  <si>
-    <t>23:35:20</t>
-  </si>
-  <si>
-    <t>01:13:13</t>
-  </si>
-  <si>
-    <t>02:50:08</t>
-  </si>
-  <si>
-    <t>22:59:12</t>
-  </si>
-  <si>
-    <t>00:37:09</t>
-  </si>
-  <si>
-    <t>02:14:14</t>
-  </si>
-  <si>
-    <t>22:23:01</t>
-  </si>
-  <si>
-    <t>00:01:02</t>
-  </si>
-  <si>
-    <t>01:38:15</t>
-  </si>
-  <si>
-    <t>21:46:45</t>
-  </si>
-  <si>
-    <t>23:24:51</t>
-  </si>
-  <si>
-    <t>01:02:11</t>
-  </si>
-  <si>
-    <t>21:10:25</t>
-  </si>
-  <si>
-    <t>22:48:36</t>
-  </si>
-  <si>
-    <t>00:26:03</t>
-  </si>
-  <si>
-    <t>02:00:31</t>
-  </si>
-  <si>
-    <t>20:34:00</t>
-  </si>
-  <si>
-    <t>22:12:18</t>
-  </si>
-  <si>
-    <t>23:49:50</t>
-  </si>
-  <si>
-    <t>00:49:42</t>
-  </si>
-  <si>
-    <t>02:27:27</t>
-  </si>
-  <si>
-    <t>04:04:27</t>
-  </si>
-  <si>
-    <t>22:35:33</t>
-  </si>
-  <si>
-    <t>00:13:43</t>
-  </si>
-  <si>
-    <t>01:51:30</t>
-  </si>
-  <si>
-    <t>03:28:37</t>
-  </si>
-  <si>
-    <t>21:59:26</t>
-  </si>
-  <si>
-    <t>23:37:41</t>
-  </si>
-  <si>
-    <t>01:15:29</t>
-  </si>
-  <si>
-    <t>02:52:43</t>
-  </si>
-  <si>
-    <t>23:01:35</t>
-  </si>
-  <si>
-    <t>00:39:25</t>
-  </si>
-  <si>
-    <t>02:16:45</t>
-  </si>
-  <si>
-    <t>22:25:26</t>
-  </si>
-  <si>
-    <t>00:03:18</t>
-  </si>
-  <si>
-    <t>01:40:42</t>
-  </si>
-  <si>
-    <t>21:49:13</t>
-  </si>
-  <si>
-    <t>23:27:07</t>
-  </si>
-  <si>
-    <t>01:04:36</t>
-  </si>
-  <si>
-    <t>21:12:57</t>
+    <t>00:02:48</t>
+  </si>
+  <si>
+    <t>01:40:28</t>
+  </si>
+  <si>
+    <t>03:18:29</t>
+  </si>
+  <si>
+    <t>21:50:16</t>
+  </si>
+  <si>
+    <t>23:26:52</t>
+  </si>
+  <si>
+    <t>01:04:28</t>
+  </si>
+  <si>
+    <t>02:42:26</t>
   </si>
   <si>
     <t>22:50:53</t>
@@ -622,31 +259,388 @@
     <t>00:28:25</t>
   </si>
   <si>
-    <t>02:04:52</t>
-  </si>
-  <si>
-    <t>20:36:37</t>
-  </si>
-  <si>
-    <t>22:14:35</t>
-  </si>
-  <si>
-    <t>23:52:11</t>
+    <t>02:06:20</t>
+  </si>
+  <si>
+    <t>22:14:51</t>
+  </si>
+  <si>
+    <t>23:52:19</t>
+  </si>
+  <si>
+    <t>01:30:12</t>
+  </si>
+  <si>
+    <t>21:38:48</t>
+  </si>
+  <si>
+    <t>23:16:10</t>
+  </si>
+  <si>
+    <t>00:54:01</t>
+  </si>
+  <si>
+    <t>21:02:42</t>
+  </si>
+  <si>
+    <t>22:39:59</t>
+  </si>
+  <si>
+    <t>00:17:48</t>
+  </si>
+  <si>
+    <t>01:56:05</t>
+  </si>
+  <si>
+    <t>20:26:34</t>
+  </si>
+  <si>
+    <t>22:03:45</t>
+  </si>
+  <si>
+    <t>23:41:31</t>
+  </si>
+  <si>
+    <t>01:19:43</t>
+  </si>
+  <si>
+    <t>19:50:25</t>
+  </si>
+  <si>
+    <t>21:27:28</t>
+  </si>
+  <si>
+    <t>23:05:12</t>
+  </si>
+  <si>
+    <t>00:05:08</t>
+  </si>
+  <si>
+    <t>01:42:45</t>
+  </si>
+  <si>
+    <t>03:21:10</t>
+  </si>
+  <si>
+    <t>21:53:47</t>
+  </si>
+  <si>
+    <t>23:29:13</t>
+  </si>
+  <si>
+    <t>01:06:44</t>
+  </si>
+  <si>
+    <t>02:45:01</t>
+  </si>
+  <si>
+    <t>22:53:15</t>
+  </si>
+  <si>
+    <t>00:30:41</t>
+  </si>
+  <si>
+    <t>02:08:51</t>
+  </si>
+  <si>
+    <t>22:17:16</t>
+  </si>
+  <si>
+    <t>23:54:35</t>
+  </si>
+  <si>
+    <t>01:32:40</t>
+  </si>
+  <si>
+    <t>21:41:15</t>
+  </si>
+  <si>
+    <t>23:18:26</t>
+  </si>
+  <si>
+    <t>00:56:26</t>
+  </si>
+  <si>
+    <t>21:05:13</t>
+  </si>
+  <si>
+    <t>22:42:15</t>
+  </si>
+  <si>
+    <t>00:20:10</t>
+  </si>
+  <si>
+    <t>02:00:34</t>
+  </si>
+  <si>
+    <t>20:29:10</t>
+  </si>
+  <si>
+    <t>22:06:01</t>
+  </si>
+  <si>
+    <t>23:43:52</t>
+  </si>
+  <si>
+    <t>01:23:07</t>
+  </si>
+  <si>
+    <t>19:53:07</t>
+  </si>
+  <si>
+    <t>21:29:45</t>
+  </si>
+  <si>
+    <t>23:07:31</t>
+  </si>
+  <si>
+    <t>00:08:16</t>
+  </si>
+  <si>
+    <t>01:46:00</t>
+  </si>
+  <si>
+    <t>03:23:35</t>
+  </si>
+  <si>
+    <t>21:54:53</t>
+  </si>
+  <si>
+    <t>23:32:18</t>
+  </si>
+  <si>
+    <t>01:10:00</t>
+  </si>
+  <si>
+    <t>02:47:36</t>
+  </si>
+  <si>
+    <t>22:56:16</t>
+  </si>
+  <si>
+    <t>00:33:57</t>
+  </si>
+  <si>
+    <t>02:11:35</t>
+  </si>
+  <si>
+    <t>22:20:11</t>
+  </si>
+  <si>
+    <t>23:57:52</t>
+  </si>
+  <si>
+    <t>01:35:31</t>
+  </si>
+  <si>
+    <t>21:44:04</t>
+  </si>
+  <si>
+    <t>23:21:43</t>
+  </si>
+  <si>
+    <t>00:59:23</t>
+  </si>
+  <si>
+    <t>21:07:54</t>
+  </si>
+  <si>
+    <t>22:45:31</t>
+  </si>
+  <si>
+    <t>00:23:12</t>
+  </si>
+  <si>
+    <t>20:31:42</t>
+  </si>
+  <si>
+    <t>22:09:16</t>
+  </si>
+  <si>
+    <t>23:46:58</t>
+  </si>
+  <si>
+    <t>01:24:23</t>
+  </si>
+  <si>
+    <t>19:55:26</t>
+  </si>
+  <si>
+    <t>21:32:59</t>
+  </si>
+  <si>
+    <t>23:10:40</t>
+  </si>
+  <si>
+    <t>00:11:26</t>
+  </si>
+  <si>
+    <t>01:49:15</t>
+  </si>
+  <si>
+    <t>03:25:59</t>
+  </si>
+  <si>
+    <t>21:55:58</t>
+  </si>
+  <si>
+    <t>23:35:23</t>
+  </si>
+  <si>
+    <t>01:13:16</t>
+  </si>
+  <si>
+    <t>02:50:12</t>
+  </si>
+  <si>
+    <t>22:59:17</t>
+  </si>
+  <si>
+    <t>00:37:14</t>
+  </si>
+  <si>
+    <t>02:14:20</t>
+  </si>
+  <si>
+    <t>22:23:08</t>
+  </si>
+  <si>
+    <t>00:01:09</t>
+  </si>
+  <si>
+    <t>01:38:22</t>
+  </si>
+  <si>
+    <t>21:46:54</t>
+  </si>
+  <si>
+    <t>23:25:00</t>
+  </si>
+  <si>
+    <t>01:02:21</t>
+  </si>
+  <si>
+    <t>21:10:36</t>
+  </si>
+  <si>
+    <t>22:48:47</t>
+  </si>
+  <si>
+    <t>00:26:14</t>
+  </si>
+  <si>
+    <t>02:00:40</t>
+  </si>
+  <si>
+    <t>20:34:13</t>
+  </si>
+  <si>
+    <t>22:12:32</t>
+  </si>
+  <si>
+    <t>23:50:04</t>
+  </si>
+  <si>
+    <t>01:25:39</t>
+  </si>
+  <si>
+    <t>19:57:46</t>
+  </si>
+  <si>
+    <t>21:36:12</t>
+  </si>
+  <si>
+    <t>23:13:50</t>
+  </si>
+  <si>
+    <t>00:13:46</t>
+  </si>
+  <si>
+    <t>01:51:32</t>
+  </si>
+  <si>
+    <t>03:28:40</t>
+  </si>
+  <si>
+    <t>21:59:30</t>
+  </si>
+  <si>
+    <t>23:37:45</t>
+  </si>
+  <si>
+    <t>01:15:33</t>
+  </si>
+  <si>
+    <t>02:52:47</t>
+  </si>
+  <si>
+    <t>23:01:41</t>
+  </si>
+  <si>
+    <t>00:39:31</t>
+  </si>
+  <si>
+    <t>02:16:50</t>
+  </si>
+  <si>
+    <t>22:25:33</t>
+  </si>
+  <si>
+    <t>00:03:25</t>
+  </si>
+  <si>
+    <t>01:40:49</t>
+  </si>
+  <si>
+    <t>21:49:22</t>
+  </si>
+  <si>
+    <t>23:27:16</t>
+  </si>
+  <si>
+    <t>01:04:45</t>
+  </si>
+  <si>
+    <t>21:13:08</t>
+  </si>
+  <si>
+    <t>22:51:04</t>
+  </si>
+  <si>
+    <t>00:28:37</t>
+  </si>
+  <si>
+    <t>02:05:03</t>
+  </si>
+  <si>
+    <t>20:36:50</t>
+  </si>
+  <si>
+    <t>22:14:49</t>
+  </si>
+  <si>
+    <t>23:52:24</t>
+  </si>
+  <si>
+    <t>01:29:02</t>
+  </si>
+  <si>
+    <t>20:00:29</t>
+  </si>
+  <si>
+    <t>21:38:30</t>
+  </si>
+  <si>
+    <t>23:16:09</t>
   </si>
   <si>
     <t>0°</t>
   </si>
   <si>
-    <t>7°</t>
-  </si>
-  <si>
     <t>1°</t>
   </si>
   <si>
-    <t>04:02:32</t>
-  </si>
-  <si>
-    <t>03:28:24</t>
+    <t>03:28:27</t>
   </si>
   <si>
     <t>B</t>
@@ -689,7 +683,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -704,7 +698,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF6AD26A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF558CC8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5E92CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF0B070"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4E2F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6E9DD0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0707F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6EEF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF3F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAC5E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D7EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99BADE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCDCEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2C0E1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,37 +806,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF558CC8"/>
+        <fgColor rgb="FF90B4DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0707F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4D7EC"/>
+        <fgColor rgb="FF77A3D3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB2CBE6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6AD26A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5E92CB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,78 +831,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF88AED8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA2C0E1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4E2F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6EEF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6F9FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF3F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8F4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCDCEE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAAC5E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99BADE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6E9DD0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF80A9D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -952,6 +952,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1439,22 +1442,22 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>152</v>
@@ -1466,28 +1469,28 @@
         <v>206</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L2" s="4">
-        <v>-56.1</v>
+        <v>-59.1</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O2" s="6">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="P2" s="7">
-        <v>59</v>
-      </c>
-      <c r="Q2" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="7">
         <v>0</v>
       </c>
       <c r="R2" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1495,22 +1498,22 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>153</v>
@@ -1522,28 +1525,28 @@
         <v>206</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L3" s="4">
-        <v>-43.3</v>
+        <v>-48.4</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O3" s="9">
-        <v>94</v>
-      </c>
-      <c r="P3" s="10">
-        <v>66</v>
-      </c>
-      <c r="Q3" s="8">
         <v>0</v>
       </c>
-      <c r="R3" s="8">
+      <c r="P3" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="7">
         <v>0</v>
+      </c>
+      <c r="R3" s="10">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1551,22 +1554,22 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>154</v>
@@ -1578,28 +1581,28 @@
         <v>207</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L4" s="4">
+        <v>-33.6</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="L4" s="4">
-        <v>-28</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O4" s="9">
-        <v>96</v>
-      </c>
-      <c r="P4" s="11">
-        <v>56</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="P4" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>16</v>
       </c>
       <c r="R4" s="8">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1607,22 +1610,22 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>155</v>
@@ -1634,28 +1637,28 @@
         <v>206</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L5" s="4">
-        <v>-59.9</v>
+        <v>-57.1</v>
       </c>
       <c r="M5" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="O5" s="12">
-        <v>5</v>
-      </c>
-      <c r="P5" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>0</v>
-      </c>
-      <c r="R5" s="13">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="P5" s="13">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>100</v>
+      </c>
+      <c r="R5" s="14">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1663,22 +1666,22 @@
         <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>156</v>
@@ -1690,28 +1693,28 @@
         <v>206</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" s="4">
-        <v>-59.1</v>
+        <v>-60.6</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O6" s="12">
-        <v>3</v>
-      </c>
-      <c r="P6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>0</v>
-      </c>
-      <c r="R6" s="13">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="P6" s="15">
+        <v>88</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>94</v>
+      </c>
+      <c r="R6" s="14">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1725,16 +1728,16 @@
         <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>157</v>
@@ -1746,28 +1749,28 @@
         <v>206</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L7" s="4">
-        <v>-48.4</v>
+        <v>-53</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O7" s="6">
-        <v>31</v>
-      </c>
-      <c r="P7" s="8">
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="O7" s="12">
+        <v>100</v>
+      </c>
+      <c r="P7" s="13">
+        <v>86</v>
       </c>
       <c r="Q7" s="14">
-        <v>9</v>
-      </c>
-      <c r="R7" s="15">
-        <v>28</v>
+        <v>99</v>
+      </c>
+      <c r="R7" s="14">
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1775,22 +1778,22 @@
         <v>24</v>
       </c>
       <c r="B8" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>158</v>
@@ -1799,31 +1802,31 @@
         <v>185</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="4">
+        <v>-39.3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="L8" s="4">
-        <v>-33.6</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O8" s="9">
-        <v>86</v>
-      </c>
-      <c r="P8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>45</v>
-      </c>
-      <c r="R8" s="17">
-        <v>77</v>
+      <c r="O8" s="12">
+        <v>100</v>
+      </c>
+      <c r="P8" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>80</v>
+      </c>
+      <c r="R8" s="16">
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1831,22 +1834,22 @@
         <v>25</v>
       </c>
       <c r="B9" s="2">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>159</v>
@@ -1858,28 +1861,28 @@
         <v>206</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L9" s="4">
-        <v>-57.1</v>
+        <v>-60.5</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O9" s="9">
-        <v>100</v>
-      </c>
-      <c r="P9" s="18">
-        <v>86</v>
-      </c>
-      <c r="Q9" s="19">
-        <v>97</v>
-      </c>
-      <c r="R9" s="20">
-        <v>89</v>
+        <v>210</v>
+      </c>
+      <c r="O9" s="12">
+        <v>93</v>
+      </c>
+      <c r="P9" s="13">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>76</v>
+      </c>
+      <c r="R9" s="18">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1887,22 +1890,22 @@
         <v>26</v>
       </c>
       <c r="B10" s="2">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>160</v>
@@ -1914,28 +1917,28 @@
         <v>206</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L10" s="4">
-        <v>-60.6</v>
+        <v>-56.7</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O10" s="9">
+        <v>210</v>
+      </c>
+      <c r="O10" s="12">
         <v>100</v>
       </c>
-      <c r="P10" s="21">
-        <v>80</v>
-      </c>
-      <c r="Q10" s="22">
+      <c r="P10" s="10">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>95</v>
+      </c>
+      <c r="R10" s="14">
         <v>98</v>
-      </c>
-      <c r="R10" s="22">
-        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1943,22 +1946,22 @@
         <v>27</v>
       </c>
       <c r="B11" s="2">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>161</v>
@@ -1970,28 +1973,28 @@
         <v>206</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L11" s="4">
-        <v>-53</v>
+        <v>-44.6</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O11" s="9">
+        <v>210</v>
+      </c>
+      <c r="O11" s="12">
         <v>100</v>
       </c>
-      <c r="P11" s="18">
-        <v>86</v>
-      </c>
-      <c r="Q11" s="22">
-        <v>99</v>
-      </c>
-      <c r="R11" s="7">
-        <v>62</v>
+      <c r="P11" s="19">
+        <v>67</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>100</v>
+      </c>
+      <c r="R11" s="14">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1999,22 +2002,22 @@
         <v>28</v>
       </c>
       <c r="B12" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>162</v>
@@ -2026,28 +2029,28 @@
         <v>206</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="4">
-        <v>-39.3</v>
+        <v>-58.7</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O12" s="9">
+        <v>210</v>
+      </c>
+      <c r="O12" s="12">
         <v>100</v>
       </c>
-      <c r="P12" s="22">
-        <v>99</v>
-      </c>
-      <c r="Q12" s="22">
-        <v>99</v>
-      </c>
-      <c r="R12" s="16">
-        <v>43</v>
+      <c r="P12" s="14">
+        <v>98</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>40</v>
+      </c>
+      <c r="R12" s="21">
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2055,22 +2058,22 @@
         <v>29</v>
       </c>
       <c r="B13" s="2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>163</v>
@@ -2082,28 +2085,28 @@
         <v>206</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="4">
-        <v>-60.5</v>
+        <v>-59.3</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O13" s="9">
+        <v>210</v>
+      </c>
+      <c r="O13" s="12">
         <v>100</v>
       </c>
-      <c r="P13" s="23">
-        <v>71</v>
-      </c>
-      <c r="Q13" s="22">
-        <v>99</v>
-      </c>
-      <c r="R13" s="20">
-        <v>92</v>
+      <c r="P13" s="16">
+        <v>97</v>
+      </c>
+      <c r="Q13" s="20">
+        <v>40</v>
+      </c>
+      <c r="R13" s="10">
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2111,22 +2114,22 @@
         <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>164</v>
@@ -2138,28 +2141,28 @@
         <v>206</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L14" s="4">
-        <v>-56.7</v>
+        <v>-49.6</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O14" s="9">
+        <v>210</v>
+      </c>
+      <c r="O14" s="12">
         <v>100</v>
       </c>
-      <c r="P14" s="20">
-        <v>92</v>
-      </c>
-      <c r="Q14" s="22">
-        <v>100</v>
-      </c>
-      <c r="R14" s="22">
-        <v>100</v>
+      <c r="P14" s="16">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>40</v>
+      </c>
+      <c r="R14" s="15">
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2167,22 +2170,22 @@
         <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>165</v>
@@ -2194,28 +2197,28 @@
         <v>206</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L15" s="4">
-        <v>-44.6</v>
+        <v>-55.5</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O15" s="9">
-        <v>100</v>
-      </c>
-      <c r="P15" s="18">
-        <v>86</v>
-      </c>
-      <c r="Q15" s="22">
-        <v>100</v>
-      </c>
-      <c r="R15" s="22">
-        <v>100</v>
+        <v>210</v>
+      </c>
+      <c r="O15" s="12">
+        <v>93</v>
+      </c>
+      <c r="P15" s="19">
+        <v>63</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0</v>
+      </c>
+      <c r="R15" s="19">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2223,22 +2226,22 @@
         <v>32</v>
       </c>
       <c r="B16" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>166</v>
@@ -2250,28 +2253,28 @@
         <v>206</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L16" s="4">
-        <v>-58.7</v>
+        <v>-60.3</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O16" s="9">
-        <v>68</v>
-      </c>
-      <c r="P16" s="7">
-        <v>58</v>
-      </c>
-      <c r="Q16" s="24">
-        <v>49</v>
-      </c>
-      <c r="R16" s="25">
-        <v>41</v>
+        <v>210</v>
+      </c>
+      <c r="O16" s="12">
+        <v>97</v>
+      </c>
+      <c r="P16" s="19">
+        <v>67</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>44</v>
+      </c>
+      <c r="R16" s="15">
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2279,22 +2282,22 @@
         <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>167</v>
@@ -2306,28 +2309,28 @@
         <v>206</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L17" s="4">
-        <v>-59.3</v>
+        <v>-53.9</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O17" s="9">
-        <v>75</v>
-      </c>
-      <c r="P17" s="7">
-        <v>58</v>
-      </c>
-      <c r="Q17" s="11">
-        <v>56</v>
-      </c>
-      <c r="R17" s="7">
-        <v>58</v>
+        <v>210</v>
+      </c>
+      <c r="O17" s="12">
+        <v>100</v>
+      </c>
+      <c r="P17" s="10">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="23">
+        <v>62</v>
+      </c>
+      <c r="R17" s="14">
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2335,22 +2338,22 @@
         <v>34</v>
       </c>
       <c r="B18" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>168</v>
@@ -2362,28 +2365,28 @@
         <v>206</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L18" s="4">
-        <v>-49.6</v>
+        <v>-51.2</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O18" s="9">
-        <v>85</v>
-      </c>
-      <c r="P18" s="11">
-        <v>57</v>
-      </c>
-      <c r="Q18" s="23">
-        <v>71</v>
-      </c>
-      <c r="R18" s="17">
-        <v>76</v>
+        <v>210</v>
+      </c>
+      <c r="O18" s="12">
+        <v>98</v>
+      </c>
+      <c r="P18" s="16">
+        <v>97</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>4</v>
+      </c>
+      <c r="R18" s="24">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2391,22 +2394,22 @@
         <v>35</v>
       </c>
       <c r="B19" s="2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>169</v>
@@ -2418,28 +2421,28 @@
         <v>206</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L19" s="4">
-        <v>-55.5</v>
+        <v>-59.6</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O19" s="9">
-        <v>98</v>
-      </c>
-      <c r="P19" s="20">
-        <v>90</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>62</v>
-      </c>
-      <c r="R19" s="10">
-        <v>65</v>
+        <v>210</v>
+      </c>
+      <c r="O19" s="12">
+        <v>97</v>
+      </c>
+      <c r="P19" s="16">
+        <v>93</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>5</v>
+      </c>
+      <c r="R19" s="22">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2447,22 +2450,22 @@
         <v>36</v>
       </c>
       <c r="B20" s="2">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>170</v>
@@ -2474,28 +2477,28 @@
         <v>206</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L20" s="4">
-        <v>-60.3</v>
+        <v>-57.2</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O20" s="9">
+        <v>210</v>
+      </c>
+      <c r="O20" s="12">
         <v>94</v>
       </c>
-      <c r="P20" s="18">
-        <v>84</v>
-      </c>
-      <c r="Q20" s="11">
-        <v>56</v>
-      </c>
-      <c r="R20" s="11">
-        <v>56</v>
+      <c r="P20" s="13">
+        <v>87</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>6</v>
+      </c>
+      <c r="R20" s="23">
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2503,22 +2506,22 @@
         <v>37</v>
       </c>
       <c r="B21" s="2">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>171</v>
@@ -2530,28 +2533,28 @@
         <v>206</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L21" s="4">
-        <v>-53.9</v>
+        <v>-45.9</v>
       </c>
       <c r="M21" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O21" s="9">
-        <v>90</v>
-      </c>
-      <c r="P21" s="21">
-        <v>80</v>
-      </c>
-      <c r="Q21" s="24">
-        <v>50</v>
-      </c>
-      <c r="R21" s="11">
-        <v>57</v>
+      <c r="O21" s="12">
+        <v>98</v>
+      </c>
+      <c r="P21" s="17">
+        <v>78</v>
+      </c>
+      <c r="Q21" s="25">
+        <v>21</v>
+      </c>
+      <c r="R21" s="15">
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2559,19 +2562,19 @@
         <v>38</v>
       </c>
       <c r="B22" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>145</v>
@@ -2586,28 +2589,28 @@
         <v>206</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L22" s="4">
-        <v>-51.2</v>
+        <v>-46.2</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O22" s="9">
+        <v>210</v>
+      </c>
+      <c r="O22" s="12">
         <v>100</v>
       </c>
-      <c r="P22" s="22">
-        <v>98</v>
-      </c>
-      <c r="Q22" s="26">
-        <v>13</v>
-      </c>
-      <c r="R22" s="25">
-        <v>40</v>
+      <c r="P22" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>83</v>
+      </c>
+      <c r="R22" s="18">
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2615,19 +2618,19 @@
         <v>39</v>
       </c>
       <c r="B23" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>146</v>
@@ -2642,28 +2645,28 @@
         <v>206</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L23" s="4">
-        <v>-59.6</v>
+        <v>-57.3</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O23" s="9">
+        <v>210</v>
+      </c>
+      <c r="O23" s="12">
         <v>100</v>
       </c>
-      <c r="P23" s="19">
-        <v>96</v>
-      </c>
-      <c r="Q23" s="16">
-        <v>43</v>
-      </c>
-      <c r="R23" s="7">
-        <v>60</v>
+      <c r="P23" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>81</v>
+      </c>
+      <c r="R23" s="18">
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2671,19 +2674,19 @@
         <v>40</v>
       </c>
       <c r="B24" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>147</v>
@@ -2698,28 +2701,28 @@
         <v>206</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L24" s="4">
-        <v>-57.2</v>
+        <v>-59.3</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O24" s="9">
+        <v>210</v>
+      </c>
+      <c r="O24" s="12">
         <v>100</v>
       </c>
-      <c r="P24" s="20">
-        <v>90</v>
-      </c>
-      <c r="Q24" s="20">
-        <v>92</v>
-      </c>
-      <c r="R24" s="22">
+      <c r="P24" s="14">
         <v>100</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>80</v>
+      </c>
+      <c r="R24" s="26">
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2727,19 +2730,19 @@
         <v>41</v>
       </c>
       <c r="B25" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>148</v>
@@ -2754,28 +2757,28 @@
         <v>206</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L25" s="4">
-        <v>-45.9</v>
+        <v>-50.6</v>
       </c>
       <c r="M25" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O25" s="9">
+      <c r="O25" s="12">
         <v>100</v>
       </c>
-      <c r="P25" s="20">
-        <v>89</v>
-      </c>
-      <c r="Q25" s="11">
-        <v>55</v>
-      </c>
-      <c r="R25" s="7">
-        <v>58</v>
+      <c r="P25" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q25" s="17">
+        <v>78</v>
+      </c>
+      <c r="R25" s="19">
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2783,19 +2786,19 @@
         <v>42</v>
       </c>
       <c r="B26" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>149</v>
@@ -2810,28 +2813,28 @@
         <v>206</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L26" s="4">
-        <v>-46.2</v>
+        <v>-40.7</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O26" s="9">
-        <v>91</v>
-      </c>
-      <c r="P26" s="18">
-        <v>84</v>
-      </c>
-      <c r="Q26" s="7">
-        <v>60</v>
-      </c>
-      <c r="R26" s="8">
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="O26" s="12">
+        <v>100</v>
+      </c>
+      <c r="P26" s="14">
+        <v>99</v>
+      </c>
+      <c r="Q26" s="27">
+        <v>11</v>
+      </c>
+      <c r="R26" s="28">
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2839,19 +2842,19 @@
         <v>43</v>
       </c>
       <c r="B27" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>150</v>
@@ -2866,28 +2869,28 @@
         <v>206</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L27" s="4">
-        <v>-57.3</v>
+        <v>-53.7</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O27" s="9">
-        <v>92</v>
-      </c>
-      <c r="P27" s="20">
-        <v>89</v>
-      </c>
-      <c r="Q27" s="10">
-        <v>65</v>
-      </c>
-      <c r="R27" s="27">
-        <v>23</v>
+        <v>210</v>
+      </c>
+      <c r="O27" s="12">
+        <v>99</v>
+      </c>
+      <c r="P27" s="14">
+        <v>98</v>
+      </c>
+      <c r="Q27" s="28">
+        <v>30</v>
+      </c>
+      <c r="R27" s="23">
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2895,19 +2898,19 @@
         <v>44</v>
       </c>
       <c r="B28" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>151</v>
@@ -2922,28 +2925,28 @@
         <v>206</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L28" s="4">
-        <v>-59.3</v>
+        <v>-59.7</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O28" s="9">
+        <v>210</v>
+      </c>
+      <c r="O28" s="12">
+        <v>98</v>
+      </c>
+      <c r="P28" s="16">
         <v>96</v>
       </c>
-      <c r="P28" s="19">
-        <v>94</v>
-      </c>
-      <c r="Q28" s="7">
-        <v>61</v>
-      </c>
-      <c r="R28" s="15">
-        <v>30</v>
+      <c r="Q28" s="18">
+        <v>52</v>
+      </c>
+      <c r="R28" s="22">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="202">
   <si>
     <t>Datum</t>
   </si>
@@ -70,21 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>20260112--01</t>
-  </si>
-  <si>
-    <t>20260112--02</t>
-  </si>
-  <si>
-    <t>20260112--03</t>
-  </si>
-  <si>
-    <t>20260112--04</t>
-  </si>
-  <si>
-    <t>20260112--05</t>
-  </si>
-  <si>
     <t>20260113--01</t>
   </si>
   <si>
@@ -151,181 +136,169 @@
     <t>20260118--04</t>
   </si>
   <si>
+    <t>20260119--01</t>
+  </si>
+  <si>
+    <t>20260119--02</t>
+  </si>
+  <si>
+    <t>20260119--03</t>
+  </si>
+  <si>
+    <t>20260119--04</t>
+  </si>
+  <si>
+    <t>06:32</t>
+  </si>
+  <si>
+    <t>05:11</t>
+  </si>
+  <si>
+    <t>06:02</t>
+  </si>
+  <si>
+    <t>06:34</t>
+  </si>
+  <si>
+    <t>05:28</t>
+  </si>
+  <si>
+    <t>05:52</t>
+  </si>
+  <si>
+    <t>-1434:34</t>
+  </si>
+  <si>
+    <t>05:43</t>
+  </si>
+  <si>
+    <t>05:38</t>
+  </si>
+  <si>
+    <t>06:33</t>
+  </si>
+  <si>
+    <t>05:55</t>
+  </si>
+  <si>
+    <t>05:23</t>
+  </si>
+  <si>
+    <t>06:04</t>
+  </si>
+  <si>
+    <t>00:07</t>
+  </si>
+  <si>
+    <t>05:03</t>
+  </si>
+  <si>
+    <t>06:30</t>
+  </si>
+  <si>
+    <t>06:12</t>
+  </si>
+  <si>
+    <t>02:33</t>
+  </si>
+  <si>
+    <t>04:38</t>
+  </si>
+  <si>
+    <t>06:27</t>
+  </si>
+  <si>
     <t>06:18</t>
   </si>
   <si>
-    <t>06:30</t>
-  </si>
-  <si>
-    <t>04:49</t>
-  </si>
-  <si>
-    <t>02:11</t>
-  </si>
-  <si>
-    <t>06:10</t>
-  </si>
-  <si>
-    <t>06:32</t>
-  </si>
-  <si>
-    <t>05:11</t>
-  </si>
-  <si>
-    <t>06:02</t>
-  </si>
-  <si>
-    <t>06:33</t>
-  </si>
-  <si>
-    <t>05:29</t>
-  </si>
-  <si>
-    <t>05:52</t>
-  </si>
-  <si>
-    <t>-1434:34</t>
-  </si>
-  <si>
-    <t>05:42</t>
-  </si>
-  <si>
-    <t>05:39</t>
-  </si>
-  <si>
-    <t>06:34</t>
-  </si>
-  <si>
-    <t>05:55</t>
-  </si>
-  <si>
-    <t>05:23</t>
-  </si>
-  <si>
-    <t>06:04</t>
-  </si>
-  <si>
-    <t>00:06</t>
-  </si>
-  <si>
-    <t>05:03</t>
-  </si>
-  <si>
-    <t>06:31</t>
-  </si>
-  <si>
-    <t>06:12</t>
-  </si>
-  <si>
-    <t>02:32</t>
-  </si>
-  <si>
-    <t>04:39</t>
-  </si>
-  <si>
-    <t>06:27</t>
-  </si>
-  <si>
-    <t>06:19</t>
+    <t>03:31</t>
+  </si>
+  <si>
+    <t>04:07</t>
+  </si>
+  <si>
+    <t>06:23</t>
   </si>
   <si>
     <t>00:00</t>
   </si>
   <si>
-    <t>00:02:48</t>
-  </si>
-  <si>
-    <t>01:40:28</t>
-  </si>
-  <si>
-    <t>03:18:29</t>
-  </si>
-  <si>
-    <t>21:50:16</t>
-  </si>
-  <si>
-    <t>23:26:52</t>
-  </si>
-  <si>
-    <t>01:04:28</t>
-  </si>
-  <si>
-    <t>02:42:26</t>
-  </si>
-  <si>
-    <t>22:50:53</t>
-  </si>
-  <si>
-    <t>00:28:25</t>
+    <t>01:04:27</t>
+  </si>
+  <si>
+    <t>02:42:25</t>
+  </si>
+  <si>
+    <t>22:50:52</t>
+  </si>
+  <si>
+    <t>00:28:24</t>
   </si>
   <si>
     <t>02:06:20</t>
   </si>
   <si>
-    <t>22:14:51</t>
-  </si>
-  <si>
-    <t>23:52:19</t>
-  </si>
-  <si>
-    <t>01:30:12</t>
-  </si>
-  <si>
-    <t>21:38:48</t>
-  </si>
-  <si>
-    <t>23:16:10</t>
-  </si>
-  <si>
-    <t>00:54:01</t>
-  </si>
-  <si>
-    <t>21:02:42</t>
-  </si>
-  <si>
-    <t>22:39:59</t>
-  </si>
-  <si>
-    <t>00:17:48</t>
-  </si>
-  <si>
-    <t>01:56:05</t>
-  </si>
-  <si>
-    <t>20:26:34</t>
-  </si>
-  <si>
-    <t>22:03:45</t>
-  </si>
-  <si>
-    <t>23:41:31</t>
-  </si>
-  <si>
-    <t>01:19:43</t>
-  </si>
-  <si>
-    <t>19:50:25</t>
-  </si>
-  <si>
-    <t>21:27:28</t>
-  </si>
-  <si>
-    <t>23:05:12</t>
-  </si>
-  <si>
-    <t>00:05:08</t>
-  </si>
-  <si>
-    <t>01:42:45</t>
-  </si>
-  <si>
-    <t>03:21:10</t>
-  </si>
-  <si>
-    <t>21:53:47</t>
-  </si>
-  <si>
-    <t>23:29:13</t>
+    <t>22:14:50</t>
+  </si>
+  <si>
+    <t>23:52:18</t>
+  </si>
+  <si>
+    <t>01:30:11</t>
+  </si>
+  <si>
+    <t>21:38:46</t>
+  </si>
+  <si>
+    <t>23:16:09</t>
+  </si>
+  <si>
+    <t>00:54:00</t>
+  </si>
+  <si>
+    <t>21:02:40</t>
+  </si>
+  <si>
+    <t>22:39:57</t>
+  </si>
+  <si>
+    <t>00:17:46</t>
+  </si>
+  <si>
+    <t>01:56:03</t>
+  </si>
+  <si>
+    <t>20:26:32</t>
+  </si>
+  <si>
+    <t>22:03:42</t>
+  </si>
+  <si>
+    <t>23:41:28</t>
+  </si>
+  <si>
+    <t>01:19:40</t>
+  </si>
+  <si>
+    <t>19:50:21</t>
+  </si>
+  <si>
+    <t>21:27:25</t>
+  </si>
+  <si>
+    <t>23:05:08</t>
+  </si>
+  <si>
+    <t>00:43:16</t>
+  </si>
+  <si>
+    <t>19:14:09</t>
+  </si>
+  <si>
+    <t>20:51:04</t>
+  </si>
+  <si>
+    <t>22:28:46</t>
   </si>
   <si>
     <t>01:06:44</t>
@@ -337,76 +310,73 @@
     <t>22:53:15</t>
   </si>
   <si>
-    <t>00:30:41</t>
+    <t>00:30:40</t>
   </si>
   <si>
     <t>02:08:51</t>
   </si>
   <si>
-    <t>22:17:16</t>
-  </si>
-  <si>
-    <t>23:54:35</t>
-  </si>
-  <si>
-    <t>01:32:40</t>
-  </si>
-  <si>
-    <t>21:41:15</t>
-  </si>
-  <si>
-    <t>23:18:26</t>
-  </si>
-  <si>
-    <t>00:56:26</t>
-  </si>
-  <si>
-    <t>21:05:13</t>
-  </si>
-  <si>
-    <t>22:42:15</t>
-  </si>
-  <si>
-    <t>00:20:10</t>
-  </si>
-  <si>
-    <t>02:00:34</t>
-  </si>
-  <si>
-    <t>20:29:10</t>
-  </si>
-  <si>
-    <t>22:06:01</t>
-  </si>
-  <si>
-    <t>23:43:52</t>
-  </si>
-  <si>
-    <t>01:23:07</t>
-  </si>
-  <si>
-    <t>19:53:07</t>
-  </si>
-  <si>
-    <t>21:29:45</t>
-  </si>
-  <si>
-    <t>23:07:31</t>
-  </si>
-  <si>
-    <t>00:08:16</t>
-  </si>
-  <si>
-    <t>01:46:00</t>
-  </si>
-  <si>
-    <t>03:23:35</t>
-  </si>
-  <si>
-    <t>21:54:53</t>
-  </si>
-  <si>
-    <t>23:32:18</t>
+    <t>22:17:15</t>
+  </si>
+  <si>
+    <t>23:54:34</t>
+  </si>
+  <si>
+    <t>01:32:38</t>
+  </si>
+  <si>
+    <t>21:41:14</t>
+  </si>
+  <si>
+    <t>23:18:25</t>
+  </si>
+  <si>
+    <t>00:56:24</t>
+  </si>
+  <si>
+    <t>21:05:11</t>
+  </si>
+  <si>
+    <t>22:42:13</t>
+  </si>
+  <si>
+    <t>00:20:08</t>
+  </si>
+  <si>
+    <t>02:00:32</t>
+  </si>
+  <si>
+    <t>20:29:08</t>
+  </si>
+  <si>
+    <t>22:05:59</t>
+  </si>
+  <si>
+    <t>23:43:49</t>
+  </si>
+  <si>
+    <t>01:23:04</t>
+  </si>
+  <si>
+    <t>19:53:04</t>
+  </si>
+  <si>
+    <t>21:29:42</t>
+  </si>
+  <si>
+    <t>23:07:28</t>
+  </si>
+  <si>
+    <t>00:46:19</t>
+  </si>
+  <si>
+    <t>19:17:01</t>
+  </si>
+  <si>
+    <t>20:53:22</t>
+  </si>
+  <si>
+    <t>22:31:04</t>
   </si>
   <si>
     <t>01:10:00</t>
@@ -415,7 +385,7 @@
     <t>02:47:36</t>
   </si>
   <si>
-    <t>22:56:16</t>
+    <t>22:56:15</t>
   </si>
   <si>
     <t>00:33:57</t>
@@ -424,67 +394,64 @@
     <t>02:11:35</t>
   </si>
   <si>
-    <t>22:20:11</t>
-  </si>
-  <si>
-    <t>23:57:52</t>
-  </si>
-  <si>
-    <t>01:35:31</t>
-  </si>
-  <si>
-    <t>21:44:04</t>
-  </si>
-  <si>
-    <t>23:21:43</t>
-  </si>
-  <si>
-    <t>00:59:23</t>
-  </si>
-  <si>
-    <t>21:07:54</t>
-  </si>
-  <si>
-    <t>22:45:31</t>
-  </si>
-  <si>
-    <t>00:23:12</t>
-  </si>
-  <si>
-    <t>20:31:42</t>
-  </si>
-  <si>
-    <t>22:09:16</t>
-  </si>
-  <si>
-    <t>23:46:58</t>
-  </si>
-  <si>
-    <t>01:24:23</t>
-  </si>
-  <si>
-    <t>19:55:26</t>
-  </si>
-  <si>
-    <t>21:32:59</t>
-  </si>
-  <si>
-    <t>23:10:40</t>
-  </si>
-  <si>
-    <t>00:11:26</t>
-  </si>
-  <si>
-    <t>01:49:15</t>
-  </si>
-  <si>
-    <t>03:25:59</t>
-  </si>
-  <si>
-    <t>21:55:58</t>
-  </si>
-  <si>
-    <t>23:35:23</t>
+    <t>22:20:10</t>
+  </si>
+  <si>
+    <t>23:57:51</t>
+  </si>
+  <si>
+    <t>01:35:30</t>
+  </si>
+  <si>
+    <t>21:44:03</t>
+  </si>
+  <si>
+    <t>23:21:41</t>
+  </si>
+  <si>
+    <t>00:59:22</t>
+  </si>
+  <si>
+    <t>21:07:52</t>
+  </si>
+  <si>
+    <t>22:45:29</t>
+  </si>
+  <si>
+    <t>00:23:10</t>
+  </si>
+  <si>
+    <t>20:31:39</t>
+  </si>
+  <si>
+    <t>22:09:14</t>
+  </si>
+  <si>
+    <t>23:46:55</t>
+  </si>
+  <si>
+    <t>01:24:20</t>
+  </si>
+  <si>
+    <t>19:55:23</t>
+  </si>
+  <si>
+    <t>21:32:55</t>
+  </si>
+  <si>
+    <t>23:10:37</t>
+  </si>
+  <si>
+    <t>00:48:05</t>
+  </si>
+  <si>
+    <t>19:19:04</t>
+  </si>
+  <si>
+    <t>20:56:34</t>
+  </si>
+  <si>
+    <t>22:34:15</t>
   </si>
   <si>
     <t>01:13:16</t>
@@ -499,73 +466,70 @@
     <t>00:37:14</t>
   </si>
   <si>
-    <t>02:14:20</t>
-  </si>
-  <si>
-    <t>22:23:08</t>
-  </si>
-  <si>
-    <t>00:01:09</t>
-  </si>
-  <si>
-    <t>01:38:22</t>
-  </si>
-  <si>
-    <t>21:46:54</t>
-  </si>
-  <si>
-    <t>23:25:00</t>
-  </si>
-  <si>
-    <t>01:02:21</t>
-  </si>
-  <si>
-    <t>21:10:36</t>
-  </si>
-  <si>
-    <t>22:48:47</t>
-  </si>
-  <si>
-    <t>00:26:14</t>
-  </si>
-  <si>
-    <t>02:00:40</t>
-  </si>
-  <si>
-    <t>20:34:13</t>
-  </si>
-  <si>
-    <t>22:12:32</t>
-  </si>
-  <si>
-    <t>23:50:04</t>
-  </si>
-  <si>
-    <t>01:25:39</t>
-  </si>
-  <si>
-    <t>19:57:46</t>
-  </si>
-  <si>
-    <t>21:36:12</t>
-  </si>
-  <si>
-    <t>23:13:50</t>
-  </si>
-  <si>
-    <t>00:13:46</t>
-  </si>
-  <si>
-    <t>01:51:32</t>
-  </si>
-  <si>
-    <t>03:28:40</t>
-  </si>
-  <si>
-    <t>21:59:30</t>
-  </si>
-  <si>
-    <t>23:37:45</t>
+    <t>02:14:19</t>
+  </si>
+  <si>
+    <t>22:23:07</t>
+  </si>
+  <si>
+    <t>00:01:08</t>
+  </si>
+  <si>
+    <t>01:38:21</t>
+  </si>
+  <si>
+    <t>21:46:52</t>
+  </si>
+  <si>
+    <t>23:24:58</t>
+  </si>
+  <si>
+    <t>01:02:19</t>
+  </si>
+  <si>
+    <t>21:10:34</t>
+  </si>
+  <si>
+    <t>22:48:45</t>
+  </si>
+  <si>
+    <t>00:26:12</t>
+  </si>
+  <si>
+    <t>02:00:39</t>
+  </si>
+  <si>
+    <t>20:34:11</t>
+  </si>
+  <si>
+    <t>22:12:29</t>
+  </si>
+  <si>
+    <t>23:50:01</t>
+  </si>
+  <si>
+    <t>01:25:37</t>
+  </si>
+  <si>
+    <t>19:57:42</t>
+  </si>
+  <si>
+    <t>21:36:09</t>
+  </si>
+  <si>
+    <t>23:13:46</t>
+  </si>
+  <si>
+    <t>00:49:50</t>
+  </si>
+  <si>
+    <t>19:21:08</t>
+  </si>
+  <si>
+    <t>20:59:45</t>
+  </si>
+  <si>
+    <t>22:37:27</t>
   </si>
   <si>
     <t>01:15:33</t>
@@ -574,73 +538,79 @@
     <t>02:52:47</t>
   </si>
   <si>
-    <t>23:01:41</t>
-  </si>
-  <si>
-    <t>00:39:31</t>
+    <t>23:01:40</t>
+  </si>
+  <si>
+    <t>00:39:30</t>
   </si>
   <si>
     <t>02:16:50</t>
   </si>
   <si>
-    <t>22:25:33</t>
-  </si>
-  <si>
-    <t>00:03:25</t>
-  </si>
-  <si>
-    <t>01:40:49</t>
-  </si>
-  <si>
-    <t>21:49:22</t>
-  </si>
-  <si>
-    <t>23:27:16</t>
-  </si>
-  <si>
-    <t>01:04:45</t>
-  </si>
-  <si>
-    <t>21:13:08</t>
-  </si>
-  <si>
-    <t>22:51:04</t>
-  </si>
-  <si>
-    <t>00:28:37</t>
-  </si>
-  <si>
-    <t>02:05:03</t>
-  </si>
-  <si>
-    <t>20:36:50</t>
-  </si>
-  <si>
-    <t>22:14:49</t>
-  </si>
-  <si>
-    <t>23:52:24</t>
-  </si>
-  <si>
-    <t>01:29:02</t>
-  </si>
-  <si>
-    <t>20:00:29</t>
-  </si>
-  <si>
-    <t>21:38:30</t>
-  </si>
-  <si>
-    <t>23:16:09</t>
+    <t>22:25:32</t>
+  </si>
+  <si>
+    <t>00:03:24</t>
+  </si>
+  <si>
+    <t>01:40:48</t>
+  </si>
+  <si>
+    <t>21:49:21</t>
+  </si>
+  <si>
+    <t>23:27:15</t>
+  </si>
+  <si>
+    <t>01:04:43</t>
+  </si>
+  <si>
+    <t>21:13:06</t>
+  </si>
+  <si>
+    <t>22:51:02</t>
+  </si>
+  <si>
+    <t>00:28:34</t>
+  </si>
+  <si>
+    <t>02:05:01</t>
+  </si>
+  <si>
+    <t>20:36:48</t>
+  </si>
+  <si>
+    <t>22:14:46</t>
+  </si>
+  <si>
+    <t>23:52:22</t>
+  </si>
+  <si>
+    <t>01:28:59</t>
+  </si>
+  <si>
+    <t>20:00:26</t>
+  </si>
+  <si>
+    <t>21:38:26</t>
+  </si>
+  <si>
+    <t>23:16:05</t>
+  </si>
+  <si>
+    <t>00:52:52</t>
+  </si>
+  <si>
+    <t>19:24:00</t>
+  </si>
+  <si>
+    <t>21:02:04</t>
+  </si>
+  <si>
+    <t>22:39:45</t>
   </si>
   <si>
     <t>0°</t>
-  </si>
-  <si>
-    <t>1°</t>
-  </si>
-  <si>
-    <t>03:28:27</t>
   </si>
   <si>
     <t>B</t>
@@ -683,7 +653,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -698,49 +668,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6AD26A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF558CC8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5E92CB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0B070"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4E2F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6E9DD0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF0707F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6EEF7"/>
+        <fgColor rgb="FFF6F9FC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,7 +692,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6F9FC"/>
+        <fgColor rgb="FFE6EEF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D7EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2CBE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAC5E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2C0E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF558CC8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4E2F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,13 +740,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAAC5E3"/>
+        <fgColor rgb="FF77A3D3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC4D7EC"/>
+        <fgColor rgb="FF6E9DD0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBD1E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6697CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90B4DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5E92CB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,43 +782,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCDCEE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA2C0E1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBD1E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF90B4DB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF77A3D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB2CBE6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6697CD"/>
+        <fgColor rgb="FF6AD26A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,7 +829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -949,12 +907,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1358,7 +1310,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1442,55 +1394,55 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L2" s="4">
-        <v>-59.1</v>
+        <v>-53</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="O2" s="6">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="P2" s="7">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="Q2" s="7">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="R2" s="8">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1498,55 +1450,55 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="4">
+        <v>-39.3</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O3" s="6">
         <v>100</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="4">
-        <v>-48.4</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O3" s="9">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-      <c r="R3" s="10">
-        <v>75</v>
+      <c r="P3" s="9">
+        <v>91</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>100</v>
+      </c>
+      <c r="R3" s="8">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1554,55 +1506,55 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>208</v>
+        <v>71</v>
       </c>
       <c r="L4" s="4">
-        <v>-33.6</v>
+        <v>-60.5</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O4" s="9">
-        <v>25</v>
-      </c>
-      <c r="P4" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>16</v>
+        <v>200</v>
+      </c>
+      <c r="O4" s="6">
+        <v>100</v>
+      </c>
+      <c r="P4" s="10">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>100</v>
       </c>
       <c r="R4" s="8">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1610,54 +1562,54 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L5" s="4">
-        <v>-57.1</v>
+        <v>-56.7</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O5" s="12">
+        <v>200</v>
+      </c>
+      <c r="O5" s="6">
         <v>100</v>
       </c>
-      <c r="P5" s="13">
-        <v>86</v>
-      </c>
-      <c r="Q5" s="14">
-        <v>100</v>
-      </c>
-      <c r="R5" s="14">
+      <c r="P5" s="11">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>83</v>
+      </c>
+      <c r="R5" s="8">
         <v>100</v>
       </c>
     </row>
@@ -1666,54 +1618,54 @@
         <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L6" s="4">
-        <v>-60.6</v>
+        <v>-44.6</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O6" s="12">
+        <v>200</v>
+      </c>
+      <c r="O6" s="6">
         <v>100</v>
       </c>
-      <c r="P6" s="15">
-        <v>88</v>
-      </c>
-      <c r="Q6" s="16">
-        <v>94</v>
-      </c>
-      <c r="R6" s="14">
+      <c r="P6" s="11">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>89</v>
+      </c>
+      <c r="R6" s="8">
         <v>100</v>
       </c>
     </row>
@@ -1722,55 +1674,55 @@
         <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L7" s="4">
-        <v>-53</v>
+        <v>-58.7</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O7" s="12">
+        <v>200</v>
+      </c>
+      <c r="O7" s="6">
         <v>100</v>
       </c>
-      <c r="P7" s="13">
-        <v>86</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>99</v>
-      </c>
-      <c r="R7" s="14">
-        <v>99</v>
+      <c r="P7" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>53</v>
+      </c>
+      <c r="R7" s="13">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1778,55 +1730,55 @@
         <v>24</v>
       </c>
       <c r="B8" s="2">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L8" s="4">
-        <v>-39.3</v>
+        <v>-59.3</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O8" s="12">
-        <v>100</v>
-      </c>
-      <c r="P8" s="14">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="17">
-        <v>80</v>
-      </c>
-      <c r="R8" s="16">
-        <v>93</v>
+        <v>200</v>
+      </c>
+      <c r="O8" s="6">
+        <v>97</v>
+      </c>
+      <c r="P8" s="9">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>64</v>
+      </c>
+      <c r="R8" s="12">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1834,55 +1786,55 @@
         <v>25</v>
       </c>
       <c r="B9" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L9" s="4">
-        <v>-60.5</v>
+        <v>-49.6</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O9" s="12">
-        <v>93</v>
-      </c>
-      <c r="P9" s="13">
-        <v>83</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>76</v>
-      </c>
-      <c r="R9" s="18">
-        <v>50</v>
+        <v>200</v>
+      </c>
+      <c r="O9" s="6">
+        <v>100</v>
+      </c>
+      <c r="P9" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>45</v>
+      </c>
+      <c r="R9" s="8">
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1890,55 +1842,55 @@
         <v>26</v>
       </c>
       <c r="B10" s="2">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L10" s="4">
-        <v>-56.7</v>
+        <v>-55.5</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O10" s="12">
-        <v>100</v>
-      </c>
-      <c r="P10" s="10">
-        <v>76</v>
-      </c>
-      <c r="Q10" s="16">
-        <v>95</v>
-      </c>
-      <c r="R10" s="14">
-        <v>98</v>
+        <v>200</v>
+      </c>
+      <c r="O10" s="6">
+        <v>96</v>
+      </c>
+      <c r="P10" s="11">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>0</v>
+      </c>
+      <c r="R10" s="16">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1946,55 +1898,55 @@
         <v>27</v>
       </c>
       <c r="B11" s="2">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L11" s="4">
-        <v>-44.6</v>
+        <v>-60.3</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O11" s="12">
-        <v>100</v>
-      </c>
-      <c r="P11" s="19">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>100</v>
+        <v>200</v>
+      </c>
+      <c r="O11" s="6">
+        <v>78</v>
+      </c>
+      <c r="P11" s="17">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>0</v>
       </c>
       <c r="R11" s="14">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2002,55 +1954,55 @@
         <v>28</v>
       </c>
       <c r="B12" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L12" s="4">
-        <v>-58.7</v>
+        <v>-53.9</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O12" s="12">
-        <v>100</v>
-      </c>
-      <c r="P12" s="14">
-        <v>98</v>
-      </c>
-      <c r="Q12" s="20">
-        <v>40</v>
-      </c>
-      <c r="R12" s="21">
-        <v>68</v>
+        <v>200</v>
+      </c>
+      <c r="O12" s="6">
+        <v>79</v>
+      </c>
+      <c r="P12" s="17">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>0</v>
+      </c>
+      <c r="R12" s="18">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2058,55 +2010,55 @@
         <v>29</v>
       </c>
       <c r="B13" s="2">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L13" s="4">
-        <v>-59.3</v>
+        <v>-51.2</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O13" s="12">
+        <v>200</v>
+      </c>
+      <c r="O13" s="6">
         <v>100</v>
       </c>
-      <c r="P13" s="16">
-        <v>97</v>
-      </c>
-      <c r="Q13" s="20">
-        <v>40</v>
-      </c>
-      <c r="R13" s="10">
-        <v>74</v>
+      <c r="P13" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>17</v>
+      </c>
+      <c r="R13" s="20">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2114,55 +2066,55 @@
         <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L14" s="4">
-        <v>-49.6</v>
+        <v>-59.6</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O14" s="12">
+        <v>200</v>
+      </c>
+      <c r="O14" s="6">
         <v>100</v>
       </c>
-      <c r="P14" s="16">
-        <v>94</v>
-      </c>
-      <c r="Q14" s="20">
-        <v>40</v>
-      </c>
-      <c r="R14" s="15">
-        <v>91</v>
+      <c r="P14" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>12</v>
+      </c>
+      <c r="R14" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2170,55 +2122,55 @@
         <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L15" s="4">
-        <v>-55.5</v>
+        <v>-57.2</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O15" s="12">
-        <v>93</v>
-      </c>
-      <c r="P15" s="19">
-        <v>63</v>
-      </c>
-      <c r="Q15" s="7">
+        <v>200</v>
+      </c>
+      <c r="O15" s="6">
+        <v>100</v>
+      </c>
+      <c r="P15" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="15">
         <v>0</v>
       </c>
-      <c r="R15" s="19">
-        <v>65</v>
+      <c r="R15" s="22">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2226,55 +2178,55 @@
         <v>32</v>
       </c>
       <c r="B16" s="2">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L16" s="4">
-        <v>-60.3</v>
+        <v>-45.9</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O16" s="12">
-        <v>97</v>
-      </c>
-      <c r="P16" s="19">
-        <v>67</v>
-      </c>
-      <c r="Q16" s="22">
-        <v>44</v>
-      </c>
-      <c r="R16" s="15">
-        <v>89</v>
+        <v>201</v>
+      </c>
+      <c r="O16" s="6">
+        <v>100</v>
+      </c>
+      <c r="P16" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="23">
+        <v>3</v>
+      </c>
+      <c r="R16" s="21">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2282,55 +2234,55 @@
         <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L17" s="4">
-        <v>-53.9</v>
+        <v>-46.2</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O17" s="12">
+        <v>200</v>
+      </c>
+      <c r="O17" s="6">
         <v>100</v>
       </c>
-      <c r="P17" s="10">
-        <v>73</v>
-      </c>
-      <c r="Q17" s="23">
-        <v>62</v>
-      </c>
-      <c r="R17" s="14">
-        <v>100</v>
+      <c r="P17" s="7">
+        <v>97</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>0</v>
+      </c>
+      <c r="R17" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2338,55 +2290,55 @@
         <v>34</v>
       </c>
       <c r="B18" s="2">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L18" s="4">
-        <v>-51.2</v>
+        <v>-57.3</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O18" s="12">
+        <v>200</v>
+      </c>
+      <c r="O18" s="6">
+        <v>100</v>
+      </c>
+      <c r="P18" s="8">
         <v>98</v>
       </c>
-      <c r="P18" s="16">
-        <v>97</v>
-      </c>
-      <c r="Q18" s="8">
-        <v>4</v>
+      <c r="Q18" s="15">
+        <v>0</v>
       </c>
       <c r="R18" s="24">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2394,55 +2346,55 @@
         <v>35</v>
       </c>
       <c r="B19" s="2">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L19" s="4">
-        <v>-59.6</v>
+        <v>-59.3</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O19" s="12">
-        <v>97</v>
-      </c>
-      <c r="P19" s="16">
-        <v>93</v>
-      </c>
-      <c r="Q19" s="8">
-        <v>5</v>
-      </c>
-      <c r="R19" s="22">
-        <v>43</v>
+        <v>200</v>
+      </c>
+      <c r="O19" s="6">
+        <v>100</v>
+      </c>
+      <c r="P19" s="8">
+        <v>99</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>0</v>
+      </c>
+      <c r="R19" s="14">
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2450,55 +2402,55 @@
         <v>36</v>
       </c>
       <c r="B20" s="2">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L20" s="4">
-        <v>-57.2</v>
+        <v>-50.6</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O20" s="12">
-        <v>94</v>
-      </c>
-      <c r="P20" s="13">
-        <v>87</v>
-      </c>
-      <c r="Q20" s="8">
-        <v>6</v>
-      </c>
-      <c r="R20" s="23">
-        <v>58</v>
+        <v>201</v>
+      </c>
+      <c r="O20" s="6">
+        <v>98</v>
+      </c>
+      <c r="P20" s="8">
+        <v>98</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>0</v>
+      </c>
+      <c r="R20" s="22">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2506,55 +2458,55 @@
         <v>37</v>
       </c>
       <c r="B21" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="K21" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L21" s="4">
-        <v>-45.9</v>
+        <v>-40.7</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O21" s="12">
-        <v>98</v>
-      </c>
-      <c r="P21" s="17">
-        <v>78</v>
-      </c>
-      <c r="Q21" s="25">
-        <v>21</v>
+        <v>200</v>
+      </c>
+      <c r="O21" s="25">
+        <v>0</v>
+      </c>
+      <c r="P21" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="15">
+        <v>0</v>
       </c>
       <c r="R21" s="15">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2562,55 +2514,55 @@
         <v>38</v>
       </c>
       <c r="B22" s="2">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L22" s="4">
+        <v>-53.7</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L22" s="4">
-        <v>-46.2</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="N22" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O22" s="12">
-        <v>100</v>
-      </c>
-      <c r="P22" s="14">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="13">
-        <v>83</v>
-      </c>
-      <c r="R22" s="18">
-        <v>50</v>
+        <v>200</v>
+      </c>
+      <c r="O22" s="25">
+        <v>1</v>
+      </c>
+      <c r="P22" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>0</v>
+      </c>
+      <c r="R22" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2618,55 +2570,55 @@
         <v>39</v>
       </c>
       <c r="B23" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L23" s="4">
+        <v>-59.7</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L23" s="4">
-        <v>-57.3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O23" s="12">
-        <v>100</v>
-      </c>
-      <c r="P23" s="14">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="17">
-        <v>81</v>
-      </c>
-      <c r="R23" s="18">
-        <v>52</v>
+      <c r="O23" s="25">
+        <v>2</v>
+      </c>
+      <c r="P23" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>0</v>
+      </c>
+      <c r="R23" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2674,55 +2626,55 @@
         <v>40</v>
       </c>
       <c r="B24" s="2">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="I24" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L24" s="4">
+        <v>-54.6</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L24" s="4">
-        <v>-59.3</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O24" s="12">
-        <v>100</v>
-      </c>
-      <c r="P24" s="14">
-        <v>100</v>
-      </c>
-      <c r="Q24" s="17">
-        <v>80</v>
-      </c>
-      <c r="R24" s="26">
-        <v>57</v>
+      <c r="O24" s="25">
+        <v>3</v>
+      </c>
+      <c r="P24" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>0</v>
+      </c>
+      <c r="R24" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2730,55 +2682,55 @@
         <v>41</v>
       </c>
       <c r="B25" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L25" s="4">
-        <v>-50.6</v>
+        <v>-34.9</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O25" s="12">
-        <v>100</v>
+        <v>200</v>
+      </c>
+      <c r="O25" s="6">
+        <v>50</v>
       </c>
       <c r="P25" s="14">
-        <v>100</v>
-      </c>
-      <c r="Q25" s="17">
-        <v>78</v>
-      </c>
-      <c r="R25" s="19">
-        <v>64</v>
+        <v>45</v>
+      </c>
+      <c r="Q25" s="26">
+        <v>28</v>
+      </c>
+      <c r="R25" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2786,55 +2738,55 @@
         <v>42</v>
       </c>
       <c r="B26" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E26" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L26" s="4">
-        <v>-40.7</v>
+        <v>-49.1</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O26" s="12">
-        <v>100</v>
-      </c>
-      <c r="P26" s="14">
-        <v>99</v>
-      </c>
-      <c r="Q26" s="27">
-        <v>11</v>
-      </c>
-      <c r="R26" s="28">
-        <v>31</v>
+        <v>200</v>
+      </c>
+      <c r="O26" s="6">
+        <v>56</v>
+      </c>
+      <c r="P26" s="13">
+        <v>48</v>
+      </c>
+      <c r="Q26" s="19">
+        <v>14</v>
+      </c>
+      <c r="R26" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2842,170 +2794,114 @@
         <v>43</v>
       </c>
       <c r="B27" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L27" s="4">
-        <v>-53.7</v>
+        <v>-58.5</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O27" s="12">
-        <v>99</v>
-      </c>
-      <c r="P27" s="14">
-        <v>98</v>
-      </c>
-      <c r="Q27" s="28">
-        <v>30</v>
-      </c>
-      <c r="R27" s="23">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="2">
-        <v>29</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L28" s="4">
-        <v>-59.7</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O28" s="12">
-        <v>98</v>
-      </c>
-      <c r="P28" s="16">
-        <v>96</v>
-      </c>
-      <c r="Q28" s="18">
-        <v>52</v>
-      </c>
-      <c r="R28" s="22">
-        <v>44</v>
+        <v>200</v>
+      </c>
+      <c r="O27" s="6">
+        <v>58</v>
+      </c>
+      <c r="P27" s="13">
+        <v>48</v>
+      </c>
+      <c r="Q27" s="23">
+        <v>5</v>
+      </c>
+      <c r="R27" s="15">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A28">
+  <conditionalFormatting sqref="A2:A27">
     <cfRule type="expression" dxfId="8" priority="9">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B28">
+  <conditionalFormatting sqref="B2:B27">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C28">
+  <conditionalFormatting sqref="C2:C27">
     <cfRule type="expression" dxfId="9" priority="11">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D28">
+  <conditionalFormatting sqref="D2:D27">
     <cfRule type="expression" dxfId="8" priority="12">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E28">
+  <conditionalFormatting sqref="E2:E27">
     <cfRule type="expression" dxfId="9" priority="13">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F28">
+  <conditionalFormatting sqref="F2:F27">
     <cfRule type="expression" dxfId="9" priority="14">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G28">
+  <conditionalFormatting sqref="G2:G27">
     <cfRule type="expression" dxfId="9" priority="15">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H28">
+  <conditionalFormatting sqref="H2:H27">
     <cfRule type="expression" dxfId="9" priority="16">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I28">
+  <conditionalFormatting sqref="I2:I27">
     <cfRule type="expression" dxfId="8" priority="17">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J28">
+  <conditionalFormatting sqref="J2:J27">
     <cfRule type="expression" dxfId="9" priority="18">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K28">
+  <conditionalFormatting sqref="K2:K27">
     <cfRule type="expression" dxfId="8" priority="19">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L28">
+  <conditionalFormatting sqref="L2:L27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -3024,12 +2920,12 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M28">
+  <conditionalFormatting sqref="M2:M27">
     <cfRule type="expression" dxfId="9" priority="21">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N28">
+  <conditionalFormatting sqref="N2:N27">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>
@@ -3046,22 +2942,22 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O28">
+  <conditionalFormatting sqref="O2:O27">
     <cfRule type="expression" dxfId="9" priority="23">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P28">
+  <conditionalFormatting sqref="P2:P27">
     <cfRule type="expression" dxfId="9" priority="24">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q28">
+  <conditionalFormatting sqref="Q2:Q27">
     <cfRule type="expression" dxfId="9" priority="25">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R28">
+  <conditionalFormatting sqref="R2:R27">
     <cfRule type="expression" dxfId="9" priority="26">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="218">
   <si>
     <t>Datum</t>
   </si>
@@ -70,15 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>20260113--01</t>
-  </si>
-  <si>
-    <t>20260113--02</t>
-  </si>
-  <si>
-    <t>20260113--03</t>
-  </si>
-  <si>
     <t>20260114--01</t>
   </si>
   <si>
@@ -148,52 +139,61 @@
     <t>20260119--04</t>
   </si>
   <si>
+    <t>20260120--01</t>
+  </si>
+  <si>
+    <t>20260120--02</t>
+  </si>
+  <si>
+    <t>20260120--03</t>
+  </si>
+  <si>
+    <t>20260120--04</t>
+  </si>
+  <si>
+    <t>20260120--05</t>
+  </si>
+  <si>
+    <t>06:34</t>
+  </si>
+  <si>
+    <t>05:29</t>
+  </si>
+  <si>
+    <t>05:52</t>
+  </si>
+  <si>
+    <t>-1434:34</t>
+  </si>
+  <si>
+    <t>05:43</t>
+  </si>
+  <si>
+    <t>05:39</t>
+  </si>
+  <si>
+    <t>06:33</t>
+  </si>
+  <si>
+    <t>05:55</t>
+  </si>
+  <si>
+    <t>05:23</t>
+  </si>
+  <si>
     <t>06:32</t>
   </si>
   <si>
-    <t>05:11</t>
-  </si>
-  <si>
-    <t>06:02</t>
-  </si>
-  <si>
-    <t>06:34</t>
-  </si>
-  <si>
-    <t>05:28</t>
-  </si>
-  <si>
-    <t>05:52</t>
-  </si>
-  <si>
-    <t>-1434:34</t>
-  </si>
-  <si>
-    <t>05:43</t>
-  </si>
-  <si>
-    <t>05:38</t>
-  </si>
-  <si>
-    <t>06:33</t>
-  </si>
-  <si>
-    <t>05:55</t>
-  </si>
-  <si>
-    <t>05:23</t>
-  </si>
-  <si>
     <t>06:04</t>
   </si>
   <si>
-    <t>00:07</t>
+    <t>00:04</t>
   </si>
   <si>
     <t>05:03</t>
   </si>
   <si>
-    <t>06:30</t>
+    <t>06:31</t>
   </si>
   <si>
     <t>06:12</t>
@@ -202,415 +202,463 @@
     <t>02:33</t>
   </si>
   <si>
-    <t>04:38</t>
+    <t>04:40</t>
+  </si>
+  <si>
+    <t>06:28</t>
+  </si>
+  <si>
+    <t>06:18</t>
+  </si>
+  <si>
+    <t>03:30</t>
+  </si>
+  <si>
+    <t>04:09</t>
+  </si>
+  <si>
+    <t>06:23</t>
+  </si>
+  <si>
+    <t>06:24</t>
+  </si>
+  <si>
+    <t>03:29</t>
+  </si>
+  <si>
+    <t>06:19</t>
   </si>
   <si>
     <t>06:27</t>
   </si>
   <si>
-    <t>06:18</t>
-  </si>
-  <si>
-    <t>03:31</t>
-  </si>
-  <si>
-    <t>04:07</t>
-  </si>
-  <si>
-    <t>06:23</t>
-  </si>
-  <si>
     <t>00:00</t>
   </si>
   <si>
-    <t>01:04:27</t>
-  </si>
-  <si>
-    <t>02:42:25</t>
-  </si>
-  <si>
-    <t>22:50:52</t>
-  </si>
-  <si>
-    <t>00:28:24</t>
-  </si>
-  <si>
-    <t>02:06:20</t>
-  </si>
-  <si>
-    <t>22:14:50</t>
-  </si>
-  <si>
-    <t>23:52:18</t>
-  </si>
-  <si>
-    <t>01:30:11</t>
-  </si>
-  <si>
-    <t>21:38:46</t>
-  </si>
-  <si>
-    <t>23:16:09</t>
-  </si>
-  <si>
-    <t>00:54:00</t>
-  </si>
-  <si>
-    <t>21:02:40</t>
-  </si>
-  <si>
-    <t>22:39:57</t>
-  </si>
-  <si>
-    <t>00:17:46</t>
-  </si>
-  <si>
-    <t>01:56:03</t>
-  </si>
-  <si>
-    <t>20:26:32</t>
-  </si>
-  <si>
-    <t>22:03:42</t>
-  </si>
-  <si>
-    <t>23:41:28</t>
-  </si>
-  <si>
-    <t>01:19:40</t>
-  </si>
-  <si>
-    <t>19:50:21</t>
-  </si>
-  <si>
-    <t>21:27:25</t>
-  </si>
-  <si>
-    <t>23:05:08</t>
-  </si>
-  <si>
-    <t>00:43:16</t>
-  </si>
-  <si>
-    <t>19:14:09</t>
-  </si>
-  <si>
-    <t>20:51:04</t>
-  </si>
-  <si>
-    <t>22:28:46</t>
-  </si>
-  <si>
-    <t>01:06:44</t>
-  </si>
-  <si>
-    <t>02:45:01</t>
-  </si>
-  <si>
-    <t>22:53:15</t>
-  </si>
-  <si>
-    <t>00:30:40</t>
-  </si>
-  <si>
-    <t>02:08:51</t>
-  </si>
-  <si>
-    <t>22:17:15</t>
-  </si>
-  <si>
-    <t>23:54:34</t>
-  </si>
-  <si>
-    <t>01:32:38</t>
-  </si>
-  <si>
-    <t>21:41:14</t>
-  </si>
-  <si>
-    <t>23:18:25</t>
-  </si>
-  <si>
-    <t>00:56:24</t>
-  </si>
-  <si>
-    <t>21:05:11</t>
-  </si>
-  <si>
-    <t>22:42:13</t>
-  </si>
-  <si>
-    <t>00:20:08</t>
-  </si>
-  <si>
-    <t>02:00:32</t>
-  </si>
-  <si>
-    <t>20:29:08</t>
-  </si>
-  <si>
-    <t>22:05:59</t>
-  </si>
-  <si>
-    <t>23:43:49</t>
-  </si>
-  <si>
-    <t>01:23:04</t>
-  </si>
-  <si>
-    <t>19:53:04</t>
-  </si>
-  <si>
-    <t>21:29:42</t>
-  </si>
-  <si>
-    <t>23:07:28</t>
-  </si>
-  <si>
-    <t>00:46:19</t>
-  </si>
-  <si>
-    <t>19:17:01</t>
-  </si>
-  <si>
-    <t>20:53:22</t>
-  </si>
-  <si>
-    <t>22:31:04</t>
-  </si>
-  <si>
-    <t>01:10:00</t>
-  </si>
-  <si>
-    <t>02:47:36</t>
-  </si>
-  <si>
-    <t>22:56:15</t>
-  </si>
-  <si>
-    <t>00:33:57</t>
-  </si>
-  <si>
-    <t>02:11:35</t>
-  </si>
-  <si>
-    <t>22:20:10</t>
-  </si>
-  <si>
-    <t>23:57:51</t>
-  </si>
-  <si>
-    <t>01:35:30</t>
-  </si>
-  <si>
-    <t>21:44:03</t>
-  </si>
-  <si>
-    <t>23:21:41</t>
-  </si>
-  <si>
-    <t>00:59:22</t>
-  </si>
-  <si>
-    <t>21:07:52</t>
-  </si>
-  <si>
-    <t>22:45:29</t>
-  </si>
-  <si>
-    <t>00:23:10</t>
-  </si>
-  <si>
-    <t>20:31:39</t>
-  </si>
-  <si>
-    <t>22:09:14</t>
-  </si>
-  <si>
-    <t>23:46:55</t>
-  </si>
-  <si>
-    <t>01:24:20</t>
-  </si>
-  <si>
-    <t>19:55:23</t>
-  </si>
-  <si>
-    <t>21:32:55</t>
-  </si>
-  <si>
-    <t>23:10:37</t>
-  </si>
-  <si>
-    <t>00:48:05</t>
-  </si>
-  <si>
-    <t>19:19:04</t>
-  </si>
-  <si>
-    <t>20:56:34</t>
-  </si>
-  <si>
-    <t>22:34:15</t>
-  </si>
-  <si>
-    <t>01:13:16</t>
-  </si>
-  <si>
-    <t>02:50:12</t>
-  </si>
-  <si>
-    <t>22:59:17</t>
-  </si>
-  <si>
-    <t>00:37:14</t>
-  </si>
-  <si>
-    <t>02:14:19</t>
-  </si>
-  <si>
-    <t>22:23:07</t>
-  </si>
-  <si>
-    <t>00:01:08</t>
-  </si>
-  <si>
-    <t>01:38:21</t>
-  </si>
-  <si>
-    <t>21:46:52</t>
-  </si>
-  <si>
-    <t>23:24:58</t>
-  </si>
-  <si>
-    <t>01:02:19</t>
-  </si>
-  <si>
-    <t>21:10:34</t>
-  </si>
-  <si>
-    <t>22:48:45</t>
-  </si>
-  <si>
-    <t>00:26:12</t>
-  </si>
-  <si>
-    <t>02:00:39</t>
-  </si>
-  <si>
-    <t>20:34:11</t>
-  </si>
-  <si>
-    <t>22:12:29</t>
-  </si>
-  <si>
-    <t>23:50:01</t>
-  </si>
-  <si>
-    <t>01:25:37</t>
-  </si>
-  <si>
-    <t>19:57:42</t>
-  </si>
-  <si>
-    <t>21:36:09</t>
-  </si>
-  <si>
-    <t>23:13:46</t>
-  </si>
-  <si>
-    <t>00:49:50</t>
-  </si>
-  <si>
-    <t>19:21:08</t>
-  </si>
-  <si>
-    <t>20:59:45</t>
-  </si>
-  <si>
-    <t>22:37:27</t>
-  </si>
-  <si>
-    <t>01:15:33</t>
-  </si>
-  <si>
-    <t>02:52:47</t>
-  </si>
-  <si>
-    <t>23:01:40</t>
-  </si>
-  <si>
-    <t>00:39:30</t>
-  </si>
-  <si>
-    <t>02:16:50</t>
-  </si>
-  <si>
-    <t>22:25:32</t>
-  </si>
-  <si>
-    <t>00:03:24</t>
-  </si>
-  <si>
-    <t>01:40:48</t>
-  </si>
-  <si>
-    <t>21:49:21</t>
-  </si>
-  <si>
-    <t>23:27:15</t>
-  </si>
-  <si>
-    <t>01:04:43</t>
-  </si>
-  <si>
-    <t>21:13:06</t>
-  </si>
-  <si>
-    <t>22:51:02</t>
-  </si>
-  <si>
-    <t>00:28:34</t>
-  </si>
-  <si>
-    <t>02:05:01</t>
-  </si>
-  <si>
-    <t>20:36:48</t>
-  </si>
-  <si>
-    <t>22:14:46</t>
+    <t>00:28:26</t>
+  </si>
+  <si>
+    <t>02:06:21</t>
+  </si>
+  <si>
+    <t>22:14:54</t>
   </si>
   <si>
     <t>23:52:22</t>
   </si>
   <si>
-    <t>01:28:59</t>
-  </si>
-  <si>
-    <t>20:00:26</t>
-  </si>
-  <si>
-    <t>21:38:26</t>
-  </si>
-  <si>
-    <t>23:16:05</t>
-  </si>
-  <si>
-    <t>00:52:52</t>
-  </si>
-  <si>
-    <t>19:24:00</t>
-  </si>
-  <si>
-    <t>21:02:04</t>
-  </si>
-  <si>
-    <t>22:39:45</t>
+    <t>01:30:15</t>
+  </si>
+  <si>
+    <t>21:38:54</t>
+  </si>
+  <si>
+    <t>23:16:16</t>
+  </si>
+  <si>
+    <t>00:54:08</t>
+  </si>
+  <si>
+    <t>21:02:52</t>
+  </si>
+  <si>
+    <t>22:40:09</t>
+  </si>
+  <si>
+    <t>00:17:58</t>
+  </si>
+  <si>
+    <t>01:56:17</t>
+  </si>
+  <si>
+    <t>20:26:49</t>
+  </si>
+  <si>
+    <t>22:04:00</t>
+  </si>
+  <si>
+    <t>23:41:47</t>
+  </si>
+  <si>
+    <t>01:20:00</t>
+  </si>
+  <si>
+    <t>19:50:46</t>
+  </si>
+  <si>
+    <t>21:27:50</t>
+  </si>
+  <si>
+    <t>23:05:34</t>
+  </si>
+  <si>
+    <t>00:43:42</t>
+  </si>
+  <si>
+    <t>19:14:42</t>
+  </si>
+  <si>
+    <t>20:51:38</t>
+  </si>
+  <si>
+    <t>22:29:20</t>
+  </si>
+  <si>
+    <t>00:07:24</t>
+  </si>
+  <si>
+    <t>18:38:37</t>
+  </si>
+  <si>
+    <t>20:15:24</t>
+  </si>
+  <si>
+    <t>21:53:03</t>
+  </si>
+  <si>
+    <t>23:31:04</t>
+  </si>
+  <si>
+    <t>00:30:42</t>
+  </si>
+  <si>
+    <t>02:08:52</t>
+  </si>
+  <si>
+    <t>22:17:19</t>
+  </si>
+  <si>
+    <t>23:54:38</t>
+  </si>
+  <si>
+    <t>01:32:43</t>
+  </si>
+  <si>
+    <t>21:41:21</t>
+  </si>
+  <si>
+    <t>23:18:33</t>
+  </si>
+  <si>
+    <t>00:56:32</t>
+  </si>
+  <si>
+    <t>21:05:23</t>
+  </si>
+  <si>
+    <t>22:42:26</t>
+  </si>
+  <si>
+    <t>00:20:21</t>
+  </si>
+  <si>
+    <t>02:00:46</t>
+  </si>
+  <si>
+    <t>20:29:26</t>
+  </si>
+  <si>
+    <t>22:06:17</t>
+  </si>
+  <si>
+    <t>23:44:08</t>
+  </si>
+  <si>
+    <t>01:23:23</t>
+  </si>
+  <si>
+    <t>19:53:28</t>
+  </si>
+  <si>
+    <t>21:30:07</t>
+  </si>
+  <si>
+    <t>23:07:54</t>
+  </si>
+  <si>
+    <t>00:46:46</t>
+  </si>
+  <si>
+    <t>19:17:33</t>
+  </si>
+  <si>
+    <t>20:53:56</t>
+  </si>
+  <si>
+    <t>22:31:38</t>
+  </si>
+  <si>
+    <t>00:10:16</t>
+  </si>
+  <si>
+    <t>18:41:40</t>
+  </si>
+  <si>
+    <t>20:17:43</t>
+  </si>
+  <si>
+    <t>21:55:21</t>
+  </si>
+  <si>
+    <t>23:33:47</t>
+  </si>
+  <si>
+    <t>00:33:59</t>
+  </si>
+  <si>
+    <t>02:11:37</t>
+  </si>
+  <si>
+    <t>22:20:14</t>
+  </si>
+  <si>
+    <t>23:57:55</t>
+  </si>
+  <si>
+    <t>01:35:34</t>
+  </si>
+  <si>
+    <t>21:44:10</t>
+  </si>
+  <si>
+    <t>23:21:49</t>
+  </si>
+  <si>
+    <t>00:59:30</t>
+  </si>
+  <si>
+    <t>21:08:05</t>
+  </si>
+  <si>
+    <t>22:45:42</t>
+  </si>
+  <si>
+    <t>00:23:23</t>
+  </si>
+  <si>
+    <t>20:31:57</t>
+  </si>
+  <si>
+    <t>22:09:32</t>
+  </si>
+  <si>
+    <t>23:47:14</t>
+  </si>
+  <si>
+    <t>01:24:40</t>
+  </si>
+  <si>
+    <t>19:55:48</t>
+  </si>
+  <si>
+    <t>21:33:21</t>
+  </si>
+  <si>
+    <t>23:11:03</t>
+  </si>
+  <si>
+    <t>00:48:31</t>
+  </si>
+  <si>
+    <t>19:19:37</t>
+  </si>
+  <si>
+    <t>20:57:08</t>
+  </si>
+  <si>
+    <t>22:34:50</t>
+  </si>
+  <si>
+    <t>00:12:20</t>
+  </si>
+  <si>
+    <t>18:43:25</t>
+  </si>
+  <si>
+    <t>20:20:52</t>
+  </si>
+  <si>
+    <t>21:58:34</t>
+  </si>
+  <si>
+    <t>23:36:07</t>
+  </si>
+  <si>
+    <t>00:37:16</t>
+  </si>
+  <si>
+    <t>02:14:21</t>
+  </si>
+  <si>
+    <t>22:23:11</t>
+  </si>
+  <si>
+    <t>00:01:12</t>
+  </si>
+  <si>
+    <t>01:38:26</t>
+  </si>
+  <si>
+    <t>21:47:00</t>
+  </si>
+  <si>
+    <t>23:25:06</t>
+  </si>
+  <si>
+    <t>01:02:27</t>
+  </si>
+  <si>
+    <t>21:10:46</t>
+  </si>
+  <si>
+    <t>22:48:58</t>
+  </si>
+  <si>
+    <t>00:26:25</t>
+  </si>
+  <si>
+    <t>02:00:50</t>
+  </si>
+  <si>
+    <t>20:34:29</t>
+  </si>
+  <si>
+    <t>22:12:48</t>
+  </si>
+  <si>
+    <t>23:50:20</t>
+  </si>
+  <si>
+    <t>01:25:56</t>
+  </si>
+  <si>
+    <t>19:58:08</t>
+  </si>
+  <si>
+    <t>21:36:35</t>
+  </si>
+  <si>
+    <t>23:14:12</t>
+  </si>
+  <si>
+    <t>00:50:16</t>
+  </si>
+  <si>
+    <t>19:21:42</t>
+  </si>
+  <si>
+    <t>21:00:19</t>
+  </si>
+  <si>
+    <t>22:38:02</t>
+  </si>
+  <si>
+    <t>00:14:25</t>
+  </si>
+  <si>
+    <t>18:45:09</t>
+  </si>
+  <si>
+    <t>20:24:02</t>
+  </si>
+  <si>
+    <t>22:01:48</t>
+  </si>
+  <si>
+    <t>23:38:27</t>
+  </si>
+  <si>
+    <t>00:39:32</t>
+  </si>
+  <si>
+    <t>02:16:52</t>
+  </si>
+  <si>
+    <t>22:25:36</t>
+  </si>
+  <si>
+    <t>00:03:29</t>
+  </si>
+  <si>
+    <t>01:40:53</t>
+  </si>
+  <si>
+    <t>21:49:29</t>
+  </si>
+  <si>
+    <t>23:27:23</t>
+  </si>
+  <si>
+    <t>01:04:52</t>
+  </si>
+  <si>
+    <t>21:13:19</t>
+  </si>
+  <si>
+    <t>22:51:15</t>
+  </si>
+  <si>
+    <t>00:28:48</t>
+  </si>
+  <si>
+    <t>02:05:14</t>
+  </si>
+  <si>
+    <t>20:37:06</t>
+  </si>
+  <si>
+    <t>22:15:05</t>
+  </si>
+  <si>
+    <t>23:52:41</t>
+  </si>
+  <si>
+    <t>01:29:19</t>
+  </si>
+  <si>
+    <t>20:00:51</t>
+  </si>
+  <si>
+    <t>21:38:52</t>
+  </si>
+  <si>
+    <t>23:16:32</t>
+  </si>
+  <si>
+    <t>00:53:19</t>
+  </si>
+  <si>
+    <t>19:24:34</t>
+  </si>
+  <si>
+    <t>21:02:38</t>
+  </si>
+  <si>
+    <t>22:40:20</t>
+  </si>
+  <si>
+    <t>00:17:16</t>
+  </si>
+  <si>
+    <t>18:48:13</t>
+  </si>
+  <si>
+    <t>20:26:21</t>
+  </si>
+  <si>
+    <t>22:04:05</t>
+  </si>
+  <si>
+    <t>23:41:09</t>
   </si>
   <si>
     <t>0°</t>
+  </si>
+  <si>
+    <t>3°</t>
+  </si>
+  <si>
+    <t>18:39:29</t>
   </si>
   <si>
     <t>B</t>
@@ -653,7 +701,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -674,7 +722,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6F9FC"/>
+        <fgColor rgb="FFDDE8F4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,13 +734,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEF3F9"/>
+        <fgColor rgb="FFF6F9FC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6EEF7"/>
+        <fgColor rgb="FFA2C0E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2CBE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF3F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,25 +764,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB2CBE6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAAC5E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA2C0E1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF558CC8"/>
+        <fgColor rgb="FF6E9DD0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,25 +776,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8F4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF77A3D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6E9DD0"/>
+        <fgColor rgb="FFCCDCEE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBBD1E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF558CC8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,6 +806,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF88AED8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80A9D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAC5E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF77A3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0B070"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF5E92CB"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -777,18 +843,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99BADE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6AD26A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF88AED8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,7 +883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -907,6 +961,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1310,7 +1367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1394,52 +1451,52 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L2" s="4">
-        <v>-53</v>
+        <v>-56.7</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="O2" s="6">
         <v>100</v>
       </c>
       <c r="P2" s="7">
-        <v>93</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>96</v>
+        <v>79</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>99</v>
       </c>
       <c r="R2" s="8">
         <v>100</v>
@@ -1450,52 +1507,52 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L3" s="4">
-        <v>-39.3</v>
+        <v>-44.6</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="O3" s="6">
         <v>100</v>
       </c>
-      <c r="P3" s="9">
-        <v>91</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>100</v>
+      <c r="P3" s="8">
+        <v>98</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>79</v>
       </c>
       <c r="R3" s="8">
         <v>100</v>
@@ -1506,55 +1563,55 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L4" s="4">
-        <v>-60.5</v>
+        <v>-58.7</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="O4" s="6">
-        <v>100</v>
-      </c>
-      <c r="P4" s="10">
-        <v>83</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>100</v>
-      </c>
-      <c r="R4" s="8">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="P4" s="9">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>44</v>
+      </c>
+      <c r="R4" s="11">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1565,52 +1622,52 @@
         <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" s="4">
-        <v>-56.7</v>
+        <v>-59.3</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="O5" s="6">
-        <v>100</v>
-      </c>
-      <c r="P5" s="11">
-        <v>64</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>83</v>
-      </c>
-      <c r="R5" s="8">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="P5" s="12">
+        <v>91</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>67</v>
+      </c>
+      <c r="R5" s="14">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1618,55 +1675,55 @@
         <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L6" s="4">
-        <v>-44.6</v>
+        <v>-49.5</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="O6" s="6">
-        <v>100</v>
-      </c>
-      <c r="P6" s="11">
-        <v>64</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>89</v>
-      </c>
-      <c r="R6" s="8">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="P6" s="7">
+        <v>81</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>75</v>
+      </c>
+      <c r="R6" s="16">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1674,55 +1731,55 @@
         <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L7" s="4">
-        <v>-58.7</v>
+        <v>-55.5</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="O7" s="6">
-        <v>100</v>
-      </c>
-      <c r="P7" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>53</v>
-      </c>
-      <c r="R7" s="13">
-        <v>48</v>
+        <v>72</v>
+      </c>
+      <c r="P7" s="17">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>0</v>
+      </c>
+      <c r="R7" s="14">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1733,52 +1790,52 @@
         <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L8" s="4">
-        <v>-59.3</v>
+        <v>-60.3</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="O8" s="6">
-        <v>97</v>
-      </c>
-      <c r="P8" s="9">
-        <v>90</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>64</v>
-      </c>
-      <c r="R8" s="12">
-        <v>55</v>
+        <v>71</v>
+      </c>
+      <c r="P8" s="17">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>11</v>
+      </c>
+      <c r="R8" s="20">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1786,55 +1843,55 @@
         <v>25</v>
       </c>
       <c r="B9" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L9" s="4">
-        <v>-49.6</v>
+        <v>-53.8</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="O9" s="6">
-        <v>100</v>
-      </c>
-      <c r="P9" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>45</v>
-      </c>
-      <c r="R9" s="8">
-        <v>99</v>
+        <v>80</v>
+      </c>
+      <c r="P9" s="13">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>1</v>
+      </c>
+      <c r="R9" s="11">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1842,55 +1899,55 @@
         <v>26</v>
       </c>
       <c r="B10" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L10" s="4">
-        <v>-55.5</v>
+        <v>-51.2</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="O10" s="6">
-        <v>96</v>
-      </c>
-      <c r="P10" s="11">
-        <v>65</v>
-      </c>
-      <c r="Q10" s="15">
+        <v>100</v>
+      </c>
+      <c r="P10" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="18">
         <v>0</v>
       </c>
-      <c r="R10" s="16">
-        <v>74</v>
+      <c r="R10" s="8">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1901,52 +1958,52 @@
         <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L11" s="4">
-        <v>-60.3</v>
+        <v>-59.6</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="O11" s="6">
-        <v>78</v>
-      </c>
-      <c r="P11" s="17">
-        <v>78</v>
-      </c>
-      <c r="Q11" s="15">
+        <v>100</v>
+      </c>
+      <c r="P11" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="18">
         <v>0</v>
       </c>
-      <c r="R11" s="14">
-        <v>44</v>
+      <c r="R11" s="8">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1954,55 +2011,55 @@
         <v>28</v>
       </c>
       <c r="B12" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L12" s="4">
-        <v>-53.9</v>
+        <v>-57.2</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="O12" s="6">
-        <v>79</v>
-      </c>
-      <c r="P12" s="17">
-        <v>79</v>
-      </c>
-      <c r="Q12" s="15">
+        <v>100</v>
+      </c>
+      <c r="P12" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="18">
         <v>0</v>
       </c>
-      <c r="R12" s="18">
-        <v>18</v>
+      <c r="R12" s="21">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2010,55 +2067,55 @@
         <v>29</v>
       </c>
       <c r="B13" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L13" s="4">
-        <v>-51.2</v>
+        <v>-45.9</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="O13" s="6">
-        <v>100</v>
-      </c>
-      <c r="P13" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q13" s="19">
-        <v>17</v>
-      </c>
-      <c r="R13" s="20">
-        <v>60</v>
+        <v>95</v>
+      </c>
+      <c r="P13" s="9">
+        <v>95</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>0</v>
+      </c>
+      <c r="R13" s="10">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2066,55 +2123,55 @@
         <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L14" s="4">
-        <v>-59.6</v>
+        <v>-46.2</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="O14" s="6">
-        <v>100</v>
-      </c>
-      <c r="P14" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="21">
-        <v>12</v>
-      </c>
-      <c r="R14" s="13">
-        <v>50</v>
+        <v>94</v>
+      </c>
+      <c r="P14" s="13">
+        <v>65</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>27</v>
+      </c>
+      <c r="R14" s="19">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2122,55 +2179,55 @@
         <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L15" s="4">
-        <v>-57.2</v>
+        <v>-57.3</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="O15" s="6">
-        <v>100</v>
-      </c>
-      <c r="P15" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="15">
+        <v>89</v>
+      </c>
+      <c r="P15" s="16">
+        <v>70</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>24</v>
+      </c>
+      <c r="R15" s="18">
         <v>0</v>
-      </c>
-      <c r="R15" s="22">
-        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2178,55 +2235,55 @@
         <v>32</v>
       </c>
       <c r="B16" s="2">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L16" s="4">
-        <v>-45.9</v>
+        <v>-59.3</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="O16" s="6">
-        <v>100</v>
-      </c>
-      <c r="P16" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q16" s="23">
-        <v>3</v>
-      </c>
-      <c r="R16" s="21">
-        <v>12</v>
+        <v>87</v>
+      </c>
+      <c r="P16" s="13">
+        <v>66</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>24</v>
+      </c>
+      <c r="R16" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2234,55 +2291,55 @@
         <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="4">
+        <v>-50.6</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O17" s="6">
         <v>84</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17" s="4">
-        <v>-46.2</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="O17" s="6">
-        <v>100</v>
-      </c>
-      <c r="P17" s="7">
-        <v>97</v>
-      </c>
-      <c r="Q17" s="15">
+      <c r="P17" s="23">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="24">
+        <v>20</v>
+      </c>
+      <c r="R17" s="18">
         <v>0</v>
-      </c>
-      <c r="R17" s="13">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2290,55 +2347,55 @@
         <v>34</v>
       </c>
       <c r="B18" s="2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L18" s="4">
-        <v>-57.3</v>
+        <v>-40.8</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="O18" s="6">
-        <v>100</v>
-      </c>
-      <c r="P18" s="8">
-        <v>98</v>
-      </c>
-      <c r="Q18" s="15">
-        <v>0</v>
+        <v>216</v>
+      </c>
+      <c r="O18" s="25">
+        <v>47</v>
+      </c>
+      <c r="P18" s="10">
+        <v>44</v>
+      </c>
+      <c r="Q18" s="26">
+        <v>4</v>
       </c>
       <c r="R18" s="24">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2346,55 +2403,55 @@
         <v>35</v>
       </c>
       <c r="B19" s="2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L19" s="4">
-        <v>-59.3</v>
+        <v>-53.7</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="O19" s="6">
-        <v>100</v>
-      </c>
-      <c r="P19" s="8">
-        <v>99</v>
-      </c>
-      <c r="Q19" s="15">
+        <v>216</v>
+      </c>
+      <c r="O19" s="25">
+        <v>33</v>
+      </c>
+      <c r="P19" s="20">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="18">
         <v>0</v>
       </c>
-      <c r="R19" s="14">
-        <v>44</v>
+      <c r="R19" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2402,55 +2459,55 @@
         <v>36</v>
       </c>
       <c r="B20" s="2">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L20" s="4">
-        <v>-50.6</v>
+        <v>-59.7</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="O20" s="6">
-        <v>98</v>
-      </c>
-      <c r="P20" s="8">
-        <v>98</v>
-      </c>
-      <c r="Q20" s="15">
+        <v>216</v>
+      </c>
+      <c r="O20" s="25">
+        <v>24</v>
+      </c>
+      <c r="P20" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="18">
         <v>0</v>
       </c>
-      <c r="R20" s="22">
-        <v>33</v>
+      <c r="R20" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2458,54 +2515,54 @@
         <v>37</v>
       </c>
       <c r="B21" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L21" s="4">
-        <v>-40.7</v>
+        <v>-54.6</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="O21" s="25">
+        <v>29</v>
+      </c>
+      <c r="P21" s="21">
+        <v>29</v>
+      </c>
+      <c r="Q21" s="18">
         <v>0</v>
       </c>
-      <c r="P21" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="15">
-        <v>0</v>
-      </c>
-      <c r="R21" s="15">
+      <c r="R21" s="18">
         <v>0</v>
       </c>
     </row>
@@ -2514,54 +2571,54 @@
         <v>38</v>
       </c>
       <c r="B22" s="2">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L22" s="4">
-        <v>-53.7</v>
+        <v>-35</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="O22" s="25">
-        <v>1</v>
-      </c>
-      <c r="P22" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="15">
-        <v>0</v>
-      </c>
-      <c r="R22" s="15">
+        <v>216</v>
+      </c>
+      <c r="O22" s="6">
+        <v>79</v>
+      </c>
+      <c r="P22" s="23">
+        <v>48</v>
+      </c>
+      <c r="Q22" s="23">
+        <v>51</v>
+      </c>
+      <c r="R22" s="18">
         <v>0</v>
       </c>
     </row>
@@ -2570,54 +2627,54 @@
         <v>39</v>
       </c>
       <c r="B23" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L23" s="4">
-        <v>-59.7</v>
+        <v>-49.2</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="O23" s="25">
-        <v>2</v>
-      </c>
-      <c r="P23" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="15">
-        <v>0</v>
-      </c>
-      <c r="R23" s="15">
+        <v>216</v>
+      </c>
+      <c r="O23" s="6">
+        <v>61</v>
+      </c>
+      <c r="P23" s="27">
+        <v>42</v>
+      </c>
+      <c r="Q23" s="21">
+        <v>31</v>
+      </c>
+      <c r="R23" s="18">
         <v>0</v>
       </c>
     </row>
@@ -2626,54 +2683,54 @@
         <v>40</v>
       </c>
       <c r="B24" s="2">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="L24" s="4">
-        <v>-54.6</v>
+        <v>-58.5</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="O24" s="25">
-        <v>3</v>
-      </c>
-      <c r="P24" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="15">
-        <v>0</v>
-      </c>
-      <c r="R24" s="15">
+        <v>216</v>
+      </c>
+      <c r="O24" s="6">
+        <v>45</v>
+      </c>
+      <c r="P24" s="20">
+        <v>35</v>
+      </c>
+      <c r="Q24" s="24">
+        <v>21</v>
+      </c>
+      <c r="R24" s="18">
         <v>0</v>
       </c>
     </row>
@@ -2688,48 +2745,48 @@
         <v>66</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L25" s="4">
-        <v>-34.9</v>
+        <v>-57.5</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="O25" s="6">
-        <v>50</v>
-      </c>
-      <c r="P25" s="14">
-        <v>45</v>
-      </c>
-      <c r="Q25" s="26">
-        <v>28</v>
-      </c>
-      <c r="R25" s="15">
+        <v>216</v>
+      </c>
+      <c r="O25" s="25">
+        <v>39</v>
+      </c>
+      <c r="P25" s="22">
+        <v>25</v>
+      </c>
+      <c r="Q25" s="27">
+        <v>38</v>
+      </c>
+      <c r="R25" s="18">
         <v>0</v>
       </c>
     </row>
@@ -2738,55 +2795,55 @@
         <v>42</v>
       </c>
       <c r="B26" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="L26" s="4">
-        <v>-49.1</v>
+        <v>-29</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="O26" s="6">
-        <v>56</v>
-      </c>
-      <c r="P26" s="13">
-        <v>48</v>
-      </c>
-      <c r="Q26" s="19">
+        <v>45</v>
+      </c>
+      <c r="P26" s="27">
+        <v>38</v>
+      </c>
+      <c r="Q26" s="14">
         <v>14</v>
       </c>
-      <c r="R26" s="15">
-        <v>1</v>
+      <c r="R26" s="26">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2794,114 +2851,226 @@
         <v>43</v>
       </c>
       <c r="B27" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L27" s="4">
-        <v>-58.5</v>
+        <v>-44</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="O27" s="6">
-        <v>58</v>
-      </c>
-      <c r="P27" s="13">
-        <v>48</v>
-      </c>
-      <c r="Q27" s="23">
-        <v>5</v>
-      </c>
-      <c r="R27" s="15">
-        <v>2</v>
+        <v>33</v>
+      </c>
+      <c r="P27" s="20">
+        <v>33</v>
+      </c>
+      <c r="Q27" s="24">
+        <v>18</v>
+      </c>
+      <c r="R27" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="2">
+        <v>31</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L28" s="4">
+        <v>-55.7</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="O28" s="6">
+        <v>32</v>
+      </c>
+      <c r="P28" s="21">
+        <v>32</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>15</v>
+      </c>
+      <c r="R28" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="2">
+        <v>16</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L29" s="4">
+        <v>-59</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="O29" s="6">
+        <v>37</v>
+      </c>
+      <c r="P29" s="20">
+        <v>37</v>
+      </c>
+      <c r="Q29" s="19">
+        <v>9</v>
+      </c>
+      <c r="R29" s="19">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A27">
+  <conditionalFormatting sqref="A2:A29">
     <cfRule type="expression" dxfId="8" priority="9">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B27">
+  <conditionalFormatting sqref="B2:B29">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C27">
+  <conditionalFormatting sqref="C2:C29">
     <cfRule type="expression" dxfId="9" priority="11">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D27">
+  <conditionalFormatting sqref="D2:D29">
     <cfRule type="expression" dxfId="8" priority="12">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E27">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="expression" dxfId="9" priority="13">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F27">
+  <conditionalFormatting sqref="F2:F29">
     <cfRule type="expression" dxfId="9" priority="14">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G27">
+  <conditionalFormatting sqref="G2:G29">
     <cfRule type="expression" dxfId="9" priority="15">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H27">
+  <conditionalFormatting sqref="H2:H29">
     <cfRule type="expression" dxfId="9" priority="16">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I27">
+  <conditionalFormatting sqref="I2:I29">
     <cfRule type="expression" dxfId="8" priority="17">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J27">
+  <conditionalFormatting sqref="J2:J29">
     <cfRule type="expression" dxfId="9" priority="18">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K27">
+  <conditionalFormatting sqref="K2:K29">
     <cfRule type="expression" dxfId="8" priority="19">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L27">
+  <conditionalFormatting sqref="L2:L29">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -2920,12 +3089,12 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M27">
+  <conditionalFormatting sqref="M2:M29">
     <cfRule type="expression" dxfId="9" priority="21">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N27">
+  <conditionalFormatting sqref="N2:N29">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>
@@ -2942,22 +3111,22 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O27">
+  <conditionalFormatting sqref="O2:O29">
     <cfRule type="expression" dxfId="9" priority="23">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P27">
+  <conditionalFormatting sqref="P2:P29">
     <cfRule type="expression" dxfId="9" priority="24">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q27">
+  <conditionalFormatting sqref="Q2:Q29">
     <cfRule type="expression" dxfId="9" priority="25">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R27">
+  <conditionalFormatting sqref="R2:R29">
     <cfRule type="expression" dxfId="9" priority="26">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="214">
   <si>
     <t>Datum</t>
   </si>
@@ -163,31 +163,25 @@
     <t>05:52</t>
   </si>
   <si>
-    <t>-1434:34</t>
-  </si>
-  <si>
     <t>05:43</t>
   </si>
   <si>
     <t>05:39</t>
   </si>
   <si>
+    <t>05:55</t>
+  </si>
+  <si>
+    <t>05:23</t>
+  </si>
+  <si>
     <t>06:33</t>
   </si>
   <si>
-    <t>05:55</t>
-  </si>
-  <si>
-    <t>05:23</t>
-  </si>
-  <si>
-    <t>06:32</t>
-  </si>
-  <si>
     <t>06:04</t>
   </si>
   <si>
-    <t>00:04</t>
+    <t>00:06</t>
   </si>
   <si>
     <t>05:03</t>
@@ -196,10 +190,10 @@
     <t>06:31</t>
   </si>
   <si>
-    <t>06:12</t>
-  </si>
-  <si>
-    <t>02:33</t>
+    <t>06:13</t>
+  </si>
+  <si>
+    <t>02:32</t>
   </si>
   <si>
     <t>04:40</t>
@@ -208,7 +202,7 @@
     <t>06:28</t>
   </si>
   <si>
-    <t>06:18</t>
+    <t>06:19</t>
   </si>
   <si>
     <t>03:30</t>
@@ -226,16 +220,13 @@
     <t>03:29</t>
   </si>
   <si>
-    <t>06:19</t>
-  </si>
-  <si>
     <t>06:27</t>
   </si>
   <si>
     <t>00:00</t>
   </si>
   <si>
-    <t>00:28:26</t>
+    <t>00:28:25</t>
   </si>
   <si>
     <t>02:06:21</t>
@@ -253,70 +244,70 @@
     <t>21:38:54</t>
   </si>
   <si>
-    <t>23:16:16</t>
+    <t>23:16:17</t>
   </si>
   <si>
     <t>00:54:08</t>
   </si>
   <si>
-    <t>21:02:52</t>
-  </si>
-  <si>
-    <t>22:40:09</t>
-  </si>
-  <si>
-    <t>00:17:58</t>
+    <t>21:02:53</t>
+  </si>
+  <si>
+    <t>22:40:10</t>
+  </si>
+  <si>
+    <t>00:17:59</t>
   </si>
   <si>
     <t>01:56:17</t>
   </si>
   <si>
-    <t>20:26:49</t>
-  </si>
-  <si>
-    <t>22:04:00</t>
-  </si>
-  <si>
-    <t>23:41:47</t>
-  </si>
-  <si>
-    <t>01:20:00</t>
-  </si>
-  <si>
-    <t>19:50:46</t>
-  </si>
-  <si>
-    <t>21:27:50</t>
-  </si>
-  <si>
-    <t>23:05:34</t>
-  </si>
-  <si>
-    <t>00:43:42</t>
-  </si>
-  <si>
-    <t>19:14:42</t>
-  </si>
-  <si>
-    <t>20:51:38</t>
-  </si>
-  <si>
-    <t>22:29:20</t>
-  </si>
-  <si>
-    <t>00:07:24</t>
-  </si>
-  <si>
-    <t>18:38:37</t>
-  </si>
-  <si>
-    <t>20:15:24</t>
-  </si>
-  <si>
-    <t>21:53:03</t>
-  </si>
-  <si>
-    <t>23:31:04</t>
+    <t>20:26:51</t>
+  </si>
+  <si>
+    <t>22:04:02</t>
+  </si>
+  <si>
+    <t>23:41:49</t>
+  </si>
+  <si>
+    <t>01:20:01</t>
+  </si>
+  <si>
+    <t>19:50:48</t>
+  </si>
+  <si>
+    <t>21:27:52</t>
+  </si>
+  <si>
+    <t>23:05:37</t>
+  </si>
+  <si>
+    <t>00:43:45</t>
+  </si>
+  <si>
+    <t>19:14:45</t>
+  </si>
+  <si>
+    <t>20:51:41</t>
+  </si>
+  <si>
+    <t>22:29:23</t>
+  </si>
+  <si>
+    <t>00:07:27</t>
+  </si>
+  <si>
+    <t>18:38:41</t>
+  </si>
+  <si>
+    <t>20:15:28</t>
+  </si>
+  <si>
+    <t>21:53:07</t>
+  </si>
+  <si>
+    <t>23:31:08</t>
   </si>
   <si>
     <t>00:30:42</t>
@@ -340,73 +331,73 @@
     <t>23:18:33</t>
   </si>
   <si>
-    <t>00:56:32</t>
-  </si>
-  <si>
-    <t>21:05:23</t>
+    <t>00:56:33</t>
+  </si>
+  <si>
+    <t>21:05:24</t>
   </si>
   <si>
     <t>22:42:26</t>
   </si>
   <si>
-    <t>00:20:21</t>
+    <t>00:20:22</t>
   </si>
   <si>
     <t>02:00:46</t>
   </si>
   <si>
-    <t>20:29:26</t>
-  </si>
-  <si>
-    <t>22:06:17</t>
-  </si>
-  <si>
-    <t>23:44:08</t>
-  </si>
-  <si>
-    <t>01:23:23</t>
-  </si>
-  <si>
-    <t>19:53:28</t>
-  </si>
-  <si>
-    <t>21:30:07</t>
-  </si>
-  <si>
-    <t>23:07:54</t>
-  </si>
-  <si>
-    <t>00:46:46</t>
-  </si>
-  <si>
-    <t>19:17:33</t>
-  </si>
-  <si>
-    <t>20:53:56</t>
-  </si>
-  <si>
-    <t>22:31:38</t>
-  </si>
-  <si>
-    <t>00:10:16</t>
-  </si>
-  <si>
-    <t>18:41:40</t>
-  </si>
-  <si>
-    <t>20:17:43</t>
-  </si>
-  <si>
-    <t>21:55:21</t>
-  </si>
-  <si>
-    <t>23:33:47</t>
-  </si>
-  <si>
-    <t>00:33:59</t>
-  </si>
-  <si>
-    <t>02:11:37</t>
+    <t>20:29:27</t>
+  </si>
+  <si>
+    <t>22:06:18</t>
+  </si>
+  <si>
+    <t>23:44:09</t>
+  </si>
+  <si>
+    <t>01:23:25</t>
+  </si>
+  <si>
+    <t>19:53:30</t>
+  </si>
+  <si>
+    <t>21:30:09</t>
+  </si>
+  <si>
+    <t>23:07:56</t>
+  </si>
+  <si>
+    <t>00:46:48</t>
+  </si>
+  <si>
+    <t>19:17:36</t>
+  </si>
+  <si>
+    <t>20:53:59</t>
+  </si>
+  <si>
+    <t>22:31:41</t>
+  </si>
+  <si>
+    <t>00:10:19</t>
+  </si>
+  <si>
+    <t>18:41:44</t>
+  </si>
+  <si>
+    <t>20:17:47</t>
+  </si>
+  <si>
+    <t>21:55:25</t>
+  </si>
+  <si>
+    <t>23:33:51</t>
+  </si>
+  <si>
+    <t>00:33:58</t>
+  </si>
+  <si>
+    <t>02:11:36</t>
   </si>
   <si>
     <t>22:20:14</t>
@@ -418,10 +409,10 @@
     <t>01:35:34</t>
   </si>
   <si>
-    <t>21:44:10</t>
-  </si>
-  <si>
-    <t>23:21:49</t>
+    <t>21:44:11</t>
+  </si>
+  <si>
+    <t>23:21:50</t>
   </si>
   <si>
     <t>00:59:30</t>
@@ -433,55 +424,55 @@
     <t>22:45:42</t>
   </si>
   <si>
-    <t>00:23:23</t>
-  </si>
-  <si>
-    <t>20:31:57</t>
-  </si>
-  <si>
-    <t>22:09:32</t>
-  </si>
-  <si>
-    <t>23:47:14</t>
-  </si>
-  <si>
-    <t>01:24:40</t>
-  </si>
-  <si>
-    <t>19:55:48</t>
-  </si>
-  <si>
-    <t>21:33:21</t>
-  </si>
-  <si>
-    <t>23:11:03</t>
-  </si>
-  <si>
-    <t>00:48:31</t>
-  </si>
-  <si>
-    <t>19:19:37</t>
-  </si>
-  <si>
-    <t>20:57:08</t>
-  </si>
-  <si>
-    <t>22:34:50</t>
-  </si>
-  <si>
-    <t>00:12:20</t>
-  </si>
-  <si>
-    <t>18:43:25</t>
-  </si>
-  <si>
-    <t>20:20:52</t>
-  </si>
-  <si>
-    <t>21:58:34</t>
-  </si>
-  <si>
-    <t>23:36:07</t>
+    <t>00:23:24</t>
+  </si>
+  <si>
+    <t>20:31:58</t>
+  </si>
+  <si>
+    <t>22:09:34</t>
+  </si>
+  <si>
+    <t>23:47:16</t>
+  </si>
+  <si>
+    <t>01:24:41</t>
+  </si>
+  <si>
+    <t>19:55:50</t>
+  </si>
+  <si>
+    <t>21:33:23</t>
+  </si>
+  <si>
+    <t>23:11:05</t>
+  </si>
+  <si>
+    <t>00:48:33</t>
+  </si>
+  <si>
+    <t>19:19:40</t>
+  </si>
+  <si>
+    <t>20:57:11</t>
+  </si>
+  <si>
+    <t>22:34:53</t>
+  </si>
+  <si>
+    <t>00:12:23</t>
+  </si>
+  <si>
+    <t>18:43:29</t>
+  </si>
+  <si>
+    <t>20:20:57</t>
+  </si>
+  <si>
+    <t>21:58:39</t>
+  </si>
+  <si>
+    <t>23:36:11</t>
   </si>
   <si>
     <t>00:37:16</t>
@@ -502,76 +493,76 @@
     <t>21:47:00</t>
   </si>
   <si>
-    <t>23:25:06</t>
-  </si>
-  <si>
-    <t>01:02:27</t>
-  </si>
-  <si>
-    <t>21:10:46</t>
-  </si>
-  <si>
-    <t>22:48:58</t>
-  </si>
-  <si>
-    <t>00:26:25</t>
-  </si>
-  <si>
-    <t>02:00:50</t>
-  </si>
-  <si>
-    <t>20:34:29</t>
-  </si>
-  <si>
-    <t>22:12:48</t>
-  </si>
-  <si>
-    <t>23:50:20</t>
-  </si>
-  <si>
-    <t>01:25:56</t>
-  </si>
-  <si>
-    <t>19:58:08</t>
-  </si>
-  <si>
-    <t>21:36:35</t>
-  </si>
-  <si>
-    <t>23:14:12</t>
-  </si>
-  <si>
-    <t>00:50:16</t>
-  </si>
-  <si>
-    <t>19:21:42</t>
-  </si>
-  <si>
-    <t>21:00:19</t>
-  </si>
-  <si>
-    <t>22:38:02</t>
-  </si>
-  <si>
-    <t>00:14:25</t>
-  </si>
-  <si>
-    <t>18:45:09</t>
-  </si>
-  <si>
-    <t>20:24:02</t>
-  </si>
-  <si>
-    <t>22:01:48</t>
-  </si>
-  <si>
-    <t>23:38:27</t>
+    <t>23:25:07</t>
+  </si>
+  <si>
+    <t>01:02:28</t>
+  </si>
+  <si>
+    <t>21:10:47</t>
+  </si>
+  <si>
+    <t>22:48:59</t>
+  </si>
+  <si>
+    <t>00:26:26</t>
+  </si>
+  <si>
+    <t>02:00:52</t>
+  </si>
+  <si>
+    <t>20:34:30</t>
+  </si>
+  <si>
+    <t>22:12:49</t>
+  </si>
+  <si>
+    <t>23:50:22</t>
+  </si>
+  <si>
+    <t>01:25:57</t>
+  </si>
+  <si>
+    <t>19:58:10</t>
+  </si>
+  <si>
+    <t>21:36:37</t>
+  </si>
+  <si>
+    <t>23:14:15</t>
+  </si>
+  <si>
+    <t>00:50:18</t>
+  </si>
+  <si>
+    <t>19:21:45</t>
+  </si>
+  <si>
+    <t>21:00:22</t>
+  </si>
+  <si>
+    <t>22:38:05</t>
+  </si>
+  <si>
+    <t>00:14:28</t>
+  </si>
+  <si>
+    <t>18:45:13</t>
+  </si>
+  <si>
+    <t>20:24:06</t>
+  </si>
+  <si>
+    <t>22:01:52</t>
+  </si>
+  <si>
+    <t>23:38:31</t>
   </si>
   <si>
     <t>00:39:32</t>
   </si>
   <si>
-    <t>02:16:52</t>
+    <t>02:16:51</t>
   </si>
   <si>
     <t>22:25:36</t>
@@ -595,61 +586,58 @@
     <t>21:13:19</t>
   </si>
   <si>
-    <t>22:51:15</t>
+    <t>22:51:16</t>
   </si>
   <si>
     <t>00:28:48</t>
   </si>
   <si>
-    <t>02:05:14</t>
-  </si>
-  <si>
-    <t>20:37:06</t>
-  </si>
-  <si>
-    <t>22:15:05</t>
-  </si>
-  <si>
-    <t>23:52:41</t>
-  </si>
-  <si>
-    <t>01:29:19</t>
-  </si>
-  <si>
-    <t>20:00:51</t>
-  </si>
-  <si>
-    <t>21:38:52</t>
-  </si>
-  <si>
-    <t>23:16:32</t>
-  </si>
-  <si>
-    <t>00:53:19</t>
-  </si>
-  <si>
-    <t>19:24:34</t>
-  </si>
-  <si>
-    <t>21:02:38</t>
-  </si>
-  <si>
-    <t>22:40:20</t>
-  </si>
-  <si>
-    <t>00:17:16</t>
-  </si>
-  <si>
-    <t>18:48:13</t>
-  </si>
-  <si>
-    <t>20:26:21</t>
-  </si>
-  <si>
-    <t>22:04:05</t>
-  </si>
-  <si>
-    <t>23:41:09</t>
+    <t>02:05:15</t>
+  </si>
+  <si>
+    <t>20:37:07</t>
+  </si>
+  <si>
+    <t>22:15:06</t>
+  </si>
+  <si>
+    <t>23:52:42</t>
+  </si>
+  <si>
+    <t>01:29:20</t>
+  </si>
+  <si>
+    <t>20:00:53</t>
+  </si>
+  <si>
+    <t>23:16:34</t>
+  </si>
+  <si>
+    <t>00:53:21</t>
+  </si>
+  <si>
+    <t>19:24:37</t>
+  </si>
+  <si>
+    <t>21:02:41</t>
+  </si>
+  <si>
+    <t>22:40:23</t>
+  </si>
+  <si>
+    <t>00:17:19</t>
+  </si>
+  <si>
+    <t>18:48:17</t>
+  </si>
+  <si>
+    <t>20:26:25</t>
+  </si>
+  <si>
+    <t>22:04:10</t>
+  </si>
+  <si>
+    <t>23:41:13</t>
   </si>
   <si>
     <t>0°</t>
@@ -658,7 +646,7 @@
     <t>3°</t>
   </si>
   <si>
-    <t>18:39:29</t>
+    <t>18:39:33</t>
   </si>
   <si>
     <t>B</t>
@@ -701,7 +689,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -734,7 +722,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6F9FC"/>
+        <fgColor rgb="FFD4E2F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2CBE6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,13 +740,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB2CBE6"/>
+        <fgColor rgb="FFF6F9FC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEF3F9"/>
+        <fgColor rgb="FFAAC5E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90B4DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6EEF7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,25 +770,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6E9DD0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4E2F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCCDCEE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBBD1E9"/>
+        <fgColor rgb="FF77A3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99BADE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,13 +794,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6697CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF90B4DB"/>
+        <fgColor rgb="FF5E92CB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,13 +812,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAAC5E3"/>
+        <fgColor rgb="FFEEF3F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF77A3D3"/>
+        <fgColor rgb="FF6E9DD0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6697CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBD1E9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,13 +842,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5E92CB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99BADE"/>
+        <fgColor rgb="FF6AD26A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,7 +883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -964,6 +964,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1457,37 +1463,37 @@
         <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L2" s="4">
         <v>-56.7</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O2" s="6">
         <v>100</v>
@@ -1513,46 +1519,46 @@
         <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L3" s="4">
         <v>-44.6</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O3" s="6">
         <v>100</v>
       </c>
       <c r="P3" s="8">
-        <v>98</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>79</v>
+        <v>100</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>76</v>
       </c>
       <c r="R3" s="8">
         <v>100</v>
@@ -1569,49 +1575,49 @@
         <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L4" s="4">
         <v>-58.7</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O4" s="6">
-        <v>98</v>
-      </c>
-      <c r="P4" s="9">
-        <v>94</v>
+        <v>100</v>
+      </c>
+      <c r="P4" s="8">
+        <v>100</v>
       </c>
       <c r="Q4" s="10">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="R4" s="11">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1622,52 +1628,52 @@
         <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L5" s="4">
         <v>-59.3</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O5" s="6">
         <v>97</v>
       </c>
       <c r="P5" s="12">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q5" s="13">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="R5" s="14">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1678,52 +1684,52 @@
         <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L6" s="4">
         <v>-49.5</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O6" s="6">
-        <v>96</v>
-      </c>
-      <c r="P6" s="7">
-        <v>81</v>
+        <v>98</v>
+      </c>
+      <c r="P6" s="12">
+        <v>95</v>
       </c>
       <c r="Q6" s="15">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="R6" s="16">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1734,52 +1740,52 @@
         <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L7" s="4">
         <v>-55.5</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O7" s="6">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="P7" s="17">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="18">
-        <v>0</v>
-      </c>
-      <c r="R7" s="14">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="R7" s="19">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1790,52 +1796,52 @@
         <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L8" s="4">
         <v>-60.3</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O8" s="6">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P8" s="17">
-        <v>60</v>
-      </c>
-      <c r="Q8" s="19">
-        <v>11</v>
-      </c>
-      <c r="R8" s="20">
-        <v>36</v>
+        <v>70</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>0</v>
+      </c>
+      <c r="R8" s="21">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1846,52 +1852,52 @@
         <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L9" s="4">
         <v>-53.8</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O9" s="6">
-        <v>80</v>
-      </c>
-      <c r="P9" s="13">
-        <v>65</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>1</v>
-      </c>
-      <c r="R9" s="11">
-        <v>53</v>
+        <v>100</v>
+      </c>
+      <c r="P9" s="17">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>50</v>
+      </c>
+      <c r="R9" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1902,40 +1908,40 @@
         <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L10" s="4">
         <v>-51.2</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O10" s="6">
         <v>100</v>
@@ -1943,11 +1949,11 @@
       <c r="P10" s="8">
         <v>100</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="Q10" s="20">
         <v>0</v>
       </c>
-      <c r="R10" s="8">
-        <v>100</v>
+      <c r="R10" s="22">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1958,40 +1964,40 @@
         <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L11" s="4">
         <v>-59.6</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O11" s="6">
         <v>100</v>
@@ -1999,11 +2005,11 @@
       <c r="P11" s="8">
         <v>100</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q11" s="20">
         <v>0</v>
       </c>
-      <c r="R11" s="8">
-        <v>100</v>
+      <c r="R11" s="19">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2014,52 +2020,52 @@
         <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L12" s="4">
         <v>-57.2</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O12" s="6">
         <v>100</v>
       </c>
       <c r="P12" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q12" s="18">
+        <v>99</v>
+      </c>
+      <c r="Q12" s="20">
         <v>0</v>
       </c>
-      <c r="R12" s="21">
-        <v>32</v>
+      <c r="R12" s="11">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2070,52 +2076,52 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L13" s="4">
         <v>-45.9</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="O13" s="6">
-        <v>95</v>
-      </c>
-      <c r="P13" s="9">
-        <v>95</v>
-      </c>
-      <c r="Q13" s="18">
+        <v>100</v>
+      </c>
+      <c r="P13" s="8">
+        <v>98</v>
+      </c>
+      <c r="Q13" s="20">
         <v>0</v>
       </c>
-      <c r="R13" s="10">
-        <v>46</v>
+      <c r="R13" s="23">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2126,52 +2132,52 @@
         <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L14" s="4">
         <v>-46.2</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O14" s="6">
-        <v>94</v>
-      </c>
-      <c r="P14" s="13">
-        <v>65</v>
-      </c>
-      <c r="Q14" s="22">
-        <v>27</v>
-      </c>
-      <c r="R14" s="19">
-        <v>10</v>
+        <v>90</v>
+      </c>
+      <c r="P14" s="24">
+        <v>89</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>0</v>
+      </c>
+      <c r="R14" s="21">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2182,52 +2188,52 @@
         <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L15" s="4">
         <v>-57.3</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O15" s="6">
-        <v>89</v>
-      </c>
-      <c r="P15" s="16">
-        <v>70</v>
-      </c>
-      <c r="Q15" s="22">
-        <v>24</v>
-      </c>
-      <c r="R15" s="18">
+        <v>83</v>
+      </c>
+      <c r="P15" s="7">
+        <v>79</v>
+      </c>
+      <c r="Q15" s="20">
         <v>0</v>
+      </c>
+      <c r="R15" s="25">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2238,52 +2244,52 @@
         <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L16" s="4">
         <v>-59.3</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O16" s="6">
-        <v>87</v>
-      </c>
-      <c r="P16" s="13">
-        <v>66</v>
-      </c>
-      <c r="Q16" s="22">
-        <v>24</v>
-      </c>
-      <c r="R16" s="18">
+        <v>63</v>
+      </c>
+      <c r="P16" s="16">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="20">
         <v>0</v>
+      </c>
+      <c r="R16" s="21">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2294,52 +2300,52 @@
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L17" s="4">
         <v>-50.6</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="O17" s="6">
-        <v>84</v>
-      </c>
-      <c r="P17" s="23">
-        <v>50</v>
-      </c>
-      <c r="Q17" s="24">
-        <v>20</v>
-      </c>
-      <c r="R17" s="18">
+        <v>68</v>
+      </c>
+      <c r="P17" s="16">
+        <v>65</v>
+      </c>
+      <c r="Q17" s="20">
         <v>0</v>
+      </c>
+      <c r="R17" s="26">
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2350,52 +2356,52 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L18" s="4">
         <v>-40.8</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O18" s="25">
-        <v>47</v>
-      </c>
-      <c r="P18" s="10">
-        <v>44</v>
-      </c>
-      <c r="Q18" s="26">
-        <v>4</v>
-      </c>
-      <c r="R18" s="24">
-        <v>21</v>
+        <v>212</v>
+      </c>
+      <c r="O18" s="6">
+        <v>68</v>
+      </c>
+      <c r="P18" s="27">
+        <v>60</v>
+      </c>
+      <c r="Q18" s="20">
+        <v>0</v>
+      </c>
+      <c r="R18" s="20">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2406,52 +2412,52 @@
         <v>31</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L19" s="4">
         <v>-53.7</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O19" s="25">
-        <v>33</v>
-      </c>
-      <c r="P19" s="20">
-        <v>33</v>
-      </c>
-      <c r="Q19" s="18">
+        <v>212</v>
+      </c>
+      <c r="O19" s="6">
+        <v>58</v>
+      </c>
+      <c r="P19" s="10">
+        <v>54</v>
+      </c>
+      <c r="Q19" s="20">
         <v>0</v>
       </c>
-      <c r="R19" s="18">
-        <v>0</v>
+      <c r="R19" s="20">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2462,51 +2468,51 @@
         <v>29</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L20" s="4">
         <v>-59.7</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O20" s="25">
-        <v>24</v>
-      </c>
-      <c r="P20" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q20" s="18">
+        <v>212</v>
+      </c>
+      <c r="O20" s="6">
+        <v>50</v>
+      </c>
+      <c r="P20" s="13">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="20">
         <v>0</v>
       </c>
-      <c r="R20" s="18">
+      <c r="R20" s="20">
         <v>0</v>
       </c>
     </row>
@@ -2518,51 +2524,51 @@
         <v>13</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L21" s="4">
         <v>-54.6</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O21" s="25">
-        <v>29</v>
-      </c>
-      <c r="P21" s="21">
-        <v>29</v>
-      </c>
-      <c r="Q21" s="18">
+        <v>213</v>
+      </c>
+      <c r="O21" s="28">
+        <v>43</v>
+      </c>
+      <c r="P21" s="11">
+        <v>43</v>
+      </c>
+      <c r="Q21" s="20">
         <v>0</v>
       </c>
-      <c r="R21" s="18">
+      <c r="R21" s="20">
         <v>0</v>
       </c>
     </row>
@@ -2574,52 +2580,52 @@
         <v>15</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L22" s="4">
         <v>-35</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O22" s="6">
-        <v>79</v>
-      </c>
-      <c r="P22" s="23">
-        <v>48</v>
-      </c>
-      <c r="Q22" s="23">
-        <v>51</v>
-      </c>
-      <c r="R22" s="18">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="P22" s="22">
+        <v>32</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>76</v>
+      </c>
+      <c r="R22" s="14">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2630,52 +2636,52 @@
         <v>30</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L23" s="4">
         <v>-49.2</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O23" s="6">
-        <v>61</v>
-      </c>
-      <c r="P23" s="27">
-        <v>42</v>
-      </c>
-      <c r="Q23" s="21">
-        <v>31</v>
-      </c>
-      <c r="R23" s="18">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="P23" s="23">
+        <v>24</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>56</v>
+      </c>
+      <c r="R23" s="25">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2686,52 +2692,52 @@
         <v>30</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L24" s="4">
         <v>-58.5</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O24" s="6">
-        <v>45</v>
-      </c>
-      <c r="P24" s="20">
-        <v>35</v>
-      </c>
-      <c r="Q24" s="24">
-        <v>21</v>
-      </c>
-      <c r="R24" s="18">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="P24" s="26">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="22">
+        <v>31</v>
+      </c>
+      <c r="R24" s="20">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2742,52 +2748,52 @@
         <v>15</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L25" s="4">
         <v>-57.5</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O25" s="25">
-        <v>39</v>
-      </c>
-      <c r="P25" s="22">
-        <v>25</v>
-      </c>
-      <c r="Q25" s="27">
-        <v>38</v>
-      </c>
-      <c r="R25" s="18">
+        <v>212</v>
+      </c>
+      <c r="O25" s="6">
+        <v>47</v>
+      </c>
+      <c r="P25" s="20">
         <v>0</v>
+      </c>
+      <c r="Q25" s="22">
+        <v>28</v>
+      </c>
+      <c r="R25" s="21">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2798,52 +2804,52 @@
         <v>13</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="E26" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L26" s="4">
         <v>-29</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O26" s="6">
-        <v>45</v>
-      </c>
-      <c r="P26" s="27">
-        <v>38</v>
-      </c>
-      <c r="Q26" s="14">
-        <v>14</v>
-      </c>
-      <c r="R26" s="26">
-        <v>3</v>
+        <v>213</v>
+      </c>
+      <c r="O26" s="29">
+        <v>8</v>
+      </c>
+      <c r="P26" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="20">
+        <v>0</v>
+      </c>
+      <c r="R26" s="20">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2854,51 +2860,51 @@
         <v>29</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L27" s="4">
         <v>-44</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O27" s="6">
-        <v>33</v>
+        <v>212</v>
+      </c>
+      <c r="O27" s="29">
+        <v>2</v>
       </c>
       <c r="P27" s="20">
-        <v>33</v>
-      </c>
-      <c r="Q27" s="24">
-        <v>18</v>
-      </c>
-      <c r="R27" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="20">
+        <v>0</v>
+      </c>
+      <c r="R27" s="20">
         <v>0</v>
       </c>
     </row>
@@ -2910,52 +2916,52 @@
         <v>31</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J28" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L28" s="4">
+        <v>-55.8</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L28" s="4">
-        <v>-55.7</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O28" s="6">
-        <v>32</v>
-      </c>
-      <c r="P28" s="21">
-        <v>32</v>
-      </c>
-      <c r="Q28" s="14">
-        <v>15</v>
-      </c>
-      <c r="R28" s="26">
-        <v>3</v>
+      <c r="O28" s="29">
+        <v>2</v>
+      </c>
+      <c r="P28" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="20">
+        <v>0</v>
+      </c>
+      <c r="R28" s="20">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2966,52 +2972,52 @@
         <v>16</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L29" s="4">
         <v>-59</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O29" s="6">
-        <v>37</v>
+        <v>212</v>
+      </c>
+      <c r="O29" s="29">
+        <v>2</v>
       </c>
       <c r="P29" s="20">
-        <v>37</v>
-      </c>
-      <c r="Q29" s="19">
-        <v>9</v>
-      </c>
-      <c r="R29" s="19">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="Q29" s="20">
+        <v>0</v>
+      </c>
+      <c r="R29" s="20">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="218">
   <si>
     <t>Datum</t>
   </si>
@@ -70,18 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>20260114--01</t>
-  </si>
-  <si>
-    <t>20260114--02</t>
-  </si>
-  <si>
-    <t>20260114--03</t>
-  </si>
-  <si>
-    <t>20260114--04</t>
-  </si>
-  <si>
     <t>20260115--01</t>
   </si>
   <si>
@@ -154,21 +142,27 @@
     <t>20260120--05</t>
   </si>
   <si>
+    <t>20260121--01</t>
+  </si>
+  <si>
+    <t>20260121--02</t>
+  </si>
+  <si>
+    <t>20260121--03</t>
+  </si>
+  <si>
+    <t>20260121--04</t>
+  </si>
+  <si>
+    <t>05:43</t>
+  </si>
+  <si>
+    <t>05:38</t>
+  </si>
+  <si>
     <t>06:34</t>
   </si>
   <si>
-    <t>05:29</t>
-  </si>
-  <si>
-    <t>05:52</t>
-  </si>
-  <si>
-    <t>05:43</t>
-  </si>
-  <si>
-    <t>05:39</t>
-  </si>
-  <si>
     <t>05:55</t>
   </si>
   <si>
@@ -184,60 +178,57 @@
     <t>00:06</t>
   </si>
   <si>
+    <t>05:04</t>
+  </si>
+  <si>
+    <t>06:31</t>
+  </si>
+  <si>
+    <t>06:13</t>
+  </si>
+  <si>
+    <t>02:32</t>
+  </si>
+  <si>
+    <t>04:40</t>
+  </si>
+  <si>
+    <t>06:28</t>
+  </si>
+  <si>
+    <t>06:19</t>
+  </si>
+  <si>
+    <t>03:29</t>
+  </si>
+  <si>
+    <t>04:09</t>
+  </si>
+  <si>
+    <t>06:24</t>
+  </si>
+  <si>
+    <t>06:18</t>
+  </si>
+  <si>
+    <t>04:39</t>
+  </si>
+  <si>
+    <t>02:31</t>
+  </si>
+  <si>
+    <t>06:11</t>
+  </si>
+  <si>
+    <t>06:30</t>
+  </si>
+  <si>
     <t>05:03</t>
   </si>
   <si>
-    <t>06:31</t>
-  </si>
-  <si>
-    <t>06:13</t>
-  </si>
-  <si>
-    <t>02:32</t>
-  </si>
-  <si>
-    <t>04:40</t>
-  </si>
-  <si>
-    <t>06:28</t>
-  </si>
-  <si>
-    <t>06:19</t>
-  </si>
-  <si>
-    <t>03:30</t>
-  </si>
-  <si>
-    <t>04:09</t>
-  </si>
-  <si>
-    <t>06:23</t>
-  </si>
-  <si>
-    <t>06:24</t>
-  </si>
-  <si>
-    <t>03:29</t>
-  </si>
-  <si>
-    <t>06:27</t>
-  </si>
-  <si>
     <t>00:00</t>
   </si>
   <si>
-    <t>00:28:25</t>
-  </si>
-  <si>
-    <t>02:06:21</t>
-  </si>
-  <si>
-    <t>22:14:54</t>
-  </si>
-  <si>
-    <t>23:52:22</t>
-  </si>
-  <si>
     <t>01:30:15</t>
   </si>
   <si>
@@ -301,31 +292,31 @@
     <t>18:38:41</t>
   </si>
   <si>
-    <t>20:15:28</t>
-  </si>
-  <si>
-    <t>21:53:07</t>
-  </si>
-  <si>
-    <t>23:31:08</t>
-  </si>
-  <si>
-    <t>00:30:42</t>
-  </si>
-  <si>
-    <t>02:08:52</t>
-  </si>
-  <si>
-    <t>22:17:19</t>
-  </si>
-  <si>
-    <t>23:54:38</t>
+    <t>20:15:29</t>
+  </si>
+  <si>
+    <t>21:53:08</t>
+  </si>
+  <si>
+    <t>23:31:09</t>
+  </si>
+  <si>
+    <t>18:02:38</t>
+  </si>
+  <si>
+    <t>19:39:15</t>
+  </si>
+  <si>
+    <t>21:16:51</t>
+  </si>
+  <si>
+    <t>22:54:49</t>
   </si>
   <si>
     <t>01:32:43</t>
   </si>
   <si>
-    <t>21:41:21</t>
+    <t>21:41:22</t>
   </si>
   <si>
     <t>23:18:33</t>
@@ -367,7 +358,7 @@
     <t>23:07:56</t>
   </si>
   <si>
-    <t>00:46:48</t>
+    <t>00:46:49</t>
   </si>
   <si>
     <t>19:17:36</t>
@@ -382,28 +373,28 @@
     <t>00:10:19</t>
   </si>
   <si>
-    <t>18:41:44</t>
-  </si>
-  <si>
-    <t>20:17:47</t>
+    <t>18:41:45</t>
+  </si>
+  <si>
+    <t>20:17:48</t>
   </si>
   <si>
     <t>21:55:25</t>
   </si>
   <si>
-    <t>23:33:51</t>
-  </si>
-  <si>
-    <t>00:33:58</t>
-  </si>
-  <si>
-    <t>02:11:36</t>
-  </si>
-  <si>
-    <t>22:20:14</t>
-  </si>
-  <si>
-    <t>23:57:55</t>
+    <t>23:33:52</t>
+  </si>
+  <si>
+    <t>18:06:01</t>
+  </si>
+  <si>
+    <t>19:41:36</t>
+  </si>
+  <si>
+    <t>21:19:08</t>
+  </si>
+  <si>
+    <t>22:57:26</t>
   </si>
   <si>
     <t>01:35:34</t>
@@ -421,7 +412,7 @@
     <t>21:08:05</t>
   </si>
   <si>
-    <t>22:45:42</t>
+    <t>22:45:43</t>
   </si>
   <si>
     <t>00:23:24</t>
@@ -448,7 +439,7 @@
     <t>23:11:05</t>
   </si>
   <si>
-    <t>00:48:33</t>
+    <t>00:48:34</t>
   </si>
   <si>
     <t>19:19:40</t>
@@ -460,7 +451,7 @@
     <t>22:34:53</t>
   </si>
   <si>
-    <t>00:12:23</t>
+    <t>00:12:24</t>
   </si>
   <si>
     <t>18:43:29</t>
@@ -472,19 +463,19 @@
     <t>21:58:39</t>
   </si>
   <si>
-    <t>23:36:11</t>
-  </si>
-  <si>
-    <t>00:37:16</t>
-  </si>
-  <si>
-    <t>02:14:21</t>
-  </si>
-  <si>
-    <t>22:23:11</t>
-  </si>
-  <si>
-    <t>00:01:12</t>
+    <t>23:36:12</t>
+  </si>
+  <si>
+    <t>18:07:16</t>
+  </si>
+  <si>
+    <t>19:44:41</t>
+  </si>
+  <si>
+    <t>21:22:23</t>
+  </si>
+  <si>
+    <t>22:59:58</t>
   </si>
   <si>
     <t>01:38:26</t>
@@ -511,7 +502,7 @@
     <t>02:00:52</t>
   </si>
   <si>
-    <t>20:34:30</t>
+    <t>20:34:31</t>
   </si>
   <si>
     <t>22:12:49</t>
@@ -538,7 +529,7 @@
     <t>19:21:45</t>
   </si>
   <si>
-    <t>21:00:22</t>
+    <t>21:00:23</t>
   </si>
   <si>
     <t>22:38:05</t>
@@ -547,28 +538,28 @@
     <t>00:14:28</t>
   </si>
   <si>
-    <t>18:45:13</t>
+    <t>18:45:14</t>
   </si>
   <si>
     <t>20:24:06</t>
   </si>
   <si>
-    <t>22:01:52</t>
+    <t>22:01:53</t>
   </si>
   <si>
     <t>23:38:31</t>
   </si>
   <si>
-    <t>00:39:32</t>
-  </si>
-  <si>
-    <t>02:16:51</t>
-  </si>
-  <si>
-    <t>22:25:36</t>
-  </si>
-  <si>
-    <t>00:03:29</t>
+    <t>18:08:32</t>
+  </si>
+  <si>
+    <t>19:47:47</t>
+  </si>
+  <si>
+    <t>21:25:38</t>
+  </si>
+  <si>
+    <t>23:02:29</t>
   </si>
   <si>
     <t>01:40:53</t>
@@ -589,13 +580,13 @@
     <t>22:51:16</t>
   </si>
   <si>
-    <t>00:28:48</t>
+    <t>00:28:49</t>
   </si>
   <si>
     <t>02:05:15</t>
   </si>
   <si>
-    <t>20:37:07</t>
+    <t>20:37:08</t>
   </si>
   <si>
     <t>22:15:06</t>
@@ -610,6 +601,9 @@
     <t>20:00:53</t>
   </si>
   <si>
+    <t>21:38:55</t>
+  </si>
+  <si>
     <t>23:16:34</t>
   </si>
   <si>
@@ -628,16 +622,28 @@
     <t>00:17:19</t>
   </si>
   <si>
-    <t>18:48:17</t>
-  </si>
-  <si>
-    <t>20:26:25</t>
+    <t>18:48:18</t>
+  </si>
+  <si>
+    <t>20:26:26</t>
   </si>
   <si>
     <t>22:04:10</t>
   </si>
   <si>
-    <t>23:41:13</t>
+    <t>23:41:14</t>
+  </si>
+  <si>
+    <t>18:11:56</t>
+  </si>
+  <si>
+    <t>19:50:08</t>
+  </si>
+  <si>
+    <t>21:27:55</t>
+  </si>
+  <si>
+    <t>23:05:05</t>
   </si>
   <si>
     <t>0°</t>
@@ -646,7 +652,13 @@
     <t>3°</t>
   </si>
   <si>
-    <t>18:39:33</t>
+    <t>8°</t>
+  </si>
+  <si>
+    <t>18:39:34</t>
+  </si>
+  <si>
+    <t>18:05:13</t>
   </si>
   <si>
     <t>B</t>
@@ -689,7 +701,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -716,55 +728,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD4E2F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB2CBE6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA2C0E1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6F9FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAAC5E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF90B4DB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6EEF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4D7EC"/>
+        <fgColor rgb="FF5E92CB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,49 +746,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF77A3D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99BADE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF558CC8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5E92CB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF88AED8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF80A9D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEF3F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6E9DD0"/>
+        <fgColor rgb="FF77A3D3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,6 +765,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBBD1E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6E9DD0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88AED8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF558CC8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAC5E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6EEF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF3F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D7EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99BADE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -958,18 +946,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1457,55 +1433,55 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L2" s="4">
-        <v>-56.7</v>
+        <v>-49.5</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="O2" s="6">
         <v>100</v>
       </c>
       <c r="P2" s="7">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="8">
-        <v>99</v>
-      </c>
-      <c r="R2" s="8">
-        <v>100</v>
+        <v>76</v>
+      </c>
+      <c r="R2" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1513,55 +1489,55 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="4">
+        <v>-55.5</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="O3" s="6">
+        <v>92</v>
+      </c>
+      <c r="P3" s="10">
         <v>71</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" s="4">
-        <v>-44.6</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O3" s="6">
-        <v>100</v>
-      </c>
-      <c r="P3" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>76</v>
-      </c>
-      <c r="R3" s="8">
-        <v>100</v>
+      <c r="Q3" s="11">
+        <v>27</v>
+      </c>
+      <c r="R3" s="7">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1569,55 +1545,55 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L4" s="4">
-        <v>-58.7</v>
+        <v>-60.3</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="O4" s="6">
-        <v>100</v>
-      </c>
-      <c r="P4" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>53</v>
-      </c>
-      <c r="R4" s="11">
-        <v>43</v>
+        <v>91</v>
+      </c>
+      <c r="P4" s="10">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>22</v>
+      </c>
+      <c r="R4" s="13">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1625,55 +1601,55 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L5" s="4">
-        <v>-59.3</v>
+        <v>-53.8</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="O5" s="6">
-        <v>97</v>
-      </c>
-      <c r="P5" s="12">
-        <v>93</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>49</v>
-      </c>
-      <c r="R5" s="14">
-        <v>33</v>
+        <v>87</v>
+      </c>
+      <c r="P5" s="14">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>17</v>
+      </c>
+      <c r="R5" s="16">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1681,55 +1657,55 @@
         <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L6" s="4">
-        <v>-49.5</v>
+        <v>-51.2</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="O6" s="6">
-        <v>98</v>
-      </c>
-      <c r="P6" s="12">
-        <v>95</v>
-      </c>
-      <c r="Q6" s="15">
-        <v>83</v>
-      </c>
-      <c r="R6" s="16">
-        <v>65</v>
+        <v>96</v>
+      </c>
+      <c r="P6" s="8">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>0</v>
+      </c>
+      <c r="R6" s="18">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1737,55 +1713,55 @@
         <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L7" s="4">
-        <v>-55.5</v>
+        <v>-59.6</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="O7" s="6">
-        <v>84</v>
-      </c>
-      <c r="P7" s="17">
-        <v>70</v>
-      </c>
-      <c r="Q7" s="18">
-        <v>20</v>
-      </c>
-      <c r="R7" s="19">
-        <v>42</v>
+        <v>100</v>
+      </c>
+      <c r="P7" s="19">
+        <v>85</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>0</v>
+      </c>
+      <c r="R7" s="14">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1793,55 +1769,55 @@
         <v>24</v>
       </c>
       <c r="B8" s="2">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L8" s="4">
-        <v>-60.3</v>
+        <v>-57.2</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="O8" s="6">
-        <v>76</v>
-      </c>
-      <c r="P8" s="17">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="20">
+        <v>100</v>
+      </c>
+      <c r="P8" s="20">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="17">
         <v>0</v>
       </c>
-      <c r="R8" s="21">
-        <v>7</v>
+      <c r="R8" s="18">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1849,55 +1825,55 @@
         <v>25</v>
       </c>
       <c r="B9" s="2">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L9" s="4">
-        <v>-53.8</v>
+        <v>-45.9</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="O9" s="6">
         <v>100</v>
       </c>
-      <c r="P9" s="17">
-        <v>71</v>
-      </c>
-      <c r="Q9" s="13">
-        <v>50</v>
+      <c r="P9" s="20">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>0</v>
       </c>
       <c r="R9" s="13">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1905,55 +1881,55 @@
         <v>26</v>
       </c>
       <c r="B10" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>134</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L10" s="4">
-        <v>-51.2</v>
+        <v>-46.2</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="O10" s="6">
         <v>100</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="20">
         <v>100</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10" s="17">
         <v>0</v>
       </c>
-      <c r="R10" s="22">
-        <v>30</v>
+      <c r="R10" s="13">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1961,55 +1937,55 @@
         <v>27</v>
       </c>
       <c r="B11" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>135</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L11" s="4">
-        <v>-59.6</v>
+        <v>-57.3</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="O11" s="6">
-        <v>100</v>
-      </c>
-      <c r="P11" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q11" s="20">
+        <v>99</v>
+      </c>
+      <c r="P11" s="20">
+        <v>99</v>
+      </c>
+      <c r="Q11" s="17">
         <v>0</v>
       </c>
-      <c r="R11" s="19">
-        <v>38</v>
+      <c r="R11" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2017,55 +1993,55 @@
         <v>28</v>
       </c>
       <c r="B12" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>136</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" s="4">
-        <v>-57.2</v>
+        <v>-59.3</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="O12" s="6">
-        <v>100</v>
-      </c>
-      <c r="P12" s="8">
-        <v>99</v>
-      </c>
-      <c r="Q12" s="20">
+        <v>92</v>
+      </c>
+      <c r="P12" s="21">
+        <v>89</v>
+      </c>
+      <c r="Q12" s="17">
         <v>0</v>
       </c>
-      <c r="R12" s="11">
-        <v>43</v>
+      <c r="R12" s="9">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2073,55 +2049,55 @@
         <v>29</v>
       </c>
       <c r="B13" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L13" s="4">
-        <v>-45.9</v>
+        <v>-50.6</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="O13" s="6">
-        <v>100</v>
-      </c>
-      <c r="P13" s="8">
-        <v>98</v>
-      </c>
-      <c r="Q13" s="20">
+        <v>78</v>
+      </c>
+      <c r="P13" s="22">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="17">
         <v>0</v>
       </c>
-      <c r="R13" s="23">
-        <v>24</v>
+      <c r="R13" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2129,55 +2105,55 @@
         <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="4">
-        <v>-46.2</v>
+        <v>-40.8</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="O14" s="6">
-        <v>90</v>
-      </c>
-      <c r="P14" s="24">
-        <v>89</v>
-      </c>
-      <c r="Q14" s="20">
+        <v>55</v>
+      </c>
+      <c r="P14" s="23">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="17">
         <v>0</v>
       </c>
-      <c r="R14" s="21">
-        <v>3</v>
+      <c r="R14" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2185,55 +2161,55 @@
         <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L15" s="4">
-        <v>-57.3</v>
+        <v>-53.7</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="O15" s="6">
-        <v>83</v>
-      </c>
-      <c r="P15" s="7">
-        <v>79</v>
-      </c>
-      <c r="Q15" s="20">
+        <v>49</v>
+      </c>
+      <c r="P15" s="23">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="17">
         <v>0</v>
       </c>
-      <c r="R15" s="25">
-        <v>15</v>
+      <c r="R15" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2241,55 +2217,55 @@
         <v>32</v>
       </c>
       <c r="B16" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L16" s="4">
-        <v>-59.3</v>
+        <v>-59.7</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O16" s="6">
-        <v>63</v>
-      </c>
-      <c r="P16" s="16">
-        <v>63</v>
-      </c>
-      <c r="Q16" s="20">
+        <v>216</v>
+      </c>
+      <c r="O16" s="24">
+        <v>45</v>
+      </c>
+      <c r="P16" s="23">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="17">
         <v>0</v>
       </c>
-      <c r="R16" s="21">
-        <v>4</v>
+      <c r="R16" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2297,55 +2273,55 @@
         <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L17" s="4">
-        <v>-50.6</v>
+        <v>-54.6</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O17" s="6">
-        <v>68</v>
-      </c>
-      <c r="P17" s="16">
-        <v>65</v>
-      </c>
-      <c r="Q17" s="20">
+        <v>217</v>
+      </c>
+      <c r="O17" s="24">
+        <v>43</v>
+      </c>
+      <c r="P17" s="23">
+        <v>39</v>
+      </c>
+      <c r="Q17" s="17">
         <v>0</v>
       </c>
-      <c r="R17" s="26">
-        <v>9</v>
+      <c r="R17" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2353,55 +2329,55 @@
         <v>34</v>
       </c>
       <c r="B18" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L18" s="4">
-        <v>-40.8</v>
+        <v>-35</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O18" s="6">
-        <v>68</v>
-      </c>
-      <c r="P18" s="27">
-        <v>60</v>
-      </c>
-      <c r="Q18" s="20">
+        <v>216</v>
+      </c>
+      <c r="O18" s="25">
+        <v>6</v>
+      </c>
+      <c r="P18" s="9">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="17">
         <v>0</v>
       </c>
-      <c r="R18" s="20">
-        <v>1</v>
+      <c r="R18" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2409,55 +2385,55 @@
         <v>35</v>
       </c>
       <c r="B19" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L19" s="4">
-        <v>-53.7</v>
+        <v>-49.2</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O19" s="6">
-        <v>58</v>
-      </c>
-      <c r="P19" s="10">
-        <v>54</v>
-      </c>
-      <c r="Q19" s="20">
+        <v>216</v>
+      </c>
+      <c r="O19" s="25">
+        <v>4</v>
+      </c>
+      <c r="P19" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="17">
         <v>0</v>
       </c>
-      <c r="R19" s="20">
-        <v>2</v>
+      <c r="R19" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2465,55 +2441,55 @@
         <v>36</v>
       </c>
       <c r="B20" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L20" s="4">
-        <v>-59.7</v>
+        <v>-58.5</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O20" s="6">
-        <v>50</v>
-      </c>
-      <c r="P20" s="13">
-        <v>50</v>
-      </c>
-      <c r="Q20" s="20">
+        <v>216</v>
+      </c>
+      <c r="O20" s="25">
+        <v>3</v>
+      </c>
+      <c r="P20" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="17">
         <v>0</v>
       </c>
-      <c r="R20" s="20">
-        <v>0</v>
+      <c r="R20" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2521,55 +2497,55 @@
         <v>37</v>
       </c>
       <c r="B21" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L21" s="4">
-        <v>-54.6</v>
+        <v>-57.5</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O21" s="28">
-        <v>43</v>
-      </c>
-      <c r="P21" s="11">
-        <v>43</v>
-      </c>
-      <c r="Q21" s="20">
+        <v>216</v>
+      </c>
+      <c r="O21" s="25">
+        <v>3</v>
+      </c>
+      <c r="P21" s="17">
         <v>0</v>
       </c>
-      <c r="R21" s="20">
+      <c r="Q21" s="17">
         <v>0</v>
+      </c>
+      <c r="R21" s="17">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2577,55 +2553,55 @@
         <v>38</v>
       </c>
       <c r="B22" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="L22" s="4">
-        <v>-35</v>
+        <v>-29</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O22" s="6">
-        <v>82</v>
-      </c>
-      <c r="P22" s="22">
-        <v>32</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>76</v>
-      </c>
-      <c r="R22" s="14">
-        <v>33</v>
+        <v>217</v>
+      </c>
+      <c r="O22" s="25">
+        <v>5</v>
+      </c>
+      <c r="P22" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="17">
+        <v>0</v>
+      </c>
+      <c r="R22" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2633,55 +2609,55 @@
         <v>39</v>
       </c>
       <c r="B23" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L23" s="4">
-        <v>-49.2</v>
+        <v>-44</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O23" s="6">
-        <v>68</v>
-      </c>
-      <c r="P23" s="23">
-        <v>24</v>
-      </c>
-      <c r="Q23" s="10">
-        <v>56</v>
-      </c>
-      <c r="R23" s="25">
-        <v>17</v>
+        <v>216</v>
+      </c>
+      <c r="O23" s="25">
+        <v>4</v>
+      </c>
+      <c r="P23" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>0</v>
+      </c>
+      <c r="R23" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2689,55 +2665,55 @@
         <v>40</v>
       </c>
       <c r="B24" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L24" s="4">
-        <v>-58.5</v>
+        <v>-55.8</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O24" s="6">
-        <v>48</v>
-      </c>
-      <c r="P24" s="26">
-        <v>11</v>
-      </c>
-      <c r="Q24" s="22">
-        <v>31</v>
-      </c>
-      <c r="R24" s="20">
+        <v>216</v>
+      </c>
+      <c r="O24" s="25">
+        <v>3</v>
+      </c>
+      <c r="P24" s="17">
         <v>2</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>0</v>
+      </c>
+      <c r="R24" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2745,55 +2721,55 @@
         <v>41</v>
       </c>
       <c r="B25" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L25" s="4">
-        <v>-57.5</v>
+        <v>-59</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O25" s="6">
-        <v>47</v>
-      </c>
-      <c r="P25" s="20">
+        <v>216</v>
+      </c>
+      <c r="O25" s="25">
+        <v>3</v>
+      </c>
+      <c r="P25" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="17">
         <v>0</v>
       </c>
-      <c r="Q25" s="22">
-        <v>28</v>
-      </c>
-      <c r="R25" s="21">
-        <v>4</v>
+      <c r="R25" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2801,55 +2777,43 @@
         <v>42</v>
       </c>
       <c r="B26" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L26" s="4">
-        <v>-29</v>
+        <v>-23.2</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O26" s="29">
-        <v>8</v>
-      </c>
-      <c r="P26" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="20">
-        <v>0</v>
-      </c>
-      <c r="R26" s="20">
-        <v>1</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2857,55 +2821,43 @@
         <v>43</v>
       </c>
       <c r="B27" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L27" s="4">
-        <v>-44</v>
+        <v>-38.5</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O27" s="29">
-        <v>2</v>
-      </c>
-      <c r="P27" s="20">
-        <v>2</v>
-      </c>
-      <c r="Q27" s="20">
-        <v>0</v>
-      </c>
-      <c r="R27" s="20">
-        <v>0</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2913,55 +2865,43 @@
         <v>44</v>
       </c>
       <c r="B28" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L28" s="4">
-        <v>-55.8</v>
+        <v>-51.8</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O28" s="29">
-        <v>2</v>
-      </c>
-      <c r="P28" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="20">
-        <v>0</v>
-      </c>
-      <c r="R28" s="20">
-        <v>0</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2969,55 +2909,43 @@
         <v>45</v>
       </c>
       <c r="B29" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L29" s="4">
-        <v>-59</v>
+        <v>-58.9</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O29" s="29">
-        <v>2</v>
-      </c>
-      <c r="P29" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="20">
-        <v>0</v>
-      </c>
-      <c r="R29" s="20">
-        <v>0</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="219">
   <si>
     <t>Datum</t>
   </si>
@@ -70,15 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>20260115--01</t>
-  </si>
-  <si>
-    <t>20260115--02</t>
-  </si>
-  <si>
-    <t>20260115--03</t>
-  </si>
-  <si>
     <t>20260116--01</t>
   </si>
   <si>
@@ -154,13 +145,13 @@
     <t>20260121--04</t>
   </si>
   <si>
-    <t>05:43</t>
-  </si>
-  <si>
-    <t>05:38</t>
-  </si>
-  <si>
-    <t>06:34</t>
+    <t>20260122--01</t>
+  </si>
+  <si>
+    <t>20260122--02</t>
+  </si>
+  <si>
+    <t>20260122--03</t>
   </si>
   <si>
     <t>05:55</t>
@@ -172,7 +163,7 @@
     <t>06:33</t>
   </si>
   <si>
-    <t>06:04</t>
+    <t>06:05</t>
   </si>
   <si>
     <t>00:06</t>
@@ -184,10 +175,10 @@
     <t>06:31</t>
   </si>
   <si>
-    <t>06:13</t>
-  </si>
-  <si>
-    <t>02:32</t>
+    <t>06:12</t>
+  </si>
+  <si>
+    <t>02:33</t>
   </si>
   <si>
     <t>04:40</t>
@@ -199,15 +190,18 @@
     <t>06:19</t>
   </si>
   <si>
+    <t>03:30</t>
+  </si>
+  <si>
+    <t>04:09</t>
+  </si>
+  <si>
+    <t>06:24</t>
+  </si>
+  <si>
     <t>03:29</t>
   </si>
   <si>
-    <t>04:09</t>
-  </si>
-  <si>
-    <t>06:24</t>
-  </si>
-  <si>
     <t>06:18</t>
   </si>
   <si>
@@ -223,25 +217,19 @@
     <t>06:30</t>
   </si>
   <si>
-    <t>05:03</t>
+    <t>06:03</t>
+  </si>
+  <si>
+    <t>06:32</t>
   </si>
   <si>
     <t>00:00</t>
   </si>
   <si>
-    <t>01:30:15</t>
-  </si>
-  <si>
-    <t>21:38:54</t>
-  </si>
-  <si>
-    <t>23:16:17</t>
-  </si>
-  <si>
     <t>00:54:08</t>
   </si>
   <si>
-    <t>21:02:53</t>
+    <t>21:02:52</t>
   </si>
   <si>
     <t>22:40:10</t>
@@ -253,73 +241,73 @@
     <t>01:56:17</t>
   </si>
   <si>
-    <t>20:26:51</t>
-  </si>
-  <si>
-    <t>22:04:02</t>
-  </si>
-  <si>
-    <t>23:41:49</t>
+    <t>20:26:50</t>
+  </si>
+  <si>
+    <t>22:04:01</t>
+  </si>
+  <si>
+    <t>23:41:48</t>
   </si>
   <si>
     <t>01:20:01</t>
   </si>
   <si>
-    <t>19:50:48</t>
-  </si>
-  <si>
-    <t>21:27:52</t>
-  </si>
-  <si>
-    <t>23:05:37</t>
-  </si>
-  <si>
-    <t>00:43:45</t>
-  </si>
-  <si>
-    <t>19:14:45</t>
-  </si>
-  <si>
-    <t>20:51:41</t>
-  </si>
-  <si>
-    <t>22:29:23</t>
-  </si>
-  <si>
-    <t>00:07:27</t>
-  </si>
-  <si>
-    <t>18:38:41</t>
-  </si>
-  <si>
-    <t>20:15:29</t>
-  </si>
-  <si>
-    <t>21:53:08</t>
-  </si>
-  <si>
-    <t>23:31:09</t>
-  </si>
-  <si>
-    <t>18:02:38</t>
-  </si>
-  <si>
-    <t>19:39:15</t>
-  </si>
-  <si>
-    <t>21:16:51</t>
-  </si>
-  <si>
-    <t>22:54:49</t>
-  </si>
-  <si>
-    <t>01:32:43</t>
-  </si>
-  <si>
-    <t>21:41:22</t>
-  </si>
-  <si>
-    <t>23:18:33</t>
+    <t>19:50:47</t>
+  </si>
+  <si>
+    <t>21:27:51</t>
+  </si>
+  <si>
+    <t>23:05:35</t>
+  </si>
+  <si>
+    <t>00:43:43</t>
+  </si>
+  <si>
+    <t>19:14:43</t>
+  </si>
+  <si>
+    <t>20:51:39</t>
+  </si>
+  <si>
+    <t>22:29:21</t>
+  </si>
+  <si>
+    <t>00:07:25</t>
+  </si>
+  <si>
+    <t>18:38:39</t>
+  </si>
+  <si>
+    <t>20:15:26</t>
+  </si>
+  <si>
+    <t>21:53:05</t>
+  </si>
+  <si>
+    <t>23:31:06</t>
+  </si>
+  <si>
+    <t>18:02:34</t>
+  </si>
+  <si>
+    <t>19:39:11</t>
+  </si>
+  <si>
+    <t>21:16:47</t>
+  </si>
+  <si>
+    <t>22:54:45</t>
+  </si>
+  <si>
+    <t>19:02:55</t>
+  </si>
+  <si>
+    <t>20:40:27</t>
+  </si>
+  <si>
+    <t>22:18:22</t>
   </si>
   <si>
     <t>00:56:33</t>
@@ -331,13 +319,13 @@
     <t>22:42:26</t>
   </si>
   <si>
-    <t>00:20:22</t>
+    <t>00:20:21</t>
   </si>
   <si>
     <t>02:00:46</t>
   </si>
   <si>
-    <t>20:29:27</t>
+    <t>20:29:26</t>
   </si>
   <si>
     <t>22:06:18</t>
@@ -346,64 +334,64 @@
     <t>23:44:09</t>
   </si>
   <si>
-    <t>01:23:25</t>
-  </si>
-  <si>
-    <t>19:53:30</t>
-  </si>
-  <si>
-    <t>21:30:09</t>
-  </si>
-  <si>
-    <t>23:07:56</t>
-  </si>
-  <si>
-    <t>00:46:49</t>
-  </si>
-  <si>
-    <t>19:17:36</t>
-  </si>
-  <si>
-    <t>20:53:59</t>
-  </si>
-  <si>
-    <t>22:31:41</t>
-  </si>
-  <si>
-    <t>00:10:19</t>
-  </si>
-  <si>
-    <t>18:41:45</t>
-  </si>
-  <si>
-    <t>20:17:48</t>
-  </si>
-  <si>
-    <t>21:55:25</t>
-  </si>
-  <si>
-    <t>23:33:52</t>
-  </si>
-  <si>
-    <t>18:06:01</t>
-  </si>
-  <si>
-    <t>19:41:36</t>
-  </si>
-  <si>
-    <t>21:19:08</t>
-  </si>
-  <si>
-    <t>22:57:26</t>
-  </si>
-  <si>
-    <t>01:35:34</t>
-  </si>
-  <si>
-    <t>21:44:11</t>
-  </si>
-  <si>
-    <t>23:21:50</t>
+    <t>01:23:24</t>
+  </si>
+  <si>
+    <t>19:53:29</t>
+  </si>
+  <si>
+    <t>21:30:08</t>
+  </si>
+  <si>
+    <t>23:07:55</t>
+  </si>
+  <si>
+    <t>00:46:47</t>
+  </si>
+  <si>
+    <t>19:17:34</t>
+  </si>
+  <si>
+    <t>20:53:57</t>
+  </si>
+  <si>
+    <t>22:31:39</t>
+  </si>
+  <si>
+    <t>00:10:17</t>
+  </si>
+  <si>
+    <t>18:41:42</t>
+  </si>
+  <si>
+    <t>20:17:45</t>
+  </si>
+  <si>
+    <t>21:55:22</t>
+  </si>
+  <si>
+    <t>23:33:49</t>
+  </si>
+  <si>
+    <t>18:05:57</t>
+  </si>
+  <si>
+    <t>19:41:32</t>
+  </si>
+  <si>
+    <t>21:19:04</t>
+  </si>
+  <si>
+    <t>22:57:21</t>
+  </si>
+  <si>
+    <t>19:05:17</t>
+  </si>
+  <si>
+    <t>20:42:43</t>
+  </si>
+  <si>
+    <t>22:20:54</t>
   </si>
   <si>
     <t>00:59:30</t>
@@ -412,7 +400,7 @@
     <t>21:08:05</t>
   </si>
   <si>
-    <t>22:45:43</t>
+    <t>22:45:42</t>
   </si>
   <si>
     <t>00:23:24</t>
@@ -421,70 +409,70 @@
     <t>20:31:58</t>
   </si>
   <si>
-    <t>22:09:34</t>
-  </si>
-  <si>
-    <t>23:47:16</t>
-  </si>
-  <si>
-    <t>01:24:41</t>
-  </si>
-  <si>
-    <t>19:55:50</t>
-  </si>
-  <si>
-    <t>21:33:23</t>
-  </si>
-  <si>
-    <t>23:11:05</t>
-  </si>
-  <si>
-    <t>00:48:34</t>
-  </si>
-  <si>
-    <t>19:19:40</t>
-  </si>
-  <si>
-    <t>20:57:11</t>
-  </si>
-  <si>
-    <t>22:34:53</t>
-  </si>
-  <si>
-    <t>00:12:24</t>
-  </si>
-  <si>
-    <t>18:43:29</t>
-  </si>
-  <si>
-    <t>20:20:57</t>
-  </si>
-  <si>
-    <t>21:58:39</t>
-  </si>
-  <si>
-    <t>23:36:12</t>
-  </si>
-  <si>
-    <t>18:07:16</t>
-  </si>
-  <si>
-    <t>19:44:41</t>
-  </si>
-  <si>
-    <t>21:22:23</t>
-  </si>
-  <si>
-    <t>22:59:58</t>
-  </si>
-  <si>
-    <t>01:38:26</t>
-  </si>
-  <si>
-    <t>21:47:00</t>
-  </si>
-  <si>
-    <t>23:25:07</t>
+    <t>22:09:33</t>
+  </si>
+  <si>
+    <t>23:47:15</t>
+  </si>
+  <si>
+    <t>01:24:40</t>
+  </si>
+  <si>
+    <t>19:55:49</t>
+  </si>
+  <si>
+    <t>21:33:22</t>
+  </si>
+  <si>
+    <t>23:11:04</t>
+  </si>
+  <si>
+    <t>00:48:32</t>
+  </si>
+  <si>
+    <t>19:19:38</t>
+  </si>
+  <si>
+    <t>20:57:09</t>
+  </si>
+  <si>
+    <t>22:34:51</t>
+  </si>
+  <si>
+    <t>00:12:22</t>
+  </si>
+  <si>
+    <t>18:43:26</t>
+  </si>
+  <si>
+    <t>20:20:54</t>
+  </si>
+  <si>
+    <t>21:58:36</t>
+  </si>
+  <si>
+    <t>23:36:09</t>
+  </si>
+  <si>
+    <t>18:07:12</t>
+  </si>
+  <si>
+    <t>19:44:37</t>
+  </si>
+  <si>
+    <t>21:22:19</t>
+  </si>
+  <si>
+    <t>22:59:53</t>
+  </si>
+  <si>
+    <t>19:08:18</t>
+  </si>
+  <si>
+    <t>20:45:59</t>
+  </si>
+  <si>
+    <t>22:23:35</t>
   </si>
   <si>
     <t>01:02:28</t>
@@ -502,73 +490,73 @@
     <t>02:00:52</t>
   </si>
   <si>
-    <t>20:34:31</t>
+    <t>20:34:30</t>
   </si>
   <si>
     <t>22:12:49</t>
   </si>
   <si>
-    <t>23:50:22</t>
+    <t>23:50:21</t>
   </si>
   <si>
     <t>01:25:57</t>
   </si>
   <si>
-    <t>19:58:10</t>
-  </si>
-  <si>
-    <t>21:36:37</t>
-  </si>
-  <si>
-    <t>23:14:15</t>
-  </si>
-  <si>
-    <t>00:50:18</t>
-  </si>
-  <si>
-    <t>19:21:45</t>
-  </si>
-  <si>
-    <t>21:00:23</t>
-  </si>
-  <si>
-    <t>22:38:05</t>
-  </si>
-  <si>
-    <t>00:14:28</t>
-  </si>
-  <si>
-    <t>18:45:14</t>
-  </si>
-  <si>
-    <t>20:24:06</t>
-  </si>
-  <si>
-    <t>22:01:53</t>
-  </si>
-  <si>
-    <t>23:38:31</t>
-  </si>
-  <si>
-    <t>18:08:32</t>
-  </si>
-  <si>
-    <t>19:47:47</t>
-  </si>
-  <si>
-    <t>21:25:38</t>
-  </si>
-  <si>
-    <t>23:02:29</t>
-  </si>
-  <si>
-    <t>01:40:53</t>
-  </si>
-  <si>
-    <t>21:49:29</t>
-  </si>
-  <si>
-    <t>23:27:23</t>
+    <t>19:58:09</t>
+  </si>
+  <si>
+    <t>21:36:36</t>
+  </si>
+  <si>
+    <t>23:14:14</t>
+  </si>
+  <si>
+    <t>00:50:17</t>
+  </si>
+  <si>
+    <t>19:21:43</t>
+  </si>
+  <si>
+    <t>21:00:21</t>
+  </si>
+  <si>
+    <t>22:38:03</t>
+  </si>
+  <si>
+    <t>00:14:26</t>
+  </si>
+  <si>
+    <t>18:45:11</t>
+  </si>
+  <si>
+    <t>20:24:03</t>
+  </si>
+  <si>
+    <t>22:01:50</t>
+  </si>
+  <si>
+    <t>23:38:28</t>
+  </si>
+  <si>
+    <t>18:08:28</t>
+  </si>
+  <si>
+    <t>19:47:43</t>
+  </si>
+  <si>
+    <t>21:25:34</t>
+  </si>
+  <si>
+    <t>23:02:25</t>
+  </si>
+  <si>
+    <t>19:11:20</t>
+  </si>
+  <si>
+    <t>20:49:15</t>
+  </si>
+  <si>
+    <t>22:26:17</t>
   </si>
   <si>
     <t>01:04:52</t>
@@ -577,16 +565,16 @@
     <t>21:13:19</t>
   </si>
   <si>
-    <t>22:51:16</t>
-  </si>
-  <si>
-    <t>00:28:49</t>
+    <t>22:51:15</t>
+  </si>
+  <si>
+    <t>00:28:48</t>
   </si>
   <si>
     <t>02:05:15</t>
   </si>
   <si>
-    <t>20:37:08</t>
+    <t>20:37:07</t>
   </si>
   <si>
     <t>22:15:06</t>
@@ -598,52 +586,61 @@
     <t>01:29:20</t>
   </si>
   <si>
-    <t>20:00:53</t>
-  </si>
-  <si>
-    <t>21:38:55</t>
-  </si>
-  <si>
-    <t>23:16:34</t>
-  </si>
-  <si>
-    <t>00:53:21</t>
-  </si>
-  <si>
-    <t>19:24:37</t>
-  </si>
-  <si>
-    <t>21:02:41</t>
-  </si>
-  <si>
-    <t>22:40:23</t>
-  </si>
-  <si>
-    <t>00:17:19</t>
-  </si>
-  <si>
-    <t>18:48:18</t>
-  </si>
-  <si>
-    <t>20:26:26</t>
-  </si>
-  <si>
-    <t>22:04:10</t>
-  </si>
-  <si>
-    <t>23:41:14</t>
-  </si>
-  <si>
-    <t>18:11:56</t>
-  </si>
-  <si>
-    <t>19:50:08</t>
-  </si>
-  <si>
-    <t>21:27:55</t>
-  </si>
-  <si>
-    <t>23:05:05</t>
+    <t>20:00:52</t>
+  </si>
+  <si>
+    <t>21:38:53</t>
+  </si>
+  <si>
+    <t>23:16:33</t>
+  </si>
+  <si>
+    <t>00:53:20</t>
+  </si>
+  <si>
+    <t>19:24:35</t>
+  </si>
+  <si>
+    <t>21:02:39</t>
+  </si>
+  <si>
+    <t>22:40:21</t>
+  </si>
+  <si>
+    <t>00:17:17</t>
+  </si>
+  <si>
+    <t>18:48:15</t>
+  </si>
+  <si>
+    <t>20:26:23</t>
+  </si>
+  <si>
+    <t>22:04:07</t>
+  </si>
+  <si>
+    <t>23:41:11</t>
+  </si>
+  <si>
+    <t>18:11:52</t>
+  </si>
+  <si>
+    <t>19:50:04</t>
+  </si>
+  <si>
+    <t>21:27:50</t>
+  </si>
+  <si>
+    <t>23:05:01</t>
+  </si>
+  <si>
+    <t>19:13:43</t>
+  </si>
+  <si>
+    <t>20:51:32</t>
+  </si>
+  <si>
+    <t>22:28:48</t>
   </si>
   <si>
     <t>0°</t>
@@ -655,10 +652,16 @@
     <t>8°</t>
   </si>
   <si>
-    <t>18:39:34</t>
-  </si>
-  <si>
-    <t>18:05:13</t>
+    <t>6°</t>
+  </si>
+  <si>
+    <t>18:39:31</t>
+  </si>
+  <si>
+    <t>18:05:09</t>
+  </si>
+  <si>
+    <t>19:04:23</t>
   </si>
   <si>
     <t>B</t>
@@ -701,7 +704,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -722,7 +725,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8F4"/>
+        <fgColor rgb="FFF6F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF558CC8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,7 +743,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5E92CB"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D7EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2CBE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBD1E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88AED8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6EEF7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,13 +785,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF80A9D6"/>
+        <fgColor rgb="FF6AD26A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF77A3D3"/>
+        <fgColor rgb="FF5E92CB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,55 +803,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBBD1E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF6E9DD0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF88AED8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF558CC8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAAC5E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6EEF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF3F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4D7EC"/>
+        <fgColor rgb="FFF0B070"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,13 +821,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0B070"/>
+        <fgColor rgb="FFA2C0E1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6AD26A"/>
+        <fgColor rgb="FFAAC5E3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,7 +868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -943,9 +940,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1433,55 +1427,55 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" s="4">
-        <v>-49.5</v>
+        <v>-53.8</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O2" s="6">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P2" s="7">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="Q2" s="8">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="R2" s="9">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1489,55 +1483,55 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" s="4">
+        <v>-51.2</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O3" s="6">
         <v>100</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" s="4">
-        <v>-55.5</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O3" s="6">
-        <v>92</v>
-      </c>
       <c r="P3" s="10">
-        <v>71</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>27</v>
-      </c>
-      <c r="R3" s="7">
-        <v>78</v>
+        <v>100</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>0</v>
+      </c>
+      <c r="R3" s="11">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1551,49 +1545,49 @@
         <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L4" s="4">
-        <v>-60.3</v>
+        <v>-59.6</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O4" s="6">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="P4" s="10">
-        <v>70</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>22</v>
-      </c>
-      <c r="R4" s="13">
-        <v>12</v>
+        <v>100</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>0</v>
+      </c>
+      <c r="R4" s="12">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1601,55 +1595,55 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L5" s="4">
-        <v>-53.8</v>
+        <v>-57.2</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O5" s="6">
-        <v>87</v>
-      </c>
-      <c r="P5" s="14">
-        <v>61</v>
-      </c>
-      <c r="Q5" s="15">
-        <v>17</v>
-      </c>
-      <c r="R5" s="16">
-        <v>30</v>
+        <v>100</v>
+      </c>
+      <c r="P5" s="10">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0</v>
+      </c>
+      <c r="R5" s="13">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1657,55 +1651,55 @@
         <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L6" s="4">
-        <v>-51.2</v>
+        <v>-45.9</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O6" s="6">
-        <v>96</v>
-      </c>
-      <c r="P6" s="8">
-        <v>73</v>
-      </c>
-      <c r="Q6" s="17">
-        <v>0</v>
-      </c>
-      <c r="R6" s="18">
-        <v>51</v>
+        <v>100</v>
+      </c>
+      <c r="P6" s="10">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="14">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1713,55 +1707,55 @@
         <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L7" s="4">
-        <v>-59.6</v>
+        <v>-46.2</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O7" s="6">
-        <v>100</v>
-      </c>
-      <c r="P7" s="19">
-        <v>85</v>
-      </c>
-      <c r="Q7" s="17">
-        <v>0</v>
-      </c>
-      <c r="R7" s="14">
-        <v>59</v>
+        <v>99</v>
+      </c>
+      <c r="P7" s="10">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1769,55 +1763,55 @@
         <v>24</v>
       </c>
       <c r="B8" s="2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L8" s="4">
-        <v>-57.2</v>
+        <v>-57.3</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O8" s="6">
-        <v>100</v>
-      </c>
-      <c r="P8" s="20">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="17">
-        <v>0</v>
-      </c>
-      <c r="R8" s="18">
-        <v>48</v>
+        <v>89</v>
+      </c>
+      <c r="P8" s="15">
+        <v>87</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1825,55 +1819,55 @@
         <v>25</v>
       </c>
       <c r="B9" s="2">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L9" s="4">
-        <v>-45.9</v>
+        <v>-59.3</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>217</v>
       </c>
       <c r="O9" s="6">
-        <v>100</v>
-      </c>
-      <c r="P9" s="20">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="17">
-        <v>0</v>
-      </c>
-      <c r="R9" s="13">
-        <v>12</v>
+        <v>86</v>
+      </c>
+      <c r="P9" s="15">
+        <v>85</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>0</v>
+      </c>
+      <c r="R9" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1881,55 +1875,55 @@
         <v>26</v>
       </c>
       <c r="B10" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="4">
+        <v>-50.6</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="O10" s="6">
+        <v>75</v>
+      </c>
+      <c r="P10" s="16">
         <v>70</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L10" s="4">
-        <v>-46.2</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O10" s="6">
-        <v>100</v>
-      </c>
-      <c r="P10" s="20">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="17">
-        <v>0</v>
-      </c>
-      <c r="R10" s="13">
-        <v>9</v>
+      <c r="Q10" s="8">
+        <v>0</v>
+      </c>
+      <c r="R10" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1937,55 +1931,55 @@
         <v>27</v>
       </c>
       <c r="B11" s="2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L11" s="4">
-        <v>-57.3</v>
+        <v>-40.8</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O11" s="6">
-        <v>99</v>
-      </c>
-      <c r="P11" s="20">
-        <v>99</v>
-      </c>
-      <c r="Q11" s="17">
-        <v>0</v>
-      </c>
-      <c r="R11" s="9">
-        <v>6</v>
+        <v>217</v>
+      </c>
+      <c r="O11" s="17">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0</v>
+      </c>
+      <c r="R11" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1993,55 +1987,55 @@
         <v>28</v>
       </c>
       <c r="B12" s="2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L12" s="4">
-        <v>-59.3</v>
+        <v>-53.7</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O12" s="6">
-        <v>92</v>
-      </c>
-      <c r="P12" s="21">
-        <v>89</v>
-      </c>
-      <c r="Q12" s="17">
-        <v>0</v>
-      </c>
-      <c r="R12" s="9">
-        <v>5</v>
+        <v>217</v>
+      </c>
+      <c r="O12" s="17">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2049,55 +2043,55 @@
         <v>29</v>
       </c>
       <c r="B13" s="2">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L13" s="4">
-        <v>-50.6</v>
+        <v>-59.7</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="O13" s="6">
-        <v>78</v>
-      </c>
-      <c r="P13" s="22">
-        <v>67</v>
-      </c>
-      <c r="Q13" s="17">
-        <v>0</v>
-      </c>
-      <c r="R13" s="9">
-        <v>3</v>
+      <c r="O13" s="17">
+        <v>0</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>0</v>
+      </c>
+      <c r="R13" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2105,54 +2099,54 @@
         <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L14" s="4">
-        <v>-40.8</v>
+        <v>-54.6</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O14" s="6">
-        <v>55</v>
-      </c>
-      <c r="P14" s="23">
-        <v>41</v>
-      </c>
-      <c r="Q14" s="17">
-        <v>0</v>
-      </c>
-      <c r="R14" s="17">
+        <v>218</v>
+      </c>
+      <c r="O14" s="17">
+        <v>1</v>
+      </c>
+      <c r="P14" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>0</v>
+      </c>
+      <c r="R14" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2161,54 +2155,54 @@
         <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L15" s="4">
-        <v>-53.7</v>
+        <v>-35</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O15" s="6">
-        <v>49</v>
-      </c>
-      <c r="P15" s="23">
-        <v>40</v>
-      </c>
-      <c r="Q15" s="17">
-        <v>0</v>
-      </c>
-      <c r="R15" s="17">
+        <v>217</v>
+      </c>
+      <c r="O15" s="17">
+        <v>3</v>
+      </c>
+      <c r="P15" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>0</v>
+      </c>
+      <c r="R15" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2217,54 +2211,54 @@
         <v>32</v>
       </c>
       <c r="B16" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L16" s="4">
-        <v>-59.7</v>
+        <v>-49.2</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O16" s="24">
-        <v>45</v>
-      </c>
-      <c r="P16" s="23">
-        <v>38</v>
-      </c>
-      <c r="Q16" s="17">
-        <v>0</v>
-      </c>
-      <c r="R16" s="17">
+        <v>217</v>
+      </c>
+      <c r="O16" s="17">
+        <v>3</v>
+      </c>
+      <c r="P16" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>0</v>
+      </c>
+      <c r="R16" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2273,54 +2267,54 @@
         <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L17" s="4">
-        <v>-54.6</v>
+        <v>-58.5</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="O17" s="24">
-        <v>43</v>
-      </c>
-      <c r="P17" s="23">
-        <v>39</v>
-      </c>
-      <c r="Q17" s="17">
-        <v>0</v>
-      </c>
-      <c r="R17" s="17">
+      <c r="O17" s="17">
+        <v>8</v>
+      </c>
+      <c r="P17" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>0</v>
+      </c>
+      <c r="R17" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2332,51 +2326,51 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L18" s="4">
-        <v>-35</v>
+        <v>-57.5</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O18" s="25">
+        <v>217</v>
+      </c>
+      <c r="O18" s="17">
         <v>6</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P18" s="18">
         <v>6</v>
       </c>
-      <c r="Q18" s="17">
-        <v>0</v>
-      </c>
-      <c r="R18" s="17">
+      <c r="Q18" s="8">
+        <v>0</v>
+      </c>
+      <c r="R18" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2385,55 +2379,55 @@
         <v>35</v>
       </c>
       <c r="B19" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>210</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="L19" s="4">
-        <v>-49.2</v>
+        <v>-29</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O19" s="25">
-        <v>4</v>
-      </c>
-      <c r="P19" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q19" s="17">
-        <v>0</v>
-      </c>
-      <c r="R19" s="17">
-        <v>0</v>
+        <v>218</v>
+      </c>
+      <c r="O19" s="17">
+        <v>3</v>
+      </c>
+      <c r="P19" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>0</v>
+      </c>
+      <c r="R19" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2441,55 +2435,55 @@
         <v>36</v>
       </c>
       <c r="B20" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L20" s="4">
-        <v>-58.5</v>
+        <v>-44</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O20" s="25">
-        <v>3</v>
-      </c>
-      <c r="P20" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="17">
-        <v>0</v>
-      </c>
-      <c r="R20" s="17">
-        <v>1</v>
+        <v>217</v>
+      </c>
+      <c r="O20" s="17">
+        <v>12</v>
+      </c>
+      <c r="P20" s="19">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>0</v>
+      </c>
+      <c r="R20" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2497,54 +2491,54 @@
         <v>37</v>
       </c>
       <c r="B21" s="2">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L21" s="4">
-        <v>-57.5</v>
+        <v>-55.8</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O21" s="25">
-        <v>3</v>
-      </c>
-      <c r="P21" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="17">
-        <v>0</v>
-      </c>
-      <c r="R21" s="17">
+        <v>217</v>
+      </c>
+      <c r="O21" s="17">
+        <v>16</v>
+      </c>
+      <c r="P21" s="20">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>0</v>
+      </c>
+      <c r="R21" s="8">
         <v>2</v>
       </c>
     </row>
@@ -2553,55 +2547,55 @@
         <v>38</v>
       </c>
       <c r="B22" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>213</v>
+        <v>90</v>
       </c>
       <c r="L22" s="4">
-        <v>-29</v>
+        <v>-59</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="O22" s="25">
-        <v>5</v>
-      </c>
-      <c r="P22" s="17">
+      <c r="O22" s="17">
+        <v>16</v>
+      </c>
+      <c r="P22" s="20">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>0</v>
+      </c>
+      <c r="R22" s="8">
         <v>1</v>
-      </c>
-      <c r="Q22" s="17">
-        <v>0</v>
-      </c>
-      <c r="R22" s="9">
-        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2609,55 +2603,55 @@
         <v>39</v>
       </c>
       <c r="B23" s="2">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>92</v>
+        <v>214</v>
       </c>
       <c r="L23" s="4">
-        <v>-44</v>
+        <v>-23.2</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O23" s="25">
-        <v>4</v>
-      </c>
-      <c r="P23" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="17">
-        <v>0</v>
-      </c>
-      <c r="R23" s="17">
-        <v>1</v>
+        <v>218</v>
+      </c>
+      <c r="O23" s="6">
+        <v>66</v>
+      </c>
+      <c r="P23" s="13">
+        <v>59</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>0</v>
+      </c>
+      <c r="R23" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2665,55 +2659,55 @@
         <v>40</v>
       </c>
       <c r="B24" s="2">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L24" s="4">
-        <v>-55.8</v>
+        <v>-38.5</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O24" s="25">
-        <v>3</v>
-      </c>
-      <c r="P24" s="17">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="17">
-        <v>0</v>
-      </c>
-      <c r="R24" s="17">
-        <v>1</v>
+        <v>217</v>
+      </c>
+      <c r="O24" s="6">
+        <v>65</v>
+      </c>
+      <c r="P24" s="12">
+        <v>55</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>0</v>
+      </c>
+      <c r="R24" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2721,54 +2715,54 @@
         <v>41</v>
       </c>
       <c r="B25" s="2">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L25" s="4">
-        <v>-59</v>
+        <v>-51.8</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O25" s="25">
-        <v>3</v>
-      </c>
-      <c r="P25" s="17">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="17">
-        <v>0</v>
-      </c>
-      <c r="R25" s="17">
+        <v>217</v>
+      </c>
+      <c r="O25" s="21">
+        <v>43</v>
+      </c>
+      <c r="P25" s="22">
+        <v>40</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>0</v>
+      </c>
+      <c r="R25" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2777,43 +2771,55 @@
         <v>42</v>
       </c>
       <c r="B26" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="L26" s="4">
-        <v>-23.2</v>
+        <v>-58.9</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>217</v>
+      </c>
+      <c r="O26" s="21">
+        <v>40</v>
+      </c>
+      <c r="P26" s="22">
+        <v>40</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>0</v>
+      </c>
+      <c r="R26" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2821,43 +2827,55 @@
         <v>43</v>
       </c>
       <c r="B27" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>96</v>
+        <v>215</v>
       </c>
       <c r="L27" s="4">
-        <v>-38.5</v>
+        <v>-32.5</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="O27" s="21">
+        <v>45</v>
+      </c>
+      <c r="P27" s="23">
+        <v>45</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>0</v>
+      </c>
+      <c r="R27" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2865,43 +2883,55 @@
         <v>44</v>
       </c>
       <c r="B28" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L28" s="4">
-        <v>-51.8</v>
+        <v>-47.1</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="O28" s="6">
+        <v>55</v>
+      </c>
+      <c r="P28" s="24">
+        <v>52</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>0</v>
+      </c>
+      <c r="R28" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2909,43 +2939,55 @@
         <v>45</v>
       </c>
       <c r="B29" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E29" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I29" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="K29" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L29" s="4">
-        <v>-58.9</v>
+        <v>-57.2</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="O29" s="6">
+        <v>62</v>
+      </c>
+      <c r="P29" s="12">
+        <v>55</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>0</v>
+      </c>
+      <c r="R29" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="224">
   <si>
     <t>Datum</t>
   </si>
@@ -70,15 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>20260116--01</t>
-  </si>
-  <si>
-    <t>20260116--02</t>
-  </si>
-  <si>
-    <t>20260116--03</t>
-  </si>
-  <si>
     <t>20260117--01</t>
   </si>
   <si>
@@ -154,85 +145,88 @@
     <t>20260122--03</t>
   </si>
   <si>
-    <t>05:55</t>
+    <t>20260123--01</t>
+  </si>
+  <si>
+    <t>20260123--02</t>
+  </si>
+  <si>
+    <t>20260123--03</t>
+  </si>
+  <si>
+    <t>06:05</t>
+  </si>
+  <si>
+    <t>00:06</t>
+  </si>
+  <si>
+    <t>05:04</t>
+  </si>
+  <si>
+    <t>06:30</t>
+  </si>
+  <si>
+    <t>06:12</t>
+  </si>
+  <si>
+    <t>02:33</t>
+  </si>
+  <si>
+    <t>04:40</t>
+  </si>
+  <si>
+    <t>06:28</t>
+  </si>
+  <si>
+    <t>06:19</t>
+  </si>
+  <si>
+    <t>03:30</t>
+  </si>
+  <si>
+    <t>04:09</t>
+  </si>
+  <si>
+    <t>06:24</t>
+  </si>
+  <si>
+    <t>03:29</t>
+  </si>
+  <si>
+    <t>06:18</t>
+  </si>
+  <si>
+    <t>06:27</t>
+  </si>
+  <si>
+    <t>02:30</t>
+  </si>
+  <si>
+    <t>06:11</t>
+  </si>
+  <si>
+    <t>06:03</t>
+  </si>
+  <si>
+    <t>06:32</t>
   </si>
   <si>
     <t>05:23</t>
   </si>
   <si>
+    <t>05:53</t>
+  </si>
+  <si>
     <t>06:33</t>
   </si>
   <si>
-    <t>06:05</t>
-  </si>
-  <si>
-    <t>00:06</t>
-  </si>
-  <si>
-    <t>05:04</t>
-  </si>
-  <si>
-    <t>06:31</t>
-  </si>
-  <si>
-    <t>06:12</t>
-  </si>
-  <si>
-    <t>02:33</t>
-  </si>
-  <si>
-    <t>04:40</t>
-  </si>
-  <si>
-    <t>06:28</t>
-  </si>
-  <si>
-    <t>06:19</t>
-  </si>
-  <si>
-    <t>03:30</t>
-  </si>
-  <si>
-    <t>04:09</t>
-  </si>
-  <si>
-    <t>06:24</t>
-  </si>
-  <si>
-    <t>03:29</t>
-  </si>
-  <si>
-    <t>06:18</t>
-  </si>
-  <si>
-    <t>04:39</t>
-  </si>
-  <si>
-    <t>02:31</t>
-  </si>
-  <si>
-    <t>06:11</t>
-  </si>
-  <si>
-    <t>06:30</t>
-  </si>
-  <si>
-    <t>06:03</t>
-  </si>
-  <si>
-    <t>06:32</t>
+    <t>05:38</t>
   </si>
   <si>
     <t>00:00</t>
   </si>
   <si>
-    <t>00:54:08</t>
-  </si>
-  <si>
-    <t>21:02:52</t>
-  </si>
-  <si>
-    <t>22:40:10</t>
+    <t>00:48</t>
   </si>
   <si>
     <t>00:17:59</t>
@@ -250,7 +244,7 @@
     <t>23:41:48</t>
   </si>
   <si>
-    <t>01:20:01</t>
+    <t>01:20:00</t>
   </si>
   <si>
     <t>19:50:47</t>
@@ -265,58 +259,58 @@
     <t>00:43:43</t>
   </si>
   <si>
-    <t>19:14:43</t>
-  </si>
-  <si>
-    <t>20:51:39</t>
-  </si>
-  <si>
-    <t>22:29:21</t>
-  </si>
-  <si>
-    <t>00:07:25</t>
-  </si>
-  <si>
-    <t>18:38:39</t>
-  </si>
-  <si>
-    <t>20:15:26</t>
-  </si>
-  <si>
-    <t>21:53:05</t>
-  </si>
-  <si>
-    <t>23:31:06</t>
-  </si>
-  <si>
-    <t>18:02:34</t>
-  </si>
-  <si>
-    <t>19:39:11</t>
-  </si>
-  <si>
-    <t>21:16:47</t>
-  </si>
-  <si>
-    <t>22:54:45</t>
-  </si>
-  <si>
-    <t>19:02:55</t>
-  </si>
-  <si>
-    <t>20:40:27</t>
-  </si>
-  <si>
-    <t>22:18:22</t>
-  </si>
-  <si>
-    <t>00:56:33</t>
-  </si>
-  <si>
-    <t>21:05:24</t>
-  </si>
-  <si>
-    <t>22:42:26</t>
+    <t>19:14:42</t>
+  </si>
+  <si>
+    <t>20:51:38</t>
+  </si>
+  <si>
+    <t>22:29:20</t>
+  </si>
+  <si>
+    <t>00:07:24</t>
+  </si>
+  <si>
+    <t>18:38:38</t>
+  </si>
+  <si>
+    <t>20:15:25</t>
+  </si>
+  <si>
+    <t>21:53:03</t>
+  </si>
+  <si>
+    <t>23:31:04</t>
+  </si>
+  <si>
+    <t>18:02:32</t>
+  </si>
+  <si>
+    <t>19:39:09</t>
+  </si>
+  <si>
+    <t>21:16:45</t>
+  </si>
+  <si>
+    <t>22:54:43</t>
+  </si>
+  <si>
+    <t>19:02:53</t>
+  </si>
+  <si>
+    <t>20:40:24</t>
+  </si>
+  <si>
+    <t>22:18:19</t>
+  </si>
+  <si>
+    <t>18:26:34</t>
+  </si>
+  <si>
+    <t>20:04:02</t>
+  </si>
+  <si>
+    <t>21:41:55</t>
   </si>
   <si>
     <t>00:20:21</t>
@@ -343,64 +337,64 @@
     <t>21:30:08</t>
   </si>
   <si>
-    <t>23:07:55</t>
+    <t>23:07:54</t>
   </si>
   <si>
     <t>00:46:47</t>
   </si>
   <si>
-    <t>19:17:34</t>
-  </si>
-  <si>
-    <t>20:53:57</t>
-  </si>
-  <si>
-    <t>22:31:39</t>
-  </si>
-  <si>
-    <t>00:10:17</t>
-  </si>
-  <si>
-    <t>18:41:42</t>
-  </si>
-  <si>
-    <t>20:17:45</t>
-  </si>
-  <si>
-    <t>21:55:22</t>
-  </si>
-  <si>
-    <t>23:33:49</t>
-  </si>
-  <si>
-    <t>18:05:57</t>
-  </si>
-  <si>
-    <t>19:41:32</t>
-  </si>
-  <si>
-    <t>21:19:04</t>
-  </si>
-  <si>
-    <t>22:57:21</t>
-  </si>
-  <si>
-    <t>19:05:17</t>
-  </si>
-  <si>
-    <t>20:42:43</t>
-  </si>
-  <si>
-    <t>22:20:54</t>
-  </si>
-  <si>
-    <t>00:59:30</t>
-  </si>
-  <si>
-    <t>21:08:05</t>
-  </si>
-  <si>
-    <t>22:45:42</t>
+    <t>19:17:33</t>
+  </si>
+  <si>
+    <t>20:53:56</t>
+  </si>
+  <si>
+    <t>22:31:38</t>
+  </si>
+  <si>
+    <t>00:10:16</t>
+  </si>
+  <si>
+    <t>18:41:41</t>
+  </si>
+  <si>
+    <t>20:17:44</t>
+  </si>
+  <si>
+    <t>21:55:21</t>
+  </si>
+  <si>
+    <t>23:33:47</t>
+  </si>
+  <si>
+    <t>18:05:56</t>
+  </si>
+  <si>
+    <t>19:41:30</t>
+  </si>
+  <si>
+    <t>21:19:02</t>
+  </si>
+  <si>
+    <t>22:57:19</t>
+  </si>
+  <si>
+    <t>19:05:15</t>
+  </si>
+  <si>
+    <t>20:42:41</t>
+  </si>
+  <si>
+    <t>22:20:51</t>
+  </si>
+  <si>
+    <t>18:28:59</t>
+  </si>
+  <si>
+    <t>20:06:18</t>
+  </si>
+  <si>
+    <t>21:44:23</t>
   </si>
   <si>
     <t>00:23:24</t>
@@ -433,55 +427,55 @@
     <t>19:19:38</t>
   </si>
   <si>
-    <t>20:57:09</t>
-  </si>
-  <si>
-    <t>22:34:51</t>
-  </si>
-  <si>
-    <t>00:12:22</t>
-  </si>
-  <si>
-    <t>18:43:26</t>
-  </si>
-  <si>
-    <t>20:20:54</t>
-  </si>
-  <si>
-    <t>21:58:36</t>
-  </si>
-  <si>
-    <t>23:36:09</t>
-  </si>
-  <si>
-    <t>18:07:12</t>
-  </si>
-  <si>
-    <t>19:44:37</t>
-  </si>
-  <si>
-    <t>21:22:19</t>
-  </si>
-  <si>
-    <t>22:59:53</t>
-  </si>
-  <si>
-    <t>19:08:18</t>
-  </si>
-  <si>
-    <t>20:45:59</t>
-  </si>
-  <si>
-    <t>22:23:35</t>
-  </si>
-  <si>
-    <t>01:02:28</t>
-  </si>
-  <si>
-    <t>21:10:47</t>
-  </si>
-  <si>
-    <t>22:48:59</t>
+    <t>20:57:08</t>
+  </si>
+  <si>
+    <t>22:34:50</t>
+  </si>
+  <si>
+    <t>00:12:21</t>
+  </si>
+  <si>
+    <t>18:43:25</t>
+  </si>
+  <si>
+    <t>20:20:53</t>
+  </si>
+  <si>
+    <t>21:58:35</t>
+  </si>
+  <si>
+    <t>23:36:07</t>
+  </si>
+  <si>
+    <t>18:07:11</t>
+  </si>
+  <si>
+    <t>19:44:35</t>
+  </si>
+  <si>
+    <t>21:22:17</t>
+  </si>
+  <si>
+    <t>22:59:51</t>
+  </si>
+  <si>
+    <t>19:08:16</t>
+  </si>
+  <si>
+    <t>20:45:57</t>
+  </si>
+  <si>
+    <t>22:23:33</t>
+  </si>
+  <si>
+    <t>18:31:55</t>
+  </si>
+  <si>
+    <t>20:09:34</t>
+  </si>
+  <si>
+    <t>21:47:12</t>
   </si>
   <si>
     <t>00:26:26</t>
@@ -493,7 +487,7 @@
     <t>20:34:30</t>
   </si>
   <si>
-    <t>22:12:49</t>
+    <t>22:12:48</t>
   </si>
   <si>
     <t>23:50:21</t>
@@ -508,64 +502,64 @@
     <t>21:36:36</t>
   </si>
   <si>
-    <t>23:14:14</t>
+    <t>23:14:13</t>
   </si>
   <si>
     <t>00:50:17</t>
   </si>
   <si>
-    <t>19:21:43</t>
-  </si>
-  <si>
-    <t>21:00:21</t>
-  </si>
-  <si>
-    <t>22:38:03</t>
-  </si>
-  <si>
-    <t>00:14:26</t>
-  </si>
-  <si>
-    <t>18:45:11</t>
-  </si>
-  <si>
-    <t>20:24:03</t>
-  </si>
-  <si>
-    <t>22:01:50</t>
-  </si>
-  <si>
-    <t>23:38:28</t>
-  </si>
-  <si>
-    <t>18:08:28</t>
-  </si>
-  <si>
-    <t>19:47:43</t>
-  </si>
-  <si>
-    <t>21:25:34</t>
-  </si>
-  <si>
-    <t>23:02:25</t>
-  </si>
-  <si>
-    <t>19:11:20</t>
-  </si>
-  <si>
-    <t>20:49:15</t>
-  </si>
-  <si>
-    <t>22:26:17</t>
-  </si>
-  <si>
-    <t>01:04:52</t>
-  </si>
-  <si>
-    <t>21:13:19</t>
-  </si>
-  <si>
-    <t>22:51:15</t>
+    <t>19:21:42</t>
+  </si>
+  <si>
+    <t>21:00:20</t>
+  </si>
+  <si>
+    <t>22:38:02</t>
+  </si>
+  <si>
+    <t>00:14:25</t>
+  </si>
+  <si>
+    <t>18:45:10</t>
+  </si>
+  <si>
+    <t>20:24:02</t>
+  </si>
+  <si>
+    <t>22:01:48</t>
+  </si>
+  <si>
+    <t>23:38:27</t>
+  </si>
+  <si>
+    <t>18:08:26</t>
+  </si>
+  <si>
+    <t>19:47:41</t>
+  </si>
+  <si>
+    <t>21:25:32</t>
+  </si>
+  <si>
+    <t>23:02:23</t>
+  </si>
+  <si>
+    <t>19:11:18</t>
+  </si>
+  <si>
+    <t>20:49:13</t>
+  </si>
+  <si>
+    <t>22:26:14</t>
+  </si>
+  <si>
+    <t>18:34:52</t>
+  </si>
+  <si>
+    <t>20:12:51</t>
+  </si>
+  <si>
+    <t>21:50:01</t>
   </si>
   <si>
     <t>00:28:48</t>
@@ -577,13 +571,13 @@
     <t>20:37:07</t>
   </si>
   <si>
-    <t>22:15:06</t>
+    <t>22:15:05</t>
   </si>
   <si>
     <t>23:52:42</t>
   </si>
   <si>
-    <t>01:29:20</t>
+    <t>01:29:19</t>
   </si>
   <si>
     <t>20:00:52</t>
@@ -592,55 +586,64 @@
     <t>21:38:53</t>
   </si>
   <si>
-    <t>23:16:33</t>
+    <t>23:16:32</t>
   </si>
   <si>
     <t>00:53:20</t>
   </si>
   <si>
-    <t>19:24:35</t>
-  </si>
-  <si>
-    <t>21:02:39</t>
-  </si>
-  <si>
-    <t>22:40:21</t>
-  </si>
-  <si>
-    <t>00:17:17</t>
-  </si>
-  <si>
-    <t>18:48:15</t>
-  </si>
-  <si>
-    <t>20:26:23</t>
-  </si>
-  <si>
-    <t>22:04:07</t>
-  </si>
-  <si>
-    <t>23:41:11</t>
-  </si>
-  <si>
-    <t>18:11:52</t>
-  </si>
-  <si>
-    <t>19:50:04</t>
-  </si>
-  <si>
-    <t>21:27:50</t>
-  </si>
-  <si>
-    <t>23:05:01</t>
-  </si>
-  <si>
-    <t>19:13:43</t>
-  </si>
-  <si>
-    <t>20:51:32</t>
-  </si>
-  <si>
-    <t>22:28:48</t>
+    <t>19:24:34</t>
+  </si>
+  <si>
+    <t>21:02:38</t>
+  </si>
+  <si>
+    <t>22:40:20</t>
+  </si>
+  <si>
+    <t>00:17:16</t>
+  </si>
+  <si>
+    <t>18:48:14</t>
+  </si>
+  <si>
+    <t>20:26:21</t>
+  </si>
+  <si>
+    <t>22:04:06</t>
+  </si>
+  <si>
+    <t>23:41:09</t>
+  </si>
+  <si>
+    <t>18:11:50</t>
+  </si>
+  <si>
+    <t>19:50:02</t>
+  </si>
+  <si>
+    <t>21:27:49</t>
+  </si>
+  <si>
+    <t>23:04:59</t>
+  </si>
+  <si>
+    <t>19:13:40</t>
+  </si>
+  <si>
+    <t>20:51:29</t>
+  </si>
+  <si>
+    <t>22:28:46</t>
+  </si>
+  <si>
+    <t>18:37:16</t>
+  </si>
+  <si>
+    <t>20:15:07</t>
+  </si>
+  <si>
+    <t>21:52:29</t>
   </si>
   <si>
     <t>0°</t>
@@ -655,22 +658,34 @@
     <t>6°</t>
   </si>
   <si>
-    <t>18:39:31</t>
-  </si>
-  <si>
-    <t>18:05:09</t>
-  </si>
-  <si>
-    <t>19:04:23</t>
+    <t>14°</t>
+  </si>
+  <si>
+    <t>18:39:30</t>
+  </si>
+  <si>
+    <t>18:05:07</t>
+  </si>
+  <si>
+    <t>19:04:21</t>
+  </si>
+  <si>
+    <t>18:29:47</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
+    <t>A+B</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -704,7 +719,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -725,7 +740,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6F9FC"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,37 +752,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD4E2F1"/>
+        <fgColor rgb="FFAAC5E3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF5E92CB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC4D7EC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB2CBE6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBD1E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF88AED8"/>
+        <fgColor rgb="FFF6F9FC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,25 +776,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCDCEE"/>
+        <fgColor rgb="FFD4E2F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2C0E1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF6AD26A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5E92CB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6697CD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,19 +806,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99BADE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA2C0E1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAAC5E3"/>
+        <fgColor rgb="FF77A3D3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,7 +847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -922,24 +901,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1427,7 +1388,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>46</v>
@@ -1436,46 +1397,46 @@
         <v>69</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L2" s="4">
-        <v>-53.8</v>
+        <v>-57.2</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O2" s="6">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P2" s="7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="8">
         <v>0</v>
       </c>
       <c r="R2" s="9">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1483,7 +1444,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>47</v>
@@ -1492,46 +1453,46 @@
         <v>69</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L3" s="4">
-        <v>-51.2</v>
+        <v>-45.9</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="O3" s="6">
         <v>100</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="7">
         <v>100</v>
       </c>
       <c r="Q3" s="8">
         <v>0</v>
       </c>
-      <c r="R3" s="11">
-        <v>63</v>
+      <c r="R3" s="10">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1539,7 +1500,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>48</v>
@@ -1548,46 +1509,46 @@
         <v>69</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L4" s="4">
-        <v>-59.6</v>
+        <v>-46.2</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O4" s="6">
-        <v>100</v>
-      </c>
-      <c r="P4" s="10">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="P4" s="11">
+        <v>95</v>
       </c>
       <c r="Q4" s="8">
         <v>0</v>
       </c>
-      <c r="R4" s="12">
-        <v>57</v>
+      <c r="R4" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1595,7 +1556,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>49</v>
@@ -1604,46 +1565,46 @@
         <v>69</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>129</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L5" s="4">
-        <v>-57.2</v>
+        <v>-57.3</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O5" s="6">
-        <v>100</v>
-      </c>
-      <c r="P5" s="10">
-        <v>100</v>
+        <v>88</v>
+      </c>
+      <c r="P5" s="12">
+        <v>85</v>
       </c>
       <c r="Q5" s="8">
         <v>0</v>
       </c>
-      <c r="R5" s="13">
-        <v>60</v>
+      <c r="R5" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1651,7 +1612,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>50</v>
@@ -1660,46 +1621,46 @@
         <v>69</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L6" s="4">
-        <v>-45.9</v>
+        <v>-59.3</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O6" s="6">
-        <v>100</v>
-      </c>
-      <c r="P6" s="10">
-        <v>100</v>
+        <v>75</v>
+      </c>
+      <c r="P6" s="13">
+        <v>75</v>
       </c>
       <c r="Q6" s="8">
         <v>0</v>
       </c>
-      <c r="R6" s="14">
-        <v>29</v>
+      <c r="R6" s="10">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1707,7 +1668,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>51</v>
@@ -1716,40 +1677,40 @@
         <v>69</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L7" s="4">
-        <v>-46.2</v>
+        <v>-50.6</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="O7" s="6">
-        <v>99</v>
-      </c>
-      <c r="P7" s="10">
-        <v>98</v>
+        <v>52</v>
+      </c>
+      <c r="P7" s="14">
+        <v>43</v>
       </c>
       <c r="Q7" s="8">
         <v>0</v>
@@ -1763,7 +1724,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>52</v>
@@ -1772,46 +1733,46 @@
         <v>69</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L8" s="4">
-        <v>-57.3</v>
+        <v>-40.8</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O8" s="6">
-        <v>89</v>
-      </c>
-      <c r="P8" s="15">
-        <v>87</v>
+        <v>221</v>
+      </c>
+      <c r="O8" s="15">
+        <v>1</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0</v>
       </c>
       <c r="Q8" s="8">
         <v>0</v>
       </c>
       <c r="R8" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1819,7 +1780,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>53</v>
@@ -1828,40 +1789,40 @@
         <v>69</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L9" s="4">
-        <v>-59.3</v>
+        <v>-53.7</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O9" s="6">
-        <v>86</v>
-      </c>
-      <c r="P9" s="15">
-        <v>85</v>
+        <v>221</v>
+      </c>
+      <c r="O9" s="15">
+        <v>1</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0</v>
       </c>
       <c r="Q9" s="8">
         <v>0</v>
@@ -1875,7 +1836,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="2">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>54</v>
@@ -1884,40 +1845,40 @@
         <v>69</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L10" s="4">
-        <v>-50.6</v>
+        <v>-59.7</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="O10" s="6">
-        <v>75</v>
-      </c>
-      <c r="P10" s="16">
-        <v>70</v>
+        <v>221</v>
+      </c>
+      <c r="O10" s="15">
+        <v>0</v>
+      </c>
+      <c r="P10" s="8">
+        <v>0</v>
       </c>
       <c r="Q10" s="8">
         <v>0</v>
@@ -1931,7 +1892,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>55</v>
@@ -1940,37 +1901,37 @@
         <v>69</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L11" s="4">
-        <v>-40.8</v>
+        <v>-54.6</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O11" s="17">
-        <v>0</v>
+        <v>222</v>
+      </c>
+      <c r="O11" s="15">
+        <v>1</v>
       </c>
       <c r="P11" s="8">
         <v>0</v>
@@ -1979,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1987,7 +1948,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="2">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>56</v>
@@ -1996,37 +1957,37 @@
         <v>69</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" s="4">
-        <v>-53.7</v>
+        <v>-35</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O12" s="17">
-        <v>0</v>
+        <v>221</v>
+      </c>
+      <c r="O12" s="15">
+        <v>3</v>
       </c>
       <c r="P12" s="8">
         <v>0</v>
@@ -2034,8 +1995,8 @@
       <c r="Q12" s="8">
         <v>0</v>
       </c>
-      <c r="R12" s="8">
-        <v>0</v>
+      <c r="R12" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2043,7 +2004,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>57</v>
@@ -2052,37 +2013,37 @@
         <v>69</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L13" s="4">
-        <v>-59.7</v>
+        <v>-49.2</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O13" s="17">
-        <v>0</v>
+        <v>221</v>
+      </c>
+      <c r="O13" s="15">
+        <v>13</v>
       </c>
       <c r="P13" s="8">
         <v>0</v>
@@ -2090,8 +2051,8 @@
       <c r="Q13" s="8">
         <v>0</v>
       </c>
-      <c r="R13" s="8">
-        <v>0</v>
+      <c r="R13" s="16">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2099,55 +2060,55 @@
         <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="4">
-        <v>-54.6</v>
+        <v>-58.5</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="O14" s="17">
-        <v>1</v>
+        <v>221</v>
+      </c>
+      <c r="O14" s="15">
+        <v>6</v>
       </c>
       <c r="P14" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="8">
         <v>0</v>
       </c>
-      <c r="R14" s="8">
-        <v>0</v>
+      <c r="R14" s="10">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2158,52 +2119,52 @@
         <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L15" s="4">
-        <v>-35</v>
+        <v>-57.5</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O15" s="17">
+        <v>221</v>
+      </c>
+      <c r="O15" s="15">
         <v>3</v>
       </c>
       <c r="P15" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="8">
         <v>0</v>
       </c>
       <c r="R15" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2211,49 +2172,49 @@
         <v>32</v>
       </c>
       <c r="B16" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>84</v>
+        <v>215</v>
       </c>
       <c r="L16" s="4">
-        <v>-49.2</v>
+        <v>-29</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O16" s="17">
-        <v>3</v>
+        <v>222</v>
+      </c>
+      <c r="O16" s="15">
+        <v>2</v>
       </c>
       <c r="P16" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="8">
         <v>0</v>
@@ -2267,49 +2228,49 @@
         <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L17" s="4">
-        <v>-58.5</v>
+        <v>-44</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O17" s="17">
-        <v>8</v>
-      </c>
-      <c r="P17" s="18">
-        <v>5</v>
+        <v>221</v>
+      </c>
+      <c r="O17" s="15">
+        <v>2</v>
+      </c>
+      <c r="P17" s="8">
+        <v>1</v>
       </c>
       <c r="Q17" s="8">
         <v>0</v>
@@ -2323,49 +2284,49 @@
         <v>34</v>
       </c>
       <c r="B18" s="2">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L18" s="4">
-        <v>-57.5</v>
+        <v>-55.8</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O18" s="17">
-        <v>6</v>
-      </c>
-      <c r="P18" s="18">
-        <v>6</v>
+        <v>221</v>
+      </c>
+      <c r="O18" s="15">
+        <v>2</v>
+      </c>
+      <c r="P18" s="8">
+        <v>1</v>
       </c>
       <c r="Q18" s="8">
         <v>0</v>
@@ -2379,46 +2340,46 @@
         <v>35</v>
       </c>
       <c r="B19" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>210</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>213</v>
+        <v>88</v>
       </c>
       <c r="L19" s="4">
-        <v>-29</v>
+        <v>-59</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="O19" s="17">
-        <v>3</v>
+        <v>221</v>
+      </c>
+      <c r="O19" s="15">
+        <v>1</v>
       </c>
       <c r="P19" s="8">
         <v>1</v>
@@ -2427,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2435,55 +2396,55 @@
         <v>36</v>
       </c>
       <c r="B20" s="2">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="L20" s="4">
-        <v>-44</v>
+        <v>-23.2</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="O20" s="17">
-        <v>12</v>
-      </c>
-      <c r="P20" s="19">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="P20" s="18">
+        <v>20</v>
       </c>
       <c r="Q20" s="8">
         <v>0</v>
       </c>
       <c r="R20" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2491,55 +2452,55 @@
         <v>37</v>
       </c>
       <c r="B21" s="2">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L21" s="4">
-        <v>-55.8</v>
+        <v>-38.4</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O21" s="17">
-        <v>16</v>
-      </c>
-      <c r="P21" s="20">
-        <v>16</v>
+        <v>221</v>
+      </c>
+      <c r="O21" s="15">
+        <v>2</v>
+      </c>
+      <c r="P21" s="8">
+        <v>2</v>
       </c>
       <c r="Q21" s="8">
         <v>0</v>
       </c>
       <c r="R21" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2547,55 +2508,55 @@
         <v>38</v>
       </c>
       <c r="B22" s="2">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L22" s="4">
-        <v>-59</v>
+        <v>-51.8</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O22" s="17">
-        <v>16</v>
-      </c>
-      <c r="P22" s="20">
-        <v>16</v>
+        <v>221</v>
+      </c>
+      <c r="O22" s="15">
+        <v>3</v>
+      </c>
+      <c r="P22" s="8">
+        <v>2</v>
       </c>
       <c r="Q22" s="8">
         <v>0</v>
       </c>
       <c r="R22" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2603,49 +2564,49 @@
         <v>39</v>
       </c>
       <c r="B23" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>214</v>
+        <v>92</v>
       </c>
       <c r="L23" s="4">
-        <v>-23.2</v>
+        <v>-58.9</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="O23" s="6">
-        <v>66</v>
-      </c>
-      <c r="P23" s="13">
-        <v>59</v>
+        <v>221</v>
+      </c>
+      <c r="O23" s="15">
+        <v>3</v>
+      </c>
+      <c r="P23" s="8">
+        <v>2</v>
       </c>
       <c r="Q23" s="8">
         <v>0</v>
@@ -2659,49 +2620,49 @@
         <v>40</v>
       </c>
       <c r="B24" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="L24" s="4">
-        <v>-38.5</v>
+        <v>-32.5</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O24" s="6">
-        <v>65</v>
-      </c>
-      <c r="P24" s="12">
-        <v>55</v>
+        <v>221</v>
+      </c>
+      <c r="O24" s="15">
+        <v>0</v>
+      </c>
+      <c r="P24" s="8">
+        <v>0</v>
       </c>
       <c r="Q24" s="8">
         <v>0</v>
@@ -2715,49 +2676,49 @@
         <v>41</v>
       </c>
       <c r="B25" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L25" s="4">
-        <v>-51.8</v>
+        <v>-47.1</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O25" s="21">
-        <v>43</v>
-      </c>
-      <c r="P25" s="22">
-        <v>40</v>
+        <v>221</v>
+      </c>
+      <c r="O25" s="15">
+        <v>1</v>
+      </c>
+      <c r="P25" s="8">
+        <v>1</v>
       </c>
       <c r="Q25" s="8">
         <v>0</v>
@@ -2771,49 +2732,49 @@
         <v>42</v>
       </c>
       <c r="B26" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L26" s="4">
-        <v>-58.9</v>
+        <v>-57.2</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O26" s="21">
-        <v>40</v>
-      </c>
-      <c r="P26" s="22">
-        <v>40</v>
+        <v>221</v>
+      </c>
+      <c r="O26" s="15">
+        <v>2</v>
+      </c>
+      <c r="P26" s="8">
+        <v>2</v>
       </c>
       <c r="Q26" s="8">
         <v>0</v>
@@ -2827,49 +2788,49 @@
         <v>43</v>
       </c>
       <c r="B27" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L27" s="4">
-        <v>-32.5</v>
+        <v>-26.6</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O27" s="21">
-        <v>45</v>
-      </c>
-      <c r="P27" s="23">
-        <v>45</v>
+        <v>223</v>
+      </c>
+      <c r="O27" s="15">
+        <v>6</v>
+      </c>
+      <c r="P27" s="10">
+        <v>5</v>
       </c>
       <c r="Q27" s="8">
         <v>0</v>
@@ -2886,46 +2847,46 @@
         <v>33</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L28" s="4">
-        <v>-47.1</v>
+        <v>-41.7</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O28" s="6">
-        <v>55</v>
-      </c>
-      <c r="P28" s="24">
-        <v>52</v>
+        <v>221</v>
+      </c>
+      <c r="O28" s="15">
+        <v>2</v>
+      </c>
+      <c r="P28" s="8">
+        <v>2</v>
       </c>
       <c r="Q28" s="8">
         <v>0</v>
@@ -2939,49 +2900,49 @@
         <v>45</v>
       </c>
       <c r="B29" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L29" s="4">
-        <v>-57.2</v>
+        <v>-54</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O29" s="6">
-        <v>62</v>
-      </c>
-      <c r="P29" s="12">
-        <v>55</v>
+        <v>221</v>
+      </c>
+      <c r="O29" s="15">
+        <v>1</v>
+      </c>
+      <c r="P29" s="8">
+        <v>1</v>
       </c>
       <c r="Q29" s="8">
         <v>0</v>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="215">
   <si>
     <t>Datum</t>
   </si>
@@ -70,21 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>20260117--01</t>
-  </si>
-  <si>
-    <t>20260117--02</t>
-  </si>
-  <si>
-    <t>20260117--03</t>
-  </si>
-  <si>
-    <t>20260117--04</t>
-  </si>
-  <si>
-    <t>20260117--05</t>
-  </si>
-  <si>
     <t>20260118--01</t>
   </si>
   <si>
@@ -154,57 +139,54 @@
     <t>20260123--03</t>
   </si>
   <si>
-    <t>06:05</t>
-  </si>
-  <si>
-    <t>00:06</t>
+    <t>20260124--01</t>
+  </si>
+  <si>
+    <t>20260124--02</t>
+  </si>
+  <si>
+    <t>20260124--03</t>
+  </si>
+  <si>
+    <t>02:33</t>
+  </si>
+  <si>
+    <t>04:40</t>
+  </si>
+  <si>
+    <t>06:28</t>
+  </si>
+  <si>
+    <t>06:19</t>
+  </si>
+  <si>
+    <t>03:29</t>
+  </si>
+  <si>
+    <t>04:09</t>
+  </si>
+  <si>
+    <t>06:23</t>
+  </si>
+  <si>
+    <t>06:18</t>
+  </si>
+  <si>
+    <t>06:27</t>
+  </si>
+  <si>
+    <t>02:29</t>
+  </si>
+  <si>
+    <t>06:11</t>
+  </si>
+  <si>
+    <t>06:30</t>
   </si>
   <si>
     <t>05:04</t>
   </si>
   <si>
-    <t>06:30</t>
-  </si>
-  <si>
-    <t>06:12</t>
-  </si>
-  <si>
-    <t>02:33</t>
-  </si>
-  <si>
-    <t>04:40</t>
-  </si>
-  <si>
-    <t>06:28</t>
-  </si>
-  <si>
-    <t>06:19</t>
-  </si>
-  <si>
-    <t>03:30</t>
-  </si>
-  <si>
-    <t>04:09</t>
-  </si>
-  <si>
-    <t>06:24</t>
-  </si>
-  <si>
-    <t>03:29</t>
-  </si>
-  <si>
-    <t>06:18</t>
-  </si>
-  <si>
-    <t>06:27</t>
-  </si>
-  <si>
-    <t>02:30</t>
-  </si>
-  <si>
-    <t>06:11</t>
-  </si>
-  <si>
     <t>06:03</t>
   </si>
   <si>
@@ -214,13 +196,16 @@
     <t>05:23</t>
   </si>
   <si>
-    <t>05:53</t>
-  </si>
-  <si>
-    <t>06:33</t>
-  </si>
-  <si>
-    <t>05:38</t>
+    <t>05:52</t>
+  </si>
+  <si>
+    <t>05:39</t>
+  </si>
+  <si>
+    <t>05:40</t>
+  </si>
+  <si>
+    <t>05:51</t>
   </si>
   <si>
     <t>00:00</t>
@@ -229,421 +214,397 @@
     <t>00:48</t>
   </si>
   <si>
-    <t>00:17:59</t>
-  </si>
-  <si>
-    <t>01:56:17</t>
-  </si>
-  <si>
-    <t>20:26:50</t>
-  </si>
-  <si>
-    <t>22:04:01</t>
-  </si>
-  <si>
-    <t>23:41:48</t>
+    <t>02:26</t>
   </si>
   <si>
     <t>01:20:00</t>
   </si>
   <si>
-    <t>19:50:47</t>
-  </si>
-  <si>
-    <t>21:27:51</t>
-  </si>
-  <si>
-    <t>23:05:35</t>
-  </si>
-  <si>
-    <t>00:43:43</t>
-  </si>
-  <si>
-    <t>19:14:42</t>
-  </si>
-  <si>
-    <t>20:51:38</t>
-  </si>
-  <si>
-    <t>22:29:20</t>
-  </si>
-  <si>
-    <t>00:07:24</t>
-  </si>
-  <si>
-    <t>18:38:38</t>
-  </si>
-  <si>
-    <t>20:15:25</t>
-  </si>
-  <si>
-    <t>21:53:03</t>
-  </si>
-  <si>
-    <t>23:31:04</t>
-  </si>
-  <si>
-    <t>18:02:32</t>
-  </si>
-  <si>
-    <t>19:39:09</t>
-  </si>
-  <si>
-    <t>21:16:45</t>
-  </si>
-  <si>
-    <t>22:54:43</t>
-  </si>
-  <si>
-    <t>19:02:53</t>
-  </si>
-  <si>
-    <t>20:40:24</t>
-  </si>
-  <si>
-    <t>22:18:19</t>
-  </si>
-  <si>
-    <t>18:26:34</t>
-  </si>
-  <si>
-    <t>20:04:02</t>
-  </si>
-  <si>
-    <t>21:41:55</t>
-  </si>
-  <si>
-    <t>00:20:21</t>
-  </si>
-  <si>
-    <t>02:00:46</t>
-  </si>
-  <si>
-    <t>20:29:26</t>
-  </si>
-  <si>
-    <t>22:06:18</t>
-  </si>
-  <si>
-    <t>23:44:09</t>
-  </si>
-  <si>
-    <t>01:23:24</t>
-  </si>
-  <si>
-    <t>19:53:29</t>
-  </si>
-  <si>
-    <t>21:30:08</t>
-  </si>
-  <si>
-    <t>23:07:54</t>
-  </si>
-  <si>
-    <t>00:46:47</t>
-  </si>
-  <si>
-    <t>19:17:33</t>
-  </si>
-  <si>
-    <t>20:53:56</t>
-  </si>
-  <si>
-    <t>22:31:38</t>
-  </si>
-  <si>
-    <t>00:10:16</t>
-  </si>
-  <si>
-    <t>18:41:41</t>
-  </si>
-  <si>
-    <t>20:17:44</t>
-  </si>
-  <si>
-    <t>21:55:21</t>
-  </si>
-  <si>
-    <t>23:33:47</t>
-  </si>
-  <si>
-    <t>18:05:56</t>
-  </si>
-  <si>
-    <t>19:41:30</t>
-  </si>
-  <si>
-    <t>21:19:02</t>
-  </si>
-  <si>
-    <t>22:57:19</t>
-  </si>
-  <si>
-    <t>19:05:15</t>
-  </si>
-  <si>
-    <t>20:42:41</t>
-  </si>
-  <si>
-    <t>22:20:51</t>
-  </si>
-  <si>
-    <t>18:28:59</t>
-  </si>
-  <si>
-    <t>20:06:18</t>
-  </si>
-  <si>
-    <t>21:44:23</t>
-  </si>
-  <si>
-    <t>00:23:24</t>
-  </si>
-  <si>
-    <t>20:31:58</t>
-  </si>
-  <si>
-    <t>22:09:33</t>
-  </si>
-  <si>
-    <t>23:47:15</t>
-  </si>
-  <si>
-    <t>01:24:40</t>
-  </si>
-  <si>
-    <t>19:55:49</t>
-  </si>
-  <si>
-    <t>21:33:22</t>
-  </si>
-  <si>
-    <t>23:11:04</t>
-  </si>
-  <si>
-    <t>00:48:32</t>
-  </si>
-  <si>
-    <t>19:19:38</t>
-  </si>
-  <si>
-    <t>20:57:08</t>
-  </si>
-  <si>
-    <t>22:34:50</t>
-  </si>
-  <si>
-    <t>00:12:21</t>
-  </si>
-  <si>
-    <t>18:43:25</t>
-  </si>
-  <si>
-    <t>20:20:53</t>
-  </si>
-  <si>
-    <t>21:58:35</t>
-  </si>
-  <si>
-    <t>23:36:07</t>
-  </si>
-  <si>
-    <t>18:07:11</t>
-  </si>
-  <si>
-    <t>19:44:35</t>
-  </si>
-  <si>
-    <t>21:22:17</t>
-  </si>
-  <si>
-    <t>22:59:51</t>
-  </si>
-  <si>
-    <t>19:08:16</t>
-  </si>
-  <si>
-    <t>20:45:57</t>
-  </si>
-  <si>
-    <t>22:23:33</t>
-  </si>
-  <si>
-    <t>18:31:55</t>
-  </si>
-  <si>
-    <t>20:09:34</t>
-  </si>
-  <si>
-    <t>21:47:12</t>
-  </si>
-  <si>
-    <t>00:26:26</t>
-  </si>
-  <si>
-    <t>02:00:52</t>
-  </si>
-  <si>
-    <t>20:34:30</t>
-  </si>
-  <si>
-    <t>22:12:48</t>
-  </si>
-  <si>
-    <t>23:50:21</t>
-  </si>
-  <si>
-    <t>01:25:57</t>
-  </si>
-  <si>
-    <t>19:58:09</t>
-  </si>
-  <si>
-    <t>21:36:36</t>
-  </si>
-  <si>
-    <t>23:14:13</t>
-  </si>
-  <si>
-    <t>00:50:17</t>
-  </si>
-  <si>
-    <t>19:21:42</t>
-  </si>
-  <si>
-    <t>21:00:20</t>
-  </si>
-  <si>
-    <t>22:38:02</t>
-  </si>
-  <si>
-    <t>00:14:25</t>
-  </si>
-  <si>
-    <t>18:45:10</t>
-  </si>
-  <si>
-    <t>20:24:02</t>
-  </si>
-  <si>
-    <t>22:01:48</t>
-  </si>
-  <si>
-    <t>23:38:27</t>
-  </si>
-  <si>
-    <t>18:08:26</t>
-  </si>
-  <si>
-    <t>19:47:41</t>
-  </si>
-  <si>
-    <t>21:25:32</t>
-  </si>
-  <si>
-    <t>23:02:23</t>
-  </si>
-  <si>
-    <t>19:11:18</t>
-  </si>
-  <si>
-    <t>20:49:13</t>
-  </si>
-  <si>
-    <t>22:26:14</t>
-  </si>
-  <si>
-    <t>18:34:52</t>
-  </si>
-  <si>
-    <t>20:12:51</t>
-  </si>
-  <si>
-    <t>21:50:01</t>
-  </si>
-  <si>
-    <t>00:28:48</t>
-  </si>
-  <si>
-    <t>02:05:15</t>
-  </si>
-  <si>
-    <t>20:37:07</t>
-  </si>
-  <si>
-    <t>22:15:05</t>
-  </si>
-  <si>
-    <t>23:52:42</t>
+    <t>19:50:45</t>
+  </si>
+  <si>
+    <t>21:27:49</t>
+  </si>
+  <si>
+    <t>23:05:33</t>
+  </si>
+  <si>
+    <t>00:43:41</t>
+  </si>
+  <si>
+    <t>19:14:39</t>
+  </si>
+  <si>
+    <t>20:51:35</t>
+  </si>
+  <si>
+    <t>22:29:16</t>
+  </si>
+  <si>
+    <t>00:07:20</t>
+  </si>
+  <si>
+    <t>18:38:32</t>
+  </si>
+  <si>
+    <t>20:15:19</t>
+  </si>
+  <si>
+    <t>21:52:57</t>
+  </si>
+  <si>
+    <t>23:30:58</t>
+  </si>
+  <si>
+    <t>18:02:24</t>
+  </si>
+  <si>
+    <t>19:39:01</t>
+  </si>
+  <si>
+    <t>21:16:36</t>
+  </si>
+  <si>
+    <t>22:54:33</t>
+  </si>
+  <si>
+    <t>19:02:41</t>
+  </si>
+  <si>
+    <t>20:40:12</t>
+  </si>
+  <si>
+    <t>22:18:07</t>
+  </si>
+  <si>
+    <t>18:26:18</t>
+  </si>
+  <si>
+    <t>20:03:46</t>
+  </si>
+  <si>
+    <t>21:41:38</t>
+  </si>
+  <si>
+    <t>17:49:55</t>
+  </si>
+  <si>
+    <t>19:27:17</t>
+  </si>
+  <si>
+    <t>21:05:07</t>
+  </si>
+  <si>
+    <t>01:23:23</t>
+  </si>
+  <si>
+    <t>19:53:27</t>
+  </si>
+  <si>
+    <t>21:30:06</t>
+  </si>
+  <si>
+    <t>23:07:52</t>
+  </si>
+  <si>
+    <t>00:46:45</t>
+  </si>
+  <si>
+    <t>19:17:30</t>
+  </si>
+  <si>
+    <t>20:53:53</t>
+  </si>
+  <si>
+    <t>22:31:35</t>
+  </si>
+  <si>
+    <t>00:10:12</t>
+  </si>
+  <si>
+    <t>18:41:35</t>
+  </si>
+  <si>
+    <t>20:17:38</t>
+  </si>
+  <si>
+    <t>21:55:15</t>
+  </si>
+  <si>
+    <t>23:33:41</t>
+  </si>
+  <si>
+    <t>18:05:48</t>
+  </si>
+  <si>
+    <t>19:41:21</t>
+  </si>
+  <si>
+    <t>21:18:53</t>
+  </si>
+  <si>
+    <t>22:57:10</t>
+  </si>
+  <si>
+    <t>19:05:03</t>
+  </si>
+  <si>
+    <t>20:42:28</t>
+  </si>
+  <si>
+    <t>22:20:39</t>
+  </si>
+  <si>
+    <t>18:28:43</t>
+  </si>
+  <si>
+    <t>20:06:02</t>
+  </si>
+  <si>
+    <t>21:44:06</t>
+  </si>
+  <si>
+    <t>17:52:22</t>
+  </si>
+  <si>
+    <t>19:29:33</t>
+  </si>
+  <si>
+    <t>21:07:32</t>
+  </si>
+  <si>
+    <t>01:24:39</t>
+  </si>
+  <si>
+    <t>19:55:47</t>
+  </si>
+  <si>
+    <t>21:33:20</t>
+  </si>
+  <si>
+    <t>23:11:02</t>
+  </si>
+  <si>
+    <t>00:48:30</t>
+  </si>
+  <si>
+    <t>19:19:34</t>
+  </si>
+  <si>
+    <t>20:57:04</t>
+  </si>
+  <si>
+    <t>22:34:47</t>
+  </si>
+  <si>
+    <t>00:12:17</t>
+  </si>
+  <si>
+    <t>18:43:19</t>
+  </si>
+  <si>
+    <t>20:20:47</t>
+  </si>
+  <si>
+    <t>21:58:29</t>
+  </si>
+  <si>
+    <t>23:36:01</t>
+  </si>
+  <si>
+    <t>18:07:02</t>
+  </si>
+  <si>
+    <t>19:44:27</t>
+  </si>
+  <si>
+    <t>21:22:08</t>
+  </si>
+  <si>
+    <t>22:59:42</t>
+  </si>
+  <si>
+    <t>19:08:04</t>
+  </si>
+  <si>
+    <t>20:45:44</t>
+  </si>
+  <si>
+    <t>22:23:20</t>
+  </si>
+  <si>
+    <t>18:31:39</t>
+  </si>
+  <si>
+    <t>20:09:18</t>
+  </si>
+  <si>
+    <t>21:46:56</t>
+  </si>
+  <si>
+    <t>17:55:11</t>
+  </si>
+  <si>
+    <t>19:32:49</t>
+  </si>
+  <si>
+    <t>21:10:28</t>
+  </si>
+  <si>
+    <t>01:25:56</t>
+  </si>
+  <si>
+    <t>19:58:07</t>
+  </si>
+  <si>
+    <t>21:36:34</t>
+  </si>
+  <si>
+    <t>23:14:11</t>
+  </si>
+  <si>
+    <t>00:50:14</t>
+  </si>
+  <si>
+    <t>19:21:39</t>
+  </si>
+  <si>
+    <t>21:00:16</t>
+  </si>
+  <si>
+    <t>22:37:58</t>
+  </si>
+  <si>
+    <t>00:14:21</t>
+  </si>
+  <si>
+    <t>18:45:04</t>
+  </si>
+  <si>
+    <t>20:23:56</t>
+  </si>
+  <si>
+    <t>22:01:42</t>
+  </si>
+  <si>
+    <t>23:38:21</t>
+  </si>
+  <si>
+    <t>18:08:17</t>
+  </si>
+  <si>
+    <t>19:47:32</t>
+  </si>
+  <si>
+    <t>21:25:23</t>
+  </si>
+  <si>
+    <t>23:02:14</t>
+  </si>
+  <si>
+    <t>19:11:06</t>
+  </si>
+  <si>
+    <t>20:49:00</t>
+  </si>
+  <si>
+    <t>22:26:02</t>
+  </si>
+  <si>
+    <t>18:34:35</t>
+  </si>
+  <si>
+    <t>20:12:34</t>
+  </si>
+  <si>
+    <t>21:49:45</t>
+  </si>
+  <si>
+    <t>17:58:02</t>
+  </si>
+  <si>
+    <t>19:36:05</t>
+  </si>
+  <si>
+    <t>21:13:23</t>
   </si>
   <si>
     <t>01:29:19</t>
   </si>
   <si>
-    <t>20:00:52</t>
-  </si>
-  <si>
-    <t>21:38:53</t>
-  </si>
-  <si>
-    <t>23:16:32</t>
-  </si>
-  <si>
-    <t>00:53:20</t>
-  </si>
-  <si>
-    <t>19:24:34</t>
-  </si>
-  <si>
-    <t>21:02:38</t>
-  </si>
-  <si>
-    <t>22:40:20</t>
-  </si>
-  <si>
-    <t>00:17:16</t>
-  </si>
-  <si>
-    <t>18:48:14</t>
-  </si>
-  <si>
-    <t>20:26:21</t>
-  </si>
-  <si>
-    <t>22:04:06</t>
-  </si>
-  <si>
-    <t>23:41:09</t>
-  </si>
-  <si>
-    <t>18:11:50</t>
-  </si>
-  <si>
-    <t>19:50:02</t>
-  </si>
-  <si>
-    <t>21:27:49</t>
-  </si>
-  <si>
-    <t>23:04:59</t>
-  </si>
-  <si>
-    <t>19:13:40</t>
-  </si>
-  <si>
-    <t>20:51:29</t>
-  </si>
-  <si>
-    <t>22:28:46</t>
-  </si>
-  <si>
-    <t>18:37:16</t>
-  </si>
-  <si>
-    <t>20:15:07</t>
-  </si>
-  <si>
-    <t>21:52:29</t>
+    <t>20:00:50</t>
+  </si>
+  <si>
+    <t>21:38:51</t>
+  </si>
+  <si>
+    <t>23:16:30</t>
+  </si>
+  <si>
+    <t>00:53:18</t>
+  </si>
+  <si>
+    <t>19:24:31</t>
+  </si>
+  <si>
+    <t>21:02:35</t>
+  </si>
+  <si>
+    <t>22:40:16</t>
+  </si>
+  <si>
+    <t>00:17:12</t>
+  </si>
+  <si>
+    <t>18:48:08</t>
+  </si>
+  <si>
+    <t>20:26:15</t>
+  </si>
+  <si>
+    <t>22:03:59</t>
+  </si>
+  <si>
+    <t>23:41:03</t>
+  </si>
+  <si>
+    <t>18:11:41</t>
+  </si>
+  <si>
+    <t>19:49:53</t>
+  </si>
+  <si>
+    <t>21:27:39</t>
+  </si>
+  <si>
+    <t>23:04:50</t>
+  </si>
+  <si>
+    <t>19:13:28</t>
+  </si>
+  <si>
+    <t>20:51:16</t>
+  </si>
+  <si>
+    <t>22:28:33</t>
+  </si>
+  <si>
+    <t>18:37:00</t>
+  </si>
+  <si>
+    <t>20:14:50</t>
+  </si>
+  <si>
+    <t>21:52:12</t>
+  </si>
+  <si>
+    <t>18:00:29</t>
+  </si>
+  <si>
+    <t>19:38:22</t>
+  </si>
+  <si>
+    <t>21:15:48</t>
   </si>
   <si>
     <t>0°</t>
@@ -661,16 +622,28 @@
     <t>14°</t>
   </si>
   <si>
-    <t>18:39:30</t>
-  </si>
-  <si>
-    <t>18:05:07</t>
-  </si>
-  <si>
-    <t>19:04:21</t>
-  </si>
-  <si>
-    <t>18:29:47</t>
+    <t>22°</t>
+  </si>
+  <si>
+    <t>5°</t>
+  </si>
+  <si>
+    <t>18:39:24</t>
+  </si>
+  <si>
+    <t>18:04:59</t>
+  </si>
+  <si>
+    <t>19:04:09</t>
+  </si>
+  <si>
+    <t>18:29:31</t>
+  </si>
+  <si>
+    <t>17:54:48</t>
+  </si>
+  <si>
+    <t>19:28:29</t>
   </si>
   <si>
     <t>B</t>
@@ -679,10 +652,10 @@
     <t>A+B</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>2</t>
@@ -719,7 +692,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -740,7 +713,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFAAC5E3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,37 +725,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAAC5E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF5E92CB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6F9FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6EEF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4E2F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA2C0E1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,19 +737,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF0B070"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99BADE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88AED8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80A9D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D7EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBD1E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF6E9DD0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0B070"/>
+        <fgColor rgb="FF77A3D3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF77A3D3"/>
+        <fgColor rgb="FF6697CD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -901,6 +886,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1304,7 +1295,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1388,55 +1379,55 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="4">
+        <v>-50.6</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" s="4">
-        <v>-57.2</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="O2" s="6">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P2" s="7">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="8">
         <v>0</v>
       </c>
       <c r="R2" s="9">
-        <v>51</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1444,55 +1435,55 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="4">
+        <v>-40.8</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" s="4">
-        <v>-45.9</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="O3" s="6">
-        <v>100</v>
-      </c>
-      <c r="P3" s="7">
-        <v>100</v>
+        <v>213</v>
+      </c>
+      <c r="O3" s="10">
+        <v>1</v>
+      </c>
+      <c r="P3" s="8">
+        <v>0</v>
       </c>
       <c r="Q3" s="8">
         <v>0</v>
       </c>
-      <c r="R3" s="10">
-        <v>4</v>
+      <c r="R3" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1500,55 +1491,55 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="4">
+        <v>-53.7</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" s="4">
-        <v>-46.2</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O4" s="6">
-        <v>96</v>
-      </c>
-      <c r="P4" s="11">
-        <v>95</v>
+        <v>213</v>
+      </c>
+      <c r="O4" s="10">
+        <v>1</v>
+      </c>
+      <c r="P4" s="8">
+        <v>0</v>
       </c>
       <c r="Q4" s="8">
         <v>0</v>
       </c>
       <c r="R4" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1556,55 +1547,55 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="4">
+        <v>-59.7</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="4">
-        <v>-57.3</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="N5" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O5" s="6">
-        <v>88</v>
-      </c>
-      <c r="P5" s="12">
-        <v>85</v>
+        <v>213</v>
+      </c>
+      <c r="O5" s="10">
+        <v>1</v>
+      </c>
+      <c r="P5" s="8">
+        <v>0</v>
       </c>
       <c r="Q5" s="8">
         <v>0</v>
       </c>
-      <c r="R5" s="10">
-        <v>3</v>
+      <c r="R5" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1612,55 +1603,55 @@
         <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="4">
+        <v>-54.6</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" s="4">
-        <v>-59.3</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="N6" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O6" s="6">
-        <v>75</v>
-      </c>
-      <c r="P6" s="13">
-        <v>75</v>
+        <v>212</v>
+      </c>
+      <c r="O6" s="10">
+        <v>1</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0</v>
       </c>
       <c r="Q6" s="8">
         <v>0</v>
       </c>
-      <c r="R6" s="10">
-        <v>4</v>
+      <c r="R6" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1668,55 +1659,55 @@
         <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="J7" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="4">
+        <v>-35</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7" s="4">
-        <v>-50.6</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="N7" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="O7" s="6">
-        <v>52</v>
-      </c>
-      <c r="P7" s="14">
-        <v>43</v>
+        <v>213</v>
+      </c>
+      <c r="O7" s="10">
+        <v>2</v>
+      </c>
+      <c r="P7" s="8">
+        <v>1</v>
       </c>
       <c r="Q7" s="8">
         <v>0</v>
       </c>
       <c r="R7" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1724,55 +1715,55 @@
         <v>24</v>
       </c>
       <c r="B8" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="4">
+        <v>-49.2</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L8" s="4">
-        <v>-40.8</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="N8" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O8" s="15">
+        <v>213</v>
+      </c>
+      <c r="O8" s="10">
+        <v>2</v>
+      </c>
+      <c r="P8" s="8">
         <v>1</v>
       </c>
-      <c r="P8" s="8">
-        <v>0</v>
-      </c>
       <c r="Q8" s="8">
         <v>0</v>
       </c>
       <c r="R8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1780,55 +1771,55 @@
         <v>25</v>
       </c>
       <c r="B9" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="4">
+        <v>-58.5</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="4">
-        <v>-53.7</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="N9" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O9" s="15">
+        <v>213</v>
+      </c>
+      <c r="O9" s="10">
+        <v>3</v>
+      </c>
+      <c r="P9" s="8">
         <v>1</v>
       </c>
-      <c r="P9" s="8">
-        <v>0</v>
-      </c>
       <c r="Q9" s="8">
         <v>0</v>
       </c>
       <c r="R9" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1836,46 +1827,46 @@
         <v>26</v>
       </c>
       <c r="B10" s="2">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="J10" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="4">
+        <v>-57.5</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L10" s="4">
-        <v>-59.7</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="N10" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O10" s="15">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="O10" s="10">
+        <v>3</v>
       </c>
       <c r="P10" s="8">
         <v>0</v>
@@ -1884,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1895,52 +1886,52 @@
         <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="J11" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L11" s="4">
+        <v>-29</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" s="4">
-        <v>-54.6</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="N11" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="O11" s="15">
+        <v>212</v>
+      </c>
+      <c r="O11" s="10">
         <v>1</v>
       </c>
       <c r="P11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="8">
         <v>0</v>
       </c>
       <c r="R11" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1948,55 +1939,55 @@
         <v>28</v>
       </c>
       <c r="B12" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="J12" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="4">
+        <v>-44</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L12" s="4">
-        <v>-35</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="N12" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O12" s="15">
-        <v>3</v>
+        <v>213</v>
+      </c>
+      <c r="O12" s="10">
+        <v>1</v>
       </c>
       <c r="P12" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="8">
         <v>0</v>
       </c>
-      <c r="R12" s="10">
-        <v>3</v>
+      <c r="R12" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2004,55 +1995,55 @@
         <v>29</v>
       </c>
       <c r="B13" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="J13" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="4">
+        <v>-55.7</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" s="4">
-        <v>-49.2</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="N13" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O13" s="15">
-        <v>13</v>
+        <v>213</v>
+      </c>
+      <c r="O13" s="10">
+        <v>2</v>
       </c>
       <c r="P13" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="8">
         <v>0</v>
       </c>
-      <c r="R13" s="16">
-        <v>13</v>
+      <c r="R13" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2060,55 +2051,55 @@
         <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="J14" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="4">
+        <v>-59.1</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="4">
-        <v>-58.5</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="N14" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O14" s="15">
-        <v>6</v>
+        <v>213</v>
+      </c>
+      <c r="O14" s="10">
+        <v>2</v>
       </c>
       <c r="P14" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="8">
         <v>0</v>
       </c>
-      <c r="R14" s="10">
-        <v>5</v>
+      <c r="R14" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2116,49 +2107,49 @@
         <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L15" s="4">
+        <v>-23.1</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L15" s="4">
-        <v>-57.5</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="N15" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O15" s="15">
-        <v>3</v>
+        <v>212</v>
+      </c>
+      <c r="O15" s="10">
+        <v>4</v>
       </c>
       <c r="P15" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="8">
         <v>0</v>
@@ -2172,55 +2163,55 @@
         <v>32</v>
       </c>
       <c r="B16" s="2">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="L16" s="4">
-        <v>-29</v>
+        <v>-38.4</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="O16" s="15">
-        <v>2</v>
+        <v>213</v>
+      </c>
+      <c r="O16" s="10">
+        <v>3</v>
       </c>
       <c r="P16" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="8">
         <v>0</v>
       </c>
       <c r="R16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2228,46 +2219,46 @@
         <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="4">
+        <v>-51.8</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L17" s="4">
-        <v>-44</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="N17" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O17" s="15">
-        <v>2</v>
+        <v>213</v>
+      </c>
+      <c r="O17" s="10">
+        <v>4</v>
       </c>
       <c r="P17" s="8">
         <v>1</v>
@@ -2284,46 +2275,46 @@
         <v>34</v>
       </c>
       <c r="B18" s="2">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="J18" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="4">
+        <v>-58.9</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L18" s="4">
-        <v>-55.8</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="N18" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O18" s="15">
-        <v>2</v>
+        <v>213</v>
+      </c>
+      <c r="O18" s="10">
+        <v>6</v>
       </c>
       <c r="P18" s="8">
         <v>1</v>
@@ -2340,52 +2331,52 @@
         <v>35</v>
       </c>
       <c r="B19" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="J19" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L19" s="4">
+        <v>-32.5</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L19" s="4">
-        <v>-59</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="N19" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O19" s="15">
+        <v>213</v>
+      </c>
+      <c r="O19" s="11">
+        <v>39</v>
+      </c>
+      <c r="P19" s="12">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="8">
         <v>1</v>
-      </c>
-      <c r="P19" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="8">
-        <v>0</v>
       </c>
       <c r="R19" s="8">
         <v>0</v>
@@ -2396,49 +2387,49 @@
         <v>36</v>
       </c>
       <c r="B20" s="2">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>216</v>
+        <v>85</v>
       </c>
       <c r="L20" s="4">
-        <v>-23.2</v>
+        <v>-47</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="O20" s="17">
-        <v>20</v>
-      </c>
-      <c r="P20" s="18">
-        <v>20</v>
+        <v>213</v>
+      </c>
+      <c r="O20" s="11">
+        <v>28</v>
+      </c>
+      <c r="P20" s="13">
+        <v>28</v>
       </c>
       <c r="Q20" s="8">
         <v>0</v>
@@ -2452,49 +2443,49 @@
         <v>37</v>
       </c>
       <c r="B21" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="J21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L21" s="4">
+        <v>-57.1</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L21" s="4">
-        <v>-38.4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="N21" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O21" s="15">
-        <v>2</v>
-      </c>
-      <c r="P21" s="8">
-        <v>2</v>
+        <v>213</v>
+      </c>
+      <c r="O21" s="11">
+        <v>26</v>
+      </c>
+      <c r="P21" s="14">
+        <v>26</v>
       </c>
       <c r="Q21" s="8">
         <v>0</v>
@@ -2508,49 +2499,49 @@
         <v>38</v>
       </c>
       <c r="B22" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="L22" s="4">
-        <v>-51.8</v>
+        <v>-26.6</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O22" s="15">
-        <v>3</v>
-      </c>
-      <c r="P22" s="8">
-        <v>2</v>
+        <v>214</v>
+      </c>
+      <c r="O22" s="6">
+        <v>84</v>
+      </c>
+      <c r="P22" s="15">
+        <v>78</v>
       </c>
       <c r="Q22" s="8">
         <v>0</v>
@@ -2564,52 +2555,52 @@
         <v>39</v>
       </c>
       <c r="B23" s="2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="J23" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L23" s="4">
+        <v>-41.7</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L23" s="4">
-        <v>-58.9</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="N23" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O23" s="15">
-        <v>3</v>
-      </c>
-      <c r="P23" s="8">
-        <v>2</v>
+        <v>213</v>
+      </c>
+      <c r="O23" s="6">
+        <v>75</v>
+      </c>
+      <c r="P23" s="16">
+        <v>67</v>
       </c>
       <c r="Q23" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="8">
         <v>0</v>
@@ -2620,52 +2611,52 @@
         <v>40</v>
       </c>
       <c r="B24" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L24" s="4">
+        <v>-54</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="O24" s="6">
         <v>69</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="L24" s="4">
-        <v>-32.5</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O24" s="15">
-        <v>0</v>
-      </c>
-      <c r="P24" s="8">
-        <v>0</v>
+      <c r="P24" s="17">
+        <v>62</v>
       </c>
       <c r="Q24" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R24" s="8">
         <v>0</v>
@@ -2676,55 +2667,55 @@
         <v>41</v>
       </c>
       <c r="B25" s="2">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>94</v>
+        <v>208</v>
       </c>
       <c r="L25" s="4">
-        <v>-47.1</v>
+        <v>-20.7</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O25" s="15">
-        <v>1</v>
-      </c>
-      <c r="P25" s="8">
-        <v>1</v>
+        <v>214</v>
+      </c>
+      <c r="O25" s="11">
+        <v>46</v>
+      </c>
+      <c r="P25" s="18">
+        <v>16</v>
       </c>
       <c r="Q25" s="8">
-        <v>0</v>
-      </c>
-      <c r="R25" s="8">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="R25" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2732,55 +2723,55 @@
         <v>42</v>
       </c>
       <c r="B26" s="2">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="J26" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="L26" s="4">
+        <v>-35.9</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L26" s="4">
-        <v>-57.2</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="N26" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O26" s="15">
-        <v>2</v>
-      </c>
-      <c r="P26" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="8">
-        <v>0</v>
-      </c>
-      <c r="R26" s="8">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="O26" s="11">
+        <v>35</v>
+      </c>
+      <c r="P26" s="19">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>3</v>
+      </c>
+      <c r="R26" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2791,223 +2782,111 @@
         <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>218</v>
+        <v>92</v>
       </c>
       <c r="L27" s="4">
-        <v>-26.6</v>
+        <v>-49.7</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="O27" s="15">
-        <v>6</v>
-      </c>
-      <c r="P27" s="10">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="8">
-        <v>0</v>
-      </c>
-      <c r="R27" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="2">
-        <v>33</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L28" s="4">
-        <v>-41.7</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O28" s="15">
-        <v>2</v>
-      </c>
-      <c r="P28" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="8">
-        <v>0</v>
-      </c>
-      <c r="R28" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="2">
-        <v>22</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L29" s="4">
-        <v>-54</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O29" s="15">
-        <v>1</v>
-      </c>
-      <c r="P29" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="8">
-        <v>0</v>
-      </c>
-      <c r="R29" s="8">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="O27" s="11">
+        <v>20</v>
+      </c>
+      <c r="P27" s="19">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>4</v>
+      </c>
+      <c r="R27" s="20">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A29">
+  <conditionalFormatting sqref="A2:A27">
     <cfRule type="expression" dxfId="8" priority="9">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B29">
+  <conditionalFormatting sqref="B2:B27">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C29">
+  <conditionalFormatting sqref="C2:C27">
     <cfRule type="expression" dxfId="9" priority="11">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D29">
+  <conditionalFormatting sqref="D2:D27">
     <cfRule type="expression" dxfId="8" priority="12">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E2:E27">
     <cfRule type="expression" dxfId="9" priority="13">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F29">
+  <conditionalFormatting sqref="F2:F27">
     <cfRule type="expression" dxfId="9" priority="14">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G29">
+  <conditionalFormatting sqref="G2:G27">
     <cfRule type="expression" dxfId="9" priority="15">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H29">
+  <conditionalFormatting sqref="H2:H27">
     <cfRule type="expression" dxfId="9" priority="16">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I29">
+  <conditionalFormatting sqref="I2:I27">
     <cfRule type="expression" dxfId="8" priority="17">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J29">
+  <conditionalFormatting sqref="J2:J27">
     <cfRule type="expression" dxfId="9" priority="18">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K29">
+  <conditionalFormatting sqref="K2:K27">
     <cfRule type="expression" dxfId="8" priority="19">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L29">
+  <conditionalFormatting sqref="L2:L27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -3026,12 +2905,12 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M29">
+  <conditionalFormatting sqref="M2:M27">
     <cfRule type="expression" dxfId="9" priority="21">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N29">
+  <conditionalFormatting sqref="N2:N27">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>
@@ -3048,22 +2927,22 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O29">
+  <conditionalFormatting sqref="O2:O27">
     <cfRule type="expression" dxfId="9" priority="23">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P29">
+  <conditionalFormatting sqref="P2:P27">
     <cfRule type="expression" dxfId="9" priority="24">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q29">
+  <conditionalFormatting sqref="Q2:Q27">
     <cfRule type="expression" dxfId="9" priority="25">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R29">
+  <conditionalFormatting sqref="R2:R27">
     <cfRule type="expression" dxfId="9" priority="26">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="214">
   <si>
     <t>Datum</t>
   </si>
@@ -70,18 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>20260118--01</t>
-  </si>
-  <si>
-    <t>20260118--02</t>
-  </si>
-  <si>
-    <t>20260118--03</t>
-  </si>
-  <si>
-    <t>20260118--04</t>
-  </si>
-  <si>
     <t>20260119--01</t>
   </si>
   <si>
@@ -148,34 +136,37 @@
     <t>20260124--03</t>
   </si>
   <si>
-    <t>02:33</t>
+    <t>20260125--01</t>
+  </si>
+  <si>
+    <t>20260125--02</t>
+  </si>
+  <si>
+    <t>20260125--03</t>
+  </si>
+  <si>
+    <t>03:30</t>
+  </si>
+  <si>
+    <t>04:09</t>
+  </si>
+  <si>
+    <t>06:23</t>
+  </si>
+  <si>
+    <t>03:28</t>
+  </si>
+  <si>
+    <t>06:18</t>
+  </si>
+  <si>
+    <t>06:28</t>
   </si>
   <si>
     <t>04:40</t>
   </si>
   <si>
-    <t>06:28</t>
-  </si>
-  <si>
-    <t>06:19</t>
-  </si>
-  <si>
-    <t>03:29</t>
-  </si>
-  <si>
-    <t>04:09</t>
-  </si>
-  <si>
-    <t>06:23</t>
-  </si>
-  <si>
-    <t>06:18</t>
-  </si>
-  <si>
-    <t>06:27</t>
-  </si>
-  <si>
-    <t>02:29</t>
+    <t>02:28</t>
   </si>
   <si>
     <t>06:11</t>
@@ -208,403 +199,400 @@
     <t>05:51</t>
   </si>
   <si>
+    <t>05:24</t>
+  </si>
+  <si>
+    <t>06:01</t>
+  </si>
+  <si>
     <t>00:00</t>
   </si>
   <si>
-    <t>00:48</t>
+    <t>00:49</t>
   </si>
   <si>
     <t>02:26</t>
   </si>
   <si>
-    <t>01:20:00</t>
-  </si>
-  <si>
-    <t>19:50:45</t>
-  </si>
-  <si>
-    <t>21:27:49</t>
-  </si>
-  <si>
-    <t>23:05:33</t>
-  </si>
-  <si>
-    <t>00:43:41</t>
-  </si>
-  <si>
-    <t>19:14:39</t>
-  </si>
-  <si>
-    <t>20:51:35</t>
+    <t>04:00</t>
+  </si>
+  <si>
+    <t>00:39</t>
+  </si>
+  <si>
+    <t>00:43:40</t>
+  </si>
+  <si>
+    <t>19:14:38</t>
+  </si>
+  <si>
+    <t>20:51:34</t>
   </si>
   <si>
     <t>22:29:16</t>
   </si>
   <si>
-    <t>00:07:20</t>
-  </si>
-  <si>
-    <t>18:38:32</t>
-  </si>
-  <si>
-    <t>20:15:19</t>
-  </si>
-  <si>
-    <t>21:52:57</t>
-  </si>
-  <si>
-    <t>23:30:58</t>
-  </si>
-  <si>
-    <t>18:02:24</t>
-  </si>
-  <si>
-    <t>19:39:01</t>
-  </si>
-  <si>
-    <t>21:16:36</t>
-  </si>
-  <si>
-    <t>22:54:33</t>
-  </si>
-  <si>
-    <t>19:02:41</t>
-  </si>
-  <si>
-    <t>20:40:12</t>
-  </si>
-  <si>
-    <t>22:18:07</t>
-  </si>
-  <si>
-    <t>18:26:18</t>
-  </si>
-  <si>
-    <t>20:03:46</t>
-  </si>
-  <si>
-    <t>21:41:38</t>
-  </si>
-  <si>
-    <t>17:49:55</t>
-  </si>
-  <si>
-    <t>19:27:17</t>
-  </si>
-  <si>
-    <t>21:05:07</t>
-  </si>
-  <si>
-    <t>01:23:23</t>
-  </si>
-  <si>
-    <t>19:53:27</t>
-  </si>
-  <si>
-    <t>21:30:06</t>
-  </si>
-  <si>
-    <t>23:07:52</t>
-  </si>
-  <si>
-    <t>00:46:45</t>
-  </si>
-  <si>
-    <t>19:17:30</t>
-  </si>
-  <si>
-    <t>20:53:53</t>
-  </si>
-  <si>
-    <t>22:31:35</t>
-  </si>
-  <si>
-    <t>00:10:12</t>
-  </si>
-  <si>
-    <t>18:41:35</t>
-  </si>
-  <si>
-    <t>20:17:38</t>
-  </si>
-  <si>
-    <t>21:55:15</t>
-  </si>
-  <si>
-    <t>23:33:41</t>
-  </si>
-  <si>
-    <t>18:05:48</t>
-  </si>
-  <si>
-    <t>19:41:21</t>
-  </si>
-  <si>
-    <t>21:18:53</t>
-  </si>
-  <si>
-    <t>22:57:10</t>
-  </si>
-  <si>
-    <t>19:05:03</t>
-  </si>
-  <si>
-    <t>20:42:28</t>
-  </si>
-  <si>
-    <t>22:20:39</t>
-  </si>
-  <si>
-    <t>18:28:43</t>
-  </si>
-  <si>
-    <t>20:06:02</t>
-  </si>
-  <si>
-    <t>21:44:06</t>
-  </si>
-  <si>
-    <t>17:52:22</t>
-  </si>
-  <si>
-    <t>19:29:33</t>
-  </si>
-  <si>
-    <t>21:07:32</t>
-  </si>
-  <si>
-    <t>01:24:39</t>
-  </si>
-  <si>
-    <t>19:55:47</t>
-  </si>
-  <si>
-    <t>21:33:20</t>
-  </si>
-  <si>
-    <t>23:11:02</t>
-  </si>
-  <si>
-    <t>00:48:30</t>
-  </si>
-  <si>
-    <t>19:19:34</t>
+    <t>00:07:19</t>
+  </si>
+  <si>
+    <t>18:38:31</t>
+  </si>
+  <si>
+    <t>20:15:17</t>
+  </si>
+  <si>
+    <t>21:52:56</t>
+  </si>
+  <si>
+    <t>23:30:56</t>
+  </si>
+  <si>
+    <t>18:02:22</t>
+  </si>
+  <si>
+    <t>19:38:59</t>
+  </si>
+  <si>
+    <t>21:16:34</t>
+  </si>
+  <si>
+    <t>22:54:31</t>
+  </si>
+  <si>
+    <t>19:02:38</t>
+  </si>
+  <si>
+    <t>20:40:09</t>
+  </si>
+  <si>
+    <t>22:18:04</t>
+  </si>
+  <si>
+    <t>18:26:15</t>
+  </si>
+  <si>
+    <t>20:03:42</t>
+  </si>
+  <si>
+    <t>21:41:34</t>
+  </si>
+  <si>
+    <t>17:49:50</t>
+  </si>
+  <si>
+    <t>19:27:12</t>
+  </si>
+  <si>
+    <t>21:05:02</t>
+  </si>
+  <si>
+    <t>17:13:23</t>
+  </si>
+  <si>
+    <t>18:50:39</t>
+  </si>
+  <si>
+    <t>20:28:27</t>
+  </si>
+  <si>
+    <t>00:46:44</t>
+  </si>
+  <si>
+    <t>19:17:29</t>
+  </si>
+  <si>
+    <t>20:53:52</t>
+  </si>
+  <si>
+    <t>22:31:34</t>
+  </si>
+  <si>
+    <t>00:10:11</t>
+  </si>
+  <si>
+    <t>18:41:34</t>
+  </si>
+  <si>
+    <t>20:17:36</t>
+  </si>
+  <si>
+    <t>21:55:13</t>
+  </si>
+  <si>
+    <t>23:33:39</t>
+  </si>
+  <si>
+    <t>18:05:46</t>
+  </si>
+  <si>
+    <t>19:41:19</t>
+  </si>
+  <si>
+    <t>21:18:51</t>
+  </si>
+  <si>
+    <t>22:57:08</t>
+  </si>
+  <si>
+    <t>19:05:00</t>
+  </si>
+  <si>
+    <t>20:42:25</t>
+  </si>
+  <si>
+    <t>22:20:36</t>
+  </si>
+  <si>
+    <t>18:28:39</t>
+  </si>
+  <si>
+    <t>20:05:58</t>
+  </si>
+  <si>
+    <t>21:44:02</t>
+  </si>
+  <si>
+    <t>17:52:17</t>
+  </si>
+  <si>
+    <t>19:29:28</t>
+  </si>
+  <si>
+    <t>21:07:27</t>
+  </si>
+  <si>
+    <t>17:15:54</t>
+  </si>
+  <si>
+    <t>18:52:55</t>
+  </si>
+  <si>
+    <t>20:30:50</t>
+  </si>
+  <si>
+    <t>00:48:29</t>
+  </si>
+  <si>
+    <t>19:19:33</t>
   </si>
   <si>
     <t>20:57:04</t>
   </si>
   <si>
-    <t>22:34:47</t>
-  </si>
-  <si>
-    <t>00:12:17</t>
-  </si>
-  <si>
-    <t>18:43:19</t>
-  </si>
-  <si>
-    <t>20:20:47</t>
-  </si>
-  <si>
-    <t>21:58:29</t>
-  </si>
-  <si>
-    <t>23:36:01</t>
-  </si>
-  <si>
-    <t>18:07:02</t>
-  </si>
-  <si>
-    <t>19:44:27</t>
-  </si>
-  <si>
-    <t>21:22:08</t>
-  </si>
-  <si>
-    <t>22:59:42</t>
-  </si>
-  <si>
-    <t>19:08:04</t>
-  </si>
-  <si>
-    <t>20:45:44</t>
-  </si>
-  <si>
-    <t>22:23:20</t>
-  </si>
-  <si>
-    <t>18:31:39</t>
-  </si>
-  <si>
-    <t>20:09:18</t>
-  </si>
-  <si>
-    <t>21:46:56</t>
-  </si>
-  <si>
-    <t>17:55:11</t>
-  </si>
-  <si>
-    <t>19:32:49</t>
-  </si>
-  <si>
-    <t>21:10:28</t>
-  </si>
-  <si>
-    <t>01:25:56</t>
-  </si>
-  <si>
-    <t>19:58:07</t>
-  </si>
-  <si>
-    <t>21:36:34</t>
-  </si>
-  <si>
-    <t>23:14:11</t>
+    <t>22:34:46</t>
+  </si>
+  <si>
+    <t>00:12:16</t>
+  </si>
+  <si>
+    <t>18:43:18</t>
+  </si>
+  <si>
+    <t>20:20:45</t>
+  </si>
+  <si>
+    <t>21:58:27</t>
+  </si>
+  <si>
+    <t>23:36:00</t>
+  </si>
+  <si>
+    <t>18:07:00</t>
+  </si>
+  <si>
+    <t>19:44:24</t>
+  </si>
+  <si>
+    <t>21:22:06</t>
+  </si>
+  <si>
+    <t>22:59:40</t>
+  </si>
+  <si>
+    <t>19:08:01</t>
+  </si>
+  <si>
+    <t>20:45:41</t>
+  </si>
+  <si>
+    <t>22:23:17</t>
+  </si>
+  <si>
+    <t>18:31:35</t>
+  </si>
+  <si>
+    <t>20:09:14</t>
+  </si>
+  <si>
+    <t>21:46:52</t>
+  </si>
+  <si>
+    <t>17:55:06</t>
+  </si>
+  <si>
+    <t>19:32:44</t>
+  </si>
+  <si>
+    <t>21:10:23</t>
+  </si>
+  <si>
+    <t>17:18:35</t>
+  </si>
+  <si>
+    <t>18:56:11</t>
+  </si>
+  <si>
+    <t>20:33:50</t>
   </si>
   <si>
     <t>00:50:14</t>
   </si>
   <si>
-    <t>19:21:39</t>
-  </si>
-  <si>
-    <t>21:00:16</t>
-  </si>
-  <si>
-    <t>22:37:58</t>
-  </si>
-  <si>
-    <t>00:14:21</t>
-  </si>
-  <si>
-    <t>18:45:04</t>
-  </si>
-  <si>
-    <t>20:23:56</t>
-  </si>
-  <si>
-    <t>22:01:42</t>
-  </si>
-  <si>
-    <t>23:38:21</t>
-  </si>
-  <si>
-    <t>18:08:17</t>
-  </si>
-  <si>
-    <t>19:47:32</t>
-  </si>
-  <si>
-    <t>21:25:23</t>
-  </si>
-  <si>
-    <t>23:02:14</t>
-  </si>
-  <si>
-    <t>19:11:06</t>
-  </si>
-  <si>
-    <t>20:49:00</t>
-  </si>
-  <si>
-    <t>22:26:02</t>
-  </si>
-  <si>
-    <t>18:34:35</t>
-  </si>
-  <si>
-    <t>20:12:34</t>
-  </si>
-  <si>
-    <t>21:49:45</t>
-  </si>
-  <si>
-    <t>17:58:02</t>
-  </si>
-  <si>
-    <t>19:36:05</t>
-  </si>
-  <si>
-    <t>21:13:23</t>
-  </si>
-  <si>
-    <t>01:29:19</t>
-  </si>
-  <si>
-    <t>20:00:50</t>
-  </si>
-  <si>
-    <t>21:38:51</t>
-  </si>
-  <si>
-    <t>23:16:30</t>
-  </si>
-  <si>
-    <t>00:53:18</t>
-  </si>
-  <si>
-    <t>19:24:31</t>
-  </si>
-  <si>
-    <t>21:02:35</t>
-  </si>
-  <si>
-    <t>22:40:16</t>
+    <t>19:21:38</t>
+  </si>
+  <si>
+    <t>21:00:15</t>
+  </si>
+  <si>
+    <t>22:37:57</t>
+  </si>
+  <si>
+    <t>00:14:20</t>
+  </si>
+  <si>
+    <t>18:45:02</t>
+  </si>
+  <si>
+    <t>20:23:54</t>
+  </si>
+  <si>
+    <t>22:01:41</t>
+  </si>
+  <si>
+    <t>23:38:19</t>
+  </si>
+  <si>
+    <t>18:08:14</t>
+  </si>
+  <si>
+    <t>19:47:30</t>
+  </si>
+  <si>
+    <t>21:25:21</t>
+  </si>
+  <si>
+    <t>23:02:12</t>
+  </si>
+  <si>
+    <t>19:11:03</t>
+  </si>
+  <si>
+    <t>20:48:57</t>
+  </si>
+  <si>
+    <t>22:25:59</t>
+  </si>
+  <si>
+    <t>18:34:31</t>
+  </si>
+  <si>
+    <t>20:12:30</t>
+  </si>
+  <si>
+    <t>21:49:41</t>
+  </si>
+  <si>
+    <t>17:57:57</t>
+  </si>
+  <si>
+    <t>19:36:00</t>
+  </si>
+  <si>
+    <t>21:13:18</t>
+  </si>
+  <si>
+    <t>17:21:18</t>
+  </si>
+  <si>
+    <t>18:59:27</t>
+  </si>
+  <si>
+    <t>20:36:51</t>
+  </si>
+  <si>
+    <t>00:53:17</t>
+  </si>
+  <si>
+    <t>19:24:30</t>
+  </si>
+  <si>
+    <t>21:02:34</t>
+  </si>
+  <si>
+    <t>22:40:15</t>
   </si>
   <si>
     <t>00:17:12</t>
   </si>
   <si>
-    <t>18:48:08</t>
-  </si>
-  <si>
-    <t>20:26:15</t>
-  </si>
-  <si>
-    <t>22:03:59</t>
-  </si>
-  <si>
-    <t>23:41:03</t>
-  </si>
-  <si>
-    <t>18:11:41</t>
-  </si>
-  <si>
-    <t>19:49:53</t>
-  </si>
-  <si>
-    <t>21:27:39</t>
-  </si>
-  <si>
-    <t>23:04:50</t>
-  </si>
-  <si>
-    <t>19:13:28</t>
-  </si>
-  <si>
-    <t>20:51:16</t>
-  </si>
-  <si>
-    <t>22:28:33</t>
-  </si>
-  <si>
-    <t>18:37:00</t>
-  </si>
-  <si>
-    <t>20:14:50</t>
-  </si>
-  <si>
-    <t>21:52:12</t>
-  </si>
-  <si>
-    <t>18:00:29</t>
-  </si>
-  <si>
-    <t>19:38:22</t>
-  </si>
-  <si>
-    <t>21:15:48</t>
+    <t>18:48:06</t>
+  </si>
+  <si>
+    <t>20:26:14</t>
+  </si>
+  <si>
+    <t>22:03:58</t>
+  </si>
+  <si>
+    <t>23:41:02</t>
+  </si>
+  <si>
+    <t>18:11:39</t>
+  </si>
+  <si>
+    <t>19:49:51</t>
+  </si>
+  <si>
+    <t>21:27:37</t>
+  </si>
+  <si>
+    <t>23:04:48</t>
+  </si>
+  <si>
+    <t>19:13:25</t>
+  </si>
+  <si>
+    <t>20:51:13</t>
+  </si>
+  <si>
+    <t>22:28:30</t>
+  </si>
+  <si>
+    <t>18:36:56</t>
+  </si>
+  <si>
+    <t>20:14:46</t>
+  </si>
+  <si>
+    <t>21:52:08</t>
+  </si>
+  <si>
+    <t>18:00:24</t>
+  </si>
+  <si>
+    <t>19:38:16</t>
+  </si>
+  <si>
+    <t>21:15:43</t>
+  </si>
+  <si>
+    <t>17:23:49</t>
+  </si>
+  <si>
+    <t>19:01:43</t>
+  </si>
+  <si>
+    <t>20:39:14</t>
   </si>
   <si>
     <t>0°</t>
@@ -628,22 +616,31 @@
     <t>5°</t>
   </si>
   <si>
-    <t>18:39:24</t>
-  </si>
-  <si>
-    <t>18:04:59</t>
-  </si>
-  <si>
-    <t>19:04:09</t>
-  </si>
-  <si>
-    <t>18:29:31</t>
-  </si>
-  <si>
-    <t>17:54:48</t>
-  </si>
-  <si>
-    <t>19:28:29</t>
+    <t>17°</t>
+  </si>
+  <si>
+    <t>18:39:23</t>
+  </si>
+  <si>
+    <t>18:04:57</t>
+  </si>
+  <si>
+    <t>19:04:06</t>
+  </si>
+  <si>
+    <t>18:29:28</t>
+  </si>
+  <si>
+    <t>17:54:43</t>
+  </si>
+  <si>
+    <t>19:28:24</t>
+  </si>
+  <si>
+    <t>17:19:54</t>
+  </si>
+  <si>
+    <t>18:53:34</t>
   </si>
   <si>
     <t>B</t>
@@ -692,7 +689,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -707,13 +704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0707F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAAC5E3"/>
+        <fgColor rgb="FF6AD26A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,49 +722,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6AD26A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF0B070"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99BADE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF88AED8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF80A9D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8F4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4D7EC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBD1E9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,6 +741,78 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF6697CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88AED8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0707F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2C0E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80A9D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAC5E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90B4DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCDCEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99BADE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF3F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6EEF7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,7 +853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -892,6 +913,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1295,7 +1328,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1379,55 +1412,55 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>93</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L2" s="4">
-        <v>-50.6</v>
+        <v>-54.6</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O2" s="6">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="P2" s="7">
-        <v>52</v>
-      </c>
-      <c r="Q2" s="8">
         <v>0</v>
       </c>
-      <c r="R2" s="9">
-        <v>4</v>
+      <c r="Q2" s="7">
+        <v>0</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1435,55 +1468,55 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L3" s="4">
-        <v>-40.8</v>
+        <v>-35</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O3" s="10">
+        <v>212</v>
+      </c>
+      <c r="O3" s="6">
+        <v>2</v>
+      </c>
+      <c r="P3" s="7">
         <v>1</v>
       </c>
-      <c r="P3" s="8">
+      <c r="Q3" s="7">
         <v>0</v>
       </c>
-      <c r="Q3" s="8">
-        <v>0</v>
-      </c>
-      <c r="R3" s="8">
-        <v>0</v>
+      <c r="R3" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1491,55 +1524,55 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>95</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L4" s="4">
-        <v>-53.7</v>
+        <v>-49.2</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O4" s="10">
+        <v>212</v>
+      </c>
+      <c r="O4" s="6">
+        <v>2</v>
+      </c>
+      <c r="P4" s="7">
         <v>1</v>
       </c>
-      <c r="P4" s="8">
+      <c r="Q4" s="7">
         <v>0</v>
       </c>
-      <c r="Q4" s="8">
-        <v>0</v>
-      </c>
-      <c r="R4" s="8">
-        <v>0</v>
+      <c r="R4" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1547,54 +1580,54 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>96</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" s="4">
-        <v>-59.7</v>
+        <v>-58.5</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O5" s="10">
-        <v>1</v>
-      </c>
-      <c r="P5" s="8">
+        <v>212</v>
+      </c>
+      <c r="O5" s="6">
+        <v>2</v>
+      </c>
+      <c r="P5" s="7">
         <v>0</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="7">
         <v>0</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1603,55 +1636,55 @@
         <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>97</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L6" s="4">
-        <v>-54.6</v>
+        <v>-57.5</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="6">
+        <v>14</v>
+      </c>
+      <c r="P6" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
         <v>1</v>
-      </c>
-      <c r="P6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>0</v>
-      </c>
-      <c r="R6" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1659,55 +1692,55 @@
         <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>98</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c r="L7" s="4">
-        <v>-35</v>
+        <v>-29</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O7" s="10">
-        <v>2</v>
-      </c>
-      <c r="P7" s="8">
+        <v>211</v>
+      </c>
+      <c r="O7" s="6">
+        <v>3</v>
+      </c>
+      <c r="P7" s="7">
         <v>1</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="7">
         <v>0</v>
       </c>
-      <c r="R7" s="8">
-        <v>1</v>
+      <c r="R7" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1715,55 +1748,55 @@
         <v>24</v>
       </c>
       <c r="B8" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L8" s="4">
-        <v>-49.2</v>
+        <v>-44</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O8" s="10">
+        <v>212</v>
+      </c>
+      <c r="O8" s="6">
         <v>2</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="7">
         <v>1</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="7">
         <v>0</v>
       </c>
-      <c r="R8" s="8">
-        <v>1</v>
+      <c r="R8" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1771,55 +1804,55 @@
         <v>25</v>
       </c>
       <c r="B9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>100</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L9" s="4">
-        <v>-58.5</v>
+        <v>-55.7</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O9" s="10">
+        <v>212</v>
+      </c>
+      <c r="O9" s="6">
+        <v>8</v>
+      </c>
+      <c r="P9" s="8">
         <v>3</v>
       </c>
-      <c r="P9" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="7">
         <v>0</v>
       </c>
-      <c r="R9" s="8">
-        <v>2</v>
+      <c r="R9" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1827,55 +1860,55 @@
         <v>26</v>
       </c>
       <c r="B10" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>101</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L10" s="4">
-        <v>-57.5</v>
+        <v>-59.1</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O10" s="10">
-        <v>3</v>
+        <v>212</v>
+      </c>
+      <c r="O10" s="9">
+        <v>18</v>
       </c>
       <c r="P10" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="7">
         <v>0</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="R10" s="7">
         <v>0</v>
-      </c>
-      <c r="R10" s="8">
-        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1883,54 +1916,54 @@
         <v>27</v>
       </c>
       <c r="B11" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>102</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L11" s="4">
-        <v>-29</v>
+        <v>-23.1</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O11" s="10">
-        <v>1</v>
+        <v>211</v>
+      </c>
+      <c r="O11" s="6">
+        <v>4</v>
       </c>
       <c r="P11" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="7">
         <v>0</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1939,54 +1972,54 @@
         <v>28</v>
       </c>
       <c r="B12" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>103</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L12" s="4">
-        <v>-44</v>
+        <v>-38.4</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O12" s="10">
-        <v>1</v>
+        <v>212</v>
+      </c>
+      <c r="O12" s="6">
+        <v>5</v>
       </c>
       <c r="P12" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="7">
         <v>0</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1995,54 +2028,54 @@
         <v>29</v>
       </c>
       <c r="B13" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>104</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L13" s="4">
-        <v>-55.7</v>
+        <v>-51.8</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O13" s="10">
-        <v>2</v>
-      </c>
-      <c r="P13" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="8">
+        <v>212</v>
+      </c>
+      <c r="O13" s="9">
+        <v>21</v>
+      </c>
+      <c r="P13" s="10">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="7">
         <v>0</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R13" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2051,54 +2084,54 @@
         <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>105</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L14" s="4">
-        <v>-59.1</v>
+        <v>-58.9</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O14" s="10">
-        <v>2</v>
-      </c>
-      <c r="P14" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="8">
+        <v>212</v>
+      </c>
+      <c r="O14" s="9">
+        <v>24</v>
+      </c>
+      <c r="P14" s="11">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="7">
         <v>0</v>
       </c>
-      <c r="R14" s="8">
+      <c r="R14" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2107,54 +2140,54 @@
         <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>106</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L15" s="4">
-        <v>-23.1</v>
+        <v>-32.5</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="O15" s="10">
-        <v>4</v>
-      </c>
-      <c r="P15" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="8">
-        <v>0</v>
-      </c>
-      <c r="R15" s="8">
+      <c r="O15" s="9">
+        <v>26</v>
+      </c>
+      <c r="P15" s="12">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>16</v>
+      </c>
+      <c r="R15" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2163,55 +2196,55 @@
         <v>32</v>
       </c>
       <c r="B16" s="2">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>107</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L16" s="4">
-        <v>-38.4</v>
+        <v>-47</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O16" s="10">
+        <v>212</v>
+      </c>
+      <c r="O16" s="9">
+        <v>30</v>
+      </c>
+      <c r="P16" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>30</v>
+      </c>
+      <c r="R16" s="8">
         <v>3</v>
-      </c>
-      <c r="P16" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="8">
-        <v>0</v>
-      </c>
-      <c r="R16" s="8">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2219,55 +2252,55 @@
         <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>108</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L17" s="4">
-        <v>-51.8</v>
+        <v>-57.1</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O17" s="10">
-        <v>4</v>
-      </c>
-      <c r="P17" s="8">
+        <v>212</v>
+      </c>
+      <c r="O17" s="14">
+        <v>53</v>
+      </c>
+      <c r="P17" s="7">
         <v>1</v>
       </c>
-      <c r="Q17" s="8">
-        <v>0</v>
-      </c>
-      <c r="R17" s="8">
-        <v>0</v>
+      <c r="Q17" s="15">
+        <v>47</v>
+      </c>
+      <c r="R17" s="16">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2275,37 +2308,37 @@
         <v>34</v>
       </c>
       <c r="B18" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>109</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>197</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="L18" s="4">
-        <v>-58.9</v>
+        <v>-26.6</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>210</v>
@@ -2313,17 +2346,17 @@
       <c r="N18" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="O18" s="10">
-        <v>6</v>
-      </c>
-      <c r="P18" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="8">
-        <v>0</v>
-      </c>
-      <c r="R18" s="8">
-        <v>0</v>
+      <c r="O18" s="14">
+        <v>86</v>
+      </c>
+      <c r="P18" s="17">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="18">
+        <v>80</v>
+      </c>
+      <c r="R18" s="19">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2331,55 +2364,55 @@
         <v>35</v>
       </c>
       <c r="B19" s="2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>110</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>206</v>
+        <v>85</v>
       </c>
       <c r="L19" s="4">
-        <v>-32.5</v>
+        <v>-41.7</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O19" s="11">
+        <v>212</v>
+      </c>
+      <c r="O19" s="14">
+        <v>99</v>
+      </c>
+      <c r="P19" s="20">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>99</v>
+      </c>
+      <c r="R19" s="22">
         <v>39</v>
-      </c>
-      <c r="P19" s="12">
-        <v>39</v>
-      </c>
-      <c r="Q19" s="8">
-        <v>1</v>
-      </c>
-      <c r="R19" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2387,55 +2420,55 @@
         <v>36</v>
       </c>
       <c r="B20" s="2">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>111</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L20" s="4">
-        <v>-47</v>
+        <v>-54</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O20" s="11">
-        <v>28</v>
-      </c>
-      <c r="P20" s="13">
-        <v>28</v>
-      </c>
-      <c r="Q20" s="8">
-        <v>0</v>
-      </c>
-      <c r="R20" s="8">
-        <v>0</v>
+        <v>212</v>
+      </c>
+      <c r="O20" s="14">
+        <v>99</v>
+      </c>
+      <c r="P20" s="18">
+        <v>78</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>99</v>
+      </c>
+      <c r="R20" s="19">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2443,37 +2476,37 @@
         <v>37</v>
       </c>
       <c r="B21" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>112</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>86</v>
+        <v>205</v>
       </c>
       <c r="L21" s="4">
-        <v>-57.1</v>
+        <v>-20.6</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>210</v>
@@ -2481,17 +2514,17 @@
       <c r="N21" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="O21" s="11">
-        <v>26</v>
-      </c>
-      <c r="P21" s="14">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="8">
-        <v>0</v>
-      </c>
-      <c r="R21" s="8">
-        <v>0</v>
+      <c r="O21" s="14">
+        <v>100</v>
+      </c>
+      <c r="P21" s="23">
+        <v>91</v>
+      </c>
+      <c r="Q21" s="19">
+        <v>33</v>
+      </c>
+      <c r="R21" s="19">
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2499,54 +2532,54 @@
         <v>38</v>
       </c>
       <c r="B22" s="2">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>113</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L22" s="4">
-        <v>-26.6</v>
+        <v>-35.9</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="O22" s="6">
-        <v>84</v>
-      </c>
-      <c r="P22" s="15">
-        <v>78</v>
+        <v>212</v>
+      </c>
+      <c r="O22" s="14">
+        <v>100</v>
+      </c>
+      <c r="P22" s="23">
+        <v>91</v>
       </c>
       <c r="Q22" s="8">
-        <v>0</v>
-      </c>
-      <c r="R22" s="8">
+        <v>7</v>
+      </c>
+      <c r="R22" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2555,54 +2588,54 @@
         <v>39</v>
       </c>
       <c r="B23" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>114</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L23" s="4">
-        <v>-41.7</v>
+        <v>-49.7</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O23" s="6">
-        <v>75</v>
-      </c>
-      <c r="P23" s="16">
-        <v>67</v>
-      </c>
-      <c r="Q23" s="8">
-        <v>1</v>
-      </c>
-      <c r="R23" s="8">
+        <v>212</v>
+      </c>
+      <c r="O23" s="14">
+        <v>100</v>
+      </c>
+      <c r="P23" s="24">
+        <v>83</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>15</v>
+      </c>
+      <c r="R23" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2611,37 +2644,37 @@
         <v>40</v>
       </c>
       <c r="B24" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>115</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>89</v>
+        <v>207</v>
       </c>
       <c r="L24" s="4">
-        <v>-54</v>
+        <v>-14.7</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>210</v>
@@ -2649,17 +2682,17 @@
       <c r="N24" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="O24" s="6">
-        <v>69</v>
-      </c>
-      <c r="P24" s="17">
-        <v>62</v>
-      </c>
-      <c r="Q24" s="8">
-        <v>2</v>
-      </c>
-      <c r="R24" s="8">
-        <v>0</v>
+      <c r="O24" s="14">
+        <v>99</v>
+      </c>
+      <c r="P24" s="21">
+        <v>99</v>
+      </c>
+      <c r="Q24" s="12">
+        <v>11</v>
+      </c>
+      <c r="R24" s="19">
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2667,55 +2700,55 @@
         <v>41</v>
       </c>
       <c r="B25" s="2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>116</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>208</v>
       </c>
       <c r="L25" s="4">
-        <v>-20.7</v>
+        <v>-30</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="O25" s="11">
-        <v>46</v>
-      </c>
-      <c r="P25" s="18">
-        <v>16</v>
+        <v>213</v>
+      </c>
+      <c r="O25" s="14">
+        <v>100</v>
+      </c>
+      <c r="P25" s="21">
+        <v>99</v>
       </c>
       <c r="Q25" s="8">
-        <v>2</v>
-      </c>
-      <c r="R25" s="9">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="R25" s="22">
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2723,170 +2756,114 @@
         <v>42</v>
       </c>
       <c r="B26" s="2">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>117</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="K26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" s="4">
+        <v>-44.7</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="L26" s="4">
-        <v>-35.9</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="N26" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O26" s="11">
-        <v>35</v>
-      </c>
-      <c r="P26" s="19">
-        <v>18</v>
-      </c>
-      <c r="Q26" s="9">
-        <v>3</v>
-      </c>
-      <c r="R26" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="2">
-        <v>24</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L27" s="4">
-        <v>-49.7</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O27" s="11">
-        <v>20</v>
-      </c>
-      <c r="P27" s="19">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="9">
-        <v>4</v>
-      </c>
-      <c r="R27" s="20">
-        <v>10</v>
+        <v>212</v>
+      </c>
+      <c r="O26" s="14">
+        <v>95</v>
+      </c>
+      <c r="P26" s="23">
+        <v>91</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>14</v>
+      </c>
+      <c r="R26" s="13">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A27">
+  <conditionalFormatting sqref="A2:A26">
     <cfRule type="expression" dxfId="8" priority="9">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B27">
+  <conditionalFormatting sqref="B2:B26">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C27">
+  <conditionalFormatting sqref="C2:C26">
     <cfRule type="expression" dxfId="9" priority="11">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D27">
+  <conditionalFormatting sqref="D2:D26">
     <cfRule type="expression" dxfId="8" priority="12">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E27">
+  <conditionalFormatting sqref="E2:E26">
     <cfRule type="expression" dxfId="9" priority="13">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F27">
+  <conditionalFormatting sqref="F2:F26">
     <cfRule type="expression" dxfId="9" priority="14">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G27">
+  <conditionalFormatting sqref="G2:G26">
     <cfRule type="expression" dxfId="9" priority="15">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H27">
+  <conditionalFormatting sqref="H2:H26">
     <cfRule type="expression" dxfId="9" priority="16">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I27">
+  <conditionalFormatting sqref="I2:I26">
     <cfRule type="expression" dxfId="8" priority="17">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J27">
+  <conditionalFormatting sqref="J2:J26">
     <cfRule type="expression" dxfId="9" priority="18">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K27">
+  <conditionalFormatting sqref="K2:K26">
     <cfRule type="expression" dxfId="8" priority="19">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L27">
+  <conditionalFormatting sqref="L2:L26">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -2905,12 +2882,12 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M27">
+  <conditionalFormatting sqref="M2:M26">
     <cfRule type="expression" dxfId="9" priority="21">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N27">
+  <conditionalFormatting sqref="N2:N26">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>
@@ -2927,22 +2904,22 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O27">
+  <conditionalFormatting sqref="O2:O26">
     <cfRule type="expression" dxfId="9" priority="23">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P27">
+  <conditionalFormatting sqref="P2:P26">
     <cfRule type="expression" dxfId="9" priority="24">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q27">
+  <conditionalFormatting sqref="Q2:Q26">
     <cfRule type="expression" dxfId="9" priority="25">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R27">
+  <conditionalFormatting sqref="R2:R26">
     <cfRule type="expression" dxfId="9" priority="26">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="221">
   <si>
     <t>Datum</t>
   </si>
@@ -70,18 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>20260119--01</t>
-  </si>
-  <si>
-    <t>20260119--02</t>
-  </si>
-  <si>
-    <t>20260119--03</t>
-  </si>
-  <si>
-    <t>20260119--04</t>
-  </si>
-  <si>
     <t>20260120--01</t>
   </si>
   <si>
@@ -145,13 +133,19 @@
     <t>20260125--03</t>
   </si>
   <si>
-    <t>03:30</t>
-  </si>
-  <si>
-    <t>04:09</t>
-  </si>
-  <si>
-    <t>06:23</t>
+    <t>20260126--01</t>
+  </si>
+  <si>
+    <t>20260126--02</t>
+  </si>
+  <si>
+    <t>20260126--03</t>
+  </si>
+  <si>
+    <t>20260126--04</t>
+  </si>
+  <si>
+    <t>04:10</t>
   </si>
   <si>
     <t>03:28</t>
@@ -160,7 +154,7 @@
     <t>06:18</t>
   </si>
   <si>
-    <t>06:28</t>
+    <t>06:27</t>
   </si>
   <si>
     <t>04:40</t>
@@ -169,46 +163,49 @@
     <t>02:28</t>
   </si>
   <si>
+    <t>06:12</t>
+  </si>
+  <si>
+    <t>06:30</t>
+  </si>
+  <si>
+    <t>05:04</t>
+  </si>
+  <si>
+    <t>06:03</t>
+  </si>
+  <si>
+    <t>06:32</t>
+  </si>
+  <si>
+    <t>05:23</t>
+  </si>
+  <si>
+    <t>05:52</t>
+  </si>
+  <si>
+    <t>06:33</t>
+  </si>
+  <si>
+    <t>05:39</t>
+  </si>
+  <si>
+    <t>06:02</t>
+  </si>
+  <si>
+    <t>05:03</t>
+  </si>
+  <si>
     <t>06:11</t>
   </si>
   <si>
-    <t>06:30</t>
-  </si>
-  <si>
-    <t>05:04</t>
-  </si>
-  <si>
-    <t>06:03</t>
-  </si>
-  <si>
-    <t>06:32</t>
-  </si>
-  <si>
-    <t>05:23</t>
-  </si>
-  <si>
-    <t>05:52</t>
-  </si>
-  <si>
-    <t>05:39</t>
-  </si>
-  <si>
-    <t>05:40</t>
-  </si>
-  <si>
-    <t>05:51</t>
-  </si>
-  <si>
-    <t>05:24</t>
-  </si>
-  <si>
-    <t>06:01</t>
+    <t>02:25</t>
   </si>
   <si>
     <t>00:00</t>
   </si>
   <si>
-    <t>00:49</t>
+    <t>00:48</t>
   </si>
   <si>
     <t>02:26</t>
@@ -217,382 +214,385 @@
     <t>04:00</t>
   </si>
   <si>
-    <t>00:39</t>
-  </si>
-  <si>
-    <t>00:43:40</t>
-  </si>
-  <si>
-    <t>19:14:38</t>
-  </si>
-  <si>
-    <t>20:51:34</t>
-  </si>
-  <si>
-    <t>22:29:16</t>
+    <t>00:40</t>
+  </si>
+  <si>
+    <t>02:20</t>
   </si>
   <si>
     <t>00:07:19</t>
   </si>
   <si>
-    <t>18:38:31</t>
-  </si>
-  <si>
-    <t>20:15:17</t>
-  </si>
-  <si>
-    <t>21:52:56</t>
-  </si>
-  <si>
-    <t>23:30:56</t>
-  </si>
-  <si>
-    <t>18:02:22</t>
-  </si>
-  <si>
-    <t>19:38:59</t>
-  </si>
-  <si>
-    <t>21:16:34</t>
-  </si>
-  <si>
-    <t>22:54:31</t>
-  </si>
-  <si>
-    <t>19:02:38</t>
-  </si>
-  <si>
-    <t>20:40:09</t>
-  </si>
-  <si>
-    <t>22:18:04</t>
-  </si>
-  <si>
-    <t>18:26:15</t>
-  </si>
-  <si>
-    <t>20:03:42</t>
-  </si>
-  <si>
-    <t>21:41:34</t>
-  </si>
-  <si>
-    <t>17:49:50</t>
-  </si>
-  <si>
-    <t>19:27:12</t>
-  </si>
-  <si>
-    <t>21:05:02</t>
-  </si>
-  <si>
-    <t>17:13:23</t>
-  </si>
-  <si>
-    <t>18:50:39</t>
-  </si>
-  <si>
-    <t>20:28:27</t>
-  </si>
-  <si>
-    <t>00:46:44</t>
-  </si>
-  <si>
-    <t>19:17:29</t>
-  </si>
-  <si>
-    <t>20:53:52</t>
-  </si>
-  <si>
-    <t>22:31:34</t>
-  </si>
-  <si>
-    <t>00:10:11</t>
-  </si>
-  <si>
-    <t>18:41:34</t>
-  </si>
-  <si>
-    <t>20:17:36</t>
-  </si>
-  <si>
-    <t>21:55:13</t>
-  </si>
-  <si>
-    <t>23:33:39</t>
-  </si>
-  <si>
-    <t>18:05:46</t>
-  </si>
-  <si>
-    <t>19:41:19</t>
-  </si>
-  <si>
-    <t>21:18:51</t>
-  </si>
-  <si>
-    <t>22:57:08</t>
-  </si>
-  <si>
-    <t>19:05:00</t>
-  </si>
-  <si>
-    <t>20:42:25</t>
-  </si>
-  <si>
-    <t>22:20:36</t>
-  </si>
-  <si>
-    <t>18:28:39</t>
-  </si>
-  <si>
-    <t>20:05:58</t>
-  </si>
-  <si>
-    <t>21:44:02</t>
-  </si>
-  <si>
-    <t>17:52:17</t>
-  </si>
-  <si>
-    <t>19:29:28</t>
-  </si>
-  <si>
-    <t>21:07:27</t>
-  </si>
-  <si>
-    <t>17:15:54</t>
-  </si>
-  <si>
-    <t>18:52:55</t>
-  </si>
-  <si>
-    <t>20:30:50</t>
-  </si>
-  <si>
-    <t>00:48:29</t>
-  </si>
-  <si>
-    <t>19:19:33</t>
-  </si>
-  <si>
-    <t>20:57:04</t>
-  </si>
-  <si>
-    <t>22:34:46</t>
-  </si>
-  <si>
-    <t>00:12:16</t>
-  </si>
-  <si>
-    <t>18:43:18</t>
-  </si>
-  <si>
-    <t>20:20:45</t>
-  </si>
-  <si>
-    <t>21:58:27</t>
-  </si>
-  <si>
-    <t>23:36:00</t>
-  </si>
-  <si>
-    <t>18:07:00</t>
-  </si>
-  <si>
-    <t>19:44:24</t>
-  </si>
-  <si>
-    <t>21:22:06</t>
-  </si>
-  <si>
-    <t>22:59:40</t>
-  </si>
-  <si>
-    <t>19:08:01</t>
-  </si>
-  <si>
-    <t>20:45:41</t>
-  </si>
-  <si>
-    <t>22:23:17</t>
-  </si>
-  <si>
-    <t>18:31:35</t>
-  </si>
-  <si>
-    <t>20:09:14</t>
-  </si>
-  <si>
-    <t>21:46:52</t>
-  </si>
-  <si>
-    <t>17:55:06</t>
-  </si>
-  <si>
-    <t>19:32:44</t>
-  </si>
-  <si>
-    <t>21:10:23</t>
-  </si>
-  <si>
-    <t>17:18:35</t>
-  </si>
-  <si>
-    <t>18:56:11</t>
-  </si>
-  <si>
-    <t>20:33:50</t>
-  </si>
-  <si>
-    <t>00:50:14</t>
-  </si>
-  <si>
-    <t>19:21:38</t>
-  </si>
-  <si>
-    <t>21:00:15</t>
-  </si>
-  <si>
-    <t>22:37:57</t>
+    <t>18:38:29</t>
+  </si>
+  <si>
+    <t>20:15:16</t>
+  </si>
+  <si>
+    <t>21:52:55</t>
+  </si>
+  <si>
+    <t>23:30:55</t>
+  </si>
+  <si>
+    <t>18:02:20</t>
+  </si>
+  <si>
+    <t>19:38:56</t>
+  </si>
+  <si>
+    <t>21:16:31</t>
+  </si>
+  <si>
+    <t>22:54:28</t>
+  </si>
+  <si>
+    <t>19:02:33</t>
+  </si>
+  <si>
+    <t>20:40:04</t>
+  </si>
+  <si>
+    <t>22:17:59</t>
+  </si>
+  <si>
+    <t>18:26:08</t>
+  </si>
+  <si>
+    <t>20:03:35</t>
+  </si>
+  <si>
+    <t>21:41:27</t>
+  </si>
+  <si>
+    <t>17:49:41</t>
+  </si>
+  <si>
+    <t>19:27:02</t>
+  </si>
+  <si>
+    <t>21:04:52</t>
+  </si>
+  <si>
+    <t>17:13:11</t>
+  </si>
+  <si>
+    <t>18:50:27</t>
+  </si>
+  <si>
+    <t>20:28:14</t>
+  </si>
+  <si>
+    <t>16:36:39</t>
+  </si>
+  <si>
+    <t>18:13:48</t>
+  </si>
+  <si>
+    <t>19:51:33</t>
+  </si>
+  <si>
+    <t>21:29:44</t>
+  </si>
+  <si>
+    <t>00:10:10</t>
+  </si>
+  <si>
+    <t>18:41:33</t>
+  </si>
+  <si>
+    <t>20:17:35</t>
+  </si>
+  <si>
+    <t>21:55:12</t>
+  </si>
+  <si>
+    <t>23:33:38</t>
+  </si>
+  <si>
+    <t>18:05:44</t>
+  </si>
+  <si>
+    <t>19:41:16</t>
+  </si>
+  <si>
+    <t>21:18:48</t>
+  </si>
+  <si>
+    <t>22:57:05</t>
+  </si>
+  <si>
+    <t>19:04:55</t>
+  </si>
+  <si>
+    <t>20:42:21</t>
+  </si>
+  <si>
+    <t>22:20:31</t>
+  </si>
+  <si>
+    <t>18:28:33</t>
+  </si>
+  <si>
+    <t>20:05:51</t>
+  </si>
+  <si>
+    <t>21:43:55</t>
+  </si>
+  <si>
+    <t>17:52:08</t>
+  </si>
+  <si>
+    <t>19:29:18</t>
+  </si>
+  <si>
+    <t>21:07:17</t>
+  </si>
+  <si>
+    <t>17:15:42</t>
+  </si>
+  <si>
+    <t>18:52:43</t>
+  </si>
+  <si>
+    <t>20:30:37</t>
+  </si>
+  <si>
+    <t>16:39:15</t>
+  </si>
+  <si>
+    <t>18:16:05</t>
+  </si>
+  <si>
+    <t>19:53:54</t>
+  </si>
+  <si>
+    <t>21:33:10</t>
+  </si>
+  <si>
+    <t>00:12:15</t>
+  </si>
+  <si>
+    <t>18:43:17</t>
+  </si>
+  <si>
+    <t>20:20:44</t>
+  </si>
+  <si>
+    <t>21:58:26</t>
+  </si>
+  <si>
+    <t>23:35:58</t>
+  </si>
+  <si>
+    <t>18:06:57</t>
+  </si>
+  <si>
+    <t>19:44:22</t>
+  </si>
+  <si>
+    <t>21:22:03</t>
+  </si>
+  <si>
+    <t>22:59:37</t>
+  </si>
+  <si>
+    <t>19:07:56</t>
+  </si>
+  <si>
+    <t>20:45:37</t>
+  </si>
+  <si>
+    <t>22:23:13</t>
+  </si>
+  <si>
+    <t>18:31:28</t>
+  </si>
+  <si>
+    <t>20:09:07</t>
+  </si>
+  <si>
+    <t>21:46:45</t>
+  </si>
+  <si>
+    <t>17:54:57</t>
+  </si>
+  <si>
+    <t>19:32:34</t>
+  </si>
+  <si>
+    <t>21:10:13</t>
+  </si>
+  <si>
+    <t>17:18:23</t>
+  </si>
+  <si>
+    <t>18:55:59</t>
+  </si>
+  <si>
+    <t>20:33:38</t>
+  </si>
+  <si>
+    <t>16:41:46</t>
+  </si>
+  <si>
+    <t>18:19:20</t>
+  </si>
+  <si>
+    <t>19:56:59</t>
+  </si>
+  <si>
+    <t>21:34:23</t>
   </si>
   <si>
     <t>00:14:20</t>
   </si>
   <si>
-    <t>18:45:02</t>
-  </si>
-  <si>
-    <t>20:23:54</t>
-  </si>
-  <si>
-    <t>22:01:41</t>
-  </si>
-  <si>
-    <t>23:38:19</t>
-  </si>
-  <si>
-    <t>18:08:14</t>
-  </si>
-  <si>
-    <t>19:47:30</t>
-  </si>
-  <si>
-    <t>21:25:21</t>
-  </si>
-  <si>
-    <t>23:02:12</t>
-  </si>
-  <si>
-    <t>19:11:03</t>
-  </si>
-  <si>
-    <t>20:48:57</t>
-  </si>
-  <si>
-    <t>22:25:59</t>
-  </si>
-  <si>
-    <t>18:34:31</t>
-  </si>
-  <si>
-    <t>20:12:30</t>
-  </si>
-  <si>
-    <t>21:49:41</t>
-  </si>
-  <si>
-    <t>17:57:57</t>
-  </si>
-  <si>
-    <t>19:36:00</t>
-  </si>
-  <si>
-    <t>21:13:18</t>
-  </si>
-  <si>
-    <t>17:21:18</t>
-  </si>
-  <si>
-    <t>18:59:27</t>
-  </si>
-  <si>
-    <t>20:36:51</t>
-  </si>
-  <si>
-    <t>00:53:17</t>
-  </si>
-  <si>
-    <t>19:24:30</t>
-  </si>
-  <si>
-    <t>21:02:34</t>
-  </si>
-  <si>
-    <t>22:40:15</t>
-  </si>
-  <si>
-    <t>00:17:12</t>
-  </si>
-  <si>
-    <t>18:48:06</t>
-  </si>
-  <si>
-    <t>20:26:14</t>
-  </si>
-  <si>
-    <t>22:03:58</t>
-  </si>
-  <si>
-    <t>23:41:02</t>
-  </si>
-  <si>
-    <t>18:11:39</t>
-  </si>
-  <si>
-    <t>19:49:51</t>
-  </si>
-  <si>
-    <t>21:27:37</t>
-  </si>
-  <si>
-    <t>23:04:48</t>
-  </si>
-  <si>
-    <t>19:13:25</t>
-  </si>
-  <si>
-    <t>20:51:13</t>
-  </si>
-  <si>
-    <t>22:28:30</t>
-  </si>
-  <si>
-    <t>18:36:56</t>
-  </si>
-  <si>
-    <t>20:14:46</t>
-  </si>
-  <si>
-    <t>21:52:08</t>
-  </si>
-  <si>
-    <t>18:00:24</t>
-  </si>
-  <si>
-    <t>19:38:16</t>
-  </si>
-  <si>
-    <t>21:15:43</t>
-  </si>
-  <si>
-    <t>17:23:49</t>
-  </si>
-  <si>
-    <t>19:01:43</t>
-  </si>
-  <si>
-    <t>20:39:14</t>
+    <t>18:45:01</t>
+  </si>
+  <si>
+    <t>20:23:53</t>
+  </si>
+  <si>
+    <t>22:01:39</t>
+  </si>
+  <si>
+    <t>23:38:18</t>
+  </si>
+  <si>
+    <t>18:08:12</t>
+  </si>
+  <si>
+    <t>19:47:28</t>
+  </si>
+  <si>
+    <t>21:25:18</t>
+  </si>
+  <si>
+    <t>23:02:09</t>
+  </si>
+  <si>
+    <t>19:10:58</t>
+  </si>
+  <si>
+    <t>20:48:53</t>
+  </si>
+  <si>
+    <t>22:25:54</t>
+  </si>
+  <si>
+    <t>18:34:25</t>
+  </si>
+  <si>
+    <t>20:12:24</t>
+  </si>
+  <si>
+    <t>21:49:34</t>
+  </si>
+  <si>
+    <t>17:57:47</t>
+  </si>
+  <si>
+    <t>19:35:51</t>
+  </si>
+  <si>
+    <t>21:13:09</t>
+  </si>
+  <si>
+    <t>17:21:05</t>
+  </si>
+  <si>
+    <t>18:59:15</t>
+  </si>
+  <si>
+    <t>20:36:39</t>
+  </si>
+  <si>
+    <t>16:44:18</t>
+  </si>
+  <si>
+    <t>18:22:35</t>
+  </si>
+  <si>
+    <t>20:00:05</t>
+  </si>
+  <si>
+    <t>21:35:35</t>
+  </si>
+  <si>
+    <t>00:17:11</t>
+  </si>
+  <si>
+    <t>18:48:05</t>
+  </si>
+  <si>
+    <t>20:26:12</t>
+  </si>
+  <si>
+    <t>22:03:57</t>
+  </si>
+  <si>
+    <t>23:41:00</t>
+  </si>
+  <si>
+    <t>18:11:36</t>
+  </si>
+  <si>
+    <t>19:49:48</t>
+  </si>
+  <si>
+    <t>21:27:34</t>
+  </si>
+  <si>
+    <t>23:04:45</t>
+  </si>
+  <si>
+    <t>19:13:21</t>
+  </si>
+  <si>
+    <t>20:51:09</t>
+  </si>
+  <si>
+    <t>22:28:25</t>
+  </si>
+  <si>
+    <t>18:36:50</t>
+  </si>
+  <si>
+    <t>20:14:40</t>
+  </si>
+  <si>
+    <t>21:52:01</t>
+  </si>
+  <si>
+    <t>18:00:15</t>
+  </si>
+  <si>
+    <t>19:38:07</t>
+  </si>
+  <si>
+    <t>21:15:33</t>
+  </si>
+  <si>
+    <t>17:23:37</t>
+  </si>
+  <si>
+    <t>19:01:31</t>
+  </si>
+  <si>
+    <t>20:39:01</t>
+  </si>
+  <si>
+    <t>16:46:55</t>
+  </si>
+  <si>
+    <t>18:24:51</t>
+  </si>
+  <si>
+    <t>20:02:25</t>
+  </si>
+  <si>
+    <t>21:39:00</t>
   </si>
   <si>
     <t>0°</t>
@@ -607,40 +607,58 @@
     <t>6°</t>
   </si>
   <si>
+    <t>15°</t>
+  </si>
+  <si>
+    <t>21°</t>
+  </si>
+  <si>
+    <t>5°</t>
+  </si>
+  <si>
+    <t>17°</t>
+  </si>
+  <si>
     <t>14°</t>
   </si>
   <si>
-    <t>22°</t>
-  </si>
-  <si>
-    <t>5°</t>
-  </si>
-  <si>
-    <t>17°</t>
-  </si>
-  <si>
-    <t>18:39:23</t>
-  </si>
-  <si>
-    <t>18:04:57</t>
-  </si>
-  <si>
-    <t>19:04:06</t>
-  </si>
-  <si>
-    <t>18:29:28</t>
-  </si>
-  <si>
-    <t>17:54:43</t>
-  </si>
-  <si>
-    <t>19:28:24</t>
-  </si>
-  <si>
-    <t>17:19:54</t>
-  </si>
-  <si>
-    <t>18:53:34</t>
+    <t>28°</t>
+  </si>
+  <si>
+    <t>2°</t>
+  </si>
+  <si>
+    <t>18:39:22</t>
+  </si>
+  <si>
+    <t>18:04:55</t>
+  </si>
+  <si>
+    <t>19:04:02</t>
+  </si>
+  <si>
+    <t>18:29:21</t>
+  </si>
+  <si>
+    <t>17:54:34</t>
+  </si>
+  <si>
+    <t>19:28:15</t>
+  </si>
+  <si>
+    <t>17:19:42</t>
+  </si>
+  <si>
+    <t>18:53:23</t>
+  </si>
+  <si>
+    <t>16:44:45</t>
+  </si>
+  <si>
+    <t>18:18:25</t>
+  </si>
+  <si>
+    <t>19:52:05</t>
   </si>
   <si>
     <t>B</t>
@@ -649,10 +667,13 @@
     <t>A+B</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>2</t>
@@ -710,6 +731,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF80A9D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF558CC8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -728,13 +755,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6E9DD0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF77A3D3"/>
+        <fgColor rgb="FFF0707F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,25 +767,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF88AED8"/>
+        <fgColor rgb="FFB2CBE6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0707F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA2C0E1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF80A9D6"/>
+        <fgColor rgb="FF90B4DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,13 +785,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8F4"/>
+        <fgColor rgb="FF88AED8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF90B4DB"/>
+        <fgColor rgb="FFBBD1E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6E9DD0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,25 +809,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEEF3F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99BADE"/>
+        <fgColor rgb="FFF6F9FC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEF3F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6EEF7"/>
+        <fgColor rgb="FF77A3D3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1412,13 +1433,13 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>68</v>
@@ -1442,25 +1463,25 @@
         <v>68</v>
       </c>
       <c r="L2" s="4">
-        <v>-54.6</v>
+        <v>-57.5</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="O2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="7">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="8">
         <v>0</v>
       </c>
-      <c r="Q2" s="7">
-        <v>0</v>
-      </c>
-      <c r="R2" s="7">
-        <v>0</v>
+      <c r="R2" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1468,13 +1489,13 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>69</v>
@@ -1492,31 +1513,31 @@
         <v>169</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>69</v>
+        <v>204</v>
       </c>
       <c r="L3" s="4">
-        <v>-35</v>
+        <v>-29</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="O3" s="6">
-        <v>2</v>
-      </c>
-      <c r="P3" s="7">
+        <v>6</v>
+      </c>
+      <c r="P3" s="8">
         <v>1</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="8">
         <v>0</v>
       </c>
-      <c r="R3" s="7">
-        <v>1</v>
+      <c r="R3" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1524,13 +1545,13 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>70</v>
@@ -1554,25 +1575,25 @@
         <v>70</v>
       </c>
       <c r="L4" s="4">
-        <v>-49.2</v>
+        <v>-44</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="O4" s="6">
+        <v>10</v>
+      </c>
+      <c r="P4" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>0</v>
+      </c>
+      <c r="R4" s="8">
         <v>2</v>
-      </c>
-      <c r="P4" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1580,13 +1601,13 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>71</v>
@@ -1610,25 +1631,25 @@
         <v>71</v>
       </c>
       <c r="L5" s="4">
-        <v>-58.5</v>
+        <v>-55.7</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O5" s="6">
-        <v>2</v>
-      </c>
-      <c r="P5" s="7">
+        <v>218</v>
+      </c>
+      <c r="O5" s="10">
+        <v>13</v>
+      </c>
+      <c r="P5" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="8">
         <v>0</v>
       </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
+      <c r="R5" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1636,13 +1657,13 @@
         <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>72</v>
@@ -1666,25 +1687,25 @@
         <v>72</v>
       </c>
       <c r="L6" s="4">
-        <v>-57.5</v>
+        <v>-59.1</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O6" s="6">
-        <v>14</v>
-      </c>
-      <c r="P6" s="8">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="7">
+        <v>218</v>
+      </c>
+      <c r="O6" s="11">
+        <v>35</v>
+      </c>
+      <c r="P6" s="12">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="8">
         <v>0</v>
       </c>
-      <c r="R6" s="7">
-        <v>1</v>
+      <c r="R6" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1692,13 +1713,13 @@
         <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>73</v>
@@ -1716,30 +1737,30 @@
         <v>173</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L7" s="4">
-        <v>-29</v>
+        <v>-23.1</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="O7" s="6">
-        <v>3</v>
-      </c>
-      <c r="P7" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="7">
+        <v>9</v>
+      </c>
+      <c r="P7" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="8">
         <v>0</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1748,13 +1769,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>74</v>
@@ -1778,24 +1799,24 @@
         <v>74</v>
       </c>
       <c r="L8" s="4">
-        <v>-44</v>
+        <v>-38.4</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="O8" s="6">
-        <v>2</v>
-      </c>
-      <c r="P8" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="7">
+        <v>7</v>
+      </c>
+      <c r="P8" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="8">
         <v>0</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1804,13 +1825,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>75</v>
@@ -1834,24 +1855,24 @@
         <v>75</v>
       </c>
       <c r="L9" s="4">
-        <v>-55.7</v>
+        <v>-51.8</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="O9" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P9" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="8">
         <v>0</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1860,13 +1881,13 @@
         <v>26</v>
       </c>
       <c r="B10" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>76</v>
@@ -1890,24 +1911,24 @@
         <v>76</v>
       </c>
       <c r="L10" s="4">
-        <v>-59.1</v>
+        <v>-58.9</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O10" s="9">
-        <v>18</v>
-      </c>
-      <c r="P10" s="8">
-        <v>7</v>
-      </c>
-      <c r="Q10" s="7">
+        <v>218</v>
+      </c>
+      <c r="O10" s="6">
+        <v>8</v>
+      </c>
+      <c r="P10" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="8">
         <v>0</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1916,13 +1937,13 @@
         <v>27</v>
       </c>
       <c r="B11" s="2">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>77</v>
@@ -1940,31 +1961,31 @@
         <v>177</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L11" s="4">
-        <v>-23.1</v>
+        <v>-32.5</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O11" s="6">
-        <v>4</v>
-      </c>
-      <c r="P11" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="7">
+        <v>218</v>
+      </c>
+      <c r="O11" s="11">
+        <v>59</v>
+      </c>
+      <c r="P11" s="13">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="8">
         <v>0</v>
       </c>
-      <c r="R11" s="7">
-        <v>0</v>
+      <c r="R11" s="12">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1972,13 +1993,13 @@
         <v>28</v>
       </c>
       <c r="B12" s="2">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>78</v>
@@ -2002,25 +2023,25 @@
         <v>78</v>
       </c>
       <c r="L12" s="4">
-        <v>-38.4</v>
+        <v>-47</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O12" s="6">
+        <v>218</v>
+      </c>
+      <c r="O12" s="10">
+        <v>28</v>
+      </c>
+      <c r="P12" s="9">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="9">
         <v>5</v>
       </c>
-      <c r="P12" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>0</v>
-      </c>
-      <c r="R12" s="7">
-        <v>0</v>
+      <c r="R12" s="12">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2028,13 +2049,13 @@
         <v>29</v>
       </c>
       <c r="B13" s="2">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>79</v>
@@ -2058,25 +2079,25 @@
         <v>79</v>
       </c>
       <c r="L13" s="4">
-        <v>-51.8</v>
+        <v>-57.1</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O13" s="9">
-        <v>21</v>
-      </c>
-      <c r="P13" s="10">
-        <v>17</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>0</v>
-      </c>
-      <c r="R13" s="7">
-        <v>0</v>
+        <v>218</v>
+      </c>
+      <c r="O13" s="11">
+        <v>49</v>
+      </c>
+      <c r="P13" s="9">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>3</v>
+      </c>
+      <c r="R13" s="14">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2084,10 +2105,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>63</v>
@@ -2108,31 +2129,31 @@
         <v>180</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="L14" s="4">
-        <v>-58.9</v>
+        <v>-26.6</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O14" s="9">
-        <v>24</v>
-      </c>
-      <c r="P14" s="11">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>0</v>
-      </c>
-      <c r="R14" s="7">
-        <v>0</v>
+        <v>220</v>
+      </c>
+      <c r="O14" s="11">
+        <v>67</v>
+      </c>
+      <c r="P14" s="15">
+        <v>51</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>6</v>
+      </c>
+      <c r="R14" s="13">
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2140,13 +2161,13 @@
         <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>81</v>
@@ -2164,31 +2185,31 @@
         <v>181</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="L15" s="4">
-        <v>-32.5</v>
+        <v>-41.7</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O15" s="9">
-        <v>26</v>
-      </c>
-      <c r="P15" s="12">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="10">
-        <v>16</v>
+        <v>218</v>
+      </c>
+      <c r="O15" s="11">
+        <v>87</v>
+      </c>
+      <c r="P15" s="13">
+        <v>56</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>30</v>
       </c>
       <c r="R15" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2196,13 +2217,13 @@
         <v>32</v>
       </c>
       <c r="B16" s="2">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>82</v>
@@ -2226,25 +2247,25 @@
         <v>82</v>
       </c>
       <c r="L16" s="4">
-        <v>-47</v>
+        <v>-53.9</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O16" s="9">
-        <v>30</v>
-      </c>
-      <c r="P16" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>30</v>
-      </c>
-      <c r="R16" s="8">
-        <v>3</v>
+        <v>218</v>
+      </c>
+      <c r="O16" s="11">
+        <v>83</v>
+      </c>
+      <c r="P16" s="17">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="18">
+        <v>14</v>
+      </c>
+      <c r="R16" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2252,13 +2273,13 @@
         <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>83</v>
@@ -2276,31 +2297,31 @@
         <v>183</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="L17" s="4">
-        <v>-57.1</v>
+        <v>-20.6</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O17" s="14">
-        <v>53</v>
-      </c>
-      <c r="P17" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="15">
-        <v>47</v>
-      </c>
-      <c r="R17" s="16">
-        <v>24</v>
+        <v>220</v>
+      </c>
+      <c r="O17" s="11">
+        <v>100</v>
+      </c>
+      <c r="P17" s="19">
+        <v>70</v>
+      </c>
+      <c r="Q17" s="20">
+        <v>89</v>
+      </c>
+      <c r="R17" s="21">
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2308,13 +2329,13 @@
         <v>34</v>
       </c>
       <c r="B18" s="2">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>84</v>
@@ -2332,31 +2353,31 @@
         <v>184</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L18" s="4">
-        <v>-26.6</v>
+        <v>-35.9</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O18" s="14">
-        <v>86</v>
+        <v>218</v>
+      </c>
+      <c r="O18" s="11">
+        <v>100</v>
       </c>
       <c r="P18" s="17">
-        <v>50</v>
-      </c>
-      <c r="Q18" s="18">
-        <v>80</v>
-      </c>
-      <c r="R18" s="19">
-        <v>37</v>
+        <v>61</v>
+      </c>
+      <c r="Q18" s="22">
+        <v>98</v>
+      </c>
+      <c r="R18" s="20">
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2364,13 +2385,13 @@
         <v>35</v>
       </c>
       <c r="B19" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>85</v>
@@ -2394,25 +2415,25 @@
         <v>85</v>
       </c>
       <c r="L19" s="4">
-        <v>-41.7</v>
+        <v>-49.7</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O19" s="14">
+        <v>218</v>
+      </c>
+      <c r="O19" s="11">
+        <v>100</v>
+      </c>
+      <c r="P19" s="15">
+        <v>52</v>
+      </c>
+      <c r="Q19" s="23">
+        <v>96</v>
+      </c>
+      <c r="R19" s="22">
         <v>99</v>
-      </c>
-      <c r="P19" s="20">
-        <v>71</v>
-      </c>
-      <c r="Q19" s="21">
-        <v>99</v>
-      </c>
-      <c r="R19" s="22">
-        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2420,13 +2441,13 @@
         <v>36</v>
       </c>
       <c r="B20" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>86</v>
@@ -2444,31 +2465,31 @@
         <v>186</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
       <c r="L20" s="4">
-        <v>-54</v>
+        <v>-14.7</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O20" s="14">
+        <v>220</v>
+      </c>
+      <c r="O20" s="11">
+        <v>100</v>
+      </c>
+      <c r="P20" s="22">
         <v>99</v>
       </c>
-      <c r="P20" s="18">
-        <v>78</v>
-      </c>
-      <c r="Q20" s="21">
-        <v>99</v>
-      </c>
-      <c r="R20" s="19">
-        <v>34</v>
+      <c r="Q20" s="12">
+        <v>10</v>
+      </c>
+      <c r="R20" s="12">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2476,13 +2497,13 @@
         <v>37</v>
       </c>
       <c r="B21" s="2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>87</v>
@@ -2500,31 +2521,31 @@
         <v>187</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L21" s="4">
-        <v>-20.6</v>
+        <v>-30</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O21" s="14">
+        <v>220</v>
+      </c>
+      <c r="O21" s="11">
         <v>100</v>
       </c>
-      <c r="P21" s="23">
-        <v>91</v>
-      </c>
-      <c r="Q21" s="19">
-        <v>33</v>
-      </c>
-      <c r="R21" s="19">
-        <v>33</v>
+      <c r="P21" s="22">
+        <v>99</v>
+      </c>
+      <c r="Q21" s="12">
+        <v>10</v>
+      </c>
+      <c r="R21" s="18">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2532,13 +2553,13 @@
         <v>38</v>
       </c>
       <c r="B22" s="2">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>88</v>
@@ -2556,31 +2577,31 @@
         <v>188</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>206</v>
+        <v>88</v>
       </c>
       <c r="L22" s="4">
-        <v>-35.9</v>
+        <v>-44.7</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O22" s="14">
+        <v>218</v>
+      </c>
+      <c r="O22" s="11">
         <v>100</v>
       </c>
       <c r="P22" s="23">
-        <v>91</v>
-      </c>
-      <c r="Q22" s="8">
-        <v>7</v>
-      </c>
-      <c r="R22" s="7">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>6</v>
+      </c>
+      <c r="R22" s="24">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2588,13 +2609,13 @@
         <v>39</v>
       </c>
       <c r="B23" s="2">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>89</v>
@@ -2612,31 +2633,31 @@
         <v>189</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="L23" s="4">
-        <v>-49.7</v>
+        <v>-8.9</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O23" s="14">
+        <v>220</v>
+      </c>
+      <c r="O23" s="11">
         <v>100</v>
       </c>
-      <c r="P23" s="24">
-        <v>83</v>
-      </c>
-      <c r="Q23" s="10">
-        <v>15</v>
-      </c>
-      <c r="R23" s="7">
+      <c r="P23" s="22">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="8">
         <v>0</v>
+      </c>
+      <c r="R23" s="9">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2644,13 +2665,13 @@
         <v>40</v>
       </c>
       <c r="B24" s="2">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>90</v>
@@ -2668,31 +2689,31 @@
         <v>190</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L24" s="4">
-        <v>-14.7</v>
+        <v>-24</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O24" s="14">
-        <v>99</v>
-      </c>
-      <c r="P24" s="21">
-        <v>99</v>
-      </c>
-      <c r="Q24" s="12">
-        <v>11</v>
-      </c>
-      <c r="R24" s="19">
-        <v>34</v>
+        <v>220</v>
+      </c>
+      <c r="O24" s="11">
+        <v>100</v>
+      </c>
+      <c r="P24" s="22">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>2</v>
+      </c>
+      <c r="R24" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2700,13 +2721,13 @@
         <v>41</v>
       </c>
       <c r="B25" s="2">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>91</v>
@@ -2724,31 +2745,31 @@
         <v>191</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="L25" s="4">
-        <v>-30</v>
+        <v>-39.1</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O25" s="14">
+        <v>218</v>
+      </c>
+      <c r="O25" s="11">
         <v>100</v>
       </c>
-      <c r="P25" s="21">
-        <v>99</v>
-      </c>
-      <c r="Q25" s="8">
-        <v>6</v>
-      </c>
-      <c r="R25" s="22">
-        <v>38</v>
+      <c r="P25" s="22">
+        <v>100</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>12</v>
+      </c>
+      <c r="R25" s="9">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2756,13 +2777,13 @@
         <v>42</v>
       </c>
       <c r="B26" s="2">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>92</v>
@@ -2786,25 +2807,25 @@
         <v>92</v>
       </c>
       <c r="L26" s="4">
-        <v>-44.7</v>
+        <v>-52</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O26" s="14">
-        <v>95</v>
-      </c>
-      <c r="P26" s="23">
-        <v>91</v>
-      </c>
-      <c r="Q26" s="10">
-        <v>14</v>
-      </c>
-      <c r="R26" s="13">
+        <v>219</v>
+      </c>
+      <c r="O26" s="11">
+        <v>99</v>
+      </c>
+      <c r="P26" s="22">
+        <v>99</v>
+      </c>
+      <c r="Q26" s="16">
         <v>29</v>
+      </c>
+      <c r="R26" s="18">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="207">
   <si>
     <t>Datum</t>
   </si>
@@ -68,6 +68,573 @@
   </si>
   <si>
     <t>Vysoká</t>
+  </si>
+  <si>
+    <t>20260122--01</t>
+  </si>
+  <si>
+    <t>20260122--02</t>
+  </si>
+  <si>
+    <t>20260122--03</t>
+  </si>
+  <si>
+    <t>20260123--01</t>
+  </si>
+  <si>
+    <t>20260123--02</t>
+  </si>
+  <si>
+    <t>20260123--03</t>
+  </si>
+  <si>
+    <t>20260124--01</t>
+  </si>
+  <si>
+    <t>20260124--02</t>
+  </si>
+  <si>
+    <t>20260124--03</t>
+  </si>
+  <si>
+    <t>20260125--01</t>
+  </si>
+  <si>
+    <t>20260125--02</t>
+  </si>
+  <si>
+    <t>20260125--03</t>
+  </si>
+  <si>
+    <t>20260126--01</t>
+  </si>
+  <si>
+    <t>20260126--02</t>
+  </si>
+  <si>
+    <t>20260126--03</t>
+  </si>
+  <si>
+    <t>20260126--04</t>
+  </si>
+  <si>
+    <t>20260127--01</t>
+  </si>
+  <si>
+    <t>20260127--02</t>
+  </si>
+  <si>
+    <t>20260127--03</t>
+  </si>
+  <si>
+    <t>20260128--01</t>
+  </si>
+  <si>
+    <t>20260128--02</t>
+  </si>
+  <si>
+    <t>20260128--03</t>
+  </si>
+  <si>
+    <t>06:02</t>
+  </si>
+  <si>
+    <t>06:31</t>
+  </si>
+  <si>
+    <t>05:23</t>
+  </si>
+  <si>
+    <t>05:52</t>
+  </si>
+  <si>
+    <t>06:32</t>
+  </si>
+  <si>
+    <t>05:38</t>
+  </si>
+  <si>
+    <t>05:21</t>
+  </si>
+  <si>
+    <t>05:00</t>
+  </si>
+  <si>
+    <t>06:28</t>
+  </si>
+  <si>
+    <t>06:11</t>
+  </si>
+  <si>
+    <t>02:34</t>
+  </si>
+  <si>
+    <t>06:26</t>
+  </si>
+  <si>
+    <t>06:18</t>
+  </si>
+  <si>
+    <t>03:33</t>
+  </si>
+  <si>
+    <t>06:21</t>
+  </si>
+  <si>
+    <t>06:23</t>
+  </si>
+  <si>
+    <t>04:15</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>00:50</t>
+  </si>
+  <si>
+    <t>02:27</t>
+  </si>
+  <si>
+    <t>04:02</t>
+  </si>
+  <si>
+    <t>00:42</t>
+  </si>
+  <si>
+    <t>02:23</t>
+  </si>
+  <si>
+    <t>04:04</t>
+  </si>
+  <si>
+    <t>05:44</t>
+  </si>
+  <si>
+    <t>01:45</t>
+  </si>
+  <si>
+    <t>19:02:14</t>
+  </si>
+  <si>
+    <t>20:39:45</t>
+  </si>
+  <si>
+    <t>22:17:39</t>
+  </si>
+  <si>
+    <t>18:25:37</t>
+  </si>
+  <si>
+    <t>20:03:02</t>
+  </si>
+  <si>
+    <t>21:40:54</t>
+  </si>
+  <si>
+    <t>17:48:54</t>
+  </si>
+  <si>
+    <t>19:26:14</t>
+  </si>
+  <si>
+    <t>21:04:03</t>
+  </si>
+  <si>
+    <t>17:12:06</t>
+  </si>
+  <si>
+    <t>18:49:21</t>
+  </si>
+  <si>
+    <t>20:27:07</t>
+  </si>
+  <si>
+    <t>16:35:14</t>
+  </si>
+  <si>
+    <t>18:12:21</t>
+  </si>
+  <si>
+    <t>19:50:04</t>
+  </si>
+  <si>
+    <t>21:28:13</t>
+  </si>
+  <si>
+    <t>17:35:16</t>
+  </si>
+  <si>
+    <t>19:12:56</t>
+  </si>
+  <si>
+    <t>20:51:00</t>
+  </si>
+  <si>
+    <t>16:58:05</t>
+  </si>
+  <si>
+    <t>18:35:42</t>
+  </si>
+  <si>
+    <t>20:13:41</t>
+  </si>
+  <si>
+    <t>19:04:37</t>
+  </si>
+  <si>
+    <t>20:42:01</t>
+  </si>
+  <si>
+    <t>22:20:10</t>
+  </si>
+  <si>
+    <t>18:28:01</t>
+  </si>
+  <si>
+    <t>20:05:19</t>
+  </si>
+  <si>
+    <t>21:43:22</t>
+  </si>
+  <si>
+    <t>17:51:22</t>
+  </si>
+  <si>
+    <t>19:28:31</t>
+  </si>
+  <si>
+    <t>21:06:28</t>
+  </si>
+  <si>
+    <t>17:14:38</t>
+  </si>
+  <si>
+    <t>18:51:37</t>
+  </si>
+  <si>
+    <t>20:29:29</t>
+  </si>
+  <si>
+    <t>16:37:51</t>
+  </si>
+  <si>
+    <t>18:14:38</t>
+  </si>
+  <si>
+    <t>19:52:25</t>
+  </si>
+  <si>
+    <t>21:31:35</t>
+  </si>
+  <si>
+    <t>17:37:33</t>
+  </si>
+  <si>
+    <t>19:15:15</t>
+  </si>
+  <si>
+    <t>20:54:02</t>
+  </si>
+  <si>
+    <t>17:00:23</t>
+  </si>
+  <si>
+    <t>18:38:00</t>
+  </si>
+  <si>
+    <t>20:16:31</t>
+  </si>
+  <si>
+    <t>19:07:38</t>
+  </si>
+  <si>
+    <t>20:45:17</t>
+  </si>
+  <si>
+    <t>22:22:52</t>
+  </si>
+  <si>
+    <t>18:30:57</t>
+  </si>
+  <si>
+    <t>20:08:35</t>
+  </si>
+  <si>
+    <t>21:46:11</t>
+  </si>
+  <si>
+    <t>17:54:10</t>
+  </si>
+  <si>
+    <t>19:31:47</t>
+  </si>
+  <si>
+    <t>21:09:24</t>
+  </si>
+  <si>
+    <t>17:17:18</t>
+  </si>
+  <si>
+    <t>18:54:52</t>
+  </si>
+  <si>
+    <t>20:32:30</t>
+  </si>
+  <si>
+    <t>16:40:20</t>
+  </si>
+  <si>
+    <t>18:17:52</t>
+  </si>
+  <si>
+    <t>19:55:31</t>
+  </si>
+  <si>
+    <t>21:32:52</t>
+  </si>
+  <si>
+    <t>17:40:46</t>
+  </si>
+  <si>
+    <t>19:18:24</t>
+  </si>
+  <si>
+    <t>20:55:49</t>
+  </si>
+  <si>
+    <t>17:03:34</t>
+  </si>
+  <si>
+    <t>18:41:11</t>
+  </si>
+  <si>
+    <t>20:18:38</t>
+  </si>
+  <si>
+    <t>19:10:39</t>
+  </si>
+  <si>
+    <t>20:48:32</t>
+  </si>
+  <si>
+    <t>22:25:33</t>
+  </si>
+  <si>
+    <t>18:33:53</t>
+  </si>
+  <si>
+    <t>20:11:51</t>
+  </si>
+  <si>
+    <t>21:49:00</t>
+  </si>
+  <si>
+    <t>17:57:00</t>
+  </si>
+  <si>
+    <t>19:35:02</t>
+  </si>
+  <si>
+    <t>21:12:20</t>
+  </si>
+  <si>
+    <t>17:19:59</t>
+  </si>
+  <si>
+    <t>18:58:08</t>
+  </si>
+  <si>
+    <t>20:35:31</t>
+  </si>
+  <si>
+    <t>16:42:51</t>
+  </si>
+  <si>
+    <t>18:21:06</t>
+  </si>
+  <si>
+    <t>19:58:36</t>
+  </si>
+  <si>
+    <t>21:34:09</t>
+  </si>
+  <si>
+    <t>17:43:59</t>
+  </si>
+  <si>
+    <t>19:21:33</t>
+  </si>
+  <si>
+    <t>20:57:35</t>
+  </si>
+  <si>
+    <t>17:06:44</t>
+  </si>
+  <si>
+    <t>18:44:23</t>
+  </si>
+  <si>
+    <t>20:20:46</t>
+  </si>
+  <si>
+    <t>19:13:01</t>
+  </si>
+  <si>
+    <t>20:50:49</t>
+  </si>
+  <si>
+    <t>22:28:04</t>
+  </si>
+  <si>
+    <t>18:36:18</t>
+  </si>
+  <si>
+    <t>20:14:07</t>
+  </si>
+  <si>
+    <t>21:51:28</t>
+  </si>
+  <si>
+    <t>17:59:28</t>
+  </si>
+  <si>
+    <t>19:37:19</t>
+  </si>
+  <si>
+    <t>21:14:44</t>
+  </si>
+  <si>
+    <t>17:22:31</t>
+  </si>
+  <si>
+    <t>19:00:24</t>
+  </si>
+  <si>
+    <t>20:37:53</t>
+  </si>
+  <si>
+    <t>16:45:28</t>
+  </si>
+  <si>
+    <t>18:23:23</t>
+  </si>
+  <si>
+    <t>20:00:56</t>
+  </si>
+  <si>
+    <t>21:37:31</t>
+  </si>
+  <si>
+    <t>17:46:16</t>
+  </si>
+  <si>
+    <t>19:23:52</t>
+  </si>
+  <si>
+    <t>21:00:37</t>
+  </si>
+  <si>
+    <t>17:09:03</t>
+  </si>
+  <si>
+    <t>18:46:41</t>
+  </si>
+  <si>
+    <t>20:23:35</t>
+  </si>
+  <si>
+    <t>6°</t>
+  </si>
+  <si>
+    <t>0°</t>
+  </si>
+  <si>
+    <t>15°</t>
+  </si>
+  <si>
+    <t>21°</t>
+  </si>
+  <si>
+    <t>5°</t>
+  </si>
+  <si>
+    <t>16°</t>
+  </si>
+  <si>
+    <t>14°</t>
+  </si>
+  <si>
+    <t>8°</t>
+  </si>
+  <si>
+    <t>28°</t>
+  </si>
+  <si>
+    <t>2°</t>
+  </si>
+  <si>
+    <t>27°</t>
+  </si>
+  <si>
+    <t>10°</t>
+  </si>
+  <si>
+    <t>22°</t>
+  </si>
+  <si>
+    <t>19:03:44</t>
+  </si>
+  <si>
+    <t>18:28:51</t>
+  </si>
+  <si>
+    <t>17:53:49</t>
+  </si>
+  <si>
+    <t>19:27:29</t>
+  </si>
+  <si>
+    <t>17:18:40</t>
+  </si>
+  <si>
+    <t>18:52:19</t>
+  </si>
+  <si>
+    <t>16:43:22</t>
+  </si>
+  <si>
+    <t>18:17:01</t>
+  </si>
+  <si>
+    <t>19:50:40</t>
+  </si>
+  <si>
+    <t>17:41:37</t>
+  </si>
+  <si>
+    <t>17:06:07</t>
+  </si>
+  <si>
+    <t>18:39:45</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A+B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -77,7 +644,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0&quot;°&quot;"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +660,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +678,120 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD7E4BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0B070"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99BADE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF558CC8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90B4DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0707F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2CBE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAC5E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D7EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80A9D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBD1E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCDCEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6EEF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF3F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6E9DD0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4E2F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF77A3D3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -144,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -160,6 +848,63 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,7 +1307,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -641,63 +1386,1295 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L2" s="4">
+        <v>-32.4</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O2" s="6">
+        <v>42</v>
+      </c>
+      <c r="P2" s="7">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>0</v>
+      </c>
+      <c r="R2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="4">
+        <v>-47</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O3" s="6">
+        <v>42</v>
+      </c>
+      <c r="P3" s="7">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>0</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="4">
+        <v>-57.1</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O4" s="6">
+        <v>35</v>
+      </c>
+      <c r="P4" s="9">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>0</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="L5" s="4">
+        <v>-26.5</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O5" s="10">
+        <v>89</v>
+      </c>
+      <c r="P5" s="11">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>50</v>
+      </c>
+      <c r="R5" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="4">
+        <v>-41.6</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O6" s="10">
+        <v>89</v>
+      </c>
+      <c r="P6" s="13">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>23</v>
+      </c>
+      <c r="R6" s="15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="4">
+        <v>-53.9</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O7" s="10">
+        <v>81</v>
+      </c>
+      <c r="P7" s="13">
+        <v>66</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" s="13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="4">
+        <v>-20.5</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O8" s="10">
+        <v>100</v>
+      </c>
+      <c r="P8" s="16">
+        <v>82</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>50</v>
+      </c>
+      <c r="R8" s="17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L9" s="4">
+        <v>-35.7</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O9" s="10">
+        <v>100</v>
+      </c>
+      <c r="P9" s="18">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>67</v>
+      </c>
+      <c r="R9" s="19">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="4">
+        <v>-49.6</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O10" s="10">
+        <v>95</v>
+      </c>
+      <c r="P10" s="20">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="21">
+        <v>13</v>
+      </c>
+      <c r="R10" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L11" s="4">
+        <v>-14.5</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O11" s="10">
+        <v>100</v>
+      </c>
+      <c r="P11" s="22">
+        <v>99</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>100</v>
+      </c>
+      <c r="R11" s="15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L12" s="4">
+        <v>-29.8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O12" s="10">
+        <v>100</v>
+      </c>
+      <c r="P12" s="22">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>100</v>
+      </c>
+      <c r="R12" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="4">
+        <v>-44.5</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O13" s="10">
+        <v>100</v>
+      </c>
+      <c r="P13" s="22">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>60</v>
+      </c>
+      <c r="R13" s="18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L14" s="4">
+        <v>-8.699999999999999</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O14" s="10">
+        <v>98</v>
+      </c>
+      <c r="P14" s="13">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>96</v>
+      </c>
+      <c r="R14" s="14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L15" s="4">
+        <v>-23.8</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O15" s="10">
+        <v>96</v>
+      </c>
+      <c r="P15" s="19">
+        <v>86</v>
+      </c>
+      <c r="Q15" s="20">
+        <v>92</v>
+      </c>
+      <c r="R15" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L16" s="4">
+        <v>-38.9</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O16" s="10">
+        <v>100</v>
+      </c>
+      <c r="P16" s="19">
+        <v>85</v>
+      </c>
+      <c r="Q16" s="17">
+        <v>93</v>
+      </c>
+      <c r="R16" s="19">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="4">
+        <v>-51.8</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="O17" s="10">
+        <v>100</v>
+      </c>
+      <c r="P17" s="23">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>80</v>
+      </c>
+      <c r="R17" s="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="L18" s="4">
+        <v>-17.7</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O18" s="10">
+        <v>95</v>
+      </c>
+      <c r="P18" s="20">
+        <v>90</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>25</v>
+      </c>
+      <c r="R18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="4">
+        <v>-33</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O19" s="10">
+        <v>96</v>
+      </c>
+      <c r="P19" s="17">
+        <v>93</v>
+      </c>
+      <c r="Q19" s="24">
+        <v>20</v>
+      </c>
+      <c r="R19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="4">
+        <v>-47.2</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="O20" s="10">
+        <v>98</v>
+      </c>
+      <c r="P20" s="17">
+        <v>97</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>15</v>
+      </c>
+      <c r="R20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="2">
+        <v>30</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="L21" s="4">
+        <v>-11.8</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O21" s="10">
+        <v>96</v>
+      </c>
+      <c r="P21" s="17">
+        <v>95</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>0</v>
+      </c>
+      <c r="R21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2">
+        <v>30</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="L22" s="4">
+        <v>-27</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O22" s="10">
+        <v>98</v>
+      </c>
+      <c r="P22" s="22">
+        <v>98</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>0</v>
+      </c>
+      <c r="R22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="4">
+        <v>-41.9</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O23" s="10">
+        <v>98</v>
+      </c>
+      <c r="P23" s="17">
+        <v>97</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>0</v>
+      </c>
+      <c r="R23" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A2">
+  <conditionalFormatting sqref="A2:A23">
     <cfRule type="expression" dxfId="8" priority="9">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B2">
+  <conditionalFormatting sqref="B2:B23">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C2">
+  <conditionalFormatting sqref="C2:C23">
     <cfRule type="expression" dxfId="9" priority="11">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D2">
+  <conditionalFormatting sqref="D2:D23">
     <cfRule type="expression" dxfId="8" priority="12">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E2">
+  <conditionalFormatting sqref="E2:E23">
     <cfRule type="expression" dxfId="9" priority="13">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F2">
+  <conditionalFormatting sqref="F2:F23">
     <cfRule type="expression" dxfId="9" priority="14">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G2">
+  <conditionalFormatting sqref="G2:G23">
     <cfRule type="expression" dxfId="9" priority="15">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H2">
+  <conditionalFormatting sqref="H2:H23">
     <cfRule type="expression" dxfId="9" priority="16">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I2">
+  <conditionalFormatting sqref="I2:I23">
     <cfRule type="expression" dxfId="8" priority="17">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J2">
+  <conditionalFormatting sqref="J2:J23">
     <cfRule type="expression" dxfId="9" priority="18">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K2">
+  <conditionalFormatting sqref="K2:K23">
     <cfRule type="expression" dxfId="8" priority="19">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L2">
+  <conditionalFormatting sqref="L2:L23">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -716,12 +2693,12 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M2">
+  <conditionalFormatting sqref="M2:M23">
     <cfRule type="expression" dxfId="9" priority="21">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N2">
+  <conditionalFormatting sqref="N2:N23">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>
@@ -738,22 +2715,22 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O2">
+  <conditionalFormatting sqref="O2:O23">
     <cfRule type="expression" dxfId="9" priority="23">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P2">
+  <conditionalFormatting sqref="P2:P23">
     <cfRule type="expression" dxfId="9" priority="24">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q2">
+  <conditionalFormatting sqref="Q2:Q23">
     <cfRule type="expression" dxfId="9" priority="25">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R2">
+  <conditionalFormatting sqref="R2:R23">
     <cfRule type="expression" dxfId="9" priority="26">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="207">
   <si>
     <t>Datum</t>
   </si>
@@ -70,15 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>20260122--01</t>
-  </si>
-  <si>
-    <t>20260122--02</t>
-  </si>
-  <si>
-    <t>20260122--03</t>
-  </si>
-  <si>
     <t>20260123--01</t>
   </si>
   <si>
@@ -136,37 +127,49 @@
     <t>20260128--03</t>
   </si>
   <si>
-    <t>06:02</t>
+    <t>20260129--01</t>
+  </si>
+  <si>
+    <t>20260129--02</t>
+  </si>
+  <si>
+    <t>05:51</t>
+  </si>
+  <si>
+    <t>06:33</t>
+  </si>
+  <si>
+    <t>05:39</t>
+  </si>
+  <si>
+    <t>05:38</t>
+  </si>
+  <si>
+    <t>06:32</t>
+  </si>
+  <si>
+    <t>05:52</t>
+  </si>
+  <si>
+    <t>05:21</t>
   </si>
   <si>
     <t>06:31</t>
   </si>
   <si>
-    <t>05:23</t>
-  </si>
-  <si>
-    <t>05:52</t>
-  </si>
-  <si>
-    <t>06:32</t>
-  </si>
-  <si>
-    <t>05:38</t>
-  </si>
-  <si>
-    <t>05:21</t>
-  </si>
-  <si>
-    <t>05:00</t>
-  </si>
-  <si>
-    <t>06:28</t>
+    <t>06:03</t>
+  </si>
+  <si>
+    <t>05:01</t>
+  </si>
+  <si>
+    <t>06:29</t>
   </si>
   <si>
     <t>06:11</t>
   </si>
   <si>
-    <t>02:34</t>
+    <t>02:31</t>
   </si>
   <si>
     <t>06:26</t>
@@ -175,384 +178,375 @@
     <t>06:18</t>
   </si>
   <si>
-    <t>03:33</t>
-  </si>
-  <si>
-    <t>06:21</t>
+    <t>03:32</t>
+  </si>
+  <si>
+    <t>06:22</t>
   </si>
   <si>
     <t>06:23</t>
   </si>
   <si>
-    <t>04:15</t>
+    <t>04:13</t>
+  </si>
+  <si>
+    <t>06:27</t>
+  </si>
+  <si>
+    <t>04:44</t>
+  </si>
+  <si>
+    <t>00:49</t>
   </si>
   <si>
     <t>00:00</t>
   </si>
   <si>
-    <t>00:50</t>
-  </si>
-  <si>
     <t>02:27</t>
   </si>
   <si>
+    <t>04:01</t>
+  </si>
+  <si>
+    <t>00:42</t>
+  </si>
+  <si>
+    <t>02:23</t>
+  </si>
+  <si>
     <t>04:02</t>
   </si>
   <si>
-    <t>00:42</t>
-  </si>
-  <si>
-    <t>02:23</t>
-  </si>
-  <si>
-    <t>04:04</t>
-  </si>
-  <si>
-    <t>05:44</t>
-  </si>
-  <si>
-    <t>01:45</t>
-  </si>
-  <si>
-    <t>19:02:14</t>
-  </si>
-  <si>
-    <t>20:39:45</t>
-  </si>
-  <si>
-    <t>22:17:39</t>
-  </si>
-  <si>
-    <t>18:25:37</t>
-  </si>
-  <si>
-    <t>20:03:02</t>
-  </si>
-  <si>
-    <t>21:40:54</t>
-  </si>
-  <si>
-    <t>17:48:54</t>
-  </si>
-  <si>
-    <t>19:26:14</t>
-  </si>
-  <si>
-    <t>21:04:03</t>
-  </si>
-  <si>
-    <t>17:12:06</t>
-  </si>
-  <si>
-    <t>18:49:21</t>
-  </si>
-  <si>
-    <t>20:27:07</t>
-  </si>
-  <si>
-    <t>16:35:14</t>
-  </si>
-  <si>
-    <t>18:12:21</t>
-  </si>
-  <si>
-    <t>19:50:04</t>
-  </si>
-  <si>
-    <t>21:28:13</t>
-  </si>
-  <si>
-    <t>17:35:16</t>
-  </si>
-  <si>
-    <t>19:12:56</t>
-  </si>
-  <si>
-    <t>20:51:00</t>
-  </si>
-  <si>
-    <t>16:58:05</t>
-  </si>
-  <si>
-    <t>18:35:42</t>
-  </si>
-  <si>
-    <t>20:13:41</t>
-  </si>
-  <si>
-    <t>19:04:37</t>
-  </si>
-  <si>
-    <t>20:42:01</t>
-  </si>
-  <si>
-    <t>22:20:10</t>
-  </si>
-  <si>
-    <t>18:28:01</t>
-  </si>
-  <si>
-    <t>20:05:19</t>
-  </si>
-  <si>
-    <t>21:43:22</t>
-  </si>
-  <si>
-    <t>17:51:22</t>
-  </si>
-  <si>
-    <t>19:28:31</t>
-  </si>
-  <si>
-    <t>21:06:28</t>
-  </si>
-  <si>
-    <t>17:14:38</t>
-  </si>
-  <si>
-    <t>18:51:37</t>
-  </si>
-  <si>
-    <t>20:29:29</t>
-  </si>
-  <si>
-    <t>16:37:51</t>
-  </si>
-  <si>
-    <t>18:14:38</t>
-  </si>
-  <si>
-    <t>19:52:25</t>
-  </si>
-  <si>
-    <t>21:31:35</t>
-  </si>
-  <si>
-    <t>17:37:33</t>
-  </si>
-  <si>
-    <t>19:15:15</t>
-  </si>
-  <si>
-    <t>20:54:02</t>
-  </si>
-  <si>
-    <t>17:00:23</t>
-  </si>
-  <si>
-    <t>18:38:00</t>
-  </si>
-  <si>
-    <t>20:16:31</t>
-  </si>
-  <si>
-    <t>19:07:38</t>
-  </si>
-  <si>
-    <t>20:45:17</t>
-  </si>
-  <si>
-    <t>22:22:52</t>
-  </si>
-  <si>
-    <t>18:30:57</t>
-  </si>
-  <si>
-    <t>20:08:35</t>
-  </si>
-  <si>
-    <t>21:46:11</t>
-  </si>
-  <si>
-    <t>17:54:10</t>
-  </si>
-  <si>
-    <t>19:31:47</t>
-  </si>
-  <si>
-    <t>21:09:24</t>
-  </si>
-  <si>
-    <t>17:17:18</t>
-  </si>
-  <si>
-    <t>18:54:52</t>
-  </si>
-  <si>
-    <t>20:32:30</t>
-  </si>
-  <si>
-    <t>16:40:20</t>
-  </si>
-  <si>
-    <t>18:17:52</t>
-  </si>
-  <si>
-    <t>19:55:31</t>
-  </si>
-  <si>
-    <t>21:32:52</t>
-  </si>
-  <si>
-    <t>17:40:46</t>
-  </si>
-  <si>
-    <t>19:18:24</t>
-  </si>
-  <si>
-    <t>20:55:49</t>
-  </si>
-  <si>
-    <t>17:03:34</t>
-  </si>
-  <si>
-    <t>18:41:11</t>
-  </si>
-  <si>
-    <t>20:18:38</t>
-  </si>
-  <si>
-    <t>19:10:39</t>
-  </si>
-  <si>
-    <t>20:48:32</t>
-  </si>
-  <si>
-    <t>22:25:33</t>
-  </si>
-  <si>
-    <t>18:33:53</t>
-  </si>
-  <si>
-    <t>20:11:51</t>
-  </si>
-  <si>
-    <t>21:49:00</t>
-  </si>
-  <si>
-    <t>17:57:00</t>
-  </si>
-  <si>
-    <t>19:35:02</t>
-  </si>
-  <si>
-    <t>21:12:20</t>
-  </si>
-  <si>
-    <t>17:19:59</t>
-  </si>
-  <si>
-    <t>18:58:08</t>
-  </si>
-  <si>
-    <t>20:35:31</t>
-  </si>
-  <si>
-    <t>16:42:51</t>
-  </si>
-  <si>
-    <t>18:21:06</t>
-  </si>
-  <si>
-    <t>19:58:36</t>
-  </si>
-  <si>
-    <t>21:34:09</t>
-  </si>
-  <si>
-    <t>17:43:59</t>
-  </si>
-  <si>
-    <t>19:21:33</t>
-  </si>
-  <si>
-    <t>20:57:35</t>
-  </si>
-  <si>
-    <t>17:06:44</t>
-  </si>
-  <si>
-    <t>18:44:23</t>
-  </si>
-  <si>
-    <t>20:20:46</t>
-  </si>
-  <si>
-    <t>19:13:01</t>
-  </si>
-  <si>
-    <t>20:50:49</t>
-  </si>
-  <si>
-    <t>22:28:04</t>
-  </si>
-  <si>
-    <t>18:36:18</t>
-  </si>
-  <si>
-    <t>20:14:07</t>
-  </si>
-  <si>
-    <t>21:51:28</t>
-  </si>
-  <si>
-    <t>17:59:28</t>
-  </si>
-  <si>
-    <t>19:37:19</t>
-  </si>
-  <si>
-    <t>21:14:44</t>
-  </si>
-  <si>
-    <t>17:22:31</t>
-  </si>
-  <si>
-    <t>19:00:24</t>
-  </si>
-  <si>
-    <t>20:37:53</t>
-  </si>
-  <si>
-    <t>16:45:28</t>
-  </si>
-  <si>
-    <t>18:23:23</t>
-  </si>
-  <si>
-    <t>20:00:56</t>
-  </si>
-  <si>
-    <t>21:37:31</t>
-  </si>
-  <si>
-    <t>17:46:16</t>
-  </si>
-  <si>
-    <t>19:23:52</t>
-  </si>
-  <si>
-    <t>21:00:37</t>
-  </si>
-  <si>
-    <t>17:09:03</t>
-  </si>
-  <si>
-    <t>18:46:41</t>
-  </si>
-  <si>
-    <t>20:23:35</t>
-  </si>
-  <si>
-    <t>6°</t>
+    <t>05:42</t>
+  </si>
+  <si>
+    <t>01:43</t>
+  </si>
+  <si>
+    <t>03:27</t>
+  </si>
+  <si>
+    <t>18:25:41</t>
+  </si>
+  <si>
+    <t>20:03:07</t>
+  </si>
+  <si>
+    <t>21:40:59</t>
+  </si>
+  <si>
+    <t>17:49:04</t>
+  </si>
+  <si>
+    <t>19:26:25</t>
+  </si>
+  <si>
+    <t>21:04:14</t>
+  </si>
+  <si>
+    <t>17:12:24</t>
+  </si>
+  <si>
+    <t>18:49:39</t>
+  </si>
+  <si>
+    <t>20:27:26</t>
+  </si>
+  <si>
+    <t>16:35:42</t>
+  </si>
+  <si>
+    <t>18:12:50</t>
+  </si>
+  <si>
+    <t>19:50:34</t>
+  </si>
+  <si>
+    <t>21:28:43</t>
+  </si>
+  <si>
+    <t>17:35:57</t>
+  </si>
+  <si>
+    <t>19:13:38</t>
+  </si>
+  <si>
+    <t>20:51:43</t>
+  </si>
+  <si>
+    <t>16:59:00</t>
+  </si>
+  <si>
+    <t>18:36:38</t>
+  </si>
+  <si>
+    <t>20:14:39</t>
+  </si>
+  <si>
+    <t>17:59:35</t>
+  </si>
+  <si>
+    <t>19:37:32</t>
+  </si>
+  <si>
+    <t>18:28:06</t>
+  </si>
+  <si>
+    <t>20:05:23</t>
+  </si>
+  <si>
+    <t>21:43:27</t>
+  </si>
+  <si>
+    <t>17:51:32</t>
+  </si>
+  <si>
+    <t>19:28:41</t>
+  </si>
+  <si>
+    <t>21:06:39</t>
+  </si>
+  <si>
+    <t>17:14:56</t>
+  </si>
+  <si>
+    <t>18:51:55</t>
+  </si>
+  <si>
+    <t>20:29:48</t>
+  </si>
+  <si>
+    <t>16:38:18</t>
+  </si>
+  <si>
+    <t>18:15:06</t>
+  </si>
+  <si>
+    <t>19:52:54</t>
+  </si>
+  <si>
+    <t>21:32:07</t>
+  </si>
+  <si>
+    <t>17:38:14</t>
+  </si>
+  <si>
+    <t>19:15:57</t>
+  </si>
+  <si>
+    <t>20:54:45</t>
+  </si>
+  <si>
+    <t>17:01:18</t>
+  </si>
+  <si>
+    <t>18:38:56</t>
+  </si>
+  <si>
+    <t>20:17:29</t>
+  </si>
+  <si>
+    <t>18:01:52</t>
+  </si>
+  <si>
+    <t>19:40:13</t>
+  </si>
+  <si>
+    <t>18:31:01</t>
+  </si>
+  <si>
+    <t>20:08:40</t>
+  </si>
+  <si>
+    <t>21:46:16</t>
+  </si>
+  <si>
+    <t>17:54:20</t>
+  </si>
+  <si>
+    <t>19:31:57</t>
+  </si>
+  <si>
+    <t>21:09:35</t>
+  </si>
+  <si>
+    <t>17:17:36</t>
+  </si>
+  <si>
+    <t>18:55:11</t>
+  </si>
+  <si>
+    <t>20:32:50</t>
+  </si>
+  <si>
+    <t>16:40:48</t>
+  </si>
+  <si>
+    <t>18:18:21</t>
+  </si>
+  <si>
+    <t>19:56:00</t>
+  </si>
+  <si>
+    <t>21:33:22</t>
+  </si>
+  <si>
+    <t>17:41:27</t>
+  </si>
+  <si>
+    <t>19:19:06</t>
+  </si>
+  <si>
+    <t>20:56:31</t>
+  </si>
+  <si>
+    <t>17:04:29</t>
+  </si>
+  <si>
+    <t>18:42:08</t>
+  </si>
+  <si>
+    <t>20:19:36</t>
+  </si>
+  <si>
+    <t>18:05:06</t>
+  </si>
+  <si>
+    <t>19:42:36</t>
+  </si>
+  <si>
+    <t>18:33:57</t>
+  </si>
+  <si>
+    <t>20:11:56</t>
+  </si>
+  <si>
+    <t>21:49:06</t>
+  </si>
+  <si>
+    <t>17:57:10</t>
+  </si>
+  <si>
+    <t>19:35:13</t>
+  </si>
+  <si>
+    <t>21:12:31</t>
+  </si>
+  <si>
+    <t>17:20:17</t>
+  </si>
+  <si>
+    <t>18:58:26</t>
+  </si>
+  <si>
+    <t>20:35:51</t>
+  </si>
+  <si>
+    <t>16:43:19</t>
+  </si>
+  <si>
+    <t>18:21:35</t>
+  </si>
+  <si>
+    <t>19:59:05</t>
+  </si>
+  <si>
+    <t>21:34:38</t>
+  </si>
+  <si>
+    <t>17:44:40</t>
+  </si>
+  <si>
+    <t>19:22:15</t>
+  </si>
+  <si>
+    <t>20:58:17</t>
+  </si>
+  <si>
+    <t>17:07:40</t>
+  </si>
+  <si>
+    <t>18:45:19</t>
+  </si>
+  <si>
+    <t>20:21:42</t>
+  </si>
+  <si>
+    <t>18:08:19</t>
+  </si>
+  <si>
+    <t>19:44:57</t>
+  </si>
+  <si>
+    <t>18:36:22</t>
+  </si>
+  <si>
+    <t>20:14:12</t>
+  </si>
+  <si>
+    <t>21:51:33</t>
+  </si>
+  <si>
+    <t>17:59:38</t>
+  </si>
+  <si>
+    <t>19:37:29</t>
+  </si>
+  <si>
+    <t>21:14:55</t>
+  </si>
+  <si>
+    <t>17:22:49</t>
+  </si>
+  <si>
+    <t>19:00:43</t>
+  </si>
+  <si>
+    <t>20:38:13</t>
+  </si>
+  <si>
+    <t>16:45:56</t>
+  </si>
+  <si>
+    <t>18:23:52</t>
+  </si>
+  <si>
+    <t>20:01:25</t>
+  </si>
+  <si>
+    <t>21:38:00</t>
+  </si>
+  <si>
+    <t>17:46:57</t>
+  </si>
+  <si>
+    <t>19:24:33</t>
+  </si>
+  <si>
+    <t>21:01:19</t>
+  </si>
+  <si>
+    <t>17:09:58</t>
+  </si>
+  <si>
+    <t>18:47:37</t>
+  </si>
+  <si>
+    <t>20:24:31</t>
+  </si>
+  <si>
+    <t>18:10:36</t>
+  </si>
+  <si>
+    <t>19:47:38</t>
+  </si>
+  <si>
+    <t>15°</t>
   </si>
   <si>
     <t>0°</t>
   </si>
   <si>
-    <t>15°</t>
-  </si>
-  <si>
     <t>21°</t>
   </si>
   <si>
@@ -574,64 +568,70 @@
     <t>2°</t>
   </si>
   <si>
-    <t>27°</t>
-  </si>
-  <si>
     <t>10°</t>
   </si>
   <si>
     <t>22°</t>
   </si>
   <si>
-    <t>19:03:44</t>
-  </si>
-  <si>
-    <t>18:28:51</t>
-  </si>
-  <si>
-    <t>17:53:49</t>
-  </si>
-  <si>
-    <t>19:27:29</t>
-  </si>
-  <si>
-    <t>17:18:40</t>
-  </si>
-  <si>
-    <t>18:52:19</t>
-  </si>
-  <si>
-    <t>16:43:22</t>
-  </si>
-  <si>
-    <t>18:17:01</t>
-  </si>
-  <si>
-    <t>19:50:40</t>
-  </si>
-  <si>
-    <t>17:41:37</t>
-  </si>
-  <si>
-    <t>17:06:07</t>
-  </si>
-  <si>
-    <t>18:39:45</t>
+    <t>31°</t>
+  </si>
+  <si>
+    <t>18:28:55</t>
+  </si>
+  <si>
+    <t>17:53:59</t>
+  </si>
+  <si>
+    <t>19:27:39</t>
+  </si>
+  <si>
+    <t>17:18:57</t>
+  </si>
+  <si>
+    <t>18:52:37</t>
+  </si>
+  <si>
+    <t>16:43:49</t>
+  </si>
+  <si>
+    <t>18:17:29</t>
+  </si>
+  <si>
+    <t>19:51:08</t>
+  </si>
+  <si>
+    <t>17:42:16</t>
+  </si>
+  <si>
+    <t>19:15:55</t>
+  </si>
+  <si>
+    <t>17:07:00</t>
+  </si>
+  <si>
+    <t>18:40:39</t>
+  </si>
+  <si>
+    <t>18:05:19</t>
+  </si>
+  <si>
+    <t>19:38:58</t>
+  </si>
+  <si>
+    <t>A+B</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>A+B</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>4</t>
@@ -668,7 +668,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -683,31 +683,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0B070"/>
+        <fgColor rgb="FFF0707F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99BADE"/>
+        <fgColor rgb="FFBBD1E9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF558CC8"/>
+        <fgColor rgb="FFD4E2F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF90B4DB"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0707F"/>
+        <fgColor rgb="FFC4D7EC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,19 +725,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC4D7EC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF80A9D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBD1E9"/>
+        <fgColor rgb="FF558CC8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,43 +743,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEEF3F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99BADE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2C0E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6697CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5E92CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCCDCEE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6EEF7"/>
+        <fgColor rgb="FF80A9D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEF3F9"/>
+        <fgColor rgb="FF77A3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90B4DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF6E9DD0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4E2F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF77A3D3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -904,6 +910,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1307,7 +1316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1391,37 +1400,37 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>154</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L2" s="4">
-        <v>-32.4</v>
+        <v>-26.5</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>201</v>
@@ -1430,16 +1439,16 @@
         <v>204</v>
       </c>
       <c r="O2" s="6">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="P2" s="7">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="Q2" s="8">
-        <v>0</v>
-      </c>
-      <c r="R2" s="8">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="R2" s="9">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1450,52 +1459,52 @@
         <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>155</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L3" s="4">
-        <v>-47</v>
+        <v>-41.6</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O3" s="6">
-        <v>42</v>
-      </c>
-      <c r="P3" s="7">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>0</v>
-      </c>
-      <c r="R3" s="8">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="P3" s="10">
+        <v>63</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>56</v>
+      </c>
+      <c r="R3" s="12">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1503,55 +1512,55 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>156</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L4" s="4">
-        <v>-57.1</v>
+        <v>-53.9</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O4" s="6">
-        <v>35</v>
-      </c>
-      <c r="P4" s="9">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>0</v>
-      </c>
-      <c r="R4" s="8">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="P4" s="10">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>2</v>
+      </c>
+      <c r="R4" s="10">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1559,55 +1568,55 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>157</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L5" s="4">
-        <v>-26.5</v>
+        <v>-20.5</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O5" s="10">
-        <v>89</v>
-      </c>
-      <c r="P5" s="11">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>50</v>
-      </c>
-      <c r="R5" s="9">
-        <v>33</v>
+        <v>204</v>
+      </c>
+      <c r="O5" s="6">
+        <v>98</v>
+      </c>
+      <c r="P5" s="14">
+        <v>79</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>96</v>
+      </c>
+      <c r="R5" s="11">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1618,52 +1627,52 @@
         <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="L6" s="4">
-        <v>-41.6</v>
+        <v>-35.8</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="O6" s="10">
-        <v>89</v>
-      </c>
-      <c r="P6" s="13">
-        <v>65</v>
-      </c>
-      <c r="Q6" s="14">
-        <v>23</v>
-      </c>
-      <c r="R6" s="15">
-        <v>58</v>
+        <v>205</v>
+      </c>
+      <c r="O6" s="6">
+        <v>100</v>
+      </c>
+      <c r="P6" s="16">
+        <v>88</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>100</v>
+      </c>
+      <c r="R6" s="9">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1671,55 +1680,55 @@
         <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>159</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L7" s="4">
-        <v>-53.9</v>
+        <v>-49.6</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="O7" s="10">
-        <v>81</v>
-      </c>
-      <c r="P7" s="13">
-        <v>66</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>0</v>
-      </c>
-      <c r="R7" s="13">
-        <v>63</v>
+        <v>205</v>
+      </c>
+      <c r="O7" s="6">
+        <v>100</v>
+      </c>
+      <c r="P7" s="16">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>100</v>
+      </c>
+      <c r="R7" s="9">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1727,25 +1736,25 @@
         <v>24</v>
       </c>
       <c r="B8" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>160</v>
@@ -1754,28 +1763,28 @@
         <v>179</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L8" s="4">
-        <v>-20.5</v>
+        <v>-14.6</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O8" s="10">
+        <v>204</v>
+      </c>
+      <c r="O8" s="6">
         <v>100</v>
       </c>
-      <c r="P8" s="16">
-        <v>82</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>50</v>
-      </c>
-      <c r="R8" s="17">
-        <v>97</v>
+      <c r="P8" s="9">
+        <v>99</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>100</v>
+      </c>
+      <c r="R8" s="9">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1786,22 +1795,22 @@
         <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>161</v>
@@ -1810,10 +1819,10 @@
         <v>180</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L9" s="4">
-        <v>-35.7</v>
+        <v>-29.8</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>201</v>
@@ -1821,17 +1830,17 @@
       <c r="N9" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="6">
         <v>100</v>
       </c>
-      <c r="P9" s="18">
-        <v>72</v>
-      </c>
-      <c r="Q9" s="13">
-        <v>67</v>
-      </c>
-      <c r="R9" s="19">
-        <v>83</v>
+      <c r="P9" s="9">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>95</v>
+      </c>
+      <c r="R9" s="9">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1839,55 +1848,55 @@
         <v>26</v>
       </c>
       <c r="B10" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>162</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L10" s="4">
-        <v>-49.6</v>
+        <v>-44.6</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="O10" s="10">
+        <v>205</v>
+      </c>
+      <c r="O10" s="6">
+        <v>100</v>
+      </c>
+      <c r="P10" s="15">
         <v>95</v>
       </c>
-      <c r="P10" s="20">
-        <v>91</v>
-      </c>
-      <c r="Q10" s="21">
-        <v>13</v>
-      </c>
-      <c r="R10" s="7">
-        <v>40</v>
+      <c r="Q10" s="9">
+        <v>100</v>
+      </c>
+      <c r="R10" s="9">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1895,25 +1904,25 @@
         <v>27</v>
       </c>
       <c r="B11" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>163</v>
@@ -1922,28 +1931,28 @@
         <v>181</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L11" s="4">
-        <v>-14.5</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O11" s="10">
-        <v>100</v>
-      </c>
-      <c r="P11" s="22">
+        <v>204</v>
+      </c>
+      <c r="O11" s="6">
         <v>99</v>
       </c>
-      <c r="Q11" s="22">
-        <v>100</v>
-      </c>
-      <c r="R11" s="15">
-        <v>59</v>
+      <c r="P11" s="11">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>63</v>
+      </c>
+      <c r="R11" s="7">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1951,25 +1960,25 @@
         <v>28</v>
       </c>
       <c r="B12" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>164</v>
@@ -1978,28 +1987,28 @@
         <v>182</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L12" s="4">
-        <v>-29.8</v>
+        <v>-23.8</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O12" s="10">
-        <v>100</v>
-      </c>
-      <c r="P12" s="22">
-        <v>100</v>
-      </c>
-      <c r="Q12" s="22">
-        <v>100</v>
-      </c>
-      <c r="R12" s="9">
-        <v>34</v>
+        <v>204</v>
+      </c>
+      <c r="O12" s="6">
+        <v>62</v>
+      </c>
+      <c r="P12" s="7">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>62</v>
+      </c>
+      <c r="R12" s="13">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2007,55 +2016,55 @@
         <v>29</v>
       </c>
       <c r="B13" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>165</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="L13" s="4">
-        <v>-44.5</v>
+        <v>-38.9</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="O13" s="10">
-        <v>100</v>
-      </c>
-      <c r="P13" s="22">
-        <v>100</v>
-      </c>
-      <c r="Q13" s="15">
-        <v>60</v>
-      </c>
-      <c r="R13" s="18">
-        <v>72</v>
+        <v>205</v>
+      </c>
+      <c r="O13" s="6">
+        <v>66</v>
+      </c>
+      <c r="P13" s="10">
+        <v>66</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>61</v>
+      </c>
+      <c r="R13" s="13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2063,55 +2072,55 @@
         <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>166</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="L14" s="4">
-        <v>-8.699999999999999</v>
+        <v>-51.8</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O14" s="10">
-        <v>98</v>
-      </c>
-      <c r="P14" s="13">
-        <v>67</v>
+        <v>206</v>
+      </c>
+      <c r="O14" s="6">
+        <v>91</v>
+      </c>
+      <c r="P14" s="16">
+        <v>91</v>
       </c>
       <c r="Q14" s="17">
-        <v>96</v>
-      </c>
-      <c r="R14" s="14">
-        <v>27</v>
+        <v>41</v>
+      </c>
+      <c r="R14" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2119,55 +2128,55 @@
         <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>167</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L15" s="4">
-        <v>-23.8</v>
+        <v>-17.8</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O15" s="10">
-        <v>96</v>
-      </c>
-      <c r="P15" s="19">
-        <v>86</v>
-      </c>
-      <c r="Q15" s="20">
-        <v>92</v>
-      </c>
-      <c r="R15" s="9">
-        <v>35</v>
+        <v>204</v>
+      </c>
+      <c r="O15" s="6">
+        <v>100</v>
+      </c>
+      <c r="P15" s="18">
+        <v>45</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>99</v>
+      </c>
+      <c r="R15" s="16">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2175,55 +2184,55 @@
         <v>32</v>
       </c>
       <c r="B16" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>168</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L16" s="4">
-        <v>-38.9</v>
+        <v>-33.1</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="O16" s="10">
-        <v>100</v>
-      </c>
-      <c r="P16" s="19">
-        <v>85</v>
-      </c>
-      <c r="Q16" s="17">
-        <v>93</v>
-      </c>
-      <c r="R16" s="19">
-        <v>85</v>
+        <v>205</v>
+      </c>
+      <c r="O16" s="6">
+        <v>80</v>
+      </c>
+      <c r="P16" s="12">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>11</v>
+      </c>
+      <c r="R16" s="7">
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2231,55 +2240,55 @@
         <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L17" s="4">
-        <v>-51.8</v>
+        <v>-47.3</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="O17" s="10">
-        <v>100</v>
-      </c>
-      <c r="P17" s="23">
-        <v>76</v>
-      </c>
-      <c r="Q17" s="16">
-        <v>80</v>
-      </c>
-      <c r="R17" s="13">
-        <v>64</v>
+      <c r="O17" s="6">
+        <v>78</v>
+      </c>
+      <c r="P17" s="12">
+        <v>51</v>
+      </c>
+      <c r="Q17" s="20">
+        <v>4</v>
+      </c>
+      <c r="R17" s="21">
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2287,55 +2296,55 @@
         <v>34</v>
       </c>
       <c r="B18" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>170</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L18" s="4">
-        <v>-17.7</v>
+        <v>-11.9</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O18" s="10">
-        <v>95</v>
-      </c>
-      <c r="P18" s="20">
+        <v>204</v>
+      </c>
+      <c r="O18" s="6">
+        <v>99</v>
+      </c>
+      <c r="P18" s="7">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="16">
         <v>90</v>
       </c>
-      <c r="Q18" s="14">
-        <v>25</v>
-      </c>
       <c r="R18" s="8">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2343,55 +2352,55 @@
         <v>35</v>
       </c>
       <c r="B19" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>171</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>105</v>
+        <v>198</v>
       </c>
       <c r="L19" s="4">
-        <v>-33</v>
+        <v>-27.1</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O19" s="10">
-        <v>96</v>
-      </c>
-      <c r="P19" s="17">
-        <v>93</v>
-      </c>
-      <c r="Q19" s="24">
-        <v>20</v>
+        <v>204</v>
+      </c>
+      <c r="O19" s="6">
+        <v>100</v>
+      </c>
+      <c r="P19" s="11">
+        <v>53</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>100</v>
       </c>
       <c r="R19" s="8">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2399,55 +2408,55 @@
         <v>36</v>
       </c>
       <c r="B20" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L20" s="4">
-        <v>-47.2</v>
+        <v>-42</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="O20" s="10">
-        <v>98</v>
-      </c>
-      <c r="P20" s="17">
-        <v>97</v>
-      </c>
-      <c r="Q20" s="21">
-        <v>15</v>
-      </c>
-      <c r="R20" s="8">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="O20" s="6">
+        <v>100</v>
+      </c>
+      <c r="P20" s="10">
+        <v>64</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>95</v>
+      </c>
+      <c r="R20" s="16">
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2455,55 +2464,55 @@
         <v>37</v>
       </c>
       <c r="B21" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>173</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>199</v>
       </c>
       <c r="L21" s="4">
-        <v>-11.8</v>
+        <v>-21.1</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O21" s="10">
-        <v>96</v>
+        <v>204</v>
+      </c>
+      <c r="O21" s="6">
+        <v>73</v>
       </c>
       <c r="P21" s="17">
-        <v>95</v>
-      </c>
-      <c r="Q21" s="8">
-        <v>0</v>
-      </c>
-      <c r="R21" s="8">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="Q21" s="22">
+        <v>25</v>
+      </c>
+      <c r="R21" s="23">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2511,37 +2520,37 @@
         <v>38</v>
       </c>
       <c r="B22" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>174</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>200</v>
       </c>
       <c r="L22" s="4">
-        <v>-27</v>
+        <v>-36.2</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>202</v>
@@ -2549,132 +2558,76 @@
       <c r="N22" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="O22" s="10">
-        <v>98</v>
-      </c>
-      <c r="P22" s="22">
-        <v>98</v>
-      </c>
-      <c r="Q22" s="8">
-        <v>0</v>
-      </c>
-      <c r="R22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="2">
-        <v>15</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L23" s="4">
-        <v>-41.9</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="O23" s="10">
-        <v>98</v>
-      </c>
-      <c r="P23" s="17">
-        <v>97</v>
-      </c>
-      <c r="Q23" s="8">
-        <v>0</v>
-      </c>
-      <c r="R23" s="8">
-        <v>0</v>
+      <c r="O22" s="6">
+        <v>68</v>
+      </c>
+      <c r="P22" s="24">
+        <v>37</v>
+      </c>
+      <c r="Q22" s="18">
+        <v>44</v>
+      </c>
+      <c r="R22" s="25">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A23">
+  <conditionalFormatting sqref="A2:A22">
     <cfRule type="expression" dxfId="8" priority="9">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B23">
+  <conditionalFormatting sqref="B2:B22">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C23">
+  <conditionalFormatting sqref="C2:C22">
     <cfRule type="expression" dxfId="9" priority="11">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D23">
+  <conditionalFormatting sqref="D2:D22">
     <cfRule type="expression" dxfId="8" priority="12">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E23">
+  <conditionalFormatting sqref="E2:E22">
     <cfRule type="expression" dxfId="9" priority="13">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F23">
+  <conditionalFormatting sqref="F2:F22">
     <cfRule type="expression" dxfId="9" priority="14">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G23">
+  <conditionalFormatting sqref="G2:G22">
     <cfRule type="expression" dxfId="9" priority="15">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H23">
+  <conditionalFormatting sqref="H2:H22">
     <cfRule type="expression" dxfId="9" priority="16">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I23">
+  <conditionalFormatting sqref="I2:I22">
     <cfRule type="expression" dxfId="8" priority="17">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J23">
+  <conditionalFormatting sqref="J2:J22">
     <cfRule type="expression" dxfId="9" priority="18">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K23">
+  <conditionalFormatting sqref="K2:K22">
     <cfRule type="expression" dxfId="8" priority="19">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L23">
+  <conditionalFormatting sqref="L2:L22">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -2693,12 +2646,12 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M23">
+  <conditionalFormatting sqref="M2:M22">
     <cfRule type="expression" dxfId="9" priority="21">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N23">
+  <conditionalFormatting sqref="N2:N22">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>
@@ -2715,22 +2668,22 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O23">
+  <conditionalFormatting sqref="O2:O22">
     <cfRule type="expression" dxfId="9" priority="23">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P23">
+  <conditionalFormatting sqref="P2:P22">
     <cfRule type="expression" dxfId="9" priority="24">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q23">
+  <conditionalFormatting sqref="Q2:Q22">
     <cfRule type="expression" dxfId="9" priority="25">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R23">
+  <conditionalFormatting sqref="R2:R22">
     <cfRule type="expression" dxfId="9" priority="26">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="203">
   <si>
     <t>Datum</t>
   </si>
@@ -70,15 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>20260123--01</t>
-  </si>
-  <si>
-    <t>20260123--02</t>
-  </si>
-  <si>
-    <t>20260123--03</t>
-  </si>
-  <si>
     <t>20260124--01</t>
   </si>
   <si>
@@ -133,13 +124,10 @@
     <t>20260129--02</t>
   </si>
   <si>
-    <t>05:51</t>
-  </si>
-  <si>
-    <t>06:33</t>
-  </si>
-  <si>
-    <t>05:39</t>
+    <t>20260130--01</t>
+  </si>
+  <si>
+    <t>20260130--02</t>
   </si>
   <si>
     <t>05:38</t>
@@ -151,13 +139,13 @@
     <t>05:52</t>
   </si>
   <si>
-    <t>05:21</t>
+    <t>05:22</t>
   </si>
   <si>
     <t>06:31</t>
   </si>
   <si>
-    <t>06:03</t>
+    <t>06:02</t>
   </si>
   <si>
     <t>05:01</t>
@@ -169,19 +157,19 @@
     <t>06:11</t>
   </si>
   <si>
-    <t>02:31</t>
+    <t>02:32</t>
   </si>
   <si>
     <t>06:26</t>
   </si>
   <si>
-    <t>06:18</t>
+    <t>06:17</t>
   </si>
   <si>
     <t>03:32</t>
   </si>
   <si>
-    <t>06:22</t>
+    <t>06:21</t>
   </si>
   <si>
     <t>06:23</t>
@@ -193,22 +181,25 @@
     <t>06:27</t>
   </si>
   <si>
-    <t>04:44</t>
-  </si>
-  <si>
-    <t>00:49</t>
+    <t>04:45</t>
+  </si>
+  <si>
+    <t>06:30</t>
+  </si>
+  <si>
+    <t>05:09</t>
+  </si>
+  <si>
+    <t>02:27</t>
   </si>
   <si>
     <t>00:00</t>
   </si>
   <si>
-    <t>02:27</t>
-  </si>
-  <si>
     <t>04:01</t>
   </si>
   <si>
-    <t>00:42</t>
+    <t>00:41</t>
   </si>
   <si>
     <t>02:23</t>
@@ -217,25 +208,22 @@
     <t>04:02</t>
   </si>
   <si>
-    <t>05:42</t>
-  </si>
-  <si>
-    <t>01:43</t>
-  </si>
-  <si>
-    <t>03:27</t>
-  </si>
-  <si>
-    <t>18:25:41</t>
-  </si>
-  <si>
-    <t>20:03:07</t>
-  </si>
-  <si>
-    <t>21:40:59</t>
-  </si>
-  <si>
-    <t>17:49:04</t>
+    <t>05:41</t>
+  </si>
+  <si>
+    <t>01:42</t>
+  </si>
+  <si>
+    <t>03:28</t>
+  </si>
+  <si>
+    <t>05:14</t>
+  </si>
+  <si>
+    <t>00:40</t>
+  </si>
+  <si>
+    <t>17:49:05</t>
   </si>
   <si>
     <t>19:26:25</t>
@@ -250,52 +238,49 @@
     <t>18:49:39</t>
   </si>
   <si>
-    <t>20:27:26</t>
-  </si>
-  <si>
-    <t>16:35:42</t>
-  </si>
-  <si>
-    <t>18:12:50</t>
-  </si>
-  <si>
-    <t>19:50:34</t>
-  </si>
-  <si>
-    <t>21:28:43</t>
-  </si>
-  <si>
-    <t>17:35:57</t>
-  </si>
-  <si>
-    <t>19:13:38</t>
-  </si>
-  <si>
-    <t>20:51:43</t>
-  </si>
-  <si>
-    <t>16:59:00</t>
-  </si>
-  <si>
-    <t>18:36:38</t>
-  </si>
-  <si>
-    <t>20:14:39</t>
-  </si>
-  <si>
-    <t>17:59:35</t>
-  </si>
-  <si>
-    <t>19:37:32</t>
-  </si>
-  <si>
-    <t>18:28:06</t>
-  </si>
-  <si>
-    <t>20:05:23</t>
-  </si>
-  <si>
-    <t>21:43:27</t>
+    <t>20:27:25</t>
+  </si>
+  <si>
+    <t>16:35:40</t>
+  </si>
+  <si>
+    <t>18:12:48</t>
+  </si>
+  <si>
+    <t>19:50:31</t>
+  </si>
+  <si>
+    <t>21:28:41</t>
+  </si>
+  <si>
+    <t>17:35:53</t>
+  </si>
+  <si>
+    <t>19:13:34</t>
+  </si>
+  <si>
+    <t>20:51:38</t>
+  </si>
+  <si>
+    <t>16:58:53</t>
+  </si>
+  <si>
+    <t>18:36:32</t>
+  </si>
+  <si>
+    <t>20:14:32</t>
+  </si>
+  <si>
+    <t>17:59:25</t>
+  </si>
+  <si>
+    <t>19:37:22</t>
+  </si>
+  <si>
+    <t>17:22:14</t>
+  </si>
+  <si>
+    <t>19:00:08</t>
   </si>
   <si>
     <t>17:51:32</t>
@@ -307,7 +292,7 @@
     <t>21:06:39</t>
   </si>
   <si>
-    <t>17:14:56</t>
+    <t>17:14:55</t>
   </si>
   <si>
     <t>18:51:55</t>
@@ -316,52 +301,49 @@
     <t>20:29:48</t>
   </si>
   <si>
-    <t>16:38:18</t>
-  </si>
-  <si>
-    <t>18:15:06</t>
-  </si>
-  <si>
-    <t>19:52:54</t>
-  </si>
-  <si>
-    <t>21:32:07</t>
-  </si>
-  <si>
-    <t>17:38:14</t>
-  </si>
-  <si>
-    <t>19:15:57</t>
-  </si>
-  <si>
-    <t>20:54:45</t>
-  </si>
-  <si>
-    <t>17:01:18</t>
-  </si>
-  <si>
-    <t>18:38:56</t>
-  </si>
-  <si>
-    <t>20:17:29</t>
-  </si>
-  <si>
-    <t>18:01:52</t>
-  </si>
-  <si>
-    <t>19:40:13</t>
-  </si>
-  <si>
-    <t>18:31:01</t>
-  </si>
-  <si>
-    <t>20:08:40</t>
-  </si>
-  <si>
-    <t>21:46:16</t>
-  </si>
-  <si>
-    <t>17:54:20</t>
+    <t>16:38:16</t>
+  </si>
+  <si>
+    <t>18:15:04</t>
+  </si>
+  <si>
+    <t>19:52:52</t>
+  </si>
+  <si>
+    <t>21:32:04</t>
+  </si>
+  <si>
+    <t>17:38:10</t>
+  </si>
+  <si>
+    <t>19:15:53</t>
+  </si>
+  <si>
+    <t>20:54:41</t>
+  </si>
+  <si>
+    <t>17:01:12</t>
+  </si>
+  <si>
+    <t>18:38:50</t>
+  </si>
+  <si>
+    <t>20:17:22</t>
+  </si>
+  <si>
+    <t>18:01:42</t>
+  </si>
+  <si>
+    <t>19:40:03</t>
+  </si>
+  <si>
+    <t>17:24:31</t>
+  </si>
+  <si>
+    <t>19:02:43</t>
+  </si>
+  <si>
+    <t>17:54:21</t>
   </si>
   <si>
     <t>19:31:57</t>
@@ -373,55 +355,52 @@
     <t>17:17:36</t>
   </si>
   <si>
-    <t>18:55:11</t>
-  </si>
-  <si>
-    <t>20:32:50</t>
-  </si>
-  <si>
-    <t>16:40:48</t>
-  </si>
-  <si>
-    <t>18:18:21</t>
-  </si>
-  <si>
-    <t>19:56:00</t>
-  </si>
-  <si>
-    <t>21:33:22</t>
-  </si>
-  <si>
-    <t>17:41:27</t>
-  </si>
-  <si>
-    <t>19:19:06</t>
-  </si>
-  <si>
-    <t>20:56:31</t>
-  </si>
-  <si>
-    <t>17:04:29</t>
-  </si>
-  <si>
-    <t>18:42:08</t>
-  </si>
-  <si>
-    <t>20:19:36</t>
-  </si>
-  <si>
-    <t>18:05:06</t>
-  </si>
-  <si>
-    <t>19:42:36</t>
-  </si>
-  <si>
-    <t>18:33:57</t>
-  </si>
-  <si>
-    <t>20:11:56</t>
-  </si>
-  <si>
-    <t>21:49:06</t>
+    <t>18:55:10</t>
+  </si>
+  <si>
+    <t>20:32:49</t>
+  </si>
+  <si>
+    <t>16:40:46</t>
+  </si>
+  <si>
+    <t>18:18:18</t>
+  </si>
+  <si>
+    <t>19:55:57</t>
+  </si>
+  <si>
+    <t>21:33:20</t>
+  </si>
+  <si>
+    <t>17:41:23</t>
+  </si>
+  <si>
+    <t>19:19:02</t>
+  </si>
+  <si>
+    <t>20:56:27</t>
+  </si>
+  <si>
+    <t>17:04:22</t>
+  </si>
+  <si>
+    <t>18:42:01</t>
+  </si>
+  <si>
+    <t>20:19:29</t>
+  </si>
+  <si>
+    <t>18:04:56</t>
+  </si>
+  <si>
+    <t>19:42:26</t>
+  </si>
+  <si>
+    <t>17:27:46</t>
+  </si>
+  <si>
+    <t>19:05:18</t>
   </si>
   <si>
     <t>17:57:10</t>
@@ -439,52 +418,49 @@
     <t>18:58:26</t>
   </si>
   <si>
-    <t>20:35:51</t>
-  </si>
-  <si>
-    <t>16:43:19</t>
-  </si>
-  <si>
-    <t>18:21:35</t>
-  </si>
-  <si>
-    <t>19:59:05</t>
-  </si>
-  <si>
-    <t>21:34:38</t>
-  </si>
-  <si>
-    <t>17:44:40</t>
-  </si>
-  <si>
-    <t>19:22:15</t>
-  </si>
-  <si>
-    <t>20:58:17</t>
-  </si>
-  <si>
-    <t>17:07:40</t>
-  </si>
-  <si>
-    <t>18:45:19</t>
-  </si>
-  <si>
-    <t>20:21:42</t>
-  </si>
-  <si>
-    <t>18:08:19</t>
-  </si>
-  <si>
-    <t>19:44:57</t>
-  </si>
-  <si>
-    <t>18:36:22</t>
-  </si>
-  <si>
-    <t>20:14:12</t>
-  </si>
-  <si>
-    <t>21:51:33</t>
+    <t>20:35:50</t>
+  </si>
+  <si>
+    <t>16:43:17</t>
+  </si>
+  <si>
+    <t>18:21:33</t>
+  </si>
+  <si>
+    <t>19:59:03</t>
+  </si>
+  <si>
+    <t>21:34:36</t>
+  </si>
+  <si>
+    <t>17:44:36</t>
+  </si>
+  <si>
+    <t>19:22:10</t>
+  </si>
+  <si>
+    <t>20:58:13</t>
+  </si>
+  <si>
+    <t>17:07:33</t>
+  </si>
+  <si>
+    <t>18:45:13</t>
+  </si>
+  <si>
+    <t>20:21:35</t>
+  </si>
+  <si>
+    <t>18:08:09</t>
+  </si>
+  <si>
+    <t>19:44:48</t>
+  </si>
+  <si>
+    <t>17:31:01</t>
+  </si>
+  <si>
+    <t>19:07:52</t>
   </si>
   <si>
     <t>17:59:38</t>
@@ -499,60 +475,63 @@
     <t>17:22:49</t>
   </si>
   <si>
-    <t>19:00:43</t>
-  </si>
-  <si>
-    <t>20:38:13</t>
-  </si>
-  <si>
-    <t>16:45:56</t>
-  </si>
-  <si>
-    <t>18:23:52</t>
-  </si>
-  <si>
-    <t>20:01:25</t>
-  </si>
-  <si>
-    <t>21:38:00</t>
-  </si>
-  <si>
-    <t>17:46:57</t>
-  </si>
-  <si>
-    <t>19:24:33</t>
-  </si>
-  <si>
-    <t>21:01:19</t>
-  </si>
-  <si>
-    <t>17:09:58</t>
-  </si>
-  <si>
-    <t>18:47:37</t>
-  </si>
-  <si>
-    <t>20:24:31</t>
-  </si>
-  <si>
-    <t>18:10:36</t>
-  </si>
-  <si>
-    <t>19:47:38</t>
-  </si>
-  <si>
-    <t>15°</t>
+    <t>19:00:42</t>
+  </si>
+  <si>
+    <t>20:38:12</t>
+  </si>
+  <si>
+    <t>16:45:54</t>
+  </si>
+  <si>
+    <t>18:23:50</t>
+  </si>
+  <si>
+    <t>20:01:23</t>
+  </si>
+  <si>
+    <t>21:37:58</t>
+  </si>
+  <si>
+    <t>17:46:53</t>
+  </si>
+  <si>
+    <t>19:24:29</t>
+  </si>
+  <si>
+    <t>21:01:14</t>
+  </si>
+  <si>
+    <t>17:09:51</t>
+  </si>
+  <si>
+    <t>18:47:30</t>
+  </si>
+  <si>
+    <t>20:24:24</t>
+  </si>
+  <si>
+    <t>18:10:26</t>
+  </si>
+  <si>
+    <t>19:47:28</t>
+  </si>
+  <si>
+    <t>17:33:17</t>
+  </si>
+  <si>
+    <t>19:10:26</t>
+  </si>
+  <si>
+    <t>21°</t>
+  </si>
+  <si>
+    <t>5°</t>
   </si>
   <si>
     <t>0°</t>
   </si>
   <si>
-    <t>21°</t>
-  </si>
-  <si>
-    <t>5°</t>
-  </si>
-  <si>
     <t>16°</t>
   </si>
   <si>
@@ -577,7 +556,10 @@
     <t>31°</t>
   </si>
   <si>
-    <t>18:28:55</t>
+    <t>19°</t>
+  </si>
+  <si>
+    <t>13°</t>
   </si>
   <si>
     <t>17:53:59</t>
@@ -586,37 +568,43 @@
     <t>19:27:39</t>
   </si>
   <si>
-    <t>17:18:57</t>
-  </si>
-  <si>
-    <t>18:52:37</t>
-  </si>
-  <si>
-    <t>16:43:49</t>
-  </si>
-  <si>
-    <t>18:17:29</t>
-  </si>
-  <si>
-    <t>19:51:08</t>
-  </si>
-  <si>
-    <t>17:42:16</t>
-  </si>
-  <si>
-    <t>19:15:55</t>
-  </si>
-  <si>
-    <t>17:07:00</t>
-  </si>
-  <si>
-    <t>18:40:39</t>
-  </si>
-  <si>
-    <t>18:05:19</t>
-  </si>
-  <si>
-    <t>19:38:58</t>
+    <t>17:18:56</t>
+  </si>
+  <si>
+    <t>18:52:36</t>
+  </si>
+  <si>
+    <t>16:43:47</t>
+  </si>
+  <si>
+    <t>18:17:27</t>
+  </si>
+  <si>
+    <t>19:51:06</t>
+  </si>
+  <si>
+    <t>17:42:12</t>
+  </si>
+  <si>
+    <t>19:15:51</t>
+  </si>
+  <si>
+    <t>17:06:53</t>
+  </si>
+  <si>
+    <t>18:40:32</t>
+  </si>
+  <si>
+    <t>18:05:10</t>
+  </si>
+  <si>
+    <t>19:38:48</t>
+  </si>
+  <si>
+    <t>17:29:45</t>
+  </si>
+  <si>
+    <t>19:03:23</t>
   </si>
   <si>
     <t>A+B</t>
@@ -668,7 +656,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -689,12 +677,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBBD1E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD4E2F1"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -707,13 +689,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFBBD1E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC4D7EC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB2CBE6"/>
+        <fgColor rgb="FFEEF3F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCDCEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6EEF7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,7 +731,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA2C0E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88AED8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF558CC8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6697CD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,67 +761,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6F9FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF3F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99BADE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA2C0E1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6697CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5E92CB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCDCEE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF80A9D6"/>
+        <fgColor rgb="FF90B4DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF77A3D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF90B4DB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6E9DD0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -904,15 +874,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1316,7 +1277,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1400,55 +1361,55 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L2" s="4">
-        <v>-26.5</v>
+        <v>-20.5</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="O2" s="6">
         <v>100</v>
       </c>
       <c r="P2" s="7">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="8">
-        <v>75</v>
-      </c>
-      <c r="R2" s="9">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="R2" s="8">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1459,52 +1420,52 @@
         <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="L3" s="4">
-        <v>-41.6</v>
+        <v>-35.8</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O3" s="6">
-        <v>92</v>
-      </c>
-      <c r="P3" s="10">
-        <v>63</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>56</v>
-      </c>
-      <c r="R3" s="12">
-        <v>50</v>
+        <v>100</v>
+      </c>
+      <c r="P3" s="9">
+        <v>62</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>100</v>
+      </c>
+      <c r="R3" s="10">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1512,54 +1473,54 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="4">
+        <v>-49.6</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="O4" s="6">
+        <v>99</v>
+      </c>
+      <c r="P4" s="11">
+        <v>67</v>
+      </c>
+      <c r="Q4" s="10">
         <v>93</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" s="4">
-        <v>-53.9</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O4" s="6">
-        <v>81</v>
-      </c>
-      <c r="P4" s="10">
-        <v>66</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>2</v>
-      </c>
-      <c r="R4" s="10">
+      <c r="R4" s="11">
         <v>65</v>
       </c>
     </row>
@@ -1568,55 +1529,55 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L5" s="4">
-        <v>-20.5</v>
+        <v>-14.6</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="O5" s="6">
-        <v>98</v>
-      </c>
-      <c r="P5" s="14">
-        <v>79</v>
-      </c>
-      <c r="Q5" s="15">
-        <v>96</v>
-      </c>
-      <c r="R5" s="11">
-        <v>53</v>
+        <v>100</v>
+      </c>
+      <c r="P5" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>90</v>
+      </c>
+      <c r="R5" s="8">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1627,51 +1588,51 @@
         <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L6" s="4">
-        <v>-35.8</v>
+        <v>-29.8</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="O6" s="6">
         <v>100</v>
       </c>
-      <c r="P6" s="16">
-        <v>88</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>100</v>
-      </c>
-      <c r="R6" s="9">
+      <c r="P6" s="10">
+        <v>93</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>71</v>
+      </c>
+      <c r="R6" s="8">
         <v>100</v>
       </c>
     </row>
@@ -1680,54 +1641,54 @@
         <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L7" s="4">
-        <v>-49.6</v>
+        <v>-44.6</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O7" s="6">
         <v>100</v>
       </c>
-      <c r="P7" s="16">
-        <v>90</v>
-      </c>
-      <c r="Q7" s="9">
+      <c r="P7" s="8">
         <v>100</v>
       </c>
-      <c r="R7" s="9">
+      <c r="Q7" s="8">
+        <v>99</v>
+      </c>
+      <c r="R7" s="8">
         <v>100</v>
       </c>
     </row>
@@ -1736,55 +1697,55 @@
         <v>24</v>
       </c>
       <c r="B8" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L8" s="4">
-        <v>-14.6</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="O8" s="6">
-        <v>100</v>
-      </c>
-      <c r="P8" s="9">
         <v>99</v>
       </c>
-      <c r="Q8" s="9">
-        <v>100</v>
-      </c>
-      <c r="R8" s="9">
-        <v>100</v>
+      <c r="P8" s="14">
+        <v>84</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>83</v>
+      </c>
+      <c r="R8" s="15">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1792,55 +1753,55 @@
         <v>25</v>
       </c>
       <c r="B9" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L9" s="4">
-        <v>-29.8</v>
+        <v>-23.8</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="O9" s="6">
         <v>100</v>
       </c>
-      <c r="P9" s="9">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="15">
-        <v>95</v>
-      </c>
-      <c r="R9" s="9">
-        <v>100</v>
+      <c r="P9" s="12">
+        <v>88</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>45</v>
+      </c>
+      <c r="R9" s="10">
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1848,55 +1809,55 @@
         <v>26</v>
       </c>
       <c r="B10" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>176</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="L10" s="4">
-        <v>-44.6</v>
+        <v>-38.9</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O10" s="6">
         <v>100</v>
       </c>
-      <c r="P10" s="15">
-        <v>95</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>100</v>
-      </c>
-      <c r="R10" s="9">
-        <v>100</v>
+      <c r="P10" s="8">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>50</v>
+      </c>
+      <c r="R10" s="11">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1904,55 +1865,55 @@
         <v>27</v>
       </c>
       <c r="B11" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="L11" s="4">
-        <v>-8.800000000000001</v>
+        <v>-51.8</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O11" s="6">
-        <v>99</v>
-      </c>
-      <c r="P11" s="11">
-        <v>55</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>63</v>
-      </c>
-      <c r="R11" s="7">
-        <v>58</v>
+        <v>93</v>
+      </c>
+      <c r="P11" s="14">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>31</v>
+      </c>
+      <c r="R11" s="18">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1960,55 +1921,55 @@
         <v>28</v>
       </c>
       <c r="B12" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L12" s="4">
-        <v>-23.8</v>
+        <v>-17.8</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="O12" s="6">
-        <v>62</v>
-      </c>
-      <c r="P12" s="7">
-        <v>62</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>62</v>
-      </c>
-      <c r="R12" s="13">
-        <v>2</v>
+        <v>85</v>
+      </c>
+      <c r="P12" s="14">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>0</v>
+      </c>
+      <c r="R12" s="19">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2016,55 +1977,55 @@
         <v>29</v>
       </c>
       <c r="B13" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L13" s="4">
-        <v>-38.9</v>
+        <v>-33.1</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O13" s="6">
-        <v>66</v>
-      </c>
-      <c r="P13" s="10">
-        <v>66</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>61</v>
-      </c>
-      <c r="R13" s="13">
-        <v>2</v>
+        <v>84</v>
+      </c>
+      <c r="P13" s="20">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>0</v>
+      </c>
+      <c r="R13" s="21">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2072,55 +2033,55 @@
         <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L14" s="4">
-        <v>-51.8</v>
+        <v>-47.3</v>
       </c>
       <c r="M14" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="O14" s="6">
-        <v>91</v>
-      </c>
-      <c r="P14" s="16">
-        <v>91</v>
-      </c>
-      <c r="Q14" s="17">
-        <v>41</v>
-      </c>
-      <c r="R14" s="13">
+        <v>87</v>
+      </c>
+      <c r="P14" s="14">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="18">
         <v>0</v>
+      </c>
+      <c r="R14" s="22">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2128,55 +2089,55 @@
         <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L15" s="4">
-        <v>-17.8</v>
+        <v>-11.9</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="O15" s="6">
-        <v>100</v>
-      </c>
-      <c r="P15" s="18">
-        <v>45</v>
-      </c>
-      <c r="Q15" s="9">
         <v>99</v>
       </c>
-      <c r="R15" s="16">
-        <v>88</v>
+      <c r="P15" s="14">
+        <v>87</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>98</v>
+      </c>
+      <c r="R15" s="7">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2184,55 +2145,55 @@
         <v>32</v>
       </c>
       <c r="B16" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L16" s="4">
-        <v>-33.1</v>
+        <v>-27.1</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="O16" s="6">
-        <v>80</v>
-      </c>
-      <c r="P16" s="12">
-        <v>50</v>
-      </c>
-      <c r="Q16" s="19">
-        <v>11</v>
-      </c>
-      <c r="R16" s="7">
-        <v>58</v>
+        <v>100</v>
+      </c>
+      <c r="P16" s="10">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>100</v>
+      </c>
+      <c r="R16" s="8">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2240,55 +2201,55 @@
         <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L17" s="4">
-        <v>-47.3</v>
+        <v>-42</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="O17" s="6">
-        <v>78</v>
-      </c>
-      <c r="P17" s="12">
-        <v>51</v>
-      </c>
-      <c r="Q17" s="20">
-        <v>4</v>
-      </c>
-      <c r="R17" s="21">
-        <v>72</v>
+        <v>100</v>
+      </c>
+      <c r="P17" s="10">
+        <v>95</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>97</v>
+      </c>
+      <c r="R17" s="12">
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2296,55 +2257,55 @@
         <v>34</v>
       </c>
       <c r="B18" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K18" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L18" s="4">
+        <v>-21.1</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="L18" s="4">
-        <v>-11.9</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="N18" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="O18" s="6">
-        <v>99</v>
-      </c>
-      <c r="P18" s="7">
+        <v>100</v>
+      </c>
+      <c r="P18" s="20">
+        <v>80</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>100</v>
+      </c>
+      <c r="R18" s="9">
         <v>62</v>
-      </c>
-      <c r="Q18" s="16">
-        <v>90</v>
-      </c>
-      <c r="R18" s="8">
-        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2352,55 +2313,55 @@
         <v>35</v>
       </c>
       <c r="B19" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L19" s="4">
+        <v>-36.2</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="L19" s="4">
-        <v>-27.1</v>
-      </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="O19" s="6">
         <v>100</v>
       </c>
-      <c r="P19" s="11">
-        <v>53</v>
-      </c>
-      <c r="Q19" s="9">
+      <c r="P19" s="20">
+        <v>80</v>
+      </c>
+      <c r="Q19" s="8">
         <v>100</v>
       </c>
-      <c r="R19" s="8">
-        <v>74</v>
+      <c r="R19" s="7">
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2408,55 +2369,55 @@
         <v>36</v>
       </c>
       <c r="B20" s="2">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="L20" s="4">
-        <v>-42</v>
+        <v>-15.1</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="O20" s="6">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P20" s="10">
-        <v>64</v>
-      </c>
-      <c r="Q20" s="15">
-        <v>95</v>
-      </c>
-      <c r="R20" s="16">
-        <v>91</v>
+        <v>94</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>45</v>
+      </c>
+      <c r="R20" s="22">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2464,170 +2425,114 @@
         <v>37</v>
       </c>
       <c r="B21" s="2">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L21" s="4">
-        <v>-21.1</v>
+        <v>-30.3</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="O21" s="6">
-        <v>73</v>
-      </c>
-      <c r="P21" s="17">
-        <v>41</v>
-      </c>
-      <c r="Q21" s="22">
-        <v>25</v>
-      </c>
-      <c r="R21" s="23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="2">
-        <v>17</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="L22" s="4">
-        <v>-36.2</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O22" s="6">
-        <v>68</v>
-      </c>
-      <c r="P22" s="24">
-        <v>37</v>
-      </c>
-      <c r="Q22" s="18">
-        <v>44</v>
-      </c>
-      <c r="R22" s="25">
-        <v>17</v>
+        <v>96</v>
+      </c>
+      <c r="P21" s="12">
+        <v>91</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>47</v>
+      </c>
+      <c r="R21" s="18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A22">
+  <conditionalFormatting sqref="A2:A21">
     <cfRule type="expression" dxfId="8" priority="9">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B22">
+  <conditionalFormatting sqref="B2:B21">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C22">
+  <conditionalFormatting sqref="C2:C21">
     <cfRule type="expression" dxfId="9" priority="11">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D22">
+  <conditionalFormatting sqref="D2:D21">
     <cfRule type="expression" dxfId="8" priority="12">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E22">
+  <conditionalFormatting sqref="E2:E21">
     <cfRule type="expression" dxfId="9" priority="13">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F22">
+  <conditionalFormatting sqref="F2:F21">
     <cfRule type="expression" dxfId="9" priority="14">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G22">
+  <conditionalFormatting sqref="G2:G21">
     <cfRule type="expression" dxfId="9" priority="15">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H22">
+  <conditionalFormatting sqref="H2:H21">
     <cfRule type="expression" dxfId="9" priority="16">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I22">
+  <conditionalFormatting sqref="I2:I21">
     <cfRule type="expression" dxfId="8" priority="17">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J22">
+  <conditionalFormatting sqref="J2:J21">
     <cfRule type="expression" dxfId="9" priority="18">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K22">
+  <conditionalFormatting sqref="K2:K21">
     <cfRule type="expression" dxfId="8" priority="19">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L22">
+  <conditionalFormatting sqref="L2:L21">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -2646,12 +2551,12 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M22">
+  <conditionalFormatting sqref="M2:M21">
     <cfRule type="expression" dxfId="9" priority="21">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N22">
+  <conditionalFormatting sqref="N2:N21">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>
@@ -2668,22 +2573,22 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O22">
+  <conditionalFormatting sqref="O2:O21">
     <cfRule type="expression" dxfId="9" priority="23">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P22">
+  <conditionalFormatting sqref="P2:P21">
     <cfRule type="expression" dxfId="9" priority="24">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q22">
+  <conditionalFormatting sqref="Q2:Q21">
     <cfRule type="expression" dxfId="9" priority="25">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R22">
+  <conditionalFormatting sqref="R2:R21">
     <cfRule type="expression" dxfId="9" priority="26">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="197">
   <si>
     <t>Datum</t>
   </si>
@@ -70,15 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>20260124--01</t>
-  </si>
-  <si>
-    <t>20260124--02</t>
-  </si>
-  <si>
-    <t>20260124--03</t>
-  </si>
-  <si>
     <t>20260125--01</t>
   </si>
   <si>
@@ -130,481 +121,469 @@
     <t>20260130--02</t>
   </si>
   <si>
-    <t>05:38</t>
+    <t>20260131--01</t>
+  </si>
+  <si>
+    <t>20260131--02</t>
+  </si>
+  <si>
+    <t>05:21</t>
+  </si>
+  <si>
+    <t>06:31</t>
+  </si>
+  <si>
+    <t>06:02</t>
+  </si>
+  <si>
+    <t>05:01</t>
+  </si>
+  <si>
+    <t>06:29</t>
+  </si>
+  <si>
+    <t>06:11</t>
+  </si>
+  <si>
+    <t>02:33</t>
+  </si>
+  <si>
+    <t>06:26</t>
+  </si>
+  <si>
+    <t>06:18</t>
+  </si>
+  <si>
+    <t>03:32</t>
+  </si>
+  <si>
+    <t>06:21</t>
+  </si>
+  <si>
+    <t>06:23</t>
+  </si>
+  <si>
+    <t>04:13</t>
+  </si>
+  <si>
+    <t>06:27</t>
+  </si>
+  <si>
+    <t>04:45</t>
+  </si>
+  <si>
+    <t>06:30</t>
+  </si>
+  <si>
+    <t>05:09</t>
   </si>
   <si>
     <t>06:32</t>
   </si>
   <si>
-    <t>05:52</t>
-  </si>
-  <si>
-    <t>05:22</t>
-  </si>
-  <si>
-    <t>06:31</t>
-  </si>
-  <si>
-    <t>06:02</t>
-  </si>
-  <si>
-    <t>05:01</t>
-  </si>
-  <si>
-    <t>06:29</t>
-  </si>
-  <si>
-    <t>06:11</t>
-  </si>
-  <si>
-    <t>02:32</t>
-  </si>
-  <si>
-    <t>06:26</t>
-  </si>
-  <si>
-    <t>06:17</t>
-  </si>
-  <si>
-    <t>03:32</t>
-  </si>
-  <si>
-    <t>06:21</t>
-  </si>
-  <si>
-    <t>06:23</t>
-  </si>
-  <si>
-    <t>04:13</t>
-  </si>
-  <si>
-    <t>06:27</t>
-  </si>
-  <si>
-    <t>04:45</t>
-  </si>
-  <si>
-    <t>06:30</t>
-  </si>
-  <si>
-    <t>05:09</t>
-  </si>
-  <si>
-    <t>02:27</t>
+    <t>05:29</t>
+  </si>
+  <si>
+    <t>04:01</t>
+  </si>
+  <si>
+    <t>00:41</t>
   </si>
   <si>
     <t>00:00</t>
   </si>
   <si>
-    <t>04:01</t>
-  </si>
-  <si>
-    <t>00:41</t>
-  </si>
-  <si>
-    <t>02:23</t>
-  </si>
-  <si>
-    <t>04:02</t>
-  </si>
-  <si>
-    <t>05:41</t>
-  </si>
-  <si>
-    <t>01:42</t>
+    <t>02:22</t>
+  </si>
+  <si>
+    <t>04:03</t>
+  </si>
+  <si>
+    <t>05:42</t>
+  </si>
+  <si>
+    <t>01:43</t>
   </si>
   <si>
     <t>03:28</t>
   </si>
   <si>
-    <t>05:14</t>
-  </si>
-  <si>
-    <t>00:40</t>
-  </si>
-  <si>
-    <t>17:49:05</t>
-  </si>
-  <si>
-    <t>19:26:25</t>
-  </si>
-  <si>
-    <t>21:04:14</t>
-  </si>
-  <si>
-    <t>17:12:24</t>
-  </si>
-  <si>
-    <t>18:49:39</t>
-  </si>
-  <si>
-    <t>20:27:25</t>
-  </si>
-  <si>
-    <t>16:35:40</t>
-  </si>
-  <si>
-    <t>18:12:48</t>
-  </si>
-  <si>
-    <t>19:50:31</t>
-  </si>
-  <si>
-    <t>21:28:41</t>
-  </si>
-  <si>
-    <t>17:35:53</t>
-  </si>
-  <si>
-    <t>19:13:34</t>
-  </si>
-  <si>
-    <t>20:51:38</t>
-  </si>
-  <si>
-    <t>16:58:53</t>
-  </si>
-  <si>
-    <t>18:36:32</t>
-  </si>
-  <si>
-    <t>20:14:32</t>
-  </si>
-  <si>
-    <t>17:59:25</t>
-  </si>
-  <si>
-    <t>19:37:22</t>
-  </si>
-  <si>
-    <t>17:22:14</t>
-  </si>
-  <si>
-    <t>19:00:08</t>
-  </si>
-  <si>
-    <t>17:51:32</t>
-  </si>
-  <si>
-    <t>19:28:41</t>
-  </si>
-  <si>
-    <t>21:06:39</t>
-  </si>
-  <si>
-    <t>17:14:55</t>
-  </si>
-  <si>
-    <t>18:51:55</t>
-  </si>
-  <si>
-    <t>20:29:48</t>
-  </si>
-  <si>
-    <t>16:38:16</t>
-  </si>
-  <si>
-    <t>18:15:04</t>
-  </si>
-  <si>
-    <t>19:52:52</t>
-  </si>
-  <si>
-    <t>21:32:04</t>
-  </si>
-  <si>
-    <t>17:38:10</t>
-  </si>
-  <si>
-    <t>19:15:53</t>
-  </si>
-  <si>
-    <t>20:54:41</t>
-  </si>
-  <si>
-    <t>17:01:12</t>
-  </si>
-  <si>
-    <t>18:38:50</t>
-  </si>
-  <si>
-    <t>20:17:22</t>
-  </si>
-  <si>
-    <t>18:01:42</t>
-  </si>
-  <si>
-    <t>19:40:03</t>
-  </si>
-  <si>
-    <t>17:24:31</t>
-  </si>
-  <si>
-    <t>19:02:43</t>
-  </si>
-  <si>
-    <t>17:54:21</t>
-  </si>
-  <si>
-    <t>19:31:57</t>
-  </si>
-  <si>
-    <t>21:09:35</t>
-  </si>
-  <si>
-    <t>17:17:36</t>
-  </si>
-  <si>
-    <t>18:55:10</t>
-  </si>
-  <si>
-    <t>20:32:49</t>
-  </si>
-  <si>
-    <t>16:40:46</t>
-  </si>
-  <si>
-    <t>18:18:18</t>
-  </si>
-  <si>
-    <t>19:55:57</t>
-  </si>
-  <si>
-    <t>21:33:20</t>
-  </si>
-  <si>
-    <t>17:41:23</t>
-  </si>
-  <si>
-    <t>19:19:02</t>
-  </si>
-  <si>
-    <t>20:56:27</t>
-  </si>
-  <si>
-    <t>17:04:22</t>
-  </si>
-  <si>
-    <t>18:42:01</t>
-  </si>
-  <si>
-    <t>20:19:29</t>
-  </si>
-  <si>
-    <t>18:04:56</t>
-  </si>
-  <si>
-    <t>19:42:26</t>
-  </si>
-  <si>
-    <t>17:27:46</t>
-  </si>
-  <si>
-    <t>19:05:18</t>
-  </si>
-  <si>
-    <t>17:57:10</t>
-  </si>
-  <si>
-    <t>19:35:13</t>
-  </si>
-  <si>
-    <t>21:12:31</t>
-  </si>
-  <si>
-    <t>17:20:17</t>
-  </si>
-  <si>
-    <t>18:58:26</t>
-  </si>
-  <si>
-    <t>20:35:50</t>
-  </si>
-  <si>
-    <t>16:43:17</t>
-  </si>
-  <si>
-    <t>18:21:33</t>
-  </si>
-  <si>
-    <t>19:59:03</t>
-  </si>
-  <si>
-    <t>21:34:36</t>
-  </si>
-  <si>
-    <t>17:44:36</t>
-  </si>
-  <si>
-    <t>19:22:10</t>
-  </si>
-  <si>
-    <t>20:58:13</t>
-  </si>
-  <si>
-    <t>17:07:33</t>
-  </si>
-  <si>
-    <t>18:45:13</t>
-  </si>
-  <si>
-    <t>20:21:35</t>
-  </si>
-  <si>
-    <t>18:08:09</t>
-  </si>
-  <si>
-    <t>19:44:48</t>
-  </si>
-  <si>
-    <t>17:31:01</t>
-  </si>
-  <si>
-    <t>19:07:52</t>
-  </si>
-  <si>
-    <t>17:59:38</t>
-  </si>
-  <si>
-    <t>19:37:29</t>
-  </si>
-  <si>
-    <t>21:14:55</t>
-  </si>
-  <si>
-    <t>17:22:49</t>
-  </si>
-  <si>
-    <t>19:00:42</t>
-  </si>
-  <si>
-    <t>20:38:12</t>
-  </si>
-  <si>
-    <t>16:45:54</t>
-  </si>
-  <si>
-    <t>18:23:50</t>
-  </si>
-  <si>
-    <t>20:01:23</t>
-  </si>
-  <si>
-    <t>21:37:58</t>
-  </si>
-  <si>
-    <t>17:46:53</t>
-  </si>
-  <si>
-    <t>19:24:29</t>
-  </si>
-  <si>
-    <t>21:01:14</t>
-  </si>
-  <si>
-    <t>17:09:51</t>
-  </si>
-  <si>
-    <t>18:47:30</t>
-  </si>
-  <si>
-    <t>20:24:24</t>
-  </si>
-  <si>
-    <t>18:10:26</t>
-  </si>
-  <si>
-    <t>19:47:28</t>
-  </si>
-  <si>
-    <t>17:33:17</t>
-  </si>
-  <si>
-    <t>19:10:26</t>
+    <t>05:15</t>
+  </si>
+  <si>
+    <t>02:38</t>
+  </si>
+  <si>
+    <t>17:12:22</t>
+  </si>
+  <si>
+    <t>18:49:37</t>
+  </si>
+  <si>
+    <t>20:27:23</t>
+  </si>
+  <si>
+    <t>16:35:37</t>
+  </si>
+  <si>
+    <t>18:12:44</t>
+  </si>
+  <si>
+    <t>19:50:28</t>
+  </si>
+  <si>
+    <t>21:28:37</t>
+  </si>
+  <si>
+    <t>17:35:47</t>
+  </si>
+  <si>
+    <t>19:13:28</t>
+  </si>
+  <si>
+    <t>20:51:32</t>
+  </si>
+  <si>
+    <t>16:58:45</t>
+  </si>
+  <si>
+    <t>18:36:23</t>
+  </si>
+  <si>
+    <t>20:14:23</t>
+  </si>
+  <si>
+    <t>17:59:13</t>
+  </si>
+  <si>
+    <t>19:37:09</t>
+  </si>
+  <si>
+    <t>17:21:58</t>
+  </si>
+  <si>
+    <t>18:59:51</t>
+  </si>
+  <si>
+    <t>16:44:38</t>
+  </si>
+  <si>
+    <t>18:22:28</t>
+  </si>
+  <si>
+    <t>17:14:54</t>
+  </si>
+  <si>
+    <t>18:51:53</t>
+  </si>
+  <si>
+    <t>20:29:46</t>
+  </si>
+  <si>
+    <t>16:38:13</t>
+  </si>
+  <si>
+    <t>18:15:01</t>
+  </si>
+  <si>
+    <t>19:52:49</t>
+  </si>
+  <si>
+    <t>21:32:00</t>
+  </si>
+  <si>
+    <t>17:38:04</t>
+  </si>
+  <si>
+    <t>19:15:47</t>
+  </si>
+  <si>
+    <t>20:54:35</t>
+  </si>
+  <si>
+    <t>17:01:03</t>
+  </si>
+  <si>
+    <t>18:38:41</t>
+  </si>
+  <si>
+    <t>20:17:13</t>
+  </si>
+  <si>
+    <t>18:01:30</t>
+  </si>
+  <si>
+    <t>19:39:50</t>
+  </si>
+  <si>
+    <t>17:24:14</t>
+  </si>
+  <si>
+    <t>19:02:26</t>
+  </si>
+  <si>
+    <t>16:46:54</t>
+  </si>
+  <si>
+    <t>18:24:58</t>
+  </si>
+  <si>
+    <t>17:17:34</t>
+  </si>
+  <si>
+    <t>18:55:09</t>
+  </si>
+  <si>
+    <t>20:32:47</t>
+  </si>
+  <si>
+    <t>16:40:43</t>
+  </si>
+  <si>
+    <t>18:18:15</t>
+  </si>
+  <si>
+    <t>19:55:54</t>
+  </si>
+  <si>
+    <t>21:33:17</t>
+  </si>
+  <si>
+    <t>17:41:17</t>
+  </si>
+  <si>
+    <t>19:18:56</t>
+  </si>
+  <si>
+    <t>20:56:21</t>
+  </si>
+  <si>
+    <t>17:04:14</t>
+  </si>
+  <si>
+    <t>18:41:52</t>
+  </si>
+  <si>
+    <t>20:19:20</t>
+  </si>
+  <si>
+    <t>18:04:43</t>
+  </si>
+  <si>
+    <t>19:42:13</t>
+  </si>
+  <si>
+    <t>17:27:29</t>
+  </si>
+  <si>
+    <t>19:05:01</t>
+  </si>
+  <si>
+    <t>16:50:10</t>
+  </si>
+  <si>
+    <t>18:27:43</t>
+  </si>
+  <si>
+    <t>17:20:15</t>
+  </si>
+  <si>
+    <t>18:58:24</t>
+  </si>
+  <si>
+    <t>20:35:48</t>
+  </si>
+  <si>
+    <t>16:43:14</t>
+  </si>
+  <si>
+    <t>18:21:30</t>
+  </si>
+  <si>
+    <t>19:59:00</t>
+  </si>
+  <si>
+    <t>21:34:33</t>
+  </si>
+  <si>
+    <t>17:44:30</t>
+  </si>
+  <si>
+    <t>19:22:05</t>
+  </si>
+  <si>
+    <t>20:58:07</t>
+  </si>
+  <si>
+    <t>17:07:24</t>
+  </si>
+  <si>
+    <t>18:45:04</t>
+  </si>
+  <si>
+    <t>20:21:26</t>
+  </si>
+  <si>
+    <t>18:07:57</t>
+  </si>
+  <si>
+    <t>19:44:35</t>
+  </si>
+  <si>
+    <t>17:30:44</t>
+  </si>
+  <si>
+    <t>19:07:35</t>
+  </si>
+  <si>
+    <t>16:53:26</t>
+  </si>
+  <si>
+    <t>18:30:27</t>
+  </si>
+  <si>
+    <t>17:22:47</t>
+  </si>
+  <si>
+    <t>19:00:41</t>
+  </si>
+  <si>
+    <t>20:38:10</t>
+  </si>
+  <si>
+    <t>16:45:51</t>
+  </si>
+  <si>
+    <t>18:23:47</t>
+  </si>
+  <si>
+    <t>20:01:20</t>
+  </si>
+  <si>
+    <t>21:37:55</t>
+  </si>
+  <si>
+    <t>17:46:47</t>
+  </si>
+  <si>
+    <t>19:24:24</t>
+  </si>
+  <si>
+    <t>21:01:09</t>
+  </si>
+  <si>
+    <t>17:09:43</t>
+  </si>
+  <si>
+    <t>18:47:22</t>
+  </si>
+  <si>
+    <t>20:24:16</t>
+  </si>
+  <si>
+    <t>18:10:14</t>
+  </si>
+  <si>
+    <t>19:47:16</t>
+  </si>
+  <si>
+    <t>17:33:01</t>
+  </si>
+  <si>
+    <t>19:10:10</t>
+  </si>
+  <si>
+    <t>16:55:42</t>
+  </si>
+  <si>
+    <t>18:32:57</t>
+  </si>
+  <si>
+    <t>16°</t>
+  </si>
+  <si>
+    <t>14°</t>
+  </si>
+  <si>
+    <t>0°</t>
+  </si>
+  <si>
+    <t>8°</t>
+  </si>
+  <si>
+    <t>28°</t>
+  </si>
+  <si>
+    <t>2°</t>
+  </si>
+  <si>
+    <t>10°</t>
+  </si>
+  <si>
+    <t>22°</t>
+  </si>
+  <si>
+    <t>31°</t>
+  </si>
+  <si>
+    <t>5°</t>
+  </si>
+  <si>
+    <t>19°</t>
+  </si>
+  <si>
+    <t>13°</t>
+  </si>
+  <si>
+    <t>7°</t>
   </si>
   <si>
     <t>21°</t>
   </si>
   <si>
-    <t>5°</t>
-  </si>
-  <si>
-    <t>0°</t>
-  </si>
-  <si>
-    <t>16°</t>
-  </si>
-  <si>
-    <t>14°</t>
-  </si>
-  <si>
-    <t>8°</t>
-  </si>
-  <si>
-    <t>28°</t>
-  </si>
-  <si>
-    <t>2°</t>
-  </si>
-  <si>
-    <t>10°</t>
-  </si>
-  <si>
-    <t>22°</t>
-  </si>
-  <si>
-    <t>31°</t>
-  </si>
-  <si>
-    <t>19°</t>
-  </si>
-  <si>
-    <t>13°</t>
-  </si>
-  <si>
-    <t>17:53:59</t>
-  </si>
-  <si>
-    <t>19:27:39</t>
-  </si>
-  <si>
-    <t>17:18:56</t>
-  </si>
-  <si>
-    <t>18:52:36</t>
-  </si>
-  <si>
-    <t>16:43:47</t>
-  </si>
-  <si>
-    <t>18:17:27</t>
-  </si>
-  <si>
-    <t>19:51:06</t>
-  </si>
-  <si>
-    <t>17:42:12</t>
-  </si>
-  <si>
-    <t>19:15:51</t>
-  </si>
-  <si>
-    <t>17:06:53</t>
-  </si>
-  <si>
-    <t>18:40:32</t>
-  </si>
-  <si>
-    <t>18:05:10</t>
-  </si>
-  <si>
-    <t>19:38:48</t>
-  </si>
-  <si>
-    <t>17:29:45</t>
-  </si>
-  <si>
-    <t>19:03:23</t>
+    <t>17:18:55</t>
+  </si>
+  <si>
+    <t>18:52:34</t>
+  </si>
+  <si>
+    <t>16:43:44</t>
+  </si>
+  <si>
+    <t>18:17:23</t>
+  </si>
+  <si>
+    <t>19:51:03</t>
+  </si>
+  <si>
+    <t>17:42:07</t>
+  </si>
+  <si>
+    <t>19:15:46</t>
+  </si>
+  <si>
+    <t>17:06:45</t>
+  </si>
+  <si>
+    <t>18:40:24</t>
+  </si>
+  <si>
+    <t>18:04:58</t>
+  </si>
+  <si>
+    <t>19:38:36</t>
+  </si>
+  <si>
+    <t>17:29:29</t>
+  </si>
+  <si>
+    <t>19:03:07</t>
+  </si>
+  <si>
+    <t>16:53:58</t>
+  </si>
+  <si>
+    <t>18:27:36</t>
   </si>
   <si>
     <t>A+B</t>
@@ -623,6 +602,9 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -656,7 +638,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,13 +659,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD4E2F1"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFCCDCEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6EEF7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,7 +689,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6F9FC"/>
+        <fgColor rgb="FF6697CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90B4DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF558CC8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4E2F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99BADE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2CBE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAC5E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF3F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,31 +743,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEF3F9"/>
+        <fgColor rgb="FFDDE8F4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCDCEE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6EEF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAAC5E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA2C0E1"/>
+        <fgColor rgb="FF5E92CB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,31 +761,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF558CC8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6697CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8F4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF90B4DB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF77A3D3"/>
+        <fgColor rgb="FFA2C0E1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,7 +802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -874,6 +868,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1277,7 +1277,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1361,54 +1361,54 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="L2" s="4">
-        <v>-20.5</v>
+        <v>-14.6</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="O2" s="6">
         <v>100</v>
       </c>
       <c r="P2" s="7">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="8">
-        <v>100</v>
-      </c>
-      <c r="R2" s="8">
+        <v>72</v>
+      </c>
+      <c r="R2" s="7">
         <v>100</v>
       </c>
     </row>
@@ -1420,52 +1420,52 @@
         <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="L3" s="4">
-        <v>-35.8</v>
+        <v>-29.8</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="O3" s="6">
         <v>100</v>
       </c>
       <c r="P3" s="9">
-        <v>62</v>
-      </c>
-      <c r="Q3" s="8">
+        <v>94</v>
+      </c>
+      <c r="Q3" s="7">
         <v>100</v>
       </c>
-      <c r="R3" s="10">
-        <v>94</v>
+      <c r="R3" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1473,55 +1473,55 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L4" s="4">
-        <v>-49.6</v>
+        <v>-44.6</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="O4" s="6">
-        <v>99</v>
-      </c>
-      <c r="P4" s="11">
-        <v>67</v>
-      </c>
-      <c r="Q4" s="10">
+        <v>100</v>
+      </c>
+      <c r="P4" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="9">
         <v>93</v>
       </c>
-      <c r="R4" s="11">
-        <v>65</v>
+      <c r="R4" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1529,55 +1529,55 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L5" s="4">
+        <v>-8.800000000000001</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O5" s="6">
         <v>92</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="L5" s="4">
-        <v>-14.6</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="O5" s="6">
-        <v>100</v>
-      </c>
-      <c r="P5" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>90</v>
-      </c>
-      <c r="R5" s="8">
-        <v>100</v>
+      <c r="P5" s="10">
+        <v>85</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>58</v>
+      </c>
+      <c r="R5" s="12">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1585,55 +1585,55 @@
         <v>22</v>
       </c>
       <c r="B6" s="2">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L6" s="4">
+        <v>-23.8</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O6" s="6">
+        <v>68</v>
+      </c>
+      <c r="P6" s="8">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="13">
         <v>33</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="L6" s="4">
-        <v>-29.8</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="O6" s="6">
-        <v>100</v>
-      </c>
-      <c r="P6" s="10">
-        <v>93</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>71</v>
-      </c>
-      <c r="R6" s="8">
-        <v>100</v>
+      <c r="R6" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1641,55 +1641,55 @@
         <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="L7" s="4">
-        <v>-44.6</v>
+        <v>-38.9</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="O7" s="6">
-        <v>100</v>
-      </c>
-      <c r="P7" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>99</v>
-      </c>
-      <c r="R7" s="8">
-        <v>100</v>
+        <v>81</v>
+      </c>
+      <c r="P7" s="15">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>38</v>
+      </c>
+      <c r="R7" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1697,55 +1697,55 @@
         <v>24</v>
       </c>
       <c r="B8" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="4">
+        <v>-51.8</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="O8" s="6">
+        <v>97</v>
+      </c>
+      <c r="P8" s="10">
+        <v>87</v>
+      </c>
+      <c r="Q8" s="15">
         <v>75</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="L8" s="4">
-        <v>-8.800000000000001</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="O8" s="6">
-        <v>99</v>
-      </c>
-      <c r="P8" s="14">
-        <v>84</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>83</v>
-      </c>
-      <c r="R8" s="15">
-        <v>48</v>
+      <c r="R8" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1753,55 +1753,55 @@
         <v>25</v>
       </c>
       <c r="B9" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="L9" s="4">
-        <v>-23.8</v>
+        <v>-17.8</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="O9" s="6">
-        <v>100</v>
-      </c>
-      <c r="P9" s="12">
-        <v>88</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>45</v>
-      </c>
-      <c r="R9" s="10">
-        <v>94</v>
+        <v>97</v>
+      </c>
+      <c r="P9" s="17">
+        <v>55</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>33</v>
+      </c>
+      <c r="R9" s="17">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1809,55 +1809,55 @@
         <v>26</v>
       </c>
       <c r="B10" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="L10" s="4">
-        <v>-38.9</v>
+        <v>-33.1</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="O10" s="6">
         <v>100</v>
       </c>
-      <c r="P10" s="8">
-        <v>98</v>
-      </c>
-      <c r="Q10" s="15">
+      <c r="P10" s="16">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="18">
         <v>50</v>
       </c>
-      <c r="R10" s="11">
-        <v>64</v>
+      <c r="R10" s="17">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1865,55 +1865,55 @@
         <v>27</v>
       </c>
       <c r="B11" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L11" s="4">
-        <v>-51.8</v>
+        <v>-47.2</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="O11" s="6">
-        <v>93</v>
-      </c>
-      <c r="P11" s="14">
-        <v>85</v>
-      </c>
-      <c r="Q11" s="17">
-        <v>31</v>
-      </c>
-      <c r="R11" s="18">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="P11" s="18">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>40</v>
+      </c>
+      <c r="R11" s="8">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1921,55 +1921,55 @@
         <v>28</v>
       </c>
       <c r="B12" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="L12" s="4">
-        <v>-17.8</v>
+        <v>-11.9</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="O12" s="6">
-        <v>85</v>
-      </c>
-      <c r="P12" s="14">
-        <v>83</v>
-      </c>
-      <c r="Q12" s="18">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="P12" s="10">
+        <v>87</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>69</v>
       </c>
       <c r="R12" s="19">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1977,55 +1977,55 @@
         <v>29</v>
       </c>
       <c r="B13" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L13" s="4">
+        <v>-27.1</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O13" s="6">
+        <v>100</v>
+      </c>
+      <c r="P13" s="19">
+        <v>91</v>
+      </c>
+      <c r="Q13" s="20">
+        <v>66</v>
+      </c>
+      <c r="R13" s="21">
         <v>80</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="L13" s="4">
-        <v>-33.1</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="O13" s="6">
-        <v>84</v>
-      </c>
-      <c r="P13" s="20">
-        <v>80</v>
-      </c>
-      <c r="Q13" s="18">
-        <v>0</v>
-      </c>
-      <c r="R13" s="21">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2033,55 +2033,55 @@
         <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L14" s="4">
-        <v>-47.3</v>
+        <v>-42</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="O14" s="6">
-        <v>87</v>
-      </c>
-      <c r="P14" s="14">
-        <v>83</v>
-      </c>
-      <c r="Q14" s="18">
-        <v>0</v>
-      </c>
-      <c r="R14" s="22">
-        <v>20</v>
+        <v>100</v>
+      </c>
+      <c r="P14" s="9">
+        <v>97</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>68</v>
+      </c>
+      <c r="R14" s="7">
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2089,55 +2089,55 @@
         <v>31</v>
       </c>
       <c r="B15" s="2">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L15" s="4">
+        <v>-21</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O15" s="6">
+        <v>95</v>
+      </c>
+      <c r="P15" s="19">
+        <v>91</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>6</v>
+      </c>
+      <c r="R15" s="23">
         <v>30</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="L15" s="4">
-        <v>-11.9</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="O15" s="6">
-        <v>99</v>
-      </c>
-      <c r="P15" s="14">
-        <v>87</v>
-      </c>
-      <c r="Q15" s="8">
-        <v>98</v>
-      </c>
-      <c r="R15" s="7">
-        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2145,55 +2145,55 @@
         <v>32</v>
       </c>
       <c r="B16" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L16" s="4">
-        <v>-27.1</v>
+        <v>-36.2</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="O16" s="6">
         <v>100</v>
       </c>
-      <c r="P16" s="10">
-        <v>93</v>
-      </c>
-      <c r="Q16" s="8">
+      <c r="P16" s="7">
         <v>100</v>
       </c>
-      <c r="R16" s="8">
-        <v>100</v>
+      <c r="Q16" s="22">
+        <v>7</v>
+      </c>
+      <c r="R16" s="24">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2201,55 +2201,55 @@
         <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>171</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="L17" s="4">
-        <v>-42</v>
+        <v>-15</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="O17" s="6">
         <v>100</v>
       </c>
-      <c r="P17" s="10">
-        <v>95</v>
-      </c>
-      <c r="Q17" s="10">
-        <v>97</v>
-      </c>
-      <c r="R17" s="12">
-        <v>88</v>
+      <c r="P17" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>92</v>
+      </c>
+      <c r="R17" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2257,55 +2257,55 @@
         <v>34</v>
       </c>
       <c r="B18" s="2">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="K18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L18" s="4">
+        <v>-30.2</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="L18" s="4">
-        <v>-21.1</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="O18" s="6">
         <v>100</v>
       </c>
-      <c r="P18" s="20">
-        <v>80</v>
-      </c>
-      <c r="Q18" s="8">
+      <c r="P18" s="7">
         <v>100</v>
       </c>
-      <c r="R18" s="9">
-        <v>62</v>
+      <c r="Q18" s="19">
+        <v>88</v>
+      </c>
+      <c r="R18" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2313,55 +2313,55 @@
         <v>35</v>
       </c>
       <c r="B19" s="2">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L19" s="4">
-        <v>-36.2</v>
+        <v>-9</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O19" s="6">
         <v>100</v>
       </c>
-      <c r="P19" s="20">
-        <v>80</v>
-      </c>
-      <c r="Q19" s="8">
+      <c r="P19" s="7">
         <v>100</v>
       </c>
-      <c r="R19" s="7">
-        <v>75</v>
+      <c r="Q19" s="14">
+        <v>0</v>
+      </c>
+      <c r="R19" s="22">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2369,170 +2369,114 @@
         <v>36</v>
       </c>
       <c r="B20" s="2">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L20" s="4">
-        <v>-15.1</v>
+        <v>-24.2</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="O20" s="6">
-        <v>97</v>
-      </c>
-      <c r="P20" s="10">
-        <v>94</v>
-      </c>
-      <c r="Q20" s="16">
-        <v>45</v>
+        <v>100</v>
+      </c>
+      <c r="P20" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>0</v>
       </c>
       <c r="R20" s="22">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="2">
-        <v>19</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="L21" s="4">
-        <v>-30.3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="O21" s="6">
-        <v>96</v>
-      </c>
-      <c r="P21" s="12">
-        <v>91</v>
-      </c>
-      <c r="Q21" s="16">
-        <v>47</v>
-      </c>
-      <c r="R21" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A21">
+  <conditionalFormatting sqref="A2:A20">
     <cfRule type="expression" dxfId="8" priority="9">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B21">
+  <conditionalFormatting sqref="B2:B20">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C21">
+  <conditionalFormatting sqref="C2:C20">
     <cfRule type="expression" dxfId="9" priority="11">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D21">
+  <conditionalFormatting sqref="D2:D20">
     <cfRule type="expression" dxfId="8" priority="12">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E21">
+  <conditionalFormatting sqref="E2:E20">
     <cfRule type="expression" dxfId="9" priority="13">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F21">
+  <conditionalFormatting sqref="F2:F20">
     <cfRule type="expression" dxfId="9" priority="14">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G21">
+  <conditionalFormatting sqref="G2:G20">
     <cfRule type="expression" dxfId="9" priority="15">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H21">
+  <conditionalFormatting sqref="H2:H20">
     <cfRule type="expression" dxfId="9" priority="16">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I21">
+  <conditionalFormatting sqref="I2:I20">
     <cfRule type="expression" dxfId="8" priority="17">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J21">
+  <conditionalFormatting sqref="J2:J20">
     <cfRule type="expression" dxfId="9" priority="18">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K21">
+  <conditionalFormatting sqref="K2:K20">
     <cfRule type="expression" dxfId="8" priority="19">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L21">
+  <conditionalFormatting sqref="L2:L20">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -2551,12 +2495,12 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M21">
+  <conditionalFormatting sqref="M2:M20">
     <cfRule type="expression" dxfId="9" priority="21">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N21">
+  <conditionalFormatting sqref="N2:N20">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>
@@ -2573,22 +2517,22 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O21">
+  <conditionalFormatting sqref="O2:O20">
     <cfRule type="expression" dxfId="9" priority="23">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P21">
+  <conditionalFormatting sqref="P2:P20">
     <cfRule type="expression" dxfId="9" priority="24">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q21">
+  <conditionalFormatting sqref="Q2:Q20">
     <cfRule type="expression" dxfId="9" priority="25">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R21">
+  <conditionalFormatting sqref="R2:R20">
     <cfRule type="expression" dxfId="9" priority="26">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="181">
   <si>
     <t>Datum</t>
   </si>
@@ -70,15 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>20260125--01</t>
-  </si>
-  <si>
-    <t>20260125--02</t>
-  </si>
-  <si>
-    <t>20260125--03</t>
-  </si>
-  <si>
     <t>20260126--01</t>
   </si>
   <si>
@@ -127,472 +118,433 @@
     <t>20260131--02</t>
   </si>
   <si>
-    <t>05:21</t>
+    <t>20260201--01</t>
+  </si>
+  <si>
+    <t>05:01</t>
+  </si>
+  <si>
+    <t>06:29</t>
+  </si>
+  <si>
+    <t>06:10</t>
+  </si>
+  <si>
+    <t>02:31</t>
+  </si>
+  <si>
+    <t>06:25</t>
+  </si>
+  <si>
+    <t>06:17</t>
+  </si>
+  <si>
+    <t>03:32</t>
+  </si>
+  <si>
+    <t>06:21</t>
+  </si>
+  <si>
+    <t>06:23</t>
+  </si>
+  <si>
+    <t>04:13</t>
+  </si>
+  <si>
+    <t>06:27</t>
+  </si>
+  <si>
+    <t>04:44</t>
+  </si>
+  <si>
+    <t>05:08</t>
   </si>
   <si>
     <t>06:31</t>
   </si>
   <si>
-    <t>06:02</t>
-  </si>
-  <si>
-    <t>05:01</t>
-  </si>
-  <si>
-    <t>06:29</t>
-  </si>
-  <si>
-    <t>06:11</t>
-  </si>
-  <si>
-    <t>02:33</t>
-  </si>
-  <si>
-    <t>06:26</t>
-  </si>
-  <si>
-    <t>06:18</t>
-  </si>
-  <si>
-    <t>03:32</t>
-  </si>
-  <si>
-    <t>06:21</t>
-  </si>
-  <si>
-    <t>06:23</t>
-  </si>
-  <si>
-    <t>04:13</t>
-  </si>
-  <si>
-    <t>06:27</t>
-  </si>
-  <si>
-    <t>04:45</t>
-  </si>
-  <si>
-    <t>06:30</t>
-  </si>
-  <si>
-    <t>05:09</t>
-  </si>
-  <si>
-    <t>06:32</t>
-  </si>
-  <si>
-    <t>05:29</t>
-  </si>
-  <si>
-    <t>04:01</t>
-  </si>
-  <si>
-    <t>00:41</t>
+    <t>05:28</t>
+  </si>
+  <si>
+    <t>05:43</t>
+  </si>
+  <si>
+    <t>02:22</t>
   </si>
   <si>
     <t>00:00</t>
   </si>
   <si>
-    <t>02:22</t>
-  </si>
-  <si>
-    <t>04:03</t>
+    <t>04:02</t>
   </si>
   <si>
     <t>05:42</t>
   </si>
   <si>
-    <t>01:43</t>
-  </si>
-  <si>
-    <t>03:28</t>
-  </si>
-  <si>
-    <t>05:15</t>
-  </si>
-  <si>
-    <t>02:38</t>
-  </si>
-  <si>
-    <t>17:12:22</t>
-  </si>
-  <si>
-    <t>18:49:37</t>
-  </si>
-  <si>
-    <t>20:27:23</t>
-  </si>
-  <si>
-    <t>16:35:37</t>
-  </si>
-  <si>
-    <t>18:12:44</t>
-  </si>
-  <si>
-    <t>19:50:28</t>
-  </si>
-  <si>
-    <t>21:28:37</t>
-  </si>
-  <si>
-    <t>17:35:47</t>
-  </si>
-  <si>
-    <t>19:13:28</t>
-  </si>
-  <si>
-    <t>20:51:32</t>
-  </si>
-  <si>
-    <t>16:58:45</t>
-  </si>
-  <si>
-    <t>18:36:23</t>
-  </si>
-  <si>
-    <t>20:14:23</t>
-  </si>
-  <si>
-    <t>17:59:13</t>
-  </si>
-  <si>
-    <t>19:37:09</t>
-  </si>
-  <si>
-    <t>17:21:58</t>
-  </si>
-  <si>
-    <t>18:59:51</t>
-  </si>
-  <si>
-    <t>16:44:38</t>
-  </si>
-  <si>
-    <t>18:22:28</t>
-  </si>
-  <si>
-    <t>17:14:54</t>
-  </si>
-  <si>
-    <t>18:51:53</t>
-  </si>
-  <si>
-    <t>20:29:46</t>
-  </si>
-  <si>
-    <t>16:38:13</t>
-  </si>
-  <si>
-    <t>18:15:01</t>
-  </si>
-  <si>
-    <t>19:52:49</t>
-  </si>
-  <si>
-    <t>21:32:00</t>
-  </si>
-  <si>
-    <t>17:38:04</t>
-  </si>
-  <si>
-    <t>19:15:47</t>
-  </si>
-  <si>
-    <t>20:54:35</t>
-  </si>
-  <si>
-    <t>17:01:03</t>
-  </si>
-  <si>
-    <t>18:38:41</t>
-  </si>
-  <si>
-    <t>20:17:13</t>
-  </si>
-  <si>
-    <t>18:01:30</t>
-  </si>
-  <si>
-    <t>19:39:50</t>
-  </si>
-  <si>
-    <t>17:24:14</t>
-  </si>
-  <si>
-    <t>19:02:26</t>
-  </si>
-  <si>
-    <t>16:46:54</t>
-  </si>
-  <si>
-    <t>18:24:58</t>
-  </si>
-  <si>
-    <t>17:17:34</t>
-  </si>
-  <si>
-    <t>18:55:09</t>
-  </si>
-  <si>
-    <t>20:32:47</t>
-  </si>
-  <si>
-    <t>16:40:43</t>
-  </si>
-  <si>
-    <t>18:18:15</t>
-  </si>
-  <si>
-    <t>19:55:54</t>
-  </si>
-  <si>
-    <t>21:33:17</t>
-  </si>
-  <si>
-    <t>17:41:17</t>
-  </si>
-  <si>
-    <t>19:18:56</t>
-  </si>
-  <si>
-    <t>20:56:21</t>
-  </si>
-  <si>
-    <t>17:04:14</t>
-  </si>
-  <si>
-    <t>18:41:52</t>
-  </si>
-  <si>
-    <t>20:19:20</t>
-  </si>
-  <si>
-    <t>18:04:43</t>
-  </si>
-  <si>
-    <t>19:42:13</t>
-  </si>
-  <si>
-    <t>17:27:29</t>
-  </si>
-  <si>
-    <t>19:05:01</t>
-  </si>
-  <si>
-    <t>16:50:10</t>
-  </si>
-  <si>
-    <t>18:27:43</t>
-  </si>
-  <si>
-    <t>17:20:15</t>
-  </si>
-  <si>
-    <t>18:58:24</t>
-  </si>
-  <si>
-    <t>20:35:48</t>
-  </si>
-  <si>
-    <t>16:43:14</t>
-  </si>
-  <si>
-    <t>18:21:30</t>
-  </si>
-  <si>
-    <t>19:59:00</t>
-  </si>
-  <si>
-    <t>21:34:33</t>
-  </si>
-  <si>
-    <t>17:44:30</t>
-  </si>
-  <si>
-    <t>19:22:05</t>
-  </si>
-  <si>
-    <t>20:58:07</t>
-  </si>
-  <si>
-    <t>17:07:24</t>
-  </si>
-  <si>
-    <t>18:45:04</t>
-  </si>
-  <si>
-    <t>20:21:26</t>
-  </si>
-  <si>
-    <t>18:07:57</t>
-  </si>
-  <si>
-    <t>19:44:35</t>
-  </si>
-  <si>
-    <t>17:30:44</t>
-  </si>
-  <si>
-    <t>19:07:35</t>
-  </si>
-  <si>
-    <t>16:53:26</t>
-  </si>
-  <si>
-    <t>18:30:27</t>
-  </si>
-  <si>
-    <t>17:22:47</t>
-  </si>
-  <si>
-    <t>19:00:41</t>
-  </si>
-  <si>
-    <t>20:38:10</t>
-  </si>
-  <si>
-    <t>16:45:51</t>
-  </si>
-  <si>
-    <t>18:23:47</t>
-  </si>
-  <si>
-    <t>20:01:20</t>
-  </si>
-  <si>
-    <t>21:37:55</t>
-  </si>
-  <si>
-    <t>17:46:47</t>
-  </si>
-  <si>
-    <t>19:24:24</t>
-  </si>
-  <si>
-    <t>21:01:09</t>
-  </si>
-  <si>
-    <t>17:09:43</t>
-  </si>
-  <si>
-    <t>18:47:22</t>
-  </si>
-  <si>
-    <t>20:24:16</t>
-  </si>
-  <si>
-    <t>18:10:14</t>
-  </si>
-  <si>
-    <t>19:47:16</t>
-  </si>
-  <si>
-    <t>17:33:01</t>
-  </si>
-  <si>
-    <t>19:10:10</t>
-  </si>
-  <si>
-    <t>16:55:42</t>
-  </si>
-  <si>
-    <t>18:32:57</t>
+    <t>01:42</t>
+  </si>
+  <si>
+    <t>03:27</t>
+  </si>
+  <si>
+    <t>05:13</t>
+  </si>
+  <si>
+    <t>00:40</t>
+  </si>
+  <si>
+    <t>02:37</t>
+  </si>
+  <si>
+    <t>04:36</t>
+  </si>
+  <si>
+    <t>16:35:39</t>
+  </si>
+  <si>
+    <t>18:12:47</t>
+  </si>
+  <si>
+    <t>19:50:30</t>
+  </si>
+  <si>
+    <t>21:28:40</t>
+  </si>
+  <si>
+    <t>17:35:51</t>
+  </si>
+  <si>
+    <t>19:13:32</t>
+  </si>
+  <si>
+    <t>20:51:36</t>
+  </si>
+  <si>
+    <t>16:58:51</t>
+  </si>
+  <si>
+    <t>18:36:29</t>
+  </si>
+  <si>
+    <t>20:14:29</t>
+  </si>
+  <si>
+    <t>17:59:22</t>
+  </si>
+  <si>
+    <t>19:37:18</t>
+  </si>
+  <si>
+    <t>17:22:11</t>
+  </si>
+  <si>
+    <t>19:00:04</t>
+  </si>
+  <si>
+    <t>16:44:55</t>
+  </si>
+  <si>
+    <t>18:22:45</t>
+  </si>
+  <si>
+    <t>17:45:23</t>
+  </si>
+  <si>
+    <t>16:38:15</t>
+  </si>
+  <si>
+    <t>18:15:03</t>
+  </si>
+  <si>
+    <t>19:52:51</t>
+  </si>
+  <si>
+    <t>21:32:03</t>
+  </si>
+  <si>
+    <t>17:38:08</t>
+  </si>
+  <si>
+    <t>19:15:51</t>
+  </si>
+  <si>
+    <t>20:54:39</t>
+  </si>
+  <si>
+    <t>17:01:09</t>
+  </si>
+  <si>
+    <t>18:38:47</t>
+  </si>
+  <si>
+    <t>20:17:19</t>
+  </si>
+  <si>
+    <t>18:01:39</t>
+  </si>
+  <si>
+    <t>19:40:00</t>
+  </si>
+  <si>
+    <t>17:24:27</t>
+  </si>
+  <si>
+    <t>19:02:39</t>
+  </si>
+  <si>
+    <t>16:47:11</t>
+  </si>
+  <si>
+    <t>18:25:15</t>
+  </si>
+  <si>
+    <t>17:47:49</t>
+  </si>
+  <si>
+    <t>16:40:45</t>
+  </si>
+  <si>
+    <t>18:18:17</t>
+  </si>
+  <si>
+    <t>19:55:56</t>
+  </si>
+  <si>
+    <t>21:33:19</t>
+  </si>
+  <si>
+    <t>17:41:21</t>
+  </si>
+  <si>
+    <t>19:19:00</t>
+  </si>
+  <si>
+    <t>20:56:25</t>
+  </si>
+  <si>
+    <t>17:04:20</t>
+  </si>
+  <si>
+    <t>18:41:58</t>
+  </si>
+  <si>
+    <t>20:19:26</t>
+  </si>
+  <si>
+    <t>18:04:52</t>
+  </si>
+  <si>
+    <t>19:42:22</t>
+  </si>
+  <si>
+    <t>17:27:42</t>
+  </si>
+  <si>
+    <t>19:05:13</t>
+  </si>
+  <si>
+    <t>16:50:26</t>
+  </si>
+  <si>
+    <t>18:27:59</t>
+  </si>
+  <si>
+    <t>17:50:41</t>
+  </si>
+  <si>
+    <t>16:43:16</t>
+  </si>
+  <si>
+    <t>18:21:32</t>
+  </si>
+  <si>
+    <t>19:59:01</t>
+  </si>
+  <si>
+    <t>21:34:34</t>
+  </si>
+  <si>
+    <t>17:44:33</t>
+  </si>
+  <si>
+    <t>19:22:08</t>
+  </si>
+  <si>
+    <t>20:58:11</t>
+  </si>
+  <si>
+    <t>17:07:30</t>
+  </si>
+  <si>
+    <t>18:45:10</t>
+  </si>
+  <si>
+    <t>20:21:32</t>
+  </si>
+  <si>
+    <t>18:08:06</t>
+  </si>
+  <si>
+    <t>19:44:44</t>
+  </si>
+  <si>
+    <t>17:30:56</t>
+  </si>
+  <si>
+    <t>19:07:47</t>
+  </si>
+  <si>
+    <t>16:53:42</t>
+  </si>
+  <si>
+    <t>18:30:43</t>
+  </si>
+  <si>
+    <t>17:53:32</t>
+  </si>
+  <si>
+    <t>16:45:53</t>
+  </si>
+  <si>
+    <t>18:23:48</t>
+  </si>
+  <si>
+    <t>20:01:22</t>
+  </si>
+  <si>
+    <t>21:37:57</t>
+  </si>
+  <si>
+    <t>17:46:51</t>
+  </si>
+  <si>
+    <t>19:24:27</t>
+  </si>
+  <si>
+    <t>21:01:12</t>
+  </si>
+  <si>
+    <t>17:09:48</t>
+  </si>
+  <si>
+    <t>18:47:27</t>
+  </si>
+  <si>
+    <t>20:24:22</t>
+  </si>
+  <si>
+    <t>18:10:23</t>
+  </si>
+  <si>
+    <t>19:47:25</t>
+  </si>
+  <si>
+    <t>17:33:13</t>
+  </si>
+  <si>
+    <t>19:10:22</t>
+  </si>
+  <si>
+    <t>16:55:58</t>
+  </si>
+  <si>
+    <t>18:33:13</t>
+  </si>
+  <si>
+    <t>17:55:59</t>
+  </si>
+  <si>
+    <t>8°</t>
+  </si>
+  <si>
+    <t>28°</t>
+  </si>
+  <si>
+    <t>2°</t>
+  </si>
+  <si>
+    <t>0°</t>
+  </si>
+  <si>
+    <t>10°</t>
+  </si>
+  <si>
+    <t>14°</t>
+  </si>
+  <si>
+    <t>22°</t>
+  </si>
+  <si>
+    <t>31°</t>
+  </si>
+  <si>
+    <t>5°</t>
+  </si>
+  <si>
+    <t>19°</t>
+  </si>
+  <si>
+    <t>13°</t>
+  </si>
+  <si>
+    <t>7°</t>
+  </si>
+  <si>
+    <t>21°</t>
   </si>
   <si>
     <t>16°</t>
   </si>
   <si>
-    <t>14°</t>
-  </si>
-  <si>
-    <t>0°</t>
-  </si>
-  <si>
-    <t>8°</t>
-  </si>
-  <si>
-    <t>28°</t>
-  </si>
-  <si>
-    <t>2°</t>
-  </si>
-  <si>
-    <t>10°</t>
-  </si>
-  <si>
-    <t>22°</t>
-  </si>
-  <si>
-    <t>31°</t>
-  </si>
-  <si>
-    <t>5°</t>
-  </si>
-  <si>
-    <t>19°</t>
-  </si>
-  <si>
-    <t>13°</t>
-  </si>
-  <si>
-    <t>7°</t>
-  </si>
-  <si>
-    <t>21°</t>
-  </si>
-  <si>
-    <t>17:18:55</t>
-  </si>
-  <si>
-    <t>18:52:34</t>
-  </si>
-  <si>
-    <t>16:43:44</t>
-  </si>
-  <si>
-    <t>18:17:23</t>
-  </si>
-  <si>
-    <t>19:51:03</t>
-  </si>
-  <si>
-    <t>17:42:07</t>
-  </si>
-  <si>
-    <t>19:15:46</t>
-  </si>
-  <si>
-    <t>17:06:45</t>
-  </si>
-  <si>
-    <t>18:40:24</t>
-  </si>
-  <si>
-    <t>18:04:58</t>
-  </si>
-  <si>
-    <t>19:38:36</t>
-  </si>
-  <si>
-    <t>17:29:29</t>
-  </si>
-  <si>
-    <t>19:03:07</t>
-  </si>
-  <si>
-    <t>16:53:58</t>
-  </si>
-  <si>
-    <t>18:27:36</t>
+    <t>16:43:46</t>
+  </si>
+  <si>
+    <t>18:17:25</t>
+  </si>
+  <si>
+    <t>19:51:04</t>
+  </si>
+  <si>
+    <t>17:42:10</t>
+  </si>
+  <si>
+    <t>19:15:49</t>
+  </si>
+  <si>
+    <t>17:06:51</t>
+  </si>
+  <si>
+    <t>18:40:29</t>
+  </si>
+  <si>
+    <t>18:05:06</t>
+  </si>
+  <si>
+    <t>19:38:45</t>
+  </si>
+  <si>
+    <t>17:29:40</t>
+  </si>
+  <si>
+    <t>19:03:19</t>
+  </si>
+  <si>
+    <t>16:54:13</t>
+  </si>
+  <si>
+    <t>18:27:52</t>
+  </si>
+  <si>
+    <t>17:52:25</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>A+B</t>
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>2</t>
@@ -659,7 +611,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFEEF3F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBD1E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4E2F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6E9DD0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6EEF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF558CC8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5E92CB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,25 +665,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6F9FC"/>
+        <fgColor rgb="FFB2CBE6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6EEF7"/>
+        <fgColor rgb="FF80A9D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBBD1E9"/>
+        <fgColor rgb="FFC4D7EC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6697CD"/>
+        <fgColor rgb="FFA2C0E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F9FC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,67 +707,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF558CC8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4E2F1"/>
+        <fgColor rgb="FFF0B070"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99BADE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB2CBE6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAAC5E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF3F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4D7EC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8F4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5E92CB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF88AED8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA2C0E1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1277,7 +1229,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1361,55 +1313,55 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="L2" s="4">
-        <v>-14.6</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="O2" s="6">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P2" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>72</v>
-      </c>
-      <c r="R2" s="7">
-        <v>100</v>
+        <v>90</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>92</v>
+      </c>
+      <c r="R2" s="8">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1417,55 +1369,55 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="L3" s="4">
-        <v>-29.8</v>
+        <v>-23.8</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="O3" s="6">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="P3" s="9">
-        <v>94</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>100</v>
-      </c>
-      <c r="R3" s="7">
-        <v>100</v>
+        <v>81</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>77</v>
+      </c>
+      <c r="R3" s="11">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1473,55 +1425,55 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="L4" s="4">
-        <v>-44.6</v>
+        <v>-38.9</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="O4" s="6">
-        <v>100</v>
-      </c>
-      <c r="P4" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>93</v>
-      </c>
-      <c r="R4" s="7">
-        <v>100</v>
+        <v>95</v>
+      </c>
+      <c r="P4" s="9">
+        <v>82</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>83</v>
+      </c>
+      <c r="R4" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1529,55 +1481,55 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>177</v>
+        <v>64</v>
       </c>
       <c r="L5" s="4">
-        <v>-8.800000000000001</v>
+        <v>-51.8</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="O5" s="6">
-        <v>92</v>
-      </c>
-      <c r="P5" s="10">
-        <v>85</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>58</v>
-      </c>
-      <c r="R5" s="12">
-        <v>9</v>
+        <v>97</v>
+      </c>
+      <c r="P5" s="12">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>83</v>
+      </c>
+      <c r="R5" s="14">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1585,55 +1537,55 @@
         <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L6" s="4">
+        <v>-17.8</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O6" s="6">
+        <v>87</v>
+      </c>
+      <c r="P6" s="15">
         <v>70</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="L6" s="4">
-        <v>-23.8</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="O6" s="6">
-        <v>68</v>
-      </c>
-      <c r="P6" s="8">
-        <v>68</v>
-      </c>
       <c r="Q6" s="13">
-        <v>33</v>
-      </c>
-      <c r="R6" s="14">
         <v>0</v>
+      </c>
+      <c r="R6" s="8">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1641,55 +1593,55 @@
         <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="L7" s="4">
-        <v>-38.9</v>
+        <v>-33.1</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="O7" s="6">
-        <v>81</v>
-      </c>
-      <c r="P7" s="15">
         <v>76</v>
       </c>
-      <c r="Q7" s="16">
-        <v>38</v>
-      </c>
-      <c r="R7" s="14">
-        <v>0</v>
+      <c r="P7" s="16">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>26</v>
+      </c>
+      <c r="R7" s="18">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1697,55 +1649,55 @@
         <v>24</v>
       </c>
       <c r="B8" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L8" s="4">
-        <v>-51.8</v>
+        <v>-47.2</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="O8" s="6">
-        <v>97</v>
-      </c>
-      <c r="P8" s="10">
-        <v>87</v>
-      </c>
-      <c r="Q8" s="15">
-        <v>75</v>
-      </c>
-      <c r="R8" s="14">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="P8" s="15">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>45</v>
+      </c>
+      <c r="R8" s="20">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1753,55 +1705,55 @@
         <v>25</v>
       </c>
       <c r="B9" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="L9" s="4">
-        <v>-17.8</v>
+        <v>-11.9</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="O9" s="6">
-        <v>97</v>
-      </c>
-      <c r="P9" s="17">
-        <v>55</v>
-      </c>
-      <c r="Q9" s="13">
-        <v>33</v>
-      </c>
-      <c r="R9" s="17">
-        <v>55</v>
+        <v>96</v>
+      </c>
+      <c r="P9" s="7">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>77</v>
+      </c>
+      <c r="R9" s="18">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1809,55 +1761,55 @@
         <v>26</v>
       </c>
       <c r="B10" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="L10" s="4">
-        <v>-33.1</v>
+        <v>-27.1</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="O10" s="6">
-        <v>100</v>
-      </c>
-      <c r="P10" s="16">
-        <v>41</v>
-      </c>
-      <c r="Q10" s="18">
-        <v>50</v>
-      </c>
-      <c r="R10" s="17">
-        <v>56</v>
+        <v>98</v>
+      </c>
+      <c r="P10" s="7">
+        <v>92</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>75</v>
+      </c>
+      <c r="R10" s="18">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1865,55 +1817,55 @@
         <v>27</v>
       </c>
       <c r="B11" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L11" s="4">
-        <v>-47.2</v>
+        <v>-42</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="O11" s="6">
         <v>100</v>
       </c>
-      <c r="P11" s="18">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="16">
-        <v>40</v>
-      </c>
-      <c r="R11" s="8">
-        <v>72</v>
+      <c r="P11" s="21">
+        <v>94</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>83</v>
+      </c>
+      <c r="R11" s="21">
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1921,55 +1873,55 @@
         <v>28</v>
       </c>
       <c r="B12" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L12" s="4">
-        <v>-11.9</v>
+        <v>-21.1</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="O12" s="6">
-        <v>100</v>
-      </c>
-      <c r="P12" s="10">
-        <v>87</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>69</v>
-      </c>
-      <c r="R12" s="19">
-        <v>89</v>
+        <v>97</v>
+      </c>
+      <c r="P12" s="7">
+        <v>92</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>63</v>
+      </c>
+      <c r="R12" s="22">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1977,55 +1929,55 @@
         <v>29</v>
       </c>
       <c r="B13" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L13" s="4">
+        <v>-36.2</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O13" s="6">
         <v>96</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="L13" s="4">
-        <v>-27.1</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="O13" s="6">
-        <v>100</v>
-      </c>
-      <c r="P13" s="19">
-        <v>91</v>
-      </c>
-      <c r="Q13" s="20">
-        <v>66</v>
-      </c>
-      <c r="R13" s="21">
-        <v>80</v>
+      <c r="P13" s="12">
+        <v>87</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>54</v>
+      </c>
+      <c r="R13" s="22">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2033,55 +1985,55 @@
         <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="L14" s="4">
-        <v>-42</v>
+        <v>-15</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="O14" s="6">
-        <v>100</v>
-      </c>
-      <c r="P14" s="9">
-        <v>97</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>68</v>
-      </c>
-      <c r="R14" s="7">
-        <v>99</v>
+        <v>86</v>
+      </c>
+      <c r="P14" s="12">
+        <v>86</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>0</v>
+      </c>
+      <c r="R14" s="11">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2089,55 +2041,55 @@
         <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L15" s="4">
+        <v>-30.3</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O15" s="6">
+        <v>99</v>
+      </c>
+      <c r="P15" s="20">
         <v>98</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="L15" s="4">
-        <v>-21</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="O15" s="6">
-        <v>95</v>
-      </c>
-      <c r="P15" s="19">
-        <v>91</v>
-      </c>
-      <c r="Q15" s="22">
-        <v>6</v>
-      </c>
-      <c r="R15" s="23">
-        <v>30</v>
+      <c r="Q15" s="14">
+        <v>4</v>
+      </c>
+      <c r="R15" s="18">
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2145,55 +2097,55 @@
         <v>32</v>
       </c>
       <c r="B16" s="2">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="L16" s="4">
-        <v>-36.2</v>
+        <v>-9.1</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="O16" s="6">
         <v>100</v>
       </c>
       <c r="P16" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q16" s="22">
-        <v>7</v>
-      </c>
-      <c r="R16" s="24">
-        <v>46</v>
+        <v>92</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>75</v>
+      </c>
+      <c r="R16" s="7">
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2201,55 +2153,55 @@
         <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="L17" s="4">
-        <v>-15</v>
+        <v>-24.2</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="O17" s="6">
         <v>100</v>
       </c>
-      <c r="P17" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="19">
-        <v>92</v>
-      </c>
-      <c r="R17" s="14">
-        <v>0</v>
+      <c r="P17" s="20">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>90</v>
+      </c>
+      <c r="R17" s="10">
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2257,226 +2209,114 @@
         <v>34</v>
       </c>
       <c r="B18" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="L18" s="4">
-        <v>-30.2</v>
+        <v>-18.2</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="O18" s="6">
-        <v>100</v>
-      </c>
-      <c r="P18" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q18" s="19">
-        <v>88</v>
-      </c>
-      <c r="R18" s="14">
+        <v>177</v>
+      </c>
+      <c r="O18" s="23">
+        <v>41</v>
+      </c>
+      <c r="P18" s="24">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="2">
-        <v>33</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L19" s="4">
-        <v>-9</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="O19" s="6">
-        <v>100</v>
-      </c>
-      <c r="P19" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q19" s="14">
-        <v>0</v>
-      </c>
-      <c r="R19" s="22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="2">
-        <v>21</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="L20" s="4">
-        <v>-24.2</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="O20" s="6">
-        <v>100</v>
-      </c>
-      <c r="P20" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="14">
-        <v>0</v>
-      </c>
-      <c r="R20" s="22">
-        <v>5</v>
+      <c r="R18" s="13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A20">
+  <conditionalFormatting sqref="A2:A18">
     <cfRule type="expression" dxfId="8" priority="9">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B20">
+  <conditionalFormatting sqref="B2:B18">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C20">
+  <conditionalFormatting sqref="C2:C18">
     <cfRule type="expression" dxfId="9" priority="11">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D20">
+  <conditionalFormatting sqref="D2:D18">
     <cfRule type="expression" dxfId="8" priority="12">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E20">
+  <conditionalFormatting sqref="E2:E18">
     <cfRule type="expression" dxfId="9" priority="13">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F20">
+  <conditionalFormatting sqref="F2:F18">
     <cfRule type="expression" dxfId="9" priority="14">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G20">
+  <conditionalFormatting sqref="G2:G18">
     <cfRule type="expression" dxfId="9" priority="15">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H20">
+  <conditionalFormatting sqref="H2:H18">
     <cfRule type="expression" dxfId="9" priority="16">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I20">
+  <conditionalFormatting sqref="I2:I18">
     <cfRule type="expression" dxfId="8" priority="17">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J20">
+  <conditionalFormatting sqref="J2:J18">
     <cfRule type="expression" dxfId="9" priority="18">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K20">
+  <conditionalFormatting sqref="K2:K18">
     <cfRule type="expression" dxfId="8" priority="19">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L20">
+  <conditionalFormatting sqref="L2:L18">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -2495,12 +2335,12 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M20">
+  <conditionalFormatting sqref="M2:M18">
     <cfRule type="expression" dxfId="9" priority="21">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N20">
+  <conditionalFormatting sqref="N2:N18">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>
@@ -2517,22 +2357,22 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O20">
+  <conditionalFormatting sqref="O2:O18">
     <cfRule type="expression" dxfId="9" priority="23">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P20">
+  <conditionalFormatting sqref="P2:P18">
     <cfRule type="expression" dxfId="9" priority="24">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q20">
+  <conditionalFormatting sqref="Q2:Q18">
     <cfRule type="expression" dxfId="9" priority="25">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R20">
+  <conditionalFormatting sqref="R2:R18">
     <cfRule type="expression" dxfId="9" priority="26">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="156">
   <si>
     <t>Datum</t>
   </si>
@@ -70,18 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>20260126--01</t>
-  </si>
-  <si>
-    <t>20260126--02</t>
-  </si>
-  <si>
-    <t>20260126--03</t>
-  </si>
-  <si>
-    <t>20260126--04</t>
-  </si>
-  <si>
     <t>20260127--01</t>
   </si>
   <si>
@@ -121,64 +109,58 @@
     <t>20260201--01</t>
   </si>
   <si>
-    <t>05:01</t>
+    <t>20260202--01</t>
+  </si>
+  <si>
+    <t>06:25</t>
+  </si>
+  <si>
+    <t>06:17</t>
+  </si>
+  <si>
+    <t>03:31</t>
+  </si>
+  <si>
+    <t>06:21</t>
+  </si>
+  <si>
+    <t>06:22</t>
+  </si>
+  <si>
+    <t>04:13</t>
+  </si>
+  <si>
+    <t>06:26</t>
+  </si>
+  <si>
+    <t>04:44</t>
   </si>
   <si>
     <t>06:29</t>
   </si>
   <si>
-    <t>06:10</t>
-  </si>
-  <si>
-    <t>02:31</t>
-  </si>
-  <si>
-    <t>06:25</t>
-  </si>
-  <si>
-    <t>06:17</t>
-  </si>
-  <si>
-    <t>03:32</t>
-  </si>
-  <si>
-    <t>06:21</t>
-  </si>
-  <si>
-    <t>06:23</t>
-  </si>
-  <si>
-    <t>04:13</t>
-  </si>
-  <si>
-    <t>06:27</t>
-  </si>
-  <si>
-    <t>04:44</t>
-  </si>
-  <si>
     <t>05:08</t>
   </si>
   <si>
-    <t>06:31</t>
+    <t>06:30</t>
   </si>
   <si>
     <t>05:28</t>
   </si>
   <si>
-    <t>05:43</t>
-  </si>
-  <si>
-    <t>02:22</t>
+    <t>05:44</t>
+  </si>
+  <si>
+    <t>05:56</t>
+  </si>
+  <si>
+    <t>04:02</t>
   </si>
   <si>
     <t>00:00</t>
   </si>
   <si>
-    <t>04:02</t>
-  </si>
-  <si>
-    <t>05:42</t>
+    <t>05:41</t>
   </si>
   <si>
     <t>01:42</t>
@@ -187,30 +169,18 @@
     <t>03:27</t>
   </si>
   <si>
-    <t>05:13</t>
+    <t>05:14</t>
   </si>
   <si>
     <t>00:40</t>
   </si>
   <si>
-    <t>02:37</t>
+    <t>02:36</t>
   </si>
   <si>
     <t>04:36</t>
   </si>
   <si>
-    <t>16:35:39</t>
-  </si>
-  <si>
-    <t>18:12:47</t>
-  </si>
-  <si>
-    <t>19:50:30</t>
-  </si>
-  <si>
-    <t>21:28:40</t>
-  </si>
-  <si>
     <t>17:35:51</t>
   </si>
   <si>
@@ -229,37 +199,28 @@
     <t>20:14:29</t>
   </si>
   <si>
-    <t>17:59:22</t>
+    <t>17:59:21</t>
   </si>
   <si>
     <t>19:37:18</t>
   </si>
   <si>
-    <t>17:22:11</t>
-  </si>
-  <si>
-    <t>19:00:04</t>
-  </si>
-  <si>
-    <t>16:44:55</t>
-  </si>
-  <si>
-    <t>18:22:45</t>
-  </si>
-  <si>
-    <t>17:45:23</t>
-  </si>
-  <si>
-    <t>16:38:15</t>
-  </si>
-  <si>
-    <t>18:15:03</t>
-  </si>
-  <si>
-    <t>19:52:51</t>
-  </si>
-  <si>
-    <t>21:32:03</t>
+    <t>17:22:10</t>
+  </si>
+  <si>
+    <t>19:00:03</t>
+  </si>
+  <si>
+    <t>16:44:54</t>
+  </si>
+  <si>
+    <t>18:22:44</t>
+  </si>
+  <si>
+    <t>17:45:21</t>
+  </si>
+  <si>
+    <t>17:07:53</t>
   </si>
   <si>
     <t>17:38:08</t>
@@ -283,46 +244,37 @@
     <t>18:01:39</t>
   </si>
   <si>
-    <t>19:40:00</t>
-  </si>
-  <si>
-    <t>17:24:27</t>
-  </si>
-  <si>
-    <t>19:02:39</t>
-  </si>
-  <si>
-    <t>16:47:11</t>
-  </si>
-  <si>
-    <t>18:25:15</t>
-  </si>
-  <si>
-    <t>17:47:49</t>
-  </si>
-  <si>
-    <t>16:40:45</t>
-  </si>
-  <si>
-    <t>18:18:17</t>
-  </si>
-  <si>
-    <t>19:55:56</t>
-  </si>
-  <si>
-    <t>21:33:19</t>
-  </si>
-  <si>
-    <t>17:41:21</t>
-  </si>
-  <si>
-    <t>19:19:00</t>
+    <t>19:39:59</t>
+  </si>
+  <si>
+    <t>17:24:26</t>
+  </si>
+  <si>
+    <t>19:02:38</t>
+  </si>
+  <si>
+    <t>16:47:10</t>
+  </si>
+  <si>
+    <t>18:25:14</t>
+  </si>
+  <si>
+    <t>17:47:47</t>
+  </si>
+  <si>
+    <t>17:10:17</t>
+  </si>
+  <si>
+    <t>17:41:20</t>
+  </si>
+  <si>
+    <t>19:18:59</t>
   </si>
   <si>
     <t>20:56:25</t>
   </si>
   <si>
-    <t>17:04:20</t>
+    <t>17:04:19</t>
   </si>
   <si>
     <t>18:41:58</t>
@@ -334,34 +286,25 @@
     <t>18:04:52</t>
   </si>
   <si>
-    <t>19:42:22</t>
-  </si>
-  <si>
-    <t>17:27:42</t>
-  </si>
-  <si>
-    <t>19:05:13</t>
-  </si>
-  <si>
-    <t>16:50:26</t>
-  </si>
-  <si>
-    <t>18:27:59</t>
-  </si>
-  <si>
-    <t>17:50:41</t>
-  </si>
-  <si>
-    <t>16:43:16</t>
-  </si>
-  <si>
-    <t>18:21:32</t>
-  </si>
-  <si>
-    <t>19:59:01</t>
-  </si>
-  <si>
-    <t>21:34:34</t>
+    <t>19:42:21</t>
+  </si>
+  <si>
+    <t>17:27:41</t>
+  </si>
+  <si>
+    <t>19:05:12</t>
+  </si>
+  <si>
+    <t>16:50:25</t>
+  </si>
+  <si>
+    <t>18:27:58</t>
+  </si>
+  <si>
+    <t>17:50:39</t>
+  </si>
+  <si>
+    <t>17:13:15</t>
   </si>
   <si>
     <t>17:44:33</t>
@@ -370,49 +313,40 @@
     <t>19:22:08</t>
   </si>
   <si>
-    <t>20:58:11</t>
+    <t>20:58:10</t>
   </si>
   <si>
     <t>17:07:30</t>
   </si>
   <si>
-    <t>18:45:10</t>
+    <t>18:45:09</t>
   </si>
   <si>
     <t>20:21:32</t>
   </si>
   <si>
-    <t>18:08:06</t>
-  </si>
-  <si>
-    <t>19:44:44</t>
-  </si>
-  <si>
-    <t>17:30:56</t>
-  </si>
-  <si>
-    <t>19:07:47</t>
-  </si>
-  <si>
-    <t>16:53:42</t>
-  </si>
-  <si>
-    <t>18:30:43</t>
-  </si>
-  <si>
-    <t>17:53:32</t>
-  </si>
-  <si>
-    <t>16:45:53</t>
-  </si>
-  <si>
-    <t>18:23:48</t>
-  </si>
-  <si>
-    <t>20:01:22</t>
-  </si>
-  <si>
-    <t>21:37:57</t>
+    <t>18:08:05</t>
+  </si>
+  <si>
+    <t>19:44:43</t>
+  </si>
+  <si>
+    <t>17:30:55</t>
+  </si>
+  <si>
+    <t>19:07:46</t>
+  </si>
+  <si>
+    <t>16:53:40</t>
+  </si>
+  <si>
+    <t>18:30:42</t>
+  </si>
+  <si>
+    <t>17:53:31</t>
+  </si>
+  <si>
+    <t>17:16:13</t>
   </si>
   <si>
     <t>17:46:51</t>
@@ -430,45 +364,42 @@
     <t>18:47:27</t>
   </si>
   <si>
-    <t>20:24:22</t>
-  </si>
-  <si>
-    <t>18:10:23</t>
-  </si>
-  <si>
-    <t>19:47:25</t>
-  </si>
-  <si>
-    <t>17:33:13</t>
-  </si>
-  <si>
-    <t>19:10:22</t>
-  </si>
-  <si>
-    <t>16:55:58</t>
-  </si>
-  <si>
-    <t>18:33:13</t>
-  </si>
-  <si>
-    <t>17:55:59</t>
-  </si>
-  <si>
-    <t>8°</t>
+    <t>20:24:21</t>
+  </si>
+  <si>
+    <t>18:10:22</t>
+  </si>
+  <si>
+    <t>19:47:24</t>
+  </si>
+  <si>
+    <t>17:33:12</t>
+  </si>
+  <si>
+    <t>19:10:21</t>
+  </si>
+  <si>
+    <t>16:55:56</t>
+  </si>
+  <si>
+    <t>18:33:12</t>
+  </si>
+  <si>
+    <t>17:55:57</t>
+  </si>
+  <si>
+    <t>17:18:36</t>
   </si>
   <si>
     <t>28°</t>
   </si>
   <si>
-    <t>2°</t>
+    <t>10°</t>
   </si>
   <si>
     <t>0°</t>
   </si>
   <si>
-    <t>10°</t>
-  </si>
-  <si>
     <t>14°</t>
   </si>
   <si>
@@ -496,22 +427,13 @@
     <t>16°</t>
   </si>
   <si>
-    <t>16:43:46</t>
-  </si>
-  <si>
-    <t>18:17:25</t>
-  </si>
-  <si>
-    <t>19:51:04</t>
-  </si>
-  <si>
     <t>17:42:10</t>
   </si>
   <si>
     <t>19:15:49</t>
   </si>
   <si>
-    <t>17:06:51</t>
+    <t>17:06:50</t>
   </si>
   <si>
     <t>18:40:29</t>
@@ -520,31 +442,34 @@
     <t>18:05:06</t>
   </si>
   <si>
-    <t>19:38:45</t>
+    <t>19:38:44</t>
   </si>
   <si>
     <t>17:29:40</t>
   </si>
   <si>
-    <t>19:03:19</t>
-  </si>
-  <si>
-    <t>16:54:13</t>
-  </si>
-  <si>
-    <t>18:27:52</t>
-  </si>
-  <si>
-    <t>17:52:25</t>
+    <t>19:03:18</t>
+  </si>
+  <si>
+    <t>16:54:12</t>
+  </si>
+  <si>
+    <t>18:27:50</t>
+  </si>
+  <si>
+    <t>17:52:23</t>
+  </si>
+  <si>
+    <t>17:16:56</t>
+  </si>
+  <si>
+    <t>A+B</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>A+B</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
   <si>
     <t>2</t>
@@ -590,7 +515,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,7 +536,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEF3F9"/>
+        <fgColor rgb="FFDDE8F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF558CC8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2CBE6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,7 +560,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8F4"/>
+        <fgColor rgb="FF80A9D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99BADE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88AED8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5E92CB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,7 +590,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6E9DD0"/>
+        <fgColor rgb="FFEEF3F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,13 +602,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF558CC8"/>
+        <fgColor rgb="FFC4D7EC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5E92CB"/>
+        <fgColor rgb="FFAAC5E3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,55 +620,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB2CBE6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF80A9D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4D7EC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA2C0E1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6F9FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF90B4DB"/>
+        <fgColor rgb="FF6697CD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF0B070"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99BADE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -820,12 +733,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1229,7 +1136,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1313,55 +1220,55 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L2" s="4">
+        <v>-17.8</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O2" s="6">
+        <v>79</v>
+      </c>
+      <c r="P2" s="7">
         <v>78</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="L2" s="4">
-        <v>-8.800000000000001</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="O2" s="6">
-        <v>99</v>
-      </c>
-      <c r="P2" s="7">
-        <v>90</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>92</v>
+      <c r="Q2" s="8">
+        <v>0</v>
       </c>
       <c r="R2" s="8">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1369,55 +1276,55 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="L3" s="4">
-        <v>-23.8</v>
+        <v>-33.1</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="O3" s="6">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="P3" s="9">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="Q3" s="10">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="R3" s="11">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1425,55 +1332,55 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="L4" s="4">
-        <v>-38.9</v>
+        <v>-47.2</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="O4" s="6">
-        <v>95</v>
-      </c>
-      <c r="P4" s="9">
-        <v>82</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>83</v>
-      </c>
-      <c r="R4" s="13">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="P4" s="12">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>29</v>
+      </c>
+      <c r="R4" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1481,55 +1388,55 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L5" s="4">
+        <v>-11.9</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O5" s="6">
         <v>98</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L5" s="4">
-        <v>-51.8</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="O5" s="6">
-        <v>97</v>
-      </c>
-      <c r="P5" s="12">
-        <v>86</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>83</v>
-      </c>
-      <c r="R5" s="14">
-        <v>7</v>
+      <c r="P5" s="15">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>92</v>
+      </c>
+      <c r="R5" s="15">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1537,55 +1444,55 @@
         <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="L6" s="4">
-        <v>-17.8</v>
+        <v>-27.1</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="O6" s="6">
-        <v>87</v>
-      </c>
-      <c r="P6" s="15">
-        <v>70</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>0</v>
-      </c>
-      <c r="R6" s="8">
-        <v>62</v>
+        <v>96</v>
+      </c>
+      <c r="P6" s="7">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>88</v>
+      </c>
+      <c r="R6" s="10">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1593,55 +1500,55 @@
         <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="J7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="4">
+        <v>-42</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="L7" s="4">
-        <v>-33.1</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="N7" s="1" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="O7" s="6">
-        <v>76</v>
-      </c>
-      <c r="P7" s="16">
-        <v>57</v>
+        <v>96</v>
+      </c>
+      <c r="P7" s="7">
+        <v>79</v>
       </c>
       <c r="Q7" s="17">
-        <v>26</v>
-      </c>
-      <c r="R7" s="18">
-        <v>63</v>
+        <v>85</v>
+      </c>
+      <c r="R7" s="10">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1649,55 +1556,55 @@
         <v>24</v>
       </c>
       <c r="B8" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L8" s="4">
+        <v>-21.1</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="4">
-        <v>-47.2</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="N8" s="1" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="O8" s="6">
         <v>100</v>
       </c>
-      <c r="P8" s="15">
-        <v>71</v>
-      </c>
-      <c r="Q8" s="19">
-        <v>45</v>
-      </c>
-      <c r="R8" s="20">
-        <v>100</v>
+      <c r="P8" s="18">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>41</v>
+      </c>
+      <c r="R8" s="16">
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1705,55 +1612,55 @@
         <v>25</v>
       </c>
       <c r="B9" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="L9" s="4">
-        <v>-11.9</v>
+        <v>-36.2</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="O9" s="6">
-        <v>96</v>
-      </c>
-      <c r="P9" s="7">
-        <v>90</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>77</v>
-      </c>
-      <c r="R9" s="18">
-        <v>63</v>
+        <v>100</v>
+      </c>
+      <c r="P9" s="15">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>50</v>
+      </c>
+      <c r="R9" s="20">
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1761,55 +1668,55 @@
         <v>26</v>
       </c>
       <c r="B10" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="J10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L10" s="4">
+        <v>-15</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="L10" s="4">
-        <v>-27.1</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="O10" s="6">
         <v>98</v>
       </c>
-      <c r="P10" s="7">
-        <v>92</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>75</v>
-      </c>
-      <c r="R10" s="18">
-        <v>67</v>
+      <c r="P10" s="16">
+        <v>89</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>54</v>
+      </c>
+      <c r="R10" s="21">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1817,55 +1724,55 @@
         <v>27</v>
       </c>
       <c r="B11" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="J11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L11" s="4">
+        <v>-30.3</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" s="4">
-        <v>-42</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="N11" s="1" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="O11" s="6">
-        <v>100</v>
-      </c>
-      <c r="P11" s="21">
-        <v>94</v>
-      </c>
-      <c r="Q11" s="12">
-        <v>83</v>
+        <v>96</v>
+      </c>
+      <c r="P11" s="16">
+        <v>89</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>53</v>
       </c>
       <c r="R11" s="21">
-        <v>96</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1873,55 +1780,55 @@
         <v>28</v>
       </c>
       <c r="B12" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="L12" s="4">
-        <v>-21.1</v>
+        <v>-9.1</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="O12" s="6">
-        <v>97</v>
-      </c>
-      <c r="P12" s="7">
-        <v>92</v>
-      </c>
-      <c r="Q12" s="18">
         <v>63</v>
       </c>
-      <c r="R12" s="22">
-        <v>37</v>
+      <c r="P12" s="10">
+        <v>59</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>7</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1929,55 +1836,55 @@
         <v>29</v>
       </c>
       <c r="B13" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="L13" s="4">
-        <v>-36.2</v>
+        <v>-24.2</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="O13" s="6">
-        <v>96</v>
-      </c>
-      <c r="P13" s="12">
-        <v>87</v>
-      </c>
-      <c r="Q13" s="16">
-        <v>54</v>
-      </c>
-      <c r="R13" s="22">
-        <v>34</v>
+        <v>53</v>
+      </c>
+      <c r="P13" s="9">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>4</v>
+      </c>
+      <c r="R13" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1985,55 +1892,55 @@
         <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="L14" s="4">
-        <v>-15</v>
+        <v>-18.2</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="O14" s="6">
-        <v>86</v>
-      </c>
-      <c r="P14" s="12">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="13">
+        <v>152</v>
+      </c>
+      <c r="O14" s="22">
+        <v>25</v>
+      </c>
+      <c r="P14" s="11">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="8">
         <v>0</v>
       </c>
-      <c r="R14" s="11">
-        <v>14</v>
+      <c r="R14" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2041,282 +1948,114 @@
         <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="L15" s="4">
-        <v>-30.3</v>
+        <v>-12.1</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="O15" s="6">
-        <v>99</v>
-      </c>
-      <c r="P15" s="20">
-        <v>98</v>
+        <v>72</v>
+      </c>
+      <c r="P15" s="18">
+        <v>66</v>
       </c>
       <c r="Q15" s="14">
         <v>4</v>
       </c>
-      <c r="R15" s="18">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="2">
-        <v>33</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="L16" s="4">
-        <v>-9.1</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="O16" s="6">
-        <v>100</v>
-      </c>
-      <c r="P16" s="7">
-        <v>92</v>
-      </c>
-      <c r="Q16" s="10">
-        <v>75</v>
-      </c>
-      <c r="R16" s="7">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2">
-        <v>21</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="L17" s="4">
-        <v>-24.2</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="O17" s="6">
-        <v>100</v>
-      </c>
-      <c r="P17" s="20">
-        <v>99</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>90</v>
-      </c>
-      <c r="R17" s="10">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2">
-        <v>23</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="L18" s="4">
-        <v>-18.2</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="O18" s="23">
-        <v>41</v>
-      </c>
-      <c r="P18" s="24">
-        <v>40</v>
-      </c>
-      <c r="Q18" s="13">
-        <v>0</v>
-      </c>
-      <c r="R18" s="13">
+      <c r="R15" s="8">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A18">
+  <conditionalFormatting sqref="A2:A15">
     <cfRule type="expression" dxfId="8" priority="9">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B18">
+  <conditionalFormatting sqref="B2:B15">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C18">
+  <conditionalFormatting sqref="C2:C15">
     <cfRule type="expression" dxfId="9" priority="11">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D18">
+  <conditionalFormatting sqref="D2:D15">
     <cfRule type="expression" dxfId="8" priority="12">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E18">
+  <conditionalFormatting sqref="E2:E15">
     <cfRule type="expression" dxfId="9" priority="13">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F18">
+  <conditionalFormatting sqref="F2:F15">
     <cfRule type="expression" dxfId="9" priority="14">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G18">
+  <conditionalFormatting sqref="G2:G15">
     <cfRule type="expression" dxfId="9" priority="15">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H18">
+  <conditionalFormatting sqref="H2:H15">
     <cfRule type="expression" dxfId="9" priority="16">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I18">
+  <conditionalFormatting sqref="I2:I15">
     <cfRule type="expression" dxfId="8" priority="17">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J18">
+  <conditionalFormatting sqref="J2:J15">
     <cfRule type="expression" dxfId="9" priority="18">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K18">
+  <conditionalFormatting sqref="K2:K15">
     <cfRule type="expression" dxfId="8" priority="19">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L18">
+  <conditionalFormatting sqref="L2:L15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -2335,12 +2074,12 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M18">
+  <conditionalFormatting sqref="M2:M15">
     <cfRule type="expression" dxfId="9" priority="21">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N18">
+  <conditionalFormatting sqref="N2:N15">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>
@@ -2357,22 +2096,22 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O18">
+  <conditionalFormatting sqref="O2:O15">
     <cfRule type="expression" dxfId="9" priority="23">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P18">
+  <conditionalFormatting sqref="P2:P15">
     <cfRule type="expression" dxfId="9" priority="24">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q18">
+  <conditionalFormatting sqref="Q2:Q15">
     <cfRule type="expression" dxfId="9" priority="25">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R18">
+  <conditionalFormatting sqref="R2:R15">
     <cfRule type="expression" dxfId="9" priority="26">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="138">
   <si>
     <t>Datum</t>
   </si>
@@ -70,15 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>20260127--01</t>
-  </si>
-  <si>
-    <t>20260127--02</t>
-  </si>
-  <si>
-    <t>20260127--03</t>
-  </si>
-  <si>
     <t>20260128--01</t>
   </si>
   <si>
@@ -112,13 +103,7 @@
     <t>20260202--01</t>
   </si>
   <si>
-    <t>06:25</t>
-  </si>
-  <si>
-    <t>06:17</t>
-  </si>
-  <si>
-    <t>03:31</t>
+    <t>20260203--01</t>
   </si>
   <si>
     <t>06:21</t>
@@ -136,7 +121,7 @@
     <t>04:44</t>
   </si>
   <si>
-    <t>06:29</t>
+    <t>06:28</t>
   </si>
   <si>
     <t>05:08</t>
@@ -148,28 +133,28 @@
     <t>05:28</t>
   </si>
   <si>
-    <t>05:44</t>
+    <t>05:43</t>
   </si>
   <si>
     <t>05:56</t>
   </si>
   <si>
-    <t>04:02</t>
+    <t>01:44</t>
+  </si>
+  <si>
+    <t>05:42</t>
+  </si>
+  <si>
+    <t>01:42</t>
   </si>
   <si>
     <t>00:00</t>
   </si>
   <si>
-    <t>05:41</t>
-  </si>
-  <si>
-    <t>01:42</t>
-  </si>
-  <si>
     <t>03:27</t>
   </si>
   <si>
-    <t>05:14</t>
+    <t>05:13</t>
   </si>
   <si>
     <t>00:40</t>
@@ -178,16 +163,7 @@
     <t>02:36</t>
   </si>
   <si>
-    <t>04:36</t>
-  </si>
-  <si>
-    <t>17:35:51</t>
-  </si>
-  <si>
-    <t>19:13:32</t>
-  </si>
-  <si>
-    <t>20:51:36</t>
+    <t>04:35</t>
   </si>
   <si>
     <t>16:58:51</t>
@@ -199,37 +175,31 @@
     <t>20:14:29</t>
   </si>
   <si>
-    <t>17:59:21</t>
-  </si>
-  <si>
-    <t>19:37:18</t>
-  </si>
-  <si>
-    <t>17:22:10</t>
-  </si>
-  <si>
-    <t>19:00:03</t>
-  </si>
-  <si>
-    <t>16:44:54</t>
-  </si>
-  <si>
-    <t>18:22:44</t>
-  </si>
-  <si>
-    <t>17:45:21</t>
-  </si>
-  <si>
-    <t>17:07:53</t>
-  </si>
-  <si>
-    <t>17:38:08</t>
-  </si>
-  <si>
-    <t>19:15:51</t>
-  </si>
-  <si>
-    <t>20:54:39</t>
+    <t>17:59:22</t>
+  </si>
+  <si>
+    <t>19:37:19</t>
+  </si>
+  <si>
+    <t>17:22:11</t>
+  </si>
+  <si>
+    <t>19:00:04</t>
+  </si>
+  <si>
+    <t>16:44:56</t>
+  </si>
+  <si>
+    <t>18:22:46</t>
+  </si>
+  <si>
+    <t>17:45:24</t>
+  </si>
+  <si>
+    <t>17:07:58</t>
+  </si>
+  <si>
+    <t>18:08:37</t>
   </si>
   <si>
     <t>17:01:09</t>
@@ -244,34 +214,28 @@
     <t>18:01:39</t>
   </si>
   <si>
-    <t>19:39:59</t>
-  </si>
-  <si>
-    <t>17:24:26</t>
-  </si>
-  <si>
-    <t>19:02:38</t>
-  </si>
-  <si>
-    <t>16:47:10</t>
-  </si>
-  <si>
-    <t>18:25:14</t>
-  </si>
-  <si>
-    <t>17:47:47</t>
-  </si>
-  <si>
-    <t>17:10:17</t>
-  </si>
-  <si>
-    <t>17:41:20</t>
-  </si>
-  <si>
-    <t>19:18:59</t>
-  </si>
-  <si>
-    <t>20:56:25</t>
+    <t>19:40:00</t>
+  </si>
+  <si>
+    <t>17:24:28</t>
+  </si>
+  <si>
+    <t>19:02:39</t>
+  </si>
+  <si>
+    <t>16:47:12</t>
+  </si>
+  <si>
+    <t>18:25:16</t>
+  </si>
+  <si>
+    <t>17:47:50</t>
+  </si>
+  <si>
+    <t>17:10:21</t>
+  </si>
+  <si>
+    <t>18:12:18</t>
   </si>
   <si>
     <t>17:04:19</t>
@@ -286,34 +250,28 @@
     <t>18:04:52</t>
   </si>
   <si>
-    <t>19:42:21</t>
-  </si>
-  <si>
-    <t>17:27:41</t>
-  </si>
-  <si>
-    <t>19:05:12</t>
-  </si>
-  <si>
-    <t>16:50:25</t>
-  </si>
-  <si>
-    <t>18:27:58</t>
-  </si>
-  <si>
-    <t>17:50:39</t>
-  </si>
-  <si>
-    <t>17:13:15</t>
-  </si>
-  <si>
-    <t>17:44:33</t>
-  </si>
-  <si>
-    <t>19:22:08</t>
-  </si>
-  <si>
-    <t>20:58:10</t>
+    <t>19:42:22</t>
+  </si>
+  <si>
+    <t>17:27:42</t>
+  </si>
+  <si>
+    <t>19:05:14</t>
+  </si>
+  <si>
+    <t>16:50:27</t>
+  </si>
+  <si>
+    <t>18:28:00</t>
+  </si>
+  <si>
+    <t>17:50:42</t>
+  </si>
+  <si>
+    <t>17:13:19</t>
+  </si>
+  <si>
+    <t>18:13:10</t>
   </si>
   <si>
     <t>17:07:30</t>
@@ -328,34 +286,28 @@
     <t>18:08:05</t>
   </si>
   <si>
-    <t>19:44:43</t>
-  </si>
-  <si>
-    <t>17:30:55</t>
-  </si>
-  <si>
-    <t>19:07:46</t>
-  </si>
-  <si>
-    <t>16:53:40</t>
-  </si>
-  <si>
-    <t>18:30:42</t>
-  </si>
-  <si>
-    <t>17:53:31</t>
-  </si>
-  <si>
-    <t>17:16:13</t>
-  </si>
-  <si>
-    <t>17:46:51</t>
-  </si>
-  <si>
-    <t>19:24:27</t>
-  </si>
-  <si>
-    <t>21:01:12</t>
+    <t>19:44:44</t>
+  </si>
+  <si>
+    <t>17:30:56</t>
+  </si>
+  <si>
+    <t>19:07:47</t>
+  </si>
+  <si>
+    <t>16:53:42</t>
+  </si>
+  <si>
+    <t>18:30:44</t>
+  </si>
+  <si>
+    <t>17:53:33</t>
+  </si>
+  <si>
+    <t>17:16:17</t>
+  </si>
+  <si>
+    <t>18:14:02</t>
   </si>
   <si>
     <t>17:09:48</t>
@@ -370,42 +322,39 @@
     <t>18:10:22</t>
   </si>
   <si>
-    <t>19:47:24</t>
-  </si>
-  <si>
-    <t>17:33:12</t>
-  </si>
-  <si>
-    <t>19:10:21</t>
-  </si>
-  <si>
-    <t>16:55:56</t>
-  </si>
-  <si>
-    <t>18:33:12</t>
-  </si>
-  <si>
-    <t>17:55:57</t>
-  </si>
-  <si>
-    <t>17:18:36</t>
-  </si>
-  <si>
-    <t>28°</t>
-  </si>
-  <si>
-    <t>10°</t>
+    <t>19:47:25</t>
+  </si>
+  <si>
+    <t>17:33:13</t>
+  </si>
+  <si>
+    <t>19:10:22</t>
+  </si>
+  <si>
+    <t>16:55:58</t>
+  </si>
+  <si>
+    <t>18:33:13</t>
+  </si>
+  <si>
+    <t>17:55:59</t>
+  </si>
+  <si>
+    <t>17:18:40</t>
+  </si>
+  <si>
+    <t>18:17:42</t>
+  </si>
+  <si>
+    <t>14°</t>
+  </si>
+  <si>
+    <t>22°</t>
   </si>
   <si>
     <t>0°</t>
   </si>
   <si>
-    <t>14°</t>
-  </si>
-  <si>
-    <t>22°</t>
-  </si>
-  <si>
     <t>31°</t>
   </si>
   <si>
@@ -427,13 +376,7 @@
     <t>16°</t>
   </si>
   <si>
-    <t>17:42:10</t>
-  </si>
-  <si>
-    <t>19:15:49</t>
-  </si>
-  <si>
-    <t>17:06:50</t>
+    <t>17:06:51</t>
   </si>
   <si>
     <t>18:40:29</t>
@@ -445,22 +388,25 @@
     <t>19:38:44</t>
   </si>
   <si>
-    <t>17:29:40</t>
-  </si>
-  <si>
-    <t>19:03:18</t>
-  </si>
-  <si>
-    <t>16:54:12</t>
-  </si>
-  <si>
-    <t>18:27:50</t>
-  </si>
-  <si>
-    <t>17:52:23</t>
-  </si>
-  <si>
-    <t>17:16:56</t>
+    <t>17:29:41</t>
+  </si>
+  <si>
+    <t>19:03:19</t>
+  </si>
+  <si>
+    <t>16:54:14</t>
+  </si>
+  <si>
+    <t>18:27:52</t>
+  </si>
+  <si>
+    <t>17:52:25</t>
+  </si>
+  <si>
+    <t>17:17:00</t>
+  </si>
+  <si>
+    <t>18:15:17</t>
   </si>
   <si>
     <t>A+B</t>
@@ -478,10 +424,10 @@
     <t>3</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -515,7 +461,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,7 +482,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEEF3F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDDE8F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCDCEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAC5E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6EEF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBD1E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5E92CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88AED8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99BADE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D7EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90B4DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,85 +566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB2CBE6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBD1E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF80A9D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99BADE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF88AED8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5E92CB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4E2F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF3F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6EEF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4D7EC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAAC5E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCDCEE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF6697CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0B070"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -730,9 +670,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1136,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1220,55 +1157,55 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="L2" s="4">
-        <v>-17.8</v>
+        <v>-11.9</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="O2" s="6">
+        <v>100</v>
+      </c>
+      <c r="P2" s="7">
+        <v>88</v>
+      </c>
+      <c r="Q2" s="8">
         <v>79</v>
       </c>
-      <c r="P2" s="7">
-        <v>78</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>0</v>
-      </c>
-      <c r="R2" s="8">
-        <v>0</v>
+      <c r="R2" s="9">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1276,55 +1213,55 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="L3" s="4">
-        <v>-33.1</v>
+        <v>-27.1</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="O3" s="6">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="P3" s="9">
-        <v>55</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>59</v>
-      </c>
-      <c r="R3" s="11">
-        <v>27</v>
+        <v>93</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>78</v>
+      </c>
+      <c r="R3" s="10">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1332,55 +1269,55 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L4" s="4">
-        <v>-47.2</v>
+        <v>-42</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="O4" s="6">
-        <v>44</v>
-      </c>
-      <c r="P4" s="12">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>29</v>
-      </c>
-      <c r="R4" s="14">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="P4" s="10">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>72</v>
+      </c>
+      <c r="R4" s="9">
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1388,55 +1325,55 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" s="4">
+        <v>-21.1</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O5" s="6">
         <v>100</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L5" s="4">
-        <v>-11.9</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O5" s="6">
-        <v>98</v>
-      </c>
-      <c r="P5" s="15">
-        <v>77</v>
-      </c>
-      <c r="Q5" s="16">
-        <v>92</v>
-      </c>
-      <c r="R5" s="15">
-        <v>75</v>
+      <c r="P5" s="7">
+        <v>89</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>50</v>
+      </c>
+      <c r="R5" s="10">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1444,55 +1381,55 @@
         <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="L6" s="4">
-        <v>-27.1</v>
+        <v>-36.2</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="O6" s="6">
-        <v>96</v>
-      </c>
-      <c r="P6" s="7">
-        <v>79</v>
-      </c>
-      <c r="Q6" s="16">
-        <v>88</v>
+        <v>100</v>
+      </c>
+      <c r="P6" s="13">
+        <v>86</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>50</v>
       </c>
       <c r="R6" s="10">
-        <v>61</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1500,55 +1437,55 @@
         <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="L7" s="4">
-        <v>-42</v>
+        <v>-15</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="O7" s="6">
-        <v>96</v>
-      </c>
-      <c r="P7" s="7">
-        <v>79</v>
-      </c>
-      <c r="Q7" s="17">
-        <v>85</v>
-      </c>
-      <c r="R7" s="10">
-        <v>60</v>
+        <v>100</v>
+      </c>
+      <c r="P7" s="10">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>58</v>
+      </c>
+      <c r="R7" s="15">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1556,55 +1493,55 @@
         <v>24</v>
       </c>
       <c r="B8" s="2">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="L8" s="4">
-        <v>-21.1</v>
+        <v>-30.3</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="O8" s="6">
         <v>100</v>
       </c>
-      <c r="P8" s="18">
-        <v>63</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>41</v>
-      </c>
-      <c r="R8" s="16">
-        <v>88</v>
+      <c r="P8" s="10">
+        <v>99</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>31</v>
+      </c>
+      <c r="R8" s="17">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1612,55 +1549,55 @@
         <v>25</v>
       </c>
       <c r="B9" s="2">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="L9" s="4">
-        <v>-36.2</v>
+        <v>-9.1</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="O9" s="6">
-        <v>100</v>
-      </c>
-      <c r="P9" s="15">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="19">
-        <v>50</v>
-      </c>
-      <c r="R9" s="20">
-        <v>71</v>
+        <v>88</v>
+      </c>
+      <c r="P9" s="8">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>63</v>
+      </c>
+      <c r="R9" s="16">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1668,55 +1605,55 @@
         <v>26</v>
       </c>
       <c r="B10" s="2">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="4">
+        <v>-24.2</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O10" s="6">
         <v>91</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="L10" s="4">
-        <v>-15</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O10" s="6">
-        <v>98</v>
-      </c>
-      <c r="P10" s="16">
-        <v>89</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>54</v>
-      </c>
-      <c r="R10" s="21">
-        <v>10</v>
+      <c r="P10" s="13">
+        <v>87</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>58</v>
+      </c>
+      <c r="R10" s="19">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1724,55 +1661,55 @@
         <v>27</v>
       </c>
       <c r="B11" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="L11" s="4">
-        <v>-30.3</v>
+        <v>-18.2</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="O11" s="6">
-        <v>96</v>
-      </c>
-      <c r="P11" s="16">
-        <v>89</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>53</v>
-      </c>
-      <c r="R11" s="21">
-        <v>11</v>
+        <v>80</v>
+      </c>
+      <c r="P11" s="8">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>0</v>
+      </c>
+      <c r="R11" s="20">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1780,55 +1717,55 @@
         <v>28</v>
       </c>
       <c r="B12" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="J12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" s="4">
+        <v>-12.1</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L12" s="4">
-        <v>-9.1</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="O12" s="6">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="P12" s="10">
-        <v>59</v>
-      </c>
-      <c r="Q12" s="14">
-        <v>7</v>
-      </c>
-      <c r="R12" s="8">
+        <v>99</v>
+      </c>
+      <c r="Q12" s="20">
         <v>0</v>
+      </c>
+      <c r="R12" s="15">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1836,226 +1773,114 @@
         <v>29</v>
       </c>
       <c r="B13" s="2">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="L13" s="4">
-        <v>-24.2</v>
+        <v>-21.2</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="O13" s="6">
-        <v>53</v>
-      </c>
-      <c r="P13" s="9">
-        <v>53</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>4</v>
-      </c>
-      <c r="R13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="2">
-        <v>23</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L14" s="4">
-        <v>-18.2</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O14" s="22">
-        <v>25</v>
-      </c>
-      <c r="P14" s="11">
-        <v>23</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>0</v>
-      </c>
-      <c r="R14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="2">
-        <v>24</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L15" s="4">
-        <v>-12.1</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O15" s="6">
-        <v>72</v>
-      </c>
-      <c r="P15" s="18">
-        <v>66</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>4</v>
-      </c>
-      <c r="R15" s="8">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="P13" s="18">
+        <v>63</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>28</v>
+      </c>
+      <c r="R13" s="21">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A15">
+  <conditionalFormatting sqref="A2:A13">
     <cfRule type="expression" dxfId="8" priority="9">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B15">
+  <conditionalFormatting sqref="B2:B13">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C15">
+  <conditionalFormatting sqref="C2:C13">
     <cfRule type="expression" dxfId="9" priority="11">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D15">
+  <conditionalFormatting sqref="D2:D13">
     <cfRule type="expression" dxfId="8" priority="12">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E15">
+  <conditionalFormatting sqref="E2:E13">
     <cfRule type="expression" dxfId="9" priority="13">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F15">
+  <conditionalFormatting sqref="F2:F13">
     <cfRule type="expression" dxfId="9" priority="14">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G15">
+  <conditionalFormatting sqref="G2:G13">
     <cfRule type="expression" dxfId="9" priority="15">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H15">
+  <conditionalFormatting sqref="H2:H13">
     <cfRule type="expression" dxfId="9" priority="16">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I15">
+  <conditionalFormatting sqref="I2:I13">
     <cfRule type="expression" dxfId="8" priority="17">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J15">
+  <conditionalFormatting sqref="J2:J13">
     <cfRule type="expression" dxfId="9" priority="18">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K15">
+  <conditionalFormatting sqref="K2:K13">
     <cfRule type="expression" dxfId="8" priority="19">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L15">
+  <conditionalFormatting sqref="L2:L13">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -2074,12 +1899,12 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M15">
+  <conditionalFormatting sqref="M2:M13">
     <cfRule type="expression" dxfId="9" priority="21">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N15">
+  <conditionalFormatting sqref="N2:N13">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>
@@ -2096,22 +1921,22 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O15">
+  <conditionalFormatting sqref="O2:O13">
     <cfRule type="expression" dxfId="9" priority="23">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P15">
+  <conditionalFormatting sqref="P2:P13">
     <cfRule type="expression" dxfId="9" priority="24">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q15">
+  <conditionalFormatting sqref="Q2:Q13">
     <cfRule type="expression" dxfId="9" priority="25">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R15">
+  <conditionalFormatting sqref="R2:R13">
     <cfRule type="expression" dxfId="9" priority="26">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="119">
   <si>
     <t>Datum</t>
   </si>
@@ -70,15 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>20260128--01</t>
-  </si>
-  <si>
-    <t>20260128--02</t>
-  </si>
-  <si>
-    <t>20260128--03</t>
-  </si>
-  <si>
     <t>20260129--01</t>
   </si>
   <si>
@@ -106,22 +97,16 @@
     <t>20260203--01</t>
   </si>
   <si>
-    <t>06:21</t>
-  </si>
-  <si>
-    <t>06:22</t>
-  </si>
-  <si>
-    <t>04:13</t>
+    <t>20260204--01</t>
   </si>
   <si>
     <t>06:26</t>
   </si>
   <si>
-    <t>04:44</t>
-  </si>
-  <si>
-    <t>06:28</t>
+    <t>04:43</t>
+  </si>
+  <si>
+    <t>06:29</t>
   </si>
   <si>
     <t>05:08</t>
@@ -130,34 +115,31 @@
     <t>06:30</t>
   </si>
   <si>
-    <t>05:28</t>
+    <t>05:27</t>
   </si>
   <si>
     <t>05:43</t>
   </si>
   <si>
-    <t>05:56</t>
+    <t>05:55</t>
   </si>
   <si>
     <t>01:44</t>
   </si>
   <si>
-    <t>05:42</t>
-  </si>
-  <si>
-    <t>01:42</t>
+    <t>03:08</t>
+  </si>
+  <si>
+    <t>03:27</t>
   </si>
   <si>
     <t>00:00</t>
   </si>
   <si>
-    <t>03:27</t>
-  </si>
-  <si>
     <t>05:13</t>
   </si>
   <si>
-    <t>00:40</t>
+    <t>00:39</t>
   </si>
   <si>
     <t>02:36</t>
@@ -166,49 +148,34 @@
     <t>04:35</t>
   </si>
   <si>
-    <t>16:58:51</t>
-  </si>
-  <si>
-    <t>18:36:29</t>
-  </si>
-  <si>
-    <t>20:14:29</t>
-  </si>
-  <si>
     <t>17:59:22</t>
   </si>
   <si>
     <t>19:37:19</t>
   </si>
   <si>
-    <t>17:22:11</t>
+    <t>17:22:10</t>
   </si>
   <si>
     <t>19:00:04</t>
   </si>
   <si>
-    <t>16:44:56</t>
-  </si>
-  <si>
-    <t>18:22:46</t>
-  </si>
-  <si>
-    <t>17:45:24</t>
-  </si>
-  <si>
-    <t>17:07:58</t>
-  </si>
-  <si>
-    <t>18:08:37</t>
-  </si>
-  <si>
-    <t>17:01:09</t>
-  </si>
-  <si>
-    <t>18:38:47</t>
-  </si>
-  <si>
-    <t>20:17:19</t>
+    <t>16:44:54</t>
+  </si>
+  <si>
+    <t>18:22:45</t>
+  </si>
+  <si>
+    <t>17:45:22</t>
+  </si>
+  <si>
+    <t>17:07:54</t>
+  </si>
+  <si>
+    <t>18:08:32</t>
+  </si>
+  <si>
+    <t>17:30:50</t>
   </si>
   <si>
     <t>18:01:39</t>
@@ -217,34 +184,28 @@
     <t>19:40:00</t>
   </si>
   <si>
-    <t>17:24:28</t>
+    <t>17:24:27</t>
   </si>
   <si>
     <t>19:02:39</t>
   </si>
   <si>
-    <t>16:47:12</t>
-  </si>
-  <si>
-    <t>18:25:16</t>
-  </si>
-  <si>
-    <t>17:47:50</t>
-  </si>
-  <si>
-    <t>17:10:21</t>
-  </si>
-  <si>
-    <t>18:12:18</t>
-  </si>
-  <si>
-    <t>17:04:19</t>
-  </si>
-  <si>
-    <t>18:41:58</t>
-  </si>
-  <si>
-    <t>20:19:26</t>
+    <t>16:47:11</t>
+  </si>
+  <si>
+    <t>18:25:15</t>
+  </si>
+  <si>
+    <t>17:47:48</t>
+  </si>
+  <si>
+    <t>17:10:18</t>
+  </si>
+  <si>
+    <t>18:12:13</t>
+  </si>
+  <si>
+    <t>17:34:00</t>
   </si>
   <si>
     <t>18:04:52</t>
@@ -253,40 +214,34 @@
     <t>19:42:22</t>
   </si>
   <si>
-    <t>17:27:42</t>
-  </si>
-  <si>
-    <t>19:05:14</t>
-  </si>
-  <si>
-    <t>16:50:27</t>
-  </si>
-  <si>
-    <t>18:28:00</t>
-  </si>
-  <si>
-    <t>17:50:42</t>
-  </si>
-  <si>
-    <t>17:13:19</t>
-  </si>
-  <si>
-    <t>18:13:10</t>
-  </si>
-  <si>
-    <t>17:07:30</t>
-  </si>
-  <si>
-    <t>18:45:09</t>
-  </si>
-  <si>
-    <t>20:21:32</t>
+    <t>17:27:41</t>
+  </si>
+  <si>
+    <t>19:05:13</t>
+  </si>
+  <si>
+    <t>16:50:26</t>
+  </si>
+  <si>
+    <t>18:27:59</t>
+  </si>
+  <si>
+    <t>17:50:39</t>
+  </si>
+  <si>
+    <t>17:13:15</t>
+  </si>
+  <si>
+    <t>18:13:05</t>
+  </si>
+  <si>
+    <t>17:35:34</t>
   </si>
   <si>
     <t>18:08:05</t>
   </si>
   <si>
-    <t>19:44:44</t>
+    <t>19:44:43</t>
   </si>
   <si>
     <t>17:30:56</t>
@@ -295,64 +250,52 @@
     <t>19:07:47</t>
   </si>
   <si>
-    <t>16:53:42</t>
-  </si>
-  <si>
-    <t>18:30:44</t>
-  </si>
-  <si>
-    <t>17:53:33</t>
-  </si>
-  <si>
-    <t>17:16:17</t>
-  </si>
-  <si>
-    <t>18:14:02</t>
-  </si>
-  <si>
-    <t>17:09:48</t>
-  </si>
-  <si>
-    <t>18:47:27</t>
-  </si>
-  <si>
-    <t>20:24:21</t>
+    <t>16:53:41</t>
+  </si>
+  <si>
+    <t>18:30:42</t>
+  </si>
+  <si>
+    <t>17:53:31</t>
+  </si>
+  <si>
+    <t>17:16:13</t>
+  </si>
+  <si>
+    <t>18:13:57</t>
+  </si>
+  <si>
+    <t>17:37:08</t>
   </si>
   <si>
     <t>18:10:22</t>
   </si>
   <si>
-    <t>19:47:25</t>
-  </si>
-  <si>
-    <t>17:33:13</t>
-  </si>
-  <si>
-    <t>19:10:22</t>
-  </si>
-  <si>
-    <t>16:55:58</t>
-  </si>
-  <si>
-    <t>18:33:13</t>
-  </si>
-  <si>
-    <t>17:55:59</t>
-  </si>
-  <si>
-    <t>17:18:40</t>
-  </si>
-  <si>
-    <t>18:17:42</t>
-  </si>
-  <si>
-    <t>14°</t>
-  </si>
-  <si>
-    <t>22°</t>
-  </si>
-  <si>
-    <t>0°</t>
+    <t>19:47:24</t>
+  </si>
+  <si>
+    <t>17:33:12</t>
+  </si>
+  <si>
+    <t>19:10:21</t>
+  </si>
+  <si>
+    <t>16:55:57</t>
+  </si>
+  <si>
+    <t>18:33:12</t>
+  </si>
+  <si>
+    <t>17:55:57</t>
+  </si>
+  <si>
+    <t>17:18:36</t>
+  </si>
+  <si>
+    <t>18:17:37</t>
+  </si>
+  <si>
+    <t>17:40:17</t>
   </si>
   <si>
     <t>31°</t>
@@ -376,10 +319,7 @@
     <t>16°</t>
   </si>
   <si>
-    <t>17:06:51</t>
-  </si>
-  <si>
-    <t>18:40:29</t>
+    <t>1°</t>
   </si>
   <si>
     <t>18:05:06</t>
@@ -388,25 +328,28 @@
     <t>19:38:44</t>
   </si>
   <si>
-    <t>17:29:41</t>
-  </si>
-  <si>
-    <t>19:03:19</t>
-  </si>
-  <si>
-    <t>16:54:14</t>
-  </si>
-  <si>
-    <t>18:27:52</t>
-  </si>
-  <si>
-    <t>17:52:25</t>
-  </si>
-  <si>
-    <t>17:17:00</t>
-  </si>
-  <si>
-    <t>18:15:17</t>
+    <t>17:29:40</t>
+  </si>
+  <si>
+    <t>19:03:18</t>
+  </si>
+  <si>
+    <t>16:54:13</t>
+  </si>
+  <si>
+    <t>18:27:51</t>
+  </si>
+  <si>
+    <t>17:52:23</t>
+  </si>
+  <si>
+    <t>17:16:57</t>
+  </si>
+  <si>
+    <t>18:15:12</t>
+  </si>
+  <si>
+    <t>17:39:54</t>
   </si>
   <si>
     <t>A+B</t>
@@ -461,7 +404,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,7 +425,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE6EEF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEEF3F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2C0E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88AED8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,37 +461,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFAAC5E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF6F9FC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCDCEE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAAC5E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6EEF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBD1E9"/>
+        <fgColor rgb="FF558CC8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,37 +485,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF88AED8"/>
+        <fgColor rgb="FF6697CD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99BADE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4D7EC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF90B4DB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF558CC8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6697CD"/>
+        <fgColor rgb="FFCCDCEE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -661,15 +586,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1073,7 +989,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1157,55 +1073,55 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="L2" s="4">
-        <v>-11.9</v>
+        <v>-21.1</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="O2" s="6">
         <v>100</v>
       </c>
       <c r="P2" s="7">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q2" s="8">
-        <v>79</v>
-      </c>
-      <c r="R2" s="9">
-        <v>96</v>
+        <v>100</v>
+      </c>
+      <c r="R2" s="8">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1213,54 +1129,54 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="L3" s="4">
-        <v>-27.1</v>
+        <v>-36.2</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="O3" s="6">
         <v>100</v>
       </c>
-      <c r="P3" s="9">
-        <v>93</v>
+      <c r="P3" s="7">
+        <v>85</v>
       </c>
       <c r="Q3" s="8">
-        <v>78</v>
-      </c>
-      <c r="R3" s="10">
+        <v>100</v>
+      </c>
+      <c r="R3" s="8">
         <v>100</v>
       </c>
     </row>
@@ -1269,55 +1185,55 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L4" s="4">
+        <v>-15</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="4">
-        <v>-42</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="O4" s="6">
         <v>100</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="8">
         <v>100</v>
       </c>
-      <c r="Q4" s="11">
-        <v>72</v>
-      </c>
-      <c r="R4" s="9">
-        <v>97</v>
+      <c r="Q4" s="9">
+        <v>88</v>
+      </c>
+      <c r="R4" s="10">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1325,55 +1241,55 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="L5" s="4">
-        <v>-21.1</v>
+        <v>-30.3</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="O5" s="6">
         <v>100</v>
       </c>
-      <c r="P5" s="7">
-        <v>89</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>50</v>
-      </c>
-      <c r="R5" s="10">
+      <c r="P5" s="8">
         <v>100</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>87</v>
+      </c>
+      <c r="R5" s="11">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1381,55 +1297,55 @@
         <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" s="4">
+        <v>-9.1</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L6" s="4">
-        <v>-36.2</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="N6" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="O6" s="6">
         <v>100</v>
       </c>
-      <c r="P6" s="13">
-        <v>86</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>50</v>
+      <c r="P6" s="12">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>99</v>
       </c>
       <c r="R6" s="10">
-        <v>98</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1437,55 +1353,55 @@
         <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="J7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="4">
+        <v>-24.2</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L7" s="4">
-        <v>-15</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="O7" s="6">
-        <v>100</v>
-      </c>
-      <c r="P7" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>58</v>
-      </c>
-      <c r="R7" s="15">
-        <v>5</v>
+        <v>96</v>
+      </c>
+      <c r="P7" s="12">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>87</v>
+      </c>
+      <c r="R7" s="13">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1493,55 +1409,55 @@
         <v>24</v>
       </c>
       <c r="B8" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="L8" s="4">
-        <v>-30.3</v>
+        <v>-18.2</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="O8" s="6">
-        <v>100</v>
-      </c>
-      <c r="P8" s="10">
-        <v>99</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>31</v>
-      </c>
-      <c r="R8" s="17">
-        <v>40</v>
+        <v>96</v>
+      </c>
+      <c r="P8" s="14">
+        <v>95</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>2</v>
+      </c>
+      <c r="R8" s="16">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1549,55 +1465,55 @@
         <v>25</v>
       </c>
       <c r="B9" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="L9" s="4">
-        <v>-9.1</v>
+        <v>-12.1</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="O9" s="6">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="P9" s="8">
-        <v>81</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>63</v>
+        <v>99</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>10</v>
       </c>
       <c r="R9" s="16">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1605,55 +1521,55 @@
         <v>26</v>
       </c>
       <c r="B10" s="2">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="J10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" s="4">
+        <v>-21.2</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L10" s="4">
-        <v>-24.2</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="O10" s="6">
-        <v>91</v>
-      </c>
-      <c r="P10" s="13">
-        <v>87</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>58</v>
-      </c>
-      <c r="R10" s="19">
-        <v>35</v>
+        <v>100</v>
+      </c>
+      <c r="P10" s="8">
+        <v>99</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>90</v>
+      </c>
+      <c r="R10" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1661,226 +1577,114 @@
         <v>27</v>
       </c>
       <c r="B11" s="2">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="L11" s="4">
-        <v>-18.2</v>
+        <v>-15.2</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="O11" s="6">
-        <v>80</v>
-      </c>
-      <c r="P11" s="8">
-        <v>80</v>
-      </c>
-      <c r="Q11" s="20">
-        <v>0</v>
-      </c>
-      <c r="R11" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="2">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L12" s="4">
-        <v>-12.1</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O12" s="6">
-        <v>100</v>
-      </c>
-      <c r="P12" s="10">
-        <v>99</v>
-      </c>
-      <c r="Q12" s="20">
-        <v>0</v>
-      </c>
-      <c r="R12" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="2">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L13" s="4">
-        <v>-21.2</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="O13" s="6">
+        <v>94</v>
+      </c>
+      <c r="P11" s="18">
         <v>69</v>
       </c>
-      <c r="P13" s="18">
-        <v>63</v>
-      </c>
-      <c r="Q13" s="16">
-        <v>28</v>
-      </c>
-      <c r="R13" s="21">
-        <v>9</v>
+      <c r="Q11" s="14">
+        <v>94</v>
+      </c>
+      <c r="R11" s="14">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A13">
+  <conditionalFormatting sqref="A2:A11">
     <cfRule type="expression" dxfId="8" priority="9">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B13">
+  <conditionalFormatting sqref="B2:B11">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C13">
+  <conditionalFormatting sqref="C2:C11">
     <cfRule type="expression" dxfId="9" priority="11">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D13">
+  <conditionalFormatting sqref="D2:D11">
     <cfRule type="expression" dxfId="8" priority="12">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E13">
+  <conditionalFormatting sqref="E2:E11">
     <cfRule type="expression" dxfId="9" priority="13">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F13">
+  <conditionalFormatting sqref="F2:F11">
     <cfRule type="expression" dxfId="9" priority="14">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G13">
+  <conditionalFormatting sqref="G2:G11">
     <cfRule type="expression" dxfId="9" priority="15">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H13">
+  <conditionalFormatting sqref="H2:H11">
     <cfRule type="expression" dxfId="9" priority="16">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I13">
+  <conditionalFormatting sqref="I2:I11">
     <cfRule type="expression" dxfId="8" priority="17">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J13">
+  <conditionalFormatting sqref="J2:J11">
     <cfRule type="expression" dxfId="9" priority="18">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K13">
+  <conditionalFormatting sqref="K2:K11">
     <cfRule type="expression" dxfId="8" priority="19">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L13">
+  <conditionalFormatting sqref="L2:L11">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -1899,12 +1703,12 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M13">
+  <conditionalFormatting sqref="M2:M11">
     <cfRule type="expression" dxfId="9" priority="21">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N13">
+  <conditionalFormatting sqref="N2:N11">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>
@@ -1921,22 +1725,22 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O13">
+  <conditionalFormatting sqref="O2:O11">
     <cfRule type="expression" dxfId="9" priority="23">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P13">
+  <conditionalFormatting sqref="P2:P11">
     <cfRule type="expression" dxfId="9" priority="24">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q13">
+  <conditionalFormatting sqref="Q2:Q11">
     <cfRule type="expression" dxfId="9" priority="25">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R13">
+  <conditionalFormatting sqref="R2:R11">
     <cfRule type="expression" dxfId="9" priority="26">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="106">
   <si>
     <t>Datum</t>
   </si>
@@ -70,12 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>20260129--01</t>
-  </si>
-  <si>
-    <t>20260129--02</t>
-  </si>
-  <si>
     <t>20260130--01</t>
   </si>
   <si>
@@ -100,10 +94,7 @@
     <t>20260204--01</t>
   </si>
   <si>
-    <t>06:26</t>
-  </si>
-  <si>
-    <t>04:43</t>
+    <t>20260205--01</t>
   </si>
   <si>
     <t>06:29</t>
@@ -130,30 +121,24 @@
     <t>03:08</t>
   </si>
   <si>
-    <t>03:27</t>
+    <t>03:57</t>
+  </si>
+  <si>
+    <t>05:13</t>
+  </si>
+  <si>
+    <t>00:39</t>
+  </si>
+  <si>
+    <t>02:36</t>
+  </si>
+  <si>
+    <t>04:35</t>
   </si>
   <si>
     <t>00:00</t>
   </si>
   <si>
-    <t>05:13</t>
-  </si>
-  <si>
-    <t>00:39</t>
-  </si>
-  <si>
-    <t>02:36</t>
-  </si>
-  <si>
-    <t>04:35</t>
-  </si>
-  <si>
-    <t>17:59:22</t>
-  </si>
-  <si>
-    <t>19:37:19</t>
-  </si>
-  <si>
     <t>17:22:10</t>
   </si>
   <si>
@@ -178,10 +163,7 @@
     <t>17:30:50</t>
   </si>
   <si>
-    <t>18:01:39</t>
-  </si>
-  <si>
-    <t>19:40:00</t>
+    <t>16:53:05</t>
   </si>
   <si>
     <t>17:24:27</t>
@@ -208,10 +190,7 @@
     <t>17:34:00</t>
   </si>
   <si>
-    <t>18:04:52</t>
-  </si>
-  <si>
-    <t>19:42:22</t>
+    <t>16:55:59</t>
   </si>
   <si>
     <t>17:27:41</t>
@@ -238,10 +217,7 @@
     <t>17:35:34</t>
   </si>
   <si>
-    <t>18:08:05</t>
-  </si>
-  <si>
-    <t>19:44:43</t>
+    <t>16:57:57</t>
   </si>
   <si>
     <t>17:30:56</t>
@@ -268,10 +244,7 @@
     <t>17:37:08</t>
   </si>
   <si>
-    <t>18:10:22</t>
-  </si>
-  <si>
-    <t>19:47:24</t>
+    <t>16:59:56</t>
   </si>
   <si>
     <t>17:33:12</t>
@@ -298,10 +271,7 @@
     <t>17:40:17</t>
   </si>
   <si>
-    <t>31°</t>
-  </si>
-  <si>
-    <t>5°</t>
+    <t>17:02:50</t>
   </si>
   <si>
     <t>19°</t>
@@ -322,10 +292,7 @@
     <t>1°</t>
   </si>
   <si>
-    <t>18:05:06</t>
-  </si>
-  <si>
-    <t>19:38:44</t>
+    <t>-</t>
   </si>
   <si>
     <t>17:29:40</t>
@@ -355,16 +322,10 @@
     <t>A+B</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>1</t>
@@ -404,7 +365,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,19 +386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6EEF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF3F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,19 +398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF88AED8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8F4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAAC5E3"/>
+        <fgColor rgb="FF77A3D3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,13 +410,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF5E92CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6EEF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF558CC8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5E92CB"/>
+        <fgColor rgb="FF88AED8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99BADE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,7 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCDCEE"/>
+        <fgColor rgb="FF90B4DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -583,9 +538,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -989,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1073,55 +1025,55 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="L2" s="4">
-        <v>-21.1</v>
+        <v>-15</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="O2" s="6">
         <v>100</v>
       </c>
       <c r="P2" s="7">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="8">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="R2" s="8">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1129,55 +1081,55 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="4">
+        <v>-30.3</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="L3" s="4">
-        <v>-36.2</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="O3" s="6">
         <v>100</v>
       </c>
       <c r="P3" s="7">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="8">
-        <v>100</v>
-      </c>
-      <c r="R3" s="8">
-        <v>100</v>
+        <v>46</v>
+      </c>
+      <c r="R3" s="9">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1185,55 +1137,55 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" s="4">
+        <v>-9.1</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L4" s="4">
-        <v>-15</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="O4" s="6">
-        <v>100</v>
-      </c>
-      <c r="P4" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>88</v>
-      </c>
-      <c r="R4" s="10">
-        <v>46</v>
+        <v>99</v>
+      </c>
+      <c r="P4" s="10">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>5</v>
+      </c>
+      <c r="R4" s="8">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1241,55 +1193,55 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L5" s="4">
-        <v>-30.3</v>
+        <v>-24.2</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="O5" s="6">
-        <v>100</v>
-      </c>
-      <c r="P5" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>87</v>
-      </c>
-      <c r="R5" s="11">
-        <v>31</v>
+        <v>94</v>
+      </c>
+      <c r="P5" s="12">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>20</v>
+      </c>
+      <c r="R5" s="8">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1297,55 +1249,55 @@
         <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="L6" s="4">
-        <v>-9.1</v>
+        <v>-18.2</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="O6" s="6">
         <v>100</v>
       </c>
-      <c r="P6" s="12">
-        <v>78</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>99</v>
-      </c>
-      <c r="R6" s="10">
-        <v>45</v>
+      <c r="P6" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0</v>
+      </c>
+      <c r="R6" s="14">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1353,55 +1305,55 @@
         <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L7" s="4">
-        <v>-24.2</v>
+        <v>-12.1</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="O7" s="6">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="P7" s="12">
-        <v>78</v>
-      </c>
-      <c r="Q7" s="7">
         <v>87</v>
       </c>
-      <c r="R7" s="13">
-        <v>48</v>
+      <c r="Q7" s="15">
+        <v>40</v>
+      </c>
+      <c r="R7" s="16">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1409,55 +1361,55 @@
         <v>24</v>
       </c>
       <c r="B8" s="2">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="L8" s="4">
-        <v>-18.2</v>
+        <v>-21.2</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="O8" s="6">
+        <v>98</v>
+      </c>
+      <c r="P8" s="12">
+        <v>85</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>18</v>
+      </c>
+      <c r="R8" s="10">
         <v>96</v>
-      </c>
-      <c r="P8" s="14">
-        <v>95</v>
-      </c>
-      <c r="Q8" s="15">
-        <v>2</v>
-      </c>
-      <c r="R8" s="16">
-        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1465,55 +1417,55 @@
         <v>25</v>
       </c>
       <c r="B9" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="L9" s="4">
-        <v>-12.1</v>
+        <v>-15.2</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="O9" s="6">
         <v>100</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="7">
         <v>99</v>
       </c>
-      <c r="Q9" s="17">
-        <v>10</v>
-      </c>
-      <c r="R9" s="16">
-        <v>6</v>
+      <c r="Q9" s="15">
+        <v>41</v>
+      </c>
+      <c r="R9" s="17">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1521,170 +1473,114 @@
         <v>26</v>
       </c>
       <c r="B10" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="K10" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="L10" s="4">
-        <v>-21.2</v>
+        <v>-8.9</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="O10" s="6">
         <v>100</v>
       </c>
-      <c r="P10" s="8">
-        <v>99</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>90</v>
-      </c>
-      <c r="R10" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="P10" s="12">
         <v>83</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L11" s="4">
-        <v>-15.2</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O11" s="6">
-        <v>94</v>
-      </c>
-      <c r="P11" s="18">
-        <v>69</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>94</v>
-      </c>
-      <c r="R11" s="14">
-        <v>94</v>
+      <c r="Q10" s="15">
+        <v>41</v>
+      </c>
+      <c r="R10" s="8">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A11">
+  <conditionalFormatting sqref="A2:A10">
     <cfRule type="expression" dxfId="8" priority="9">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B11">
+  <conditionalFormatting sqref="B2:B10">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C11">
+  <conditionalFormatting sqref="C2:C10">
     <cfRule type="expression" dxfId="9" priority="11">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D11">
+  <conditionalFormatting sqref="D2:D10">
     <cfRule type="expression" dxfId="8" priority="12">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E11">
+  <conditionalFormatting sqref="E2:E10">
     <cfRule type="expression" dxfId="9" priority="13">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F11">
+  <conditionalFormatting sqref="F2:F10">
     <cfRule type="expression" dxfId="9" priority="14">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G11">
+  <conditionalFormatting sqref="G2:G10">
     <cfRule type="expression" dxfId="9" priority="15">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H11">
+  <conditionalFormatting sqref="H2:H10">
     <cfRule type="expression" dxfId="9" priority="16">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I11">
+  <conditionalFormatting sqref="I2:I10">
     <cfRule type="expression" dxfId="8" priority="17">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J11">
+  <conditionalFormatting sqref="J2:J10">
     <cfRule type="expression" dxfId="9" priority="18">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K11">
+  <conditionalFormatting sqref="K2:K10">
     <cfRule type="expression" dxfId="8" priority="19">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L11">
+  <conditionalFormatting sqref="L2:L10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -1703,12 +1599,12 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M11">
+  <conditionalFormatting sqref="M2:M10">
     <cfRule type="expression" dxfId="9" priority="21">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N11">
+  <conditionalFormatting sqref="N2:N10">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>
@@ -1725,22 +1621,22 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O11">
+  <conditionalFormatting sqref="O2:O10">
     <cfRule type="expression" dxfId="9" priority="23">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P11">
+  <conditionalFormatting sqref="P2:P10">
     <cfRule type="expression" dxfId="9" priority="24">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q11">
+  <conditionalFormatting sqref="Q2:Q10">
     <cfRule type="expression" dxfId="9" priority="25">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R11">
+  <conditionalFormatting sqref="R2:R10">
     <cfRule type="expression" dxfId="9" priority="26">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="86">
   <si>
     <t>Datum</t>
   </si>
@@ -70,12 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>20260130--01</t>
-  </si>
-  <si>
-    <t>20260130--02</t>
-  </si>
-  <si>
     <t>20260131--01</t>
   </si>
   <si>
@@ -97,40 +91,28 @@
     <t>20260205--01</t>
   </si>
   <si>
-    <t>06:29</t>
-  </si>
-  <si>
-    <t>05:08</t>
-  </si>
-  <si>
     <t>06:30</t>
   </si>
   <si>
     <t>05:27</t>
   </si>
   <si>
-    <t>05:43</t>
+    <t>05:42</t>
   </si>
   <si>
     <t>05:55</t>
   </si>
   <si>
-    <t>01:44</t>
-  </si>
-  <si>
-    <t>03:08</t>
-  </si>
-  <si>
-    <t>03:57</t>
-  </si>
-  <si>
-    <t>05:13</t>
-  </si>
-  <si>
-    <t>00:39</t>
-  </si>
-  <si>
-    <t>02:36</t>
+    <t>01:45</t>
+  </si>
+  <si>
+    <t>03:07</t>
+  </si>
+  <si>
+    <t>03:58</t>
+  </si>
+  <si>
+    <t>02:35</t>
   </si>
   <si>
     <t>04:35</t>
@@ -139,40 +121,28 @@
     <t>00:00</t>
   </si>
   <si>
-    <t>17:22:10</t>
-  </si>
-  <si>
-    <t>19:00:04</t>
-  </si>
-  <si>
     <t>16:44:54</t>
   </si>
   <si>
-    <t>18:22:45</t>
-  </si>
-  <si>
-    <t>17:45:22</t>
-  </si>
-  <si>
-    <t>17:07:54</t>
-  </si>
-  <si>
-    <t>18:08:32</t>
-  </si>
-  <si>
-    <t>17:30:50</t>
-  </si>
-  <si>
-    <t>16:53:05</t>
-  </si>
-  <si>
-    <t>17:24:27</t>
-  </si>
-  <si>
-    <t>19:02:39</t>
-  </si>
-  <si>
-    <t>16:47:11</t>
+    <t>18:22:44</t>
+  </si>
+  <si>
+    <t>17:45:21</t>
+  </si>
+  <si>
+    <t>17:07:53</t>
+  </si>
+  <si>
+    <t>18:08:31</t>
+  </si>
+  <si>
+    <t>17:30:49</t>
+  </si>
+  <si>
+    <t>16:53:03</t>
+  </si>
+  <si>
+    <t>16:47:10</t>
   </si>
   <si>
     <t>18:25:15</t>
@@ -181,28 +151,22 @@
     <t>17:47:48</t>
   </si>
   <si>
-    <t>17:10:18</t>
-  </si>
-  <si>
-    <t>18:12:13</t>
-  </si>
-  <si>
-    <t>17:34:00</t>
-  </si>
-  <si>
-    <t>16:55:59</t>
-  </si>
-  <si>
-    <t>17:27:41</t>
-  </si>
-  <si>
-    <t>19:05:13</t>
-  </si>
-  <si>
-    <t>16:50:26</t>
-  </si>
-  <si>
-    <t>18:27:59</t>
+    <t>17:10:17</t>
+  </si>
+  <si>
+    <t>18:12:11</t>
+  </si>
+  <si>
+    <t>17:33:59</t>
+  </si>
+  <si>
+    <t>16:55:57</t>
+  </si>
+  <si>
+    <t>16:50:25</t>
+  </si>
+  <si>
+    <t>18:27:58</t>
   </si>
   <si>
     <t>17:50:39</t>
@@ -211,73 +175,55 @@
     <t>17:13:15</t>
   </si>
   <si>
-    <t>18:13:05</t>
-  </si>
-  <si>
-    <t>17:35:34</t>
-  </si>
-  <si>
-    <t>16:57:57</t>
-  </si>
-  <si>
-    <t>17:30:56</t>
-  </si>
-  <si>
-    <t>19:07:47</t>
-  </si>
-  <si>
-    <t>16:53:41</t>
+    <t>18:13:04</t>
+  </si>
+  <si>
+    <t>17:35:33</t>
+  </si>
+  <si>
+    <t>16:57:56</t>
+  </si>
+  <si>
+    <t>16:53:40</t>
   </si>
   <si>
     <t>18:30:42</t>
   </si>
   <si>
-    <t>17:53:31</t>
-  </si>
-  <si>
-    <t>17:16:13</t>
-  </si>
-  <si>
-    <t>18:13:57</t>
-  </si>
-  <si>
-    <t>17:37:08</t>
-  </si>
-  <si>
-    <t>16:59:56</t>
-  </si>
-  <si>
-    <t>17:33:12</t>
-  </si>
-  <si>
-    <t>19:10:21</t>
-  </si>
-  <si>
-    <t>16:55:57</t>
-  </si>
-  <si>
-    <t>18:33:12</t>
-  </si>
-  <si>
-    <t>17:55:57</t>
-  </si>
-  <si>
-    <t>17:18:36</t>
-  </si>
-  <si>
-    <t>18:17:37</t>
-  </si>
-  <si>
-    <t>17:40:17</t>
-  </si>
-  <si>
-    <t>17:02:50</t>
-  </si>
-  <si>
-    <t>19°</t>
-  </si>
-  <si>
-    <t>13°</t>
+    <t>17:53:30</t>
+  </si>
+  <si>
+    <t>17:16:12</t>
+  </si>
+  <si>
+    <t>18:13:56</t>
+  </si>
+  <si>
+    <t>17:37:06</t>
+  </si>
+  <si>
+    <t>16:59:55</t>
+  </si>
+  <si>
+    <t>16:55:56</t>
+  </si>
+  <si>
+    <t>18:33:11</t>
+  </si>
+  <si>
+    <t>17:55:56</t>
+  </si>
+  <si>
+    <t>17:18:35</t>
+  </si>
+  <si>
+    <t>18:17:36</t>
+  </si>
+  <si>
+    <t>17:40:16</t>
+  </si>
+  <si>
+    <t>17:02:48</t>
   </si>
   <si>
     <t>7°</t>
@@ -295,40 +241,34 @@
     <t>-</t>
   </si>
   <si>
-    <t>17:29:40</t>
-  </si>
-  <si>
-    <t>19:03:18</t>
-  </si>
-  <si>
-    <t>16:54:13</t>
-  </si>
-  <si>
-    <t>18:27:51</t>
+    <t>16:54:12</t>
+  </si>
+  <si>
+    <t>18:27:50</t>
   </si>
   <si>
     <t>17:52:23</t>
   </si>
   <si>
-    <t>17:16:57</t>
-  </si>
-  <si>
-    <t>18:15:12</t>
-  </si>
-  <si>
-    <t>17:39:54</t>
+    <t>17:16:56</t>
+  </si>
+  <si>
+    <t>18:15:11</t>
+  </si>
+  <si>
+    <t>17:39:53</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>A+B</t>
   </si>
   <si>
-    <t>A</t>
+    <t>1</t>
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>4</t>
@@ -365,7 +305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,7 +326,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFF6F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99BADE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF77A3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF3F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D7EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAC5E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2CBE6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,55 +374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF77A3D3"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6F9FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5E92CB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6EEF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF558CC8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF88AED8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99BADE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6697CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF90B4DB"/>
+        <fgColor rgb="FFDDE8F4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -535,9 +469,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -941,7 +872,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1025,55 +956,55 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="4">
+        <v>-9.1</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="6">
+        <v>98</v>
+      </c>
+      <c r="P2" s="7">
+        <v>93</v>
+      </c>
+      <c r="Q2" s="8">
         <v>41</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L2" s="4">
-        <v>-15</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O2" s="6">
-        <v>100</v>
-      </c>
-      <c r="P2" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>46</v>
-      </c>
-      <c r="R2" s="8">
-        <v>45</v>
+      <c r="R2" s="9">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1081,55 +1012,55 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="L3" s="4">
-        <v>-30.3</v>
+        <v>-24.2</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="O3" s="6">
-        <v>100</v>
-      </c>
-      <c r="P3" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>46</v>
-      </c>
-      <c r="R3" s="9">
-        <v>20</v>
+        <v>96</v>
+      </c>
+      <c r="P3" s="10">
+        <v>90</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>64</v>
+      </c>
+      <c r="R3" s="12">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1137,55 +1068,55 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="L4" s="4">
-        <v>-9.1</v>
+        <v>-18.2</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="O4" s="6">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="P4" s="10">
-        <v>94</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>5</v>
-      </c>
-      <c r="R4" s="8">
-        <v>43</v>
+        <v>89</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>40</v>
+      </c>
+      <c r="R4" s="9">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1193,55 +1124,55 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="L5" s="4">
-        <v>-24.2</v>
+        <v>-12.1</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="O5" s="6">
-        <v>94</v>
-      </c>
-      <c r="P5" s="12">
-        <v>86</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>20</v>
-      </c>
-      <c r="R5" s="8">
-        <v>43</v>
+        <v>98</v>
+      </c>
+      <c r="P5" s="7">
+        <v>97</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>55</v>
+      </c>
+      <c r="R5" s="14">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1249,55 +1180,55 @@
         <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="4">
+        <v>-21.2</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L6" s="4">
-        <v>-18.2</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="N6" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="O6" s="6">
         <v>100</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="15">
+        <v>98</v>
+      </c>
+      <c r="Q6" s="15">
         <v>100</v>
       </c>
-      <c r="Q6" s="13">
-        <v>0</v>
-      </c>
-      <c r="R6" s="14">
-        <v>30</v>
+      <c r="R6" s="10">
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1305,55 +1236,55 @@
         <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="L7" s="4">
-        <v>-12.1</v>
+        <v>-15.2</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="O7" s="6">
-        <v>87</v>
-      </c>
-      <c r="P7" s="12">
-        <v>87</v>
+        <v>100</v>
+      </c>
+      <c r="P7" s="15">
+        <v>100</v>
       </c>
       <c r="Q7" s="15">
-        <v>40</v>
-      </c>
-      <c r="R7" s="16">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="R7" s="15">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1361,226 +1292,114 @@
         <v>24</v>
       </c>
       <c r="B8" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="K8" s="1" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="L8" s="4">
-        <v>-21.2</v>
+        <v>-8.9</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="O8" s="6">
-        <v>98</v>
-      </c>
-      <c r="P8" s="12">
-        <v>85</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>18</v>
-      </c>
-      <c r="R8" s="10">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K9" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L9" s="4">
-        <v>-15.2</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="O9" s="6">
-        <v>100</v>
-      </c>
-      <c r="P9" s="7">
-        <v>99</v>
-      </c>
-      <c r="Q9" s="15">
-        <v>41</v>
-      </c>
-      <c r="R9" s="17">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="P8" s="7">
+        <v>94</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>80</v>
+      </c>
+      <c r="R8" s="11">
         <v>67</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L10" s="4">
-        <v>-8.9</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="O10" s="6">
-        <v>100</v>
-      </c>
-      <c r="P10" s="12">
-        <v>83</v>
-      </c>
-      <c r="Q10" s="15">
-        <v>41</v>
-      </c>
-      <c r="R10" s="8">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A10">
+  <conditionalFormatting sqref="A2:A8">
     <cfRule type="expression" dxfId="8" priority="9">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B10">
+  <conditionalFormatting sqref="B2:B8">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C10">
+  <conditionalFormatting sqref="C2:C8">
     <cfRule type="expression" dxfId="9" priority="11">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D10">
+  <conditionalFormatting sqref="D2:D8">
     <cfRule type="expression" dxfId="8" priority="12">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E10">
+  <conditionalFormatting sqref="E2:E8">
     <cfRule type="expression" dxfId="9" priority="13">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F10">
+  <conditionalFormatting sqref="F2:F8">
     <cfRule type="expression" dxfId="9" priority="14">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G10">
+  <conditionalFormatting sqref="G2:G8">
     <cfRule type="expression" dxfId="9" priority="15">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H10">
+  <conditionalFormatting sqref="H2:H8">
     <cfRule type="expression" dxfId="9" priority="16">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I10">
+  <conditionalFormatting sqref="I2:I8">
     <cfRule type="expression" dxfId="8" priority="17">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J10">
+  <conditionalFormatting sqref="J2:J8">
     <cfRule type="expression" dxfId="9" priority="18">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K10">
+  <conditionalFormatting sqref="K2:K8">
     <cfRule type="expression" dxfId="8" priority="19">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L10">
+  <conditionalFormatting sqref="L2:L8">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -1599,12 +1418,12 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M10">
+  <conditionalFormatting sqref="M2:M8">
     <cfRule type="expression" dxfId="9" priority="21">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N10">
+  <conditionalFormatting sqref="N2:N8">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>
@@ -1621,22 +1440,22 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O10">
+  <conditionalFormatting sqref="O2:O8">
     <cfRule type="expression" dxfId="9" priority="23">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P10">
+  <conditionalFormatting sqref="P2:P8">
     <cfRule type="expression" dxfId="9" priority="24">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q10">
+  <conditionalFormatting sqref="Q2:Q8">
     <cfRule type="expression" dxfId="9" priority="25">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R10">
+  <conditionalFormatting sqref="R2:R8">
     <cfRule type="expression" dxfId="9" priority="26">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
   <si>
     <t>Datum</t>
   </si>
@@ -70,12 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>20260131--01</t>
-  </si>
-  <si>
-    <t>20260131--02</t>
-  </si>
-  <si>
     <t>20260201--01</t>
   </si>
   <si>
@@ -91,28 +85,19 @@
     <t>20260205--01</t>
   </si>
   <si>
-    <t>06:30</t>
-  </si>
-  <si>
-    <t>05:27</t>
-  </si>
-  <si>
-    <t>05:42</t>
+    <t>05:43</t>
   </si>
   <si>
     <t>05:55</t>
   </si>
   <si>
-    <t>01:45</t>
+    <t>01:43</t>
   </si>
   <si>
     <t>03:07</t>
   </si>
   <si>
-    <t>03:58</t>
-  </si>
-  <si>
-    <t>02:35</t>
+    <t>03:57</t>
   </si>
   <si>
     <t>04:35</t>
@@ -121,151 +106,109 @@
     <t>00:00</t>
   </si>
   <si>
-    <t>16:44:54</t>
-  </si>
-  <si>
-    <t>18:22:44</t>
-  </si>
-  <si>
-    <t>17:45:21</t>
-  </si>
-  <si>
-    <t>17:07:53</t>
-  </si>
-  <si>
-    <t>18:08:31</t>
-  </si>
-  <si>
-    <t>17:30:49</t>
-  </si>
-  <si>
-    <t>16:53:03</t>
-  </si>
-  <si>
-    <t>16:47:10</t>
-  </si>
-  <si>
-    <t>18:25:15</t>
-  </si>
-  <si>
-    <t>17:47:48</t>
-  </si>
-  <si>
-    <t>17:10:17</t>
-  </si>
-  <si>
-    <t>18:12:11</t>
-  </si>
-  <si>
-    <t>17:33:59</t>
-  </si>
-  <si>
-    <t>16:55:57</t>
-  </si>
-  <si>
-    <t>16:50:25</t>
-  </si>
-  <si>
-    <t>18:27:58</t>
-  </si>
-  <si>
-    <t>17:50:39</t>
-  </si>
-  <si>
-    <t>17:13:15</t>
-  </si>
-  <si>
-    <t>18:13:04</t>
-  </si>
-  <si>
-    <t>17:35:33</t>
-  </si>
-  <si>
-    <t>16:57:56</t>
-  </si>
-  <si>
-    <t>16:53:40</t>
-  </si>
-  <si>
-    <t>18:30:42</t>
-  </si>
-  <si>
-    <t>17:53:30</t>
-  </si>
-  <si>
-    <t>17:16:12</t>
-  </si>
-  <si>
-    <t>18:13:56</t>
-  </si>
-  <si>
-    <t>17:37:06</t>
-  </si>
-  <si>
-    <t>16:59:55</t>
-  </si>
-  <si>
-    <t>16:55:56</t>
-  </si>
-  <si>
-    <t>18:33:11</t>
-  </si>
-  <si>
-    <t>17:55:56</t>
-  </si>
-  <si>
-    <t>17:18:35</t>
-  </si>
-  <si>
-    <t>18:17:36</t>
-  </si>
-  <si>
-    <t>17:40:16</t>
-  </si>
-  <si>
-    <t>17:02:48</t>
+    <t>17:45:25</t>
+  </si>
+  <si>
+    <t>17:08:02</t>
+  </si>
+  <si>
+    <t>18:08:46</t>
+  </si>
+  <si>
+    <t>17:31:12</t>
+  </si>
+  <si>
+    <t>16:53:36</t>
+  </si>
+  <si>
+    <t>17:47:52</t>
+  </si>
+  <si>
+    <t>17:10:26</t>
+  </si>
+  <si>
+    <t>18:12:28</t>
+  </si>
+  <si>
+    <t>17:34:22</t>
+  </si>
+  <si>
+    <t>16:56:30</t>
+  </si>
+  <si>
+    <t>17:50:44</t>
+  </si>
+  <si>
+    <t>17:13:24</t>
+  </si>
+  <si>
+    <t>18:13:19</t>
+  </si>
+  <si>
+    <t>17:35:56</t>
+  </si>
+  <si>
+    <t>16:58:29</t>
+  </si>
+  <si>
+    <t>17:53:35</t>
+  </si>
+  <si>
+    <t>17:16:21</t>
+  </si>
+  <si>
+    <t>18:14:11</t>
+  </si>
+  <si>
+    <t>17:37:29</t>
+  </si>
+  <si>
+    <t>17:00:27</t>
+  </si>
+  <si>
+    <t>17:56:01</t>
+  </si>
+  <si>
+    <t>17:18:45</t>
+  </si>
+  <si>
+    <t>18:17:52</t>
+  </si>
+  <si>
+    <t>17:40:39</t>
+  </si>
+  <si>
+    <t>17:03:21</t>
+  </si>
+  <si>
+    <t>16°</t>
   </si>
   <si>
     <t>7°</t>
   </si>
   <si>
-    <t>21°</t>
-  </si>
-  <si>
-    <t>16°</t>
-  </si>
-  <si>
     <t>1°</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>16:54:12</t>
-  </si>
-  <si>
-    <t>18:27:50</t>
-  </si>
-  <si>
-    <t>17:52:23</t>
-  </si>
-  <si>
-    <t>17:16:56</t>
-  </si>
-  <si>
-    <t>18:15:11</t>
-  </si>
-  <si>
-    <t>17:39:53</t>
+    <t>17:52:27</t>
+  </si>
+  <si>
+    <t>17:17:05</t>
+  </si>
+  <si>
+    <t>18:15:26</t>
+  </si>
+  <si>
+    <t>17:40:15</t>
+  </si>
+  <si>
+    <t>A+B</t>
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>A+B</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>2</t>
@@ -305,7 +248,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,25 +269,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6F9FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99BADE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF77A3D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF3F9"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,31 +281,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAAC5E3"/>
+        <fgColor rgb="FFD4E2F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB2CBE6"/>
+        <fgColor rgb="FFF6F9FC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA2C0E1"/>
+        <fgColor rgb="FFBBD1E9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8F4"/>
+        <fgColor rgb="FFE6EEF7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -457,18 +376,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -872,7 +779,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -956,55 +863,55 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="4">
+        <v>-18.2</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" s="4">
-        <v>-9.1</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="O2" s="6">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P2" s="7">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Q2" s="8">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="R2" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1012,55 +919,55 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="4">
+        <v>-12.1</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" s="4">
-        <v>-24.2</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="O3" s="6">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P3" s="10">
-        <v>90</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>64</v>
-      </c>
-      <c r="R3" s="12">
-        <v>48</v>
+        <v>97</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>99</v>
+      </c>
+      <c r="R3" s="11">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1068,55 +975,55 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="4">
+        <v>-21.3</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="6">
+        <v>99</v>
+      </c>
+      <c r="P4" s="10">
+        <v>97</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>93</v>
+      </c>
+      <c r="R4" s="9">
         <v>77</v>
-      </c>
-      <c r="L4" s="4">
-        <v>-18.2</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O4" s="6">
-        <v>93</v>
-      </c>
-      <c r="P4" s="10">
-        <v>89</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>40</v>
-      </c>
-      <c r="R4" s="9">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1124,55 +1031,55 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="4">
+        <v>-15.2</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" s="4">
-        <v>-12.1</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="O5" s="6">
+        <v>100</v>
+      </c>
+      <c r="P5" s="7">
         <v>98</v>
       </c>
-      <c r="P5" s="7">
-        <v>97</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>55</v>
-      </c>
-      <c r="R5" s="14">
-        <v>45</v>
+      <c r="Q5" s="10">
+        <v>96</v>
+      </c>
+      <c r="R5" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1180,226 +1087,114 @@
         <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="L6" s="4">
-        <v>-21.2</v>
+        <v>-9</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="O6" s="6">
         <v>100</v>
       </c>
-      <c r="P6" s="15">
-        <v>98</v>
-      </c>
-      <c r="Q6" s="15">
+      <c r="P6" s="10">
+        <v>96</v>
+      </c>
+      <c r="Q6" s="7">
         <v>100</v>
       </c>
-      <c r="R6" s="10">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" s="4">
-        <v>-15.2</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N7" s="1" t="s">
+      <c r="R6" s="12">
         <v>85</v>
-      </c>
-      <c r="O7" s="6">
-        <v>100</v>
-      </c>
-      <c r="P7" s="15">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="15">
-        <v>100</v>
-      </c>
-      <c r="R7" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8" s="4">
-        <v>-8.9</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O8" s="6">
-        <v>100</v>
-      </c>
-      <c r="P8" s="7">
-        <v>94</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>80</v>
-      </c>
-      <c r="R8" s="11">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A8">
+  <conditionalFormatting sqref="A2:A6">
     <cfRule type="expression" dxfId="8" priority="9">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B8">
+  <conditionalFormatting sqref="B2:B6">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C8">
+  <conditionalFormatting sqref="C2:C6">
     <cfRule type="expression" dxfId="9" priority="11">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D8">
+  <conditionalFormatting sqref="D2:D6">
     <cfRule type="expression" dxfId="8" priority="12">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E8">
+  <conditionalFormatting sqref="E2:E6">
     <cfRule type="expression" dxfId="9" priority="13">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8">
+  <conditionalFormatting sqref="F2:F6">
     <cfRule type="expression" dxfId="9" priority="14">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G8">
+  <conditionalFormatting sqref="G2:G6">
     <cfRule type="expression" dxfId="9" priority="15">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H8">
+  <conditionalFormatting sqref="H2:H6">
     <cfRule type="expression" dxfId="9" priority="16">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I8">
+  <conditionalFormatting sqref="I2:I6">
     <cfRule type="expression" dxfId="8" priority="17">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J8">
+  <conditionalFormatting sqref="J2:J6">
     <cfRule type="expression" dxfId="9" priority="18">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K8">
+  <conditionalFormatting sqref="K2:K6">
     <cfRule type="expression" dxfId="8" priority="19">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L8">
+  <conditionalFormatting sqref="L2:L6">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -1418,12 +1213,12 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M8">
+  <conditionalFormatting sqref="M2:M6">
     <cfRule type="expression" dxfId="9" priority="21">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N8">
+  <conditionalFormatting sqref="N2:N6">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>
@@ -1440,22 +1235,22 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O8">
+  <conditionalFormatting sqref="O2:O6">
     <cfRule type="expression" dxfId="9" priority="23">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P8">
+  <conditionalFormatting sqref="P2:P6">
     <cfRule type="expression" dxfId="9" priority="24">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q8">
+  <conditionalFormatting sqref="Q2:Q6">
     <cfRule type="expression" dxfId="9" priority="25">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R8">
+  <conditionalFormatting sqref="R2:R6">
     <cfRule type="expression" dxfId="9" priority="26">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>Datum</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>20260201--01</t>
-  </si>
-  <si>
     <t>20260202--01</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>20260205--01</t>
   </si>
   <si>
-    <t>05:43</t>
-  </si>
-  <si>
     <t>05:55</t>
   </si>
   <si>
@@ -100,88 +94,67 @@
     <t>03:57</t>
   </si>
   <si>
-    <t>04:35</t>
-  </si>
-  <si>
     <t>00:00</t>
   </si>
   <si>
-    <t>17:45:25</t>
-  </si>
-  <si>
-    <t>17:08:02</t>
-  </si>
-  <si>
-    <t>18:08:46</t>
-  </si>
-  <si>
-    <t>17:31:12</t>
-  </si>
-  <si>
-    <t>16:53:36</t>
-  </si>
-  <si>
-    <t>17:47:52</t>
-  </si>
-  <si>
-    <t>17:10:26</t>
-  </si>
-  <si>
-    <t>18:12:28</t>
-  </si>
-  <si>
-    <t>17:34:22</t>
-  </si>
-  <si>
-    <t>16:56:30</t>
-  </si>
-  <si>
-    <t>17:50:44</t>
-  </si>
-  <si>
-    <t>17:13:24</t>
-  </si>
-  <si>
-    <t>18:13:19</t>
-  </si>
-  <si>
-    <t>17:35:56</t>
-  </si>
-  <si>
-    <t>16:58:29</t>
-  </si>
-  <si>
-    <t>17:53:35</t>
-  </si>
-  <si>
-    <t>17:16:21</t>
-  </si>
-  <si>
-    <t>18:14:11</t>
-  </si>
-  <si>
-    <t>17:37:29</t>
-  </si>
-  <si>
-    <t>17:00:27</t>
-  </si>
-  <si>
-    <t>17:56:01</t>
-  </si>
-  <si>
-    <t>17:18:45</t>
-  </si>
-  <si>
-    <t>18:17:52</t>
-  </si>
-  <si>
-    <t>17:40:39</t>
-  </si>
-  <si>
-    <t>17:03:21</t>
-  </si>
-  <si>
-    <t>16°</t>
+    <t>17:08:01</t>
+  </si>
+  <si>
+    <t>18:08:44</t>
+  </si>
+  <si>
+    <t>17:31:09</t>
+  </si>
+  <si>
+    <t>16:53:33</t>
+  </si>
+  <si>
+    <t>17:10:25</t>
+  </si>
+  <si>
+    <t>18:12:26</t>
+  </si>
+  <si>
+    <t>17:34:20</t>
+  </si>
+  <si>
+    <t>16:56:27</t>
+  </si>
+  <si>
+    <t>17:13:23</t>
+  </si>
+  <si>
+    <t>18:13:18</t>
+  </si>
+  <si>
+    <t>17:35:53</t>
+  </si>
+  <si>
+    <t>16:58:26</t>
+  </si>
+  <si>
+    <t>17:16:20</t>
+  </si>
+  <si>
+    <t>18:14:09</t>
+  </si>
+  <si>
+    <t>17:37:27</t>
+  </si>
+  <si>
+    <t>17:00:24</t>
+  </si>
+  <si>
+    <t>17:18:43</t>
+  </si>
+  <si>
+    <t>18:17:50</t>
+  </si>
+  <si>
+    <t>17:40:36</t>
+  </si>
+  <si>
+    <t>17:03:17</t>
   </si>
   <si>
     <t>7°</t>
@@ -193,22 +166,19 @@
     <t>-</t>
   </si>
   <si>
-    <t>17:52:27</t>
-  </si>
-  <si>
-    <t>17:17:05</t>
-  </si>
-  <si>
-    <t>18:15:26</t>
-  </si>
-  <si>
-    <t>17:40:15</t>
+    <t>17:17:04</t>
+  </si>
+  <si>
+    <t>18:15:24</t>
+  </si>
+  <si>
+    <t>17:40:13</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>A+B</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>2</t>
@@ -248,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,13 +245,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC4D7EC"/>
+        <fgColor rgb="FF558CC8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD4E2F1"/>
+        <fgColor rgb="FF5E92CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2CBE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF3F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8F4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,13 +281,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBBD1E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6EEF7"/>
+        <fgColor rgb="FF90B4DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -376,6 +358,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -779,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -863,55 +851,55 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="4">
+        <v>-12.1</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="4">
-        <v>-18.2</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="O2" s="6">
         <v>100</v>
       </c>
       <c r="P2" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="8">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="R2" s="9">
-        <v>77</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -919,55 +907,55 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="4">
+        <v>-21.3</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" s="4">
-        <v>-12.1</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="O3" s="6">
         <v>100</v>
       </c>
-      <c r="P3" s="10">
-        <v>97</v>
+      <c r="P3" s="7">
+        <v>100</v>
       </c>
       <c r="Q3" s="7">
-        <v>99</v>
-      </c>
-      <c r="R3" s="11">
-        <v>58</v>
+        <v>100</v>
+      </c>
+      <c r="R3" s="10">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -975,55 +963,55 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="4">
+        <v>-15.2</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" s="4">
-        <v>-21.3</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="O4" s="6">
-        <v>99</v>
-      </c>
-      <c r="P4" s="10">
-        <v>97</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>93</v>
-      </c>
-      <c r="R4" s="9">
-        <v>77</v>
+        <v>92</v>
+      </c>
+      <c r="P4" s="11">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>0</v>
+      </c>
+      <c r="R4" s="12">
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1031,170 +1019,114 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="L5" s="4">
-        <v>-15.2</v>
+        <v>-9</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="O5" s="6">
-        <v>100</v>
-      </c>
-      <c r="P5" s="7">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="P5" s="13">
+        <v>93</v>
       </c>
       <c r="Q5" s="10">
-        <v>96</v>
-      </c>
-      <c r="R5" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" s="14">
         <v>34</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" s="4">
-        <v>-9</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6" s="6">
-        <v>100</v>
-      </c>
-      <c r="P6" s="10">
-        <v>96</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>100</v>
-      </c>
-      <c r="R6" s="12">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A6">
+  <conditionalFormatting sqref="A2:A5">
     <cfRule type="expression" dxfId="8" priority="9">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B6">
+  <conditionalFormatting sqref="B2:B5">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C6">
+  <conditionalFormatting sqref="C2:C5">
     <cfRule type="expression" dxfId="9" priority="11">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D6">
+  <conditionalFormatting sqref="D2:D5">
     <cfRule type="expression" dxfId="8" priority="12">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E5">
     <cfRule type="expression" dxfId="9" priority="13">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F6">
+  <conditionalFormatting sqref="F2:F5">
     <cfRule type="expression" dxfId="9" priority="14">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G6">
+  <conditionalFormatting sqref="G2:G5">
     <cfRule type="expression" dxfId="9" priority="15">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H6">
+  <conditionalFormatting sqref="H2:H5">
     <cfRule type="expression" dxfId="9" priority="16">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I6">
+  <conditionalFormatting sqref="I2:I5">
     <cfRule type="expression" dxfId="8" priority="17">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J6">
+  <conditionalFormatting sqref="J2:J5">
     <cfRule type="expression" dxfId="9" priority="18">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K6">
+  <conditionalFormatting sqref="K2:K5">
     <cfRule type="expression" dxfId="8" priority="19">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L6">
+  <conditionalFormatting sqref="L2:L5">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-18</formula>
     </cfRule>
@@ -1213,12 +1145,12 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M6">
+  <conditionalFormatting sqref="M2:M5">
     <cfRule type="expression" dxfId="9" priority="21">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N6">
+  <conditionalFormatting sqref="N2:N5">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"1"</formula>
     </cfRule>
@@ -1235,22 +1167,22 @@
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O6">
+  <conditionalFormatting sqref="O2:O5">
     <cfRule type="expression" dxfId="9" priority="23">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P6">
+  <conditionalFormatting sqref="P2:P5">
     <cfRule type="expression" dxfId="9" priority="24">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q6">
+  <conditionalFormatting sqref="Q2:Q5">
     <cfRule type="expression" dxfId="9" priority="25">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R6">
+  <conditionalFormatting sqref="R2:R5">
     <cfRule type="expression" dxfId="9" priority="26">
       <formula>RIGHT($A2,4)="--01"</formula>
     </cfRule>

--- a/Prelety.xlsx
+++ b/Prelety.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>Datum</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Vysoká</t>
   </si>
   <si>
-    <t>20260202--01</t>
-  </si>
-  <si>
     <t>20260203--01</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>20260205--01</t>
   </si>
   <si>
-    <t>05:55</t>
-  </si>
-  <si>
     <t>01:43</t>
   </si>
   <si>
@@ -97,21 +91,15 @@
     <t>00:00</t>
   </si>
   <si>
-    <t>17:08:01</t>
-  </si>
-  <si>
     <t>18:08:44</t>
   </si>
   <si>
-    <t>17:31:09</t>
+    <t>17:31:10</t>
   </si>
   <si>
     <t>16:53:33</t>
   </si>
   <si>
-    <t>17:10:25</t>
-  </si>
-  <si>
     <t>18:12:26</t>
   </si>
   <si>
@@ -121,10 +109,7 @@
     <t>16:56:27</t>
   </si>
   <si>
-    <t>17:13:23</t>
-  </si>
-  <si>
-    <t>18:13:18</t>
+    <t>18:13:17</t>
   </si>
   <si>
     <t>17:35:53</t>
@@ -133,9 +118,6 @@
     <t>16:58:26</t>
   </si>
   <si>
-    <t>17:16:20</t>
-  </si>
-  <si>
     <t>18:14:09</t>
   </si>
   <si>
@@ -145,16 +127,13 @@
     <t>17:00:24</t>
   </si>
   <si>
-    <t>17:18:43</t>
-  </si>
-  <si>
     <t>18:17:50</t>
   </si>
   <si>
     <t>17:40:36</t>
   </si>
   <si>
-    <t>17:03:17</t>
+    <t>17:03:18</t>
   </si>
   <si>
     <t>7°</t>
@@ -166,9 +145,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>17:17:04</t>
-  </si>
-  <si>
     <t>18:15:24</t>
   </si>
   <si>
@@ -179,9 +155,6 @@
   </si>
   <si>
     <t>A+B</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>4</t>
@@ -218,7 +191,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,19 +218,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF558CC8"/>
+        <fgColor rgb="FFC4D7EC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5E92CB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB2CBE6"/>
+        <fgColor rgb="FFBBD1E9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,19 +236,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8F4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6F9FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF90B4DB"/>
+        <fgColor rgb="FFD4E2F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,15 +310,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -767,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -851,55 +797,55 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="4">
+        <v>-21.3</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="4">
-        <v>-12.1</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="O2" s="6">
         <v>100</v>
       </c>
       <c r="P2" s="7">
+        <v>99</v>
+      </c>
+      <c r="Q2" s="7">
         <v>100</v>
       </c>
-      <c r="Q2" s="8">
-        <v>0</v>
-      </c>
-      <c r="R2" s="9">
-        <v>4</v>
+      <c r="R2" s="8">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -907,43 +853,43 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="4">
+        <v>-15.2</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="K3" s="1" t="s">
-  